--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1280" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C1C2E50E-1E74-411E-9EEE-558607B14A1C}"/>
+  <xr:revisionPtr revIDLastSave="1295" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DDC26A5F-EB1F-4CE9-904B-45CFD087DA60}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="315">
   <si>
     <t>component</t>
   </si>
@@ -987,6 +987,9 @@
   </si>
   <si>
     <t>upper</t>
+  </si>
+  <si>
+    <t>replacement_failed</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1356,28 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2243,7 +2267,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O13:O15 O17:O18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2711,10 +2735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
-  <dimension ref="A1:BB33"/>
+  <dimension ref="A1:BB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AN25" sqref="AN25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3149,7 +3173,9 @@
       <c r="AR5" s="18"/>
       <c r="AS5" s="50"/>
       <c r="AT5" s="18"/>
-      <c r="AU5" s="18"/>
+      <c r="AU5" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="AV5" s="18"/>
       <c r="AW5" s="50"/>
       <c r="AX5" s="18"/>
@@ -3282,10 +3308,18 @@
         <v>0</v>
       </c>
       <c r="AW7" s="50"/>
-      <c r="AX7" s="18"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="18"/>
-      <c r="BA7" s="18"/>
+      <c r="AX7" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA7" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="BB7" s="47"/>
     </row>
     <row r="8" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -3518,205 +3552,216 @@
       <c r="AW14" s="50"/>
       <c r="BB14" s="47"/>
     </row>
-    <row r="15" spans="1:54" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="AI15" s="57"/>
-      <c r="AJ15" s="57"/>
-      <c r="AK15" s="57"/>
-      <c r="AL15" s="57"/>
-      <c r="AM15" s="57"/>
-      <c r="AN15" s="57"/>
-      <c r="AO15" s="57"/>
-      <c r="AQ15" s="58"/>
-      <c r="AR15" s="58"/>
-      <c r="AS15" s="58"/>
-      <c r="AT15" s="57"/>
-      <c r="AU15" s="57"/>
-      <c r="AV15" s="57"/>
-      <c r="AW15" s="57"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="56"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="50"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="50"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="50"/>
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="53"/>
+      <c r="AS15" s="53"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="50"/>
+      <c r="AV15" s="50"/>
+      <c r="AW15" s="50"/>
     </row>
     <row r="16" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E16" s="56"/>
       <c r="J16" s="56"/>
-      <c r="K16" s="15" t="s">
-        <v>82</v>
-      </c>
       <c r="R16" s="56"/>
       <c r="T16" s="56"/>
       <c r="U16" s="15" t="s">
-        <v>71</v>
+        <v>314</v>
       </c>
       <c r="V16" s="15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W16" s="15">
-        <v>50</v>
+        <v>7000</v>
       </c>
       <c r="X16" s="15" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="Y16" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z16" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="AB16" s="15">
+        <v>311</v>
+      </c>
+      <c r="AA16" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="50"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="53"/>
+      <c r="AT16" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="50"/>
+      <c r="AX16" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY16" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AC16" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE16" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF16" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG16" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH16" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI16" s="50"/>
-      <c r="AJ16" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="18"/>
-      <c r="AM16" s="18"/>
-      <c r="AN16" s="18"/>
-      <c r="AO16" s="50"/>
-      <c r="AQ16" s="18"/>
-      <c r="AR16" s="18"/>
-      <c r="AS16" s="50"/>
-      <c r="AT16" s="16"/>
-      <c r="AU16" s="18"/>
-      <c r="AV16" s="18"/>
-      <c r="AW16" s="50"/>
-      <c r="AX16" s="18"/>
-      <c r="AY16" s="18"/>
-      <c r="AZ16" s="18"/>
-      <c r="BA16" s="18"/>
       <c r="BB16" s="47"/>
     </row>
-    <row r="17" spans="3:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="V17" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="W17" s="15">
-        <v>100</v>
-      </c>
-      <c r="X17" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y17" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z17" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="AI17" s="50"/>
-      <c r="AJ17" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="16"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ17" s="19">
-        <v>50</v>
-      </c>
-      <c r="AR17" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS17" s="53"/>
-      <c r="AT17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="50"/>
-      <c r="AX17" s="18"/>
-      <c r="AY17" s="18"/>
-      <c r="AZ17" s="18"/>
-      <c r="BA17" s="18"/>
-      <c r="BB17" s="47"/>
-    </row>
-    <row r="18" spans="3:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="AI17" s="57"/>
+      <c r="AJ17" s="57"/>
+      <c r="AK17" s="57"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="57"/>
+      <c r="AN17" s="57"/>
+      <c r="AO17" s="57"/>
+      <c r="AQ17" s="58"/>
+      <c r="AR17" s="58"/>
+      <c r="AS17" s="58"/>
+      <c r="AT17" s="57"/>
+      <c r="AU17" s="57"/>
+      <c r="AV17" s="57"/>
+      <c r="AW17" s="57"/>
+    </row>
+    <row r="18" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E18" s="56"/>
       <c r="J18" s="56"/>
+      <c r="K18" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="R18" s="56"/>
       <c r="T18" s="56"/>
+      <c r="U18" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="V18" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="W18" s="15">
+        <v>50</v>
+      </c>
+      <c r="X18" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y18" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z18" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB18" s="15">
+        <v>20</v>
+      </c>
+      <c r="AC18" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF18" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG18" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH18" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="AI18" s="50"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
-      <c r="AN18" s="16"/>
+      <c r="AJ18" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
       <c r="AO18" s="50"/>
-      <c r="AP18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ18" s="19">
-        <v>50</v>
-      </c>
-      <c r="AR18" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS18" s="53"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="18"/>
+      <c r="AS18" s="50"/>
       <c r="AT18" s="16"/>
-      <c r="AU18" s="16"/>
-      <c r="AV18" s="16"/>
+      <c r="AU18" s="18"/>
+      <c r="AV18" s="18"/>
       <c r="AW18" s="50"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="18"/>
+      <c r="BA18" s="18"/>
       <c r="BB18" s="47"/>
     </row>
-    <row r="19" spans="3:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E19" s="56"/>
       <c r="J19" s="56"/>
       <c r="R19" s="56"/>
       <c r="T19" s="56"/>
       <c r="U19" s="15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V19" s="15">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="W19" s="15">
-        <v>3500</v>
+        <v>100</v>
       </c>
       <c r="X19" s="15" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Y19" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z19" s="15" t="s">
         <v>311</v>
@@ -3738,10 +3783,10 @@
         <v>21</v>
       </c>
       <c r="AQ19" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="19">
         <v>50</v>
+      </c>
+      <c r="AR19" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="AS19" s="53"/>
       <c r="AT19" s="16" t="b">
@@ -3754,23 +3799,32 @@
         <v>0</v>
       </c>
       <c r="AW19" s="50"/>
+      <c r="AX19" s="18"/>
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="18"/>
+      <c r="BA19" s="18"/>
       <c r="BB19" s="47"/>
     </row>
-    <row r="20" spans="3:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E20" s="56"/>
       <c r="J20" s="56"/>
       <c r="R20" s="56"/>
       <c r="T20" s="56"/>
-      <c r="AI20" s="47"/>
-      <c r="AO20" s="47"/>
+      <c r="AI20" s="50"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="50"/>
       <c r="AP20" s="15" t="s">
         <v>45</v>
       </c>
       <c r="AQ20" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="19">
         <v>50</v>
+      </c>
+      <c r="AR20" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="AS20" s="53"/>
       <c r="AT20" s="16"/>
@@ -3779,216 +3833,198 @@
       <c r="AW20" s="50"/>
       <c r="BB20" s="47"/>
     </row>
-    <row r="21" spans="3:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21" s="60"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21" s="60"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21" s="60"/>
-      <c r="S21"/>
-      <c r="T21" s="60"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-      <c r="AE21"/>
-      <c r="AF21"/>
-      <c r="AG21"/>
-      <c r="AH21"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
-      <c r="AO21" s="51"/>
+    <row r="21" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="V21" s="15">
+        <v>1</v>
+      </c>
+      <c r="W21" s="15">
+        <v>3500</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z21" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI21" s="50"/>
+      <c r="AJ21" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="16"/>
+      <c r="AN21" s="16"/>
+      <c r="AO21" s="50"/>
       <c r="AP21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ21" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="19">
+        <v>50</v>
+      </c>
+      <c r="AS21" s="53"/>
+      <c r="AT21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="50"/>
+      <c r="BB21" s="47"/>
+    </row>
+    <row r="22" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="AI22" s="47"/>
+      <c r="AO22" s="47"/>
+      <c r="AP22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ22" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="19">
+        <v>50</v>
+      </c>
+      <c r="AS22" s="53"/>
+      <c r="AT22" s="16"/>
+      <c r="AU22" s="16"/>
+      <c r="AV22" s="16"/>
+      <c r="AW22" s="50"/>
+      <c r="BB22" s="47"/>
+    </row>
+    <row r="23" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" s="60"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23" s="60"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23" s="60"/>
+      <c r="S23"/>
+      <c r="T23" s="60"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="51"/>
+      <c r="AP23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AQ21" s="20">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="20">
+      <c r="AQ23" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="20">
         <v>3</v>
       </c>
-      <c r="AS21" s="54"/>
-      <c r="AT21" s="17"/>
-      <c r="AU21" s="17"/>
-      <c r="AV21" s="17"/>
-      <c r="AW21" s="51"/>
-      <c r="AX21"/>
-      <c r="AY21"/>
-      <c r="AZ21"/>
-      <c r="BA21"/>
-      <c r="BB21" s="47"/>
-    </row>
-    <row r="22" spans="3:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22" s="60"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22" s="60"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22" s="60"/>
-      <c r="S22"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="15" t="s">
+      <c r="AS23" s="54"/>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="17"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="BA23"/>
+      <c r="BB23" s="47"/>
+    </row>
+    <row r="24" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" s="60"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24" s="60"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24" s="60"/>
+      <c r="S24"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="V22" s="15">
+      <c r="V24" s="15">
         <v>1</v>
       </c>
-      <c r="W22" s="15">
+      <c r="W24" s="15">
         <v>7000</v>
-      </c>
-      <c r="X22" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y22" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z22" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="AI22" s="47"/>
-      <c r="AL22" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO22" s="47"/>
-      <c r="AS22" s="47"/>
-      <c r="AW22" s="47"/>
-      <c r="AX22"/>
-      <c r="AY22"/>
-      <c r="AZ22"/>
-      <c r="BA22"/>
-      <c r="BB22" s="47"/>
-    </row>
-    <row r="23" spans="3:54" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="AI23" s="50"/>
-      <c r="AJ23" s="16"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="16"/>
-      <c r="AM23" s="16"/>
-      <c r="AN23" s="16"/>
-      <c r="AO23" s="50"/>
-      <c r="AQ23" s="19"/>
-      <c r="AR23" s="19"/>
-      <c r="AS23" s="53"/>
-      <c r="AT23" s="16"/>
-      <c r="AU23" s="16"/>
-      <c r="AV23" s="16"/>
-      <c r="AW23" s="50"/>
-      <c r="BB23" s="47"/>
-    </row>
-    <row r="24" spans="3:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="V24" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="W24" s="15">
-        <v>50</v>
       </c>
       <c r="X24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Y24" s="15" t="s">
-        <v>270</v>
+        <v>73</v>
       </c>
       <c r="Z24" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="AD24" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF24" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG24" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH24" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI24" s="50"/>
-      <c r="AJ24" s="16" t="b">
+      <c r="AI24" s="47"/>
+      <c r="AL24" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AK24" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="16"/>
-      <c r="AO24" s="50"/>
-      <c r="AP24" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ24" s="19">
-        <v>50</v>
-      </c>
-      <c r="AR24" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS24" s="53"/>
-      <c r="AT24" s="16"/>
-      <c r="AU24" s="16"/>
-      <c r="AV24" s="16"/>
-      <c r="AW24" s="50"/>
-      <c r="AX24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY24" s="15">
-        <v>50</v>
-      </c>
-      <c r="AZ24" s="16" t="s">
-        <v>271</v>
-      </c>
+      <c r="AO24" s="47"/>
+      <c r="AS24" s="47"/>
+      <c r="AW24" s="47"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
       <c r="BB24" s="47"/>
     </row>
-    <row r="25" spans="3:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="56"/>
       <c r="J25" s="56"/>
       <c r="R25" s="56"/>
@@ -4000,55 +4036,95 @@
       <c r="AM25" s="16"/>
       <c r="AN25" s="16"/>
       <c r="AO25" s="50"/>
-      <c r="AP25" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ25" s="19">
-        <v>170</v>
-      </c>
-      <c r="AR25" s="19" t="s">
-        <v>79</v>
-      </c>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
       <c r="AS25" s="53"/>
       <c r="AT25" s="16"/>
       <c r="AU25" s="16"/>
       <c r="AV25" s="16"/>
       <c r="AW25" s="50"/>
-      <c r="AX25" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY25" s="15">
+      <c r="BB25" s="47"/>
+    </row>
+    <row r="26" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="V26" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="W26" s="15">
         <v>50</v>
       </c>
-      <c r="AZ25" s="16" t="s">
+      <c r="X26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y26" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z26" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF26" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG26" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH26" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="16"/>
+      <c r="AO26" s="50"/>
+      <c r="AP26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ26" s="19">
+        <v>50</v>
+      </c>
+      <c r="AR26" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS26" s="53"/>
+      <c r="AT26" s="16"/>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="16"/>
+      <c r="AW26" s="50"/>
+      <c r="AX26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY26" s="15">
+        <v>50</v>
+      </c>
+      <c r="AZ26" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="BB25" s="47"/>
-    </row>
-    <row r="26" spans="3:54" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="66"/>
-      <c r="AK26" s="66"/>
-      <c r="AL26" s="66"/>
-      <c r="AM26" s="66"/>
-      <c r="AN26" s="66"/>
-      <c r="AO26" s="66"/>
-      <c r="AQ26" s="67"/>
-      <c r="AR26" s="67"/>
-      <c r="AS26" s="67"/>
-      <c r="AT26" s="66"/>
-      <c r="AU26" s="66"/>
-      <c r="AV26" s="66"/>
-      <c r="AW26" s="66"/>
-    </row>
-    <row r="27" spans="3:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="15" t="s">
-        <v>305</v>
-      </c>
+      <c r="BB26" s="47"/>
+    </row>
+    <row r="27" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E27" s="56"/>
-      <c r="F27" s="15" t="s">
-        <v>306</v>
-      </c>
       <c r="J27" s="56"/>
       <c r="R27" s="56"/>
       <c r="T27" s="56"/>
@@ -4059,93 +4135,167 @@
       <c r="AM27" s="16"/>
       <c r="AN27" s="16"/>
       <c r="AO27" s="50"/>
-      <c r="AQ27" s="19"/>
-      <c r="AR27" s="19"/>
+      <c r="AP27" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ27" s="19">
+        <v>170</v>
+      </c>
+      <c r="AR27" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="AS27" s="53"/>
       <c r="AT27" s="16"/>
       <c r="AU27" s="16"/>
       <c r="AV27" s="16"/>
       <c r="AW27" s="50"/>
+      <c r="AX27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY27" s="15">
+        <v>50</v>
+      </c>
+      <c r="AZ27" s="16" t="s">
+        <v>271</v>
+      </c>
       <c r="BB27" s="47"/>
     </row>
-    <row r="28" spans="3:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="56"/>
-      <c r="F28" s="15" t="s">
+    <row r="28" spans="1:54" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="66"/>
+      <c r="AM28" s="66"/>
+      <c r="AN28" s="66"/>
+      <c r="AO28" s="66"/>
+      <c r="AQ28" s="67"/>
+      <c r="AR28" s="67"/>
+      <c r="AS28" s="67"/>
+      <c r="AT28" s="66"/>
+      <c r="AU28" s="66"/>
+      <c r="AV28" s="66"/>
+      <c r="AW28" s="66"/>
+    </row>
+    <row r="29" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="56"/>
+      <c r="F29" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="J29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="AI29" s="50"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="16"/>
+      <c r="AN29" s="16"/>
+      <c r="AO29" s="50"/>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19"/>
+      <c r="AS29" s="53"/>
+      <c r="AT29" s="16"/>
+      <c r="AU29" s="16"/>
+      <c r="AV29" s="16"/>
+      <c r="AW29" s="50"/>
+      <c r="BB29" s="47"/>
+    </row>
+    <row r="30" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="56"/>
+      <c r="F30" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="J28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="16"/>
-      <c r="AL28" s="16"/>
-      <c r="AM28" s="16"/>
-      <c r="AN28" s="16"/>
-      <c r="AO28" s="50"/>
-      <c r="AQ28" s="19"/>
-      <c r="AR28" s="19"/>
-      <c r="AS28" s="53"/>
-      <c r="AT28" s="16"/>
-      <c r="AU28" s="16"/>
-      <c r="AV28" s="16"/>
-      <c r="AW28" s="50"/>
-      <c r="BB28" s="47"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="59"/>
+      <c r="J30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="AI30" s="50"/>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="16"/>
+      <c r="AM30" s="16"/>
+      <c r="AN30" s="16"/>
+      <c r="AO30" s="50"/>
+      <c r="AQ30" s="19"/>
+      <c r="AR30" s="19"/>
+      <c r="AS30" s="53"/>
+      <c r="AT30" s="16"/>
+      <c r="AU30" s="16"/>
+      <c r="AV30" s="16"/>
+      <c r="AW30" s="50"/>
+      <c r="BB30" s="47"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="59"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AX10:XFD11 AP12 BB16:XFD22 V29:V30 S5:U5 AJ5:XFD9 AJ13:XFD15 AJ17:BA18 AJ22:BA22 AJ19:AO19 AJ10:AO10 B6:B25 W28:Z28 X29:Z30 V13:X15 Z13:AH15 V5:AH10 V17:X19 Z17:AH19 AA16:AE16 Y13:Y19 AJ23:XFD30 AA22:AI30 V22:Z27 C11:T11 B5:Q5 C22:U25 C6:U10 B26:U30 C13:U19 C20:T20">
+  <conditionalFormatting sqref="AX10:XFD11 AP12 BB18:XFD24 V31:V32 S5:U5 AJ5:XFD9 AJ13:XFD14 AJ19:BA20 AJ24:BA24 AJ21:AO21 AJ10:AO10 B6:B14 W30:Z30 X31:Z32 V5:AH10 V19:X21 Z19:AH21 AA18:AE18 AJ25:XFD32 AA24:AI32 V24:Z29 C11:T11 B5:Q5 C24:U27 C6:U10 B28:U32 C13:AH14 C22:T22 C17:U21 Y17:Y21 Z17:AH17 V17:X17 B17:B27 AJ17:XFD17">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP10:AW11">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX21:BA22 AP23 V18:W18 AJ18:BA18">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP21:AW22">
     <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP10:AW11">
+  <conditionalFormatting sqref="AE18">
     <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX19:BA20 AP21 V16:W16 AJ16:BA16">
+  <conditionalFormatting sqref="AF18:AH18">
     <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP19:AW20">
+  <conditionalFormatting sqref="X18:Z18">
     <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE16">
+  <conditionalFormatting sqref="AI13:AI14 AI19:AI21 AI5:AI10 AI17">
     <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF16:AH16">
+  <conditionalFormatting sqref="AI18">
     <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X16:Z16">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+  <conditionalFormatting sqref="AX16:XFD16 AJ15:XFD15 AJ16:AO16 B15:AH16">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI13:AI15 AI17:AI19 AI5:AI10">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+  <conditionalFormatting sqref="AP16:AW16">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI16">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="AI15:AI16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6010,37 +6160,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AE9:XFD10 W11 AI15:XFD21 F29:XFD29 E9:V9 N30:XFD31 M29:M31 E22:XFD28 E18:V18 E21:AH21 E16:AH17 E30:E31 G30:L31 E12:XFD14 E4:XFD8 A10:B10 A21:C31 A12:C18 A4:C9 A19:B19">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:AD10">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18:AH19 W20 E15:F15 Q15:AH15 H15:M15">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:AD19">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:P15">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1295" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DDC26A5F-EB1F-4CE9-904B-45CFD087DA60}"/>
+  <xr:revisionPtr revIDLastSave="1299" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{05C1B1EF-D5EA-4C0A-91E8-F988C7330D8B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="316">
   <si>
     <t>component</t>
   </si>
@@ -990,6 +990,9 @@
   </si>
   <si>
     <t>replacement_failed</t>
+  </si>
+  <si>
+    <t>lightning</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1359,63 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2267,7 +2326,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O13:O15 O17:O18">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2735,10 +2794,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
-  <dimension ref="A1:BB35"/>
+  <dimension ref="A1:BB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AN25" sqref="AN25"/>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3681,7 +3740,7 @@
       <c r="E18" s="56"/>
       <c r="J18" s="56"/>
       <c r="K18" s="15" t="s">
-        <v>82</v>
+        <v>315</v>
       </c>
       <c r="R18" s="56"/>
       <c r="T18" s="56"/>
@@ -4160,141 +4219,688 @@
       </c>
       <c r="BB27" s="47"/>
     </row>
-    <row r="28" spans="1:54" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="66"/>
-      <c r="AL28" s="66"/>
-      <c r="AM28" s="66"/>
-      <c r="AN28" s="66"/>
-      <c r="AO28" s="66"/>
-      <c r="AQ28" s="67"/>
-      <c r="AR28" s="67"/>
-      <c r="AS28" s="67"/>
-      <c r="AT28" s="66"/>
-      <c r="AU28" s="66"/>
-      <c r="AV28" s="66"/>
-      <c r="AW28" s="66"/>
+    <row r="28" spans="1:54" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AQ28" s="58"/>
+      <c r="AR28" s="58"/>
+      <c r="AS28" s="58"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="57"/>
     </row>
     <row r="29" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="15" t="s">
-        <v>305</v>
-      </c>
       <c r="E29" s="56"/>
-      <c r="F29" s="15" t="s">
-        <v>306</v>
-      </c>
       <c r="J29" s="56"/>
+      <c r="K29" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="R29" s="56"/>
       <c r="T29" s="56"/>
+      <c r="U29" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="V29" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="W29" s="15">
+        <v>50</v>
+      </c>
+      <c r="X29" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y29" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z29" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB29" s="15">
+        <v>20</v>
+      </c>
+      <c r="AC29" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE29" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF29" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG29" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH29" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="AI29" s="50"/>
-      <c r="AJ29" s="16"/>
-      <c r="AK29" s="16"/>
-      <c r="AL29" s="16"/>
-      <c r="AM29" s="16"/>
-      <c r="AN29" s="16"/>
+      <c r="AJ29" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="18"/>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="18"/>
       <c r="AO29" s="50"/>
-      <c r="AQ29" s="19"/>
-      <c r="AR29" s="19"/>
-      <c r="AS29" s="53"/>
+      <c r="AQ29" s="18"/>
+      <c r="AR29" s="18"/>
+      <c r="AS29" s="50"/>
       <c r="AT29" s="16"/>
-      <c r="AU29" s="16"/>
-      <c r="AV29" s="16"/>
+      <c r="AU29" s="18"/>
+      <c r="AV29" s="18"/>
       <c r="AW29" s="50"/>
+      <c r="AX29" s="18"/>
+      <c r="AY29" s="18"/>
+      <c r="AZ29" s="18"/>
+      <c r="BA29" s="18"/>
       <c r="BB29" s="47"/>
     </row>
     <row r="30" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E30" s="56"/>
-      <c r="F30" s="15" t="s">
-        <v>307</v>
-      </c>
       <c r="J30" s="56"/>
       <c r="R30" s="56"/>
       <c r="T30" s="56"/>
+      <c r="U30" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="V30" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="W30" s="15">
+        <v>100</v>
+      </c>
+      <c r="X30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y30" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z30" s="15" t="s">
+        <v>311</v>
+      </c>
       <c r="AI30" s="50"/>
-      <c r="AJ30" s="16"/>
-      <c r="AK30" s="16"/>
-      <c r="AL30" s="16"/>
+      <c r="AJ30" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AM30" s="16"/>
       <c r="AN30" s="16"/>
       <c r="AO30" s="50"/>
-      <c r="AQ30" s="19"/>
-      <c r="AR30" s="19"/>
+      <c r="AP30" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ30" s="19">
+        <v>50</v>
+      </c>
+      <c r="AR30" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="AS30" s="53"/>
-      <c r="AT30" s="16"/>
-      <c r="AU30" s="16"/>
-      <c r="AV30" s="16"/>
+      <c r="AT30" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AW30" s="50"/>
+      <c r="AX30" s="18"/>
+      <c r="AY30" s="18"/>
+      <c r="AZ30" s="18"/>
+      <c r="BA30" s="18"/>
       <c r="BB30" s="47"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="59"/>
+    <row r="31" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="AI31" s="50"/>
+      <c r="AJ31" s="16"/>
+      <c r="AK31" s="16"/>
+      <c r="AL31" s="16"/>
+      <c r="AM31" s="16"/>
+      <c r="AN31" s="16"/>
+      <c r="AO31" s="50"/>
+      <c r="AP31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ31" s="19">
+        <v>50</v>
+      </c>
+      <c r="AR31" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS31" s="53"/>
+      <c r="AT31" s="16"/>
+      <c r="AU31" s="16"/>
+      <c r="AV31" s="16"/>
+      <c r="AW31" s="50"/>
+      <c r="BB31" s="47"/>
+    </row>
+    <row r="32" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="V32" s="15">
+        <v>1</v>
+      </c>
+      <c r="W32" s="15">
+        <v>3500</v>
+      </c>
+      <c r="X32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z32" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI32" s="50"/>
+      <c r="AJ32" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="16"/>
+      <c r="AN32" s="16"/>
+      <c r="AO32" s="50"/>
+      <c r="AP32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="19">
+        <v>50</v>
+      </c>
+      <c r="AS32" s="53"/>
+      <c r="AT32" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="50"/>
+      <c r="BB32" s="47"/>
+    </row>
+    <row r="33" spans="2:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="AI33" s="47"/>
+      <c r="AO33" s="47"/>
+      <c r="AP33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ33" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="19">
+        <v>50</v>
+      </c>
+      <c r="AS33" s="53"/>
+      <c r="AT33" s="16"/>
+      <c r="AU33" s="16"/>
+      <c r="AV33" s="16"/>
+      <c r="AW33" s="50"/>
+      <c r="BB33" s="47"/>
+    </row>
+    <row r="34" spans="2:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" s="60"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" s="60"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34" s="60"/>
+      <c r="S34"/>
+      <c r="T34" s="60"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="51"/>
+      <c r="AP34" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ34" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="20">
+        <v>3</v>
+      </c>
+      <c r="AS34" s="54"/>
+      <c r="AT34" s="17"/>
+      <c r="AU34" s="17"/>
+      <c r="AV34" s="17"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34"/>
+      <c r="AY34"/>
+      <c r="AZ34"/>
+      <c r="BA34"/>
+      <c r="BB34" s="47"/>
+    </row>
+    <row r="35" spans="2:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" s="60"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35" s="60"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35" s="60"/>
+      <c r="S35"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="V35" s="15">
+        <v>1</v>
+      </c>
+      <c r="W35" s="15">
+        <v>7000</v>
+      </c>
+      <c r="X35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y35" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z35" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI35" s="47"/>
+      <c r="AL35" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="47"/>
+      <c r="AS35" s="47"/>
+      <c r="AW35" s="47"/>
+      <c r="AX35"/>
+      <c r="AY35"/>
+      <c r="AZ35"/>
+      <c r="BA35"/>
+      <c r="BB35" s="47"/>
+    </row>
+    <row r="36" spans="2:54" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="AI36" s="50"/>
+      <c r="AJ36" s="16"/>
+      <c r="AK36" s="16"/>
+      <c r="AL36" s="16"/>
+      <c r="AM36" s="16"/>
+      <c r="AN36" s="16"/>
+      <c r="AO36" s="50"/>
+      <c r="AQ36" s="19"/>
+      <c r="AR36" s="19"/>
+      <c r="AS36" s="53"/>
+      <c r="AT36" s="16"/>
+      <c r="AU36" s="16"/>
+      <c r="AV36" s="16"/>
+      <c r="AW36" s="50"/>
+      <c r="BB36" s="47"/>
+    </row>
+    <row r="37" spans="2:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="W37" s="15">
+        <v>50</v>
+      </c>
+      <c r="X37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y37" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z37" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD37" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF37" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG37" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH37" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="16"/>
+      <c r="AO37" s="50"/>
+      <c r="AP37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ37" s="19">
+        <v>50</v>
+      </c>
+      <c r="AR37" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS37" s="53"/>
+      <c r="AT37" s="16"/>
+      <c r="AU37" s="16"/>
+      <c r="AV37" s="16"/>
+      <c r="AW37" s="50"/>
+      <c r="AX37" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY37" s="15">
+        <v>50</v>
+      </c>
+      <c r="AZ37" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="BB37" s="47"/>
+    </row>
+    <row r="38" spans="2:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="AI38" s="50"/>
+      <c r="AJ38" s="16"/>
+      <c r="AK38" s="16"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="16"/>
+      <c r="AN38" s="16"/>
+      <c r="AO38" s="50"/>
+      <c r="AP38" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ38" s="19">
+        <v>170</v>
+      </c>
+      <c r="AR38" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS38" s="53"/>
+      <c r="AT38" s="16"/>
+      <c r="AU38" s="16"/>
+      <c r="AV38" s="16"/>
+      <c r="AW38" s="50"/>
+      <c r="AX38" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY38" s="15">
+        <v>50</v>
+      </c>
+      <c r="AZ38" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="BB38" s="47"/>
+    </row>
+    <row r="39" spans="2:54" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI39" s="66"/>
+      <c r="AJ39" s="66"/>
+      <c r="AK39" s="66"/>
+      <c r="AL39" s="66"/>
+      <c r="AM39" s="66"/>
+      <c r="AN39" s="66"/>
+      <c r="AO39" s="66"/>
+      <c r="AQ39" s="67"/>
+      <c r="AR39" s="67"/>
+      <c r="AS39" s="67"/>
+      <c r="AT39" s="66"/>
+      <c r="AU39" s="66"/>
+      <c r="AV39" s="66"/>
+      <c r="AW39" s="66"/>
+    </row>
+    <row r="40" spans="2:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E40" s="56"/>
+      <c r="F40" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="J40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="AI40" s="50"/>
+      <c r="AJ40" s="16"/>
+      <c r="AK40" s="16"/>
+      <c r="AL40" s="16"/>
+      <c r="AM40" s="16"/>
+      <c r="AN40" s="16"/>
+      <c r="AO40" s="50"/>
+      <c r="AQ40" s="19"/>
+      <c r="AR40" s="19"/>
+      <c r="AS40" s="53"/>
+      <c r="AT40" s="16"/>
+      <c r="AU40" s="16"/>
+      <c r="AV40" s="16"/>
+      <c r="AW40" s="50"/>
+      <c r="BB40" s="47"/>
+    </row>
+    <row r="41" spans="2:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="56"/>
+      <c r="F41" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="J41" s="56"/>
+      <c r="R41" s="56"/>
+      <c r="T41" s="56"/>
+      <c r="AI41" s="50"/>
+      <c r="AJ41" s="16"/>
+      <c r="AK41" s="16"/>
+      <c r="AL41" s="16"/>
+      <c r="AM41" s="16"/>
+      <c r="AN41" s="16"/>
+      <c r="AO41" s="50"/>
+      <c r="AQ41" s="19"/>
+      <c r="AR41" s="19"/>
+      <c r="AS41" s="53"/>
+      <c r="AT41" s="16"/>
+      <c r="AU41" s="16"/>
+      <c r="AV41" s="16"/>
+      <c r="AW41" s="50"/>
+      <c r="BB41" s="47"/>
+    </row>
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="59"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AX10:XFD11 AP12 BB18:XFD24 V31:V32 S5:U5 AJ5:XFD9 AJ13:XFD14 AJ19:BA20 AJ24:BA24 AJ21:AO21 AJ10:AO10 B6:B14 W30:Z30 X31:Z32 V5:AH10 V19:X21 Z19:AH21 AA18:AE18 AJ25:XFD32 AA24:AI32 V24:Z29 C11:T11 B5:Q5 C24:U27 C6:U10 B28:U32 C13:AH14 C22:T22 C17:U21 Y17:Y21 Z17:AH17 V17:X17 B17:B27 AJ17:XFD17">
+  <conditionalFormatting sqref="AX10:XFD11 AP12 BB29:XFD35 V42:V43 S5:U5 AJ5:XFD9 AJ13:XFD14 AJ30:BA31 AJ35:BA35 AJ32:AO32 AJ10:AO10 B6:B14 W41:Z41 X42:Z43 V5:AH10 V30:X32 Z30:AH32 AA29:AE29 AJ36:XFD43 AA35:AI43 V35:Z40 C11:T11 B5:Q5 C35:U38 C6:U10 B39:U43 C13:AH14 C33:T33 C28:U32 Y28:Y32 Z28:AH28 V28:X28 B28:B38 AJ28:XFD28">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP10:AW11">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX32:BA33 AP34 V29:W29 AJ29:BA29">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP32:AW33">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE29">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF29:AH29">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X29:Z29">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI13:AI14 AI30:AI32 AI5:AI10 AI28">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI29">
     <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP10:AW11">
+  <conditionalFormatting sqref="AX16:XFD16 AJ15:XFD15 AJ16:AO16 B15:AH16">
     <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX21:BA22 AP23 V18:W18 AJ18:BA18">
+  <conditionalFormatting sqref="AP16:AW16">
     <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP21:AW22">
+  <conditionalFormatting sqref="AI15:AI16">
     <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BB18:XFD24 AJ19:BA20 AJ24:BA24 AJ21:AO21 V19:X21 Z19:AH21 AA18:AE18 AJ25:XFD27 C24:AI27 C22:T22 C17:U21 Y17:Y21 Z17:AH17 V17:X17 B17:B27 AJ17:XFD17">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX21:BA22 AP23 V18:W18 AJ18:BA18">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP21:AW22">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AE18">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF18:AH18">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X18:Z18">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI13:AI14 AI19:AI21 AI5:AI10 AI17">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+  <conditionalFormatting sqref="AI19:AI21 AI17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI18">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX16:XFD16 AJ15:XFD15 AJ16:AO16 B15:AH16">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP16:AW16">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI15:AI16">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -4309,7 +4915,7 @@
   <dimension ref="A2:T41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D7"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4616,7 +5222,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H21"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6160,37 +6766,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AE9:XFD10 W11 AI15:XFD21 F29:XFD29 E9:V9 N30:XFD31 M29:M31 E22:XFD28 E18:V18 E21:AH21 E16:AH17 E30:E31 G30:L31 E12:XFD14 E4:XFD8 A10:B10 A21:C31 A12:C18 A4:C9 A19:B19">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:AD10">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18:AH19 W20 E15:F15 Q15:AH15 H15:M15">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:AD19">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:P15">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1299" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{05C1B1EF-D5EA-4C0A-91E8-F988C7330D8B}"/>
+  <xr:revisionPtr revIDLastSave="1507" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B52F93FF-1AF4-4BB7-9DB8-59F6382F53DF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,6 @@
     <sheet name="brainstorming" sheetId="4" r:id="rId11"/>
     <sheet name="Sheet3" sheetId="10" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId13"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,8 +41,54 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0D17032D-A363-4862-AB0F-C915C81402EB}</author>
+    <author>tc={2C545A15-58BF-4325-853E-F01A6E2CD754}</author>
+    <author>tc={C4841757-EFF4-403A-A229-DD7AF8BE79E4}</author>
+    <author>tc={1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}</author>
+  </authors>
+  <commentList>
+    <comment ref="AP40" authorId="0" shapeId="0" xr:uid="{0D17032D-A363-4862-AB0F-C915C81402EB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Greg -&gt; confirm how we assess lightning / fire damage / impact</t>
+      </text>
+    </comment>
+    <comment ref="D64" authorId="1" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Change task type to planned / reactive / risk?</t>
+      </text>
+    </comment>
+    <comment ref="D70" authorId="2" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    How do we deal with failures that accelerate other failure modes?</t>
+      </text>
+    </comment>
+    <comment ref="AA70" authorId="3" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    How do you want to deal with inspections that also include some of repair, ie. lubrication? 
+Add an additional task?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="326">
   <si>
     <t>component</t>
   </si>
@@ -989,10 +1032,40 @@
     <t>upper</t>
   </si>
   <si>
-    <t>replacement_failed</t>
-  </si>
-  <si>
     <t>lightning</t>
+  </si>
+  <si>
+    <t>assisted_failures</t>
+  </si>
+  <si>
+    <t>weathering</t>
+  </si>
+  <si>
+    <t>fire_damage</t>
+  </si>
+  <si>
+    <t>fungal decay - external</t>
+  </si>
+  <si>
+    <t>fungal decay - internal</t>
+  </si>
+  <si>
+    <t>lightning_strike</t>
+  </si>
+  <si>
+    <t>lightning_damage</t>
+  </si>
+  <si>
+    <t>ssf_calc</t>
+  </si>
+  <si>
+    <t>pole_cap</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>lightning damage</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1075,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1092,8 +1165,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1199,6 +1278,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1227,7 +1312,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1351,6 +1436,28 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -1359,7 +1466,868 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="151">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1569,49 +2537,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TODO"/>
-      <sheetName val="Instructions"/>
-      <sheetName val="Failure History"/>
-      <sheetName val="Data Validation"/>
-      <sheetName val="Input"/>
-      <sheetName val="RCM"/>
-      <sheetName val="System"/>
-      <sheetName val="Insp Outcome"/>
-      <sheetName val="Effect"/>
-      <sheetName val="Likelihood"/>
-      <sheetName val="Assumptions"/>
-      <sheetName val="R(t)"/>
-      <sheetName val="F(t step)"/>
-      <sheetName val="Failures"/>
-      <sheetName val="Failures w Replacement"/>
-      <sheetName val="Maintenance Strategy"/>
-      <sheetName val="Asset Strategy - Modelling v0"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Treseder, Gavin" id="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" userId="S::gtreseder@kpmg.com.au::07ba3dd3-3208-42af-8a81-694228c324b0" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1875,6 +2804,24 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="AP40" dT="2020-09-08T22:27:35.70" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{0D17032D-A363-4862-AB0F-C915C81402EB}">
+    <text>Greg -&gt; confirm how we assess lightning / fire damage / impact</text>
+  </threadedComment>
+  <threadedComment ref="D64" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+    <text>Change task type to planned / reactive / risk?</text>
+  </threadedComment>
+  <threadedComment ref="D70" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+    <text>How do we deal with failures that accelerate other failure modes?</text>
+  </threadedComment>
+  <threadedComment ref="AA70" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+    <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
+Add an additional task?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
@@ -2326,7 +3273,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O13:O15 O17:O18">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2793,23 +3740,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
-  <dimension ref="A1:BB46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
+  <dimension ref="A1:BB84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="3" width="13.140625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="2.5703125" style="60" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="13.140625" customWidth="1"/>
     <col min="10" max="10" width="3.140625" style="60" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.42578125" style="60" customWidth="1"/>
     <col min="19" max="19" width="26.5703125" customWidth="1"/>
     <col min="20" max="20" width="3.42578125" style="60" customWidth="1"/>
@@ -2822,8 +3775,8 @@
     <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="23.5703125" customWidth="1"/>
-    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12" hidden="1" customWidth="1"/>
+    <col min="33" max="34" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="2.85546875" style="51" customWidth="1"/>
     <col min="36" max="40" width="9.140625" style="17"/>
     <col min="41" max="41" width="2.85546875" style="51" customWidth="1"/>
@@ -2833,7 +3786,7 @@
     <col min="45" max="45" width="2.42578125" style="54" customWidth="1"/>
     <col min="46" max="48" width="9.140625" style="17"/>
     <col min="49" max="49" width="2.42578125" style="51" customWidth="1"/>
-    <col min="50" max="50" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.85546875" style="81" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="2.42578125" style="48" customWidth="1"/>
   </cols>
@@ -2890,7 +3843,7 @@
       <c r="AU1" s="69"/>
       <c r="AV1" s="69"/>
       <c r="AW1" s="70"/>
-      <c r="AX1" s="69"/>
+      <c r="AX1" s="76"/>
       <c r="AY1" s="69"/>
       <c r="AZ1" s="69"/>
       <c r="BA1" s="69"/>
@@ -2965,7 +3918,7 @@
       <c r="AU2" s="69"/>
       <c r="AV2" s="69"/>
       <c r="AW2" s="70"/>
-      <c r="AX2" s="69" t="s">
+      <c r="AX2" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AY2" s="69"/>
@@ -3105,7 +4058,7 @@
         <v>64</v>
       </c>
       <c r="AW3" s="70"/>
-      <c r="AX3" s="69" t="s">
+      <c r="AX3" s="76" t="s">
         <v>298</v>
       </c>
       <c r="AY3" s="69" t="s">
@@ -3120,6 +4073,10 @@
       <c r="BB3" s="46"/>
     </row>
     <row r="4" spans="1:54" s="61" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="61">
+        <f>SUM(A4:C4)</f>
+        <v>0</v>
+      </c>
       <c r="AI4" s="62"/>
       <c r="AJ4" s="63"/>
       <c r="AK4" s="63"/>
@@ -3134,6 +4091,7 @@
       <c r="AU4" s="63"/>
       <c r="AV4" s="63"/>
       <c r="AW4" s="63"/>
+      <c r="AX4" s="77"/>
     </row>
     <row r="5" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="15" t="s">
@@ -3237,7 +4195,7 @@
       </c>
       <c r="AV5" s="18"/>
       <c r="AW5" s="50"/>
-      <c r="AX5" s="18"/>
+      <c r="AX5" s="78"/>
       <c r="AY5" s="18"/>
       <c r="AZ5" s="18"/>
       <c r="BA5" s="18"/>
@@ -3274,24 +4232,39 @@
         <v>21</v>
       </c>
       <c r="T6" s="56"/>
-      <c r="AI6" s="50"/>
-      <c r="AJ6" s="50"/>
-      <c r="AK6" s="50"/>
-      <c r="AL6" s="50"/>
-      <c r="AM6" s="50"/>
-      <c r="AN6" s="50"/>
-      <c r="AO6" s="50"/>
-      <c r="AQ6" s="50"/>
-      <c r="AR6" s="50"/>
-      <c r="AS6" s="50"/>
-      <c r="AT6" s="50"/>
-      <c r="AU6" s="50"/>
-      <c r="AV6" s="50"/>
-      <c r="AW6" s="50"/>
-      <c r="AX6" s="50"/>
-      <c r="AY6" s="50"/>
-      <c r="AZ6" s="50"/>
-      <c r="BA6" s="50"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="73"/>
+      <c r="AM6" s="73"/>
+      <c r="AN6" s="73"/>
+      <c r="AO6" s="73"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
+      <c r="AS6" s="74"/>
+      <c r="AT6" s="73"/>
+      <c r="AU6" s="73"/>
+      <c r="AV6" s="73"/>
+      <c r="AW6" s="73"/>
+      <c r="AX6" s="79"/>
+      <c r="AY6" s="72"/>
+      <c r="AZ6" s="72"/>
+      <c r="BA6" s="72"/>
     </row>
     <row r="7" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E7" s="56"/>
@@ -3299,7 +4272,7 @@
         <v>223</v>
       </c>
       <c r="G7" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -3320,7 +4293,7 @@
         <v>100</v>
       </c>
       <c r="X7" s="15" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="Y7" s="15" t="s">
         <v>75</v>
@@ -3353,7 +4326,7 @@
       <c r="AQ7" s="19">
         <v>50</v>
       </c>
-      <c r="AR7" s="19" t="s">
+      <c r="AR7" s="75" t="s">
         <v>79</v>
       </c>
       <c r="AS7" s="53"/>
@@ -3367,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="50"/>
-      <c r="AX7" s="18" t="s">
+      <c r="AX7" s="78" t="s">
         <v>291</v>
       </c>
       <c r="AY7" s="18">
@@ -3411,7 +4384,7 @@
       <c r="AQ8" s="19">
         <v>50</v>
       </c>
-      <c r="AR8" s="19" t="s">
+      <c r="AR8" s="75" t="s">
         <v>79</v>
       </c>
       <c r="AS8" s="53"/>
@@ -3419,6 +4392,7 @@
       <c r="AU8" s="16"/>
       <c r="AV8" s="16"/>
       <c r="AW8" s="50"/>
+      <c r="AX8" s="80"/>
       <c r="BB8" s="47"/>
     </row>
     <row r="9" spans="1:54" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -3427,10 +4401,18 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="56"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="H9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15" t="b">
+        <v>0</v>
+      </c>
       <c r="J9" s="56"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -3442,28 +4424,59 @@
       <c r="R9" s="56"/>
       <c r="S9" s="15"/>
       <c r="T9" s="56"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="50"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AQ9" s="53"/>
-      <c r="AR9" s="53"/>
-      <c r="AS9" s="53"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="50"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="73"/>
+      <c r="AL9" s="73"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="73"/>
+      <c r="AP9" s="71"/>
+      <c r="AQ9" s="71"/>
+      <c r="AR9" s="71"/>
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="73"/>
+      <c r="AU9" s="73"/>
+      <c r="AV9" s="73"/>
+      <c r="AW9" s="73"/>
+      <c r="AX9" s="79"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="72"/>
+      <c r="BA9" s="72"/>
     </row>
     <row r="10" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E10" s="56"/>
+      <c r="F10" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="H10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15" t="b">
+        <v>0</v>
+      </c>
       <c r="J10" s="56"/>
       <c r="R10" s="56"/>
       <c r="T10" s="56"/>
       <c r="U10" s="15" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="V10" s="15">
         <v>1</v>
@@ -3472,7 +4485,7 @@
         <v>3500</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="Y10" s="15" t="s">
         <v>73</v>
@@ -3519,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="AW10" s="50"/>
-      <c r="AX10" s="15" t="s">
+      <c r="AX10" s="80" t="s">
         <v>291</v>
       </c>
       <c r="AY10" s="15">
@@ -3554,6 +4567,7 @@
       <c r="AU11" s="16"/>
       <c r="AV11" s="16"/>
       <c r="AW11" s="50"/>
+      <c r="AX11" s="80"/>
       <c r="BB11" s="47"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
@@ -3569,336 +4583,411 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="56"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="56"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
       <c r="R13" s="56"/>
+      <c r="S13" s="15"/>
       <c r="T13" s="56"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="50"/>
-      <c r="AQ13" s="19"/>
-      <c r="AR13" s="19"/>
-      <c r="AS13" s="53"/>
-      <c r="AT13" s="16"/>
-      <c r="AU13" s="16"/>
-      <c r="AV13" s="16"/>
-      <c r="AW13" s="50"/>
-      <c r="BB13" s="47"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="73"/>
+      <c r="AJ13" s="73"/>
+      <c r="AK13" s="73"/>
+      <c r="AL13" s="73"/>
+      <c r="AM13" s="73"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="73"/>
+      <c r="AP13" s="71"/>
+      <c r="AQ13" s="71"/>
+      <c r="AR13" s="71"/>
+      <c r="AS13" s="74"/>
+      <c r="AT13" s="73"/>
+      <c r="AU13" s="73"/>
+      <c r="AV13" s="73"/>
+      <c r="AW13" s="73"/>
+      <c r="AX13" s="79"/>
+      <c r="AY13" s="72"/>
+      <c r="AZ13" s="72"/>
+      <c r="BA13" s="72"/>
     </row>
     <row r="14" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E14" s="56"/>
       <c r="J14" s="56"/>
       <c r="R14" s="56"/>
       <c r="T14" s="56"/>
+      <c r="U14" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="V14" s="15">
+        <v>1</v>
+      </c>
+      <c r="W14" s="15">
+        <v>7000</v>
+      </c>
+      <c r="X14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z14" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA14" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD14" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="AI14" s="50"/>
       <c r="AJ14" s="16"/>
       <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
+      <c r="AL14" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AM14" s="16"/>
       <c r="AN14" s="16"/>
       <c r="AO14" s="50"/>
       <c r="AQ14" s="19"/>
       <c r="AR14" s="19"/>
       <c r="AS14" s="53"/>
-      <c r="AT14" s="16"/>
-      <c r="AU14" s="16"/>
-      <c r="AV14" s="16"/>
+      <c r="AT14" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AW14" s="50"/>
+      <c r="AX14" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA14" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BB14" s="47"/>
     </row>
-    <row r="15" spans="1:54" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="56"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="56"/>
-      <c r="AI15" s="50"/>
-      <c r="AJ15" s="50"/>
-      <c r="AK15" s="50"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="50"/>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="50"/>
-      <c r="AQ15" s="53"/>
-      <c r="AR15" s="53"/>
-      <c r="AS15" s="53"/>
-      <c r="AT15" s="50"/>
-      <c r="AU15" s="50"/>
-      <c r="AV15" s="50"/>
-      <c r="AW15" s="50"/>
+      <c r="AI15" s="57"/>
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="57"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="57"/>
+      <c r="AQ15" s="58"/>
+      <c r="AR15" s="58"/>
+      <c r="AS15" s="58"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="57"/>
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="57"/>
+      <c r="AX15" s="82"/>
     </row>
     <row r="16" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E16" s="56"/>
       <c r="J16" s="56"/>
+      <c r="K16" s="15" t="s">
+        <v>318</v>
+      </c>
       <c r="R16" s="56"/>
+      <c r="S16" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="T16" s="56"/>
       <c r="U16" s="15" t="s">
-        <v>314</v>
+        <v>71</v>
       </c>
       <c r="V16" s="15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="W16" s="15">
-        <v>7000</v>
+        <v>50</v>
       </c>
       <c r="X16" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y16" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z16" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="AA16" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="AD16" s="15" t="s">
-        <v>0</v>
+        <v>310</v>
+      </c>
+      <c r="AB16" s="15">
+        <v>20</v>
+      </c>
+      <c r="AC16" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG16" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH16" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="AI16" s="50"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="16"/>
-      <c r="AN16" s="16"/>
+      <c r="AJ16" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
       <c r="AO16" s="50"/>
-      <c r="AQ16" s="19"/>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="53"/>
-      <c r="AT16" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="16" t="b">
-        <v>0</v>
-      </c>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="18"/>
+      <c r="AS16" s="50"/>
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="18"/>
+      <c r="AV16" s="18"/>
       <c r="AW16" s="50"/>
-      <c r="AX16" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="AY16" s="15">
-        <v>1</v>
-      </c>
-      <c r="AZ16" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="BA16" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="AX16" s="78"/>
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="18"/>
+      <c r="BA16" s="18"/>
       <c r="BB16" s="47"/>
     </row>
-    <row r="17" spans="1:54" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="AI17" s="57"/>
-      <c r="AJ17" s="57"/>
-      <c r="AK17" s="57"/>
-      <c r="AL17" s="57"/>
-      <c r="AM17" s="57"/>
-      <c r="AN17" s="57"/>
-      <c r="AO17" s="57"/>
-      <c r="AQ17" s="58"/>
-      <c r="AR17" s="58"/>
-      <c r="AS17" s="58"/>
-      <c r="AT17" s="57"/>
-      <c r="AU17" s="57"/>
-      <c r="AV17" s="57"/>
-      <c r="AW17" s="57"/>
+    <row r="17" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="56"/>
+      <c r="G17"/>
+      <c r="J17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="73"/>
+      <c r="AJ17" s="73"/>
+      <c r="AK17" s="73"/>
+      <c r="AL17" s="73"/>
+      <c r="AM17" s="73"/>
+      <c r="AN17" s="73"/>
+      <c r="AO17" s="73"/>
+      <c r="AP17" s="71"/>
+      <c r="AQ17" s="71"/>
+      <c r="AR17" s="71"/>
+      <c r="AS17" s="74"/>
+      <c r="AT17" s="73"/>
+      <c r="AU17" s="73"/>
+      <c r="AV17" s="73"/>
+      <c r="AW17" s="73"/>
+      <c r="AX17" s="79"/>
+      <c r="AY17" s="72"/>
+      <c r="AZ17" s="72"/>
+      <c r="BA17" s="72"/>
+      <c r="BB17" s="47"/>
     </row>
     <row r="18" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E18" s="56"/>
+      <c r="G18"/>
       <c r="J18" s="56"/>
-      <c r="K18" s="15" t="s">
-        <v>315</v>
-      </c>
       <c r="R18" s="56"/>
       <c r="T18" s="56"/>
       <c r="U18" s="15" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="V18" s="15">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="W18" s="15">
+        <v>100</v>
+      </c>
+      <c r="X18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z18" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="16"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ18" s="19">
         <v>50</v>
       </c>
-      <c r="X18" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y18" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z18" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="AB18" s="15">
+      <c r="AR18" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS18" s="53"/>
+      <c r="AT18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AC18" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE18" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF18" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG18" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH18" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI18" s="50"/>
-      <c r="AJ18" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK18" s="18"/>
-      <c r="AL18" s="18"/>
-      <c r="AM18" s="18"/>
-      <c r="AN18" s="18"/>
-      <c r="AO18" s="50"/>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="18"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="18"/>
-      <c r="AV18" s="18"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="18"/>
-      <c r="AY18" s="18"/>
-      <c r="AZ18" s="18"/>
-      <c r="BA18" s="18"/>
       <c r="BB18" s="47"/>
     </row>
     <row r="19" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E19" s="56"/>
+      <c r="G19"/>
       <c r="J19" s="56"/>
       <c r="R19" s="56"/>
       <c r="T19" s="56"/>
-      <c r="U19" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="V19" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="W19" s="15">
-        <v>100</v>
-      </c>
-      <c r="X19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y19" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z19" s="15" t="s">
-        <v>311</v>
-      </c>
       <c r="AI19" s="50"/>
-      <c r="AJ19" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL19" s="16" t="b">
-        <v>0</v>
-      </c>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
       <c r="AM19" s="16"/>
       <c r="AN19" s="16"/>
       <c r="AO19" s="50"/>
       <c r="AP19" s="15" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="AQ19" s="19">
         <v>50</v>
       </c>
-      <c r="AR19" s="19" t="s">
+      <c r="AR19" s="75" t="s">
         <v>79</v>
       </c>
       <c r="AS19" s="53"/>
-      <c r="AT19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="16" t="b">
-        <v>0</v>
-      </c>
+      <c r="AT19" s="16"/>
+      <c r="AU19" s="16"/>
+      <c r="AV19" s="16"/>
       <c r="AW19" s="50"/>
-      <c r="AX19" s="18"/>
-      <c r="AY19" s="18"/>
-      <c r="AZ19" s="18"/>
-      <c r="BA19" s="18"/>
+      <c r="AX19" s="80"/>
       <c r="BB19" s="47"/>
     </row>
     <row r="20" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E20" s="56"/>
+      <c r="G20"/>
       <c r="J20" s="56"/>
       <c r="R20" s="56"/>
       <c r="T20" s="56"/>
-      <c r="AI20" s="50"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="16"/>
-      <c r="AN20" s="16"/>
-      <c r="AO20" s="50"/>
-      <c r="AP20" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ20" s="19">
-        <v>50</v>
-      </c>
-      <c r="AR20" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS20" s="53"/>
-      <c r="AT20" s="16"/>
-      <c r="AU20" s="16"/>
-      <c r="AV20" s="16"/>
-      <c r="AW20" s="50"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
+      <c r="AI20" s="73"/>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="73"/>
+      <c r="AL20" s="73"/>
+      <c r="AM20" s="73"/>
+      <c r="AN20" s="73"/>
+      <c r="AO20" s="73"/>
+      <c r="AP20" s="71"/>
+      <c r="AQ20" s="71"/>
+      <c r="AR20" s="71"/>
+      <c r="AS20" s="74"/>
+      <c r="AT20" s="73"/>
+      <c r="AU20" s="73"/>
+      <c r="AV20" s="73"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="79"/>
+      <c r="AY20" s="72"/>
+      <c r="AZ20" s="72"/>
+      <c r="BA20" s="72"/>
       <c r="BB20" s="47"/>
     </row>
     <row r="21" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E21" s="56"/>
+      <c r="G21"/>
       <c r="J21" s="56"/>
       <c r="R21" s="56"/>
       <c r="T21" s="56"/>
       <c r="U21" s="15" t="s">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="V21" s="15">
         <v>1</v>
@@ -3914,6 +5003,12 @@
       </c>
       <c r="Z21" s="15" t="s">
         <v>311</v>
+      </c>
+      <c r="AA21" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD21" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="AI21" s="50"/>
       <c r="AJ21" s="16" t="b">
@@ -3948,10 +5043,25 @@
         <v>0</v>
       </c>
       <c r="AW21" s="50"/>
+      <c r="AX21" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY21" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA21" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BB21" s="47"/>
     </row>
     <row r="22" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E22" s="56"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
       <c r="J22" s="56"/>
       <c r="R22" s="56"/>
       <c r="T22" s="56"/>
@@ -3971,6 +5081,7 @@
       <c r="AU22" s="16"/>
       <c r="AV22" s="16"/>
       <c r="AW22" s="50"/>
+      <c r="AX22" s="80"/>
       <c r="BB22" s="47"/>
     </row>
     <row r="23" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -4027,7 +5138,7 @@
       <c r="AU23" s="17"/>
       <c r="AV23" s="17"/>
       <c r="AW23" s="51"/>
-      <c r="AX23"/>
+      <c r="AX23" s="81"/>
       <c r="AY23"/>
       <c r="AZ23"/>
       <c r="BA23"/>
@@ -4052,258 +5163,316 @@
       <c r="R24" s="60"/>
       <c r="S24"/>
       <c r="T24" s="60"/>
-      <c r="U24" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="V24" s="15">
-        <v>1</v>
-      </c>
-      <c r="W24" s="15">
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="72"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="73"/>
+      <c r="AJ24" s="73"/>
+      <c r="AK24" s="73"/>
+      <c r="AL24" s="73"/>
+      <c r="AM24" s="73"/>
+      <c r="AN24" s="73"/>
+      <c r="AO24" s="73"/>
+      <c r="AP24" s="71"/>
+      <c r="AQ24" s="71"/>
+      <c r="AR24" s="71"/>
+      <c r="AS24" s="74"/>
+      <c r="AT24" s="73"/>
+      <c r="AU24" s="73"/>
+      <c r="AV24" s="73"/>
+      <c r="AW24" s="73"/>
+      <c r="AX24" s="79"/>
+      <c r="AY24" s="72"/>
+      <c r="AZ24" s="72"/>
+      <c r="BA24" s="72"/>
+      <c r="BB24" s="47"/>
+    </row>
+    <row r="25" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" s="60"/>
+      <c r="I25"/>
+      <c r="J25" s="60"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25" s="60"/>
+      <c r="S25"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="V25" s="15">
+        <v>1</v>
+      </c>
+      <c r="W25" s="15">
         <v>7000</v>
       </c>
-      <c r="X24" s="15" t="s">
+      <c r="X25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Y24" s="15" t="s">
+      <c r="Y25" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="Z24" s="15" t="s">
+      <c r="Z25" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="AI24" s="47"/>
-      <c r="AL24" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO24" s="47"/>
-      <c r="AS24" s="47"/>
-      <c r="AW24" s="47"/>
-      <c r="AX24"/>
-      <c r="AY24"/>
-      <c r="AZ24"/>
-      <c r="BA24"/>
-      <c r="BB24" s="47"/>
-    </row>
-    <row r="25" spans="1:54" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="T25" s="56"/>
+      <c r="AA25" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD25" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="AI25" s="50"/>
       <c r="AJ25" s="16"/>
       <c r="AK25" s="16"/>
-      <c r="AL25" s="16"/>
+      <c r="AL25" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AM25" s="16"/>
       <c r="AN25" s="16"/>
       <c r="AO25" s="50"/>
       <c r="AQ25" s="19"/>
       <c r="AR25" s="19"/>
       <c r="AS25" s="53"/>
-      <c r="AT25" s="16"/>
-      <c r="AU25" s="16"/>
-      <c r="AV25" s="16"/>
+      <c r="AT25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AW25" s="50"/>
+      <c r="AX25" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY25" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA25" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BB25" s="47"/>
     </row>
-    <row r="26" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="V26" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="W26" s="15">
-        <v>50</v>
-      </c>
-      <c r="X26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y26" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="Z26" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD26" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF26" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG26" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH26" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL26" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="16"/>
-      <c r="AO26" s="50"/>
-      <c r="AP26" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ26" s="19">
-        <v>50</v>
-      </c>
-      <c r="AR26" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS26" s="53"/>
-      <c r="AT26" s="16"/>
-      <c r="AU26" s="16"/>
-      <c r="AV26" s="16"/>
-      <c r="AW26" s="50"/>
-      <c r="AX26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY26" s="15">
-        <v>50</v>
-      </c>
-      <c r="AZ26" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="BB26" s="47"/>
+    <row r="26" spans="1:54" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="57"/>
+      <c r="AN26" s="57"/>
+      <c r="AO26" s="57"/>
+      <c r="AQ26" s="58"/>
+      <c r="AR26" s="58"/>
+      <c r="AS26" s="58"/>
+      <c r="AT26" s="57"/>
+      <c r="AU26" s="57"/>
+      <c r="AV26" s="57"/>
+      <c r="AW26" s="57"/>
+      <c r="AX26" s="82"/>
     </row>
     <row r="27" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E27" s="56"/>
       <c r="J27" s="56"/>
+      <c r="K27" s="15" t="s">
+        <v>319</v>
+      </c>
       <c r="R27" s="56"/>
+      <c r="S27" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="T27" s="56"/>
+      <c r="U27" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="V27" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="W27" s="15">
+        <v>50</v>
+      </c>
+      <c r="X27" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y27" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z27" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA27" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB27" s="15">
+        <v>20</v>
+      </c>
+      <c r="AC27" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF27" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG27" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH27" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="AI27" s="50"/>
-      <c r="AJ27" s="16"/>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="16"/>
-      <c r="AN27" s="16"/>
+      <c r="AJ27" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="18"/>
       <c r="AO27" s="50"/>
-      <c r="AP27" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ27" s="19">
-        <v>170</v>
-      </c>
-      <c r="AR27" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS27" s="53"/>
+      <c r="AQ27" s="18"/>
+      <c r="AR27" s="18"/>
+      <c r="AS27" s="50"/>
       <c r="AT27" s="16"/>
-      <c r="AU27" s="16"/>
-      <c r="AV27" s="16"/>
+      <c r="AU27" s="18"/>
+      <c r="AV27" s="18"/>
       <c r="AW27" s="50"/>
-      <c r="AX27" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY27" s="15">
-        <v>50</v>
-      </c>
-      <c r="AZ27" s="16" t="s">
-        <v>271</v>
-      </c>
+      <c r="AX27" s="78"/>
+      <c r="AY27" s="18"/>
+      <c r="AZ27" s="18"/>
+      <c r="BA27" s="18"/>
       <c r="BB27" s="47"/>
     </row>
-    <row r="28" spans="1:54" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="57"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="57"/>
-      <c r="AQ28" s="58"/>
-      <c r="AR28" s="58"/>
-      <c r="AS28" s="58"/>
-      <c r="AT28" s="57"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="57"/>
-      <c r="AW28" s="57"/>
+    <row r="28" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="56"/>
+      <c r="G28"/>
+      <c r="J28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="72"/>
+      <c r="AF28" s="72"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="73"/>
+      <c r="AJ28" s="73"/>
+      <c r="AK28" s="73"/>
+      <c r="AL28" s="73"/>
+      <c r="AM28" s="73"/>
+      <c r="AN28" s="73"/>
+      <c r="AO28" s="73"/>
+      <c r="AP28" s="71"/>
+      <c r="AQ28" s="71"/>
+      <c r="AR28" s="71"/>
+      <c r="AS28" s="74"/>
+      <c r="AT28" s="73"/>
+      <c r="AU28" s="73"/>
+      <c r="AV28" s="73"/>
+      <c r="AW28" s="73"/>
+      <c r="AX28" s="79"/>
+      <c r="AY28" s="72"/>
+      <c r="AZ28" s="72"/>
+      <c r="BA28" s="72"/>
+      <c r="BB28" s="47"/>
     </row>
     <row r="29" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E29" s="56"/>
+      <c r="G29"/>
       <c r="J29" s="56"/>
-      <c r="K29" s="15" t="s">
-        <v>82</v>
-      </c>
       <c r="R29" s="56"/>
       <c r="T29" s="56"/>
       <c r="U29" s="15" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="V29" s="15">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="W29" s="15">
+        <v>100</v>
+      </c>
+      <c r="X29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y29" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z29" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA29" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI29" s="50"/>
+      <c r="AJ29" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="16"/>
+      <c r="AN29" s="16"/>
+      <c r="AO29" s="50"/>
+      <c r="AP29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ29" s="19">
         <v>50</v>
       </c>
-      <c r="X29" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y29" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z29" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="AB29" s="15">
-        <v>20</v>
-      </c>
-      <c r="AC29" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE29" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF29" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG29" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH29" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI29" s="50"/>
-      <c r="AJ29" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="18"/>
-      <c r="AL29" s="18"/>
-      <c r="AM29" s="18"/>
-      <c r="AN29" s="18"/>
-      <c r="AO29" s="50"/>
-      <c r="AQ29" s="18"/>
-      <c r="AR29" s="18"/>
-      <c r="AS29" s="50"/>
-      <c r="AT29" s="16"/>
-      <c r="AU29" s="18"/>
-      <c r="AV29" s="18"/>
+      <c r="AR29" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS29" s="53"/>
+      <c r="AT29" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AW29" s="50"/>
-      <c r="AX29" s="18"/>
+      <c r="AX29" s="78"/>
       <c r="AY29" s="18"/>
       <c r="AZ29" s="18"/>
       <c r="BA29" s="18"/>
@@ -4311,101 +5480,83 @@
     </row>
     <row r="30" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E30" s="56"/>
+      <c r="G30"/>
       <c r="J30" s="56"/>
       <c r="R30" s="56"/>
       <c r="T30" s="56"/>
-      <c r="U30" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="V30" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="W30" s="15">
-        <v>100</v>
-      </c>
-      <c r="X30" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y30" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z30" s="15" t="s">
-        <v>311</v>
-      </c>
       <c r="AI30" s="50"/>
-      <c r="AJ30" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK30" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL30" s="16" t="b">
-        <v>0</v>
-      </c>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="16"/>
       <c r="AM30" s="16"/>
       <c r="AN30" s="16"/>
       <c r="AO30" s="50"/>
       <c r="AP30" s="15" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="AQ30" s="19">
         <v>50</v>
       </c>
-      <c r="AR30" s="19" t="s">
+      <c r="AR30" s="75" t="s">
         <v>79</v>
       </c>
       <c r="AS30" s="53"/>
-      <c r="AT30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV30" s="16" t="b">
-        <v>0</v>
-      </c>
+      <c r="AT30" s="16"/>
+      <c r="AU30" s="16"/>
+      <c r="AV30" s="16"/>
       <c r="AW30" s="50"/>
-      <c r="AX30" s="18"/>
-      <c r="AY30" s="18"/>
-      <c r="AZ30" s="18"/>
-      <c r="BA30" s="18"/>
+      <c r="AX30" s="80"/>
       <c r="BB30" s="47"/>
     </row>
     <row r="31" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E31" s="56"/>
+      <c r="G31"/>
       <c r="J31" s="56"/>
       <c r="R31" s="56"/>
       <c r="T31" s="56"/>
-      <c r="AI31" s="50"/>
-      <c r="AJ31" s="16"/>
-      <c r="AK31" s="16"/>
-      <c r="AL31" s="16"/>
-      <c r="AM31" s="16"/>
-      <c r="AN31" s="16"/>
-      <c r="AO31" s="50"/>
-      <c r="AP31" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ31" s="19">
-        <v>50</v>
-      </c>
-      <c r="AR31" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS31" s="53"/>
-      <c r="AT31" s="16"/>
-      <c r="AU31" s="16"/>
-      <c r="AV31" s="16"/>
-      <c r="AW31" s="50"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="72"/>
+      <c r="Y31" s="72"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="72"/>
+      <c r="AB31" s="72"/>
+      <c r="AC31" s="72"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="72"/>
+      <c r="AF31" s="72"/>
+      <c r="AG31" s="72"/>
+      <c r="AH31" s="72"/>
+      <c r="AI31" s="73"/>
+      <c r="AJ31" s="73"/>
+      <c r="AK31" s="73"/>
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="73"/>
+      <c r="AN31" s="73"/>
+      <c r="AO31" s="73"/>
+      <c r="AP31" s="71"/>
+      <c r="AQ31" s="71"/>
+      <c r="AR31" s="71"/>
+      <c r="AS31" s="74"/>
+      <c r="AT31" s="73"/>
+      <c r="AU31" s="73"/>
+      <c r="AV31" s="73"/>
+      <c r="AW31" s="73"/>
+      <c r="AX31" s="79"/>
+      <c r="AY31" s="72"/>
+      <c r="AZ31" s="72"/>
+      <c r="BA31" s="72"/>
       <c r="BB31" s="47"/>
     </row>
     <row r="32" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E32" s="56"/>
+      <c r="G32"/>
       <c r="J32" s="56"/>
       <c r="R32" s="56"/>
       <c r="T32" s="56"/>
       <c r="U32" s="15" t="s">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="V32" s="15">
         <v>1</v>
@@ -4421,6 +5572,12 @@
       </c>
       <c r="Z32" s="15" t="s">
         <v>311</v>
+      </c>
+      <c r="AA32" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD32" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="AI32" s="50"/>
       <c r="AJ32" s="16" t="b">
@@ -4455,10 +5612,25 @@
         <v>0</v>
       </c>
       <c r="AW32" s="50"/>
+      <c r="AX32" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY32" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ32" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA32" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BB32" s="47"/>
     </row>
-    <row r="33" spans="2:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E33" s="56"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
       <c r="J33" s="56"/>
       <c r="R33" s="56"/>
       <c r="T33" s="56"/>
@@ -4478,9 +5650,10 @@
       <c r="AU33" s="16"/>
       <c r="AV33" s="16"/>
       <c r="AW33" s="50"/>
+      <c r="AX33" s="80"/>
       <c r="BB33" s="47"/>
     </row>
-    <row r="34" spans="2:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34" s="60"/>
@@ -4534,13 +5707,13 @@
       <c r="AU34" s="17"/>
       <c r="AV34" s="17"/>
       <c r="AW34" s="51"/>
-      <c r="AX34"/>
+      <c r="AX34" s="81"/>
       <c r="AY34"/>
       <c r="AZ34"/>
       <c r="BA34"/>
       <c r="BB34" s="47"/>
     </row>
-    <row r="35" spans="2:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35" s="60"/>
@@ -4559,354 +5732,3109 @@
       <c r="R35" s="60"/>
       <c r="S35"/>
       <c r="T35" s="60"/>
-      <c r="U35" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="V35" s="15">
-        <v>1</v>
-      </c>
-      <c r="W35" s="15">
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72"/>
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="72"/>
+      <c r="AA35" s="72"/>
+      <c r="AB35" s="72"/>
+      <c r="AC35" s="72"/>
+      <c r="AD35" s="72"/>
+      <c r="AE35" s="72"/>
+      <c r="AF35" s="72"/>
+      <c r="AG35" s="72"/>
+      <c r="AH35" s="72"/>
+      <c r="AI35" s="73"/>
+      <c r="AJ35" s="73"/>
+      <c r="AK35" s="73"/>
+      <c r="AL35" s="73"/>
+      <c r="AM35" s="73"/>
+      <c r="AN35" s="73"/>
+      <c r="AO35" s="73"/>
+      <c r="AP35" s="71"/>
+      <c r="AQ35" s="71"/>
+      <c r="AR35" s="71"/>
+      <c r="AS35" s="74"/>
+      <c r="AT35" s="73"/>
+      <c r="AU35" s="73"/>
+      <c r="AV35" s="73"/>
+      <c r="AW35" s="73"/>
+      <c r="AX35" s="79"/>
+      <c r="AY35" s="72"/>
+      <c r="AZ35" s="72"/>
+      <c r="BA35" s="72"/>
+      <c r="BB35" s="47"/>
+    </row>
+    <row r="36" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36" s="60"/>
+      <c r="I36"/>
+      <c r="J36" s="60"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36" s="60"/>
+      <c r="S36"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="V36" s="15">
+        <v>1</v>
+      </c>
+      <c r="W36" s="15">
         <v>7000</v>
       </c>
-      <c r="X35" s="15" t="s">
+      <c r="X36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Y35" s="15" t="s">
+      <c r="Y36" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="Z35" s="15" t="s">
+      <c r="Z36" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="AI35" s="47"/>
-      <c r="AL35" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO35" s="47"/>
-      <c r="AS35" s="47"/>
-      <c r="AW35" s="47"/>
-      <c r="AX35"/>
-      <c r="AY35"/>
-      <c r="AZ35"/>
-      <c r="BA35"/>
-      <c r="BB35" s="47"/>
-    </row>
-    <row r="36" spans="2:54" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="T36" s="56"/>
+      <c r="AA36" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD36" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="AI36" s="50"/>
       <c r="AJ36" s="16"/>
       <c r="AK36" s="16"/>
-      <c r="AL36" s="16"/>
+      <c r="AL36" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AM36" s="16"/>
       <c r="AN36" s="16"/>
       <c r="AO36" s="50"/>
       <c r="AQ36" s="19"/>
       <c r="AR36" s="19"/>
       <c r="AS36" s="53"/>
-      <c r="AT36" s="16"/>
-      <c r="AU36" s="16"/>
-      <c r="AV36" s="16"/>
+      <c r="AT36" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AW36" s="50"/>
+      <c r="AX36" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY36" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ36" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA36" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BB36" s="47"/>
     </row>
-    <row r="37" spans="2:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="V37" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="W37" s="15">
-        <v>50</v>
-      </c>
-      <c r="X37" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y37" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="Z37" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF37" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG37" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH37" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI37" s="50"/>
-      <c r="AJ37" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK37" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL37" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM37" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN37" s="16"/>
-      <c r="AO37" s="50"/>
-      <c r="AP37" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ37" s="19">
-        <v>50</v>
-      </c>
-      <c r="AR37" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS37" s="53"/>
-      <c r="AT37" s="16"/>
-      <c r="AU37" s="16"/>
-      <c r="AV37" s="16"/>
-      <c r="AW37" s="50"/>
-      <c r="AX37" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY37" s="15">
-        <v>50</v>
-      </c>
-      <c r="AZ37" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="BB37" s="47"/>
-    </row>
-    <row r="38" spans="2:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="AI37" s="57"/>
+      <c r="AJ37" s="57"/>
+      <c r="AK37" s="57"/>
+      <c r="AL37" s="57"/>
+      <c r="AM37" s="57"/>
+      <c r="AN37" s="57"/>
+      <c r="AO37" s="57"/>
+      <c r="AQ37" s="58"/>
+      <c r="AR37" s="58"/>
+      <c r="AS37" s="58"/>
+      <c r="AT37" s="57"/>
+      <c r="AU37" s="57"/>
+      <c r="AV37" s="57"/>
+      <c r="AW37" s="57"/>
+      <c r="AX37" s="82"/>
+    </row>
+    <row r="38" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E38" s="56"/>
       <c r="J38" s="56"/>
+      <c r="K38" s="15" t="s">
+        <v>314</v>
+      </c>
       <c r="R38" s="56"/>
+      <c r="S38" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="T38" s="56"/>
+      <c r="U38" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="V38" s="15">
+        <v>1</v>
+      </c>
+      <c r="W38" s="15">
+        <v>0</v>
+      </c>
+      <c r="X38" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y38" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z38" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA38" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE38" s="15" t="s">
+        <v>315</v>
+      </c>
       <c r="AI38" s="50"/>
-      <c r="AJ38" s="16"/>
-      <c r="AK38" s="16"/>
-      <c r="AL38" s="16"/>
-      <c r="AM38" s="16"/>
-      <c r="AN38" s="16"/>
+      <c r="AJ38" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="18"/>
+      <c r="AL38" s="18"/>
+      <c r="AM38" s="18"/>
+      <c r="AN38" s="18"/>
       <c r="AO38" s="50"/>
       <c r="AP38" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="AQ38" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR38" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS38" s="50"/>
+      <c r="AT38" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="50"/>
+      <c r="AX38" s="80"/>
+      <c r="BB38" s="47"/>
+    </row>
+    <row r="39" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AQ38" s="19">
-        <v>170</v>
-      </c>
-      <c r="AR38" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS38" s="53"/>
-      <c r="AT38" s="16"/>
-      <c r="AU38" s="16"/>
-      <c r="AV38" s="16"/>
-      <c r="AW38" s="50"/>
-      <c r="AX38" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY38" s="15">
-        <v>50</v>
-      </c>
-      <c r="AZ38" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="BB38" s="47"/>
-    </row>
-    <row r="39" spans="2:54" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AI39" s="66"/>
-      <c r="AJ39" s="66"/>
-      <c r="AK39" s="66"/>
-      <c r="AL39" s="66"/>
-      <c r="AM39" s="66"/>
-      <c r="AN39" s="66"/>
-      <c r="AO39" s="66"/>
-      <c r="AQ39" s="67"/>
-      <c r="AR39" s="67"/>
-      <c r="AS39" s="67"/>
-      <c r="AT39" s="66"/>
-      <c r="AU39" s="66"/>
-      <c r="AV39" s="66"/>
-      <c r="AW39" s="66"/>
-    </row>
-    <row r="40" spans="2:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="15" t="s">
-        <v>305</v>
-      </c>
+      <c r="T39" s="56"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="72"/>
+      <c r="X39" s="72"/>
+      <c r="Y39" s="72"/>
+      <c r="Z39" s="72"/>
+      <c r="AA39" s="72"/>
+      <c r="AB39" s="72"/>
+      <c r="AC39" s="72"/>
+      <c r="AD39" s="72"/>
+      <c r="AE39" s="72"/>
+      <c r="AF39" s="72"/>
+      <c r="AG39" s="72"/>
+      <c r="AH39" s="72"/>
+      <c r="AI39" s="73"/>
+      <c r="AJ39" s="73"/>
+      <c r="AK39" s="73"/>
+      <c r="AL39" s="73"/>
+      <c r="AM39" s="73"/>
+      <c r="AN39" s="73"/>
+      <c r="AO39" s="73"/>
+      <c r="AP39" s="71"/>
+      <c r="AQ39" s="71"/>
+      <c r="AR39" s="71"/>
+      <c r="AS39" s="74"/>
+      <c r="AT39" s="73"/>
+      <c r="AU39" s="73"/>
+      <c r="AV39" s="73"/>
+      <c r="AW39" s="73"/>
+      <c r="AX39" s="79"/>
+      <c r="AY39" s="72"/>
+      <c r="AZ39" s="72"/>
+      <c r="BA39" s="72"/>
+      <c r="BB39" s="47"/>
+    </row>
+    <row r="40" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E40" s="56"/>
-      <c r="F40" s="15" t="s">
-        <v>306</v>
-      </c>
       <c r="J40" s="56"/>
       <c r="R40" s="56"/>
+      <c r="S40" s="15" t="s">
+        <v>320</v>
+      </c>
       <c r="T40" s="56"/>
+      <c r="U40" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="V40" s="15">
+        <v>1</v>
+      </c>
+      <c r="W40" s="15">
+        <v>3500</v>
+      </c>
+      <c r="X40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y40" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z40" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA40" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD40" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="AI40" s="50"/>
-      <c r="AJ40" s="16"/>
-      <c r="AK40" s="16"/>
-      <c r="AL40" s="16"/>
+      <c r="AJ40" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AM40" s="16"/>
       <c r="AN40" s="16"/>
       <c r="AO40" s="50"/>
-      <c r="AQ40" s="19"/>
-      <c r="AR40" s="19"/>
+      <c r="AP40" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ40" s="84">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="84">
+        <v>50</v>
+      </c>
       <c r="AS40" s="53"/>
-      <c r="AT40" s="16"/>
-      <c r="AU40" s="16"/>
-      <c r="AV40" s="16"/>
+      <c r="AT40" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AW40" s="50"/>
+      <c r="AX40" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY40" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ40" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA40" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BB40" s="47"/>
     </row>
-    <row r="41" spans="2:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E41" s="56"/>
-      <c r="F41" s="15" t="s">
-        <v>307</v>
-      </c>
       <c r="J41" s="56"/>
       <c r="R41" s="56"/>
       <c r="T41" s="56"/>
-      <c r="AI41" s="50"/>
-      <c r="AJ41" s="16"/>
-      <c r="AK41" s="16"/>
-      <c r="AL41" s="16"/>
-      <c r="AM41" s="16"/>
-      <c r="AN41" s="16"/>
-      <c r="AO41" s="50"/>
-      <c r="AQ41" s="19"/>
-      <c r="AR41" s="19"/>
+      <c r="AI41" s="47"/>
+      <c r="AO41" s="47"/>
+      <c r="AP41" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ41" s="84">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="84">
+        <v>50</v>
+      </c>
       <c r="AS41" s="53"/>
       <c r="AT41" s="16"/>
       <c r="AU41" s="16"/>
       <c r="AV41" s="16"/>
       <c r="AW41" s="50"/>
+      <c r="AX41" s="80"/>
       <c r="BB41" s="47"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="59"/>
+    <row r="42" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42" s="60"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42" s="60"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42" s="60"/>
+      <c r="S42"/>
+      <c r="T42" s="60"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42" s="51"/>
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="17"/>
+      <c r="AL42" s="17"/>
+      <c r="AM42" s="17"/>
+      <c r="AN42" s="17"/>
+      <c r="AO42" s="51"/>
+      <c r="AP42" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ42" s="84">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="84">
+        <v>3</v>
+      </c>
+      <c r="AS42" s="54"/>
+      <c r="AT42" s="17"/>
+      <c r="AU42" s="17"/>
+      <c r="AV42" s="17"/>
+      <c r="AW42" s="51"/>
+      <c r="AX42" s="81"/>
+      <c r="AY42"/>
+      <c r="AZ42"/>
+      <c r="BA42"/>
+      <c r="BB42" s="47"/>
+    </row>
+    <row r="43" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43" s="60"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43" s="60"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43" s="60"/>
+      <c r="S43"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="72"/>
+      <c r="V43" s="72"/>
+      <c r="W43" s="72"/>
+      <c r="X43" s="72"/>
+      <c r="Y43" s="72"/>
+      <c r="Z43" s="72"/>
+      <c r="AA43" s="72"/>
+      <c r="AB43" s="72"/>
+      <c r="AC43" s="72"/>
+      <c r="AD43" s="72"/>
+      <c r="AE43" s="72"/>
+      <c r="AF43" s="72"/>
+      <c r="AG43" s="72"/>
+      <c r="AH43" s="72"/>
+      <c r="AI43" s="73"/>
+      <c r="AJ43" s="73"/>
+      <c r="AK43" s="73"/>
+      <c r="AL43" s="73"/>
+      <c r="AM43" s="73"/>
+      <c r="AN43" s="73"/>
+      <c r="AO43" s="73"/>
+      <c r="AP43" s="71"/>
+      <c r="AQ43" s="71"/>
+      <c r="AR43" s="71"/>
+      <c r="AS43" s="74"/>
+      <c r="AT43" s="73"/>
+      <c r="AU43" s="73"/>
+      <c r="AV43" s="73"/>
+      <c r="AW43" s="73"/>
+      <c r="AX43" s="79"/>
+      <c r="AY43" s="72"/>
+      <c r="AZ43" s="72"/>
+      <c r="BA43" s="72"/>
+      <c r="BB43" s="47"/>
+    </row>
+    <row r="44" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44" s="60"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44" s="60"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44" s="60"/>
+      <c r="S44"/>
+      <c r="T44" s="60"/>
+      <c r="U44" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="V44" s="15">
+        <v>1</v>
+      </c>
+      <c r="W44" s="15">
+        <v>7000</v>
+      </c>
+      <c r="X44" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y44" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z44" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA44" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD44" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="50"/>
+      <c r="AJ44" s="16"/>
+      <c r="AK44" s="16"/>
+      <c r="AL44" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="16"/>
+      <c r="AN44" s="16"/>
+      <c r="AO44" s="50"/>
+      <c r="AQ44" s="19"/>
+      <c r="AR44" s="19"/>
+      <c r="AS44" s="53"/>
+      <c r="AT44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="50"/>
+      <c r="AX44" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY44" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ44" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA44" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB44" s="47"/>
+    </row>
+    <row r="45" spans="1:54" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="AI45" s="57"/>
+      <c r="AJ45" s="57"/>
+      <c r="AK45" s="57"/>
+      <c r="AL45" s="57"/>
+      <c r="AM45" s="57"/>
+      <c r="AN45" s="57"/>
+      <c r="AO45" s="57"/>
+      <c r="AQ45" s="58"/>
+      <c r="AR45" s="58"/>
+      <c r="AS45" s="58"/>
+      <c r="AT45" s="57"/>
+      <c r="AU45" s="57"/>
+      <c r="AV45" s="57"/>
+      <c r="AW45" s="57"/>
+      <c r="AX45" s="82"/>
+    </row>
+    <row r="46" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="R46" s="56"/>
+      <c r="S46" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T46" s="56"/>
+      <c r="U46" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="V46" s="15">
+        <v>1</v>
+      </c>
+      <c r="W46" s="15">
+        <v>0</v>
+      </c>
+      <c r="X46" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y46" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z46" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA46" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE46" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="AI46" s="50"/>
+      <c r="AJ46" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="18"/>
+      <c r="AL46" s="18"/>
+      <c r="AM46" s="18"/>
+      <c r="AN46" s="18"/>
+      <c r="AO46" s="50"/>
+      <c r="AP46" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ46" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR46" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS46" s="50"/>
+      <c r="AT46" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV46" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="50"/>
+      <c r="AX46" s="80"/>
+      <c r="BB46" s="47"/>
+    </row>
+    <row r="47" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T47" s="56"/>
+      <c r="U47" s="72"/>
+      <c r="V47" s="72"/>
+      <c r="W47" s="72"/>
+      <c r="X47" s="72"/>
+      <c r="Y47" s="72"/>
+      <c r="Z47" s="72"/>
+      <c r="AA47" s="72"/>
+      <c r="AB47" s="72"/>
+      <c r="AC47" s="72"/>
+      <c r="AD47" s="72"/>
+      <c r="AE47" s="72"/>
+      <c r="AF47" s="72"/>
+      <c r="AG47" s="72"/>
+      <c r="AH47" s="72"/>
+      <c r="AI47" s="73"/>
+      <c r="AJ47" s="73"/>
+      <c r="AK47" s="73"/>
+      <c r="AL47" s="73"/>
+      <c r="AM47" s="73"/>
+      <c r="AN47" s="73"/>
+      <c r="AO47" s="73"/>
+      <c r="AP47" s="71"/>
+      <c r="AQ47" s="71"/>
+      <c r="AR47" s="71"/>
+      <c r="AS47" s="74"/>
+      <c r="AT47" s="73"/>
+      <c r="AU47" s="73"/>
+      <c r="AV47" s="73"/>
+      <c r="AW47" s="73"/>
+      <c r="AX47" s="79"/>
+      <c r="AY47" s="72"/>
+      <c r="AZ47" s="72"/>
+      <c r="BA47" s="72"/>
+      <c r="BB47" s="47"/>
+    </row>
+    <row r="48" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="T48" s="56"/>
+      <c r="U48" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="V48" s="15">
+        <v>1</v>
+      </c>
+      <c r="W48" s="15">
+        <v>3500</v>
+      </c>
+      <c r="X48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y48" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z48" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA48" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="50"/>
+      <c r="AJ48" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="16"/>
+      <c r="AN48" s="16"/>
+      <c r="AO48" s="50"/>
+      <c r="AP48" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ48" s="84">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="84">
+        <v>50</v>
+      </c>
+      <c r="AS48" s="53"/>
+      <c r="AT48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="50"/>
+      <c r="AX48" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY48" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ48" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB48" s="47"/>
+    </row>
+    <row r="49" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="AI49" s="47"/>
+      <c r="AO49" s="47"/>
+      <c r="AP49" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ49" s="84">
+        <v>0</v>
+      </c>
+      <c r="AR49" s="84">
+        <v>50</v>
+      </c>
+      <c r="AS49" s="53"/>
+      <c r="AT49" s="16"/>
+      <c r="AU49" s="16"/>
+      <c r="AV49" s="16"/>
+      <c r="AW49" s="50"/>
+      <c r="AX49" s="80"/>
+      <c r="BB49" s="47"/>
+    </row>
+    <row r="50" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50" s="60"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50" s="60"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50" s="60"/>
+      <c r="S50"/>
+      <c r="T50" s="60"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50" s="51"/>
+      <c r="AJ50" s="17"/>
+      <c r="AK50" s="17"/>
+      <c r="AL50" s="17"/>
+      <c r="AM50" s="17"/>
+      <c r="AN50" s="17"/>
+      <c r="AO50" s="51"/>
+      <c r="AP50" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ50" s="84">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="84">
+        <v>3</v>
+      </c>
+      <c r="AS50" s="54"/>
+      <c r="AT50" s="17"/>
+      <c r="AU50" s="17"/>
+      <c r="AV50" s="17"/>
+      <c r="AW50" s="51"/>
+      <c r="AX50" s="81"/>
+      <c r="AY50"/>
+      <c r="AZ50"/>
+      <c r="BA50"/>
+      <c r="BB50" s="47"/>
+    </row>
+    <row r="51" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51" s="60"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51" s="60"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51" s="60"/>
+      <c r="S51"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="72"/>
+      <c r="V51" s="72"/>
+      <c r="W51" s="72"/>
+      <c r="X51" s="72"/>
+      <c r="Y51" s="72"/>
+      <c r="Z51" s="72"/>
+      <c r="AA51" s="72"/>
+      <c r="AB51" s="72"/>
+      <c r="AC51" s="72"/>
+      <c r="AD51" s="72"/>
+      <c r="AE51" s="72"/>
+      <c r="AF51" s="72"/>
+      <c r="AG51" s="72"/>
+      <c r="AH51" s="72"/>
+      <c r="AI51" s="73"/>
+      <c r="AJ51" s="73"/>
+      <c r="AK51" s="73"/>
+      <c r="AL51" s="73"/>
+      <c r="AM51" s="73"/>
+      <c r="AN51" s="73"/>
+      <c r="AO51" s="73"/>
+      <c r="AP51" s="71"/>
+      <c r="AQ51" s="71"/>
+      <c r="AR51" s="71"/>
+      <c r="AS51" s="74"/>
+      <c r="AT51" s="73"/>
+      <c r="AU51" s="73"/>
+      <c r="AV51" s="73"/>
+      <c r="AW51" s="73"/>
+      <c r="AX51" s="79"/>
+      <c r="AY51" s="72"/>
+      <c r="AZ51" s="72"/>
+      <c r="BA51" s="72"/>
+      <c r="BB51" s="47"/>
+    </row>
+    <row r="52" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52" s="60"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52" s="60"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52" s="60"/>
+      <c r="S52"/>
+      <c r="T52" s="60"/>
+      <c r="U52" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="V52" s="15">
+        <v>1</v>
+      </c>
+      <c r="W52" s="15">
+        <v>7000</v>
+      </c>
+      <c r="X52" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y52" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z52" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA52" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD52" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="50"/>
+      <c r="AJ52" s="16"/>
+      <c r="AK52" s="16"/>
+      <c r="AL52" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM52" s="16"/>
+      <c r="AN52" s="16"/>
+      <c r="AO52" s="50"/>
+      <c r="AQ52" s="19"/>
+      <c r="AR52" s="19"/>
+      <c r="AS52" s="53"/>
+      <c r="AT52" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU52" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV52" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW52" s="50"/>
+      <c r="AX52" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY52" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ52" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA52" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB52" s="47"/>
+    </row>
+    <row r="53" spans="1:54" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="AI53" s="57"/>
+      <c r="AJ53" s="57"/>
+      <c r="AK53" s="57"/>
+      <c r="AL53" s="57"/>
+      <c r="AM53" s="57"/>
+      <c r="AN53" s="57"/>
+      <c r="AO53" s="57"/>
+      <c r="AQ53" s="58"/>
+      <c r="AR53" s="58"/>
+      <c r="AS53" s="58"/>
+      <c r="AT53" s="57"/>
+      <c r="AU53" s="57"/>
+      <c r="AV53" s="57"/>
+      <c r="AW53" s="57"/>
+      <c r="AX53" s="82"/>
+    </row>
+    <row r="54" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="R54" s="56"/>
+      <c r="S54" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T54" s="56"/>
+      <c r="U54" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="V54" s="15">
+        <v>1</v>
+      </c>
+      <c r="W54" s="15">
+        <v>0</v>
+      </c>
+      <c r="X54" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y54" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z54" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA54" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE54" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="AI54" s="50"/>
+      <c r="AJ54" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK54" s="18"/>
+      <c r="AL54" s="18"/>
+      <c r="AM54" s="18"/>
+      <c r="AN54" s="18"/>
+      <c r="AO54" s="50"/>
+      <c r="AP54" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ54" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR54" s="19">
+        <v>50</v>
+      </c>
+      <c r="AS54" s="50"/>
+      <c r="AT54" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU54" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV54" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="50"/>
+      <c r="AX54" s="80"/>
+      <c r="BB54" s="47"/>
+    </row>
+    <row r="55" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T55" s="56"/>
+      <c r="U55" s="72"/>
+      <c r="V55" s="72"/>
+      <c r="W55" s="72"/>
+      <c r="X55" s="72"/>
+      <c r="Y55" s="72"/>
+      <c r="Z55" s="72"/>
+      <c r="AA55" s="72"/>
+      <c r="AB55" s="72"/>
+      <c r="AC55" s="72"/>
+      <c r="AD55" s="72"/>
+      <c r="AE55" s="72"/>
+      <c r="AF55" s="72"/>
+      <c r="AG55" s="72"/>
+      <c r="AH55" s="72"/>
+      <c r="AI55" s="73"/>
+      <c r="AJ55" s="73"/>
+      <c r="AK55" s="73"/>
+      <c r="AL55" s="73"/>
+      <c r="AM55" s="73"/>
+      <c r="AN55" s="73"/>
+      <c r="AO55" s="73"/>
+      <c r="AP55" s="71"/>
+      <c r="AQ55" s="71"/>
+      <c r="AR55" s="71"/>
+      <c r="AS55" s="74"/>
+      <c r="AT55" s="73"/>
+      <c r="AU55" s="73"/>
+      <c r="AV55" s="73"/>
+      <c r="AW55" s="73"/>
+      <c r="AX55" s="79"/>
+      <c r="AY55" s="72"/>
+      <c r="AZ55" s="72"/>
+      <c r="BA55" s="72"/>
+      <c r="BB55" s="47"/>
+    </row>
+    <row r="56" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="R56" s="56"/>
+      <c r="T56" s="56"/>
+      <c r="U56" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="V56" s="15">
+        <v>1</v>
+      </c>
+      <c r="W56" s="15">
+        <v>3500</v>
+      </c>
+      <c r="X56" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y56" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z56" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA56" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD56" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="50"/>
+      <c r="AJ56" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK56" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL56" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="16"/>
+      <c r="AN56" s="16"/>
+      <c r="AO56" s="50"/>
+      <c r="AP56" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ56" s="84">
+        <v>0</v>
+      </c>
+      <c r="AR56" s="84">
+        <v>50</v>
+      </c>
+      <c r="AS56" s="53"/>
+      <c r="AT56" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU56" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV56" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="50"/>
+      <c r="AX56" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY56" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ56" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA56" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB56" s="47"/>
+    </row>
+    <row r="57" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="R57" s="56"/>
+      <c r="T57" s="56"/>
+      <c r="AI57" s="47"/>
+      <c r="AO57" s="47"/>
+      <c r="AP57" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ57" s="84">
+        <v>0</v>
+      </c>
+      <c r="AR57" s="84">
+        <v>50</v>
+      </c>
+      <c r="AS57" s="53"/>
+      <c r="AT57" s="16"/>
+      <c r="AU57" s="16"/>
+      <c r="AV57" s="16"/>
+      <c r="AW57" s="50"/>
+      <c r="AX57" s="80"/>
+      <c r="BB57" s="47"/>
+    </row>
+    <row r="58" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58" s="60"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58" s="60"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58" s="60"/>
+      <c r="S58"/>
+      <c r="T58" s="60"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58" s="51"/>
+      <c r="AJ58" s="17"/>
+      <c r="AK58" s="17"/>
+      <c r="AL58" s="17"/>
+      <c r="AM58" s="17"/>
+      <c r="AN58" s="17"/>
+      <c r="AO58" s="51"/>
+      <c r="AP58" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ58" s="84">
+        <v>0</v>
+      </c>
+      <c r="AR58" s="84">
+        <v>3</v>
+      </c>
+      <c r="AS58" s="54"/>
+      <c r="AT58" s="17"/>
+      <c r="AU58" s="17"/>
+      <c r="AV58" s="17"/>
+      <c r="AW58" s="51"/>
+      <c r="AX58" s="81"/>
+      <c r="AY58"/>
+      <c r="AZ58"/>
+      <c r="BA58"/>
+      <c r="BB58" s="47"/>
+    </row>
+    <row r="59" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59" s="60"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59" s="60"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59" s="60"/>
+      <c r="S59"/>
+      <c r="T59" s="60"/>
+      <c r="U59" s="72"/>
+      <c r="V59" s="72"/>
+      <c r="W59" s="72"/>
+      <c r="X59" s="72"/>
+      <c r="Y59" s="72"/>
+      <c r="Z59" s="72"/>
+      <c r="AA59" s="72"/>
+      <c r="AB59" s="72"/>
+      <c r="AC59" s="72"/>
+      <c r="AD59" s="72"/>
+      <c r="AE59" s="72"/>
+      <c r="AF59" s="72"/>
+      <c r="AG59" s="72"/>
+      <c r="AH59" s="72"/>
+      <c r="AI59" s="73"/>
+      <c r="AJ59" s="73"/>
+      <c r="AK59" s="73"/>
+      <c r="AL59" s="73"/>
+      <c r="AM59" s="73"/>
+      <c r="AN59" s="73"/>
+      <c r="AO59" s="73"/>
+      <c r="AP59" s="71"/>
+      <c r="AQ59" s="71"/>
+      <c r="AR59" s="71"/>
+      <c r="AS59" s="74"/>
+      <c r="AT59" s="73"/>
+      <c r="AU59" s="73"/>
+      <c r="AV59" s="73"/>
+      <c r="AW59" s="73"/>
+      <c r="AX59" s="79"/>
+      <c r="AY59" s="72"/>
+      <c r="AZ59" s="72"/>
+      <c r="BA59" s="72"/>
+      <c r="BB59" s="47"/>
+    </row>
+    <row r="60" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60" s="60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60" s="60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60" s="60"/>
+      <c r="S60"/>
+      <c r="T60" s="60"/>
+      <c r="U60" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="V60" s="15">
+        <v>1</v>
+      </c>
+      <c r="W60" s="15">
+        <v>7000</v>
+      </c>
+      <c r="X60" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y60" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z60" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA60" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD60" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="50"/>
+      <c r="AJ60" s="16"/>
+      <c r="AK60" s="16"/>
+      <c r="AL60" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM60" s="16"/>
+      <c r="AN60" s="16"/>
+      <c r="AO60" s="50"/>
+      <c r="AQ60" s="19"/>
+      <c r="AR60" s="19"/>
+      <c r="AS60" s="53"/>
+      <c r="AT60" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU60" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV60" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW60" s="50"/>
+      <c r="AX60" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY60" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ60" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA60" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB60" s="47"/>
+    </row>
+    <row r="61" spans="1:54" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="AI61" s="57"/>
+      <c r="AJ61" s="57"/>
+      <c r="AK61" s="57"/>
+      <c r="AL61" s="57"/>
+      <c r="AM61" s="57"/>
+      <c r="AN61" s="57"/>
+      <c r="AO61" s="57"/>
+      <c r="AQ61" s="58"/>
+      <c r="AR61" s="58"/>
+      <c r="AS61" s="58"/>
+      <c r="AT61" s="57"/>
+      <c r="AU61" s="57"/>
+      <c r="AV61" s="57"/>
+      <c r="AW61" s="57"/>
+      <c r="AX61" s="82"/>
+    </row>
+    <row r="62" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="R62" s="56"/>
+      <c r="S62" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T62" s="56"/>
+      <c r="U62" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="V62" s="15">
+        <v>1</v>
+      </c>
+      <c r="W62" s="15">
+        <v>0</v>
+      </c>
+      <c r="X62" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y62" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z62" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE62" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI62" s="50"/>
+      <c r="AJ62" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK62" s="18"/>
+      <c r="AL62" s="18"/>
+      <c r="AM62" s="18"/>
+      <c r="AN62" s="18"/>
+      <c r="AO62" s="50"/>
+      <c r="AP62" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ62" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR62" s="19">
+        <v>50</v>
+      </c>
+      <c r="AS62" s="50"/>
+      <c r="AT62" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU62" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV62" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW62" s="50"/>
+      <c r="AX62" s="80"/>
+      <c r="BB62" s="47"/>
+    </row>
+    <row r="63" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T63" s="56"/>
+      <c r="U63" s="72"/>
+      <c r="V63" s="72"/>
+      <c r="W63" s="72"/>
+      <c r="X63" s="72"/>
+      <c r="Y63" s="72"/>
+      <c r="Z63" s="72"/>
+      <c r="AA63" s="72"/>
+      <c r="AB63" s="72"/>
+      <c r="AC63" s="72"/>
+      <c r="AD63" s="72"/>
+      <c r="AE63" s="72"/>
+      <c r="AF63" s="72"/>
+      <c r="AG63" s="72"/>
+      <c r="AH63" s="72"/>
+      <c r="AI63" s="73"/>
+      <c r="AJ63" s="73"/>
+      <c r="AK63" s="73"/>
+      <c r="AL63" s="73"/>
+      <c r="AM63" s="73"/>
+      <c r="AN63" s="73"/>
+      <c r="AO63" s="73"/>
+      <c r="AP63" s="71"/>
+      <c r="AQ63" s="71"/>
+      <c r="AR63" s="71"/>
+      <c r="AS63" s="74"/>
+      <c r="AT63" s="73"/>
+      <c r="AU63" s="73"/>
+      <c r="AV63" s="73"/>
+      <c r="AW63" s="73"/>
+      <c r="AX63" s="79"/>
+      <c r="AY63" s="72"/>
+      <c r="AZ63" s="72"/>
+      <c r="BA63" s="72"/>
+      <c r="BB63" s="47"/>
+    </row>
+    <row r="64" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="41"/>
+      <c r="E64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="R64" s="56"/>
+      <c r="T64" s="56"/>
+      <c r="U64" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="V64" s="15">
+        <v>1</v>
+      </c>
+      <c r="W64" s="15">
+        <v>3500</v>
+      </c>
+      <c r="X64" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y64" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z64" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA64" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD64" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="50"/>
+      <c r="AJ64" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK64" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="16"/>
+      <c r="AN64" s="16"/>
+      <c r="AO64" s="50"/>
+      <c r="AP64" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ64" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR64" s="19">
+        <v>50</v>
+      </c>
+      <c r="AS64" s="53"/>
+      <c r="AT64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW64" s="50"/>
+      <c r="AX64" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY64" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ64" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA64" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB64" s="47"/>
+    </row>
+    <row r="65" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="R65" s="56"/>
+      <c r="T65" s="56"/>
+      <c r="AI65" s="47"/>
+      <c r="AO65" s="47"/>
+      <c r="AP65" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ65" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR65" s="19">
+        <v>50</v>
+      </c>
+      <c r="AS65" s="53"/>
+      <c r="AT65" s="16"/>
+      <c r="AU65" s="16"/>
+      <c r="AV65" s="16"/>
+      <c r="AW65" s="50"/>
+      <c r="AX65" s="80"/>
+      <c r="BB65" s="47"/>
+    </row>
+    <row r="66" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66" s="60"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66" s="60"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66" s="60"/>
+      <c r="S66"/>
+      <c r="T66" s="60"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66"/>
+      <c r="AI66" s="51"/>
+      <c r="AJ66" s="17"/>
+      <c r="AK66" s="17"/>
+      <c r="AL66" s="17"/>
+      <c r="AM66" s="17"/>
+      <c r="AN66" s="17"/>
+      <c r="AO66" s="51"/>
+      <c r="AP66" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="20">
+        <v>3</v>
+      </c>
+      <c r="AS66" s="54"/>
+      <c r="AT66" s="17"/>
+      <c r="AU66" s="17"/>
+      <c r="AV66" s="17"/>
+      <c r="AW66" s="51"/>
+      <c r="AX66" s="81"/>
+      <c r="AY66"/>
+      <c r="AZ66"/>
+      <c r="BA66"/>
+      <c r="BB66" s="47"/>
+    </row>
+    <row r="67" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67" s="60"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67" s="60"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67" s="60"/>
+      <c r="S67"/>
+      <c r="T67" s="60"/>
+      <c r="U67" s="72"/>
+      <c r="V67" s="72"/>
+      <c r="W67" s="72"/>
+      <c r="X67" s="72"/>
+      <c r="Y67" s="72"/>
+      <c r="Z67" s="72"/>
+      <c r="AA67" s="72"/>
+      <c r="AB67" s="72"/>
+      <c r="AC67" s="72"/>
+      <c r="AD67" s="72"/>
+      <c r="AE67" s="72"/>
+      <c r="AF67" s="72"/>
+      <c r="AG67" s="72"/>
+      <c r="AH67" s="72"/>
+      <c r="AI67" s="73"/>
+      <c r="AJ67" s="73"/>
+      <c r="AK67" s="73"/>
+      <c r="AL67" s="73"/>
+      <c r="AM67" s="73"/>
+      <c r="AN67" s="73"/>
+      <c r="AO67" s="73"/>
+      <c r="AP67" s="71"/>
+      <c r="AQ67" s="71"/>
+      <c r="AR67" s="71"/>
+      <c r="AS67" s="74"/>
+      <c r="AT67" s="73"/>
+      <c r="AU67" s="73"/>
+      <c r="AV67" s="73"/>
+      <c r="AW67" s="73"/>
+      <c r="AX67" s="79"/>
+      <c r="AY67" s="72"/>
+      <c r="AZ67" s="72"/>
+      <c r="BA67" s="72"/>
+      <c r="BB67" s="47"/>
+    </row>
+    <row r="68" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68" s="60"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68" s="60"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68" s="60"/>
+      <c r="S68"/>
+      <c r="T68" s="60"/>
+      <c r="U68" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="V68" s="15">
+        <v>1</v>
+      </c>
+      <c r="W68" s="15">
+        <v>7000</v>
+      </c>
+      <c r="X68" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y68" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z68" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA68" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD68" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="50"/>
+      <c r="AJ68" s="16"/>
+      <c r="AK68" s="16"/>
+      <c r="AL68" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM68" s="16"/>
+      <c r="AN68" s="16"/>
+      <c r="AO68" s="50"/>
+      <c r="AQ68" s="19"/>
+      <c r="AR68" s="19"/>
+      <c r="AS68" s="53"/>
+      <c r="AT68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW68" s="50"/>
+      <c r="AX68" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY68" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ68" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA68" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB68" s="47"/>
+    </row>
+    <row r="69" spans="1:54" s="61" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI69" s="62"/>
+      <c r="AJ69" s="63"/>
+      <c r="AK69" s="63"/>
+      <c r="AL69" s="63"/>
+      <c r="AM69" s="62"/>
+      <c r="AN69" s="62"/>
+      <c r="AO69" s="62"/>
+      <c r="AQ69" s="64"/>
+      <c r="AR69" s="64"/>
+      <c r="AS69" s="64"/>
+      <c r="AT69" s="63"/>
+      <c r="AU69" s="63"/>
+      <c r="AV69" s="63"/>
+      <c r="AW69" s="63"/>
+      <c r="AX69" s="77"/>
+    </row>
+    <row r="70" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="41"/>
+      <c r="D70" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="E70" s="56"/>
+      <c r="F70" t="s">
+        <v>324</v>
+      </c>
+      <c r="G70" t="s">
+        <v>228</v>
+      </c>
+      <c r="H70" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" s="56"/>
+      <c r="K70" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70" t="s">
+        <v>84</v>
+      </c>
+      <c r="P70">
+        <v>20</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70" s="59"/>
+      <c r="S70" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T70" s="56"/>
+      <c r="U70" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="V70" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="W70" s="15">
+        <v>50</v>
+      </c>
+      <c r="X70" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y70" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z70" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA70" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB70" s="15">
+        <v>20</v>
+      </c>
+      <c r="AC70" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE70" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF70" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG70" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH70" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI70" s="50"/>
+      <c r="AJ70" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK70" s="18"/>
+      <c r="AL70" s="18"/>
+      <c r="AM70" s="18"/>
+      <c r="AN70" s="18"/>
+      <c r="AO70" s="50"/>
+      <c r="AP70" s="18"/>
+      <c r="AQ70" s="18"/>
+      <c r="AR70" s="18"/>
+      <c r="AS70" s="50"/>
+      <c r="AT70" s="18"/>
+      <c r="AU70" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV70" s="18"/>
+      <c r="AW70" s="50"/>
+      <c r="AX70" s="78"/>
+      <c r="AY70" s="18"/>
+      <c r="AZ70" s="18"/>
+      <c r="BA70" s="18"/>
+      <c r="BB70" s="47"/>
+    </row>
+    <row r="71" spans="1:54" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="56"/>
+      <c r="S71" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T71" s="56"/>
+      <c r="U71" s="72"/>
+      <c r="V71" s="72"/>
+      <c r="W71" s="72"/>
+      <c r="X71" s="72"/>
+      <c r="Y71" s="72"/>
+      <c r="Z71" s="72"/>
+      <c r="AA71" s="72"/>
+      <c r="AB71" s="72"/>
+      <c r="AC71" s="72"/>
+      <c r="AD71" s="72"/>
+      <c r="AE71" s="72"/>
+      <c r="AF71" s="72"/>
+      <c r="AG71" s="72"/>
+      <c r="AH71" s="72"/>
+      <c r="AI71" s="73"/>
+      <c r="AJ71" s="73"/>
+      <c r="AK71" s="73"/>
+      <c r="AL71" s="73"/>
+      <c r="AM71" s="73"/>
+      <c r="AN71" s="73"/>
+      <c r="AO71" s="73"/>
+      <c r="AP71" s="71"/>
+      <c r="AQ71" s="71"/>
+      <c r="AR71" s="71"/>
+      <c r="AS71" s="74"/>
+      <c r="AT71" s="73"/>
+      <c r="AU71" s="73"/>
+      <c r="AV71" s="73"/>
+      <c r="AW71" s="73"/>
+      <c r="AX71" s="79"/>
+      <c r="AY71" s="72"/>
+      <c r="AZ71" s="72"/>
+      <c r="BA71" s="72"/>
+    </row>
+    <row r="72" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="R72" s="56"/>
+      <c r="T72" s="56"/>
+      <c r="U72" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="V72" s="15">
+        <v>1</v>
+      </c>
+      <c r="W72" s="15">
+        <v>100</v>
+      </c>
+      <c r="X72" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y72" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z72" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA72" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD72" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="50"/>
+      <c r="AJ72" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK72" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL72" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="16"/>
+      <c r="AN72" s="16"/>
+      <c r="AO72" s="50"/>
+      <c r="AP72" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ72" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR72" s="19">
+        <v>50</v>
+      </c>
+      <c r="AS72" s="53"/>
+      <c r="AT72" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU72" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV72" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW72" s="50"/>
+      <c r="AX72" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY72" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ72" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA72" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB72" s="47"/>
+    </row>
+    <row r="73" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E73" s="56"/>
+      <c r="J73" s="56"/>
+      <c r="R73" s="56"/>
+      <c r="T73" s="56"/>
+      <c r="AI73" s="47"/>
+      <c r="AO73" s="47"/>
+      <c r="AP73" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ73" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="19">
+        <v>50</v>
+      </c>
+      <c r="AS73" s="53"/>
+      <c r="AT73" s="16"/>
+      <c r="AU73" s="16"/>
+      <c r="AV73" s="16"/>
+      <c r="AW73" s="50"/>
+      <c r="AX73" s="80"/>
+      <c r="BB73" s="47"/>
+    </row>
+    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="AP74" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ74" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR74" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:54" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="56"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="56"/>
+      <c r="U75" s="72"/>
+      <c r="V75" s="72"/>
+      <c r="W75" s="72"/>
+      <c r="X75" s="72"/>
+      <c r="Y75" s="72"/>
+      <c r="Z75" s="72"/>
+      <c r="AA75" s="72"/>
+      <c r="AB75" s="72"/>
+      <c r="AC75" s="72"/>
+      <c r="AD75" s="72"/>
+      <c r="AE75" s="72"/>
+      <c r="AF75" s="72"/>
+      <c r="AG75" s="72"/>
+      <c r="AH75" s="72"/>
+      <c r="AI75" s="73"/>
+      <c r="AJ75" s="73"/>
+      <c r="AK75" s="73"/>
+      <c r="AL75" s="73"/>
+      <c r="AM75" s="73"/>
+      <c r="AN75" s="73"/>
+      <c r="AO75" s="73"/>
+      <c r="AP75" s="71"/>
+      <c r="AQ75" s="71"/>
+      <c r="AR75" s="71"/>
+      <c r="AS75" s="74"/>
+      <c r="AT75" s="73"/>
+      <c r="AU75" s="73"/>
+      <c r="AV75" s="73"/>
+      <c r="AW75" s="73"/>
+      <c r="AX75" s="79"/>
+      <c r="AY75" s="72"/>
+      <c r="AZ75" s="72"/>
+      <c r="BA75" s="72"/>
+    </row>
+    <row r="76" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="R76" s="56"/>
+      <c r="T76" s="56"/>
+      <c r="U76" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="V76" s="15">
+        <v>1</v>
+      </c>
+      <c r="W76" s="15">
+        <v>200</v>
+      </c>
+      <c r="X76" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y76" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z76" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA76" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD76" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI76" s="50"/>
+      <c r="AJ76" s="16"/>
+      <c r="AK76" s="16"/>
+      <c r="AL76" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM76" s="16"/>
+      <c r="AN76" s="16"/>
+      <c r="AO76" s="50"/>
+      <c r="AQ76" s="19"/>
+      <c r="AR76" s="19"/>
+      <c r="AS76" s="53"/>
+      <c r="AT76" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU76" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV76" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW76" s="50"/>
+      <c r="AX76" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY76" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ76" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA76" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB76" s="47"/>
+    </row>
+    <row r="77" spans="1:54" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI77" s="66"/>
+      <c r="AJ77" s="66"/>
+      <c r="AK77" s="66"/>
+      <c r="AL77" s="66"/>
+      <c r="AM77" s="66"/>
+      <c r="AN77" s="66"/>
+      <c r="AO77" s="66"/>
+      <c r="AQ77" s="67"/>
+      <c r="AR77" s="67"/>
+      <c r="AS77" s="67"/>
+      <c r="AT77" s="66"/>
+      <c r="AU77" s="66"/>
+      <c r="AV77" s="66"/>
+      <c r="AW77" s="66"/>
+      <c r="AX77" s="83"/>
+    </row>
+    <row r="78" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E78" s="56"/>
+      <c r="F78" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="J78" s="56"/>
+      <c r="R78" s="56"/>
+      <c r="T78" s="56"/>
+      <c r="U78" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="V78" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="W78" s="15">
+        <v>50</v>
+      </c>
+      <c r="X78" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y78" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z78" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD78" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF78" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG78" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH78" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI78" s="50"/>
+      <c r="AJ78" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK78" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL78" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM78" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN78" s="16"/>
+      <c r="AO78" s="50"/>
+      <c r="AP78" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ78" s="19">
+        <v>50</v>
+      </c>
+      <c r="AR78" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS78" s="53"/>
+      <c r="AT78" s="16"/>
+      <c r="AU78" s="16"/>
+      <c r="AV78" s="16"/>
+      <c r="AW78" s="50"/>
+      <c r="AX78" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY78" s="15">
+        <v>50</v>
+      </c>
+      <c r="AZ78" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="BB78" s="47"/>
+    </row>
+    <row r="79" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E79" s="56"/>
+      <c r="F79" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="J79" s="56"/>
+      <c r="R79" s="56"/>
+      <c r="T79" s="56"/>
+      <c r="AI79" s="50"/>
+      <c r="AJ79" s="16"/>
+      <c r="AK79" s="16"/>
+      <c r="AL79" s="16"/>
+      <c r="AM79" s="16"/>
+      <c r="AN79" s="16"/>
+      <c r="AO79" s="50"/>
+      <c r="AP79" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ79" s="19">
+        <v>170</v>
+      </c>
+      <c r="AR79" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS79" s="53"/>
+      <c r="AT79" s="16"/>
+      <c r="AU79" s="16"/>
+      <c r="AV79" s="16"/>
+      <c r="AW79" s="50"/>
+      <c r="AX79" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY79" s="15">
+        <v>50</v>
+      </c>
+      <c r="AZ79" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="BB79" s="47"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="59"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AX10:XFD11 AP12 BB29:XFD35 V42:V43 S5:U5 AJ5:XFD9 AJ13:XFD14 AJ30:BA31 AJ35:BA35 AJ32:AO32 AJ10:AO10 B6:B14 W41:Z41 X42:Z43 V5:AH10 V30:X32 Z30:AH32 AA29:AE29 AJ36:XFD43 AA35:AI43 V35:Z40 C11:T11 B5:Q5 C35:U38 C6:U10 B39:U43 C13:AH14 C33:T33 C28:U32 Y28:Y32 Z28:AH28 V28:X28 B28:B38 AJ28:XFD28">
-    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
+  <conditionalFormatting sqref="AX10:XFD11 AP12 AJ5:XFD5 AJ10:AO10 B6:B12 S5:AH5 AA16:AE16 C11:T11 B5:Q5 Y15:Y16 Z15:AH15 V15:X15 AJ15:XFD15 BB38:XFD44 C9:T9 BB9:XFD9 C6:T6 C7:AH8 AJ7:XFD8 BB6:XFD6 BB16:XFD25 X80:XFD81 BB78:XFD79 B80:V81 B78:T79 B15:B25 B77:XFD77 I25:T25 I17:T17 C17:E22 I20:T22 F16:H21 I37:XFD37 B41:T44 C25:E25 F24:H25 F37:H39 B37:E40 C15:U16 I38:R38 T38:Z38 I39:T40 B71:B74 C71:I72 C10:AH10 I18:AH19 AB38:AW38 AJ18:BA19">
+    <cfRule type="cellIs" dxfId="150" priority="152" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP10:AW11">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX32:BA33 AP34 V29:W29 AJ29:BA29">
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="151" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V16:W16 AJ16:BA16">
+    <cfRule type="cellIs" dxfId="148" priority="150" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI14">
+    <cfRule type="cellIs" dxfId="147" priority="141" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE16">
+    <cfRule type="cellIs" dxfId="146" priority="148" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF16:AH16">
+    <cfRule type="cellIs" dxfId="145" priority="147" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X16:Z16">
+    <cfRule type="cellIs" dxfId="144" priority="146" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI18:AI19 AI5 AI15 AI10 AI7:AI8">
+    <cfRule type="cellIs" dxfId="143" priority="145" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI16">
+    <cfRule type="cellIs" dxfId="142" priority="144" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX14:XFD14 BB13:XFD13 AJ14:AO14 B14:W14 B13:T13 Y14:AH14">
+    <cfRule type="cellIs" dxfId="141" priority="143" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP14:AW14">
+    <cfRule type="cellIs" dxfId="140" priority="142" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U24:AO24 AS24:BA24">
+    <cfRule type="cellIs" dxfId="139" priority="114" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB38:AE38 Z37:AH37 V37:X37 AJ37:XFD37 C44:T44">
+    <cfRule type="cellIs" dxfId="138" priority="140" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V38:W38 AJ38:AW38">
+    <cfRule type="cellIs" dxfId="137" priority="139" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE38">
+    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF38:AH38">
+    <cfRule type="cellIs" dxfId="135" priority="136" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X38:Z38">
+    <cfRule type="cellIs" dxfId="134" priority="135" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI37">
+    <cfRule type="cellIs" dxfId="133" priority="134" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI38">
+    <cfRule type="cellIs" dxfId="132" priority="133" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U39:AO39 AS39:BA39">
+    <cfRule type="cellIs" dxfId="131" priority="105" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ40:AQ41">
+    <cfRule type="cellIs" dxfId="130" priority="104" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX38:BA38">
+    <cfRule type="cellIs" dxfId="129" priority="130" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX21:BA22 AP23 AJ21:AO21 U21:W21 Y21:AH21">
+    <cfRule type="cellIs" dxfId="128" priority="120" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U13:AO13 AS13:BA13">
+    <cfRule type="cellIs" dxfId="127" priority="128" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:AO9 AS9:BA9">
+    <cfRule type="cellIs" dxfId="126" priority="127" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6:AO6 AS6:BA6">
+    <cfRule type="cellIs" dxfId="125" priority="126" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U17:AO17 AS17:BA17">
+    <cfRule type="cellIs" dxfId="124" priority="125" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP25:AW25">
+    <cfRule type="cellIs" dxfId="123" priority="116" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI25">
+    <cfRule type="cellIs" dxfId="122" priority="115" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U78:BA79">
+    <cfRule type="cellIs" dxfId="121" priority="121" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB54:AE54 Z53:AH53 C53:X53 AJ53:XFD53 C60:T60 C56:T57 T55 C54:R55 T54:U54">
+    <cfRule type="cellIs" dxfId="120" priority="102" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP21:AW22">
+    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI21">
+    <cfRule type="cellIs" dxfId="118" priority="118" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX25:BA25 AJ25:AO25 V25:AH25">
+    <cfRule type="cellIs" dxfId="117" priority="117" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI44">
+    <cfRule type="cellIs" dxfId="116" priority="107" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U43:AO43 AS43:BA43">
+    <cfRule type="cellIs" dxfId="115" priority="106" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI54">
+    <cfRule type="cellIs" dxfId="114" priority="96" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U20:AO20 AS20:BA20">
+    <cfRule type="cellIs" dxfId="113" priority="113" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP44:AW44">
+    <cfRule type="cellIs" dxfId="112" priority="108" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI60">
+    <cfRule type="cellIs" dxfId="111" priority="89" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX40:BA41 AP42 AJ40:AO40 U40:AH40">
+    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP40:AP41 AR40:AW41">
+    <cfRule type="cellIs" dxfId="109" priority="111" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI40">
+    <cfRule type="cellIs" dxfId="108" priority="110" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX44:BA44 AJ44:AO44 V44:AH44">
+    <cfRule type="cellIs" dxfId="107" priority="109" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U59:AO59 AS59:BA59">
+    <cfRule type="cellIs" dxfId="106" priority="88" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U55:AO55 AS55:BA55">
+    <cfRule type="cellIs" dxfId="105" priority="87" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ56:AQ57">
+    <cfRule type="cellIs" dxfId="104" priority="86" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ64:AQ65">
+    <cfRule type="cellIs" dxfId="103" priority="68" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB54:XFD60 B53:XFD53 B56:T60 T55 B54:R55 T54:Z54 AB54:AW54">
+    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA62:AD62 Z61:AH61 C61:X61 AJ61:XFD61 C68:T68 C64:T65 T63 C62:R63 T62:U62">
+    <cfRule type="cellIs" dxfId="101" priority="84" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V54:W54 AJ54:AW54">
+    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE54">
+    <cfRule type="cellIs" dxfId="99" priority="100" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF54:AH54">
+    <cfRule type="cellIs" dxfId="98" priority="99" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X54:Z54">
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI53">
+    <cfRule type="cellIs" dxfId="96" priority="97" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI62">
+    <cfRule type="cellIs" dxfId="95" priority="78" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX54:BA54">
+    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI68">
+    <cfRule type="cellIs" dxfId="93" priority="71" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U67:AO67 AS67:BA67">
+    <cfRule type="cellIs" dxfId="92" priority="70" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP60:AW60">
+    <cfRule type="cellIs" dxfId="91" priority="90" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX56:BA57 AP58 AJ56:AO56 U56:AH56">
+    <cfRule type="cellIs" dxfId="90" priority="94" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP56:AP57 AR56:AW57">
+    <cfRule type="cellIs" dxfId="89" priority="93" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI56">
+    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX60:BA60 AJ60:AO60 V60:AH60">
+    <cfRule type="cellIs" dxfId="87" priority="91" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U63:AO63 AS63:BA63">
+    <cfRule type="cellIs" dxfId="86" priority="69" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ48:AQ49">
+    <cfRule type="cellIs" dxfId="85" priority="50" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB46:AE46 Z45:AH45 C45:X45 AJ45:XFD45 C52:T52 C49:T49 T47:T48 C46:R48 T46:U46">
+    <cfRule type="cellIs" dxfId="84" priority="66" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI52">
+    <cfRule type="cellIs" dxfId="83" priority="53" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U51:AO51 AS51:BA51">
+    <cfRule type="cellIs" dxfId="82" priority="52" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB62:XFD68 B61:XFD61 B64:T68 T63 B62:R63 T62:AD62 AF62:AW62">
+    <cfRule type="cellIs" dxfId="81" priority="85" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V62:W62 AJ62:AW62">
+    <cfRule type="cellIs" dxfId="80" priority="83" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF62:AH62">
+    <cfRule type="cellIs" dxfId="78" priority="81" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X62:Z62">
+    <cfRule type="cellIs" dxfId="77" priority="80" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI61">
+    <cfRule type="cellIs" dxfId="76" priority="79" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX62:BA62">
+    <cfRule type="cellIs" dxfId="75" priority="77" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP68:AW68">
+    <cfRule type="cellIs" dxfId="74" priority="72" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX64:BA65 AP66 AJ64:AO64 U64:AH64">
+    <cfRule type="cellIs" dxfId="73" priority="76" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP64:AP65 AR64:AW65">
+    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI64">
+    <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX68:BA68 AJ68:AO68 V68:AH68">
+    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB46:XFD52 B45:XFD45 B49:T52 T47:T48 B46:R48 T46:Z46 AB46:AW46">
+    <cfRule type="cellIs" dxfId="69" priority="67" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V46:W46 AJ46:AW46">
+    <cfRule type="cellIs" dxfId="68" priority="65" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE46">
+    <cfRule type="cellIs" dxfId="67" priority="64" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF46:AH46">
+    <cfRule type="cellIs" dxfId="66" priority="63" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X46:Z46">
+    <cfRule type="cellIs" dxfId="65" priority="62" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI45">
+    <cfRule type="cellIs" dxfId="64" priority="61" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI46">
+    <cfRule type="cellIs" dxfId="63" priority="60" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U47:AO47 AS47:BA47">
+    <cfRule type="cellIs" dxfId="62" priority="51" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX46:BA46">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP52:AW52">
+    <cfRule type="cellIs" dxfId="60" priority="54" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX48:BA49 AP50 AJ48:AO48 U48:AH48">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP48:AP49 AR48:AW49">
+    <cfRule type="cellIs" dxfId="58" priority="57" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI48">
+    <cfRule type="cellIs" dxfId="57" priority="56" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX52:BA52 AJ52:AO52 V52:AH52">
+    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ29:BA30 AB27:AE27 Y26:Y27 Z26:AH26 C26:X26 AJ26:XFD26 BB27:XFD36 B26:B36 I36:T36 I30:AH30 I28:T28 C28:E33 I31:T33 F28:H32 C36:E36 F35:H36 C27:R27 T27:U27 I29:Z29 AB29:AH29">
+    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V27:W27 AJ27:BA27">
+    <cfRule type="cellIs" dxfId="54" priority="48" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE27">
+    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF27:AH27">
+    <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X27:Z27">
+    <cfRule type="cellIs" dxfId="51" priority="45" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI29:AI30 AI26">
+    <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI27">
+    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U35:AO35 AS35:BA35">
+    <cfRule type="cellIs" dxfId="48" priority="35" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX32:BA33 AP34 AJ32:AO32 U32:AH32">
+    <cfRule type="cellIs" dxfId="47" priority="41" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U28:AO28 AS28:BA28">
+    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP36:AW36">
+    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI36">
+    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP32:AW33">
+    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI32">
+    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX36:BA36 AJ36:AO36 V36:AH36">
+    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U31:AO31 AS31:BA31">
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27">
+    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S38">
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S47:S48">
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S46">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S55">
+    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S54">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S63">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S62">
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX72:XFD73 AP74 AJ70:XFD70 AJ72:AO72 S70:AH70 C73:T73 BB71:XFD71 J71:T71 J72:AH72 B70:Q70">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP72:AW73">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI76">
+    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI70 AI72">
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX76:XFD76 BB75:XFD75 AJ76:AO76 B75:T76 V76:AH76">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP76:AW76">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U75:AO75 AS75:BA75">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U71:AO71 AS71:BA71">
     <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE29">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF29:AH29">
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X29:Z29">
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI13:AI14 AI30:AI32 AI5:AI10 AI28">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI29">
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX16:XFD16 AJ15:XFD15 AJ16:AO16 B15:AH16">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP16:AW16">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI15:AI16">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB18:XFD24 AJ19:BA20 AJ24:BA24 AJ21:AO21 V19:X21 Z19:AH21 AA18:AE18 AJ25:XFD27 C24:AI27 C22:T22 C17:U21 Y17:Y21 Z17:AH17 V17:X17 B17:B27 AJ17:XFD17">
+  <conditionalFormatting sqref="X14">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X21">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA54">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA46">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA38">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA27">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA29">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE62">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE62">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX21:BA22 AP23 V18:W18 AJ18:BA18">
+  <conditionalFormatting sqref="U25">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP21:AW22">
+  <conditionalFormatting sqref="U36">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE18">
+  <conditionalFormatting sqref="U44">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF18:AH18">
+  <conditionalFormatting sqref="U52">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X18:Z18">
+  <conditionalFormatting sqref="U60">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI19:AI21 AI17">
+  <conditionalFormatting sqref="U68">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI18">
+  <conditionalFormatting sqref="U76">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5222,7 +9150,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6766,37 +10694,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AE9:XFD10 W11 AI15:XFD21 F29:XFD29 E9:V9 N30:XFD31 M29:M31 E22:XFD28 E18:V18 E21:AH21 E16:AH17 E30:E31 G30:L31 E12:XFD14 E4:XFD8 A10:B10 A21:C31 A12:C18 A4:C9 A19:B19">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:AD10">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18:AH19 W20 E15:F15 Q15:AH15 H15:M15">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:AD19">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:P15">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7033,8 +10961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C037A8-2E4B-4616-98B2-BA1E00D5199C}">
   <dimension ref="A2:D71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7072,7 +11000,6 @@
         <v>140</v>
       </c>
       <c r="C4" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -7087,7 +11014,6 @@
         <v>140</v>
       </c>
       <c r="C5" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D5" s="33" t="s">
@@ -7102,7 +11028,6 @@
         <v>140</v>
       </c>
       <c r="C6" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D6" s="32" t="s">
@@ -7117,7 +11042,6 @@
         <v>140</v>
       </c>
       <c r="C7" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -7132,7 +11056,6 @@
         <v>140</v>
       </c>
       <c r="C8" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -7147,7 +11070,6 @@
         <v>140</v>
       </c>
       <c r="C9" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -7162,7 +11084,6 @@
         <v>140</v>
       </c>
       <c r="C10" s="34" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -7177,7 +11098,6 @@
         <v>140</v>
       </c>
       <c r="C11" s="34" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D11" s="34" t="s">
@@ -7192,7 +11112,6 @@
         <v>140</v>
       </c>
       <c r="C12" s="34" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -7207,7 +11126,6 @@
         <v>140</v>
       </c>
       <c r="C13" s="34" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D13" s="34" t="s">
@@ -7222,7 +11140,6 @@
         <v>140</v>
       </c>
       <c r="C14" s="34" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D14" s="34" t="s">
@@ -7237,7 +11154,6 @@
         <v>140</v>
       </c>
       <c r="C15" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D15" s="33" t="s">
@@ -7252,7 +11168,6 @@
         <v>153</v>
       </c>
       <c r="C16" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -7267,7 +11182,6 @@
         <v>154</v>
       </c>
       <c r="C17" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D17" s="33" t="s">
@@ -7282,7 +11196,6 @@
         <v>154</v>
       </c>
       <c r="C18" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D18" s="32" t="s">
@@ -7297,7 +11210,6 @@
         <v>155</v>
       </c>
       <c r="C19" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D19" s="33" t="s">
@@ -7308,7 +11220,6 @@
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D20" s="32"/>
@@ -7317,7 +11228,6 @@
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D21" s="35"/>
@@ -7330,7 +11240,6 @@
         <v>157</v>
       </c>
       <c r="C22" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D22" s="32" t="s">
@@ -7345,7 +11254,6 @@
         <v>157</v>
       </c>
       <c r="C23" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D23" s="33" t="s">
@@ -7360,7 +11268,6 @@
         <v>157</v>
       </c>
       <c r="C24" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -7375,7 +11282,6 @@
         <v>160</v>
       </c>
       <c r="C25" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D25" s="33" t="s">
@@ -7390,7 +11296,6 @@
         <v>162</v>
       </c>
       <c r="C26" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D26" s="32" t="s">
@@ -7401,7 +11306,6 @@
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D27" s="35"/>
@@ -7414,7 +11318,6 @@
         <v>164</v>
       </c>
       <c r="C28" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D28" s="32" t="s">
@@ -7429,7 +11332,6 @@
         <v>160</v>
       </c>
       <c r="C29" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D29" s="33" t="s">
@@ -7444,7 +11346,6 @@
         <v>166</v>
       </c>
       <c r="C30" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D30" s="32" t="s">
@@ -7459,7 +11360,6 @@
         <v>164</v>
       </c>
       <c r="C31" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D31" s="33" t="s">
@@ -7474,7 +11374,6 @@
         <v>160</v>
       </c>
       <c r="C32" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D32" s="32" t="s">
@@ -7489,7 +11388,6 @@
         <v>169</v>
       </c>
       <c r="C33" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D33" s="36" t="s">
@@ -7500,7 +11398,6 @@
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D34" s="35"/>
@@ -7513,7 +11410,6 @@
         <v>164</v>
       </c>
       <c r="C35" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D35" s="33" t="s">
@@ -7528,7 +11424,6 @@
         <v>171</v>
       </c>
       <c r="C36" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D36" s="32" t="s">
@@ -7543,7 +11438,6 @@
         <v>171</v>
       </c>
       <c r="C37" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D37" s="33" t="s">
@@ -7558,7 +11452,6 @@
         <v>164</v>
       </c>
       <c r="C38" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D38" s="32" t="s">
@@ -7573,7 +11466,6 @@
         <v>171</v>
       </c>
       <c r="C39" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D39" s="33" t="s">
@@ -7584,7 +11476,6 @@
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D40" s="38"/>
@@ -7593,7 +11484,6 @@
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D41" s="35"/>
@@ -7606,7 +11496,6 @@
         <v>160</v>
       </c>
       <c r="C42" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D42" s="32" t="s">
@@ -7617,7 +11506,6 @@
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D43" s="35"/>
@@ -7630,7 +11518,6 @@
         <v>164</v>
       </c>
       <c r="C44" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D44" s="32" t="s">
@@ -7645,7 +11532,6 @@
         <v>160</v>
       </c>
       <c r="C45" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D45" s="33" t="s">
@@ -7660,7 +11546,6 @@
         <v>140</v>
       </c>
       <c r="C46" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D46" s="32" t="s">
@@ -7675,7 +11560,6 @@
         <v>140</v>
       </c>
       <c r="C47" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D47" s="33" t="s">
@@ -7690,7 +11574,6 @@
         <v>160</v>
       </c>
       <c r="C48" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D48" s="32" t="s">
@@ -7705,7 +11588,6 @@
         <v>140</v>
       </c>
       <c r="C49" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D49" s="33" t="s">
@@ -7720,7 +11602,6 @@
         <v>140</v>
       </c>
       <c r="C50" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D50" s="32" t="s">
@@ -7735,7 +11616,6 @@
         <v>140</v>
       </c>
       <c r="C51" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D51" s="33" t="s">
@@ -7750,7 +11630,6 @@
         <v>140</v>
       </c>
       <c r="C52" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D52" s="32" t="s">
@@ -7765,7 +11644,6 @@
         <v>140</v>
       </c>
       <c r="C53" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D53" s="33" t="s">
@@ -7780,7 +11658,6 @@
         <v>140</v>
       </c>
       <c r="C54" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D54" s="32" t="s">
@@ -7795,7 +11672,6 @@
         <v>140</v>
       </c>
       <c r="C55" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D55" s="33" t="s">
@@ -7810,7 +11686,6 @@
         <v>140</v>
       </c>
       <c r="C56" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D56" s="32" t="s">
@@ -7825,7 +11700,6 @@
         <v>164</v>
       </c>
       <c r="C57" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D57" s="33" t="s">
@@ -7840,7 +11714,6 @@
         <v>140</v>
       </c>
       <c r="C58" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D58" s="32" t="s">
@@ -7855,7 +11728,6 @@
         <v>164</v>
       </c>
       <c r="C59" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D59" s="33" t="s">
@@ -7866,7 +11738,6 @@
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="35" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D60" s="35"/>
@@ -7879,7 +11750,6 @@
         <v>140</v>
       </c>
       <c r="C61" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D61" s="33" t="s">
@@ -7894,7 +11764,6 @@
         <v>140</v>
       </c>
       <c r="C62" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D62" s="32" t="s">
@@ -7909,7 +11778,6 @@
         <v>157</v>
       </c>
       <c r="C63" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D63" s="33" t="s">
@@ -7924,7 +11792,6 @@
         <v>157</v>
       </c>
       <c r="C64" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D64" s="32" t="s">
@@ -7939,7 +11806,6 @@
         <v>157</v>
       </c>
       <c r="C65" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D65" s="33" t="s">
@@ -7954,7 +11820,6 @@
         <v>160</v>
       </c>
       <c r="C66" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D66" s="32" t="s">
@@ -7965,7 +11830,6 @@
       <c r="A67" s="37"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D67" s="38"/>
@@ -7974,7 +11838,6 @@
       <c r="A68" s="35"/>
       <c r="B68" s="35"/>
       <c r="C68" s="35" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D68" s="35"/>
@@ -7987,7 +11850,6 @@
         <v>140</v>
       </c>
       <c r="C69" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D69" s="33" t="s">
@@ -8002,7 +11864,6 @@
         <v>140</v>
       </c>
       <c r="C70" s="32" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D70" s="32" t="s">
@@ -8017,7 +11878,6 @@
         <v>160</v>
       </c>
       <c r="C71" s="33" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D71" s="33" t="s">

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -4007,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:BB84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1624" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{89B7BC23-1E38-4CBA-85B0-70940B91C64D}"/>
+  <xr:revisionPtr revIDLastSave="1661" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1DA7D12E-0385-4804-A9DD-D616FE6A2368}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,6 +50,7 @@
     <author>tc={C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}</author>
     <author>tc={3FC98A93-1BD2-46CA-8439-5A569DD9E38A}</author>
     <author>tc={214FAD6C-C7E5-485F-8706-D09B002BBC46}</author>
+    <author>tc={87DFEB67-927C-442C-956F-66557C9248F0}</author>
     <author>tc={3531B4B9-52F1-48E1-BD1D-58D8097B8528}</author>
     <author>tc={2C545A15-58BF-4325-853E-F01A6E2CD754}</author>
     <author>tc={B6F30610-5DE2-43DC-8686-4075E019810F}</author>
@@ -69,7 +70,7 @@
     125</t>
       </text>
     </comment>
-    <comment ref="AP5" authorId="1" shapeId="0" xr:uid="{C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}">
+    <comment ref="AU5" authorId="1" shapeId="0" xr:uid="{C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -85,7 +86,7 @@
     250 mm</t>
       </text>
     </comment>
-    <comment ref="AP8" authorId="3" shapeId="0" xr:uid="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
+    <comment ref="AU8" authorId="3" shapeId="0" xr:uid="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -93,7 +94,15 @@
     Confirm with Peter Couch / Greg Toms</t>
       </text>
     </comment>
-    <comment ref="U44" authorId="4" shapeId="0" xr:uid="{3531B4B9-52F1-48E1-BD1D-58D8097B8528}">
+    <comment ref="AU13" authorId="4" shapeId="0" xr:uid="{87DFEB67-927C-442C-956F-66557C9248F0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    add safety factor back</t>
+      </text>
+    </comment>
+    <comment ref="Z44" authorId="5" shapeId="0" xr:uid="{3531B4B9-52F1-48E1-BD1D-58D8097B8528}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -103,7 +112,7 @@
     probs delete</t>
       </text>
     </comment>
-    <comment ref="D56" authorId="5" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+    <comment ref="D56" authorId="6" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -111,7 +120,7 @@
     Change task type to planned / reactive / risk?</t>
       </text>
     </comment>
-    <comment ref="D62" authorId="6" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
+    <comment ref="D62" authorId="7" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -119,7 +128,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="K62" authorId="7" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
+    <comment ref="K62" authorId="8" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -127,7 +136,7 @@
     Break it out later</t>
       </text>
     </comment>
-    <comment ref="AA62" authorId="8" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+    <comment ref="AF62" authorId="9" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -136,7 +145,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="U64" authorId="9" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+    <comment ref="Z64" authorId="10" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -144,7 +153,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="D70" authorId="10" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+    <comment ref="D70" authorId="11" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -152,7 +161,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="AA70" authorId="11" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+    <comment ref="AF70" authorId="12" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -161,7 +170,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="U72" authorId="12" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
+    <comment ref="Z72" authorId="13" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -174,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="332">
   <si>
     <t>Cause</t>
   </si>
@@ -1270,7 +1279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1382,6 +1391,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1410,7 +1425,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1591,6 +1606,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3042,19 +3060,22 @@
   <threadedComment ref="H5" dT="2020-09-09T03:31:05.38" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{EDC7C1E7-87D8-4DCB-A596-9C8067A50A9A}">
     <text>125</text>
   </threadedComment>
-  <threadedComment ref="AP5" dT="2020-09-09T03:27:17.71" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}">
+  <threadedComment ref="AU5" dT="2020-09-09T03:27:17.71" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}">
     <text>20mm of wallthickness loss not detectable</text>
   </threadedComment>
   <threadedComment ref="H7" dT="2020-09-09T03:31:13.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{3FC98A93-1BD2-46CA-8439-5A569DD9E38A}">
     <text>250 mm</text>
   </threadedComment>
-  <threadedComment ref="AP8" dT="2020-09-09T03:33:43.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
+  <threadedComment ref="AU8" dT="2020-09-09T03:33:43.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
     <text>Confirm with Peter Couch / Greg Toms</text>
   </threadedComment>
-  <threadedComment ref="U44" dT="2020-09-09T04:00:43.93" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{3531B4B9-52F1-48E1-BD1D-58D8097B8528}">
+  <threadedComment ref="AU13" dT="2020-09-10T03:27:58.22" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{87DFEB67-927C-442C-956F-66557C9248F0}">
+    <text>add safety factor back</text>
+  </threadedComment>
+  <threadedComment ref="Z44" dT="2020-09-09T04:00:43.93" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{3531B4B9-52F1-48E1-BD1D-58D8097B8528}">
     <text>Peter Couch</text>
   </threadedComment>
-  <threadedComment ref="U44" dT="2020-09-09T04:01:40.43" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{047CA00E-8673-4182-9066-3B4CBB601E6F}" parentId="{3531B4B9-52F1-48E1-BD1D-58D8097B8528}">
+  <threadedComment ref="Z44" dT="2020-09-09T04:01:40.43" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{047CA00E-8673-4182-9066-3B4CBB601E6F}" parentId="{3531B4B9-52F1-48E1-BD1D-58D8097B8528}">
     <text>probs delete</text>
   </threadedComment>
   <threadedComment ref="D56" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
@@ -3066,21 +3087,21 @@
   <threadedComment ref="K62" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F6470554-740D-4816-85E3-E23C5729D666}">
     <text>Break it out later</text>
   </threadedComment>
-  <threadedComment ref="AA62" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+  <threadedComment ref="AF62" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="U64" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+  <threadedComment ref="Z64" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
     <text>Make this a repair task</text>
   </threadedComment>
   <threadedComment ref="D70" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="AA70" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+  <threadedComment ref="AF70" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="U72" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{65DC17AD-63E9-433B-A662-056382EECC79}">
+  <threadedComment ref="Z72" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{65DC17AD-63E9-433B-A662-056382EECC79}">
     <text>Make this a repair task</text>
   </threadedComment>
 </ThreadedComments>
@@ -4005,10 +4026,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
-  <dimension ref="A1:BB84"/>
+  <dimension ref="A1:BG84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4028,35 +4049,35 @@
     <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.42578125" style="60" customWidth="1"/>
-    <col min="19" max="19" width="26.5703125" customWidth="1"/>
-    <col min="20" max="20" width="3.42578125" style="60" customWidth="1"/>
-    <col min="21" max="21" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.5703125" customWidth="1"/>
-    <col min="32" max="32" width="12" hidden="1" customWidth="1"/>
-    <col min="33" max="34" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="2.85546875" style="51" customWidth="1"/>
-    <col min="36" max="40" width="9.140625" style="17"/>
-    <col min="41" max="41" width="2.85546875" style="51" customWidth="1"/>
-    <col min="42" max="42" width="17.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="2.42578125" style="54" customWidth="1"/>
-    <col min="46" max="48" width="9.140625" style="17"/>
-    <col min="49" max="49" width="2.42578125" style="51" customWidth="1"/>
-    <col min="50" max="50" width="17.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.140625" style="20"/>
-    <col min="52" max="52" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="2.42578125" style="48" customWidth="1"/>
+    <col min="19" max="24" width="26.5703125" customWidth="1"/>
+    <col min="25" max="25" width="3.42578125" style="60" customWidth="1"/>
+    <col min="26" max="26" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.5703125" customWidth="1"/>
+    <col min="37" max="37" width="12" hidden="1" customWidth="1"/>
+    <col min="38" max="39" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="2.85546875" style="51" customWidth="1"/>
+    <col min="41" max="45" width="9.140625" style="17"/>
+    <col min="46" max="46" width="2.85546875" style="51" customWidth="1"/>
+    <col min="47" max="47" width="17.85546875" style="92" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2.42578125" style="54" customWidth="1"/>
+    <col min="51" max="53" width="9.140625" style="17"/>
+    <col min="54" max="54" width="2.42578125" style="51" customWidth="1"/>
+    <col min="55" max="55" width="17.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.140625" style="20"/>
+    <col min="57" max="57" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="2.42578125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1">
+    <row r="1" spans="1:59" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -4072,49 +4093,49 @@
       <c r="S1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="25" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
       <c r="AA1" s="25"/>
       <c r="AB1" s="25"/>
       <c r="AC1" s="25"/>
       <c r="AD1" s="25"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="68" t="s">
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="69" t="s">
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="96"/>
       <c r="AZ1" s="69"/>
       <c r="BA1" s="69"/>
-      <c r="BB1" s="46"/>
-    </row>
-    <row r="2" spans="1:54" s="1" customFormat="1">
+      <c r="BB1" s="70"/>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="96"/>
+      <c r="BE1" s="69"/>
+      <c r="BF1" s="69"/>
+      <c r="BG1" s="46"/>
+    </row>
+    <row r="2" spans="1:59" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
@@ -4139,59 +4160,59 @@
       <c r="S2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="25" t="s">
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
       <c r="AA2" s="25"/>
-      <c r="AB2" s="25" t="s">
-        <v>51</v>
-      </c>
+      <c r="AB2" s="25"/>
       <c r="AC2" s="25"/>
       <c r="AD2" s="25"/>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="68" t="s">
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="68" t="s">
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY2" s="96"/>
       <c r="AZ2" s="69"/>
       <c r="BA2" s="69"/>
-      <c r="BB2" s="46"/>
-    </row>
-    <row r="3" spans="1:54" s="1" customFormat="1">
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD2" s="96"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="46"/>
+    </row>
+    <row r="3" spans="1:59" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -4243,120 +4264,135 @@
       <c r="S3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="59"/>
-      <c r="U3" s="25" t="s">
+      <c r="T3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="AA3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="AB3" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="AC3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="45" t="s">
+      <c r="AD3" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="Z3" s="45" t="s">
+      <c r="AE3" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AF3" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AG3" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AH3" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AD3" s="25" t="s">
+      <c r="AI3" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AF3" s="45" t="s">
+      <c r="AK3" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="AG3" s="45" t="s">
+      <c r="AL3" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="AH3" s="45" t="s">
+      <c r="AM3" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="68" t="s">
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="AK3" s="22" t="s">
+      <c r="AP3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AL3" s="22" t="s">
+      <c r="AQ3" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AM3" s="44" t="s">
+      <c r="AR3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AN3" s="44" t="s">
+      <c r="AS3" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="68" t="s">
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="AQ3" s="24" t="s">
+      <c r="AV3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="AR3" s="24" t="s">
+      <c r="AW3" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="69" t="s">
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="AU3" s="69" t="s">
+      <c r="AZ3" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="AV3" s="69" t="s">
+      <c r="BA3" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="76" t="s">
+      <c r="BB3" s="70"/>
+      <c r="BC3" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="AY3" s="96" t="s">
+      <c r="BD3" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="AZ3" s="69" t="s">
+      <c r="BE3" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="BA3" s="69" t="s">
+      <c r="BF3" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="BB3" s="46"/>
-    </row>
-    <row r="4" spans="1:54" s="61" customFormat="1" ht="12" customHeight="1">
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="62"/>
+      <c r="BG3" s="46"/>
+    </row>
+    <row r="4" spans="1:59" s="61" customFormat="1" ht="12" customHeight="1">
       <c r="AN4" s="62"/>
-      <c r="AO4" s="62"/>
-      <c r="AP4" s="85"/>
-      <c r="AQ4" s="64"/>
-      <c r="AR4" s="64"/>
-      <c r="AS4" s="64"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="77"/>
-      <c r="AY4" s="64"/>
-    </row>
-    <row r="5" spans="1:54" s="15" customFormat="1">
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="62"/>
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="85"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="64"/>
+      <c r="AX4" s="64"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="63"/>
+      <c r="BC4" s="77"/>
+      <c r="BD4" s="64"/>
+    </row>
+    <row r="5" spans="1:59" s="15" customFormat="1">
       <c r="D5" s="15" t="s">
         <v>28</v>
       </c>
@@ -4399,78 +4435,93 @@
       <c r="S5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="56"/>
-      <c r="U5" s="15" t="s">
+      <c r="T5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="U5" s="15">
+        <v>8</v>
+      </c>
+      <c r="V5" s="15">
+        <v>0</v>
+      </c>
+      <c r="W5" s="15">
+        <v>250</v>
+      </c>
+      <c r="X5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="V5" s="45">
+      <c r="AA5" s="45">
         <v>0.8</v>
       </c>
-      <c r="W5" s="45">
+      <c r="AB5" s="45">
         <v>50</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="AC5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="AD5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="AE5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AF5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AB5" s="41">
+      <c r="AG5" s="41">
         <v>20</v>
       </c>
-      <c r="AC5" s="41">
+      <c r="AH5" s="41">
         <v>5</v>
       </c>
-      <c r="AE5" s="15" t="s">
+      <c r="AJ5" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AF5" s="15" t="s">
+      <c r="AK5" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AG5" s="15" t="s">
+      <c r="AL5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AH5" s="15" t="s">
+      <c r="AM5" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="93" t="s">
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="AQ5" s="94">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="94">
+      <c r="AV5" s="94">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="94">
         <v>-20</v>
       </c>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="18"/>
-      <c r="AU5" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="18"/>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="78"/>
-      <c r="AY5" s="97"/>
-      <c r="AZ5" s="18"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="BA5" s="18"/>
-      <c r="BB5" s="47"/>
-    </row>
-    <row r="6" spans="1:54" s="15" customFormat="1">
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="78"/>
+      <c r="BD5" s="97"/>
+      <c r="BE5" s="18"/>
+      <c r="BF5" s="18"/>
+      <c r="BG5" s="47"/>
+    </row>
+    <row r="6" spans="1:59" s="15" customFormat="1">
       <c r="E6" s="56"/>
       <c r="F6"/>
       <c r="G6"/>
@@ -4481,39 +4532,54 @@
       <c r="S6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="56"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AI6" s="50"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="50"/>
-      <c r="AP6" s="93" t="s">
+      <c r="T6" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" s="15">
+        <v>8</v>
+      </c>
+      <c r="V6" s="15">
+        <v>0</v>
+      </c>
+      <c r="W6" s="15">
+        <v>125</v>
+      </c>
+      <c r="X6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="56"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AN6" s="50"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="50"/>
+      <c r="AU6" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="AQ6" s="94">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="94">
+      <c r="AV6" s="94">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="94">
         <v>-10</v>
       </c>
-      <c r="AS6" s="50"/>
-      <c r="AT6" s="18"/>
-      <c r="AU6" s="18"/>
-      <c r="AV6" s="18"/>
-      <c r="AW6" s="50"/>
-      <c r="AX6" s="78"/>
-      <c r="AY6" s="97"/>
+      <c r="AX6" s="50"/>
+      <c r="AY6" s="18"/>
       <c r="AZ6" s="18"/>
       <c r="BA6" s="18"/>
-      <c r="BB6" s="47"/>
-    </row>
-    <row r="7" spans="1:54" s="47" customFormat="1">
+      <c r="BB6" s="50"/>
+      <c r="BC6" s="78"/>
+      <c r="BD6" s="97"/>
+      <c r="BE6" s="18"/>
+      <c r="BF6" s="18"/>
+      <c r="BG6" s="47"/>
+    </row>
+    <row r="7" spans="1:59" s="47" customFormat="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4541,12 +4607,12 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="56"/>
       <c r="S7" s="15"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="56"/>
       <c r="Z7" s="72"/>
       <c r="AA7" s="72"/>
       <c r="AB7" s="72"/>
@@ -4556,27 +4622,32 @@
       <c r="AF7" s="72"/>
       <c r="AG7" s="72"/>
       <c r="AH7" s="72"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="73"/>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="73"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72"/>
       <c r="AN7" s="73"/>
       <c r="AO7" s="73"/>
-      <c r="AP7" s="87"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
-      <c r="AS7" s="74"/>
+      <c r="AP7" s="73"/>
+      <c r="AQ7" s="73"/>
+      <c r="AR7" s="73"/>
+      <c r="AS7" s="73"/>
       <c r="AT7" s="73"/>
-      <c r="AU7" s="73"/>
-      <c r="AV7" s="73"/>
-      <c r="AW7" s="73"/>
-      <c r="AX7" s="79"/>
-      <c r="AY7" s="74"/>
-      <c r="AZ7" s="72"/>
-      <c r="BA7" s="72"/>
-    </row>
-    <row r="8" spans="1:54" s="15" customFormat="1">
+      <c r="AU7" s="87"/>
+      <c r="AV7" s="71"/>
+      <c r="AW7" s="71"/>
+      <c r="AX7" s="74"/>
+      <c r="AY7" s="73"/>
+      <c r="AZ7" s="73"/>
+      <c r="BA7" s="73"/>
+      <c r="BB7" s="73"/>
+      <c r="BC7" s="79"/>
+      <c r="BD7" s="74"/>
+      <c r="BE7" s="72"/>
+      <c r="BF7" s="72"/>
+    </row>
+    <row r="8" spans="1:59" s="15" customFormat="1">
       <c r="E8" s="56"/>
       <c r="F8" t="s">
         <v>86</v>
@@ -4592,79 +4663,79 @@
       </c>
       <c r="J8" s="56"/>
       <c r="R8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="15" t="s">
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="V8" s="42">
+      <c r="AA8" s="42">
         <v>0.9</v>
       </c>
-      <c r="W8" s="15">
+      <c r="AB8" s="15">
         <v>100</v>
       </c>
-      <c r="X8" s="15" t="s">
+      <c r="AC8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y8" s="15" t="s">
+      <c r="AD8" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="Z8" s="15" t="s">
+      <c r="AE8" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA8" s="15" t="s">
+      <c r="AF8" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AD8" s="15" t="s">
+      <c r="AI8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="50"/>
-      <c r="AP8" s="86" t="s">
+      <c r="AN8" s="50"/>
+      <c r="AO8" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="50"/>
+      <c r="AU8" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="AQ8" s="84">
+      <c r="AV8" s="84">
         <v>50</v>
       </c>
-      <c r="AR8" s="84" t="s">
+      <c r="AW8" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="AS8" s="53"/>
-      <c r="AT8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="50"/>
-      <c r="AX8" s="95" t="s">
+      <c r="AX8" s="53"/>
+      <c r="AY8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="50"/>
+      <c r="BC8" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="AY8" s="97">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="18" t="s">
+      <c r="BD8" s="97">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="BA8" s="18" t="s">
+      <c r="BF8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="BB8" s="47"/>
-    </row>
-    <row r="9" spans="1:54" s="15" customFormat="1">
+      <c r="BG8" s="47"/>
+    </row>
+    <row r="9" spans="1:59" s="15" customFormat="1">
       <c r="E9" s="56"/>
       <c r="F9" t="s">
         <v>96</v>
@@ -4680,33 +4751,33 @@
       </c>
       <c r="J9" s="56"/>
       <c r="R9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="86" t="s">
+      <c r="Y9" s="56"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="50"/>
+      <c r="AU9" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="AQ9" s="84">
+      <c r="AV9" s="84">
         <v>50</v>
       </c>
-      <c r="AR9" s="84" t="s">
+      <c r="AW9" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="AS9" s="53"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="16"/>
-      <c r="AW9" s="50"/>
-      <c r="AX9" s="80"/>
-      <c r="AY9" s="19"/>
-      <c r="BB9" s="47"/>
-    </row>
-    <row r="10" spans="1:54" s="47" customFormat="1">
+      <c r="AX9" s="53"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="80"/>
+      <c r="BD9" s="19"/>
+      <c r="BG9" s="47"/>
+    </row>
+    <row r="10" spans="1:59" s="47" customFormat="1">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -4734,12 +4805,12 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="56"/>
       <c r="S10" s="15"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="56"/>
       <c r="Z10" s="72"/>
       <c r="AA10" s="72"/>
       <c r="AB10" s="72"/>
@@ -4749,27 +4820,32 @@
       <c r="AF10" s="72"/>
       <c r="AG10" s="72"/>
       <c r="AH10" s="72"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="73"/>
-      <c r="AM10" s="73"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="72"/>
+      <c r="AM10" s="72"/>
       <c r="AN10" s="73"/>
       <c r="AO10" s="73"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="71"/>
-      <c r="AR10" s="71"/>
-      <c r="AS10" s="74"/>
+      <c r="AP10" s="73"/>
+      <c r="AQ10" s="73"/>
+      <c r="AR10" s="73"/>
+      <c r="AS10" s="73"/>
       <c r="AT10" s="73"/>
-      <c r="AU10" s="73"/>
-      <c r="AV10" s="73"/>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="72"/>
-      <c r="BA10" s="72"/>
-    </row>
-    <row r="11" spans="1:54" s="15" customFormat="1">
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="71"/>
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="73"/>
+      <c r="AZ10" s="73"/>
+      <c r="BA10" s="73"/>
+      <c r="BB10" s="73"/>
+      <c r="BC10" s="79"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="72"/>
+      <c r="BF10" s="72"/>
+    </row>
+    <row r="11" spans="1:59" s="15" customFormat="1">
       <c r="E11" s="56"/>
       <c r="F11" s="15" t="s">
         <v>100</v>
@@ -4785,79 +4861,79 @@
       </c>
       <c r="J11" s="56"/>
       <c r="R11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="15" t="s">
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="V11" s="15">
-        <v>1</v>
-      </c>
-      <c r="W11" s="45">
+      <c r="AA11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="45">
         <v>3500</v>
       </c>
-      <c r="X11" s="15" t="s">
+      <c r="AC11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y11" s="15" t="s">
+      <c r="AD11" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Z11" s="15" t="s">
+      <c r="AE11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA11" s="15" t="s">
+      <c r="AF11" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AD11" s="15" t="s">
+      <c r="AI11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK11" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="16"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="86" t="s">
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="50"/>
+      <c r="AU11" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="AQ11" s="84">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="84">
+      <c r="AV11" s="84">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="84">
         <v>50</v>
       </c>
-      <c r="AS11" s="53"/>
-      <c r="AT11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="50"/>
-      <c r="AX11" s="80" t="s">
+      <c r="AX11" s="53"/>
+      <c r="AY11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="50"/>
+      <c r="BC11" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="AY11" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ11" s="15" t="s">
+      <c r="BD11" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BA11" s="15" t="s">
+      <c r="BF11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB11" s="47"/>
-    </row>
-    <row r="12" spans="1:54" s="15" customFormat="1">
+      <c r="BG11" s="47"/>
+    </row>
+    <row r="12" spans="1:59" s="15" customFormat="1">
       <c r="E12" s="56"/>
       <c r="F12" s="15" t="s">
         <v>104</v>
@@ -4873,28 +4949,28 @@
       </c>
       <c r="J12" s="56"/>
       <c r="R12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="AI12" s="47"/>
-      <c r="AO12" s="47"/>
-      <c r="AP12" s="86" t="s">
+      <c r="Y12" s="56"/>
+      <c r="AN12" s="47"/>
+      <c r="AT12" s="47"/>
+      <c r="AU12" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="AQ12" s="84">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="84">
+      <c r="AV12" s="84">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="84">
         <v>50</v>
       </c>
-      <c r="AS12" s="53"/>
-      <c r="AT12" s="16"/>
-      <c r="AU12" s="16"/>
-      <c r="AV12" s="16"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="80"/>
-      <c r="AY12" s="19"/>
-      <c r="BB12" s="47"/>
-    </row>
-    <row r="13" spans="1:54">
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="50"/>
+      <c r="BC12" s="80"/>
+      <c r="BD12" s="19"/>
+      <c r="BG12" s="47"/>
+    </row>
+    <row r="13" spans="1:59">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="F13" s="15" t="s">
@@ -4909,17 +4985,11 @@
       <c r="I13" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="AP13" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ13" s="84">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:54" s="47" customFormat="1">
+      <c r="AU13" s="86"/>
+      <c r="AV13" s="84"/>
+      <c r="AW13" s="84"/>
+    </row>
+    <row r="14" spans="1:59" s="47" customFormat="1">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -4939,12 +5009,12 @@
       <c r="Q14" s="15"/>
       <c r="R14" s="56"/>
       <c r="S14" s="15"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="56"/>
       <c r="Z14" s="72"/>
       <c r="AA14" s="72"/>
       <c r="AB14" s="72"/>
@@ -4954,93 +5024,98 @@
       <c r="AF14" s="72"/>
       <c r="AG14" s="72"/>
       <c r="AH14" s="72"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="73"/>
-      <c r="AK14" s="73"/>
-      <c r="AL14" s="73"/>
-      <c r="AM14" s="73"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="72"/>
+      <c r="AM14" s="72"/>
       <c r="AN14" s="73"/>
       <c r="AO14" s="73"/>
-      <c r="AP14" s="87"/>
-      <c r="AQ14" s="71"/>
-      <c r="AR14" s="71"/>
-      <c r="AS14" s="74"/>
+      <c r="AP14" s="73"/>
+      <c r="AQ14" s="73"/>
+      <c r="AR14" s="73"/>
+      <c r="AS14" s="73"/>
       <c r="AT14" s="73"/>
-      <c r="AU14" s="73"/>
-      <c r="AV14" s="73"/>
-      <c r="AW14" s="73"/>
-      <c r="AX14" s="79"/>
-      <c r="AY14" s="74"/>
-      <c r="AZ14" s="72"/>
-      <c r="BA14" s="72"/>
-    </row>
-    <row r="15" spans="1:54" s="15" customFormat="1">
+      <c r="AU14" s="87"/>
+      <c r="AV14" s="71"/>
+      <c r="AW14" s="71"/>
+      <c r="AX14" s="74"/>
+      <c r="AY14" s="73"/>
+      <c r="AZ14" s="73"/>
+      <c r="BA14" s="73"/>
+      <c r="BB14" s="73"/>
+      <c r="BC14" s="79"/>
+      <c r="BD14" s="74"/>
+      <c r="BE14" s="72"/>
+      <c r="BF14" s="72"/>
+    </row>
+    <row r="15" spans="1:59" s="15" customFormat="1">
       <c r="E15" s="56"/>
       <c r="J15" s="56"/>
       <c r="R15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="15" t="s">
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="V15" s="15">
-        <v>1</v>
-      </c>
-      <c r="W15" s="45">
+      <c r="AA15" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="45">
         <v>7000</v>
       </c>
-      <c r="X15" s="15" t="s">
+      <c r="AC15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y15" s="15" t="s">
+      <c r="AD15" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Z15" s="15" t="s">
+      <c r="AE15" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA15" s="15" t="s">
+      <c r="AF15" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AD15" s="15" t="s">
+      <c r="AI15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AI15" s="50"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="16"/>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="88"/>
-      <c r="AQ15" s="19"/>
-      <c r="AR15" s="19"/>
-      <c r="AS15" s="53"/>
-      <c r="AT15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="50"/>
-      <c r="AX15" s="80" t="s">
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="16"/>
+      <c r="AP15" s="16"/>
+      <c r="AQ15" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="16"/>
+      <c r="AS15" s="16"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="88"/>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="53"/>
+      <c r="AY15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="50"/>
+      <c r="BC15" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="AY15" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ15" s="15" t="s">
+      <c r="BD15" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE15" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BA15" s="15" t="s">
+      <c r="BF15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB15" s="47"/>
-    </row>
-    <row r="16" spans="1:54" s="56" customFormat="1">
+      <c r="BG15" s="47"/>
+    </row>
+    <row r="16" spans="1:59" s="56" customFormat="1">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -5049,25 +5124,25 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-      <c r="AI16" s="57"/>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="57"/>
-      <c r="AL16" s="57"/>
-      <c r="AM16" s="57"/>
       <c r="AN16" s="57"/>
       <c r="AO16" s="57"/>
-      <c r="AP16" s="89"/>
-      <c r="AQ16" s="58"/>
-      <c r="AR16" s="58"/>
-      <c r="AS16" s="58"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="57"/>
+      <c r="AR16" s="57"/>
+      <c r="AS16" s="57"/>
       <c r="AT16" s="57"/>
-      <c r="AU16" s="57"/>
-      <c r="AV16" s="57"/>
-      <c r="AW16" s="57"/>
-      <c r="AX16" s="82"/>
-      <c r="AY16" s="58"/>
-    </row>
-    <row r="17" spans="1:54" s="15" customFormat="1">
+      <c r="AU16" s="89"/>
+      <c r="AV16" s="58"/>
+      <c r="AW16" s="58"/>
+      <c r="AX16" s="58"/>
+      <c r="AY16" s="57"/>
+      <c r="AZ16" s="57"/>
+      <c r="BA16" s="57"/>
+      <c r="BB16" s="57"/>
+      <c r="BC16" s="82"/>
+      <c r="BD16" s="58"/>
+    </row>
+    <row r="17" spans="1:59" s="15" customFormat="1">
       <c r="E17" s="56"/>
       <c r="J17" s="56"/>
       <c r="K17" s="15" t="s">
@@ -5095,77 +5170,72 @@
       <c r="S17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="T17" s="56"/>
-      <c r="U17" s="15" t="s">
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="V17" s="45">
+      <c r="AA17" s="45">
         <v>0.8</v>
       </c>
-      <c r="W17" s="15">
+      <c r="AB17" s="15">
         <v>50</v>
       </c>
-      <c r="X17" s="15" t="s">
+      <c r="AC17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Y17" s="15" t="s">
+      <c r="AD17" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="Z17" s="15" t="s">
+      <c r="AE17" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AB17" s="15">
+      <c r="AG17" s="15">
         <v>20</v>
       </c>
-      <c r="AC17" s="15">
+      <c r="AH17" s="15">
         <v>5</v>
       </c>
-      <c r="AE17" s="15" t="s">
+      <c r="AJ17" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AF17" s="15" t="s">
+      <c r="AK17" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AG17" s="15" t="s">
+      <c r="AL17" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AH17" s="15" t="s">
+      <c r="AM17" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AI17" s="50"/>
-      <c r="AJ17" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="18"/>
-      <c r="AM17" s="18"/>
-      <c r="AN17" s="18"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="88"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="18"/>
       <c r="AQ17" s="18"/>
       <c r="AR17" s="18"/>
-      <c r="AS17" s="50"/>
-      <c r="AT17" s="16"/>
-      <c r="AU17" s="18"/>
+      <c r="AS17" s="18"/>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="88"/>
       <c r="AV17" s="18"/>
-      <c r="AW17" s="50"/>
-      <c r="AX17" s="78"/>
-      <c r="AY17" s="97"/>
+      <c r="AW17" s="18"/>
+      <c r="AX17" s="50"/>
+      <c r="AY17" s="16"/>
       <c r="AZ17" s="18"/>
       <c r="BA17" s="18"/>
-      <c r="BB17" s="47"/>
-    </row>
-    <row r="18" spans="1:54" s="15" customFormat="1">
+      <c r="BB17" s="50"/>
+      <c r="BC17" s="78"/>
+      <c r="BD17" s="97"/>
+      <c r="BE17" s="18"/>
+      <c r="BF17" s="18"/>
+      <c r="BG17" s="47"/>
+    </row>
+    <row r="18" spans="1:59" s="15" customFormat="1">
       <c r="E18" s="56"/>
       <c r="G18"/>
       <c r="J18" s="56"/>
       <c r="R18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
+      <c r="Y18" s="56"/>
       <c r="Z18" s="72"/>
       <c r="AA18" s="72"/>
       <c r="AB18" s="72"/>
@@ -5175,133 +5245,138 @@
       <c r="AF18" s="72"/>
       <c r="AG18" s="72"/>
       <c r="AH18" s="72"/>
-      <c r="AI18" s="73"/>
-      <c r="AJ18" s="73"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="73"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="72"/>
       <c r="AN18" s="73"/>
       <c r="AO18" s="73"/>
-      <c r="AP18" s="87"/>
-      <c r="AQ18" s="71"/>
-      <c r="AR18" s="71"/>
-      <c r="AS18" s="74"/>
+      <c r="AP18" s="73"/>
+      <c r="AQ18" s="73"/>
+      <c r="AR18" s="73"/>
+      <c r="AS18" s="73"/>
       <c r="AT18" s="73"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="73"/>
-      <c r="AW18" s="73"/>
-      <c r="AX18" s="79"/>
-      <c r="AY18" s="74"/>
-      <c r="AZ18" s="72"/>
-      <c r="BA18" s="72"/>
-      <c r="BB18" s="47"/>
-    </row>
-    <row r="19" spans="1:54" s="15" customFormat="1">
+      <c r="AU18" s="87"/>
+      <c r="AV18" s="71"/>
+      <c r="AW18" s="71"/>
+      <c r="AX18" s="74"/>
+      <c r="AY18" s="73"/>
+      <c r="AZ18" s="73"/>
+      <c r="BA18" s="73"/>
+      <c r="BB18" s="73"/>
+      <c r="BC18" s="79"/>
+      <c r="BD18" s="74"/>
+      <c r="BE18" s="72"/>
+      <c r="BF18" s="72"/>
+      <c r="BG18" s="47"/>
+    </row>
+    <row r="19" spans="1:59" s="15" customFormat="1">
       <c r="E19" s="56"/>
       <c r="G19"/>
       <c r="J19" s="56"/>
       <c r="R19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="15" t="s">
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="V19" s="15">
-        <v>1</v>
-      </c>
-      <c r="W19" s="15">
+      <c r="AA19" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="15">
         <v>3500</v>
       </c>
-      <c r="X19" s="15" t="s">
+      <c r="AC19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y19" s="15" t="s">
+      <c r="AD19" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Z19" s="15" t="s">
+      <c r="AE19" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA19" s="15" t="s">
+      <c r="AF19" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AD19" s="15" t="s">
+      <c r="AI19" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AI19" s="50"/>
-      <c r="AJ19" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="16"/>
-      <c r="AN19" s="16"/>
-      <c r="AO19" s="50"/>
-      <c r="AP19" s="88" t="s">
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="16"/>
+      <c r="AS19" s="16"/>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="AQ19" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="19">
+      <c r="AV19" s="19">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="19">
         <v>50</v>
       </c>
-      <c r="AS19" s="53"/>
-      <c r="AT19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="50"/>
-      <c r="AX19" s="80" t="s">
+      <c r="AX19" s="53"/>
+      <c r="AY19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="50"/>
+      <c r="BC19" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="AY19" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ19" s="15" t="s">
+      <c r="BD19" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE19" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BA19" s="15" t="s">
+      <c r="BF19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB19" s="47"/>
-    </row>
-    <row r="20" spans="1:54" s="15" customFormat="1">
+      <c r="BG19" s="47"/>
+    </row>
+    <row r="20" spans="1:59" s="15" customFormat="1">
       <c r="E20" s="56"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="J20" s="56"/>
       <c r="R20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="AI20" s="47"/>
-      <c r="AO20" s="47"/>
-      <c r="AP20" s="88" t="s">
+      <c r="Y20" s="56"/>
+      <c r="AN20" s="47"/>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="AQ20" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="19">
+      <c r="AV20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="19">
         <v>50</v>
       </c>
-      <c r="AS20" s="53"/>
-      <c r="AT20" s="16"/>
-      <c r="AU20" s="16"/>
-      <c r="AV20" s="16"/>
-      <c r="AW20" s="50"/>
-      <c r="AX20" s="80"/>
-      <c r="AY20" s="19"/>
-      <c r="BB20" s="47"/>
-    </row>
-    <row r="21" spans="1:54" s="15" customFormat="1">
+      <c r="AX20" s="53"/>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="16"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="50"/>
+      <c r="BC20" s="80"/>
+      <c r="BD20" s="19"/>
+      <c r="BG20" s="47"/>
+    </row>
+    <row r="21" spans="1:59" s="15" customFormat="1">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" s="60"/>
@@ -5319,12 +5394,12 @@
       <c r="Q21"/>
       <c r="R21" s="60"/>
       <c r="S21"/>
-      <c r="T21" s="60"/>
+      <c r="T21"/>
       <c r="U21"/>
       <c r="V21"/>
       <c r="W21"/>
       <c r="X21"/>
-      <c r="Y21"/>
+      <c r="Y21" s="60"/>
       <c r="Z21"/>
       <c r="AA21"/>
       <c r="AB21"/>
@@ -5334,34 +5409,39 @@
       <c r="AF21"/>
       <c r="AG21"/>
       <c r="AH21"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
-      <c r="AO21" s="51"/>
-      <c r="AP21" s="88" t="s">
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21" s="51"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="17"/>
+      <c r="AT21" s="51"/>
+      <c r="AU21" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="AQ21" s="20">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="20">
+      <c r="AV21" s="20">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="20">
         <v>3</v>
       </c>
-      <c r="AS21" s="54"/>
-      <c r="AT21" s="17"/>
-      <c r="AU21" s="17"/>
-      <c r="AV21" s="17"/>
-      <c r="AW21" s="51"/>
-      <c r="AX21" s="81"/>
-      <c r="AY21" s="20"/>
-      <c r="AZ21"/>
-      <c r="BA21"/>
-      <c r="BB21" s="47"/>
-    </row>
-    <row r="22" spans="1:54" s="15" customFormat="1">
+      <c r="AX21" s="54"/>
+      <c r="AY21" s="17"/>
+      <c r="AZ21" s="17"/>
+      <c r="BA21" s="17"/>
+      <c r="BB21" s="51"/>
+      <c r="BC21" s="81"/>
+      <c r="BD21" s="20"/>
+      <c r="BE21"/>
+      <c r="BF21"/>
+      <c r="BG21" s="47"/>
+    </row>
+    <row r="22" spans="1:59" s="15" customFormat="1">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22" s="60"/>
@@ -5379,12 +5459,12 @@
       <c r="Q22"/>
       <c r="R22" s="60"/>
       <c r="S22"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22" s="60"/>
       <c r="Z22" s="72"/>
       <c r="AA22" s="72"/>
       <c r="AB22" s="72"/>
@@ -5394,28 +5474,33 @@
       <c r="AF22" s="72"/>
       <c r="AG22" s="72"/>
       <c r="AH22" s="72"/>
-      <c r="AI22" s="73"/>
-      <c r="AJ22" s="73"/>
-      <c r="AK22" s="73"/>
-      <c r="AL22" s="73"/>
-      <c r="AM22" s="73"/>
+      <c r="AI22" s="72"/>
+      <c r="AJ22" s="72"/>
+      <c r="AK22" s="72"/>
+      <c r="AL22" s="72"/>
+      <c r="AM22" s="72"/>
       <c r="AN22" s="73"/>
       <c r="AO22" s="73"/>
-      <c r="AP22" s="87"/>
-      <c r="AQ22" s="71"/>
-      <c r="AR22" s="71"/>
-      <c r="AS22" s="74"/>
+      <c r="AP22" s="73"/>
+      <c r="AQ22" s="73"/>
+      <c r="AR22" s="73"/>
+      <c r="AS22" s="73"/>
       <c r="AT22" s="73"/>
-      <c r="AU22" s="73"/>
-      <c r="AV22" s="73"/>
-      <c r="AW22" s="73"/>
-      <c r="AX22" s="79"/>
-      <c r="AY22" s="74"/>
-      <c r="AZ22" s="72"/>
-      <c r="BA22" s="72"/>
-      <c r="BB22" s="47"/>
-    </row>
-    <row r="23" spans="1:54" s="15" customFormat="1">
+      <c r="AU22" s="87"/>
+      <c r="AV22" s="71"/>
+      <c r="AW22" s="71"/>
+      <c r="AX22" s="74"/>
+      <c r="AY22" s="73"/>
+      <c r="AZ22" s="73"/>
+      <c r="BA22" s="73"/>
+      <c r="BB22" s="73"/>
+      <c r="BC22" s="79"/>
+      <c r="BD22" s="74"/>
+      <c r="BE22" s="72"/>
+      <c r="BF22" s="72"/>
+      <c r="BG22" s="47"/>
+    </row>
+    <row r="23" spans="1:59" s="15" customFormat="1">
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23" s="60"/>
@@ -5430,69 +5515,74 @@
       <c r="Q23"/>
       <c r="R23" s="60"/>
       <c r="S23"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="15" t="s">
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="V23" s="15">
-        <v>1</v>
-      </c>
-      <c r="W23" s="15">
+      <c r="AA23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="15">
         <v>7000</v>
       </c>
-      <c r="X23" s="15" t="s">
+      <c r="AC23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y23" s="15" t="s">
+      <c r="AD23" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Z23" s="15" t="s">
+      <c r="AE23" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA23" s="15" t="s">
+      <c r="AF23" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AD23" s="15" t="s">
+      <c r="AI23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AI23" s="50"/>
-      <c r="AJ23" s="16"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM23" s="16"/>
-      <c r="AN23" s="16"/>
-      <c r="AO23" s="50"/>
-      <c r="AP23" s="88"/>
-      <c r="AQ23" s="19"/>
-      <c r="AR23" s="19"/>
-      <c r="AS23" s="53"/>
-      <c r="AT23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="80" t="s">
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="16"/>
+      <c r="AQ23" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="16"/>
+      <c r="AT23" s="50"/>
+      <c r="AU23" s="88"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="50"/>
+      <c r="BC23" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="AY23" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ23" s="15" t="s">
+      <c r="BD23" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE23" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BA23" s="15" t="s">
+      <c r="BF23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB23" s="47"/>
-    </row>
-    <row r="24" spans="1:54" s="56" customFormat="1">
+      <c r="BG23" s="47"/>
+    </row>
+    <row r="24" spans="1:59" s="56" customFormat="1">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -5501,25 +5591,25 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
-      <c r="AI24" s="57"/>
-      <c r="AJ24" s="57"/>
-      <c r="AK24" s="57"/>
-      <c r="AL24" s="57"/>
-      <c r="AM24" s="57"/>
       <c r="AN24" s="57"/>
       <c r="AO24" s="57"/>
-      <c r="AP24" s="89"/>
-      <c r="AQ24" s="58"/>
-      <c r="AR24" s="58"/>
-      <c r="AS24" s="58"/>
+      <c r="AP24" s="57"/>
+      <c r="AQ24" s="57"/>
+      <c r="AR24" s="57"/>
+      <c r="AS24" s="57"/>
       <c r="AT24" s="57"/>
-      <c r="AU24" s="57"/>
-      <c r="AV24" s="57"/>
-      <c r="AW24" s="57"/>
-      <c r="AX24" s="82"/>
-      <c r="AY24" s="58"/>
-    </row>
-    <row r="25" spans="1:54" s="15" customFormat="1">
+      <c r="AU24" s="89"/>
+      <c r="AV24" s="58"/>
+      <c r="AW24" s="58"/>
+      <c r="AX24" s="58"/>
+      <c r="AY24" s="57"/>
+      <c r="AZ24" s="57"/>
+      <c r="BA24" s="57"/>
+      <c r="BB24" s="57"/>
+      <c r="BC24" s="82"/>
+      <c r="BD24" s="58"/>
+    </row>
+    <row r="25" spans="1:59" s="15" customFormat="1">
       <c r="E25" s="56"/>
       <c r="J25" s="56"/>
       <c r="K25" s="15" t="s">
@@ -5547,80 +5637,75 @@
       <c r="S25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T25" s="56"/>
-      <c r="U25" s="15" t="s">
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="V25" s="45">
+      <c r="AA25" s="45">
         <v>0.8</v>
       </c>
-      <c r="W25" s="15">
+      <c r="AB25" s="15">
         <v>50</v>
       </c>
-      <c r="X25" s="15" t="s">
+      <c r="AC25" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Y25" s="15" t="s">
+      <c r="AD25" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="Z25" s="15" t="s">
+      <c r="AE25" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AA25" s="15" t="s">
+      <c r="AF25" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AB25" s="15">
+      <c r="AG25" s="15">
         <v>20</v>
       </c>
-      <c r="AC25" s="15">
+      <c r="AH25" s="15">
         <v>5</v>
       </c>
-      <c r="AE25" s="15" t="s">
+      <c r="AJ25" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AF25" s="15" t="s">
+      <c r="AK25" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AG25" s="15" t="s">
+      <c r="AL25" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AH25" s="15" t="s">
+      <c r="AM25" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AI25" s="50"/>
-      <c r="AJ25" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="18"/>
-      <c r="AL25" s="18"/>
-      <c r="AM25" s="18"/>
-      <c r="AN25" s="18"/>
-      <c r="AO25" s="50"/>
-      <c r="AP25" s="88"/>
+      <c r="AN25" s="50"/>
+      <c r="AO25" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="18"/>
       <c r="AQ25" s="18"/>
       <c r="AR25" s="18"/>
-      <c r="AS25" s="50"/>
-      <c r="AT25" s="16"/>
-      <c r="AU25" s="18"/>
+      <c r="AS25" s="18"/>
+      <c r="AT25" s="50"/>
+      <c r="AU25" s="88"/>
       <c r="AV25" s="18"/>
-      <c r="AW25" s="50"/>
-      <c r="AX25" s="78"/>
-      <c r="AY25" s="97"/>
+      <c r="AW25" s="18"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="16"/>
       <c r="AZ25" s="18"/>
       <c r="BA25" s="18"/>
-      <c r="BB25" s="47"/>
-    </row>
-    <row r="26" spans="1:54" s="15" customFormat="1">
+      <c r="BB25" s="50"/>
+      <c r="BC25" s="78"/>
+      <c r="BD25" s="97"/>
+      <c r="BE25" s="18"/>
+      <c r="BF25" s="18"/>
+      <c r="BG25" s="47"/>
+    </row>
+    <row r="26" spans="1:59" s="15" customFormat="1">
       <c r="E26" s="56"/>
       <c r="G26"/>
       <c r="J26" s="56"/>
       <c r="R26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="72"/>
+      <c r="Y26" s="56"/>
       <c r="Z26" s="72"/>
       <c r="AA26" s="72"/>
       <c r="AB26" s="72"/>
@@ -5630,135 +5715,135 @@
       <c r="AF26" s="72"/>
       <c r="AG26" s="72"/>
       <c r="AH26" s="72"/>
-      <c r="AI26" s="73"/>
-      <c r="AJ26" s="73"/>
-      <c r="AK26" s="73"/>
-      <c r="AL26" s="73"/>
-      <c r="AM26" s="73"/>
+      <c r="AI26" s="72"/>
+      <c r="AJ26" s="72"/>
+      <c r="AK26" s="72"/>
+      <c r="AL26" s="72"/>
+      <c r="AM26" s="72"/>
       <c r="AN26" s="73"/>
       <c r="AO26" s="73"/>
-      <c r="AP26" s="87"/>
-      <c r="AQ26" s="71"/>
-      <c r="AR26" s="71"/>
-      <c r="AS26" s="74"/>
+      <c r="AP26" s="73"/>
+      <c r="AQ26" s="73"/>
+      <c r="AR26" s="73"/>
+      <c r="AS26" s="73"/>
       <c r="AT26" s="73"/>
-      <c r="AU26" s="73"/>
-      <c r="AV26" s="73"/>
-      <c r="AW26" s="73"/>
-      <c r="AX26" s="79"/>
-      <c r="AY26" s="74"/>
-      <c r="AZ26" s="72"/>
-      <c r="BA26" s="72"/>
-      <c r="BB26" s="47"/>
-    </row>
-    <row r="27" spans="1:54" s="15" customFormat="1">
+      <c r="AU26" s="87"/>
+      <c r="AV26" s="71"/>
+      <c r="AW26" s="71"/>
+      <c r="AX26" s="74"/>
+      <c r="AY26" s="73"/>
+      <c r="AZ26" s="73"/>
+      <c r="BA26" s="73"/>
+      <c r="BB26" s="73"/>
+      <c r="BC26" s="79"/>
+      <c r="BD26" s="74"/>
+      <c r="BE26" s="72"/>
+      <c r="BF26" s="72"/>
+      <c r="BG26" s="47"/>
+    </row>
+    <row r="27" spans="1:59" s="15" customFormat="1">
       <c r="E27" s="56"/>
       <c r="G27"/>
       <c r="J27" s="56"/>
       <c r="R27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="15" t="s">
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="V27" s="45">
+      <c r="AA27" s="45">
         <v>0.9</v>
       </c>
-      <c r="W27" s="15">
+      <c r="AB27" s="15">
         <v>100</v>
       </c>
-      <c r="X27" s="15" t="s">
+      <c r="AC27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y27" s="15" t="s">
+      <c r="AD27" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="Z27" s="15" t="s">
+      <c r="AE27" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA27" s="15" t="s">
+      <c r="AF27" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AI27" s="50"/>
-      <c r="AJ27" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="16"/>
-      <c r="AN27" s="16"/>
-      <c r="AO27" s="50"/>
-      <c r="AP27" s="86" t="s">
+      <c r="AN27" s="50"/>
+      <c r="AO27" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="16"/>
+      <c r="AS27" s="16"/>
+      <c r="AT27" s="50"/>
+      <c r="AU27" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="AQ27" s="84">
+      <c r="AV27" s="84">
         <v>50</v>
       </c>
-      <c r="AR27" s="75" t="s">
+      <c r="AW27" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="AS27" s="53"/>
-      <c r="AT27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW27" s="50"/>
-      <c r="AX27" s="78"/>
-      <c r="AY27" s="97"/>
-      <c r="AZ27" s="18"/>
-      <c r="BA27" s="18"/>
-      <c r="BB27" s="47"/>
-    </row>
-    <row r="28" spans="1:54" s="15" customFormat="1">
+      <c r="AX27" s="53"/>
+      <c r="AY27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="50"/>
+      <c r="BC27" s="78"/>
+      <c r="BD27" s="97"/>
+      <c r="BE27" s="18"/>
+      <c r="BF27" s="18"/>
+      <c r="BG27" s="47"/>
+    </row>
+    <row r="28" spans="1:59" s="15" customFormat="1">
       <c r="E28" s="56"/>
       <c r="G28"/>
       <c r="J28" s="56"/>
       <c r="R28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="16"/>
-      <c r="AL28" s="16"/>
-      <c r="AM28" s="16"/>
-      <c r="AN28" s="16"/>
-      <c r="AO28" s="50"/>
-      <c r="AP28" s="86" t="s">
+      <c r="Y28" s="56"/>
+      <c r="AN28" s="50"/>
+      <c r="AO28" s="16"/>
+      <c r="AP28" s="16"/>
+      <c r="AQ28" s="16"/>
+      <c r="AR28" s="16"/>
+      <c r="AS28" s="16"/>
+      <c r="AT28" s="50"/>
+      <c r="AU28" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="AQ28" s="84">
+      <c r="AV28" s="84">
         <v>50</v>
       </c>
-      <c r="AR28" s="75" t="s">
+      <c r="AW28" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="AS28" s="53"/>
-      <c r="AT28" s="16"/>
-      <c r="AU28" s="16"/>
-      <c r="AV28" s="16"/>
-      <c r="AW28" s="50"/>
-      <c r="AX28" s="80"/>
-      <c r="AY28" s="19"/>
-      <c r="BB28" s="47"/>
-    </row>
-    <row r="29" spans="1:54" s="15" customFormat="1">
+      <c r="AX28" s="53"/>
+      <c r="AY28" s="16"/>
+      <c r="AZ28" s="16"/>
+      <c r="BA28" s="16"/>
+      <c r="BB28" s="50"/>
+      <c r="BC28" s="80"/>
+      <c r="BD28" s="19"/>
+      <c r="BG28" s="47"/>
+    </row>
+    <row r="29" spans="1:59" s="15" customFormat="1">
       <c r="E29" s="56"/>
       <c r="G29"/>
       <c r="J29" s="56"/>
       <c r="R29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="72"/>
-      <c r="X29" s="72"/>
-      <c r="Y29" s="72"/>
+      <c r="Y29" s="56"/>
       <c r="Z29" s="72"/>
       <c r="AA29" s="72"/>
       <c r="AB29" s="72"/>
@@ -5768,133 +5853,138 @@
       <c r="AF29" s="72"/>
       <c r="AG29" s="72"/>
       <c r="AH29" s="72"/>
-      <c r="AI29" s="73"/>
-      <c r="AJ29" s="73"/>
-      <c r="AK29" s="73"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="73"/>
+      <c r="AI29" s="72"/>
+      <c r="AJ29" s="72"/>
+      <c r="AK29" s="72"/>
+      <c r="AL29" s="72"/>
+      <c r="AM29" s="72"/>
       <c r="AN29" s="73"/>
       <c r="AO29" s="73"/>
-      <c r="AP29" s="87"/>
-      <c r="AQ29" s="71"/>
-      <c r="AR29" s="71"/>
-      <c r="AS29" s="74"/>
+      <c r="AP29" s="73"/>
+      <c r="AQ29" s="73"/>
+      <c r="AR29" s="73"/>
+      <c r="AS29" s="73"/>
       <c r="AT29" s="73"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="73"/>
-      <c r="AW29" s="73"/>
-      <c r="AX29" s="79"/>
-      <c r="AY29" s="74"/>
-      <c r="AZ29" s="72"/>
-      <c r="BA29" s="72"/>
-      <c r="BB29" s="47"/>
-    </row>
-    <row r="30" spans="1:54" s="15" customFormat="1">
+      <c r="AU29" s="87"/>
+      <c r="AV29" s="71"/>
+      <c r="AW29" s="71"/>
+      <c r="AX29" s="74"/>
+      <c r="AY29" s="73"/>
+      <c r="AZ29" s="73"/>
+      <c r="BA29" s="73"/>
+      <c r="BB29" s="73"/>
+      <c r="BC29" s="79"/>
+      <c r="BD29" s="74"/>
+      <c r="BE29" s="72"/>
+      <c r="BF29" s="72"/>
+      <c r="BG29" s="47"/>
+    </row>
+    <row r="30" spans="1:59" s="15" customFormat="1">
       <c r="E30" s="56"/>
       <c r="G30"/>
       <c r="J30" s="56"/>
       <c r="R30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="15" t="s">
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="V30" s="15">
-        <v>1</v>
-      </c>
-      <c r="W30" s="15">
+      <c r="AA30" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="15">
         <v>3500</v>
       </c>
-      <c r="X30" s="15" t="s">
+      <c r="AC30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y30" s="15" t="s">
+      <c r="AD30" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Z30" s="15" t="s">
+      <c r="AE30" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA30" s="15" t="s">
+      <c r="AF30" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AD30" s="15" t="s">
+      <c r="AI30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AI30" s="50"/>
-      <c r="AJ30" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK30" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="16"/>
-      <c r="AN30" s="16"/>
-      <c r="AO30" s="50"/>
-      <c r="AP30" s="88" t="s">
+      <c r="AN30" s="50"/>
+      <c r="AO30" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="16"/>
+      <c r="AS30" s="16"/>
+      <c r="AT30" s="50"/>
+      <c r="AU30" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="AQ30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR30" s="19">
+      <c r="AV30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="19">
         <v>50</v>
       </c>
-      <c r="AS30" s="53"/>
-      <c r="AT30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW30" s="50"/>
-      <c r="AX30" s="80" t="s">
+      <c r="AX30" s="53"/>
+      <c r="AY30" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="50"/>
+      <c r="BC30" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="AY30" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ30" s="15" t="s">
+      <c r="BD30" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE30" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BA30" s="15" t="s">
+      <c r="BF30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB30" s="47"/>
-    </row>
-    <row r="31" spans="1:54" s="15" customFormat="1">
+      <c r="BG30" s="47"/>
+    </row>
+    <row r="31" spans="1:59" s="15" customFormat="1">
       <c r="E31" s="56"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="J31" s="56"/>
       <c r="R31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="AI31" s="47"/>
-      <c r="AO31" s="47"/>
-      <c r="AP31" s="88" t="s">
+      <c r="Y31" s="56"/>
+      <c r="AN31" s="47"/>
+      <c r="AT31" s="47"/>
+      <c r="AU31" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="AQ31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR31" s="19">
+      <c r="AV31" s="19">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="19">
         <v>50</v>
       </c>
-      <c r="AS31" s="53"/>
-      <c r="AT31" s="16"/>
-      <c r="AU31" s="16"/>
-      <c r="AV31" s="16"/>
-      <c r="AW31" s="50"/>
-      <c r="AX31" s="80"/>
-      <c r="AY31" s="19"/>
-      <c r="BB31" s="47"/>
-    </row>
-    <row r="32" spans="1:54" s="15" customFormat="1">
+      <c r="AX31" s="53"/>
+      <c r="AY31" s="16"/>
+      <c r="AZ31" s="16"/>
+      <c r="BA31" s="16"/>
+      <c r="BB31" s="50"/>
+      <c r="BC31" s="80"/>
+      <c r="BD31" s="19"/>
+      <c r="BG31" s="47"/>
+    </row>
+    <row r="32" spans="1:59" s="15" customFormat="1">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32" s="60"/>
@@ -5912,12 +6002,12 @@
       <c r="Q32"/>
       <c r="R32" s="60"/>
       <c r="S32"/>
-      <c r="T32" s="60"/>
+      <c r="T32"/>
       <c r="U32"/>
       <c r="V32"/>
       <c r="W32"/>
       <c r="X32"/>
-      <c r="Y32"/>
+      <c r="Y32" s="60"/>
       <c r="Z32"/>
       <c r="AA32"/>
       <c r="AB32"/>
@@ -5927,34 +6017,39 @@
       <c r="AF32"/>
       <c r="AG32"/>
       <c r="AH32"/>
-      <c r="AI32" s="51"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17"/>
-      <c r="AN32" s="17"/>
-      <c r="AO32" s="51"/>
-      <c r="AP32" s="88" t="s">
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32" s="51"/>
+      <c r="AO32" s="17"/>
+      <c r="AP32" s="17"/>
+      <c r="AQ32" s="17"/>
+      <c r="AR32" s="17"/>
+      <c r="AS32" s="17"/>
+      <c r="AT32" s="51"/>
+      <c r="AU32" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="AQ32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AR32" s="20">
+      <c r="AV32" s="20">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="20">
         <v>3</v>
       </c>
-      <c r="AS32" s="54"/>
-      <c r="AT32" s="17"/>
-      <c r="AU32" s="17"/>
-      <c r="AV32" s="17"/>
-      <c r="AW32" s="51"/>
-      <c r="AX32" s="81"/>
-      <c r="AY32" s="20"/>
-      <c r="AZ32"/>
-      <c r="BA32"/>
-      <c r="BB32" s="47"/>
-    </row>
-    <row r="33" spans="1:54" s="15" customFormat="1">
+      <c r="AX32" s="54"/>
+      <c r="AY32" s="17"/>
+      <c r="AZ32" s="17"/>
+      <c r="BA32" s="17"/>
+      <c r="BB32" s="51"/>
+      <c r="BC32" s="81"/>
+      <c r="BD32" s="20"/>
+      <c r="BE32"/>
+      <c r="BF32"/>
+      <c r="BG32" s="47"/>
+    </row>
+    <row r="33" spans="1:59" s="15" customFormat="1">
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33" s="60"/>
@@ -5972,12 +6067,12 @@
       <c r="Q33"/>
       <c r="R33" s="60"/>
       <c r="S33"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="72"/>
-      <c r="X33" s="72"/>
-      <c r="Y33" s="72"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33" s="60"/>
       <c r="Z33" s="72"/>
       <c r="AA33" s="72"/>
       <c r="AB33" s="72"/>
@@ -5987,28 +6082,33 @@
       <c r="AF33" s="72"/>
       <c r="AG33" s="72"/>
       <c r="AH33" s="72"/>
-      <c r="AI33" s="73"/>
-      <c r="AJ33" s="73"/>
-      <c r="AK33" s="73"/>
-      <c r="AL33" s="73"/>
-      <c r="AM33" s="73"/>
+      <c r="AI33" s="72"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="72"/>
+      <c r="AL33" s="72"/>
+      <c r="AM33" s="72"/>
       <c r="AN33" s="73"/>
       <c r="AO33" s="73"/>
-      <c r="AP33" s="87"/>
-      <c r="AQ33" s="71"/>
-      <c r="AR33" s="71"/>
-      <c r="AS33" s="74"/>
+      <c r="AP33" s="73"/>
+      <c r="AQ33" s="73"/>
+      <c r="AR33" s="73"/>
+      <c r="AS33" s="73"/>
       <c r="AT33" s="73"/>
-      <c r="AU33" s="73"/>
-      <c r="AV33" s="73"/>
-      <c r="AW33" s="73"/>
-      <c r="AX33" s="79"/>
-      <c r="AY33" s="74"/>
-      <c r="AZ33" s="72"/>
-      <c r="BA33" s="72"/>
-      <c r="BB33" s="47"/>
-    </row>
-    <row r="34" spans="1:54" s="15" customFormat="1">
+      <c r="AU33" s="87"/>
+      <c r="AV33" s="71"/>
+      <c r="AW33" s="71"/>
+      <c r="AX33" s="74"/>
+      <c r="AY33" s="73"/>
+      <c r="AZ33" s="73"/>
+      <c r="BA33" s="73"/>
+      <c r="BB33" s="73"/>
+      <c r="BC33" s="79"/>
+      <c r="BD33" s="74"/>
+      <c r="BE33" s="72"/>
+      <c r="BF33" s="72"/>
+      <c r="BG33" s="47"/>
+    </row>
+    <row r="34" spans="1:59" s="15" customFormat="1">
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34" s="60"/>
@@ -6023,69 +6123,74 @@
       <c r="Q34"/>
       <c r="R34" s="60"/>
       <c r="S34"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="15" t="s">
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="V34" s="15">
-        <v>1</v>
-      </c>
-      <c r="W34" s="15">
+      <c r="AA34" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="15">
         <v>7000</v>
       </c>
-      <c r="X34" s="15" t="s">
+      <c r="AC34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y34" s="15" t="s">
+      <c r="AD34" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Z34" s="15" t="s">
+      <c r="AE34" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA34" s="15" t="s">
+      <c r="AF34" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AD34" s="15" t="s">
+      <c r="AI34" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AI34" s="50"/>
-      <c r="AJ34" s="16"/>
-      <c r="AK34" s="16"/>
-      <c r="AL34" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM34" s="16"/>
-      <c r="AN34" s="16"/>
-      <c r="AO34" s="50"/>
-      <c r="AP34" s="88"/>
-      <c r="AQ34" s="19"/>
-      <c r="AR34" s="19"/>
-      <c r="AS34" s="53"/>
-      <c r="AT34" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU34" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV34" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW34" s="50"/>
-      <c r="AX34" s="80" t="s">
+      <c r="AN34" s="50"/>
+      <c r="AO34" s="16"/>
+      <c r="AP34" s="16"/>
+      <c r="AQ34" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="16"/>
+      <c r="AS34" s="16"/>
+      <c r="AT34" s="50"/>
+      <c r="AU34" s="88"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="50"/>
+      <c r="BC34" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="AY34" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ34" s="15" t="s">
+      <c r="BD34" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE34" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BA34" s="15" t="s">
+      <c r="BF34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB34" s="47"/>
-    </row>
-    <row r="35" spans="1:54" s="56" customFormat="1">
+      <c r="BG34" s="47"/>
+    </row>
+    <row r="35" spans="1:59" s="56" customFormat="1">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -6094,25 +6199,25 @@
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
-      <c r="AI35" s="57"/>
-      <c r="AJ35" s="57"/>
-      <c r="AK35" s="57"/>
-      <c r="AL35" s="57"/>
-      <c r="AM35" s="57"/>
       <c r="AN35" s="57"/>
       <c r="AO35" s="57"/>
-      <c r="AP35" s="89"/>
-      <c r="AQ35" s="58"/>
-      <c r="AR35" s="58"/>
-      <c r="AS35" s="58"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="57"/>
+      <c r="AR35" s="57"/>
+      <c r="AS35" s="57"/>
       <c r="AT35" s="57"/>
-      <c r="AU35" s="57"/>
-      <c r="AV35" s="57"/>
-      <c r="AW35" s="57"/>
-      <c r="AX35" s="82"/>
-      <c r="AY35" s="58"/>
-    </row>
-    <row r="36" spans="1:54" s="15" customFormat="1">
+      <c r="AU35" s="89"/>
+      <c r="AV35" s="58"/>
+      <c r="AW35" s="58"/>
+      <c r="AX35" s="58"/>
+      <c r="AY35" s="57"/>
+      <c r="AZ35" s="57"/>
+      <c r="BA35" s="57"/>
+      <c r="BB35" s="57"/>
+      <c r="BC35" s="82"/>
+      <c r="BD35" s="58"/>
+    </row>
+    <row r="36" spans="1:59" s="15" customFormat="1">
       <c r="E36" s="56"/>
       <c r="J36" s="56"/>
       <c r="K36" s="15" t="s">
@@ -6140,68 +6245,68 @@
       <c r="S36" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="56"/>
-      <c r="U36" s="15" t="s">
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="V36" s="15">
+      <c r="AA36" s="15">
         <v>0.99</v>
       </c>
-      <c r="W36" s="15">
-        <v>0</v>
-      </c>
-      <c r="X36" s="15" t="s">
+      <c r="AB36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Y36" s="15" t="s">
+      <c r="AD36" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="Z36" s="15" t="s">
+      <c r="AE36" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AA36" s="15" t="s">
+      <c r="AF36" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AE36" s="15" t="s">
+      <c r="AJ36" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="AI36" s="50"/>
-      <c r="AJ36" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK36" s="18"/>
-      <c r="AL36" s="18"/>
-      <c r="AM36" s="18"/>
-      <c r="AN36" s="18"/>
-      <c r="AO36" s="50"/>
-      <c r="AP36" s="88" t="s">
+      <c r="AN36" s="50"/>
+      <c r="AO36" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="18"/>
+      <c r="AQ36" s="18"/>
+      <c r="AR36" s="18"/>
+      <c r="AS36" s="18"/>
+      <c r="AT36" s="50"/>
+      <c r="AU36" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="AQ36" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR36" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS36" s="50"/>
-      <c r="AT36" s="44"/>
-      <c r="AU36" s="44"/>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="50"/>
-      <c r="AX36" s="80"/>
-      <c r="AY36" s="19"/>
-      <c r="BB36" s="47"/>
-    </row>
-    <row r="37" spans="1:54" s="15" customFormat="1">
+      <c r="AV36" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW36" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX36" s="50"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
+      <c r="BB36" s="50"/>
+      <c r="BC36" s="80"/>
+      <c r="BD36" s="19"/>
+      <c r="BG36" s="47"/>
+    </row>
+    <row r="37" spans="1:59" s="15" customFormat="1">
       <c r="E37" s="56"/>
       <c r="J37" s="56"/>
       <c r="R37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="72"/>
-      <c r="Y37" s="72"/>
+      <c r="Y37" s="56"/>
       <c r="Z37" s="72"/>
       <c r="AA37" s="72"/>
       <c r="AB37" s="72"/>
@@ -6211,107 +6316,107 @@
       <c r="AF37" s="72"/>
       <c r="AG37" s="72"/>
       <c r="AH37" s="72"/>
-      <c r="AI37" s="73"/>
-      <c r="AJ37" s="73"/>
-      <c r="AK37" s="73"/>
-      <c r="AL37" s="73"/>
-      <c r="AM37" s="73"/>
+      <c r="AI37" s="72"/>
+      <c r="AJ37" s="72"/>
+      <c r="AK37" s="72"/>
+      <c r="AL37" s="72"/>
+      <c r="AM37" s="72"/>
       <c r="AN37" s="73"/>
       <c r="AO37" s="73"/>
-      <c r="AP37" s="87"/>
-      <c r="AQ37" s="71"/>
-      <c r="AR37" s="71"/>
-      <c r="AS37" s="74"/>
-      <c r="AT37" s="44"/>
-      <c r="AU37" s="44"/>
-      <c r="AV37" s="44"/>
-      <c r="AW37" s="73"/>
-      <c r="AX37" s="79"/>
-      <c r="AY37" s="74"/>
-      <c r="AZ37" s="72"/>
-      <c r="BA37" s="72"/>
-      <c r="BB37" s="47"/>
-    </row>
-    <row r="38" spans="1:54" s="15" customFormat="1">
+      <c r="AP37" s="73"/>
+      <c r="AQ37" s="73"/>
+      <c r="AR37" s="73"/>
+      <c r="AS37" s="73"/>
+      <c r="AT37" s="73"/>
+      <c r="AU37" s="87"/>
+      <c r="AV37" s="71"/>
+      <c r="AW37" s="71"/>
+      <c r="AX37" s="74"/>
+      <c r="AY37" s="44"/>
+      <c r="AZ37" s="44"/>
+      <c r="BA37" s="44"/>
+      <c r="BB37" s="73"/>
+      <c r="BC37" s="79"/>
+      <c r="BD37" s="74"/>
+      <c r="BE37" s="72"/>
+      <c r="BF37" s="72"/>
+      <c r="BG37" s="47"/>
+    </row>
+    <row r="38" spans="1:59" s="15" customFormat="1">
       <c r="E38" s="56"/>
       <c r="J38" s="56"/>
       <c r="R38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="15" t="s">
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="V38" s="15">
-        <v>1</v>
-      </c>
-      <c r="W38" s="15">
+      <c r="AA38" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="15">
         <v>50</v>
       </c>
-      <c r="X38" s="15" t="s">
+      <c r="AC38" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Y38" s="15" t="s">
+      <c r="AD38" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="Z38" s="15" t="s">
+      <c r="AE38" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AB38" s="15">
+      <c r="AG38" s="15">
         <v>20</v>
       </c>
-      <c r="AC38" s="15">
+      <c r="AH38" s="15">
         <v>5</v>
       </c>
-      <c r="AE38" s="15" t="s">
+      <c r="AJ38" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AF38" s="15" t="s">
+      <c r="AK38" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AG38" s="15" t="s">
+      <c r="AL38" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AH38" s="15" t="s">
+      <c r="AM38" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AI38" s="50"/>
-      <c r="AJ38" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK38" s="18"/>
-      <c r="AL38" s="18"/>
-      <c r="AM38" s="18"/>
-      <c r="AN38" s="18"/>
-      <c r="AO38" s="50"/>
-      <c r="AP38" s="88" t="s">
+      <c r="AN38" s="50"/>
+      <c r="AO38" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP38" s="18"/>
+      <c r="AQ38" s="18"/>
+      <c r="AR38" s="18"/>
+      <c r="AS38" s="18"/>
+      <c r="AT38" s="50"/>
+      <c r="AU38" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="AQ38" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR38" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS38" s="50"/>
-      <c r="AT38" s="44"/>
-      <c r="AU38" s="44"/>
-      <c r="AV38" s="44"/>
-      <c r="AW38" s="50"/>
-      <c r="AX38" s="78"/>
-      <c r="AY38" s="97"/>
-      <c r="AZ38" s="18"/>
-      <c r="BA38" s="18"/>
-      <c r="BB38" s="47"/>
-    </row>
-    <row r="39" spans="1:54" s="15" customFormat="1">
+      <c r="AV38" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW38" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX38" s="50"/>
+      <c r="AY38" s="44"/>
+      <c r="AZ38" s="44"/>
+      <c r="BA38" s="44"/>
+      <c r="BB38" s="50"/>
+      <c r="BC38" s="78"/>
+      <c r="BD38" s="97"/>
+      <c r="BE38" s="18"/>
+      <c r="BF38" s="18"/>
+      <c r="BG38" s="47"/>
+    </row>
+    <row r="39" spans="1:59" s="15" customFormat="1">
       <c r="E39" s="56"/>
       <c r="J39" s="56"/>
       <c r="R39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
+      <c r="Y39" s="56"/>
       <c r="Z39" s="72"/>
       <c r="AA39" s="72"/>
       <c r="AB39" s="72"/>
@@ -6321,28 +6426,33 @@
       <c r="AF39" s="72"/>
       <c r="AG39" s="72"/>
       <c r="AH39" s="72"/>
-      <c r="AI39" s="73"/>
-      <c r="AJ39" s="73"/>
-      <c r="AK39" s="73"/>
-      <c r="AL39" s="73"/>
-      <c r="AM39" s="73"/>
+      <c r="AI39" s="72"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="72"/>
+      <c r="AL39" s="72"/>
+      <c r="AM39" s="72"/>
       <c r="AN39" s="73"/>
       <c r="AO39" s="73"/>
-      <c r="AP39" s="87"/>
-      <c r="AQ39" s="71"/>
-      <c r="AR39" s="71"/>
-      <c r="AS39" s="74"/>
+      <c r="AP39" s="73"/>
+      <c r="AQ39" s="73"/>
+      <c r="AR39" s="73"/>
+      <c r="AS39" s="73"/>
       <c r="AT39" s="73"/>
-      <c r="AU39" s="73"/>
-      <c r="AV39" s="73"/>
-      <c r="AW39" s="73"/>
-      <c r="AX39" s="79"/>
-      <c r="AY39" s="74"/>
-      <c r="AZ39" s="72"/>
-      <c r="BA39" s="72"/>
-      <c r="BB39" s="47"/>
-    </row>
-    <row r="40" spans="1:54" s="15" customFormat="1">
+      <c r="AU39" s="87"/>
+      <c r="AV39" s="71"/>
+      <c r="AW39" s="71"/>
+      <c r="AX39" s="74"/>
+      <c r="AY39" s="73"/>
+      <c r="AZ39" s="73"/>
+      <c r="BA39" s="73"/>
+      <c r="BB39" s="73"/>
+      <c r="BC39" s="79"/>
+      <c r="BD39" s="74"/>
+      <c r="BE39" s="72"/>
+      <c r="BF39" s="72"/>
+      <c r="BG39" s="47"/>
+    </row>
+    <row r="40" spans="1:59" s="15" customFormat="1">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40" s="60"/>
@@ -6360,69 +6470,74 @@
       <c r="Q40"/>
       <c r="R40" s="60"/>
       <c r="S40"/>
-      <c r="T40" s="60"/>
-      <c r="U40" s="15" t="s">
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40" s="60"/>
+      <c r="Z40" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="V40" s="15">
-        <v>1</v>
-      </c>
-      <c r="W40" s="15">
+      <c r="AA40" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="15">
         <v>7000</v>
       </c>
-      <c r="X40" s="15" t="s">
+      <c r="AC40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y40" s="15" t="s">
+      <c r="AD40" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Z40" s="15" t="s">
+      <c r="AE40" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA40" s="15" t="s">
+      <c r="AF40" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AD40" s="15" t="s">
+      <c r="AI40" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AI40" s="50"/>
-      <c r="AJ40" s="16"/>
-      <c r="AK40" s="16"/>
-      <c r="AL40" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM40" s="16"/>
-      <c r="AN40" s="16"/>
-      <c r="AO40" s="50"/>
-      <c r="AP40" s="88"/>
-      <c r="AQ40" s="19"/>
-      <c r="AR40" s="19"/>
-      <c r="AS40" s="53"/>
-      <c r="AT40" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU40" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV40" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW40" s="50"/>
-      <c r="AX40" s="80" t="s">
+      <c r="AN40" s="50"/>
+      <c r="AO40" s="16"/>
+      <c r="AP40" s="16"/>
+      <c r="AQ40" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="16"/>
+      <c r="AS40" s="16"/>
+      <c r="AT40" s="50"/>
+      <c r="AU40" s="88"/>
+      <c r="AV40" s="19"/>
+      <c r="AW40" s="19"/>
+      <c r="AX40" s="53"/>
+      <c r="AY40" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="50"/>
+      <c r="BC40" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="AY40" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ40" s="15" t="s">
+      <c r="BD40" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE40" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BA40" s="15" t="s">
+      <c r="BF40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB40" s="47"/>
-    </row>
-    <row r="41" spans="1:54" s="56" customFormat="1">
+      <c r="BG40" s="47"/>
+    </row>
+    <row r="41" spans="1:59" s="56" customFormat="1">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -6431,25 +6546,25 @@
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
-      <c r="AI41" s="57"/>
-      <c r="AJ41" s="57"/>
-      <c r="AK41" s="57"/>
-      <c r="AL41" s="57"/>
-      <c r="AM41" s="57"/>
       <c r="AN41" s="57"/>
       <c r="AO41" s="57"/>
-      <c r="AP41" s="89"/>
-      <c r="AQ41" s="58"/>
-      <c r="AR41" s="58"/>
-      <c r="AS41" s="58"/>
+      <c r="AP41" s="57"/>
+      <c r="AQ41" s="57"/>
+      <c r="AR41" s="57"/>
+      <c r="AS41" s="57"/>
       <c r="AT41" s="57"/>
-      <c r="AU41" s="57"/>
-      <c r="AV41" s="57"/>
-      <c r="AW41" s="57"/>
-      <c r="AX41" s="82"/>
-      <c r="AY41" s="58"/>
-    </row>
-    <row r="42" spans="1:54" s="15" customFormat="1">
+      <c r="AU41" s="89"/>
+      <c r="AV41" s="58"/>
+      <c r="AW41" s="58"/>
+      <c r="AX41" s="58"/>
+      <c r="AY41" s="57"/>
+      <c r="AZ41" s="57"/>
+      <c r="BA41" s="57"/>
+      <c r="BB41" s="57"/>
+      <c r="BC41" s="82"/>
+      <c r="BD41" s="58"/>
+    </row>
+    <row r="42" spans="1:59" s="15" customFormat="1">
       <c r="E42" s="56"/>
       <c r="J42" s="56"/>
       <c r="K42" s="15" t="s">
@@ -6477,77 +6592,72 @@
       <c r="S42" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="T42" s="56"/>
-      <c r="U42" s="15" t="s">
+      <c r="Y42" s="56"/>
+      <c r="Z42" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="V42" s="15">
-        <v>1</v>
-      </c>
-      <c r="W42" s="15">
-        <v>0</v>
-      </c>
-      <c r="X42" s="15" t="s">
+      <c r="AA42" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Y42" s="15" t="s">
+      <c r="AD42" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="Z42" s="15" t="s">
+      <c r="AE42" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AA42" s="15" t="s">
+      <c r="AF42" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AE42" s="15" t="s">
+      <c r="AJ42" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="AI42" s="50"/>
-      <c r="AJ42" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK42" s="18"/>
-      <c r="AL42" s="18"/>
-      <c r="AM42" s="18"/>
-      <c r="AN42" s="18"/>
-      <c r="AO42" s="50"/>
-      <c r="AP42" s="88" t="s">
+      <c r="AN42" s="50"/>
+      <c r="AO42" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP42" s="18"/>
+      <c r="AQ42" s="18"/>
+      <c r="AR42" s="18"/>
+      <c r="AS42" s="18"/>
+      <c r="AT42" s="50"/>
+      <c r="AU42" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="AQ42" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR42" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS42" s="50"/>
-      <c r="AT42" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU42" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV42" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW42" s="50"/>
-      <c r="AX42" s="80"/>
-      <c r="AY42" s="19"/>
-      <c r="BB42" s="47"/>
-    </row>
-    <row r="43" spans="1:54" s="15" customFormat="1">
+      <c r="AV42" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW42" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX42" s="50"/>
+      <c r="AY42" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ42" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA42" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB42" s="50"/>
+      <c r="BC42" s="80"/>
+      <c r="BD42" s="19"/>
+      <c r="BG42" s="47"/>
+    </row>
+    <row r="43" spans="1:59" s="15" customFormat="1">
       <c r="E43" s="56"/>
       <c r="J43" s="56"/>
       <c r="R43" s="56"/>
       <c r="S43" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="T43" s="56"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="72"/>
-      <c r="X43" s="72"/>
-      <c r="Y43" s="72"/>
+      <c r="Y43" s="56"/>
       <c r="Z43" s="72"/>
       <c r="AA43" s="72"/>
       <c r="AB43" s="72"/>
@@ -6557,129 +6667,134 @@
       <c r="AF43" s="72"/>
       <c r="AG43" s="72"/>
       <c r="AH43" s="72"/>
-      <c r="AI43" s="73"/>
-      <c r="AJ43" s="73"/>
-      <c r="AK43" s="73"/>
-      <c r="AL43" s="73"/>
-      <c r="AM43" s="73"/>
+      <c r="AI43" s="72"/>
+      <c r="AJ43" s="72"/>
+      <c r="AK43" s="72"/>
+      <c r="AL43" s="72"/>
+      <c r="AM43" s="72"/>
       <c r="AN43" s="73"/>
       <c r="AO43" s="73"/>
-      <c r="AP43" s="87"/>
-      <c r="AQ43" s="71"/>
-      <c r="AR43" s="71"/>
-      <c r="AS43" s="74"/>
+      <c r="AP43" s="73"/>
+      <c r="AQ43" s="73"/>
+      <c r="AR43" s="73"/>
+      <c r="AS43" s="73"/>
       <c r="AT43" s="73"/>
-      <c r="AU43" s="73"/>
-      <c r="AV43" s="73"/>
-      <c r="AW43" s="73"/>
-      <c r="AX43" s="79"/>
-      <c r="AY43" s="74"/>
-      <c r="AZ43" s="72"/>
-      <c r="BA43" s="72"/>
-      <c r="BB43" s="47"/>
-    </row>
-    <row r="44" spans="1:54" s="15" customFormat="1">
+      <c r="AU43" s="87"/>
+      <c r="AV43" s="71"/>
+      <c r="AW43" s="71"/>
+      <c r="AX43" s="74"/>
+      <c r="AY43" s="73"/>
+      <c r="AZ43" s="73"/>
+      <c r="BA43" s="73"/>
+      <c r="BB43" s="73"/>
+      <c r="BC43" s="79"/>
+      <c r="BD43" s="74"/>
+      <c r="BE43" s="72"/>
+      <c r="BF43" s="72"/>
+      <c r="BG43" s="47"/>
+    </row>
+    <row r="44" spans="1:59" s="15" customFormat="1">
       <c r="E44" s="56"/>
       <c r="J44" s="56"/>
       <c r="R44" s="56"/>
-      <c r="T44" s="56"/>
-      <c r="U44" s="45" t="s">
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="V44" s="15">
-        <v>1</v>
-      </c>
-      <c r="W44" s="15">
+      <c r="AA44" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="15">
         <v>3500</v>
       </c>
-      <c r="X44" s="15" t="s">
+      <c r="AC44" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y44" s="15" t="s">
+      <c r="AD44" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Z44" s="15" t="s">
+      <c r="AE44" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA44" s="15" t="s">
+      <c r="AF44" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AD44" s="15" t="s">
+      <c r="AI44" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AI44" s="50"/>
-      <c r="AJ44" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK44" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL44" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM44" s="16"/>
-      <c r="AN44" s="16"/>
-      <c r="AO44" s="50"/>
-      <c r="AP44" s="86" t="s">
+      <c r="AN44" s="50"/>
+      <c r="AO44" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="16"/>
+      <c r="AS44" s="16"/>
+      <c r="AT44" s="50"/>
+      <c r="AU44" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="AQ44" s="84">
-        <v>0</v>
-      </c>
-      <c r="AR44" s="84">
+      <c r="AV44" s="84">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="84">
         <v>50</v>
       </c>
-      <c r="AS44" s="53"/>
-      <c r="AT44" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU44" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV44" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW44" s="50"/>
-      <c r="AX44" s="80" t="s">
+      <c r="AX44" s="53"/>
+      <c r="AY44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB44" s="50"/>
+      <c r="BC44" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="AY44" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ44" s="15" t="s">
+      <c r="BD44" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE44" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BA44" s="15" t="s">
+      <c r="BF44" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB44" s="47"/>
-    </row>
-    <row r="45" spans="1:54" s="15" customFormat="1">
+      <c r="BG44" s="47"/>
+    </row>
+    <row r="45" spans="1:59" s="15" customFormat="1">
       <c r="E45" s="56"/>
       <c r="J45" s="56"/>
       <c r="R45" s="56"/>
-      <c r="T45" s="56"/>
-      <c r="AI45" s="47"/>
-      <c r="AO45" s="47"/>
-      <c r="AP45" s="86" t="s">
+      <c r="Y45" s="56"/>
+      <c r="AN45" s="47"/>
+      <c r="AT45" s="47"/>
+      <c r="AU45" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="AQ45" s="84">
-        <v>0</v>
-      </c>
-      <c r="AR45" s="84">
+      <c r="AV45" s="84">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="84">
         <v>50</v>
       </c>
-      <c r="AS45" s="53"/>
-      <c r="AT45" s="16"/>
-      <c r="AU45" s="16"/>
-      <c r="AV45" s="16"/>
-      <c r="AW45" s="50"/>
-      <c r="AX45" s="80"/>
-      <c r="AY45" s="19"/>
-      <c r="BB45" s="47"/>
-    </row>
-    <row r="46" spans="1:54" s="15" customFormat="1">
+      <c r="AX45" s="53"/>
+      <c r="AY45" s="16"/>
+      <c r="AZ45" s="16"/>
+      <c r="BA45" s="16"/>
+      <c r="BB45" s="50"/>
+      <c r="BC45" s="80"/>
+      <c r="BD45" s="19"/>
+      <c r="BG45" s="47"/>
+    </row>
+    <row r="46" spans="1:59" s="15" customFormat="1">
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46" s="60"/>
@@ -6697,12 +6812,12 @@
       <c r="Q46"/>
       <c r="R46" s="60"/>
       <c r="S46"/>
-      <c r="T46" s="60"/>
+      <c r="T46"/>
       <c r="U46"/>
       <c r="V46"/>
       <c r="W46"/>
       <c r="X46"/>
-      <c r="Y46"/>
+      <c r="Y46" s="60"/>
       <c r="Z46"/>
       <c r="AA46"/>
       <c r="AB46"/>
@@ -6712,34 +6827,39 @@
       <c r="AF46"/>
       <c r="AG46"/>
       <c r="AH46"/>
-      <c r="AI46" s="51"/>
-      <c r="AJ46" s="17"/>
-      <c r="AK46" s="17"/>
-      <c r="AL46" s="17"/>
-      <c r="AM46" s="17"/>
-      <c r="AN46" s="17"/>
-      <c r="AO46" s="51"/>
-      <c r="AP46" s="86" t="s">
+      <c r="AI46"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
+      <c r="AL46"/>
+      <c r="AM46"/>
+      <c r="AN46" s="51"/>
+      <c r="AO46" s="17"/>
+      <c r="AP46" s="17"/>
+      <c r="AQ46" s="17"/>
+      <c r="AR46" s="17"/>
+      <c r="AS46" s="17"/>
+      <c r="AT46" s="51"/>
+      <c r="AU46" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="AQ46" s="84">
-        <v>0</v>
-      </c>
-      <c r="AR46" s="84">
+      <c r="AV46" s="84">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="84">
         <v>3</v>
       </c>
-      <c r="AS46" s="54"/>
-      <c r="AT46" s="17"/>
-      <c r="AU46" s="17"/>
-      <c r="AV46" s="17"/>
-      <c r="AW46" s="51"/>
-      <c r="AX46" s="81"/>
-      <c r="AY46" s="20"/>
-      <c r="AZ46"/>
-      <c r="BA46"/>
-      <c r="BB46" s="47"/>
-    </row>
-    <row r="47" spans="1:54" s="15" customFormat="1">
+      <c r="AX46" s="54"/>
+      <c r="AY46" s="17"/>
+      <c r="AZ46" s="17"/>
+      <c r="BA46" s="17"/>
+      <c r="BB46" s="51"/>
+      <c r="BC46" s="81"/>
+      <c r="BD46" s="20"/>
+      <c r="BE46"/>
+      <c r="BF46"/>
+      <c r="BG46" s="47"/>
+    </row>
+    <row r="47" spans="1:59" s="15" customFormat="1">
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47" s="60"/>
@@ -6757,12 +6877,12 @@
       <c r="Q47"/>
       <c r="R47" s="60"/>
       <c r="S47"/>
-      <c r="T47" s="60"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="72"/>
-      <c r="X47" s="72"/>
-      <c r="Y47" s="72"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47" s="60"/>
       <c r="Z47" s="72"/>
       <c r="AA47" s="72"/>
       <c r="AB47" s="72"/>
@@ -6772,28 +6892,33 @@
       <c r="AF47" s="72"/>
       <c r="AG47" s="72"/>
       <c r="AH47" s="72"/>
-      <c r="AI47" s="73"/>
-      <c r="AJ47" s="73"/>
-      <c r="AK47" s="73"/>
-      <c r="AL47" s="73"/>
-      <c r="AM47" s="73"/>
+      <c r="AI47" s="72"/>
+      <c r="AJ47" s="72"/>
+      <c r="AK47" s="72"/>
+      <c r="AL47" s="72"/>
+      <c r="AM47" s="72"/>
       <c r="AN47" s="73"/>
       <c r="AO47" s="73"/>
-      <c r="AP47" s="87"/>
-      <c r="AQ47" s="71"/>
-      <c r="AR47" s="71"/>
-      <c r="AS47" s="74"/>
+      <c r="AP47" s="73"/>
+      <c r="AQ47" s="73"/>
+      <c r="AR47" s="73"/>
+      <c r="AS47" s="73"/>
       <c r="AT47" s="73"/>
-      <c r="AU47" s="73"/>
-      <c r="AV47" s="73"/>
-      <c r="AW47" s="73"/>
-      <c r="AX47" s="79"/>
-      <c r="AY47" s="74"/>
-      <c r="AZ47" s="72"/>
-      <c r="BA47" s="72"/>
-      <c r="BB47" s="47"/>
-    </row>
-    <row r="48" spans="1:54" s="15" customFormat="1">
+      <c r="AU47" s="87"/>
+      <c r="AV47" s="71"/>
+      <c r="AW47" s="71"/>
+      <c r="AX47" s="74"/>
+      <c r="AY47" s="73"/>
+      <c r="AZ47" s="73"/>
+      <c r="BA47" s="73"/>
+      <c r="BB47" s="73"/>
+      <c r="BC47" s="79"/>
+      <c r="BD47" s="74"/>
+      <c r="BE47" s="72"/>
+      <c r="BF47" s="72"/>
+      <c r="BG47" s="47"/>
+    </row>
+    <row r="48" spans="1:59" s="15" customFormat="1">
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" s="60"/>
@@ -6811,69 +6936,74 @@
       <c r="Q48"/>
       <c r="R48" s="60"/>
       <c r="S48"/>
-      <c r="T48" s="60"/>
-      <c r="U48" s="15" t="s">
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48" s="60"/>
+      <c r="Z48" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="V48" s="15">
-        <v>1</v>
-      </c>
-      <c r="W48" s="15">
+      <c r="AA48" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="15">
         <v>7000</v>
       </c>
-      <c r="X48" s="15" t="s">
+      <c r="AC48" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y48" s="15" t="s">
+      <c r="AD48" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Z48" s="15" t="s">
+      <c r="AE48" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA48" s="15" t="s">
+      <c r="AF48" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AD48" s="15" t="s">
+      <c r="AI48" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AI48" s="50"/>
-      <c r="AJ48" s="16"/>
-      <c r="AK48" s="16"/>
-      <c r="AL48" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM48" s="16"/>
-      <c r="AN48" s="16"/>
-      <c r="AO48" s="50"/>
-      <c r="AP48" s="88"/>
-      <c r="AQ48" s="19"/>
-      <c r="AR48" s="19"/>
-      <c r="AS48" s="53"/>
-      <c r="AT48" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU48" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV48" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW48" s="50"/>
-      <c r="AX48" s="80" t="s">
+      <c r="AN48" s="50"/>
+      <c r="AO48" s="16"/>
+      <c r="AP48" s="16"/>
+      <c r="AQ48" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR48" s="16"/>
+      <c r="AS48" s="16"/>
+      <c r="AT48" s="50"/>
+      <c r="AU48" s="88"/>
+      <c r="AV48" s="19"/>
+      <c r="AW48" s="19"/>
+      <c r="AX48" s="53"/>
+      <c r="AY48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB48" s="50"/>
+      <c r="BC48" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="AY48" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ48" s="15" t="s">
+      <c r="BD48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE48" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BA48" s="15" t="s">
+      <c r="BF48" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB48" s="47"/>
-    </row>
-    <row r="49" spans="1:54" s="56" customFormat="1">
+      <c r="BG48" s="47"/>
+    </row>
+    <row r="49" spans="1:59" s="56" customFormat="1">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -6882,25 +7012,25 @@
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
-      <c r="AI49" s="57"/>
-      <c r="AJ49" s="57"/>
-      <c r="AK49" s="57"/>
-      <c r="AL49" s="57"/>
-      <c r="AM49" s="57"/>
       <c r="AN49" s="57"/>
       <c r="AO49" s="57"/>
-      <c r="AP49" s="89"/>
-      <c r="AQ49" s="58"/>
-      <c r="AR49" s="58"/>
-      <c r="AS49" s="58"/>
+      <c r="AP49" s="57"/>
+      <c r="AQ49" s="57"/>
+      <c r="AR49" s="57"/>
+      <c r="AS49" s="57"/>
       <c r="AT49" s="57"/>
-      <c r="AU49" s="57"/>
-      <c r="AV49" s="57"/>
-      <c r="AW49" s="57"/>
-      <c r="AX49" s="82"/>
-      <c r="AY49" s="58"/>
-    </row>
-    <row r="50" spans="1:54" s="15" customFormat="1">
+      <c r="AU49" s="89"/>
+      <c r="AV49" s="58"/>
+      <c r="AW49" s="58"/>
+      <c r="AX49" s="58"/>
+      <c r="AY49" s="57"/>
+      <c r="AZ49" s="57"/>
+      <c r="BA49" s="57"/>
+      <c r="BB49" s="57"/>
+      <c r="BC49" s="82"/>
+      <c r="BD49" s="58"/>
+    </row>
+    <row r="50" spans="1:59" s="15" customFormat="1">
       <c r="E50" s="56"/>
       <c r="J50" s="56"/>
       <c r="K50" s="15" t="s">
@@ -6928,74 +7058,69 @@
       <c r="S50" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="T50" s="56"/>
-      <c r="U50" s="15" t="s">
+      <c r="Y50" s="56"/>
+      <c r="Z50" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="V50" s="15">
-        <v>1</v>
-      </c>
-      <c r="W50" s="15">
-        <v>0</v>
-      </c>
-      <c r="X50" s="15" t="s">
+      <c r="AA50" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Y50" s="15" t="s">
+      <c r="AD50" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="Z50" s="15" t="s">
+      <c r="AE50" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AA50" s="15" t="s">
+      <c r="AF50" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AE50" s="15" t="s">
+      <c r="AJ50" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="AI50" s="50"/>
-      <c r="AJ50" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK50" s="18"/>
-      <c r="AL50" s="18"/>
-      <c r="AM50" s="18"/>
-      <c r="AN50" s="18"/>
-      <c r="AO50" s="50"/>
-      <c r="AP50" s="88" t="s">
+      <c r="AN50" s="50"/>
+      <c r="AO50" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP50" s="18"/>
+      <c r="AQ50" s="18"/>
+      <c r="AR50" s="18"/>
+      <c r="AS50" s="18"/>
+      <c r="AT50" s="50"/>
+      <c r="AU50" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="AQ50" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR50" s="19">
+      <c r="AV50" s="19">
+        <v>0</v>
+      </c>
+      <c r="AW50" s="19">
         <v>50</v>
       </c>
-      <c r="AS50" s="50"/>
-      <c r="AT50" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU50" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV50" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW50" s="50"/>
-      <c r="AX50" s="80"/>
-      <c r="AY50" s="19"/>
-      <c r="BB50" s="47"/>
-    </row>
-    <row r="51" spans="1:54" s="15" customFormat="1">
+      <c r="AX50" s="50"/>
+      <c r="AY50" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ50" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA50" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB50" s="50"/>
+      <c r="BC50" s="80"/>
+      <c r="BD50" s="19"/>
+      <c r="BG50" s="47"/>
+    </row>
+    <row r="51" spans="1:59" s="15" customFormat="1">
       <c r="E51" s="56"/>
       <c r="J51" s="56"/>
       <c r="R51" s="56"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="72"/>
-      <c r="V51" s="72"/>
-      <c r="W51" s="72"/>
-      <c r="X51" s="72"/>
-      <c r="Y51" s="72"/>
+      <c r="Y51" s="56"/>
       <c r="Z51" s="72"/>
       <c r="AA51" s="72"/>
       <c r="AB51" s="72"/>
@@ -7005,28 +7130,33 @@
       <c r="AF51" s="72"/>
       <c r="AG51" s="72"/>
       <c r="AH51" s="72"/>
-      <c r="AI51" s="73"/>
-      <c r="AJ51" s="73"/>
-      <c r="AK51" s="73"/>
-      <c r="AL51" s="73"/>
-      <c r="AM51" s="73"/>
+      <c r="AI51" s="72"/>
+      <c r="AJ51" s="72"/>
+      <c r="AK51" s="72"/>
+      <c r="AL51" s="72"/>
+      <c r="AM51" s="72"/>
       <c r="AN51" s="73"/>
       <c r="AO51" s="73"/>
-      <c r="AP51" s="87"/>
-      <c r="AQ51" s="71"/>
-      <c r="AR51" s="71"/>
-      <c r="AS51" s="74"/>
+      <c r="AP51" s="73"/>
+      <c r="AQ51" s="73"/>
+      <c r="AR51" s="73"/>
+      <c r="AS51" s="73"/>
       <c r="AT51" s="73"/>
-      <c r="AU51" s="73"/>
-      <c r="AV51" s="73"/>
-      <c r="AW51" s="73"/>
-      <c r="AX51" s="79"/>
-      <c r="AY51" s="74"/>
-      <c r="AZ51" s="72"/>
-      <c r="BA51" s="72"/>
-      <c r="BB51" s="47"/>
-    </row>
-    <row r="52" spans="1:54" s="15" customFormat="1">
+      <c r="AU51" s="87"/>
+      <c r="AV51" s="71"/>
+      <c r="AW51" s="71"/>
+      <c r="AX51" s="74"/>
+      <c r="AY51" s="73"/>
+      <c r="AZ51" s="73"/>
+      <c r="BA51" s="73"/>
+      <c r="BB51" s="73"/>
+      <c r="BC51" s="79"/>
+      <c r="BD51" s="74"/>
+      <c r="BE51" s="72"/>
+      <c r="BF51" s="72"/>
+      <c r="BG51" s="47"/>
+    </row>
+    <row r="52" spans="1:59" s="15" customFormat="1">
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52" s="60"/>
@@ -7044,69 +7174,74 @@
       <c r="Q52"/>
       <c r="R52" s="60"/>
       <c r="S52"/>
-      <c r="T52" s="60"/>
-      <c r="U52" s="15" t="s">
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52" s="60"/>
+      <c r="Z52" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="V52" s="15">
-        <v>1</v>
-      </c>
-      <c r="W52" s="15">
+      <c r="AA52" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="15">
         <v>7000</v>
       </c>
-      <c r="X52" s="15" t="s">
+      <c r="AC52" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y52" s="15" t="s">
+      <c r="AD52" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Z52" s="15" t="s">
+      <c r="AE52" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA52" s="15" t="s">
+      <c r="AF52" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AD52" s="15" t="s">
+      <c r="AI52" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AI52" s="50"/>
-      <c r="AJ52" s="16"/>
-      <c r="AK52" s="16"/>
-      <c r="AL52" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM52" s="16"/>
-      <c r="AN52" s="16"/>
-      <c r="AO52" s="50"/>
-      <c r="AP52" s="88"/>
-      <c r="AQ52" s="19"/>
-      <c r="AR52" s="19"/>
-      <c r="AS52" s="53"/>
-      <c r="AT52" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU52" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV52" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW52" s="50"/>
-      <c r="AX52" s="80" t="s">
+      <c r="AN52" s="50"/>
+      <c r="AO52" s="16"/>
+      <c r="AP52" s="16"/>
+      <c r="AQ52" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR52" s="16"/>
+      <c r="AS52" s="16"/>
+      <c r="AT52" s="50"/>
+      <c r="AU52" s="88"/>
+      <c r="AV52" s="19"/>
+      <c r="AW52" s="19"/>
+      <c r="AX52" s="53"/>
+      <c r="AY52" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA52" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB52" s="50"/>
+      <c r="BC52" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="AY52" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ52" s="15" t="s">
+      <c r="BD52" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE52" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BA52" s="15" t="s">
+      <c r="BF52" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB52" s="47"/>
-    </row>
-    <row r="53" spans="1:54" s="56" customFormat="1">
+      <c r="BG52" s="47"/>
+    </row>
+    <row r="53" spans="1:59" s="56" customFormat="1">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -7115,25 +7250,25 @@
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
-      <c r="AI53" s="57"/>
-      <c r="AJ53" s="57"/>
-      <c r="AK53" s="57"/>
-      <c r="AL53" s="57"/>
-      <c r="AM53" s="57"/>
       <c r="AN53" s="57"/>
       <c r="AO53" s="57"/>
-      <c r="AP53" s="89"/>
-      <c r="AQ53" s="58"/>
-      <c r="AR53" s="58"/>
-      <c r="AS53" s="58"/>
+      <c r="AP53" s="57"/>
+      <c r="AQ53" s="57"/>
+      <c r="AR53" s="57"/>
+      <c r="AS53" s="57"/>
       <c r="AT53" s="57"/>
-      <c r="AU53" s="57"/>
-      <c r="AV53" s="57"/>
-      <c r="AW53" s="57"/>
-      <c r="AX53" s="82"/>
-      <c r="AY53" s="58"/>
-    </row>
-    <row r="54" spans="1:54" s="15" customFormat="1">
+      <c r="AU53" s="89"/>
+      <c r="AV53" s="58"/>
+      <c r="AW53" s="58"/>
+      <c r="AX53" s="58"/>
+      <c r="AY53" s="57"/>
+      <c r="AZ53" s="57"/>
+      <c r="BA53" s="57"/>
+      <c r="BB53" s="57"/>
+      <c r="BC53" s="82"/>
+      <c r="BD53" s="58"/>
+    </row>
+    <row r="54" spans="1:59" s="15" customFormat="1">
       <c r="E54" s="56"/>
       <c r="J54" s="56"/>
       <c r="K54" s="15" t="s">
@@ -7161,74 +7296,69 @@
       <c r="S54" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T54" s="56"/>
-      <c r="U54" s="15" t="s">
+      <c r="Y54" s="56"/>
+      <c r="Z54" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="V54" s="15">
-        <v>1</v>
-      </c>
-      <c r="W54" s="15">
-        <v>0</v>
-      </c>
-      <c r="X54" s="15" t="s">
+      <c r="AA54" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Y54" s="15" t="s">
+      <c r="AD54" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="Z54" s="15" t="s">
+      <c r="AE54" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AE54" s="15" t="s">
+      <c r="AJ54" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AI54" s="50"/>
-      <c r="AJ54" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK54" s="18"/>
-      <c r="AL54" s="18"/>
-      <c r="AM54" s="18"/>
-      <c r="AN54" s="18"/>
-      <c r="AO54" s="50"/>
-      <c r="AP54" s="88" t="s">
+      <c r="AN54" s="50"/>
+      <c r="AO54" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP54" s="18"/>
+      <c r="AQ54" s="18"/>
+      <c r="AR54" s="18"/>
+      <c r="AS54" s="18"/>
+      <c r="AT54" s="50"/>
+      <c r="AU54" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="AQ54" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR54" s="19">
+      <c r="AV54" s="19">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="19">
         <v>50</v>
       </c>
-      <c r="AS54" s="50"/>
-      <c r="AT54" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU54" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV54" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW54" s="50"/>
-      <c r="AX54" s="80"/>
-      <c r="AY54" s="19"/>
-      <c r="BB54" s="47"/>
-    </row>
-    <row r="55" spans="1:54" s="15" customFormat="1">
+      <c r="AX54" s="50"/>
+      <c r="AY54" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ54" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA54" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB54" s="50"/>
+      <c r="BC54" s="80"/>
+      <c r="BD54" s="19"/>
+      <c r="BG54" s="47"/>
+    </row>
+    <row r="55" spans="1:59" s="15" customFormat="1">
       <c r="E55" s="56"/>
       <c r="J55" s="56"/>
       <c r="R55" s="56"/>
       <c r="S55" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="T55" s="56"/>
-      <c r="U55" s="72"/>
-      <c r="V55" s="72"/>
-      <c r="W55" s="72"/>
-      <c r="X55" s="72"/>
-      <c r="Y55" s="72"/>
+      <c r="Y55" s="56"/>
       <c r="Z55" s="72"/>
       <c r="AA55" s="72"/>
       <c r="AB55" s="72"/>
@@ -7238,130 +7368,135 @@
       <c r="AF55" s="72"/>
       <c r="AG55" s="72"/>
       <c r="AH55" s="72"/>
-      <c r="AI55" s="73"/>
-      <c r="AJ55" s="73"/>
-      <c r="AK55" s="73"/>
-      <c r="AL55" s="73"/>
-      <c r="AM55" s="73"/>
+      <c r="AI55" s="72"/>
+      <c r="AJ55" s="72"/>
+      <c r="AK55" s="72"/>
+      <c r="AL55" s="72"/>
+      <c r="AM55" s="72"/>
       <c r="AN55" s="73"/>
       <c r="AO55" s="73"/>
-      <c r="AP55" s="87"/>
-      <c r="AQ55" s="71"/>
-      <c r="AR55" s="71"/>
-      <c r="AS55" s="74"/>
+      <c r="AP55" s="73"/>
+      <c r="AQ55" s="73"/>
+      <c r="AR55" s="73"/>
+      <c r="AS55" s="73"/>
       <c r="AT55" s="73"/>
-      <c r="AU55" s="73"/>
-      <c r="AV55" s="73"/>
-      <c r="AW55" s="73"/>
-      <c r="AX55" s="79"/>
-      <c r="AY55" s="74"/>
-      <c r="AZ55" s="72"/>
-      <c r="BA55" s="72"/>
-      <c r="BB55" s="47"/>
-    </row>
-    <row r="56" spans="1:54" s="15" customFormat="1">
+      <c r="AU55" s="87"/>
+      <c r="AV55" s="71"/>
+      <c r="AW55" s="71"/>
+      <c r="AX55" s="74"/>
+      <c r="AY55" s="73"/>
+      <c r="AZ55" s="73"/>
+      <c r="BA55" s="73"/>
+      <c r="BB55" s="73"/>
+      <c r="BC55" s="79"/>
+      <c r="BD55" s="74"/>
+      <c r="BE55" s="72"/>
+      <c r="BF55" s="72"/>
+      <c r="BG55" s="47"/>
+    </row>
+    <row r="56" spans="1:59" s="15" customFormat="1">
       <c r="D56" s="41"/>
       <c r="E56" s="56"/>
       <c r="J56" s="56"/>
       <c r="R56" s="56"/>
-      <c r="T56" s="56"/>
-      <c r="U56" s="15" t="s">
+      <c r="Y56" s="56"/>
+      <c r="Z56" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="V56" s="15">
-        <v>1</v>
-      </c>
-      <c r="W56" s="15">
+      <c r="AA56" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="15">
         <v>3500</v>
       </c>
-      <c r="X56" s="15" t="s">
+      <c r="AC56" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y56" s="15" t="s">
+      <c r="AD56" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Z56" s="15" t="s">
+      <c r="AE56" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA56" s="15" t="s">
+      <c r="AF56" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AD56" s="15" t="s">
+      <c r="AI56" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AI56" s="50"/>
-      <c r="AJ56" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK56" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM56" s="16"/>
-      <c r="AN56" s="16"/>
-      <c r="AO56" s="50"/>
-      <c r="AP56" s="88" t="s">
+      <c r="AN56" s="50"/>
+      <c r="AO56" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP56" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ56" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR56" s="16"/>
+      <c r="AS56" s="16"/>
+      <c r="AT56" s="50"/>
+      <c r="AU56" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="AQ56" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR56" s="19">
+      <c r="AV56" s="19">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="19">
         <v>50</v>
       </c>
-      <c r="AS56" s="53"/>
-      <c r="AT56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW56" s="50"/>
-      <c r="AX56" s="80" t="s">
+      <c r="AX56" s="53"/>
+      <c r="AY56" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ56" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA56" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB56" s="50"/>
+      <c r="BC56" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="AY56" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ56" s="15" t="s">
+      <c r="BD56" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE56" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BA56" s="15" t="s">
+      <c r="BF56" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB56" s="47"/>
-    </row>
-    <row r="57" spans="1:54" s="15" customFormat="1">
+      <c r="BG56" s="47"/>
+    </row>
+    <row r="57" spans="1:59" s="15" customFormat="1">
       <c r="E57" s="56"/>
       <c r="J57" s="56"/>
       <c r="R57" s="56"/>
-      <c r="T57" s="56"/>
-      <c r="AI57" s="47"/>
-      <c r="AO57" s="47"/>
-      <c r="AP57" s="88" t="s">
+      <c r="Y57" s="56"/>
+      <c r="AN57" s="47"/>
+      <c r="AT57" s="47"/>
+      <c r="AU57" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="AQ57" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR57" s="19">
+      <c r="AV57" s="19">
+        <v>0</v>
+      </c>
+      <c r="AW57" s="19">
         <v>50</v>
       </c>
-      <c r="AS57" s="53"/>
-      <c r="AT57" s="16"/>
-      <c r="AU57" s="16"/>
-      <c r="AV57" s="16"/>
-      <c r="AW57" s="50"/>
-      <c r="AX57" s="80"/>
-      <c r="AY57" s="19"/>
-      <c r="BB57" s="47"/>
-    </row>
-    <row r="58" spans="1:54" s="15" customFormat="1">
+      <c r="AX57" s="53"/>
+      <c r="AY57" s="16"/>
+      <c r="AZ57" s="16"/>
+      <c r="BA57" s="16"/>
+      <c r="BB57" s="50"/>
+      <c r="BC57" s="80"/>
+      <c r="BD57" s="19"/>
+      <c r="BG57" s="47"/>
+    </row>
+    <row r="58" spans="1:59" s="15" customFormat="1">
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58" s="60"/>
@@ -7379,12 +7514,12 @@
       <c r="Q58"/>
       <c r="R58" s="60"/>
       <c r="S58"/>
-      <c r="T58" s="60"/>
+      <c r="T58"/>
       <c r="U58"/>
       <c r="V58"/>
       <c r="W58"/>
       <c r="X58"/>
-      <c r="Y58"/>
+      <c r="Y58" s="60"/>
       <c r="Z58"/>
       <c r="AA58"/>
       <c r="AB58"/>
@@ -7394,34 +7529,39 @@
       <c r="AF58"/>
       <c r="AG58"/>
       <c r="AH58"/>
-      <c r="AI58" s="51"/>
-      <c r="AJ58" s="17"/>
-      <c r="AK58" s="17"/>
-      <c r="AL58" s="17"/>
-      <c r="AM58" s="17"/>
-      <c r="AN58" s="17"/>
-      <c r="AO58" s="51"/>
-      <c r="AP58" s="88" t="s">
+      <c r="AI58"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
+      <c r="AL58"/>
+      <c r="AM58"/>
+      <c r="AN58" s="51"/>
+      <c r="AO58" s="17"/>
+      <c r="AP58" s="17"/>
+      <c r="AQ58" s="17"/>
+      <c r="AR58" s="17"/>
+      <c r="AS58" s="17"/>
+      <c r="AT58" s="51"/>
+      <c r="AU58" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="AQ58" s="20">
-        <v>0</v>
-      </c>
-      <c r="AR58" s="20">
+      <c r="AV58" s="20">
+        <v>0</v>
+      </c>
+      <c r="AW58" s="20">
         <v>3</v>
       </c>
-      <c r="AS58" s="54"/>
-      <c r="AT58" s="17"/>
-      <c r="AU58" s="17"/>
-      <c r="AV58" s="17"/>
-      <c r="AW58" s="51"/>
-      <c r="AX58" s="81"/>
-      <c r="AY58" s="20"/>
-      <c r="AZ58"/>
-      <c r="BA58"/>
-      <c r="BB58" s="47"/>
-    </row>
-    <row r="59" spans="1:54" s="15" customFormat="1">
+      <c r="AX58" s="54"/>
+      <c r="AY58" s="17"/>
+      <c r="AZ58" s="17"/>
+      <c r="BA58" s="17"/>
+      <c r="BB58" s="51"/>
+      <c r="BC58" s="81"/>
+      <c r="BD58" s="20"/>
+      <c r="BE58"/>
+      <c r="BF58"/>
+      <c r="BG58" s="47"/>
+    </row>
+    <row r="59" spans="1:59" s="15" customFormat="1">
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59" s="60"/>
@@ -7439,12 +7579,12 @@
       <c r="Q59"/>
       <c r="R59" s="60"/>
       <c r="S59"/>
-      <c r="T59" s="60"/>
-      <c r="U59" s="72"/>
-      <c r="V59" s="72"/>
-      <c r="W59" s="72"/>
-      <c r="X59" s="72"/>
-      <c r="Y59" s="72"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59" s="60"/>
       <c r="Z59" s="72"/>
       <c r="AA59" s="72"/>
       <c r="AB59" s="72"/>
@@ -7454,28 +7594,33 @@
       <c r="AF59" s="72"/>
       <c r="AG59" s="72"/>
       <c r="AH59" s="72"/>
-      <c r="AI59" s="73"/>
-      <c r="AJ59" s="73"/>
-      <c r="AK59" s="73"/>
-      <c r="AL59" s="73"/>
-      <c r="AM59" s="73"/>
+      <c r="AI59" s="72"/>
+      <c r="AJ59" s="72"/>
+      <c r="AK59" s="72"/>
+      <c r="AL59" s="72"/>
+      <c r="AM59" s="72"/>
       <c r="AN59" s="73"/>
       <c r="AO59" s="73"/>
-      <c r="AP59" s="87"/>
-      <c r="AQ59" s="71"/>
-      <c r="AR59" s="71"/>
-      <c r="AS59" s="74"/>
+      <c r="AP59" s="73"/>
+      <c r="AQ59" s="73"/>
+      <c r="AR59" s="73"/>
+      <c r="AS59" s="73"/>
       <c r="AT59" s="73"/>
-      <c r="AU59" s="73"/>
-      <c r="AV59" s="73"/>
-      <c r="AW59" s="73"/>
-      <c r="AX59" s="79"/>
-      <c r="AY59" s="74"/>
-      <c r="AZ59" s="72"/>
-      <c r="BA59" s="72"/>
-      <c r="BB59" s="47"/>
-    </row>
-    <row r="60" spans="1:54" s="15" customFormat="1">
+      <c r="AU59" s="87"/>
+      <c r="AV59" s="71"/>
+      <c r="AW59" s="71"/>
+      <c r="AX59" s="74"/>
+      <c r="AY59" s="73"/>
+      <c r="AZ59" s="73"/>
+      <c r="BA59" s="73"/>
+      <c r="BB59" s="73"/>
+      <c r="BC59" s="79"/>
+      <c r="BD59" s="74"/>
+      <c r="BE59" s="72"/>
+      <c r="BF59" s="72"/>
+      <c r="BG59" s="47"/>
+    </row>
+    <row r="60" spans="1:59" s="15" customFormat="1">
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60" s="60"/>
@@ -7493,88 +7638,93 @@
       <c r="Q60"/>
       <c r="R60" s="60"/>
       <c r="S60"/>
-      <c r="T60" s="60"/>
-      <c r="U60" s="15" t="s">
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60" s="60"/>
+      <c r="Z60" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="V60" s="15">
-        <v>1</v>
-      </c>
-      <c r="W60" s="15">
+      <c r="AA60" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="15">
         <v>7000</v>
       </c>
-      <c r="X60" s="15" t="s">
+      <c r="AC60" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y60" s="15" t="s">
+      <c r="AD60" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Z60" s="15" t="s">
+      <c r="AE60" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA60" s="15" t="s">
+      <c r="AF60" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AD60" s="15" t="s">
+      <c r="AI60" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AI60" s="50"/>
-      <c r="AJ60" s="16"/>
-      <c r="AK60" s="16"/>
-      <c r="AL60" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM60" s="16"/>
-      <c r="AN60" s="16"/>
-      <c r="AO60" s="50"/>
-      <c r="AP60" s="88"/>
-      <c r="AQ60" s="19"/>
-      <c r="AR60" s="19"/>
-      <c r="AS60" s="53"/>
-      <c r="AT60" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU60" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV60" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW60" s="50"/>
-      <c r="AX60" s="80" t="s">
+      <c r="AN60" s="50"/>
+      <c r="AO60" s="16"/>
+      <c r="AP60" s="16"/>
+      <c r="AQ60" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR60" s="16"/>
+      <c r="AS60" s="16"/>
+      <c r="AT60" s="50"/>
+      <c r="AU60" s="88"/>
+      <c r="AV60" s="19"/>
+      <c r="AW60" s="19"/>
+      <c r="AX60" s="53"/>
+      <c r="AY60" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ60" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA60" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB60" s="50"/>
+      <c r="BC60" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="AY60" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ60" s="15" t="s">
+      <c r="BD60" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE60" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BA60" s="15" t="s">
+      <c r="BF60" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB60" s="47"/>
-    </row>
-    <row r="61" spans="1:54" s="61" customFormat="1" ht="12" customHeight="1">
-      <c r="AI61" s="62"/>
-      <c r="AJ61" s="63"/>
-      <c r="AK61" s="63"/>
-      <c r="AL61" s="63"/>
-      <c r="AM61" s="62"/>
+      <c r="BG60" s="47"/>
+    </row>
+    <row r="61" spans="1:59" s="61" customFormat="1" ht="12" customHeight="1">
       <c r="AN61" s="62"/>
-      <c r="AO61" s="62"/>
-      <c r="AP61" s="85"/>
-      <c r="AQ61" s="64"/>
-      <c r="AR61" s="64"/>
-      <c r="AS61" s="64"/>
-      <c r="AT61" s="63"/>
-      <c r="AU61" s="63"/>
-      <c r="AV61" s="63"/>
-      <c r="AW61" s="63"/>
-      <c r="AX61" s="77"/>
-      <c r="AY61" s="64"/>
-    </row>
-    <row r="62" spans="1:54" s="15" customFormat="1">
+      <c r="AO61" s="63"/>
+      <c r="AP61" s="63"/>
+      <c r="AQ61" s="63"/>
+      <c r="AR61" s="62"/>
+      <c r="AS61" s="62"/>
+      <c r="AT61" s="62"/>
+      <c r="AU61" s="85"/>
+      <c r="AV61" s="64"/>
+      <c r="AW61" s="64"/>
+      <c r="AX61" s="64"/>
+      <c r="AY61" s="63"/>
+      <c r="AZ61" s="63"/>
+      <c r="BA61" s="63"/>
+      <c r="BB61" s="63"/>
+      <c r="BC61" s="77"/>
+      <c r="BD61" s="64"/>
+    </row>
+    <row r="62" spans="1:59" s="15" customFormat="1">
       <c r="C62" s="41"/>
       <c r="D62" s="41" t="s">
         <v>116</v>
@@ -7618,72 +7768,72 @@
       <c r="S62" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="T62" s="56"/>
-      <c r="U62" s="15" t="s">
+      <c r="Y62" s="56"/>
+      <c r="Z62" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="V62" s="15">
+      <c r="AA62" s="15">
         <v>0.8</v>
       </c>
-      <c r="W62" s="15">
+      <c r="AB62" s="15">
         <v>50</v>
       </c>
-      <c r="X62" s="15" t="s">
+      <c r="AC62" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Y62" s="15" t="s">
+      <c r="AD62" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="Z62" s="15" t="s">
+      <c r="AE62" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AA62" s="41" t="s">
+      <c r="AF62" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="AB62" s="15">
+      <c r="AG62" s="15">
         <v>20</v>
       </c>
-      <c r="AC62" s="15">
+      <c r="AH62" s="15">
         <v>5</v>
       </c>
-      <c r="AE62" s="15" t="s">
+      <c r="AJ62" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AF62" s="15" t="s">
+      <c r="AK62" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AG62" s="15" t="s">
+      <c r="AL62" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AH62" s="15" t="s">
+      <c r="AM62" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AI62" s="50"/>
-      <c r="AJ62" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK62" s="18"/>
-      <c r="AL62" s="18"/>
-      <c r="AM62" s="18"/>
-      <c r="AN62" s="18"/>
-      <c r="AO62" s="50"/>
-      <c r="AP62" s="90"/>
+      <c r="AN62" s="50"/>
+      <c r="AO62" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP62" s="18"/>
       <c r="AQ62" s="18"/>
       <c r="AR62" s="18"/>
-      <c r="AS62" s="50"/>
-      <c r="AT62" s="18"/>
-      <c r="AU62" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AS62" s="18"/>
+      <c r="AT62" s="50"/>
+      <c r="AU62" s="90"/>
       <c r="AV62" s="18"/>
-      <c r="AW62" s="50"/>
-      <c r="AX62" s="78"/>
-      <c r="AY62" s="97"/>
-      <c r="AZ62" s="18"/>
+      <c r="AW62" s="18"/>
+      <c r="AX62" s="50"/>
+      <c r="AY62" s="18"/>
+      <c r="AZ62" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="BA62" s="18"/>
-      <c r="BB62" s="47"/>
-    </row>
-    <row r="63" spans="1:54" s="47" customFormat="1">
+      <c r="BB62" s="50"/>
+      <c r="BC62" s="78"/>
+      <c r="BD62" s="97"/>
+      <c r="BE62" s="18"/>
+      <c r="BF62" s="18"/>
+      <c r="BG62" s="47"/>
+    </row>
+    <row r="63" spans="1:59" s="47" customFormat="1">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="41"/>
@@ -7703,12 +7853,12 @@
       <c r="Q63" s="15"/>
       <c r="R63" s="56"/>
       <c r="S63" s="15"/>
-      <c r="T63" s="56"/>
-      <c r="U63" s="72"/>
-      <c r="V63" s="72"/>
-      <c r="W63" s="72"/>
-      <c r="X63" s="72"/>
-      <c r="Y63" s="72"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="56"/>
       <c r="Z63" s="72"/>
       <c r="AA63" s="72"/>
       <c r="AB63" s="72"/>
@@ -7718,143 +7868,148 @@
       <c r="AF63" s="72"/>
       <c r="AG63" s="72"/>
       <c r="AH63" s="72"/>
-      <c r="AI63" s="73"/>
-      <c r="AJ63" s="73"/>
-      <c r="AK63" s="73"/>
-      <c r="AL63" s="73"/>
-      <c r="AM63" s="73"/>
+      <c r="AI63" s="72"/>
+      <c r="AJ63" s="72"/>
+      <c r="AK63" s="72"/>
+      <c r="AL63" s="72"/>
+      <c r="AM63" s="72"/>
       <c r="AN63" s="73"/>
       <c r="AO63" s="73"/>
-      <c r="AP63" s="87"/>
-      <c r="AQ63" s="71"/>
-      <c r="AR63" s="71"/>
-      <c r="AS63" s="74"/>
+      <c r="AP63" s="73"/>
+      <c r="AQ63" s="73"/>
+      <c r="AR63" s="73"/>
+      <c r="AS63" s="73"/>
       <c r="AT63" s="73"/>
-      <c r="AU63" s="73"/>
-      <c r="AV63" s="73"/>
-      <c r="AW63" s="73"/>
-      <c r="AX63" s="79"/>
-      <c r="AY63" s="74"/>
-      <c r="AZ63" s="72"/>
-      <c r="BA63" s="72"/>
-    </row>
-    <row r="64" spans="1:54" s="15" customFormat="1">
+      <c r="AU63" s="87"/>
+      <c r="AV63" s="71"/>
+      <c r="AW63" s="71"/>
+      <c r="AX63" s="74"/>
+      <c r="AY63" s="73"/>
+      <c r="AZ63" s="73"/>
+      <c r="BA63" s="73"/>
+      <c r="BB63" s="73"/>
+      <c r="BC63" s="79"/>
+      <c r="BD63" s="74"/>
+      <c r="BE63" s="72"/>
+      <c r="BF63" s="72"/>
+    </row>
+    <row r="64" spans="1:59" s="15" customFormat="1">
       <c r="E64" s="56"/>
       <c r="J64" s="56"/>
       <c r="R64" s="56"/>
-      <c r="T64" s="56"/>
-      <c r="U64" s="45" t="s">
+      <c r="Y64" s="56"/>
+      <c r="Z64" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="V64" s="15">
-        <v>1</v>
-      </c>
-      <c r="W64" s="15">
+      <c r="AA64" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="15">
         <v>100</v>
       </c>
-      <c r="X64" s="15" t="s">
+      <c r="AC64" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y64" s="15" t="s">
+      <c r="AD64" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Z64" s="15" t="s">
+      <c r="AE64" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA64" s="15" t="s">
+      <c r="AF64" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AD64" s="15" t="s">
+      <c r="AI64" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AI64" s="50"/>
-      <c r="AJ64" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK64" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM64" s="16"/>
-      <c r="AN64" s="16"/>
-      <c r="AO64" s="50"/>
-      <c r="AP64" s="88" t="s">
+      <c r="AN64" s="50"/>
+      <c r="AO64" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP64" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR64" s="16"/>
+      <c r="AS64" s="16"/>
+      <c r="AT64" s="50"/>
+      <c r="AU64" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="AQ64" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR64" s="19">
+      <c r="AV64" s="19">
+        <v>0</v>
+      </c>
+      <c r="AW64" s="19">
         <v>50</v>
       </c>
-      <c r="AS64" s="53"/>
-      <c r="AT64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW64" s="50"/>
-      <c r="AX64" s="80" t="s">
+      <c r="AX64" s="53"/>
+      <c r="AY64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB64" s="50"/>
+      <c r="BC64" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="AY64" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ64" s="15" t="s">
+      <c r="BD64" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE64" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BA64" s="15" t="s">
+      <c r="BF64" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB64" s="47"/>
-    </row>
-    <row r="65" spans="1:54" s="15" customFormat="1">
+      <c r="BG64" s="47"/>
+    </row>
+    <row r="65" spans="1:59" s="15" customFormat="1">
       <c r="E65" s="56"/>
       <c r="J65" s="56"/>
       <c r="R65" s="56"/>
-      <c r="T65" s="56"/>
-      <c r="U65" s="45"/>
-      <c r="AI65" s="47"/>
-      <c r="AO65" s="47"/>
-      <c r="AP65" s="88" t="s">
+      <c r="Y65" s="56"/>
+      <c r="Z65" s="45"/>
+      <c r="AN65" s="47"/>
+      <c r="AT65" s="47"/>
+      <c r="AU65" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="AQ65" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR65" s="19">
+      <c r="AV65" s="19">
+        <v>0</v>
+      </c>
+      <c r="AW65" s="19">
         <v>50</v>
       </c>
-      <c r="AS65" s="53"/>
-      <c r="AT65" s="16"/>
-      <c r="AU65" s="16"/>
-      <c r="AV65" s="16"/>
-      <c r="AW65" s="50"/>
-      <c r="AX65" s="80"/>
-      <c r="AY65" s="19"/>
-      <c r="BB65" s="47"/>
-    </row>
-    <row r="66" spans="1:54">
+      <c r="AX65" s="53"/>
+      <c r="AY65" s="16"/>
+      <c r="AZ65" s="16"/>
+      <c r="BA65" s="16"/>
+      <c r="BB65" s="50"/>
+      <c r="BC65" s="80"/>
+      <c r="BD65" s="19"/>
+      <c r="BG65" s="47"/>
+    </row>
+    <row r="66" spans="1:59">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
-      <c r="U66" s="45"/>
-      <c r="AP66" s="88" t="s">
+      <c r="Z66" s="45"/>
+      <c r="AU66" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="AQ66" s="20">
-        <v>0</v>
-      </c>
-      <c r="AR66" s="20">
+      <c r="AV66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AW66" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:54" s="47" customFormat="1">
+    <row r="67" spans="1:59" s="47" customFormat="1">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -7874,12 +8029,12 @@
       <c r="Q67" s="15"/>
       <c r="R67" s="56"/>
       <c r="S67" s="15"/>
-      <c r="T67" s="56"/>
-      <c r="U67" s="72"/>
-      <c r="V67" s="72"/>
-      <c r="W67" s="72"/>
-      <c r="X67" s="72"/>
-      <c r="Y67" s="72"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="56"/>
       <c r="Z67" s="72"/>
       <c r="AA67" s="72"/>
       <c r="AB67" s="72"/>
@@ -7889,112 +8044,117 @@
       <c r="AF67" s="72"/>
       <c r="AG67" s="72"/>
       <c r="AH67" s="72"/>
-      <c r="AI67" s="73"/>
-      <c r="AJ67" s="73"/>
-      <c r="AK67" s="73"/>
-      <c r="AL67" s="73"/>
-      <c r="AM67" s="73"/>
+      <c r="AI67" s="72"/>
+      <c r="AJ67" s="72"/>
+      <c r="AK67" s="72"/>
+      <c r="AL67" s="72"/>
+      <c r="AM67" s="72"/>
       <c r="AN67" s="73"/>
       <c r="AO67" s="73"/>
-      <c r="AP67" s="87"/>
-      <c r="AQ67" s="71"/>
-      <c r="AR67" s="71"/>
-      <c r="AS67" s="74"/>
+      <c r="AP67" s="73"/>
+      <c r="AQ67" s="73"/>
+      <c r="AR67" s="73"/>
+      <c r="AS67" s="73"/>
       <c r="AT67" s="73"/>
-      <c r="AU67" s="73"/>
-      <c r="AV67" s="73"/>
-      <c r="AW67" s="73"/>
-      <c r="AX67" s="79"/>
-      <c r="AY67" s="74"/>
-      <c r="AZ67" s="72"/>
-      <c r="BA67" s="72"/>
-    </row>
-    <row r="68" spans="1:54" s="15" customFormat="1">
+      <c r="AU67" s="87"/>
+      <c r="AV67" s="71"/>
+      <c r="AW67" s="71"/>
+      <c r="AX67" s="74"/>
+      <c r="AY67" s="73"/>
+      <c r="AZ67" s="73"/>
+      <c r="BA67" s="73"/>
+      <c r="BB67" s="73"/>
+      <c r="BC67" s="79"/>
+      <c r="BD67" s="74"/>
+      <c r="BE67" s="72"/>
+      <c r="BF67" s="72"/>
+    </row>
+    <row r="68" spans="1:59" s="15" customFormat="1">
       <c r="E68" s="56"/>
       <c r="J68" s="56"/>
       <c r="R68" s="56"/>
-      <c r="T68" s="56"/>
-      <c r="U68" s="15" t="s">
+      <c r="Y68" s="56"/>
+      <c r="Z68" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="V68" s="15">
-        <v>1</v>
-      </c>
-      <c r="W68" s="15">
+      <c r="AA68" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB68" s="15">
         <v>200</v>
       </c>
-      <c r="X68" s="15" t="s">
+      <c r="AC68" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Y68" s="15" t="s">
+      <c r="AD68" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Z68" s="15" t="s">
+      <c r="AE68" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA68" s="15" t="s">
+      <c r="AF68" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AD68" s="15" t="s">
+      <c r="AI68" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AI68" s="50"/>
-      <c r="AJ68" s="16"/>
-      <c r="AK68" s="16"/>
-      <c r="AL68" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM68" s="16"/>
-      <c r="AN68" s="16"/>
-      <c r="AO68" s="50"/>
-      <c r="AP68" s="88"/>
-      <c r="AQ68" s="19"/>
-      <c r="AR68" s="19"/>
-      <c r="AS68" s="53"/>
-      <c r="AT68" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU68" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV68" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW68" s="50"/>
-      <c r="AX68" s="80" t="s">
+      <c r="AN68" s="50"/>
+      <c r="AO68" s="16"/>
+      <c r="AP68" s="16"/>
+      <c r="AQ68" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR68" s="16"/>
+      <c r="AS68" s="16"/>
+      <c r="AT68" s="50"/>
+      <c r="AU68" s="88"/>
+      <c r="AV68" s="19"/>
+      <c r="AW68" s="19"/>
+      <c r="AX68" s="53"/>
+      <c r="AY68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB68" s="50"/>
+      <c r="BC68" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="AY68" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ68" s="15" t="s">
+      <c r="BD68" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE68" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BA68" s="15" t="s">
+      <c r="BF68" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB68" s="47"/>
-    </row>
-    <row r="69" spans="1:54" s="61" customFormat="1" ht="12" customHeight="1">
-      <c r="AI69" s="62"/>
-      <c r="AJ69" s="63"/>
-      <c r="AK69" s="63"/>
-      <c r="AL69" s="63"/>
-      <c r="AM69" s="62"/>
+      <c r="BG68" s="47"/>
+    </row>
+    <row r="69" spans="1:59" s="61" customFormat="1" ht="12" customHeight="1">
       <c r="AN69" s="62"/>
-      <c r="AO69" s="62"/>
-      <c r="AP69" s="85"/>
-      <c r="AQ69" s="64"/>
-      <c r="AR69" s="64"/>
-      <c r="AS69" s="64"/>
-      <c r="AT69" s="63"/>
-      <c r="AU69" s="63"/>
-      <c r="AV69" s="63"/>
-      <c r="AW69" s="63"/>
-      <c r="AX69" s="77"/>
-      <c r="AY69" s="64"/>
-    </row>
-    <row r="70" spans="1:54" s="15" customFormat="1">
+      <c r="AO69" s="63"/>
+      <c r="AP69" s="63"/>
+      <c r="AQ69" s="63"/>
+      <c r="AR69" s="62"/>
+      <c r="AS69" s="62"/>
+      <c r="AT69" s="62"/>
+      <c r="AU69" s="85"/>
+      <c r="AV69" s="64"/>
+      <c r="AW69" s="64"/>
+      <c r="AX69" s="64"/>
+      <c r="AY69" s="63"/>
+      <c r="AZ69" s="63"/>
+      <c r="BA69" s="63"/>
+      <c r="BB69" s="63"/>
+      <c r="BC69" s="77"/>
+      <c r="BD69" s="64"/>
+    </row>
+    <row r="70" spans="1:59" s="15" customFormat="1">
       <c r="C70" s="41"/>
       <c r="D70" s="41" t="s">
         <v>119</v>
@@ -8038,72 +8198,72 @@
       <c r="S70" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="T70" s="56"/>
-      <c r="U70" s="15" t="s">
+      <c r="Y70" s="56"/>
+      <c r="Z70" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="V70" s="15">
+      <c r="AA70" s="15">
         <v>0.8</v>
       </c>
-      <c r="W70" s="15">
+      <c r="AB70" s="15">
         <v>50</v>
       </c>
-      <c r="X70" s="15" t="s">
+      <c r="AC70" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Y70" s="15" t="s">
+      <c r="AD70" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="Z70" s="15" t="s">
+      <c r="AE70" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AA70" s="41" t="s">
+      <c r="AF70" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="AB70" s="15">
+      <c r="AG70" s="15">
         <v>20</v>
       </c>
-      <c r="AC70" s="15">
+      <c r="AH70" s="15">
         <v>5</v>
       </c>
-      <c r="AE70" s="15" t="s">
+      <c r="AJ70" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AF70" s="15" t="s">
+      <c r="AK70" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AG70" s="15" t="s">
+      <c r="AL70" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AH70" s="15" t="s">
+      <c r="AM70" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AI70" s="50"/>
-      <c r="AJ70" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK70" s="18"/>
-      <c r="AL70" s="18"/>
-      <c r="AM70" s="18"/>
-      <c r="AN70" s="18"/>
-      <c r="AO70" s="50"/>
-      <c r="AP70" s="90"/>
+      <c r="AN70" s="50"/>
+      <c r="AO70" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP70" s="18"/>
       <c r="AQ70" s="18"/>
       <c r="AR70" s="18"/>
-      <c r="AS70" s="50"/>
-      <c r="AT70" s="18"/>
-      <c r="AU70" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AS70" s="18"/>
+      <c r="AT70" s="50"/>
+      <c r="AU70" s="90"/>
       <c r="AV70" s="18"/>
-      <c r="AW70" s="50"/>
-      <c r="AX70" s="78"/>
-      <c r="AY70" s="97"/>
-      <c r="AZ70" s="18"/>
+      <c r="AW70" s="18"/>
+      <c r="AX70" s="50"/>
+      <c r="AY70" s="18"/>
+      <c r="AZ70" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="BA70" s="18"/>
-      <c r="BB70" s="47"/>
-    </row>
-    <row r="71" spans="1:54" s="47" customFormat="1">
+      <c r="BB70" s="50"/>
+      <c r="BC70" s="78"/>
+      <c r="BD70" s="97"/>
+      <c r="BE70" s="18"/>
+      <c r="BF70" s="18"/>
+      <c r="BG70" s="47"/>
+    </row>
+    <row r="71" spans="1:59" s="47" customFormat="1">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="41"/>
@@ -8125,12 +8285,12 @@
       <c r="S71" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T71" s="56"/>
-      <c r="U71" s="72"/>
-      <c r="V71" s="72"/>
-      <c r="W71" s="72"/>
-      <c r="X71" s="72"/>
-      <c r="Y71" s="72"/>
+      <c r="T71" s="15"/>
+      <c r="U71" s="15"/>
+      <c r="V71" s="15"/>
+      <c r="W71" s="15"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="56"/>
       <c r="Z71" s="72"/>
       <c r="AA71" s="72"/>
       <c r="AB71" s="72"/>
@@ -8140,143 +8300,148 @@
       <c r="AF71" s="72"/>
       <c r="AG71" s="72"/>
       <c r="AH71" s="72"/>
-      <c r="AI71" s="73"/>
-      <c r="AJ71" s="73"/>
-      <c r="AK71" s="73"/>
-      <c r="AL71" s="73"/>
-      <c r="AM71" s="73"/>
+      <c r="AI71" s="72"/>
+      <c r="AJ71" s="72"/>
+      <c r="AK71" s="72"/>
+      <c r="AL71" s="72"/>
+      <c r="AM71" s="72"/>
       <c r="AN71" s="73"/>
       <c r="AO71" s="73"/>
-      <c r="AP71" s="87"/>
-      <c r="AQ71" s="71"/>
-      <c r="AR71" s="71"/>
-      <c r="AS71" s="74"/>
+      <c r="AP71" s="73"/>
+      <c r="AQ71" s="73"/>
+      <c r="AR71" s="73"/>
+      <c r="AS71" s="73"/>
       <c r="AT71" s="73"/>
-      <c r="AU71" s="73"/>
-      <c r="AV71" s="73"/>
-      <c r="AW71" s="73"/>
-      <c r="AX71" s="79"/>
-      <c r="AY71" s="74"/>
-      <c r="AZ71" s="72"/>
-      <c r="BA71" s="72"/>
-    </row>
-    <row r="72" spans="1:54" s="15" customFormat="1">
+      <c r="AU71" s="87"/>
+      <c r="AV71" s="71"/>
+      <c r="AW71" s="71"/>
+      <c r="AX71" s="74"/>
+      <c r="AY71" s="73"/>
+      <c r="AZ71" s="73"/>
+      <c r="BA71" s="73"/>
+      <c r="BB71" s="73"/>
+      <c r="BC71" s="79"/>
+      <c r="BD71" s="74"/>
+      <c r="BE71" s="72"/>
+      <c r="BF71" s="72"/>
+    </row>
+    <row r="72" spans="1:59" s="15" customFormat="1">
       <c r="E72" s="56"/>
       <c r="J72" s="56"/>
       <c r="R72" s="56"/>
-      <c r="T72" s="56"/>
-      <c r="U72" s="45" t="s">
+      <c r="Y72" s="56"/>
+      <c r="Z72" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="V72" s="15">
-        <v>1</v>
-      </c>
-      <c r="W72" s="15">
+      <c r="AA72" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB72" s="15">
         <v>100</v>
       </c>
-      <c r="X72" s="15" t="s">
+      <c r="AC72" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y72" s="15" t="s">
+      <c r="AD72" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Z72" s="15" t="s">
+      <c r="AE72" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA72" s="15" t="s">
+      <c r="AF72" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AD72" s="15" t="s">
+      <c r="AI72" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AI72" s="50"/>
-      <c r="AJ72" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK72" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL72" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM72" s="16"/>
-      <c r="AN72" s="16"/>
-      <c r="AO72" s="50"/>
-      <c r="AP72" s="86" t="s">
+      <c r="AN72" s="50"/>
+      <c r="AO72" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP72" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ72" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR72" s="16"/>
+      <c r="AS72" s="16"/>
+      <c r="AT72" s="50"/>
+      <c r="AU72" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="AQ72" s="84">
-        <v>0</v>
-      </c>
-      <c r="AR72" s="84">
+      <c r="AV72" s="84">
+        <v>0</v>
+      </c>
+      <c r="AW72" s="84">
         <v>50</v>
       </c>
-      <c r="AS72" s="53"/>
-      <c r="AT72" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU72" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV72" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW72" s="50"/>
-      <c r="AX72" s="80" t="s">
+      <c r="AX72" s="53"/>
+      <c r="AY72" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ72" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA72" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB72" s="50"/>
+      <c r="BC72" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="AY72" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ72" s="15" t="s">
+      <c r="BD72" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE72" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BA72" s="15" t="s">
+      <c r="BF72" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB72" s="47"/>
-    </row>
-    <row r="73" spans="1:54" s="15" customFormat="1">
+      <c r="BG72" s="47"/>
+    </row>
+    <row r="73" spans="1:59" s="15" customFormat="1">
       <c r="E73" s="56"/>
       <c r="J73" s="56"/>
       <c r="R73" s="56"/>
-      <c r="T73" s="56"/>
-      <c r="U73" s="45"/>
-      <c r="AI73" s="47"/>
-      <c r="AO73" s="47"/>
-      <c r="AP73" s="86" t="s">
+      <c r="Y73" s="56"/>
+      <c r="Z73" s="45"/>
+      <c r="AN73" s="47"/>
+      <c r="AT73" s="47"/>
+      <c r="AU73" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="AQ73" s="84">
-        <v>0</v>
-      </c>
-      <c r="AR73" s="84">
+      <c r="AV73" s="84">
+        <v>0</v>
+      </c>
+      <c r="AW73" s="84">
         <v>50</v>
       </c>
-      <c r="AS73" s="53"/>
-      <c r="AT73" s="16"/>
-      <c r="AU73" s="16"/>
-      <c r="AV73" s="16"/>
-      <c r="AW73" s="50"/>
-      <c r="AX73" s="80"/>
-      <c r="AY73" s="19"/>
-      <c r="BB73" s="47"/>
-    </row>
-    <row r="74" spans="1:54">
+      <c r="AX73" s="53"/>
+      <c r="AY73" s="16"/>
+      <c r="AZ73" s="16"/>
+      <c r="BA73" s="16"/>
+      <c r="BB73" s="50"/>
+      <c r="BC73" s="80"/>
+      <c r="BD73" s="19"/>
+      <c r="BG73" s="47"/>
+    </row>
+    <row r="74" spans="1:59">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
-      <c r="U74" s="45"/>
-      <c r="AP74" s="86" t="s">
+      <c r="Z74" s="45"/>
+      <c r="AU74" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="AQ74" s="84">
-        <v>0</v>
-      </c>
-      <c r="AR74" s="84">
+      <c r="AV74" s="84">
+        <v>0</v>
+      </c>
+      <c r="AW74" s="84">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:54" s="47" customFormat="1">
+    <row r="75" spans="1:59" s="47" customFormat="1">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -8296,12 +8461,12 @@
       <c r="Q75" s="15"/>
       <c r="R75" s="56"/>
       <c r="S75" s="15"/>
-      <c r="T75" s="56"/>
-      <c r="U75" s="72"/>
-      <c r="V75" s="72"/>
-      <c r="W75" s="72"/>
-      <c r="X75" s="72"/>
-      <c r="Y75" s="72"/>
+      <c r="T75" s="15"/>
+      <c r="U75" s="15"/>
+      <c r="V75" s="15"/>
+      <c r="W75" s="15"/>
+      <c r="X75" s="15"/>
+      <c r="Y75" s="56"/>
       <c r="Z75" s="72"/>
       <c r="AA75" s="72"/>
       <c r="AB75" s="72"/>
@@ -8311,112 +8476,117 @@
       <c r="AF75" s="72"/>
       <c r="AG75" s="72"/>
       <c r="AH75" s="72"/>
-      <c r="AI75" s="73"/>
-      <c r="AJ75" s="73"/>
-      <c r="AK75" s="73"/>
-      <c r="AL75" s="73"/>
-      <c r="AM75" s="73"/>
+      <c r="AI75" s="72"/>
+      <c r="AJ75" s="72"/>
+      <c r="AK75" s="72"/>
+      <c r="AL75" s="72"/>
+      <c r="AM75" s="72"/>
       <c r="AN75" s="73"/>
       <c r="AO75" s="73"/>
-      <c r="AP75" s="87"/>
-      <c r="AQ75" s="71"/>
-      <c r="AR75" s="71"/>
-      <c r="AS75" s="74"/>
+      <c r="AP75" s="73"/>
+      <c r="AQ75" s="73"/>
+      <c r="AR75" s="73"/>
+      <c r="AS75" s="73"/>
       <c r="AT75" s="73"/>
-      <c r="AU75" s="73"/>
-      <c r="AV75" s="73"/>
-      <c r="AW75" s="73"/>
-      <c r="AX75" s="79"/>
-      <c r="AY75" s="74"/>
-      <c r="AZ75" s="72"/>
-      <c r="BA75" s="72"/>
-    </row>
-    <row r="76" spans="1:54" s="15" customFormat="1">
+      <c r="AU75" s="87"/>
+      <c r="AV75" s="71"/>
+      <c r="AW75" s="71"/>
+      <c r="AX75" s="74"/>
+      <c r="AY75" s="73"/>
+      <c r="AZ75" s="73"/>
+      <c r="BA75" s="73"/>
+      <c r="BB75" s="73"/>
+      <c r="BC75" s="79"/>
+      <c r="BD75" s="74"/>
+      <c r="BE75" s="72"/>
+      <c r="BF75" s="72"/>
+    </row>
+    <row r="76" spans="1:59" s="15" customFormat="1">
       <c r="E76" s="56"/>
       <c r="J76" s="56"/>
       <c r="R76" s="56"/>
-      <c r="T76" s="56"/>
-      <c r="U76" s="45" t="s">
+      <c r="Y76" s="56"/>
+      <c r="Z76" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="V76" s="15">
-        <v>1</v>
-      </c>
-      <c r="W76" s="15">
+      <c r="AA76" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB76" s="15">
         <v>200</v>
       </c>
-      <c r="X76" s="15" t="s">
+      <c r="AC76" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Y76" s="15" t="s">
+      <c r="AD76" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Z76" s="15" t="s">
+      <c r="AE76" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AA76" s="15" t="s">
+      <c r="AF76" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AD76" s="15" t="s">
+      <c r="AI76" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AI76" s="50"/>
-      <c r="AJ76" s="16"/>
-      <c r="AK76" s="16"/>
-      <c r="AL76" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM76" s="16"/>
-      <c r="AN76" s="16"/>
-      <c r="AO76" s="50"/>
-      <c r="AP76" s="88"/>
-      <c r="AQ76" s="19"/>
-      <c r="AR76" s="19"/>
-      <c r="AS76" s="53"/>
-      <c r="AT76" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU76" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV76" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW76" s="50"/>
-      <c r="AX76" s="80" t="s">
+      <c r="AN76" s="50"/>
+      <c r="AO76" s="16"/>
+      <c r="AP76" s="16"/>
+      <c r="AQ76" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR76" s="16"/>
+      <c r="AS76" s="16"/>
+      <c r="AT76" s="50"/>
+      <c r="AU76" s="88"/>
+      <c r="AV76" s="19"/>
+      <c r="AW76" s="19"/>
+      <c r="AX76" s="53"/>
+      <c r="AY76" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ76" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA76" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB76" s="50"/>
+      <c r="BC76" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="AY76" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ76" s="15" t="s">
+      <c r="BD76" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE76" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BA76" s="15" t="s">
+      <c r="BF76" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB76" s="47"/>
-    </row>
-    <row r="77" spans="1:54" s="65" customFormat="1">
-      <c r="AI77" s="66"/>
-      <c r="AJ77" s="66"/>
-      <c r="AK77" s="66"/>
-      <c r="AL77" s="66"/>
-      <c r="AM77" s="66"/>
+      <c r="BG76" s="47"/>
+    </row>
+    <row r="77" spans="1:59" s="65" customFormat="1">
       <c r="AN77" s="66"/>
       <c r="AO77" s="66"/>
-      <c r="AP77" s="91"/>
-      <c r="AQ77" s="67"/>
-      <c r="AR77" s="67"/>
-      <c r="AS77" s="67"/>
+      <c r="AP77" s="66"/>
+      <c r="AQ77" s="66"/>
+      <c r="AR77" s="66"/>
+      <c r="AS77" s="66"/>
       <c r="AT77" s="66"/>
-      <c r="AU77" s="66"/>
-      <c r="AV77" s="66"/>
-      <c r="AW77" s="66"/>
-      <c r="AX77" s="83"/>
-      <c r="AY77" s="67"/>
-    </row>
-    <row r="78" spans="1:54" s="15" customFormat="1">
+      <c r="AU77" s="91"/>
+      <c r="AV77" s="67"/>
+      <c r="AW77" s="67"/>
+      <c r="AX77" s="67"/>
+      <c r="AY77" s="66"/>
+      <c r="AZ77" s="66"/>
+      <c r="BA77" s="66"/>
+      <c r="BB77" s="66"/>
+      <c r="BC77" s="83"/>
+      <c r="BD77" s="67"/>
+    </row>
+    <row r="78" spans="1:59" s="15" customFormat="1">
       <c r="D78" s="15" t="s">
         <v>123</v>
       </c>
@@ -8426,119 +8596,119 @@
       </c>
       <c r="J78" s="56"/>
       <c r="R78" s="56"/>
-      <c r="T78" s="56"/>
-      <c r="U78" s="15" t="s">
+      <c r="Y78" s="56"/>
+      <c r="Z78" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="V78" s="15">
+      <c r="AA78" s="15">
         <v>0.9</v>
       </c>
-      <c r="W78" s="15">
+      <c r="AB78" s="15">
         <v>50</v>
       </c>
-      <c r="X78" s="15" t="s">
+      <c r="AC78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y78" s="15" t="s">
+      <c r="AD78" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="Z78" s="15" t="s">
+      <c r="AE78" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AD78" s="15" t="s">
+      <c r="AI78" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AE78" s="15" t="s">
+      <c r="AJ78" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="AF78" s="15" t="s">
+      <c r="AK78" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AG78" s="15" t="s">
+      <c r="AL78" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AH78" s="15" t="s">
+      <c r="AM78" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AI78" s="50"/>
-      <c r="AJ78" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK78" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL78" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM78" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN78" s="16"/>
-      <c r="AO78" s="50"/>
-      <c r="AP78" s="88" t="s">
+      <c r="AN78" s="50"/>
+      <c r="AO78" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP78" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ78" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR78" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS78" s="16"/>
+      <c r="AT78" s="50"/>
+      <c r="AU78" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="AQ78" s="19">
+      <c r="AV78" s="19">
         <v>50</v>
       </c>
-      <c r="AR78" s="19" t="s">
+      <c r="AW78" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AS78" s="53"/>
-      <c r="AT78" s="16"/>
-      <c r="AU78" s="16"/>
-      <c r="AV78" s="16"/>
-      <c r="AW78" s="50"/>
-      <c r="AX78" s="80" t="s">
+      <c r="AX78" s="53"/>
+      <c r="AY78" s="16"/>
+      <c r="AZ78" s="16"/>
+      <c r="BA78" s="16"/>
+      <c r="BB78" s="50"/>
+      <c r="BC78" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="AY78" s="19">
+      <c r="BD78" s="19">
         <v>50</v>
       </c>
-      <c r="AZ78" s="16" t="s">
+      <c r="BE78" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="BB78" s="47"/>
-    </row>
-    <row r="79" spans="1:54" s="15" customFormat="1">
+      <c r="BG78" s="47"/>
+    </row>
+    <row r="79" spans="1:59" s="15" customFormat="1">
       <c r="E79" s="56"/>
       <c r="F79" s="15" t="s">
         <v>128</v>
       </c>
       <c r="J79" s="56"/>
       <c r="R79" s="56"/>
-      <c r="T79" s="56"/>
-      <c r="AI79" s="50"/>
-      <c r="AJ79" s="16"/>
-      <c r="AK79" s="16"/>
-      <c r="AL79" s="16"/>
-      <c r="AM79" s="16"/>
-      <c r="AN79" s="16"/>
-      <c r="AO79" s="50"/>
-      <c r="AP79" s="88" t="s">
+      <c r="Y79" s="56"/>
+      <c r="AN79" s="50"/>
+      <c r="AO79" s="16"/>
+      <c r="AP79" s="16"/>
+      <c r="AQ79" s="16"/>
+      <c r="AR79" s="16"/>
+      <c r="AS79" s="16"/>
+      <c r="AT79" s="50"/>
+      <c r="AU79" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="AQ79" s="19">
+      <c r="AV79" s="19">
         <v>170</v>
       </c>
-      <c r="AR79" s="19" t="s">
+      <c r="AW79" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AS79" s="53"/>
-      <c r="AT79" s="16"/>
-      <c r="AU79" s="16"/>
-      <c r="AV79" s="16"/>
-      <c r="AW79" s="50"/>
-      <c r="AX79" s="80" t="s">
+      <c r="AX79" s="53"/>
+      <c r="AY79" s="16"/>
+      <c r="AZ79" s="16"/>
+      <c r="BA79" s="16"/>
+      <c r="BB79" s="50"/>
+      <c r="BC79" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="AY79" s="19">
+      <c r="BD79" s="19">
         <v>50</v>
       </c>
-      <c r="AZ79" s="16" t="s">
+      <c r="BE79" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="BB79" s="47"/>
+      <c r="BG79" s="47"/>
     </row>
     <row r="84" spans="2:10">
       <c r="B84" s="1"/>
@@ -8552,697 +8722,697 @@
       <c r="J84" s="59"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AX11:XFD12 AP13 AJ5:XFD6 AJ11:AO11 B7:B13 AA17:AE17 C12:T12 Y16:Y17 Z16:AH16 V16:X16 AJ16:XFD16 C10:T10 BB10:XFD10 C8:AH9 AJ8:XFD9 BB7:XFD7 X80:XFD81 BB78:XFD79 B80:V81 B78:T79 B77:XFD77 I23:T23 I35:XFD35 C23:E23 F22:H23 B35:H39 B71:B74 C71:I72 C11:AH11 AB36:AW36 C7:R7 T7 S5:AH6 BB17:XFD23 B16:B23 C18:E20 I18:T20 F17:H19 BB36:XFD40 B40:T40 I36:K36 I37:T39 BB50:XFD52 B52:T52 F13:I13 C16:U17 R36:Z36 B5:Q6">
+  <conditionalFormatting sqref="BC11:XFD12 AU13 AO5:XFD6 AO11:AT11 B7:B13 AF17:AJ17 C12:Y12 AD16:AD17 AE16:AM16 AA16:AC16 AO16:XFD16 C10:Y10 BG10:XFD10 C8:AM9 AO8:XFD9 BG7:XFD7 AC80:XFD81 BG78:XFD79 B80:AA81 B78:Y79 B77:XFD77 I23:Y23 I35:XFD35 C23:E23 F22:H23 B35:H39 B71:B74 C71:I72 C11:AM11 AG36:BB36 C7:R7 Y7 BG17:XFD23 B16:B23 C18:E20 I18:Y20 F17:H19 BG36:XFD40 B40:Y40 I36:K36 I37:Y39 BG50:XFD52 B52:Y52 F13:I13 C16:Z17 R36:AE36 B5:Q6 S5:AM6">
     <cfRule type="cellIs" dxfId="164" priority="181" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP11:AW12">
+  <conditionalFormatting sqref="AU11:BB12">
     <cfRule type="cellIs" dxfId="163" priority="180" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V17:W17 AJ17:BA17">
+  <conditionalFormatting sqref="AA17:AB17 AO17:BF17">
     <cfRule type="cellIs" dxfId="162" priority="179" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI15">
+  <conditionalFormatting sqref="AN15">
     <cfRule type="cellIs" dxfId="161" priority="170" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE17">
+  <conditionalFormatting sqref="AJ17">
     <cfRule type="cellIs" dxfId="160" priority="177" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AH17">
+  <conditionalFormatting sqref="AK17:AM17">
     <cfRule type="cellIs" dxfId="159" priority="176" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X17:Z17">
+  <conditionalFormatting sqref="AC17:AE17">
     <cfRule type="cellIs" dxfId="158" priority="175" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI5:AI6 AI16 AI11 AI8:AI9">
+  <conditionalFormatting sqref="AN5:AN6 AN16 AN11 AN8:AN9">
     <cfRule type="cellIs" dxfId="157" priority="174" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI17">
+  <conditionalFormatting sqref="AN17">
     <cfRule type="cellIs" dxfId="156" priority="173" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX15:XFD15 BB14:XFD14 AJ15:AO15 B15:W15 B14:T14 Y15:AH15">
+  <conditionalFormatting sqref="BC15:XFD15 BG14:XFD14 AO15:AT15 B15:AB15 B14:Y14 AD15:AM15">
     <cfRule type="cellIs" dxfId="155" priority="172" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP15:AW15">
+  <conditionalFormatting sqref="AU15:BB15">
     <cfRule type="cellIs" dxfId="154" priority="171" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U22:AO22 AS22:BA22">
+  <conditionalFormatting sqref="Z22:AT22 AX22:BF22">
     <cfRule type="cellIs" dxfId="153" priority="143" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB36:AE36 Z35:AH35 V35:X35 AJ35:XFD35 C40:T40">
+  <conditionalFormatting sqref="AG36:AJ36 AE35:AM35 AA35:AC35 AO35:XFD35 C40:Y40">
     <cfRule type="cellIs" dxfId="152" priority="169" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V36:W36 AJ36:AW36">
+  <conditionalFormatting sqref="AA36:AB36 AO36:BB36">
     <cfRule type="cellIs" dxfId="151" priority="168" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE36">
+  <conditionalFormatting sqref="AJ36">
     <cfRule type="cellIs" dxfId="150" priority="166" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF36:AH36">
+  <conditionalFormatting sqref="AK36:AM36">
     <cfRule type="cellIs" dxfId="149" priority="165" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X36:Z36">
+  <conditionalFormatting sqref="AC36:AE36">
     <cfRule type="cellIs" dxfId="148" priority="164" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI35">
+  <conditionalFormatting sqref="AN35">
     <cfRule type="cellIs" dxfId="147" priority="163" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI36">
+  <conditionalFormatting sqref="AN36">
     <cfRule type="cellIs" dxfId="146" priority="162" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U39:AO39 AS39:BA39">
+  <conditionalFormatting sqref="Z39:AT39 AX39:BF39">
     <cfRule type="cellIs" dxfId="145" priority="134" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX36:BA36">
+  <conditionalFormatting sqref="BC36:BF36">
     <cfRule type="cellIs" dxfId="144" priority="159" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX19:BA20 AP21 AJ19:AO19 U19:W19 Y19:AH19">
+  <conditionalFormatting sqref="BC19:BF20 AU21 AO19:AT19 Z19:AB19 AD19:AM19">
     <cfRule type="cellIs" dxfId="143" priority="149" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U14:AO14 AS14:BA14">
+  <conditionalFormatting sqref="Z14:AT14 AX14:BF14">
     <cfRule type="cellIs" dxfId="142" priority="157" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U10:AO10 AS10:BA10">
+  <conditionalFormatting sqref="Z10:AT10 AX10:BF10">
     <cfRule type="cellIs" dxfId="141" priority="156" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U7:AO7 AS7:BA7">
+  <conditionalFormatting sqref="Z7:AT7 AX7:BF7">
     <cfRule type="cellIs" dxfId="140" priority="155" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U18:AO18 AS18:BA18">
+  <conditionalFormatting sqref="Z18:AT18 AX18:BF18">
     <cfRule type="cellIs" dxfId="139" priority="154" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP23:AW23">
+  <conditionalFormatting sqref="AU23:BB23">
     <cfRule type="cellIs" dxfId="138" priority="145" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI23">
+  <conditionalFormatting sqref="AN23">
     <cfRule type="cellIs" dxfId="137" priority="144" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U78:BA79">
+  <conditionalFormatting sqref="Z78:BF79">
     <cfRule type="cellIs" dxfId="136" priority="150" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB50:AE50 Z49:AH49 C49:X49 AJ49:XFD49 C52:T52 T51 C51:R51 T50:U50 C50:K50 R50">
+  <conditionalFormatting sqref="AG50:AJ50 AE49:AM49 C49:AC49 AO49:XFD49 C52:Y52 Y51 C51:R51 Y50:Z50 C50:K50 R50">
     <cfRule type="cellIs" dxfId="135" priority="131" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP19:AW20">
+  <conditionalFormatting sqref="AU19:BB20">
     <cfRule type="cellIs" dxfId="134" priority="148" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI19">
+  <conditionalFormatting sqref="AN19">
     <cfRule type="cellIs" dxfId="133" priority="147" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX23:BA23 AJ23:AO23 V23:AH23">
+  <conditionalFormatting sqref="BC23:BF23 AO23:AT23 AA23:AM23">
     <cfRule type="cellIs" dxfId="132" priority="146" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI40">
+  <conditionalFormatting sqref="AN40">
     <cfRule type="cellIs" dxfId="131" priority="136" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI50">
+  <conditionalFormatting sqref="AN50">
     <cfRule type="cellIs" dxfId="130" priority="125" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP40:AW40">
+  <conditionalFormatting sqref="AU40:BB40">
     <cfRule type="cellIs" dxfId="129" priority="137" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI52">
+  <conditionalFormatting sqref="AN52">
     <cfRule type="cellIs" dxfId="128" priority="118" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX40:BA40 AJ40:AO40 V40:AH40">
+  <conditionalFormatting sqref="BC40:BF40 AO40:AT40 AA40:AM40">
     <cfRule type="cellIs" dxfId="127" priority="138" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U51:AO51 AS51:BA51">
+  <conditionalFormatting sqref="Z51:AT51 AX51:BF51">
     <cfRule type="cellIs" dxfId="126" priority="116" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ56:AQ57">
+  <conditionalFormatting sqref="AV56:AV57">
     <cfRule type="cellIs" dxfId="125" priority="97" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:XFD49 T51 B51:R51 T50:Z50 AB50:AW50 B50:K50 R50">
+  <conditionalFormatting sqref="B49:XFD49 Y51 B51:R51 Y50:AE50 AG50:BB50 B50:K50 R50">
     <cfRule type="cellIs" dxfId="124" priority="132" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA54:AD54 Z53:AH53 C53:X53 AJ53:XFD53 C60:T60 C56:T57 T55 C55:R55 T54:U54 C54:K54 R54">
+  <conditionalFormatting sqref="AF54:AI54 AE53:AM53 C53:AC53 AO53:XFD53 C60:Y60 C56:Y57 Y55 C55:R55 Y54:Z54 C54:K54 R54">
     <cfRule type="cellIs" dxfId="123" priority="113" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V50:W50 AJ50:AW50">
+  <conditionalFormatting sqref="AA50:AB50 AO50:BB50">
     <cfRule type="cellIs" dxfId="122" priority="130" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE50">
+  <conditionalFormatting sqref="AJ50">
     <cfRule type="cellIs" dxfId="121" priority="129" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF50:AH50">
+  <conditionalFormatting sqref="AK50:AM50">
     <cfRule type="cellIs" dxfId="120" priority="128" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X50:Z50">
+  <conditionalFormatting sqref="AC50:AE50">
     <cfRule type="cellIs" dxfId="119" priority="127" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI49">
+  <conditionalFormatting sqref="AN49">
     <cfRule type="cellIs" dxfId="118" priority="126" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI54">
+  <conditionalFormatting sqref="AN54">
     <cfRule type="cellIs" dxfId="117" priority="107" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX50:BA50">
+  <conditionalFormatting sqref="BC50:BF50">
     <cfRule type="cellIs" dxfId="116" priority="124" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI60">
+  <conditionalFormatting sqref="AN60">
     <cfRule type="cellIs" dxfId="115" priority="100" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U59:AO59 AS59:BA59">
+  <conditionalFormatting sqref="Z59:AT59 AX59:BF59">
     <cfRule type="cellIs" dxfId="114" priority="99" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP52:AW52">
+  <conditionalFormatting sqref="AU52:BB52">
     <cfRule type="cellIs" dxfId="113" priority="119" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX52:BA52 AJ52:AO52 V52:AH52">
+  <conditionalFormatting sqref="BC52:BF52 AO52:AT52 AA52:AM52">
     <cfRule type="cellIs" dxfId="112" priority="120" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U55:AO55 AS55:BA55">
+  <conditionalFormatting sqref="Z55:AT55 AX55:BF55">
     <cfRule type="cellIs" dxfId="111" priority="98" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ44:AQ45">
+  <conditionalFormatting sqref="AV44:AV45">
     <cfRule type="cellIs" dxfId="110" priority="79" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB42:AE42 Z41:AH41 C41:X41 AJ41:XFD41 C48:T48 C45:T45 T43:T44 C43:R44 T42:U42 C42:K42 R42">
+  <conditionalFormatting sqref="AG42:AJ42 AE41:AM41 C41:AC41 AO41:XFD41 C48:Y48 C45:Y45 Y43:Y44 C43:R44 Y42:Z42 C42:K42 R42">
     <cfRule type="cellIs" dxfId="109" priority="95" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI48">
+  <conditionalFormatting sqref="AN48">
     <cfRule type="cellIs" dxfId="108" priority="82" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U47:AO47 AS47:BA47">
+  <conditionalFormatting sqref="Z47:AT47 AX47:BF47">
     <cfRule type="cellIs" dxfId="107" priority="81" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB54:XFD60 B53:XFD53 B56:T60 T55 B55:R55 T54:AD54 AF54:AW54 B54:K54 R54">
+  <conditionalFormatting sqref="BG54:XFD60 B53:XFD53 B56:Y60 Y55 B55:R55 Y54:AI54 AK54:BB54 B54:K54 R54">
     <cfRule type="cellIs" dxfId="106" priority="114" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V54:W54 AJ54:AW54">
+  <conditionalFormatting sqref="AA54:AB54 AO54:BB54">
     <cfRule type="cellIs" dxfId="105" priority="112" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF54:AH54">
+  <conditionalFormatting sqref="AK54:AM54">
     <cfRule type="cellIs" dxfId="104" priority="110" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X54:Z54">
+  <conditionalFormatting sqref="AC54:AE54">
     <cfRule type="cellIs" dxfId="103" priority="109" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI53">
+  <conditionalFormatting sqref="AN53">
     <cfRule type="cellIs" dxfId="102" priority="108" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX54:BA54">
+  <conditionalFormatting sqref="BC54:BF54">
     <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP60:AW60">
+  <conditionalFormatting sqref="AU60:BB60">
     <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX56:BA57 AP58 AJ56:AO56 U56:AH56">
+  <conditionalFormatting sqref="BC56:BF57 AU58 AO56:AT56 Z56:AM56">
     <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP56:AP57 AR56:AW57">
+  <conditionalFormatting sqref="AU56:AU57 AW56:BB57">
     <cfRule type="cellIs" dxfId="98" priority="104" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI56">
+  <conditionalFormatting sqref="AN56">
     <cfRule type="cellIs" dxfId="97" priority="103" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX60:BA60 AJ60:AO60 V60:AH60">
+  <conditionalFormatting sqref="BC60:BF60 AO60:AT60 AA60:AM60">
     <cfRule type="cellIs" dxfId="96" priority="102" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB42:XFD48 B41:XFD41 B45:T48 T43:T44 B43:R44 T42:Z42 AB42:AW42 B42:K42 R42">
+  <conditionalFormatting sqref="BG42:XFD48 B41:XFD41 B45:Y48 Y43:Y44 B43:R44 Y42:AE42 AG42:BB42 B42:K42 R42">
     <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V42:W42 AJ42:AW42">
+  <conditionalFormatting sqref="AA42:AB42 AO42:BB42">
     <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE42">
+  <conditionalFormatting sqref="AJ42">
     <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF42:AH42">
+  <conditionalFormatting sqref="AK42:AM42">
     <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X42:Z42">
+  <conditionalFormatting sqref="AC42:AE42">
     <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI41">
+  <conditionalFormatting sqref="AN41">
     <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI42">
+  <conditionalFormatting sqref="AN42">
     <cfRule type="cellIs" dxfId="89" priority="89" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U43:AO43 AS43:BA43">
+  <conditionalFormatting sqref="Z43:AT43 AX43:BF43">
     <cfRule type="cellIs" dxfId="88" priority="80" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX42:BA42">
+  <conditionalFormatting sqref="BC42:BF42">
     <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP48:AW48">
+  <conditionalFormatting sqref="AU48:BB48">
     <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX44:BA45 AP46 AJ44:AO44 U44:AH44">
+  <conditionalFormatting sqref="BC44:BF45 AU46 AO44:AT44 Z44:AM44">
     <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP44:AP45 AR44:AW45">
+  <conditionalFormatting sqref="AU44:AU45 AW44:BB45">
     <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI44">
+  <conditionalFormatting sqref="AN44">
     <cfRule type="cellIs" dxfId="83" priority="85" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX48:BA48 AJ48:AO48 V48:AH48">
+  <conditionalFormatting sqref="BC48:BF48 AO48:AT48 AA48:AM48">
     <cfRule type="cellIs" dxfId="82" priority="84" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ27:BA28 AB25:AE25 Y24:Y25 Z24:AH24 C24:X24 AJ24:XFD24 BB25:XFD34 B24:B34 I34:T34 I28:AH28 I26:T26 C26:E31 I29:T31 F26:H30 C34:E34 F33:H34 C25:K25 T25:U25 I27:Z27 AB27:AH27 R25">
+  <conditionalFormatting sqref="AO27:BF28 AG25:AJ25 AD24:AD25 AE24:AM24 C24:AC24 AO24:XFD24 BG25:XFD34 B24:B34 I34:Y34 I28:AM28 I26:Y26 C26:E31 I29:Y31 F26:H30 C34:E34 F33:H34 C25:K25 Y25:Z25 I27:AE27 AG27:AM27 R25">
     <cfRule type="cellIs" dxfId="81" priority="78" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V25:W25 AJ25:BA25">
+  <conditionalFormatting sqref="AA25:AB25 AO25:BF25">
     <cfRule type="cellIs" dxfId="80" priority="77" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
+  <conditionalFormatting sqref="AJ25">
     <cfRule type="cellIs" dxfId="79" priority="76" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF25:AH25">
+  <conditionalFormatting sqref="AK25:AM25">
     <cfRule type="cellIs" dxfId="78" priority="75" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X25:Z25">
+  <conditionalFormatting sqref="AC25:AE25">
     <cfRule type="cellIs" dxfId="77" priority="74" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI27:AI28 AI24">
+  <conditionalFormatting sqref="AN27:AN28 AN24">
     <cfRule type="cellIs" dxfId="76" priority="73" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI25">
+  <conditionalFormatting sqref="AN25">
     <cfRule type="cellIs" dxfId="75" priority="72" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U33:AO33 AS33:BA33">
+  <conditionalFormatting sqref="Z33:AT33 AX33:BF33">
     <cfRule type="cellIs" dxfId="74" priority="64" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX30:BA31 AP32 AJ30:AO30 U30:AH30">
+  <conditionalFormatting sqref="BC30:BF31 AU32 AO30:AT30 Z30:AM30">
     <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U26:AO26 AS26:BA26">
+  <conditionalFormatting sqref="Z26:AT26 AX26:BF26">
     <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP34:AW34">
+  <conditionalFormatting sqref="AU34:BB34">
     <cfRule type="cellIs" dxfId="71" priority="66" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI34">
+  <conditionalFormatting sqref="AN34">
     <cfRule type="cellIs" dxfId="70" priority="65" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP30:AW31">
+  <conditionalFormatting sqref="AU30:BB31">
     <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI30">
+  <conditionalFormatting sqref="AN30">
     <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX34:BA34 AJ34:AO34 V34:AH34">
+  <conditionalFormatting sqref="BC34:BF34 AO34:AT34 AA34:AM34">
     <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U29:AO29 AS29:BA29">
+  <conditionalFormatting sqref="Z29:AT29 AX29:BF29">
     <cfRule type="cellIs" dxfId="66" priority="63" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S25">
+  <conditionalFormatting sqref="S25:X25">
     <cfRule type="cellIs" dxfId="65" priority="62" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S42:S43">
+  <conditionalFormatting sqref="S42:X43">
     <cfRule type="cellIs" dxfId="64" priority="60" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S51">
+  <conditionalFormatting sqref="S51:X51">
     <cfRule type="cellIs" dxfId="63" priority="58" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S50">
+  <conditionalFormatting sqref="S50:X50">
     <cfRule type="cellIs" dxfId="62" priority="57" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S55">
+  <conditionalFormatting sqref="S55:X55">
     <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S54">
+  <conditionalFormatting sqref="S54:X54">
     <cfRule type="cellIs" dxfId="60" priority="55" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX72:XFD73 AP74 AJ70:XFD70 AJ72:AO72 S70:AH70 C73:T73 BB71:XFD71 J71:T72 B70:K70 V72:AH72">
+  <conditionalFormatting sqref="BC72:XFD73 AU74 AO70:XFD70 AO72:AT72 S70:AM70 C73:Y73 BG71:XFD71 J71:Y72 B70:K70 AA72:AM72">
     <cfRule type="cellIs" dxfId="59" priority="54" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP72:AW73">
+  <conditionalFormatting sqref="AU72:BB73">
     <cfRule type="cellIs" dxfId="58" priority="53" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI76">
+  <conditionalFormatting sqref="AN76">
     <cfRule type="cellIs" dxfId="57" priority="49" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI70 AI72">
+  <conditionalFormatting sqref="AN70 AN72">
     <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX76:XFD76 BB75:XFD75 AJ76:AO76 B75:T76 V76:AH76">
+  <conditionalFormatting sqref="BC76:XFD76 BG75:XFD75 AO76:AT76 B75:Y76 AA76:AM76">
     <cfRule type="cellIs" dxfId="55" priority="51" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP76:AW76">
+  <conditionalFormatting sqref="AU76:BB76">
     <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U75:AO75 AS75:BA75">
+  <conditionalFormatting sqref="Z75:AT75 AX75:BF75">
     <cfRule type="cellIs" dxfId="53" priority="48" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U71:AO71 AS71:BA71">
+  <conditionalFormatting sqref="Z71:AT71 AX71:BF71">
     <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X15">
+  <conditionalFormatting sqref="AC15">
     <cfRule type="cellIs" dxfId="51" priority="45" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X19">
+  <conditionalFormatting sqref="AC19">
     <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA50">
+  <conditionalFormatting sqref="AF50">
     <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA42">
+  <conditionalFormatting sqref="AF42">
     <cfRule type="cellIs" dxfId="48" priority="42" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA36">
+  <conditionalFormatting sqref="AF36">
     <cfRule type="cellIs" dxfId="47" priority="41" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA25">
+  <conditionalFormatting sqref="AF25">
     <cfRule type="cellIs" dxfId="46" priority="40" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA27">
+  <conditionalFormatting sqref="AF27">
     <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE54">
+  <conditionalFormatting sqref="AJ54">
     <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE54">
+  <conditionalFormatting sqref="AJ54">
     <cfRule type="cellIs" dxfId="43" priority="37" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U23">
+  <conditionalFormatting sqref="Z23">
     <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U34">
+  <conditionalFormatting sqref="Z34">
     <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U40">
+  <conditionalFormatting sqref="Z40">
     <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U48">
+  <conditionalFormatting sqref="Z48">
     <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U52">
+  <conditionalFormatting sqref="Z52">
     <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U60">
+  <conditionalFormatting sqref="Z60">
     <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U76">
+  <conditionalFormatting sqref="Z76">
     <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7">
+  <conditionalFormatting sqref="S7:X7">
     <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA38:AE38 Y38 U38">
+  <conditionalFormatting sqref="AF38:AJ38 AD38 Z38">
     <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V38:W38 AJ38:AO38 AW38:BA38">
+  <conditionalFormatting sqref="AA38:AB38 AO38:AT38 BB38:BF38">
     <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE38">
+  <conditionalFormatting sqref="AJ38">
     <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF38:AH38">
+  <conditionalFormatting sqref="AK38:AM38">
     <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X38:Z38">
+  <conditionalFormatting sqref="AC38:AE38">
     <cfRule type="cellIs" dxfId="30" priority="23" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI38">
+  <conditionalFormatting sqref="AN38">
     <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U37:AO37 AS37:BA37">
+  <conditionalFormatting sqref="Z37:AT37 AX37:BF37">
     <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP38:AV38">
+  <conditionalFormatting sqref="AU38:BA38">
     <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP38:AV38">
+  <conditionalFormatting sqref="AU38:BA38">
     <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -9252,52 +9422,52 @@
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX64:XFD65 AP66 AJ62:XFD62 AJ64:AO64 C65:T65 BB63:XFD63 B62:K62 J64:AH64 J63:T63 S62:AH62">
+  <conditionalFormatting sqref="BC64:XFD65 AU66 AO62:XFD62 AO64:AT64 C65:Y65 BG63:XFD63 B62:K62 J64:AM64 J63:Y63 S62:AM62">
     <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP64:AW65">
+  <conditionalFormatting sqref="AU64:BB65">
     <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI68">
+  <conditionalFormatting sqref="AN68">
     <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI62 AI64">
+  <conditionalFormatting sqref="AN62 AN64">
     <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX68:XFD68 BB67:XFD67 AJ68:AO68 B67:T68 V68:AH68">
+  <conditionalFormatting sqref="BC68:XFD68 BG67:XFD67 AO68:AT68 B67:Y68 AA68:AM68">
     <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP68:AW68">
+  <conditionalFormatting sqref="AU68:BB68">
     <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U67:AO67 AS67:BA67">
+  <conditionalFormatting sqref="Z67:AT67 AX67:BF67">
     <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U63:AO63 AS63:BA63">
+  <conditionalFormatting sqref="Z63:AT63 AX63:BF63">
     <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U68">
+  <conditionalFormatting sqref="Z68">
     <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U72">
+  <conditionalFormatting sqref="Z72">
     <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"nil"</formula>
     </cfRule>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1661" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1DA7D12E-0385-4804-A9DD-D616FE6A2368}"/>
+  <xr:revisionPtr revIDLastSave="1664" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99608332-D90C-4D24-845F-E9A2028A70F5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     20mm of wallthickness loss not detectable</t>
       </text>
     </comment>
-    <comment ref="H7" authorId="2" shapeId="0" xr:uid="{3FC98A93-1BD2-46CA-8439-5A569DD9E38A}">
+    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{3FC98A93-1BD2-46CA-8439-5A569DD9E38A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="331">
   <si>
     <t>Cause</t>
   </si>
@@ -449,6 +449,12 @@
     <t>ssf_calc</t>
   </si>
   <si>
+    <t>actual_safety_factor</t>
+  </si>
+  <si>
+    <t>dsf_calc</t>
+  </si>
+  <si>
     <t>termite_powder</t>
   </si>
   <si>
@@ -473,12 +479,6 @@
     <t>reduction_factor</t>
   </si>
   <si>
-    <t>actual_safety_factor</t>
-  </si>
-  <si>
-    <t>dsf_calc</t>
-  </si>
-  <si>
     <t>lightning_damage</t>
   </si>
   <si>
@@ -488,6 +488,9 @@
     <t>fire_damage</t>
   </si>
   <si>
+    <t>impact_damage</t>
+  </si>
+  <si>
     <t>CAT3/4 replacement</t>
   </si>
   <si>
@@ -497,9 +500,6 @@
     <t>as_good_as_new</t>
   </si>
   <si>
-    <t>impact_damage</t>
-  </si>
-  <si>
     <t>lean_angle</t>
   </si>
   <si>
@@ -516,9 +516,6 @@
   </si>
   <si>
     <t>lightning</t>
-  </si>
-  <si>
-    <t>lightning_strike</t>
   </si>
   <si>
     <t>assisted_failures</t>
@@ -1279,7 +1276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1397,6 +1394,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1425,7 +1428,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1611,6 +1614,7 @@
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -3063,7 +3067,7 @@
   <threadedComment ref="AU5" dT="2020-09-09T03:27:17.71" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}">
     <text>20mm of wallthickness loss not detectable</text>
   </threadedComment>
-  <threadedComment ref="H7" dT="2020-09-09T03:31:13.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{3FC98A93-1BD2-46CA-8439-5A569DD9E38A}">
+  <threadedComment ref="H6" dT="2020-09-09T03:31:13.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{3FC98A93-1BD2-46CA-8439-5A569DD9E38A}">
     <text>250 mm</text>
   </threadedComment>
   <threadedComment ref="AU8" dT="2020-09-09T03:33:43.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
@@ -3154,134 +3158,134 @@
   <sheetData>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" t="s">
         <v>263</v>
-      </c>
-      <c r="F3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" t="s">
         <v>265</v>
-      </c>
-      <c r="F5" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="N6" t="s">
         <v>267</v>
-      </c>
-      <c r="N6" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="O12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="F13" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="O13" t="s">
         <v>273</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
+        <v>171</v>
+      </c>
+      <c r="S13" t="s">
         <v>274</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>172</v>
-      </c>
-      <c r="S13" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="F14" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="O14" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q14" t="s">
         <v>276</v>
       </c>
-      <c r="O14" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>277</v>
-      </c>
-      <c r="S14" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="F15" t="s">
+        <v>278</v>
+      </c>
+      <c r="J15" t="s">
         <v>279</v>
       </c>
-      <c r="J15" t="s">
+      <c r="O15" t="s">
         <v>280</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>281</v>
       </c>
-      <c r="Q15" t="s">
-        <v>282</v>
-      </c>
       <c r="S15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="F16" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>104</v>
+      </c>
+      <c r="S16" t="s">
         <v>283</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>103</v>
-      </c>
-      <c r="S16" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="F17" t="s">
+        <v>284</v>
+      </c>
+      <c r="O17" t="s">
         <v>285</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>286</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="O18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="F20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="D31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -3290,44 +3294,44 @@
         <v>80</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K33" t="s">
         <v>51</v>
       </c>
       <c r="R33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -3335,13 +3339,13 @@
     </row>
     <row r="34" spans="2:19">
       <c r="C34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s">
         <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S34">
         <v>0.5</v>
@@ -3349,19 +3353,19 @@
     </row>
     <row r="35" spans="2:19">
       <c r="C35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -3369,13 +3373,13 @@
     </row>
     <row r="36" spans="2:19">
       <c r="D36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -3391,10 +3395,10 @@
     </row>
     <row r="38" spans="2:19">
       <c r="C38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
@@ -3402,13 +3406,13 @@
     </row>
     <row r="39" spans="2:19">
       <c r="C39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:19">
@@ -3428,29 +3432,29 @@
     </row>
     <row r="52" spans="1:12">
       <c r="H52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="E54" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -3484,76 +3488,76 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="F59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="B60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="E61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="E62" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B70">
         <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B71">
         <v>12.5</v>
       </c>
       <c r="C71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3585,48 +3589,48 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" t="s">
+        <v>315</v>
+      </c>
+      <c r="I4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I4" t="s">
-        <v>314</v>
-      </c>
-      <c r="J4" t="s">
-        <v>315</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" t="s">
         <v>317</v>
       </c>
-      <c r="R4" t="s">
-        <v>318</v>
-      </c>
       <c r="S4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -3636,18 +3640,18 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="R5" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="R5" s="41" t="s">
+      <c r="S5" t="s">
         <v>321</v>
-      </c>
-      <c r="S5" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="H6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I6">
         <f>I5/4</f>
@@ -3659,51 +3663,51 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="H8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
@@ -3711,7 +3715,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="H10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
@@ -3719,12 +3723,12 @@
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="B12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I12" s="9">
         <v>3.7</v>
@@ -3736,20 +3740,20 @@
     </row>
     <row r="16" spans="1:19">
       <c r="J16" t="s">
+        <v>328</v>
+      </c>
+      <c r="M16" t="s">
         <v>329</v>
-      </c>
-      <c r="M16" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="19" spans="10:10">
       <c r="J19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="1048576" spans="15:15">
       <c r="O1048576" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4028,8 +4032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:BG84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4523,10 +4527,18 @@
     </row>
     <row r="6" spans="1:59" s="15" customFormat="1">
       <c r="E6" s="56"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6" s="42"/>
-      <c r="I6"/>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6" s="56"/>
       <c r="R6" s="59"/>
       <c r="S6" s="15" t="s">
@@ -4586,16 +4598,16 @@
       <c r="D7" s="15"/>
       <c r="E7" s="56"/>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>79</v>
+        <v>87</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="56"/>
       <c r="K7" s="15"/>
@@ -4650,13 +4662,13 @@
     <row r="8" spans="1:59" s="15" customFormat="1">
       <c r="E8" s="56"/>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
+        <v>89</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>79</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4665,7 +4677,7 @@
       <c r="R8" s="56"/>
       <c r="Y8" s="56"/>
       <c r="Z8" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AA8" s="42">
         <v>0.9</v>
@@ -4677,16 +4689,16 @@
         <v>2</v>
       </c>
       <c r="AD8" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE8" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF8" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AI8" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AN8" s="50"/>
       <c r="AO8" s="16" t="b">
@@ -4708,7 +4720,7 @@
         <v>50</v>
       </c>
       <c r="AW8" s="98" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AX8" s="53"/>
       <c r="AY8" s="16" t="b">
@@ -4722,13 +4734,13 @@
       </c>
       <c r="BB8" s="50"/>
       <c r="BC8" s="95" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BD8" s="97">
         <v>0</v>
       </c>
       <c r="BE8" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="18" t="s">
         <v>2</v>
@@ -4737,17 +4749,17 @@
     </row>
     <row r="9" spans="1:59" s="15" customFormat="1">
       <c r="E9" s="56"/>
-      <c r="F9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
+      <c r="F9" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="J9" s="56"/>
       <c r="R9" s="56"/>
@@ -4766,7 +4778,7 @@
         <v>50</v>
       </c>
       <c r="AW9" s="98" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AX9" s="53"/>
       <c r="AY9" s="16"/>
@@ -4784,7 +4796,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="56"/>
       <c r="F10" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>99</v>
@@ -4848,7 +4860,7 @@
     <row r="11" spans="1:59" s="15" customFormat="1">
       <c r="E11" s="56"/>
       <c r="F11" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>99</v>
@@ -4863,7 +4875,7 @@
       <c r="R11" s="56"/>
       <c r="Y11" s="56"/>
       <c r="Z11" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA11" s="15">
         <v>1</v>
@@ -4875,13 +4887,13 @@
         <v>2</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE11" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF11" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI11" s="15" t="s">
         <v>6</v>
@@ -4920,13 +4932,13 @@
       </c>
       <c r="BB11" s="50"/>
       <c r="BC11" s="80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BD11" s="19">
         <v>1</v>
       </c>
       <c r="BE11" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF11" s="15" t="s">
         <v>2</v>
@@ -4936,7 +4948,7 @@
     <row r="12" spans="1:59" s="15" customFormat="1">
       <c r="E12" s="56"/>
       <c r="F12" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>99</v>
@@ -4973,18 +4985,6 @@
     <row r="13" spans="1:59">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="F13" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="15" t="b">
-        <v>0</v>
-      </c>
       <c r="AU13" s="86"/>
       <c r="AV13" s="84"/>
       <c r="AW13" s="84"/>
@@ -5067,13 +5067,13 @@
         <v>2</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE15" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF15" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI15" s="15" t="s">
         <v>6</v>
@@ -5102,13 +5102,13 @@
       </c>
       <c r="BB15" s="50"/>
       <c r="BC15" s="80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BD15" s="19">
         <v>1</v>
       </c>
       <c r="BE15" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF15" s="15" t="s">
         <v>2</v>
@@ -5278,7 +5278,7 @@
       <c r="R19" s="56"/>
       <c r="Y19" s="56"/>
       <c r="Z19" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA19" s="15">
         <v>1</v>
@@ -5290,13 +5290,13 @@
         <v>2</v>
       </c>
       <c r="AD19" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE19" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF19" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI19" s="15" t="s">
         <v>6</v>
@@ -5335,13 +5335,13 @@
       </c>
       <c r="BB19" s="50"/>
       <c r="BC19" s="80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BD19" s="19">
         <v>1</v>
       </c>
       <c r="BE19" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF19" s="15" t="s">
         <v>2</v>
@@ -5534,13 +5534,13 @@
         <v>2</v>
       </c>
       <c r="AD23" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE23" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF23" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI23" s="15" t="s">
         <v>6</v>
@@ -5569,13 +5569,13 @@
       </c>
       <c r="BB23" s="50"/>
       <c r="BC23" s="80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BD23" s="19">
         <v>1</v>
       </c>
       <c r="BE23" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF23" s="15" t="s">
         <v>2</v>
@@ -5760,10 +5760,10 @@
         <v>2</v>
       </c>
       <c r="AD27" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE27" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF27" s="15" t="s">
         <v>82</v>
@@ -5788,7 +5788,7 @@
         <v>50</v>
       </c>
       <c r="AW27" s="75" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AX27" s="53"/>
       <c r="AY27" s="16" t="b">
@@ -5827,7 +5827,7 @@
         <v>50</v>
       </c>
       <c r="AW28" s="75" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AX28" s="53"/>
       <c r="AY28" s="16"/>
@@ -5886,7 +5886,7 @@
       <c r="R30" s="56"/>
       <c r="Y30" s="56"/>
       <c r="Z30" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA30" s="15">
         <v>1</v>
@@ -5898,13 +5898,13 @@
         <v>2</v>
       </c>
       <c r="AD30" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE30" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF30" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI30" s="15" t="s">
         <v>6</v>
@@ -5943,13 +5943,13 @@
       </c>
       <c r="BB30" s="50"/>
       <c r="BC30" s="80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BD30" s="19">
         <v>1</v>
       </c>
       <c r="BE30" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF30" s="15" t="s">
         <v>2</v>
@@ -6142,13 +6142,13 @@
         <v>2</v>
       </c>
       <c r="AD34" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE34" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF34" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI34" s="15" t="s">
         <v>6</v>
@@ -6177,13 +6177,13 @@
       </c>
       <c r="BB34" s="50"/>
       <c r="BC34" s="80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BD34" s="19">
         <v>1</v>
       </c>
       <c r="BE34" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF34" s="15" t="s">
         <v>2</v>
@@ -6242,8 +6242,8 @@
         <v>1</v>
       </c>
       <c r="R36" s="56"/>
-      <c r="S36" s="41" t="s">
-        <v>111</v>
+      <c r="S36" s="99" t="s">
+        <v>98</v>
       </c>
       <c r="T36" s="41"/>
       <c r="U36" s="41"/>
@@ -6273,7 +6273,7 @@
         <v>82</v>
       </c>
       <c r="AJ36" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AN36" s="50"/>
       <c r="AO36" s="18" t="b">
@@ -6285,7 +6285,7 @@
       <c r="AS36" s="18"/>
       <c r="AT36" s="50"/>
       <c r="AU36" s="88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AV36" s="19" t="b">
         <v>1</v>
@@ -6393,7 +6393,7 @@
       <c r="AS38" s="18"/>
       <c r="AT38" s="50"/>
       <c r="AU38" s="88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AV38" s="19" t="b">
         <v>1</v>
@@ -6489,13 +6489,13 @@
         <v>2</v>
       </c>
       <c r="AD40" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE40" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF40" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI40" s="15" t="s">
         <v>6</v>
@@ -6524,13 +6524,13 @@
       </c>
       <c r="BB40" s="50"/>
       <c r="BC40" s="80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BD40" s="19">
         <v>1</v>
       </c>
       <c r="BE40" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF40" s="15" t="s">
         <v>2</v>
@@ -6615,7 +6615,7 @@
         <v>82</v>
       </c>
       <c r="AJ42" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AN42" s="50"/>
       <c r="AO42" s="18" t="b">
@@ -6699,7 +6699,7 @@
       <c r="R44" s="56"/>
       <c r="Y44" s="56"/>
       <c r="Z44" s="45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA44" s="15">
         <v>1</v>
@@ -6711,13 +6711,13 @@
         <v>2</v>
       </c>
       <c r="AD44" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE44" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF44" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI44" s="15" t="s">
         <v>6</v>
@@ -6756,13 +6756,13 @@
       </c>
       <c r="BB44" s="50"/>
       <c r="BC44" s="80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BD44" s="19">
         <v>1</v>
       </c>
       <c r="BE44" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF44" s="15" t="s">
         <v>2</v>
@@ -6955,13 +6955,13 @@
         <v>2</v>
       </c>
       <c r="AD48" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE48" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF48" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI48" s="15" t="s">
         <v>6</v>
@@ -6990,13 +6990,13 @@
       </c>
       <c r="BB48" s="50"/>
       <c r="BC48" s="80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BD48" s="19">
         <v>1</v>
       </c>
       <c r="BE48" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF48" s="15" t="s">
         <v>2</v>
@@ -7034,7 +7034,7 @@
       <c r="E50" s="56"/>
       <c r="J50" s="56"/>
       <c r="K50" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L50" s="41">
         <v>50</v>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="R50" s="56"/>
       <c r="S50" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Y50" s="56"/>
       <c r="Z50" s="15" t="s">
@@ -7081,7 +7081,7 @@
         <v>82</v>
       </c>
       <c r="AJ50" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AN50" s="50"/>
       <c r="AO50" s="18" t="b">
@@ -7193,13 +7193,13 @@
         <v>2</v>
       </c>
       <c r="AD52" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE52" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF52" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI52" s="15" t="s">
         <v>6</v>
@@ -7228,13 +7228,13 @@
       </c>
       <c r="BB52" s="50"/>
       <c r="BC52" s="80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BD52" s="19">
         <v>1</v>
       </c>
       <c r="BE52" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF52" s="15" t="s">
         <v>2</v>
@@ -7272,7 +7272,7 @@
       <c r="E54" s="56"/>
       <c r="J54" s="56"/>
       <c r="K54" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L54" s="41">
         <v>50</v>
@@ -7401,7 +7401,7 @@
       <c r="R56" s="56"/>
       <c r="Y56" s="56"/>
       <c r="Z56" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA56" s="15">
         <v>1</v>
@@ -7413,13 +7413,13 @@
         <v>2</v>
       </c>
       <c r="AD56" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE56" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF56" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI56" s="15" t="s">
         <v>6</v>
@@ -7458,13 +7458,13 @@
       </c>
       <c r="BB56" s="50"/>
       <c r="BC56" s="80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BD56" s="19">
         <v>1</v>
       </c>
       <c r="BE56" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF56" s="15" t="s">
         <v>2</v>
@@ -7657,13 +7657,13 @@
         <v>2</v>
       </c>
       <c r="AD60" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE60" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF60" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI60" s="15" t="s">
         <v>6</v>
@@ -7692,13 +7692,13 @@
       </c>
       <c r="BB60" s="50"/>
       <c r="BC60" s="80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BD60" s="19">
         <v>1</v>
       </c>
       <c r="BE60" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF60" s="15" t="s">
         <v>2</v>
@@ -7727,11 +7727,11 @@
     <row r="62" spans="1:59" s="15" customFormat="1">
       <c r="C62" s="41"/>
       <c r="D62" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E62" s="56"/>
       <c r="F62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G62" t="s">
         <v>99</v>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="J62" s="56"/>
       <c r="K62" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L62" s="41">
         <v>50</v>
@@ -7899,7 +7899,7 @@
       <c r="R64" s="56"/>
       <c r="Y64" s="56"/>
       <c r="Z64" s="45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA64" s="15">
         <v>1</v>
@@ -7911,13 +7911,13 @@
         <v>2</v>
       </c>
       <c r="AD64" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE64" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF64" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI64" s="15" t="s">
         <v>6</v>
@@ -7956,13 +7956,13 @@
       </c>
       <c r="BB64" s="50"/>
       <c r="BC64" s="80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BD64" s="19">
         <v>1</v>
       </c>
       <c r="BE64" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF64" s="15" t="s">
         <v>2</v>
@@ -8087,13 +8087,13 @@
         <v>69</v>
       </c>
       <c r="AD68" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE68" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF68" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI68" s="15" t="s">
         <v>6</v>
@@ -8122,13 +8122,13 @@
       </c>
       <c r="BB68" s="50"/>
       <c r="BC68" s="80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BD68" s="19">
         <v>1</v>
       </c>
       <c r="BE68" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF68" s="15" t="s">
         <v>2</v>
@@ -8157,11 +8157,11 @@
     <row r="70" spans="1:59" s="15" customFormat="1">
       <c r="C70" s="41"/>
       <c r="D70" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E70" s="56"/>
       <c r="F70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G70" t="s">
         <v>99</v>
@@ -8174,7 +8174,7 @@
       </c>
       <c r="J70" s="56"/>
       <c r="K70" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L70" s="41">
         <v>50</v>
@@ -8331,7 +8331,7 @@
       <c r="R72" s="56"/>
       <c r="Y72" s="56"/>
       <c r="Z72" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA72" s="15">
         <v>1</v>
@@ -8343,13 +8343,13 @@
         <v>2</v>
       </c>
       <c r="AD72" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE72" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF72" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI72" s="15" t="s">
         <v>6</v>
@@ -8388,13 +8388,13 @@
       </c>
       <c r="BB72" s="50"/>
       <c r="BC72" s="80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BD72" s="19">
         <v>1</v>
       </c>
       <c r="BE72" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF72" s="15" t="s">
         <v>2</v>
@@ -8507,7 +8507,7 @@
       <c r="R76" s="56"/>
       <c r="Y76" s="56"/>
       <c r="Z76" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA76" s="15">
         <v>1</v>
@@ -8519,13 +8519,13 @@
         <v>69</v>
       </c>
       <c r="AD76" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE76" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF76" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI76" s="15" t="s">
         <v>6</v>
@@ -8554,13 +8554,13 @@
       </c>
       <c r="BB76" s="50"/>
       <c r="BC76" s="80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BD76" s="19">
         <v>1</v>
       </c>
       <c r="BE76" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF76" s="15" t="s">
         <v>2</v>
@@ -8588,17 +8588,17 @@
     </row>
     <row r="78" spans="1:59" s="15" customFormat="1">
       <c r="D78" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E78" s="56"/>
       <c r="F78" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J78" s="56"/>
       <c r="R78" s="56"/>
       <c r="Y78" s="56"/>
       <c r="Z78" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA78" s="15">
         <v>0.9</v>
@@ -8610,16 +8610,16 @@
         <v>2</v>
       </c>
       <c r="AD78" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE78" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI78" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AJ78" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK78" s="15" t="s">
         <v>85</v>
@@ -8652,7 +8652,7 @@
         <v>50</v>
       </c>
       <c r="AW78" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AX78" s="53"/>
       <c r="AY78" s="16"/>
@@ -8666,14 +8666,14 @@
         <v>50</v>
       </c>
       <c r="BE78" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG78" s="47"/>
     </row>
     <row r="79" spans="1:59" s="15" customFormat="1">
       <c r="E79" s="56"/>
       <c r="F79" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J79" s="56"/>
       <c r="R79" s="56"/>
@@ -8692,7 +8692,7 @@
         <v>170</v>
       </c>
       <c r="AW79" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AX79" s="53"/>
       <c r="AY79" s="16"/>
@@ -8706,7 +8706,7 @@
         <v>50</v>
       </c>
       <c r="BE79" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG79" s="47"/>
     </row>
@@ -8722,7 +8722,7 @@
       <c r="J84" s="59"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BC11:XFD12 AU13 AO5:XFD6 AO11:AT11 B7:B13 AF17:AJ17 C12:Y12 AD16:AD17 AE16:AM16 AA16:AC16 AO16:XFD16 C10:Y10 BG10:XFD10 C8:AM9 AO8:XFD9 BG7:XFD7 AC80:XFD81 BG78:XFD79 B80:AA81 B78:Y79 B77:XFD77 I23:Y23 I35:XFD35 C23:E23 F22:H23 B35:H39 B71:B74 C71:I72 C11:AM11 AG36:BB36 C7:R7 Y7 BG17:XFD23 B16:B23 C18:E20 I18:Y20 F17:H19 BG36:XFD40 B40:Y40 I36:K36 I37:Y39 BG50:XFD52 B52:Y52 F13:I13 C16:Z17 R36:AE36 B5:Q6 S5:AM6">
+  <conditionalFormatting sqref="BC11:XFD12 AU13 AO5:XFD6 AO11:AT11 B7:B13 AF17:AJ17 AD16:AD17 AE16:AM16 AA16:AC16 AO16:XFD16 BG10:XFD10 AO8:XFD9 BG7:XFD7 AC80:XFD81 BG78:XFD79 B80:AA81 B78:Y79 B77:XFD77 I23:Y23 I35:XFD35 C23:E23 F22:H23 B35:H39 B71:B74 C71:I72 AG36:BB36 Y7 BG17:XFD23 B16:B23 C18:E20 I18:Y20 F17:H19 BG36:XFD40 B40:Y40 I36:K36 I37:Y39 BG50:XFD52 B52:Y52 C16:Z17 B5:Q6 S5:AM6 R36:AE36 J12:Y12 J10:Y10 J8:AM9 J11:AM11 C7:E12 J7:R7 F6:I12">
     <cfRule type="cellIs" dxfId="164" priority="181" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -9531,39 +9531,39 @@
     <row r="2" spans="1:20">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="T2" s="27" t="s">
         <v>131</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
         <v>133</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>134</v>
-      </c>
-      <c r="D3" t="s">
-        <v>135</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:20">
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -9571,7 +9571,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="B5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="30" t="s">
@@ -9582,7 +9582,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="B6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
@@ -9593,72 +9593,72 @@
     </row>
     <row r="7" spans="1:20">
       <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="T7" t="s">
         <v>139</v>
-      </c>
-      <c r="T7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="T8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="T9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="T10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="T11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20">
       <c r="T13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20">
       <c r="T15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="T16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="17:20">
       <c r="T17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="17:20">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -9667,85 +9667,85 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T19" s="31"/>
     </row>
     <row r="20" spans="17:20">
       <c r="T20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="17:20">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="17:20">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="17:20">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="17:20">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="17:20">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="17:20">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="17:20">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="17:20">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="17:20">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="17:20">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="17:20">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="17:20">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -9754,34 +9754,34 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T33" s="31"/>
     </row>
     <row r="34" spans="17:20">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="17:20">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T35" s="31"/>
     </row>
     <row r="36" spans="17:20">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="17:20">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -9790,28 +9790,28 @@
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T38" s="31"/>
     </row>
     <row r="39" spans="17:20">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="17:20">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T40" s="31"/>
     </row>
     <row r="41" spans="17:20">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -9852,7 +9852,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -9878,12 +9878,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -9923,7 +9923,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
         <v>99</v>
@@ -9935,12 +9935,12 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -9955,12 +9955,12 @@
         <v>99</v>
       </c>
       <c r="H6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" t="s">
         <v>99</v>
@@ -9971,7 +9971,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
         <v>78</v>
@@ -10008,7 +10008,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
         <v>78</v>
@@ -10019,7 +10019,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -10027,7 +10027,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -10048,13 +10048,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -10062,22 +10062,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -10092,12 +10092,12 @@
         <v>99</v>
       </c>
       <c r="H19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -10112,7 +10112,7 @@
         <v>99</v>
       </c>
       <c r="H20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -10138,10 +10138,10 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -10155,7 +10155,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -10183,7 +10183,7 @@
         <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -10192,45 +10192,45 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
         <v>99</v>
@@ -10238,7 +10238,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -10301,7 +10301,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
@@ -10313,7 +10313,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="52"/>
       <c r="AA1" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
@@ -10326,7 +10326,7 @@
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1">
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -10367,7 +10367,7 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="49"/>
       <c r="AE2" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
@@ -10382,7 +10382,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>57</v>
@@ -10437,7 +10437,7 @@
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>26</v>
@@ -10457,7 +10457,7 @@
       </c>
       <c r="AD3" s="49"/>
       <c r="AE3" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>75</v>
@@ -10475,7 +10475,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>80</v>
@@ -10502,7 +10502,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>83</v>
@@ -10520,10 +10520,10 @@
         <v>1</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
@@ -10565,7 +10565,7 @@
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1">
       <c r="C6" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E6" s="15">
         <v>0.9</v>
@@ -10577,13 +10577,13 @@
         <v>69</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q6" s="16" t="b">
         <v>1</v>
@@ -10604,7 +10604,7 @@
         <v>50</v>
       </c>
       <c r="Y6" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z6" s="53"/>
       <c r="AA6" s="16" t="b">
@@ -10637,7 +10637,7 @@
         <v>50</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z7" s="53"/>
       <c r="AA7" s="16" t="b">
@@ -10671,7 +10671,7 @@
     </row>
     <row r="9" spans="1:35" s="15" customFormat="1">
       <c r="C9" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E9" s="15">
         <v>1</v>
@@ -10683,10 +10683,10 @@
         <v>69</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>6</v>
@@ -10724,13 +10724,13 @@
       </c>
       <c r="AD9" s="50"/>
       <c r="AE9" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF9" s="15">
         <v>1</v>
       </c>
       <c r="AG9" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AH9" s="15" t="s">
         <v>2</v>
@@ -10818,7 +10818,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>80</v>
@@ -10830,7 +10830,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>80</v>
@@ -10857,45 +10857,45 @@
         <v>1</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="50"/>
       <c r="W15" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z15" s="50"/>
       <c r="AA15" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD15" s="50"/>
       <c r="AE15" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI15" s="47"/>
     </row>
@@ -10913,7 +10913,7 @@
         <v>54</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="16" t="b">
         <v>1</v>
@@ -10934,7 +10934,7 @@
         <v>50</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z16" s="53"/>
       <c r="AA16" s="16" t="b">
@@ -10948,16 +10948,16 @@
       </c>
       <c r="AD16" s="50"/>
       <c r="AE16" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI16" s="47"/>
     </row>
@@ -10975,7 +10975,7 @@
         <v>50</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z17" s="53"/>
       <c r="AA17" s="16" t="b">
@@ -10992,7 +10992,7 @@
     </row>
     <row r="18" spans="1:35" s="15" customFormat="1">
       <c r="C18" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -11004,7 +11004,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="16" t="b">
         <v>1</v>
@@ -11104,7 +11104,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -11116,36 +11116,36 @@
         <v>2</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S21" s="15" t="b">
         <v>1</v>
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z21" s="47"/>
       <c r="AA21" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB21" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD21" s="47"/>
       <c r="AE21"/>
@@ -11172,7 +11172,7 @@
     </row>
     <row r="23" spans="1:35" s="15" customFormat="1">
       <c r="C23" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" s="15">
         <v>0.9</v>
@@ -11184,13 +11184,13 @@
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>85</v>
@@ -11222,17 +11222,17 @@
         <v>50</v>
       </c>
       <c r="Y23" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD23" s="50"/>
       <c r="AE23" s="16" t="s">
@@ -11242,7 +11242,7 @@
         <v>50</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI23" s="47"/>
     </row>
@@ -11260,17 +11260,17 @@
         <v>170</v>
       </c>
       <c r="Y24" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z24" s="53"/>
       <c r="AA24" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD24" s="50"/>
       <c r="AE24" s="16" t="s">
@@ -11280,7 +11280,7 @@
         <v>50</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI24" s="47"/>
     </row>
@@ -11425,19 +11425,19 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>58</v>
@@ -11451,19 +11451,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -11471,18 +11471,18 @@
     </row>
     <row r="4" spans="1:8">
       <c r="C4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="C5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -11494,7 +11494,7 @@
         <v>100000</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -11536,7 +11536,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F9">
         <v>3500</v>
@@ -11544,19 +11544,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>58</v>
@@ -11564,36 +11564,36 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s">
         <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F13">
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F14">
         <v>36</v>
@@ -11615,13 +11615,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="C16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F16">
         <v>7000</v>
@@ -11669,226 +11669,226 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>212</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>213</v>
       </c>
       <c r="C4" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>212</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>213</v>
       </c>
       <c r="C5" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>212</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>213</v>
       </c>
       <c r="C6" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>212</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>213</v>
       </c>
       <c r="C7" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>212</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>213</v>
       </c>
       <c r="C8" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>212</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>213</v>
       </c>
       <c r="C9" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>212</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>213</v>
       </c>
       <c r="C10" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>212</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>213</v>
       </c>
       <c r="C11" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>212</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>213</v>
       </c>
       <c r="C12" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>212</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>213</v>
       </c>
       <c r="C13" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>212</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>213</v>
       </c>
       <c r="C14" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>212</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>213</v>
       </c>
       <c r="C15" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>227</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>228</v>
       </c>
       <c r="C17" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>227</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>228</v>
       </c>
       <c r="C18" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C19" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -11909,72 +11909,72 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>230</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>231</v>
       </c>
       <c r="C22" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>230</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>231</v>
       </c>
       <c r="C23" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>230</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>231</v>
       </c>
       <c r="C24" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C25" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C26" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -11987,86 +11987,86 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>237</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>238</v>
       </c>
       <c r="C28" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C29" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C30" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C31" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>242</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>243</v>
       </c>
       <c r="C33" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -12079,72 +12079,72 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C35" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="B36" s="32" t="s">
         <v>244</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>245</v>
       </c>
       <c r="C36" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>244</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>245</v>
       </c>
       <c r="C37" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C38" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -12165,16 +12165,16 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C42" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -12187,226 +12187,226 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C44" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C45" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C46" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C47" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C48" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C49" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C50" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C51" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C52" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C53" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C54" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C55" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C56" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C57" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C58" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C59" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -12419,86 +12419,86 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C61" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C62" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C63" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C64" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C65" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C66" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -12519,44 +12519,44 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C69" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C70" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C71" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1664" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99608332-D90C-4D24-845F-E9A2028A70F5}"/>
+  <xr:revisionPtr revIDLastSave="1666" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{4FBC6358-5C37-46DF-B393-2D18399D156B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <sheet name="brainstorming" sheetId="4" r:id="rId11"/>
     <sheet name="Sheet3" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1183,9 +1183,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1443,7 +1443,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3119,7 +3119,7 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3133,7 +3133,7 @@
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3147,7 +3147,7 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
@@ -3156,7 +3156,7 @@
     <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>262</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -3180,17 +3180,17 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O12" s="1" t="s">
         <v>193</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
         <v>272</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F14" s="12" t="s">
         <v>275</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>278</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>282</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>284</v>
       </c>
@@ -3268,22 +3268,22 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O18" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>290</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>205</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>193</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>273</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="2:19">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>280</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:19">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>293</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:19">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D37" s="43" t="s">
         <v>18</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:19">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>287</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:19">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>273</v>
       </c>
@@ -3415,27 +3415,27 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="2:19">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>296</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E54" s="1" t="s">
         <v>298</v>
       </c>
@@ -3480,23 +3480,23 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L55">
         <f>L54/60/60</f>
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>301</v>
       </c>
@@ -3504,17 +3504,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>113</v>
       </c>
@@ -3522,12 +3522,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>306</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>308</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>310</v>
       </c>
@@ -3579,7 +3579,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
@@ -3587,12 +3587,12 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
@@ -3602,7 +3602,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>315</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>318</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>322</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
         <v>324</v>
@@ -3684,7 +3684,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>323</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>326</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>325</v>
       </c>
@@ -3721,12 +3721,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>297</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>328</v>
       </c>
@@ -3746,12 +3746,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="10:10">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="1048576" spans="15:15">
+    <row r="1048576" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O1048576" t="s">
         <v>317</v>
       </c>
@@ -3770,7 +3770,7 @@
       <selection activeCell="D4" sqref="D4:AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
@@ -3797,7 +3797,7 @@
     <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1">
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L4" s="3" t="s">
         <v>38</v>
       </c>
@@ -4032,11 +4032,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:BG84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:I12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1" outlineLevel="1"/>
     <col min="2" max="3" width="13.140625" customWidth="1" outlineLevel="1"/>
@@ -4081,7 +4081,7 @@
     <col min="59" max="59" width="2.42578125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1">
+    <row r="1" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="BF1" s="69"/>
       <c r="BG1" s="46"/>
     </row>
-    <row r="2" spans="1:59" s="1" customFormat="1">
+    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="BF2" s="69"/>
       <c r="BG2" s="46"/>
     </row>
-    <row r="3" spans="1:59" s="1" customFormat="1">
+    <row r="3" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="BG3" s="46"/>
     </row>
-    <row r="4" spans="1:59" s="61" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:59" s="61" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AN4" s="62"/>
       <c r="AO4" s="63"/>
       <c r="AP4" s="63"/>
@@ -4396,7 +4396,7 @@
       <c r="BC4" s="77"/>
       <c r="BD4" s="64"/>
     </row>
-    <row r="5" spans="1:59" s="15" customFormat="1">
+    <row r="5" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="15" t="s">
         <v>28</v>
       </c>
@@ -4525,7 +4525,7 @@
       <c r="BF5" s="18"/>
       <c r="BG5" s="47"/>
     </row>
-    <row r="6" spans="1:59" s="15" customFormat="1">
+    <row r="6" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E6" s="56"/>
       <c r="F6" t="s">
         <v>38</v>
@@ -4591,7 +4591,7 @@
       <c r="BF6" s="18"/>
       <c r="BG6" s="47"/>
     </row>
-    <row r="7" spans="1:59" s="47" customFormat="1">
+    <row r="7" spans="1:59" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4659,7 +4659,7 @@
       <c r="BE7" s="72"/>
       <c r="BF7" s="72"/>
     </row>
-    <row r="8" spans="1:59" s="15" customFormat="1">
+    <row r="8" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E8" s="56"/>
       <c r="F8" t="s">
         <v>88</v>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="BG8" s="47"/>
     </row>
-    <row r="9" spans="1:59" s="15" customFormat="1">
+    <row r="9" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E9" s="56"/>
       <c r="F9" s="15" t="s">
         <v>98</v>
@@ -4789,7 +4789,7 @@
       <c r="BD9" s="19"/>
       <c r="BG9" s="47"/>
     </row>
-    <row r="10" spans="1:59" s="47" customFormat="1">
+    <row r="10" spans="1:59" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -4857,7 +4857,7 @@
       <c r="BE10" s="72"/>
       <c r="BF10" s="72"/>
     </row>
-    <row r="11" spans="1:59" s="15" customFormat="1">
+    <row r="11" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E11" s="56"/>
       <c r="F11" s="15" t="s">
         <v>101</v>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="BG11" s="47"/>
     </row>
-    <row r="12" spans="1:59" s="15" customFormat="1">
+    <row r="12" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E12" s="56"/>
       <c r="F12" s="15" t="s">
         <v>105</v>
@@ -4982,14 +4982,14 @@
       <c r="BD12" s="19"/>
       <c r="BG12" s="47"/>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="AU13" s="86"/>
       <c r="AV13" s="84"/>
       <c r="AW13" s="84"/>
     </row>
-    <row r="14" spans="1:59" s="47" customFormat="1">
+    <row r="14" spans="1:59" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -5049,7 +5049,7 @@
       <c r="BE14" s="72"/>
       <c r="BF14" s="72"/>
     </row>
-    <row r="15" spans="1:59" s="15" customFormat="1">
+    <row r="15" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E15" s="56"/>
       <c r="J15" s="56"/>
       <c r="R15" s="56"/>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="BG15" s="47"/>
     </row>
-    <row r="16" spans="1:59" s="56" customFormat="1">
+    <row r="16" spans="1:59" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -5142,7 +5142,7 @@
       <c r="BC16" s="82"/>
       <c r="BD16" s="58"/>
     </row>
-    <row r="17" spans="1:59" s="15" customFormat="1">
+    <row r="17" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E17" s="56"/>
       <c r="J17" s="56"/>
       <c r="K17" s="15" t="s">
@@ -5230,7 +5230,7 @@
       <c r="BF17" s="18"/>
       <c r="BG17" s="47"/>
     </row>
-    <row r="18" spans="1:59" s="15" customFormat="1">
+    <row r="18" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E18" s="56"/>
       <c r="G18"/>
       <c r="J18" s="56"/>
@@ -5271,7 +5271,7 @@
       <c r="BF18" s="72"/>
       <c r="BG18" s="47"/>
     </row>
-    <row r="19" spans="1:59" s="15" customFormat="1">
+    <row r="19" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E19" s="56"/>
       <c r="G19"/>
       <c r="J19" s="56"/>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="BG19" s="47"/>
     </row>
-    <row r="20" spans="1:59" s="15" customFormat="1">
+    <row r="20" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E20" s="56"/>
       <c r="F20"/>
       <c r="G20"/>
@@ -5376,7 +5376,7 @@
       <c r="BD20" s="19"/>
       <c r="BG20" s="47"/>
     </row>
-    <row r="21" spans="1:59" s="15" customFormat="1">
+    <row r="21" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" s="60"/>
@@ -5441,7 +5441,7 @@
       <c r="BF21"/>
       <c r="BG21" s="47"/>
     </row>
-    <row r="22" spans="1:59" s="15" customFormat="1">
+    <row r="22" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22" s="60"/>
@@ -5500,7 +5500,7 @@
       <c r="BF22" s="72"/>
       <c r="BG22" s="47"/>
     </row>
-    <row r="23" spans="1:59" s="15" customFormat="1">
+    <row r="23" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23" s="60"/>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="BG23" s="47"/>
     </row>
-    <row r="24" spans="1:59" s="56" customFormat="1">
+    <row r="24" spans="1:59" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -5609,7 +5609,7 @@
       <c r="BC24" s="82"/>
       <c r="BD24" s="58"/>
     </row>
-    <row r="25" spans="1:59" s="15" customFormat="1">
+    <row r="25" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E25" s="56"/>
       <c r="J25" s="56"/>
       <c r="K25" s="15" t="s">
@@ -5700,7 +5700,7 @@
       <c r="BF25" s="18"/>
       <c r="BG25" s="47"/>
     </row>
-    <row r="26" spans="1:59" s="15" customFormat="1">
+    <row r="26" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E26" s="56"/>
       <c r="G26"/>
       <c r="J26" s="56"/>
@@ -5741,7 +5741,7 @@
       <c r="BF26" s="72"/>
       <c r="BG26" s="47"/>
     </row>
-    <row r="27" spans="1:59" s="15" customFormat="1">
+    <row r="27" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E27" s="56"/>
       <c r="G27"/>
       <c r="J27" s="56"/>
@@ -5807,7 +5807,7 @@
       <c r="BF27" s="18"/>
       <c r="BG27" s="47"/>
     </row>
-    <row r="28" spans="1:59" s="15" customFormat="1">
+    <row r="28" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E28" s="56"/>
       <c r="G28"/>
       <c r="J28" s="56"/>
@@ -5838,7 +5838,7 @@
       <c r="BD28" s="19"/>
       <c r="BG28" s="47"/>
     </row>
-    <row r="29" spans="1:59" s="15" customFormat="1">
+    <row r="29" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E29" s="56"/>
       <c r="G29"/>
       <c r="J29" s="56"/>
@@ -5879,7 +5879,7 @@
       <c r="BF29" s="72"/>
       <c r="BG29" s="47"/>
     </row>
-    <row r="30" spans="1:59" s="15" customFormat="1">
+    <row r="30" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E30" s="56"/>
       <c r="G30"/>
       <c r="J30" s="56"/>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="BG30" s="47"/>
     </row>
-    <row r="31" spans="1:59" s="15" customFormat="1">
+    <row r="31" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E31" s="56"/>
       <c r="F31"/>
       <c r="G31"/>
@@ -5984,7 +5984,7 @@
       <c r="BD31" s="19"/>
       <c r="BG31" s="47"/>
     </row>
-    <row r="32" spans="1:59" s="15" customFormat="1">
+    <row r="32" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32" s="60"/>
@@ -6049,7 +6049,7 @@
       <c r="BF32"/>
       <c r="BG32" s="47"/>
     </row>
-    <row r="33" spans="1:59" s="15" customFormat="1">
+    <row r="33" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33" s="60"/>
@@ -6108,7 +6108,7 @@
       <c r="BF33" s="72"/>
       <c r="BG33" s="47"/>
     </row>
-    <row r="34" spans="1:59" s="15" customFormat="1">
+    <row r="34" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34" s="60"/>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="BG34" s="47"/>
     </row>
-    <row r="35" spans="1:59" s="56" customFormat="1">
+    <row r="35" spans="1:59" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -6217,7 +6217,7 @@
       <c r="BC35" s="82"/>
       <c r="BD35" s="58"/>
     </row>
-    <row r="36" spans="1:59" s="15" customFormat="1">
+    <row r="36" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E36" s="56"/>
       <c r="J36" s="56"/>
       <c r="K36" s="15" t="s">
@@ -6302,7 +6302,7 @@
       <c r="BD36" s="19"/>
       <c r="BG36" s="47"/>
     </row>
-    <row r="37" spans="1:59" s="15" customFormat="1">
+    <row r="37" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E37" s="56"/>
       <c r="J37" s="56"/>
       <c r="R37" s="56"/>
@@ -6342,7 +6342,7 @@
       <c r="BF37" s="72"/>
       <c r="BG37" s="47"/>
     </row>
-    <row r="38" spans="1:59" s="15" customFormat="1">
+    <row r="38" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E38" s="56"/>
       <c r="J38" s="56"/>
       <c r="R38" s="56"/>
@@ -6412,7 +6412,7 @@
       <c r="BF38" s="18"/>
       <c r="BG38" s="47"/>
     </row>
-    <row r="39" spans="1:59" s="15" customFormat="1">
+    <row r="39" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E39" s="56"/>
       <c r="J39" s="56"/>
       <c r="R39" s="56"/>
@@ -6452,7 +6452,7 @@
       <c r="BF39" s="72"/>
       <c r="BG39" s="47"/>
     </row>
-    <row r="40" spans="1:59" s="15" customFormat="1">
+    <row r="40" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40" s="60"/>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="BG40" s="47"/>
     </row>
-    <row r="41" spans="1:59" s="56" customFormat="1">
+    <row r="41" spans="1:59" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -6564,7 +6564,7 @@
       <c r="BC41" s="82"/>
       <c r="BD41" s="58"/>
     </row>
-    <row r="42" spans="1:59" s="15" customFormat="1">
+    <row r="42" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E42" s="56"/>
       <c r="J42" s="56"/>
       <c r="K42" s="15" t="s">
@@ -6650,7 +6650,7 @@
       <c r="BD42" s="19"/>
       <c r="BG42" s="47"/>
     </row>
-    <row r="43" spans="1:59" s="15" customFormat="1">
+    <row r="43" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E43" s="56"/>
       <c r="J43" s="56"/>
       <c r="R43" s="56"/>
@@ -6693,7 +6693,7 @@
       <c r="BF43" s="72"/>
       <c r="BG43" s="47"/>
     </row>
-    <row r="44" spans="1:59" s="15" customFormat="1">
+    <row r="44" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E44" s="56"/>
       <c r="J44" s="56"/>
       <c r="R44" s="56"/>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="BG44" s="47"/>
     </row>
-    <row r="45" spans="1:59" s="15" customFormat="1">
+    <row r="45" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E45" s="56"/>
       <c r="J45" s="56"/>
       <c r="R45" s="56"/>
@@ -6794,7 +6794,7 @@
       <c r="BD45" s="19"/>
       <c r="BG45" s="47"/>
     </row>
-    <row r="46" spans="1:59" s="15" customFormat="1">
+    <row r="46" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46" s="60"/>
@@ -6859,7 +6859,7 @@
       <c r="BF46"/>
       <c r="BG46" s="47"/>
     </row>
-    <row r="47" spans="1:59" s="15" customFormat="1">
+    <row r="47" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47" s="60"/>
@@ -6918,7 +6918,7 @@
       <c r="BF47" s="72"/>
       <c r="BG47" s="47"/>
     </row>
-    <row r="48" spans="1:59" s="15" customFormat="1">
+    <row r="48" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" s="60"/>
@@ -7003,7 +7003,7 @@
       </c>
       <c r="BG48" s="47"/>
     </row>
-    <row r="49" spans="1:59" s="56" customFormat="1">
+    <row r="49" spans="1:59" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -7030,7 +7030,7 @@
       <c r="BC49" s="82"/>
       <c r="BD49" s="58"/>
     </row>
-    <row r="50" spans="1:59" s="15" customFormat="1">
+    <row r="50" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E50" s="56"/>
       <c r="J50" s="56"/>
       <c r="K50" s="15" t="s">
@@ -7116,7 +7116,7 @@
       <c r="BD50" s="19"/>
       <c r="BG50" s="47"/>
     </row>
-    <row r="51" spans="1:59" s="15" customFormat="1">
+    <row r="51" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E51" s="56"/>
       <c r="J51" s="56"/>
       <c r="R51" s="56"/>
@@ -7156,7 +7156,7 @@
       <c r="BF51" s="72"/>
       <c r="BG51" s="47"/>
     </row>
-    <row r="52" spans="1:59" s="15" customFormat="1">
+    <row r="52" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52" s="60"/>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="BG52" s="47"/>
     </row>
-    <row r="53" spans="1:59" s="56" customFormat="1">
+    <row r="53" spans="1:59" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -7268,7 +7268,7 @@
       <c r="BC53" s="82"/>
       <c r="BD53" s="58"/>
     </row>
-    <row r="54" spans="1:59" s="15" customFormat="1">
+    <row r="54" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E54" s="56"/>
       <c r="J54" s="56"/>
       <c r="K54" s="15" t="s">
@@ -7351,7 +7351,7 @@
       <c r="BD54" s="19"/>
       <c r="BG54" s="47"/>
     </row>
-    <row r="55" spans="1:59" s="15" customFormat="1">
+    <row r="55" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E55" s="56"/>
       <c r="J55" s="56"/>
       <c r="R55" s="56"/>
@@ -7394,7 +7394,7 @@
       <c r="BF55" s="72"/>
       <c r="BG55" s="47"/>
     </row>
-    <row r="56" spans="1:59" s="15" customFormat="1">
+    <row r="56" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D56" s="41"/>
       <c r="E56" s="56"/>
       <c r="J56" s="56"/>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="BG56" s="47"/>
     </row>
-    <row r="57" spans="1:59" s="15" customFormat="1">
+    <row r="57" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E57" s="56"/>
       <c r="J57" s="56"/>
       <c r="R57" s="56"/>
@@ -7496,7 +7496,7 @@
       <c r="BD57" s="19"/>
       <c r="BG57" s="47"/>
     </row>
-    <row r="58" spans="1:59" s="15" customFormat="1">
+    <row r="58" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58" s="60"/>
@@ -7561,7 +7561,7 @@
       <c r="BF58"/>
       <c r="BG58" s="47"/>
     </row>
-    <row r="59" spans="1:59" s="15" customFormat="1">
+    <row r="59" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59" s="60"/>
@@ -7620,7 +7620,7 @@
       <c r="BF59" s="72"/>
       <c r="BG59" s="47"/>
     </row>
-    <row r="60" spans="1:59" s="15" customFormat="1">
+    <row r="60" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60" s="60"/>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="BG60" s="47"/>
     </row>
-    <row r="61" spans="1:59" s="61" customFormat="1" ht="12" customHeight="1">
+    <row r="61" spans="1:59" s="61" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AN61" s="62"/>
       <c r="AO61" s="63"/>
       <c r="AP61" s="63"/>
@@ -7724,7 +7724,7 @@
       <c r="BC61" s="77"/>
       <c r="BD61" s="64"/>
     </row>
-    <row r="62" spans="1:59" s="15" customFormat="1">
+    <row r="62" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="41"/>
       <c r="D62" s="41" t="s">
         <v>115</v>
@@ -7833,7 +7833,7 @@
       <c r="BF62" s="18"/>
       <c r="BG62" s="47"/>
     </row>
-    <row r="63" spans="1:59" s="47" customFormat="1">
+    <row r="63" spans="1:59" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="41"/>
@@ -7893,7 +7893,7 @@
       <c r="BE63" s="72"/>
       <c r="BF63" s="72"/>
     </row>
-    <row r="64" spans="1:59" s="15" customFormat="1">
+    <row r="64" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E64" s="56"/>
       <c r="J64" s="56"/>
       <c r="R64" s="56"/>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="BG64" s="47"/>
     </row>
-    <row r="65" spans="1:59" s="15" customFormat="1">
+    <row r="65" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E65" s="56"/>
       <c r="J65" s="56"/>
       <c r="R65" s="56"/>
@@ -7995,7 +7995,7 @@
       <c r="BD65" s="19"/>
       <c r="BG65" s="47"/>
     </row>
-    <row r="66" spans="1:59">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="Z66" s="45"/>
@@ -8009,7 +8009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:59" s="47" customFormat="1">
+    <row r="67" spans="1:59" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -8069,7 +8069,7 @@
       <c r="BE67" s="72"/>
       <c r="BF67" s="72"/>
     </row>
-    <row r="68" spans="1:59" s="15" customFormat="1">
+    <row r="68" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E68" s="56"/>
       <c r="J68" s="56"/>
       <c r="R68" s="56"/>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="BG68" s="47"/>
     </row>
-    <row r="69" spans="1:59" s="61" customFormat="1" ht="12" customHeight="1">
+    <row r="69" spans="1:59" s="61" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AN69" s="62"/>
       <c r="AO69" s="63"/>
       <c r="AP69" s="63"/>
@@ -8154,7 +8154,7 @@
       <c r="BC69" s="77"/>
       <c r="BD69" s="64"/>
     </row>
-    <row r="70" spans="1:59" s="15" customFormat="1">
+    <row r="70" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C70" s="41"/>
       <c r="D70" s="41" t="s">
         <v>118</v>
@@ -8263,7 +8263,7 @@
       <c r="BF70" s="18"/>
       <c r="BG70" s="47"/>
     </row>
-    <row r="71" spans="1:59" s="47" customFormat="1">
+    <row r="71" spans="1:59" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="41"/>
@@ -8325,7 +8325,7 @@
       <c r="BE71" s="72"/>
       <c r="BF71" s="72"/>
     </row>
-    <row r="72" spans="1:59" s="15" customFormat="1">
+    <row r="72" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E72" s="56"/>
       <c r="J72" s="56"/>
       <c r="R72" s="56"/>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="BG72" s="47"/>
     </row>
-    <row r="73" spans="1:59" s="15" customFormat="1">
+    <row r="73" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E73" s="56"/>
       <c r="J73" s="56"/>
       <c r="R73" s="56"/>
@@ -8427,7 +8427,7 @@
       <c r="BD73" s="19"/>
       <c r="BG73" s="47"/>
     </row>
-    <row r="74" spans="1:59">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="Z74" s="45"/>
@@ -8441,7 +8441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:59" s="47" customFormat="1">
+    <row r="75" spans="1:59" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -8501,7 +8501,7 @@
       <c r="BE75" s="72"/>
       <c r="BF75" s="72"/>
     </row>
-    <row r="76" spans="1:59" s="15" customFormat="1">
+    <row r="76" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E76" s="56"/>
       <c r="J76" s="56"/>
       <c r="R76" s="56"/>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="BG76" s="47"/>
     </row>
-    <row r="77" spans="1:59" s="65" customFormat="1">
+    <row r="77" spans="1:59" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AN77" s="66"/>
       <c r="AO77" s="66"/>
       <c r="AP77" s="66"/>
@@ -8586,7 +8586,7 @@
       <c r="BC77" s="83"/>
       <c r="BD77" s="67"/>
     </row>
-    <row r="78" spans="1:59" s="15" customFormat="1">
+    <row r="78" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D78" s="15" t="s">
         <v>122</v>
       </c>
@@ -8670,7 +8670,7 @@
       </c>
       <c r="BG78" s="47"/>
     </row>
-    <row r="79" spans="1:59" s="15" customFormat="1">
+    <row r="79" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E79" s="56"/>
       <c r="F79" s="15" t="s">
         <v>127</v>
@@ -8710,7 +8710,7 @@
       </c>
       <c r="BG79" s="47"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -9521,14 +9521,14 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
         <v>128</v>
@@ -9543,7 +9543,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>128</v>
       </c>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="Q3" s="28"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>135</v>
       </c>
@@ -9569,7 +9569,7 @@
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>136</v>
       </c>
@@ -9580,7 +9580,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>137</v>
       </c>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>138</v>
       </c>
@@ -9599,27 +9599,27 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
@@ -9627,12 +9627,12 @@
       </c>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
@@ -9640,22 +9640,22 @@
       </c>
       <c r="T14" s="31"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="17:20">
+    <row r="17" spans="17:20" x14ac:dyDescent="0.25">
       <c r="T17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="17:20">
+    <row r="18" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
         <v>148</v>
@@ -9663,7 +9663,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
     </row>
-    <row r="19" spans="17:20">
+    <row r="19" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
@@ -9671,78 +9671,78 @@
       </c>
       <c r="T19" s="31"/>
     </row>
-    <row r="20" spans="17:20">
+    <row r="20" spans="17:20" x14ac:dyDescent="0.25">
       <c r="T20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="17:20">
+    <row r="21" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="17:20">
+    <row r="22" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="17:20">
+    <row r="23" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="17:20">
+    <row r="24" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="17:20">
+    <row r="25" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="17:20">
+    <row r="26" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="17:20">
+    <row r="27" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="17:20">
+    <row r="28" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="17:20">
+    <row r="29" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="17:20">
+    <row r="30" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="17:20">
+    <row r="31" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="17:20">
+    <row r="32" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
         <v>159</v>
@@ -9750,7 +9750,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
     </row>
-    <row r="33" spans="17:20">
+    <row r="33" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
@@ -9758,13 +9758,13 @@
       </c>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="17:20">
+    <row r="34" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="17:20">
+    <row r="35" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
@@ -9772,13 +9772,13 @@
       </c>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="17:20">
+    <row r="36" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="17:20">
+    <row r="37" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
         <v>163</v>
@@ -9786,7 +9786,7 @@
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
     </row>
-    <row r="38" spans="17:20">
+    <row r="38" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
@@ -9794,13 +9794,13 @@
       </c>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" spans="17:20">
+    <row r="39" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="17:20">
+    <row r="40" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="T40" s="31"/>
     </row>
-    <row r="41" spans="17:20">
+    <row r="41" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
         <v>166</v>
@@ -9828,7 +9828,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.7109375" customWidth="1"/>
@@ -9841,7 +9841,7 @@
     <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>169</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>78</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>172</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>175</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>177</v>
       </c>
@@ -10025,7 +10025,7 @@
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -10052,7 +10052,7 @@
       </c>
       <c r="J12" s="45"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>180</v>
       </c>
@@ -10060,22 +10060,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>184</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>184</v>
       </c>
@@ -10129,14 +10129,14 @@
       <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>132</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>86</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>189</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>190</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>191</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>192</v>
       </c>
@@ -10261,7 +10261,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -10287,7 +10287,7 @@
     <col min="35" max="35" width="2.42578125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -10324,7 +10324,7 @@
       <c r="AH1" s="4"/>
       <c r="AI1" s="46"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1">
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>194</v>
       </c>
@@ -10374,7 +10374,7 @@
       <c r="AH2" s="4"/>
       <c r="AI2" s="46"/>
     </row>
-    <row r="3" spans="1:35" s="1" customFormat="1">
+    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="AI3" s="46"/>
     </row>
-    <row r="4" spans="1:35" s="15" customFormat="1">
+    <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>28</v>
       </c>
@@ -10542,7 +10542,7 @@
       <c r="AH4" s="18"/>
       <c r="AI4" s="47"/>
     </row>
-    <row r="5" spans="1:35" s="47" customFormat="1">
+    <row r="5" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="Q5" s="50"/>
@@ -10563,7 +10563,7 @@
       <c r="AG5" s="50"/>
       <c r="AH5" s="50"/>
     </row>
-    <row r="6" spans="1:35" s="15" customFormat="1">
+    <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
         <v>90</v>
       </c>
@@ -10623,7 +10623,7 @@
       <c r="AH6" s="18"/>
       <c r="AI6" s="47"/>
     </row>
-    <row r="7" spans="1:35" s="15" customFormat="1">
+    <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
@@ -10652,7 +10652,7 @@
       <c r="AD7" s="50"/>
       <c r="AI7" s="47"/>
     </row>
-    <row r="8" spans="1:35" s="47" customFormat="1">
+    <row r="8" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="Q8" s="50"/>
@@ -10669,7 +10669,7 @@
       <c r="AC8" s="50"/>
       <c r="AD8" s="50"/>
     </row>
-    <row r="9" spans="1:35" s="15" customFormat="1">
+    <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
         <v>199</v>
       </c>
@@ -10737,7 +10737,7 @@
       </c>
       <c r="AI9" s="47"/>
     </row>
-    <row r="10" spans="1:35" s="15" customFormat="1">
+    <row r="10" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V10" s="47"/>
       <c r="W10" s="15" t="s">
         <v>38</v>
@@ -10755,7 +10755,7 @@
       <c r="AD10" s="50"/>
       <c r="AI10" s="47"/>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="W11" s="15" t="s">
         <v>37</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="15" customFormat="1">
+    <row r="12" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
@@ -10782,7 +10782,7 @@
       <c r="AD12" s="50"/>
       <c r="AI12" s="47"/>
     </row>
-    <row r="13" spans="1:35" s="15" customFormat="1">
+    <row r="13" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
@@ -10798,7 +10798,7 @@
       <c r="AD13" s="50"/>
       <c r="AI13" s="47"/>
     </row>
-    <row r="14" spans="1:35" s="56" customFormat="1">
+    <row r="14" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q14" s="57"/>
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
@@ -10813,7 +10813,7 @@
       <c r="AC14" s="57"/>
       <c r="AD14" s="57"/>
     </row>
-    <row r="15" spans="1:35" s="15" customFormat="1">
+    <row r="15" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>28</v>
       </c>
@@ -10899,7 +10899,7 @@
       </c>
       <c r="AI15" s="47"/>
     </row>
-    <row r="16" spans="1:35" s="15" customFormat="1">
+    <row r="16" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="15" t="s">
         <v>109</v>
       </c>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="AI16" s="47"/>
     </row>
-    <row r="17" spans="1:35" s="15" customFormat="1">
+    <row r="17" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
@@ -10990,7 +10990,7 @@
       <c r="AD17" s="50"/>
       <c r="AI17" s="47"/>
     </row>
-    <row r="18" spans="1:35" s="15" customFormat="1">
+    <row r="18" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
         <v>202</v>
       </c>
@@ -11040,7 +11040,7 @@
       <c r="AD18" s="50"/>
       <c r="AI18" s="47"/>
     </row>
-    <row r="19" spans="1:35" s="15" customFormat="1">
+    <row r="19" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V19" s="47"/>
       <c r="W19" s="15" t="s">
         <v>38</v>
@@ -11058,7 +11058,7 @@
       <c r="AD19" s="50"/>
       <c r="AI19" s="47"/>
     </row>
-    <row r="20" spans="1:35" s="15" customFormat="1">
+    <row r="20" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -11100,7 +11100,7 @@
       <c r="AH20"/>
       <c r="AI20" s="47"/>
     </row>
-    <row r="21" spans="1:35" s="15" customFormat="1">
+    <row r="21" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
@@ -11154,7 +11154,7 @@
       <c r="AH21"/>
       <c r="AI21" s="47"/>
     </row>
-    <row r="22" spans="1:35" s="15" customFormat="1">
+    <row r="22" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
@@ -11170,7 +11170,7 @@
       <c r="AD22" s="50"/>
       <c r="AI22" s="47"/>
     </row>
-    <row r="23" spans="1:35" s="15" customFormat="1">
+    <row r="23" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="15" t="s">
         <v>124</v>
       </c>
@@ -11246,7 +11246,7 @@
       </c>
       <c r="AI23" s="47"/>
     </row>
-    <row r="24" spans="1:35" s="15" customFormat="1">
+    <row r="24" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
@@ -11284,7 +11284,7 @@
       </c>
       <c r="AI24" s="47"/>
     </row>
-    <row r="25" spans="1:35" s="15" customFormat="1">
+    <row r="25" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
@@ -11300,7 +11300,7 @@
       <c r="AD25" s="50"/>
       <c r="AI25" s="47"/>
     </row>
-    <row r="26" spans="1:35" s="15" customFormat="1">
+    <row r="26" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
@@ -11316,7 +11316,7 @@
       <c r="AD26" s="50"/>
       <c r="AI26" s="47"/>
     </row>
-    <row r="27" spans="1:35" s="15" customFormat="1">
+    <row r="27" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
@@ -11332,7 +11332,7 @@
       <c r="AD27" s="50"/>
       <c r="AI27" s="47"/>
     </row>
-    <row r="28" spans="1:35" s="15" customFormat="1">
+    <row r="28" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
@@ -11348,7 +11348,7 @@
       <c r="AD28" s="50"/>
       <c r="AI28" s="47"/>
     </row>
-    <row r="29" spans="1:35" s="15" customFormat="1">
+    <row r="29" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
@@ -11364,7 +11364,7 @@
       <c r="AD29" s="50"/>
       <c r="AI29" s="47"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
   </sheetData>
@@ -11416,14 +11416,14 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>132</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>90</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>199</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>4</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>52</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>208</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>132</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>90</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>106</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>102</v>
       </c>
@@ -11640,14 +11640,14 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -11655,7 +11655,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>211</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>211</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>211</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>211</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>211</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>211</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>211</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>211</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>211</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>211</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>211</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>211</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>211</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>226</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>226</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>211</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32" t="e">
@@ -11899,7 +11899,7 @@
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35" t="e">
@@ -11907,7 +11907,7 @@
       </c>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>229</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>229</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>229</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>229</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>229</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35" t="e">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>236</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>236</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>236</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>240</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>240</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>241</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35" t="e">
@@ -12077,7 +12077,7 @@
       </c>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>243</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>243</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>243</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>247</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>247</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37" t="e">
@@ -12155,7 +12155,7 @@
       </c>
       <c r="D40" s="38"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35" t="e">
@@ -12163,7 +12163,7 @@
       </c>
       <c r="D41" s="35"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>248</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35" t="e">
@@ -12185,7 +12185,7 @@
       </c>
       <c r="D43" s="35"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>249</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>249</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>251</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
         <v>251</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>251</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>254</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>254</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>254</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>254</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>254</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>256</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
         <v>256</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>256</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>256</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>257</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>257</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="35" t="e">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="D60" s="35"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>258</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>258</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>259</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>259</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
         <v>259</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>259</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="37"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37" t="e">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="D67" s="38"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
       <c r="B68" s="35"/>
       <c r="C68" s="35" t="e">
@@ -12517,7 +12517,7 @@
       </c>
       <c r="D68" s="35"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
         <v>260</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>261</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
         <v>261</v>
       </c>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1666" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{4FBC6358-5C37-46DF-B393-2D18399D156B}"/>
+  <xr:revisionPtr revIDLastSave="1688" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C020D297-3574-4334-9748-8984874BD4AE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <sheet name="brainstorming" sheetId="4" r:id="rId11"/>
     <sheet name="Sheet3" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="331">
   <si>
     <t>Cause</t>
   </si>
@@ -1183,9 +1183,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1443,7 +1443,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3119,7 +3119,7 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3133,7 +3133,7 @@
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3147,7 +3147,7 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
@@ -3156,7 +3156,7 @@
     <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>262</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -3180,17 +3180,17 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="O12" s="1" t="s">
         <v>193</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="F13" s="1" t="s">
         <v>272</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="F14" s="12" t="s">
         <v>275</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="F15" t="s">
         <v>278</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="F16" t="s">
         <v>282</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="F17" t="s">
         <v>284</v>
       </c>
@@ -3268,22 +3268,22 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="O18" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="F20" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="D31" t="s">
         <v>290</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
         <v>205</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19">
       <c r="B33" t="s">
         <v>193</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19">
       <c r="C34" t="s">
         <v>273</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19">
       <c r="C35" t="s">
         <v>280</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19">
       <c r="D36" t="s">
         <v>293</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19">
       <c r="D37" s="43" t="s">
         <v>18</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19">
       <c r="C38" t="s">
         <v>287</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19">
       <c r="C39" t="s">
         <v>273</v>
       </c>
@@ -3415,27 +3415,27 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19">
       <c r="K40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19">
       <c r="K41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19">
       <c r="K42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="H52" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
         <v>296</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="E54" s="1" t="s">
         <v>298</v>
       </c>
@@ -3480,23 +3480,23 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="L55">
         <f>L54/60/60</f>
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="F59" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="B60" t="s">
         <v>301</v>
       </c>
@@ -3504,17 +3504,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="E61" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="E62" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="B65" t="s">
         <v>113</v>
       </c>
@@ -3522,12 +3522,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="B68" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>306</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>308</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>310</v>
       </c>
@@ -3579,7 +3579,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
@@ -3587,12 +3587,12 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
@@ -3602,7 +3602,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="B4" t="s">
         <v>315</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="B5" t="s">
         <v>318</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="H6" t="s">
         <v>322</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
         <v>324</v>
@@ -3684,7 +3684,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="H8" t="s">
         <v>323</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>326</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="H10" t="s">
         <v>325</v>
       </c>
@@ -3721,12 +3721,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="B11" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="B12" t="s">
         <v>297</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="J16" t="s">
         <v>328</v>
       </c>
@@ -3746,12 +3746,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:10">
       <c r="J19" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="1048576" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="15:15">
       <c r="O1048576" t="s">
         <v>317</v>
       </c>
@@ -3770,7 +3770,7 @@
       <selection activeCell="D4" sqref="D4:AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
@@ -3797,7 +3797,7 @@
     <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="L4" s="3" t="s">
         <v>38</v>
       </c>
@@ -4032,11 +4032,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:BG84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1" outlineLevel="1"/>
     <col min="2" max="3" width="13.140625" customWidth="1" outlineLevel="1"/>
@@ -4081,7 +4081,7 @@
     <col min="59" max="59" width="2.42578125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="BF1" s="69"/>
       <c r="BG1" s="46"/>
     </row>
-    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="BF2" s="69"/>
       <c r="BG2" s="46"/>
     </row>
-    <row r="3" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="BG3" s="46"/>
     </row>
-    <row r="4" spans="1:59" s="61" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" s="61" customFormat="1" ht="12" customHeight="1">
       <c r="AN4" s="62"/>
       <c r="AO4" s="63"/>
       <c r="AP4" s="63"/>
@@ -4396,7 +4396,7 @@
       <c r="BC4" s="77"/>
       <c r="BD4" s="64"/>
     </row>
-    <row r="5" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" s="15" customFormat="1">
       <c r="D5" s="15" t="s">
         <v>28</v>
       </c>
@@ -4438,21 +4438,6 @@
       <c r="R5" s="59"/>
       <c r="S5" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="U5" s="15">
-        <v>8</v>
-      </c>
-      <c r="V5" s="15">
-        <v>0</v>
-      </c>
-      <c r="W5" s="15">
-        <v>250</v>
-      </c>
-      <c r="X5" s="15">
-        <v>0</v>
       </c>
       <c r="Y5" s="56"/>
       <c r="Z5" s="15" t="s">
@@ -4525,7 +4510,7 @@
       <c r="BF5" s="18"/>
       <c r="BG5" s="47"/>
     </row>
-    <row r="6" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" s="15" customFormat="1">
       <c r="E6" s="56"/>
       <c r="F6" t="s">
         <v>38</v>
@@ -4543,21 +4528,6 @@
       <c r="R6" s="59"/>
       <c r="S6" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="U6" s="15">
-        <v>8</v>
-      </c>
-      <c r="V6" s="15">
-        <v>0</v>
-      </c>
-      <c r="W6" s="15">
-        <v>125</v>
-      </c>
-      <c r="X6" s="15">
-        <v>0</v>
       </c>
       <c r="Y6" s="56"/>
       <c r="AA6" s="45"/>
@@ -4591,7 +4561,7 @@
       <c r="BF6" s="18"/>
       <c r="BG6" s="47"/>
     </row>
-    <row r="7" spans="1:59" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" s="47" customFormat="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4659,7 +4629,7 @@
       <c r="BE7" s="72"/>
       <c r="BF7" s="72"/>
     </row>
-    <row r="8" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" s="15" customFormat="1">
       <c r="E8" s="56"/>
       <c r="F8" t="s">
         <v>88</v>
@@ -4747,7 +4717,7 @@
       </c>
       <c r="BG8" s="47"/>
     </row>
-    <row r="9" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" s="15" customFormat="1">
       <c r="E9" s="56"/>
       <c r="F9" s="15" t="s">
         <v>98</v>
@@ -4789,7 +4759,7 @@
       <c r="BD9" s="19"/>
       <c r="BG9" s="47"/>
     </row>
-    <row r="10" spans="1:59" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" s="47" customFormat="1">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -4857,7 +4827,7 @@
       <c r="BE10" s="72"/>
       <c r="BF10" s="72"/>
     </row>
-    <row r="11" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" s="15" customFormat="1">
       <c r="E11" s="56"/>
       <c r="F11" s="15" t="s">
         <v>101</v>
@@ -4945,7 +4915,7 @@
       </c>
       <c r="BG11" s="47"/>
     </row>
-    <row r="12" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" s="15" customFormat="1">
       <c r="E12" s="56"/>
       <c r="F12" s="15" t="s">
         <v>105</v>
@@ -4982,14 +4952,14 @@
       <c r="BD12" s="19"/>
       <c r="BG12" s="47"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="AU13" s="86"/>
       <c r="AV13" s="84"/>
       <c r="AW13" s="84"/>
     </row>
-    <row r="14" spans="1:59" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" s="47" customFormat="1">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -5049,7 +5019,7 @@
       <c r="BE14" s="72"/>
       <c r="BF14" s="72"/>
     </row>
-    <row r="15" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" s="15" customFormat="1">
       <c r="E15" s="56"/>
       <c r="J15" s="56"/>
       <c r="R15" s="56"/>
@@ -5115,7 +5085,7 @@
       </c>
       <c r="BG15" s="47"/>
     </row>
-    <row r="16" spans="1:59" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" s="56" customFormat="1">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -5142,7 +5112,7 @@
       <c r="BC16" s="82"/>
       <c r="BD16" s="58"/>
     </row>
-    <row r="17" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" s="15" customFormat="1">
       <c r="E17" s="56"/>
       <c r="J17" s="56"/>
       <c r="K17" s="15" t="s">
@@ -5230,7 +5200,7 @@
       <c r="BF17" s="18"/>
       <c r="BG17" s="47"/>
     </row>
-    <row r="18" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" s="15" customFormat="1">
       <c r="E18" s="56"/>
       <c r="G18"/>
       <c r="J18" s="56"/>
@@ -5271,7 +5241,7 @@
       <c r="BF18" s="72"/>
       <c r="BG18" s="47"/>
     </row>
-    <row r="19" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" s="15" customFormat="1">
       <c r="E19" s="56"/>
       <c r="G19"/>
       <c r="J19" s="56"/>
@@ -5348,7 +5318,7 @@
       </c>
       <c r="BG19" s="47"/>
     </row>
-    <row r="20" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" s="15" customFormat="1">
       <c r="E20" s="56"/>
       <c r="F20"/>
       <c r="G20"/>
@@ -5376,7 +5346,7 @@
       <c r="BD20" s="19"/>
       <c r="BG20" s="47"/>
     </row>
-    <row r="21" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" s="15" customFormat="1">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" s="60"/>
@@ -5441,7 +5411,7 @@
       <c r="BF21"/>
       <c r="BG21" s="47"/>
     </row>
-    <row r="22" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" s="15" customFormat="1">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22" s="60"/>
@@ -5500,7 +5470,7 @@
       <c r="BF22" s="72"/>
       <c r="BG22" s="47"/>
     </row>
-    <row r="23" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59" s="15" customFormat="1">
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23" s="60"/>
@@ -5582,7 +5552,7 @@
       </c>
       <c r="BG23" s="47"/>
     </row>
-    <row r="24" spans="1:59" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" s="56" customFormat="1">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -5609,7 +5579,7 @@
       <c r="BC24" s="82"/>
       <c r="BD24" s="58"/>
     </row>
-    <row r="25" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" s="15" customFormat="1">
       <c r="E25" s="56"/>
       <c r="J25" s="56"/>
       <c r="K25" s="15" t="s">
@@ -5700,7 +5670,7 @@
       <c r="BF25" s="18"/>
       <c r="BG25" s="47"/>
     </row>
-    <row r="26" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" s="15" customFormat="1">
       <c r="E26" s="56"/>
       <c r="G26"/>
       <c r="J26" s="56"/>
@@ -5741,7 +5711,7 @@
       <c r="BF26" s="72"/>
       <c r="BG26" s="47"/>
     </row>
-    <row r="27" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" s="15" customFormat="1">
       <c r="E27" s="56"/>
       <c r="G27"/>
       <c r="J27" s="56"/>
@@ -5807,7 +5777,7 @@
       <c r="BF27" s="18"/>
       <c r="BG27" s="47"/>
     </row>
-    <row r="28" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" s="15" customFormat="1">
       <c r="E28" s="56"/>
       <c r="G28"/>
       <c r="J28" s="56"/>
@@ -5838,7 +5808,7 @@
       <c r="BD28" s="19"/>
       <c r="BG28" s="47"/>
     </row>
-    <row r="29" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59" s="15" customFormat="1">
       <c r="E29" s="56"/>
       <c r="G29"/>
       <c r="J29" s="56"/>
@@ -5879,7 +5849,7 @@
       <c r="BF29" s="72"/>
       <c r="BG29" s="47"/>
     </row>
-    <row r="30" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" s="15" customFormat="1">
       <c r="E30" s="56"/>
       <c r="G30"/>
       <c r="J30" s="56"/>
@@ -5956,7 +5926,7 @@
       </c>
       <c r="BG30" s="47"/>
     </row>
-    <row r="31" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" s="15" customFormat="1">
       <c r="E31" s="56"/>
       <c r="F31"/>
       <c r="G31"/>
@@ -5984,7 +5954,7 @@
       <c r="BD31" s="19"/>
       <c r="BG31" s="47"/>
     </row>
-    <row r="32" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59" s="15" customFormat="1">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32" s="60"/>
@@ -6049,7 +6019,7 @@
       <c r="BF32"/>
       <c r="BG32" s="47"/>
     </row>
-    <row r="33" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59" s="15" customFormat="1">
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33" s="60"/>
@@ -6108,7 +6078,7 @@
       <c r="BF33" s="72"/>
       <c r="BG33" s="47"/>
     </row>
-    <row r="34" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" s="15" customFormat="1">
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34" s="60"/>
@@ -6190,7 +6160,7 @@
       </c>
       <c r="BG34" s="47"/>
     </row>
-    <row r="35" spans="1:59" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59" s="56" customFormat="1">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -6217,7 +6187,7 @@
       <c r="BC35" s="82"/>
       <c r="BD35" s="58"/>
     </row>
-    <row r="36" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" s="15" customFormat="1">
       <c r="E36" s="56"/>
       <c r="J36" s="56"/>
       <c r="K36" s="15" t="s">
@@ -6302,7 +6272,7 @@
       <c r="BD36" s="19"/>
       <c r="BG36" s="47"/>
     </row>
-    <row r="37" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59" s="15" customFormat="1">
       <c r="E37" s="56"/>
       <c r="J37" s="56"/>
       <c r="R37" s="56"/>
@@ -6342,7 +6312,7 @@
       <c r="BF37" s="72"/>
       <c r="BG37" s="47"/>
     </row>
-    <row r="38" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" s="15" customFormat="1">
       <c r="E38" s="56"/>
       <c r="J38" s="56"/>
       <c r="R38" s="56"/>
@@ -6412,7 +6382,7 @@
       <c r="BF38" s="18"/>
       <c r="BG38" s="47"/>
     </row>
-    <row r="39" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59" s="15" customFormat="1">
       <c r="E39" s="56"/>
       <c r="J39" s="56"/>
       <c r="R39" s="56"/>
@@ -6452,7 +6422,7 @@
       <c r="BF39" s="72"/>
       <c r="BG39" s="47"/>
     </row>
-    <row r="40" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59" s="15" customFormat="1">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40" s="60"/>
@@ -6537,7 +6507,7 @@
       </c>
       <c r="BG40" s="47"/>
     </row>
-    <row r="41" spans="1:59" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59" s="56" customFormat="1">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -6564,7 +6534,7 @@
       <c r="BC41" s="82"/>
       <c r="BD41" s="58"/>
     </row>
-    <row r="42" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59" s="15" customFormat="1">
       <c r="E42" s="56"/>
       <c r="J42" s="56"/>
       <c r="K42" s="15" t="s">
@@ -6650,7 +6620,7 @@
       <c r="BD42" s="19"/>
       <c r="BG42" s="47"/>
     </row>
-    <row r="43" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59" s="15" customFormat="1">
       <c r="E43" s="56"/>
       <c r="J43" s="56"/>
       <c r="R43" s="56"/>
@@ -6693,7 +6663,7 @@
       <c r="BF43" s="72"/>
       <c r="BG43" s="47"/>
     </row>
-    <row r="44" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" s="15" customFormat="1">
       <c r="E44" s="56"/>
       <c r="J44" s="56"/>
       <c r="R44" s="56"/>
@@ -6769,7 +6739,7 @@
       </c>
       <c r="BG44" s="47"/>
     </row>
-    <row r="45" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59" s="15" customFormat="1">
       <c r="E45" s="56"/>
       <c r="J45" s="56"/>
       <c r="R45" s="56"/>
@@ -6794,7 +6764,7 @@
       <c r="BD45" s="19"/>
       <c r="BG45" s="47"/>
     </row>
-    <row r="46" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" s="15" customFormat="1">
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46" s="60"/>
@@ -6859,7 +6829,7 @@
       <c r="BF46"/>
       <c r="BG46" s="47"/>
     </row>
-    <row r="47" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:59" s="15" customFormat="1">
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47" s="60"/>
@@ -6918,7 +6888,7 @@
       <c r="BF47" s="72"/>
       <c r="BG47" s="47"/>
     </row>
-    <row r="48" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" s="15" customFormat="1">
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" s="60"/>
@@ -7003,7 +6973,7 @@
       </c>
       <c r="BG48" s="47"/>
     </row>
-    <row r="49" spans="1:59" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:59" s="56" customFormat="1">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -7030,7 +7000,7 @@
       <c r="BC49" s="82"/>
       <c r="BD49" s="58"/>
     </row>
-    <row r="50" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:59" s="15" customFormat="1">
       <c r="E50" s="56"/>
       <c r="J50" s="56"/>
       <c r="K50" s="15" t="s">
@@ -7116,7 +7086,7 @@
       <c r="BD50" s="19"/>
       <c r="BG50" s="47"/>
     </row>
-    <row r="51" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:59" s="15" customFormat="1">
       <c r="E51" s="56"/>
       <c r="J51" s="56"/>
       <c r="R51" s="56"/>
@@ -7156,7 +7126,7 @@
       <c r="BF51" s="72"/>
       <c r="BG51" s="47"/>
     </row>
-    <row r="52" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:59" s="15" customFormat="1">
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52" s="60"/>
@@ -7241,7 +7211,7 @@
       </c>
       <c r="BG52" s="47"/>
     </row>
-    <row r="53" spans="1:59" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:59" s="56" customFormat="1">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -7268,7 +7238,7 @@
       <c r="BC53" s="82"/>
       <c r="BD53" s="58"/>
     </row>
-    <row r="54" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:59" s="15" customFormat="1">
       <c r="E54" s="56"/>
       <c r="J54" s="56"/>
       <c r="K54" s="15" t="s">
@@ -7351,7 +7321,7 @@
       <c r="BD54" s="19"/>
       <c r="BG54" s="47"/>
     </row>
-    <row r="55" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:59" s="15" customFormat="1">
       <c r="E55" s="56"/>
       <c r="J55" s="56"/>
       <c r="R55" s="56"/>
@@ -7394,7 +7364,7 @@
       <c r="BF55" s="72"/>
       <c r="BG55" s="47"/>
     </row>
-    <row r="56" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:59" s="15" customFormat="1">
       <c r="D56" s="41"/>
       <c r="E56" s="56"/>
       <c r="J56" s="56"/>
@@ -7471,7 +7441,7 @@
       </c>
       <c r="BG56" s="47"/>
     </row>
-    <row r="57" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:59" s="15" customFormat="1">
       <c r="E57" s="56"/>
       <c r="J57" s="56"/>
       <c r="R57" s="56"/>
@@ -7496,7 +7466,7 @@
       <c r="BD57" s="19"/>
       <c r="BG57" s="47"/>
     </row>
-    <row r="58" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:59" s="15" customFormat="1">
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58" s="60"/>
@@ -7561,7 +7531,7 @@
       <c r="BF58"/>
       <c r="BG58" s="47"/>
     </row>
-    <row r="59" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:59" s="15" customFormat="1">
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59" s="60"/>
@@ -7620,7 +7590,7 @@
       <c r="BF59" s="72"/>
       <c r="BG59" s="47"/>
     </row>
-    <row r="60" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:59" s="15" customFormat="1">
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60" s="60"/>
@@ -7705,7 +7675,7 @@
       </c>
       <c r="BG60" s="47"/>
     </row>
-    <row r="61" spans="1:59" s="61" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:59" s="61" customFormat="1" ht="12" customHeight="1">
       <c r="AN61" s="62"/>
       <c r="AO61" s="63"/>
       <c r="AP61" s="63"/>
@@ -7724,7 +7694,7 @@
       <c r="BC61" s="77"/>
       <c r="BD61" s="64"/>
     </row>
-    <row r="62" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:59" s="15" customFormat="1">
       <c r="C62" s="41"/>
       <c r="D62" s="41" t="s">
         <v>115</v>
@@ -7833,7 +7803,7 @@
       <c r="BF62" s="18"/>
       <c r="BG62" s="47"/>
     </row>
-    <row r="63" spans="1:59" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:59" s="47" customFormat="1">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="41"/>
@@ -7893,7 +7863,7 @@
       <c r="BE63" s="72"/>
       <c r="BF63" s="72"/>
     </row>
-    <row r="64" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:59" s="15" customFormat="1">
       <c r="E64" s="56"/>
       <c r="J64" s="56"/>
       <c r="R64" s="56"/>
@@ -7969,7 +7939,7 @@
       </c>
       <c r="BG64" s="47"/>
     </row>
-    <row r="65" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:59" s="15" customFormat="1">
       <c r="E65" s="56"/>
       <c r="J65" s="56"/>
       <c r="R65" s="56"/>
@@ -7995,7 +7965,7 @@
       <c r="BD65" s="19"/>
       <c r="BG65" s="47"/>
     </row>
-    <row r="66" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:59">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="Z66" s="45"/>
@@ -8009,7 +7979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:59" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:59" s="47" customFormat="1">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -8069,7 +8039,7 @@
       <c r="BE67" s="72"/>
       <c r="BF67" s="72"/>
     </row>
-    <row r="68" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:59" s="15" customFormat="1">
       <c r="E68" s="56"/>
       <c r="J68" s="56"/>
       <c r="R68" s="56"/>
@@ -8135,7 +8105,7 @@
       </c>
       <c r="BG68" s="47"/>
     </row>
-    <row r="69" spans="1:59" s="61" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:59" s="61" customFormat="1" ht="12" customHeight="1">
       <c r="AN69" s="62"/>
       <c r="AO69" s="63"/>
       <c r="AP69" s="63"/>
@@ -8154,7 +8124,7 @@
       <c r="BC69" s="77"/>
       <c r="BD69" s="64"/>
     </row>
-    <row r="70" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:59" s="15" customFormat="1">
       <c r="C70" s="41"/>
       <c r="D70" s="41" t="s">
         <v>118</v>
@@ -8263,7 +8233,7 @@
       <c r="BF70" s="18"/>
       <c r="BG70" s="47"/>
     </row>
-    <row r="71" spans="1:59" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:59" s="47" customFormat="1">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="41"/>
@@ -8325,7 +8295,7 @@
       <c r="BE71" s="72"/>
       <c r="BF71" s="72"/>
     </row>
-    <row r="72" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:59" s="15" customFormat="1">
       <c r="E72" s="56"/>
       <c r="J72" s="56"/>
       <c r="R72" s="56"/>
@@ -8401,7 +8371,7 @@
       </c>
       <c r="BG72" s="47"/>
     </row>
-    <row r="73" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:59" s="15" customFormat="1">
       <c r="E73" s="56"/>
       <c r="J73" s="56"/>
       <c r="R73" s="56"/>
@@ -8427,7 +8397,7 @@
       <c r="BD73" s="19"/>
       <c r="BG73" s="47"/>
     </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:59">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="Z74" s="45"/>
@@ -8441,7 +8411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:59" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:59" s="47" customFormat="1">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -8501,7 +8471,7 @@
       <c r="BE75" s="72"/>
       <c r="BF75" s="72"/>
     </row>
-    <row r="76" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:59" s="15" customFormat="1">
       <c r="E76" s="56"/>
       <c r="J76" s="56"/>
       <c r="R76" s="56"/>
@@ -8567,7 +8537,7 @@
       </c>
       <c r="BG76" s="47"/>
     </row>
-    <row r="77" spans="1:59" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:59" s="65" customFormat="1">
       <c r="AN77" s="66"/>
       <c r="AO77" s="66"/>
       <c r="AP77" s="66"/>
@@ -8586,7 +8556,7 @@
       <c r="BC77" s="83"/>
       <c r="BD77" s="67"/>
     </row>
-    <row r="78" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:59" s="15" customFormat="1">
       <c r="D78" s="15" t="s">
         <v>122</v>
       </c>
@@ -8670,7 +8640,7 @@
       </c>
       <c r="BG78" s="47"/>
     </row>
-    <row r="79" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:59" s="15" customFormat="1">
       <c r="E79" s="56"/>
       <c r="F79" s="15" t="s">
         <v>127</v>
@@ -8710,7 +8680,7 @@
       </c>
       <c r="BG79" s="47"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -8767,7 +8737,7 @@
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC15:XFD15 BG14:XFD14 AO15:AT15 B15:AB15 B14:Y14 AD15:AM15">
+  <conditionalFormatting sqref="BC15:XFD15 BG14:XFD14 AO15:AT15 B14:Y14 AD15:AM15 B15:AB15">
     <cfRule type="cellIs" dxfId="155" priority="172" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -9521,14 +9491,14 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
         <v>128</v>
@@ -9543,7 +9513,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>128</v>
       </c>
@@ -9558,7 +9528,7 @@
       </c>
       <c r="Q3" s="28"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="B4" t="s">
         <v>135</v>
       </c>
@@ -9569,7 +9539,7 @@
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="B5" t="s">
         <v>136</v>
       </c>
@@ -9580,7 +9550,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="B6" t="s">
         <v>137</v>
       </c>
@@ -9591,7 +9561,7 @@
       </c>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="B7" t="s">
         <v>138</v>
       </c>
@@ -9599,27 +9569,27 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="T8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="T9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="T10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="T11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
@@ -9627,12 +9597,12 @@
       </c>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="T13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
@@ -9640,22 +9610,22 @@
       </c>
       <c r="T14" s="31"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="T15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="T16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:20">
       <c r="T17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:20">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
         <v>148</v>
@@ -9663,7 +9633,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
     </row>
-    <row r="19" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:20">
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
@@ -9671,78 +9641,78 @@
       </c>
       <c r="T19" s="31"/>
     </row>
-    <row r="20" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:20">
       <c r="T20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:20">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:20">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:20">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:20">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:20">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:20">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:20">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:20">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:20">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:20">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:20">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:20">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
         <v>159</v>
@@ -9750,7 +9720,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
     </row>
-    <row r="33" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="17:20">
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
@@ -9758,13 +9728,13 @@
       </c>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="17:20">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="17:20">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
@@ -9772,13 +9742,13 @@
       </c>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="17:20">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="17:20">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
         <v>163</v>
@@ -9786,7 +9756,7 @@
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
     </row>
-    <row r="38" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="17:20">
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
@@ -9794,13 +9764,13 @@
       </c>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="17:20">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="17:20">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
@@ -9808,7 +9778,7 @@
       </c>
       <c r="T40" s="31"/>
     </row>
-    <row r="41" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="17:20">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
         <v>166</v>
@@ -9828,7 +9798,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.7109375" customWidth="1"/>
@@ -9841,7 +9811,7 @@
     <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -9855,7 +9825,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -9881,7 +9851,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>169</v>
       </c>
@@ -9907,7 +9877,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="E4" t="s">
         <v>78</v>
       </c>
@@ -9921,7 +9891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -9938,7 +9908,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>172</v>
       </c>
@@ -9958,7 +9928,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -9969,7 +9939,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -9995,7 +9965,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>175</v>
       </c>
@@ -10006,7 +9976,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -10017,7 +9987,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>177</v>
       </c>
@@ -10025,7 +9995,7 @@
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -10052,7 +10022,7 @@
       </c>
       <c r="J12" s="45"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>180</v>
       </c>
@@ -10060,22 +10030,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="42" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>184</v>
       </c>
@@ -10095,7 +10065,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>184</v>
       </c>
@@ -10129,14 +10099,14 @@
       <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>132</v>
       </c>
@@ -10153,7 +10123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -10167,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -10178,7 +10148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>86</v>
       </c>
@@ -10195,7 +10165,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -10209,7 +10179,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>189</v>
       </c>
@@ -10217,7 +10187,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>190</v>
       </c>
@@ -10225,7 +10195,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>191</v>
       </c>
@@ -10236,7 +10206,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="B10" s="3" t="s">
         <v>192</v>
       </c>
@@ -10261,7 +10231,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -10287,7 +10257,7 @@
     <col min="35" max="35" width="2.42578125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1">
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -10324,7 +10294,7 @@
       <c r="AH1" s="4"/>
       <c r="AI1" s="46"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="1" customFormat="1">
       <c r="C2" s="1" t="s">
         <v>194</v>
       </c>
@@ -10374,7 +10344,7 @@
       <c r="AH2" s="4"/>
       <c r="AI2" s="46"/>
     </row>
-    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -10470,7 +10440,7 @@
       </c>
       <c r="AI3" s="46"/>
     </row>
-    <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="15" customFormat="1">
       <c r="A4" s="15" t="s">
         <v>28</v>
       </c>
@@ -10542,7 +10512,7 @@
       <c r="AH4" s="18"/>
       <c r="AI4" s="47"/>
     </row>
-    <row r="5" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="47" customFormat="1">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="Q5" s="50"/>
@@ -10563,7 +10533,7 @@
       <c r="AG5" s="50"/>
       <c r="AH5" s="50"/>
     </row>
-    <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" s="15" customFormat="1">
       <c r="C6" s="15" t="s">
         <v>90</v>
       </c>
@@ -10623,7 +10593,7 @@
       <c r="AH6" s="18"/>
       <c r="AI6" s="47"/>
     </row>
-    <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" s="15" customFormat="1">
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
@@ -10652,7 +10622,7 @@
       <c r="AD7" s="50"/>
       <c r="AI7" s="47"/>
     </row>
-    <row r="8" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" s="47" customFormat="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="Q8" s="50"/>
@@ -10669,7 +10639,7 @@
       <c r="AC8" s="50"/>
       <c r="AD8" s="50"/>
     </row>
-    <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" s="15" customFormat="1">
       <c r="C9" s="15" t="s">
         <v>199</v>
       </c>
@@ -10737,7 +10707,7 @@
       </c>
       <c r="AI9" s="47"/>
     </row>
-    <row r="10" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" s="15" customFormat="1">
       <c r="V10" s="47"/>
       <c r="W10" s="15" t="s">
         <v>38</v>
@@ -10755,7 +10725,7 @@
       <c r="AD10" s="50"/>
       <c r="AI10" s="47"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="W11" s="15" t="s">
         <v>37</v>
       </c>
@@ -10766,7 +10736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="15" customFormat="1">
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
@@ -10782,7 +10752,7 @@
       <c r="AD12" s="50"/>
       <c r="AI12" s="47"/>
     </row>
-    <row r="13" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" s="15" customFormat="1">
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
@@ -10798,7 +10768,7 @@
       <c r="AD13" s="50"/>
       <c r="AI13" s="47"/>
     </row>
-    <row r="14" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" s="56" customFormat="1">
       <c r="Q14" s="57"/>
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
@@ -10813,7 +10783,7 @@
       <c r="AC14" s="57"/>
       <c r="AD14" s="57"/>
     </row>
-    <row r="15" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" s="15" customFormat="1">
       <c r="A15" s="15" t="s">
         <v>28</v>
       </c>
@@ -10899,7 +10869,7 @@
       </c>
       <c r="AI15" s="47"/>
     </row>
-    <row r="16" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" s="15" customFormat="1">
       <c r="C16" s="15" t="s">
         <v>109</v>
       </c>
@@ -10961,7 +10931,7 @@
       </c>
       <c r="AI16" s="47"/>
     </row>
-    <row r="17" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" s="15" customFormat="1">
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
@@ -10990,7 +10960,7 @@
       <c r="AD17" s="50"/>
       <c r="AI17" s="47"/>
     </row>
-    <row r="18" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" s="15" customFormat="1">
       <c r="C18" s="15" t="s">
         <v>202</v>
       </c>
@@ -11040,7 +11010,7 @@
       <c r="AD18" s="50"/>
       <c r="AI18" s="47"/>
     </row>
-    <row r="19" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" s="15" customFormat="1">
       <c r="V19" s="47"/>
       <c r="W19" s="15" t="s">
         <v>38</v>
@@ -11058,7 +11028,7 @@
       <c r="AD19" s="50"/>
       <c r="AI19" s="47"/>
     </row>
-    <row r="20" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" s="15" customFormat="1">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -11100,7 +11070,7 @@
       <c r="AH20"/>
       <c r="AI20" s="47"/>
     </row>
-    <row r="21" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" s="15" customFormat="1">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
@@ -11154,7 +11124,7 @@
       <c r="AH21"/>
       <c r="AI21" s="47"/>
     </row>
-    <row r="22" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" s="15" customFormat="1">
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
@@ -11170,7 +11140,7 @@
       <c r="AD22" s="50"/>
       <c r="AI22" s="47"/>
     </row>
-    <row r="23" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" s="15" customFormat="1">
       <c r="C23" s="15" t="s">
         <v>124</v>
       </c>
@@ -11246,7 +11216,7 @@
       </c>
       <c r="AI23" s="47"/>
     </row>
-    <row r="24" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" s="15" customFormat="1">
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
@@ -11284,7 +11254,7 @@
       </c>
       <c r="AI24" s="47"/>
     </row>
-    <row r="25" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" s="15" customFormat="1">
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
@@ -11300,7 +11270,7 @@
       <c r="AD25" s="50"/>
       <c r="AI25" s="47"/>
     </row>
-    <row r="26" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" s="15" customFormat="1">
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
@@ -11316,7 +11286,7 @@
       <c r="AD26" s="50"/>
       <c r="AI26" s="47"/>
     </row>
-    <row r="27" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" s="15" customFormat="1">
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
@@ -11332,7 +11302,7 @@
       <c r="AD27" s="50"/>
       <c r="AI27" s="47"/>
     </row>
-    <row r="28" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" s="15" customFormat="1">
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
@@ -11348,7 +11318,7 @@
       <c r="AD28" s="50"/>
       <c r="AI28" s="47"/>
     </row>
-    <row r="29" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" s="15" customFormat="1">
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
@@ -11364,7 +11334,7 @@
       <c r="AD29" s="50"/>
       <c r="AI29" s="47"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1"/>
     </row>
   </sheetData>
@@ -11416,14 +11386,14 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>132</v>
       </c>
@@ -11449,7 +11419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -11469,7 +11439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="C4" t="s">
         <v>90</v>
       </c>
@@ -11480,7 +11450,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="C5" t="s">
         <v>199</v>
       </c>
@@ -11497,7 +11467,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="D6">
         <v>1</v>
       </c>
@@ -11508,7 +11478,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="D7">
         <v>4</v>
       </c>
@@ -11519,7 +11489,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="D8">
         <v>52</v>
       </c>
@@ -11531,7 +11501,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="D9">
         <v>208</v>
       </c>
@@ -11542,7 +11512,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>132</v>
       </c>
@@ -11562,7 +11532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -11585,7 +11555,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="C14" t="s">
         <v>90</v>
       </c>
@@ -11599,7 +11569,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="C15" t="s">
         <v>106</v>
       </c>
@@ -11613,7 +11583,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="C16" t="s">
         <v>102</v>
       </c>
@@ -11640,14 +11610,14 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -11655,7 +11625,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
@@ -11667,7 +11637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="32" t="s">
         <v>211</v>
       </c>
@@ -11681,7 +11651,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="32" t="s">
         <v>211</v>
       </c>
@@ -11695,7 +11665,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
         <v>211</v>
       </c>
@@ -11709,7 +11679,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="32" t="s">
         <v>211</v>
       </c>
@@ -11723,7 +11693,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="32" t="s">
         <v>211</v>
       </c>
@@ -11737,7 +11707,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="32" t="s">
         <v>211</v>
       </c>
@@ -11751,7 +11721,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="32" t="s">
         <v>211</v>
       </c>
@@ -11765,7 +11735,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="32" t="s">
         <v>211</v>
       </c>
@@ -11779,7 +11749,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="32" t="s">
         <v>211</v>
       </c>
@@ -11793,7 +11763,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="32" t="s">
         <v>211</v>
       </c>
@@ -11807,7 +11777,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="32" t="s">
         <v>211</v>
       </c>
@@ -11821,7 +11791,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="32" t="s">
         <v>211</v>
       </c>
@@ -11835,7 +11805,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="32" t="s">
         <v>211</v>
       </c>
@@ -11849,7 +11819,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="33" t="s">
         <v>226</v>
       </c>
@@ -11863,7 +11833,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="33" t="s">
         <v>226</v>
       </c>
@@ -11877,7 +11847,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="32" t="s">
         <v>211</v>
       </c>
@@ -11891,7 +11861,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32" t="e">
@@ -11899,7 +11869,7 @@
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35" t="e">
@@ -11907,7 +11877,7 @@
       </c>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="32" t="s">
         <v>229</v>
       </c>
@@ -11921,7 +11891,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="33" t="s">
         <v>229</v>
       </c>
@@ -11935,7 +11905,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="32" t="s">
         <v>229</v>
       </c>
@@ -11949,7 +11919,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="33" t="s">
         <v>229</v>
       </c>
@@ -11963,7 +11933,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="32" t="s">
         <v>229</v>
       </c>
@@ -11977,7 +11947,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35" t="e">
@@ -11985,7 +11955,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="32" t="s">
         <v>236</v>
       </c>
@@ -11999,7 +11969,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="33" t="s">
         <v>236</v>
       </c>
@@ -12013,7 +11983,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="32" t="s">
         <v>236</v>
       </c>
@@ -12027,7 +11997,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="33" t="s">
         <v>240</v>
       </c>
@@ -12041,7 +12011,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="32" t="s">
         <v>240</v>
       </c>
@@ -12055,7 +12025,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="33" t="s">
         <v>241</v>
       </c>
@@ -12069,7 +12039,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35" t="e">
@@ -12077,7 +12047,7 @@
       </c>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="33" t="s">
         <v>243</v>
       </c>
@@ -12091,7 +12061,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="32" t="s">
         <v>243</v>
       </c>
@@ -12105,7 +12075,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="33" t="s">
         <v>243</v>
       </c>
@@ -12119,7 +12089,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="32" t="s">
         <v>247</v>
       </c>
@@ -12133,7 +12103,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="33" t="s">
         <v>247</v>
       </c>
@@ -12147,7 +12117,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37" t="e">
@@ -12155,7 +12125,7 @@
       </c>
       <c r="D40" s="38"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35" t="e">
@@ -12163,7 +12133,7 @@
       </c>
       <c r="D41" s="35"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="32" t="s">
         <v>248</v>
       </c>
@@ -12177,7 +12147,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35" t="e">
@@ -12185,7 +12155,7 @@
       </c>
       <c r="D43" s="35"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="32" t="s">
         <v>249</v>
       </c>
@@ -12199,7 +12169,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="33" t="s">
         <v>249</v>
       </c>
@@ -12213,7 +12183,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="32" t="s">
         <v>251</v>
       </c>
@@ -12227,7 +12197,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="33" t="s">
         <v>251</v>
       </c>
@@ -12241,7 +12211,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="32" t="s">
         <v>251</v>
       </c>
@@ -12255,7 +12225,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="33" t="s">
         <v>254</v>
       </c>
@@ -12269,7 +12239,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="32" t="s">
         <v>254</v>
       </c>
@@ -12283,7 +12253,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="33" t="s">
         <v>254</v>
       </c>
@@ -12297,7 +12267,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="32" t="s">
         <v>254</v>
       </c>
@@ -12311,7 +12281,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="33" t="s">
         <v>254</v>
       </c>
@@ -12325,7 +12295,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="32" t="s">
         <v>256</v>
       </c>
@@ -12339,7 +12309,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="33" t="s">
         <v>256</v>
       </c>
@@ -12353,7 +12323,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="32" t="s">
         <v>256</v>
       </c>
@@ -12367,7 +12337,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="33" t="s">
         <v>256</v>
       </c>
@@ -12381,7 +12351,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="32" t="s">
         <v>257</v>
       </c>
@@ -12395,7 +12365,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="33" t="s">
         <v>257</v>
       </c>
@@ -12409,7 +12379,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="35" t="e">
@@ -12417,7 +12387,7 @@
       </c>
       <c r="D60" s="35"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="33" t="s">
         <v>258</v>
       </c>
@@ -12431,7 +12401,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="32" t="s">
         <v>258</v>
       </c>
@@ -12445,7 +12415,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="33" t="s">
         <v>259</v>
       </c>
@@ -12459,7 +12429,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="32" t="s">
         <v>259</v>
       </c>
@@ -12473,7 +12443,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="33" t="s">
         <v>259</v>
       </c>
@@ -12487,7 +12457,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="32" t="s">
         <v>259</v>
       </c>
@@ -12501,7 +12471,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="37"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37" t="e">
@@ -12509,7 +12479,7 @@
       </c>
       <c r="D67" s="38"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="35"/>
       <c r="B68" s="35"/>
       <c r="C68" s="35" t="e">
@@ -12517,7 +12487,7 @@
       </c>
       <c r="D68" s="35"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="33" t="s">
         <v>260</v>
       </c>
@@ -12531,7 +12501,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="32" t="s">
         <v>261</v>
       </c>
@@ -12545,7 +12515,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="33" t="s">
         <v>261</v>
       </c>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1800" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{04162D26-6D60-410B-81A1-CE984D0E171F}"/>
+  <xr:revisionPtr revIDLastSave="1801" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1383ADD4-AFD1-4146-B9B8-60D433BBF367}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="332">
   <si>
     <t>Cause</t>
   </si>
@@ -3664,8 +3664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AX84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4127,9 +4127,6 @@
       <c r="O6" s="97"/>
       <c r="P6" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="U6" s="97"/>
       <c r="W6" s="45"/>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1801" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1383ADD4-AFD1-4146-B9B8-60D433BBF367}"/>
+  <xr:revisionPtr revIDLastSave="1803" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D000E2C2-B1CF-4A86-853C-AB9C3B0AF4D1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3664,8 +3664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AX84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1803" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D000E2C2-B1CF-4A86-853C-AB9C3B0AF4D1}"/>
+  <xr:revisionPtr revIDLastSave="1812" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E55C2941-B1A1-4FBF-ADD8-29491A70EB0B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="333">
   <si>
     <t>Cause</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>lean_angle</t>
+  </si>
+  <si>
+    <t>**Add condition to indicator**</t>
   </si>
   <si>
     <t>CAT1/2 replacement</t>
@@ -2790,134 +2793,134 @@
   <sheetData>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="O12" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="F13" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="F14" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="F15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="F16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q16" t="s">
         <v>103</v>
       </c>
       <c r="S16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="F17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="O18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="F20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="D31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -2929,13 +2932,13 @@
         <v>90</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>102</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>96</v>
@@ -2943,27 +2946,27 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K33" t="s">
         <v>51</v>
       </c>
       <c r="R33" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2971,13 +2974,13 @@
     </row>
     <row r="34" spans="2:19">
       <c r="C34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K34" t="s">
         <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S34">
         <v>0.5</v>
@@ -2985,16 +2988,16 @@
     </row>
     <row r="35" spans="2:19">
       <c r="C35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R35" t="s">
         <v>103</v>
@@ -3005,13 +3008,13 @@
     </row>
     <row r="36" spans="2:19">
       <c r="D36" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R36" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -3027,10 +3030,10 @@
     </row>
     <row r="38" spans="2:19">
       <c r="C38" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
@@ -3038,13 +3041,13 @@
     </row>
     <row r="39" spans="2:19">
       <c r="C39" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E39" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:19">
@@ -3064,29 +3067,29 @@
     </row>
     <row r="52" spans="1:12">
       <c r="H52" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="E54" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -3120,17 +3123,17 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="F59" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="B60" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E60" t="s">
         <v>102</v>
@@ -3138,58 +3141,58 @@
     </row>
     <row r="61" spans="1:12">
       <c r="E61" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="E62" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B70">
         <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B71">
         <v>12.5</v>
       </c>
       <c r="C71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3221,48 +3224,48 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" t="s">
+        <v>317</v>
+      </c>
+      <c r="I4" t="s">
+        <v>315</v>
+      </c>
+      <c r="J4" t="s">
         <v>316</v>
       </c>
-      <c r="I4" t="s">
-        <v>314</v>
-      </c>
-      <c r="J4" t="s">
-        <v>315</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -3272,18 +3275,18 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R5" s="41" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="H6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I6">
         <f>I5/4</f>
@@ -3295,51 +3298,51 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="H8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="R8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
@@ -3347,7 +3350,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="H10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
@@ -3355,12 +3358,12 @@
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="B12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I12" s="9">
         <v>3.7</v>
@@ -3372,20 +3375,20 @@
     </row>
     <row r="16" spans="1:19">
       <c r="J16" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="10:10">
       <c r="J19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="1048576" spans="15:15">
       <c r="O1048576" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3664,8 +3667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AX84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4515,6 +4518,9 @@
     <row r="13" spans="1:50">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
       <c r="AO13" s="82"/>
       <c r="AP13" s="80"/>
       <c r="AQ13" s="120"/>
@@ -4577,7 +4583,7 @@
       <c r="O15" s="97"/>
       <c r="U15" s="97"/>
       <c r="V15" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W15" s="15">
         <v>1</v>
@@ -4663,7 +4669,7 @@
       <c r="D17" s="97"/>
       <c r="H17" s="97"/>
       <c r="I17" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J17" s="45">
         <v>50</v>
@@ -4999,7 +5005,7 @@
       <c r="T23"/>
       <c r="U23" s="98"/>
       <c r="V23" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W23" s="15">
         <v>1</v>
@@ -5085,7 +5091,7 @@
       <c r="D25" s="97"/>
       <c r="H25" s="97"/>
       <c r="I25" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J25" s="45">
         <v>10</v>
@@ -5209,7 +5215,7 @@
       <c r="O27" s="97"/>
       <c r="U27" s="97"/>
       <c r="V27" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W27" s="45">
         <v>0.9</v>
@@ -5549,7 +5555,7 @@
       <c r="T34"/>
       <c r="U34" s="98"/>
       <c r="V34" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W34" s="15">
         <v>1</v>
@@ -5635,7 +5641,7 @@
       <c r="D36" s="97"/>
       <c r="H36" s="97"/>
       <c r="I36" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J36" s="41">
         <v>50</v>
@@ -5685,7 +5691,7 @@
         <v>81</v>
       </c>
       <c r="AF36" s="97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ36" s="18" t="b">
         <v>1</v>
@@ -5695,7 +5701,7 @@
       <c r="AM36" s="18"/>
       <c r="AN36" s="109"/>
       <c r="AO36" s="84" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AP36" s="19" t="b">
         <v>1</v>
@@ -5793,7 +5799,7 @@
       <c r="AM38" s="18"/>
       <c r="AN38" s="109"/>
       <c r="AO38" s="84" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AP38" s="19" t="b">
         <v>1</v>
@@ -5865,7 +5871,7 @@
       <c r="T40"/>
       <c r="U40" s="98"/>
       <c r="V40" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W40" s="15">
         <v>1</v>
@@ -5997,7 +6003,7 @@
         <v>81</v>
       </c>
       <c r="AF42" s="97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ42" s="18" t="b">
         <v>1</v>
@@ -6286,7 +6292,7 @@
       <c r="T48"/>
       <c r="U48" s="98"/>
       <c r="V48" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W48" s="15">
         <v>1</v>
@@ -6372,7 +6378,7 @@
       <c r="D50" s="97"/>
       <c r="H50" s="97"/>
       <c r="I50" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J50" s="41">
         <v>50</v>
@@ -6418,7 +6424,7 @@
         <v>81</v>
       </c>
       <c r="AF50" s="97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ50" s="18" t="b">
         <v>1</v>
@@ -6504,7 +6510,7 @@
       <c r="T52"/>
       <c r="U52" s="98"/>
       <c r="V52" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W52" s="15">
         <v>1</v>
@@ -6590,7 +6596,7 @@
       <c r="D54" s="97"/>
       <c r="H54" s="97"/>
       <c r="I54" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J54" s="41">
         <v>50</v>
@@ -6922,7 +6928,7 @@
       <c r="T60"/>
       <c r="U60" s="98"/>
       <c r="V60" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W60" s="15">
         <v>1</v>
@@ -7001,10 +7007,10 @@
     <row r="62" spans="1:50" s="15" customFormat="1">
       <c r="C62" s="41"/>
       <c r="D62" s="99" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
         <v>98</v>
@@ -7016,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J62" s="41">
         <v>50</v>
@@ -7318,7 +7324,7 @@
       <c r="O68" s="97"/>
       <c r="U68" s="97"/>
       <c r="V68" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W68" s="15">
         <v>1</v>
@@ -7397,10 +7403,10 @@
     <row r="70" spans="1:50" s="15" customFormat="1">
       <c r="C70" s="41"/>
       <c r="D70" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E70" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F70" t="s">
         <v>98</v>
@@ -7412,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J70" s="41">
         <v>50</v>
@@ -7555,7 +7561,7 @@
       <c r="O72" s="97"/>
       <c r="U72" s="97"/>
       <c r="V72" s="45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W72" s="15">
         <v>1</v>
@@ -7716,7 +7722,7 @@
       <c r="O76" s="97"/>
       <c r="U76" s="97"/>
       <c r="V76" s="45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="W76" s="15">
         <v>1</v>
@@ -7794,14 +7800,14 @@
     </row>
     <row r="78" spans="1:50" s="15" customFormat="1">
       <c r="D78" s="97" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H78" s="97"/>
       <c r="I78" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J78" s="15">
         <v>10</v>
@@ -7822,11 +7828,11 @@
         <v>10</v>
       </c>
       <c r="P78" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U78" s="97"/>
       <c r="V78" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W78" s="15">
         <v>0.9</v>
@@ -7838,7 +7844,7 @@
         <v>2</v>
       </c>
       <c r="Z78" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA78" s="15" t="s">
         <v>91</v>
@@ -7847,7 +7853,7 @@
         <v>6</v>
       </c>
       <c r="AF78" s="97" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG78" s="15" t="s">
         <v>84</v>
@@ -7890,13 +7896,13 @@
         <v>50</v>
       </c>
       <c r="AW78" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:50" s="15" customFormat="1">
       <c r="D79" s="97"/>
       <c r="E79" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H79" s="97"/>
       <c r="O79" s="97"/>
@@ -7926,7 +7932,7 @@
         <v>50</v>
       </c>
       <c r="AW79" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="2:8">
@@ -8413,39 +8419,39 @@
     <row r="2" spans="1:20">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:20">
       <c r="B4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -8453,7 +8459,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="B5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="30" t="s">
@@ -8464,7 +8470,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="B6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
@@ -8475,72 +8481,72 @@
     </row>
     <row r="7" spans="1:20">
       <c r="B7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="T8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="T9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="T10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="T11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20">
       <c r="T13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20">
       <c r="T15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="T16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="17:20">
       <c r="T17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="17:20">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -8549,85 +8555,85 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T19" s="31"/>
     </row>
     <row r="20" spans="17:20">
       <c r="T20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="17:20">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="17:20">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="17:20">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="17:20">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="17:20">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="17:20">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="17:20">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="17:20">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="17:20">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="17:20">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="17:20">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="17:20">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -8636,34 +8642,34 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T33" s="31"/>
     </row>
     <row r="34" spans="17:20">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="17:20">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T35" s="31"/>
     </row>
     <row r="36" spans="17:20">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="17:20">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -8672,28 +8678,28 @@
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T38" s="31"/>
     </row>
     <row r="39" spans="17:20">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="17:20">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="T40" s="31"/>
     </row>
     <row r="41" spans="17:20">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -8734,7 +8740,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8760,12 +8766,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -8805,7 +8811,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
         <v>98</v>
@@ -8817,12 +8823,12 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -8837,12 +8843,12 @@
         <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
         <v>98</v>
@@ -8853,7 +8859,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -8879,7 +8885,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
         <v>78</v>
@@ -8890,7 +8896,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
         <v>78</v>
@@ -8901,7 +8907,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -8909,7 +8915,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -8930,13 +8936,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -8944,22 +8950,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -8974,12 +8980,12 @@
         <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -8994,7 +9000,7 @@
         <v>98</v>
       </c>
       <c r="H20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -9020,10 +9026,10 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -9037,7 +9043,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -9065,7 +9071,7 @@
         <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9074,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9088,31 +9094,31 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
         <v>98</v>
@@ -9120,7 +9126,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -9183,7 +9189,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
@@ -9195,7 +9201,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="52"/>
       <c r="AA1" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
@@ -9208,7 +9214,7 @@
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1">
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -9249,7 +9255,7 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="49"/>
       <c r="AE2" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
@@ -9264,7 +9270,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>57</v>
@@ -9319,7 +9325,7 @@
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>26</v>
@@ -9339,7 +9345,7 @@
       </c>
       <c r="AD3" s="49"/>
       <c r="AE3" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>75</v>
@@ -9357,7 +9363,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>79</v>
@@ -9384,7 +9390,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>82</v>
@@ -9402,10 +9408,10 @@
         <v>1</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
@@ -9553,7 +9559,7 @@
     </row>
     <row r="9" spans="1:35" s="15" customFormat="1">
       <c r="C9" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E9" s="15">
         <v>1</v>
@@ -9700,7 +9706,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>79</v>
@@ -9712,7 +9718,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>79</v>
@@ -9739,51 +9745,51 @@
         <v>1</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="50"/>
       <c r="W15" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z15" s="50"/>
       <c r="AA15" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AD15" s="50"/>
       <c r="AE15" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AI15" s="47"/>
     </row>
     <row r="16" spans="1:35" s="15" customFormat="1">
       <c r="C16" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" s="15">
         <v>0.9</v>
@@ -9830,16 +9836,16 @@
       </c>
       <c r="AD16" s="50"/>
       <c r="AE16" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AI16" s="47"/>
     </row>
@@ -9874,7 +9880,7 @@
     </row>
     <row r="18" spans="1:35" s="15" customFormat="1">
       <c r="C18" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -9986,7 +9992,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -10001,33 +10007,33 @@
         <v>102</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S21" s="15" t="b">
         <v>1</v>
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z21" s="47"/>
       <c r="AA21" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB21" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AD21" s="47"/>
       <c r="AE21"/>
@@ -10054,7 +10060,7 @@
     </row>
     <row r="23" spans="1:35" s="15" customFormat="1">
       <c r="C23" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E23" s="15">
         <v>0.9</v>
@@ -10066,13 +10072,13 @@
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>84</v>
@@ -10108,13 +10114,13 @@
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AD23" s="50"/>
       <c r="AE23" s="16" t="s">
@@ -10124,7 +10130,7 @@
         <v>50</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AI23" s="47"/>
     </row>
@@ -10146,13 +10152,13 @@
       </c>
       <c r="Z24" s="53"/>
       <c r="AA24" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AD24" s="50"/>
       <c r="AE24" s="16" t="s">
@@ -10162,7 +10168,7 @@
         <v>50</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AI24" s="47"/>
     </row>
@@ -10307,19 +10313,19 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>58</v>
@@ -10333,16 +10339,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
         <v>94</v>
@@ -10356,7 +10362,7 @@
         <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
         <v>94</v>
@@ -10364,7 +10370,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="C5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -10376,7 +10382,7 @@
         <v>100000</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -10426,19 +10432,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>58</v>
@@ -10446,16 +10452,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E13" t="s">
         <v>94</v>
@@ -10464,7 +10470,7 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -10472,7 +10478,7 @@
         <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E14" t="s">
         <v>94</v>
@@ -10483,7 +10489,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="C15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -10551,226 +10557,226 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C4" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C5" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C6" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C7" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C8" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C9" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C10" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C11" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C12" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C13" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C14" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C15" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C16" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C17" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C18" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C19" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -10791,72 +10797,72 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C22" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C23" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C24" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C25" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C26" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -10869,86 +10875,86 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C28" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C29" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C30" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C31" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C32" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C33" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -10961,72 +10967,72 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C35" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C36" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C37" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C38" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C39" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -11047,16 +11053,16 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C42" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -11069,226 +11075,226 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C44" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C45" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="32" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C46" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C47" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="32" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C48" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C49" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C50" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C51" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C52" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C53" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C54" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C55" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C56" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C57" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C58" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C59" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -11301,86 +11307,86 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C61" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C62" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C63" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C64" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C65" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C66" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -11401,44 +11407,44 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="33" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C69" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="32" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C70" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C71" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1812" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E55C2941-B1A1-4FBF-ADD8-29491A70EB0B}"/>
+  <xr:revisionPtr revIDLastSave="1821" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{043A982F-59F3-4C0F-948F-5A844A25E38E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     125</t>
       </text>
     </comment>
-    <comment ref="AO5" authorId="1" shapeId="0" xr:uid="{C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}">
+    <comment ref="AM5" authorId="1" shapeId="0" xr:uid="{C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -89,7 +89,7 @@
     250 mm</t>
       </text>
     </comment>
-    <comment ref="AO8" authorId="3" shapeId="0" xr:uid="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
+    <comment ref="AM8" authorId="3" shapeId="0" xr:uid="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -97,7 +97,7 @@
     Confirm with Peter Couch / Greg Toms</t>
       </text>
     </comment>
-    <comment ref="AO13" authorId="4" shapeId="0" xr:uid="{87DFEB67-927C-442C-956F-66557C9248F0}">
+    <comment ref="AM13" authorId="4" shapeId="0" xr:uid="{87DFEB67-927C-442C-956F-66557C9248F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -105,7 +105,7 @@
     add safety factor back</t>
       </text>
     </comment>
-    <comment ref="V44" authorId="5" shapeId="0" xr:uid="{3531B4B9-52F1-48E1-BD1D-58D8097B8528}">
+    <comment ref="T44" authorId="5" shapeId="0" xr:uid="{3531B4B9-52F1-48E1-BD1D-58D8097B8528}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -139,7 +139,7 @@
     Break it out later</t>
       </text>
     </comment>
-    <comment ref="AB62" authorId="9" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+    <comment ref="Z62" authorId="9" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -148,7 +148,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="V64" authorId="10" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+    <comment ref="T64" authorId="10" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -164,7 +164,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="AB70" authorId="12" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+    <comment ref="Z70" authorId="12" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -173,7 +173,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="V72" authorId="13" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
+    <comment ref="T72" authorId="13" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="333">
   <si>
     <t>Cause</t>
   </si>
@@ -1721,56 +1721,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="98">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="91">
     <dxf>
       <fill>
         <patternFill>
@@ -2693,22 +2644,22 @@
   <threadedComment ref="G5" dT="2020-09-09T03:31:05.38" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{EDC7C1E7-87D8-4DCB-A596-9C8067A50A9A}">
     <text>125</text>
   </threadedComment>
-  <threadedComment ref="AO5" dT="2020-09-09T03:27:17.71" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}">
+  <threadedComment ref="AM5" dT="2020-09-09T03:27:17.71" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}">
     <text>20mm of wallthickness loss not detectable</text>
   </threadedComment>
   <threadedComment ref="G6" dT="2020-09-09T03:31:13.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{3FC98A93-1BD2-46CA-8439-5A569DD9E38A}">
     <text>250 mm</text>
   </threadedComment>
-  <threadedComment ref="AO8" dT="2020-09-09T03:33:43.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
+  <threadedComment ref="AM8" dT="2020-09-09T03:33:43.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
     <text>Confirm with Peter Couch / Greg Toms</text>
   </threadedComment>
-  <threadedComment ref="AO13" dT="2020-09-10T03:27:58.22" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{87DFEB67-927C-442C-956F-66557C9248F0}">
+  <threadedComment ref="AM13" dT="2020-09-10T03:27:58.22" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{87DFEB67-927C-442C-956F-66557C9248F0}">
     <text>add safety factor back</text>
   </threadedComment>
-  <threadedComment ref="V44" dT="2020-09-09T04:00:43.93" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{3531B4B9-52F1-48E1-BD1D-58D8097B8528}">
+  <threadedComment ref="T44" dT="2020-09-09T04:00:43.93" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{3531B4B9-52F1-48E1-BD1D-58D8097B8528}">
     <text>Peter Couch</text>
   </threadedComment>
-  <threadedComment ref="V44" dT="2020-09-09T04:01:40.43" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{047CA00E-8673-4182-9066-3B4CBB601E6F}" parentId="{3531B4B9-52F1-48E1-BD1D-58D8097B8528}">
+  <threadedComment ref="T44" dT="2020-09-09T04:01:40.43" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{047CA00E-8673-4182-9066-3B4CBB601E6F}" parentId="{3531B4B9-52F1-48E1-BD1D-58D8097B8528}">
     <text>probs delete</text>
   </threadedComment>
   <threadedComment ref="D56" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
@@ -2720,21 +2671,21 @@
   <threadedComment ref="I62" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F6470554-740D-4816-85E3-E23C5729D666}">
     <text>Break it out later</text>
   </threadedComment>
-  <threadedComment ref="AB62" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+  <threadedComment ref="Z62" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="V64" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+  <threadedComment ref="T64" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
     <text>Make this a repair task</text>
   </threadedComment>
   <threadedComment ref="D70" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="AB70" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+  <threadedComment ref="Z70" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="V72" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{65DC17AD-63E9-433B-A662-056382EECC79}">
+  <threadedComment ref="T72" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{65DC17AD-63E9-433B-A662-056382EECC79}">
     <text>Make this a repair task</text>
   </threadedComment>
   <threadedComment ref="E78" dT="2020-09-15T23:18:34.59" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
@@ -3665,10 +3616,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
-  <dimension ref="A1:AX84"/>
+  <dimension ref="A1:AV84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -3686,32 +3637,32 @@
     <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.85546875" style="98" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="26.5703125" customWidth="1"/>
-    <col min="21" max="21" width="26.5703125" style="98" customWidth="1"/>
-    <col min="22" max="22" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.5703125" style="98" customWidth="1"/>
-    <col min="33" max="33" width="12" hidden="1" customWidth="1"/>
-    <col min="34" max="35" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="36" max="39" width="9.140625" style="17"/>
-    <col min="40" max="40" width="9.140625" style="112"/>
-    <col min="41" max="41" width="17.85546875" style="88" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.42578125" style="123" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="9.140625" style="17"/>
-    <col min="46" max="46" width="9.140625" style="112"/>
-    <col min="47" max="47" width="17.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" style="20"/>
-    <col min="49" max="49" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="26.5703125" customWidth="1"/>
+    <col min="19" max="19" width="26.5703125" style="98" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.5703125" style="98" customWidth="1"/>
+    <col min="31" max="31" width="12" hidden="1" customWidth="1"/>
+    <col min="32" max="33" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="34" max="37" width="9.140625" style="17"/>
+    <col min="38" max="38" width="9.140625" style="112"/>
+    <col min="39" max="39" width="17.85546875" style="88" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" style="123" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.140625" style="17"/>
+    <col min="44" max="44" width="9.140625" style="112"/>
+    <col min="45" max="45" width="17.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.140625" style="20"/>
+    <col min="47" max="47" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="1" customFormat="1">
+    <row r="1" spans="1:48" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -3727,10 +3678,12 @@
       <c r="P1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="95"/>
-      <c r="V1" s="25" t="s">
+      <c r="S1" s="95"/>
+      <c r="T1" s="25" t="s">
         <v>42</v>
       </c>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
       <c r="W1" s="25"/>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
@@ -3738,33 +3691,31 @@
       <c r="AA1" s="25"/>
       <c r="AB1" s="25"/>
       <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="66" t="s">
+      <c r="AH1" s="66" t="s">
         <v>43</v>
       </c>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
       <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="106"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="115"/>
-      <c r="AR1" s="67" t="s">
+      <c r="AL1" s="106"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="115"/>
+      <c r="AP1" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="126"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="92"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-    </row>
-    <row r="2" spans="1:50" s="1" customFormat="1">
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="126"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+    </row>
+    <row r="2" spans="1:48" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
@@ -3788,54 +3739,54 @@
       <c r="P2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="95"/>
-      <c r="V2" s="25" t="s">
+      <c r="S2" s="95"/>
+      <c r="T2" s="25" t="s">
         <v>50</v>
       </c>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
       <c r="W2" s="25"/>
       <c r="X2" s="25"/>
       <c r="Y2" s="25"/>
       <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
+      <c r="AA2" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="AB2" s="25"/>
-      <c r="AC2" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="104" t="s">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="66" t="s">
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="66" t="s">
         <v>54</v>
       </c>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
       <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="106"/>
-      <c r="AO2" s="66" t="s">
+      <c r="AL2" s="106"/>
+      <c r="AM2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="115"/>
-      <c r="AR2" s="67" t="s">
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="126"/>
-      <c r="AU2" s="72" t="s">
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="126"/>
+      <c r="AS2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="92"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-    </row>
-    <row r="3" spans="1:50" s="1" customFormat="1">
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+    </row>
+    <row r="3" spans="1:48" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -3890,124 +3841,118 @@
       <c r="R3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="101" t="s">
-        <v>18</v>
+      <c r="T3" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="V3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z3" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE3" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG3" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH3" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK3" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL3" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM3" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="W3" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="X3" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA3" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB3" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC3" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD3" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE3" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF3" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG3" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH3" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI3" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ3" s="66" t="s">
+      <c r="AN3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO3" s="115" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP3" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="AK3" s="22" t="s">
+      <c r="AQ3" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="AL3" s="22" t="s">
+      <c r="AR3" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="AM3" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN3" s="107" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO3" s="66" t="s">
+      <c r="AS3" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="AP3" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ3" s="115" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR3" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS3" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT3" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU3" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV3" s="92" t="s">
+      <c r="AT3" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="AW3" s="67" t="s">
+      <c r="AU3" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="AX3" s="67" t="s">
+      <c r="AV3" s="67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:48" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="D4" s="96"/>
       <c r="H4" s="96"/>
       <c r="O4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="AF4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="AD4" s="96"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61"/>
       <c r="AJ4" s="61"/>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="108"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="62"/>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="61"/>
-      <c r="AS4" s="61"/>
-      <c r="AT4" s="127"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="62"/>
-    </row>
-    <row r="5" spans="1:50" s="15" customFormat="1">
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="108"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="61"/>
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="127"/>
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="62"/>
+    </row>
+    <row r="5" spans="1:48" s="15" customFormat="1">
       <c r="D5" s="97" t="s">
         <v>28</v>
       </c>
@@ -4047,73 +3992,73 @@
       <c r="P5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="97"/>
-      <c r="V5" s="15" t="s">
+      <c r="S5" s="97"/>
+      <c r="T5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="W5" s="45">
+      <c r="U5" s="45">
         <v>0.8</v>
       </c>
-      <c r="X5" s="45">
+      <c r="V5" s="45">
         <v>50</v>
       </c>
+      <c r="W5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="Y5" s="15" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AC5" s="41">
+      <c r="AA5" s="41">
         <v>20</v>
       </c>
-      <c r="AD5" s="41">
+      <c r="AB5" s="41">
         <v>5</v>
       </c>
-      <c r="AF5" s="97" t="s">
+      <c r="AD5" s="97" t="s">
         <v>82</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="AG5" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AH5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI5" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ5" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AH5" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
       <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="109"/>
-      <c r="AO5" s="89" t="s">
+      <c r="AL5" s="109"/>
+      <c r="AM5" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AP5" s="90">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="117">
+      <c r="AN5" s="90">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="117">
         <v>-20</v>
       </c>
-      <c r="AR5" s="18"/>
-      <c r="AS5" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="109"/>
-      <c r="AU5" s="74"/>
-      <c r="AV5" s="93"/>
-      <c r="AW5" s="18"/>
-      <c r="AX5" s="18"/>
-    </row>
-    <row r="6" spans="1:50" s="15" customFormat="1">
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="109"/>
+      <c r="AS5" s="74"/>
+      <c r="AT5" s="93"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+    </row>
+    <row r="6" spans="1:48" s="15" customFormat="1">
       <c r="D6" s="97"/>
       <c r="E6" t="s">
         <v>38</v>
@@ -4131,35 +4076,35 @@
       <c r="P6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="97"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-      <c r="AF6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AD6" s="97"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
       <c r="AJ6" s="18"/>
       <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="109"/>
-      <c r="AO6" s="89" t="s">
+      <c r="AL6" s="109"/>
+      <c r="AM6" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="AP6" s="90">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="117">
+      <c r="AN6" s="90">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="117">
         <v>-10</v>
       </c>
-      <c r="AR6" s="18"/>
-      <c r="AS6" s="18"/>
-      <c r="AT6" s="109"/>
-      <c r="AU6" s="74"/>
-      <c r="AV6" s="93"/>
-      <c r="AW6" s="18"/>
-      <c r="AX6" s="18"/>
-    </row>
-    <row r="7" spans="1:50" s="47" customFormat="1">
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="109"/>
+      <c r="AS6" s="74"/>
+      <c r="AT6" s="93"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+    </row>
+    <row r="7" spans="1:48" s="47" customFormat="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4186,9 +4131,9 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="69"/>
       <c r="W7" s="69"/>
       <c r="X7" s="69"/>
@@ -4197,29 +4142,27 @@
       <c r="AA7" s="69"/>
       <c r="AB7" s="69"/>
       <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
+      <c r="AD7" s="105"/>
       <c r="AE7" s="69"/>
-      <c r="AF7" s="105"/>
+      <c r="AF7" s="69"/>
       <c r="AG7" s="69"/>
-      <c r="AH7" s="69"/>
-      <c r="AI7" s="69"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
       <c r="AJ7" s="70"/>
       <c r="AK7" s="70"/>
-      <c r="AL7" s="70"/>
-      <c r="AM7" s="70"/>
-      <c r="AN7" s="110"/>
-      <c r="AO7" s="83"/>
-      <c r="AP7" s="68"/>
-      <c r="AQ7" s="118"/>
-      <c r="AR7" s="70"/>
-      <c r="AS7" s="70"/>
-      <c r="AT7" s="110"/>
-      <c r="AU7" s="75"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="69"/>
-      <c r="AX7" s="69"/>
-    </row>
-    <row r="8" spans="1:50" s="15" customFormat="1">
+      <c r="AL7" s="110"/>
+      <c r="AM7" s="83"/>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="118"/>
+      <c r="AP7" s="70"/>
+      <c r="AQ7" s="70"/>
+      <c r="AR7" s="110"/>
+      <c r="AS7" s="75"/>
+      <c r="AT7" s="71"/>
+      <c r="AU7" s="69"/>
+      <c r="AV7" s="69"/>
+    </row>
+    <row r="8" spans="1:48" s="15" customFormat="1">
       <c r="D8" s="97"/>
       <c r="E8" t="s">
         <v>87</v>
@@ -4234,75 +4177,75 @@
         <v>1</v>
       </c>
       <c r="O8" s="97"/>
-      <c r="U8" s="97"/>
-      <c r="V8" s="15" t="s">
+      <c r="S8" s="97"/>
+      <c r="T8" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="W8" s="42">
+      <c r="U8" s="42">
         <v>0.9</v>
       </c>
-      <c r="X8" s="15">
+      <c r="V8" s="15">
         <v>100</v>
       </c>
+      <c r="W8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="Y8" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD8" s="97"/>
+      <c r="AH8" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="111"/>
+      <c r="AM8" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN8" s="80">
+        <v>50</v>
+      </c>
+      <c r="AO8" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Z8" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB8" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE8" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF8" s="97"/>
-      <c r="AJ8" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP8" s="80">
-        <v>50</v>
-      </c>
-      <c r="AQ8" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="91" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV8" s="93">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX8" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" s="15" customFormat="1">
+    </row>
+    <row r="9" spans="1:48" s="15" customFormat="1">
       <c r="D9" s="97"/>
       <c r="E9" s="15" t="s">
         <v>97</v>
@@ -4317,29 +4260,29 @@
         <v>0</v>
       </c>
       <c r="O9" s="97"/>
-      <c r="U9" s="97"/>
-      <c r="AF9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="AD9" s="97"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
       <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="111"/>
-      <c r="AO9" s="82" t="s">
+      <c r="AL9" s="111"/>
+      <c r="AM9" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AP9" s="80">
+      <c r="AN9" s="80">
         <v>50</v>
       </c>
-      <c r="AQ9" s="119" t="s">
+      <c r="AO9" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="111"/>
-      <c r="AU9" s="76"/>
-      <c r="AV9" s="19"/>
-    </row>
-    <row r="10" spans="1:50" s="47" customFormat="1">
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="76"/>
+      <c r="AT9" s="19"/>
+    </row>
+    <row r="10" spans="1:48" s="47" customFormat="1">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -4366,9 +4309,9 @@
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="69"/>
       <c r="W10" s="69"/>
       <c r="X10" s="69"/>
@@ -4377,29 +4320,27 @@
       <c r="AA10" s="69"/>
       <c r="AB10" s="69"/>
       <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
+      <c r="AD10" s="105"/>
       <c r="AE10" s="69"/>
-      <c r="AF10" s="105"/>
+      <c r="AF10" s="69"/>
       <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="70"/>
       <c r="AJ10" s="70"/>
       <c r="AK10" s="70"/>
-      <c r="AL10" s="70"/>
-      <c r="AM10" s="70"/>
-      <c r="AN10" s="110"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="68"/>
-      <c r="AQ10" s="118"/>
-      <c r="AR10" s="70"/>
-      <c r="AS10" s="70"/>
-      <c r="AT10" s="110"/>
-      <c r="AU10" s="75"/>
-      <c r="AV10" s="71"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-    </row>
-    <row r="11" spans="1:50" s="15" customFormat="1">
+      <c r="AL10" s="110"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="68"/>
+      <c r="AO10" s="118"/>
+      <c r="AP10" s="70"/>
+      <c r="AQ10" s="70"/>
+      <c r="AR10" s="110"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="69"/>
+      <c r="AV10" s="69"/>
+    </row>
+    <row r="11" spans="1:48" s="15" customFormat="1">
       <c r="D11" s="97"/>
       <c r="E11" s="15" t="s">
         <v>100</v>
@@ -4414,75 +4355,75 @@
         <v>0</v>
       </c>
       <c r="O11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="15" t="s">
+      <c r="S11" s="97"/>
+      <c r="T11" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="W11" s="15">
-        <v>1</v>
-      </c>
-      <c r="X11" s="45">
+      <c r="U11" s="15">
+        <v>1</v>
+      </c>
+      <c r="V11" s="45">
         <v>3500</v>
       </c>
+      <c r="W11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="Y11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z11" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="97"/>
+      <c r="AH11" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="111"/>
+      <c r="AM11" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN11" s="80">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="120">
+        <v>50</v>
+      </c>
+      <c r="AP11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z11" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB11" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE11" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF11" s="97"/>
-      <c r="AJ11" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK11" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="16"/>
-      <c r="AN11" s="111"/>
-      <c r="AO11" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP11" s="80">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="120">
-        <v>50</v>
-      </c>
-      <c r="AR11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV11" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX11" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" s="15" customFormat="1">
+    </row>
+    <row r="12" spans="1:48" s="15" customFormat="1">
       <c r="D12" s="97"/>
       <c r="E12" s="15" t="s">
         <v>104</v>
@@ -4497,35 +4438,35 @@
         <v>0</v>
       </c>
       <c r="O12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="AF12" s="97"/>
-      <c r="AN12" s="97"/>
-      <c r="AO12" s="82" t="s">
+      <c r="S12" s="97"/>
+      <c r="AD12" s="97"/>
+      <c r="AL12" s="97"/>
+      <c r="AM12" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AP12" s="80">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="120">
+      <c r="AN12" s="80">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="120">
         <v>50</v>
       </c>
-      <c r="AR12" s="16"/>
-      <c r="AS12" s="16"/>
-      <c r="AT12" s="111"/>
-      <c r="AU12" s="76"/>
-      <c r="AV12" s="19"/>
-    </row>
-    <row r="13" spans="1:50">
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="111"/>
+      <c r="AS12" s="76"/>
+      <c r="AT12" s="19"/>
+    </row>
+    <row r="13" spans="1:48">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="E13" t="s">
         <v>105</v>
       </c>
-      <c r="AO13" s="82"/>
-      <c r="AP13" s="80"/>
-      <c r="AQ13" s="120"/>
-    </row>
-    <row r="14" spans="1:50" s="47" customFormat="1">
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="80"/>
+      <c r="AO13" s="120"/>
+    </row>
+    <row r="14" spans="1:48" s="47" customFormat="1">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -4544,9 +4485,9 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="69"/>
       <c r="W14" s="69"/>
       <c r="X14" s="69"/>
@@ -4555,91 +4496,89 @@
       <c r="AA14" s="69"/>
       <c r="AB14" s="69"/>
       <c r="AC14" s="69"/>
-      <c r="AD14" s="69"/>
+      <c r="AD14" s="105"/>
       <c r="AE14" s="69"/>
-      <c r="AF14" s="105"/>
+      <c r="AF14" s="69"/>
       <c r="AG14" s="69"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="69"/>
+      <c r="AH14" s="70"/>
+      <c r="AI14" s="70"/>
       <c r="AJ14" s="70"/>
       <c r="AK14" s="70"/>
-      <c r="AL14" s="70"/>
-      <c r="AM14" s="70"/>
-      <c r="AN14" s="110"/>
-      <c r="AO14" s="83"/>
-      <c r="AP14" s="68"/>
-      <c r="AQ14" s="118"/>
-      <c r="AR14" s="70"/>
-      <c r="AS14" s="70"/>
-      <c r="AT14" s="110"/>
-      <c r="AU14" s="75"/>
-      <c r="AV14" s="71"/>
-      <c r="AW14" s="69"/>
-      <c r="AX14" s="69"/>
-    </row>
-    <row r="15" spans="1:50" s="15" customFormat="1">
+      <c r="AL14" s="110"/>
+      <c r="AM14" s="83"/>
+      <c r="AN14" s="68"/>
+      <c r="AO14" s="118"/>
+      <c r="AP14" s="70"/>
+      <c r="AQ14" s="70"/>
+      <c r="AR14" s="110"/>
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="71"/>
+      <c r="AU14" s="69"/>
+      <c r="AV14" s="69"/>
+    </row>
+    <row r="15" spans="1:48" s="15" customFormat="1">
       <c r="D15" s="97"/>
       <c r="H15" s="97"/>
       <c r="O15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="15" t="s">
+      <c r="S15" s="97"/>
+      <c r="T15" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="W15" s="15">
-        <v>1</v>
-      </c>
-      <c r="X15" s="45">
+      <c r="U15" s="15">
+        <v>1</v>
+      </c>
+      <c r="V15" s="45">
         <v>7000</v>
       </c>
+      <c r="W15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="Y15" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z15" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="97"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="111"/>
+      <c r="AM15" s="84"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="121"/>
+      <c r="AP15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT15" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z15" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB15" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE15" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF15" s="97"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="16"/>
-      <c r="AN15" s="111"/>
-      <c r="AO15" s="84"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="121"/>
-      <c r="AR15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV15" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW15" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX15" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" s="56" customFormat="1">
+    </row>
+    <row r="16" spans="1:48" s="56" customFormat="1">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -4649,23 +4588,23 @@
       <c r="G16" s="15"/>
       <c r="H16" s="97"/>
       <c r="O16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="AF16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="AD16" s="103"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
       <c r="AJ16" s="57"/>
       <c r="AK16" s="57"/>
-      <c r="AL16" s="57"/>
-      <c r="AM16" s="57"/>
-      <c r="AN16" s="113"/>
-      <c r="AO16" s="85"/>
-      <c r="AP16" s="58"/>
-      <c r="AQ16" s="122"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="57"/>
-      <c r="AT16" s="113"/>
-      <c r="AU16" s="78"/>
-      <c r="AV16" s="58"/>
-    </row>
-    <row r="17" spans="1:50" s="15" customFormat="1">
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="85"/>
+      <c r="AN16" s="58"/>
+      <c r="AO16" s="122"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="57"/>
+      <c r="AR16" s="113"/>
+      <c r="AS16" s="78"/>
+      <c r="AT16" s="58"/>
+    </row>
+    <row r="17" spans="1:48" s="15" customFormat="1">
       <c r="D17" s="97"/>
       <c r="H17" s="97"/>
       <c r="I17" s="15" t="s">
@@ -4692,67 +4631,69 @@
       <c r="P17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="U17" s="97"/>
-      <c r="V17" s="15" t="s">
+      <c r="S17" s="97"/>
+      <c r="T17" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="W17" s="45">
+      <c r="U17" s="45">
         <v>0.8</v>
       </c>
-      <c r="X17" s="15">
+      <c r="V17" s="15">
         <v>50</v>
       </c>
+      <c r="W17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="Y17" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z17" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA17" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AC17" s="15">
+      <c r="AA17" s="15">
         <v>20</v>
       </c>
-      <c r="AD17" s="15">
+      <c r="AB17" s="15">
         <v>5</v>
       </c>
-      <c r="AF17" s="97" t="s">
+      <c r="AD17" s="97" t="s">
         <v>82</v>
+      </c>
+      <c r="AE17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF17" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="AG17" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AH17" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI17" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ17" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AH17" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
       <c r="AK17" s="18"/>
-      <c r="AL17" s="18"/>
-      <c r="AM17" s="18"/>
-      <c r="AN17" s="109"/>
-      <c r="AO17" s="84"/>
-      <c r="AP17" s="18"/>
-      <c r="AQ17" s="109"/>
-      <c r="AR17" s="16"/>
-      <c r="AS17" s="18"/>
-      <c r="AT17" s="109"/>
-      <c r="AU17" s="74"/>
-      <c r="AV17" s="93"/>
-      <c r="AW17" s="18"/>
-      <c r="AX17" s="18"/>
-    </row>
-    <row r="18" spans="1:50" s="15" customFormat="1">
+      <c r="AL17" s="109"/>
+      <c r="AM17" s="84"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="109"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="109"/>
+      <c r="AS17" s="74"/>
+      <c r="AT17" s="93"/>
+      <c r="AU17" s="18"/>
+      <c r="AV17" s="18"/>
+    </row>
+    <row r="18" spans="1:48" s="15" customFormat="1">
       <c r="D18" s="97"/>
       <c r="F18"/>
       <c r="H18" s="97"/>
       <c r="O18" s="97"/>
-      <c r="U18" s="97"/>
+      <c r="S18" s="97"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
       <c r="V18" s="69"/>
       <c r="W18" s="69"/>
       <c r="X18" s="69"/>
@@ -4761,127 +4702,125 @@
       <c r="AA18" s="69"/>
       <c r="AB18" s="69"/>
       <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
+      <c r="AD18" s="105"/>
       <c r="AE18" s="69"/>
-      <c r="AF18" s="105"/>
+      <c r="AF18" s="69"/>
       <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="70"/>
       <c r="AJ18" s="70"/>
       <c r="AK18" s="70"/>
-      <c r="AL18" s="70"/>
-      <c r="AM18" s="70"/>
-      <c r="AN18" s="110"/>
-      <c r="AO18" s="83"/>
-      <c r="AP18" s="68"/>
-      <c r="AQ18" s="118"/>
-      <c r="AR18" s="70"/>
-      <c r="AS18" s="70"/>
-      <c r="AT18" s="110"/>
-      <c r="AU18" s="75"/>
-      <c r="AV18" s="71"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="69"/>
-    </row>
-    <row r="19" spans="1:50" s="15" customFormat="1">
+      <c r="AL18" s="110"/>
+      <c r="AM18" s="83"/>
+      <c r="AN18" s="68"/>
+      <c r="AO18" s="118"/>
+      <c r="AP18" s="70"/>
+      <c r="AQ18" s="70"/>
+      <c r="AR18" s="110"/>
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="71"/>
+      <c r="AU18" s="69"/>
+      <c r="AV18" s="69"/>
+    </row>
+    <row r="19" spans="1:48" s="15" customFormat="1">
       <c r="D19" s="97"/>
       <c r="F19"/>
       <c r="H19" s="97"/>
       <c r="O19" s="97"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="15" t="s">
+      <c r="S19" s="97"/>
+      <c r="T19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="W19" s="15">
-        <v>1</v>
-      </c>
-      <c r="X19" s="15">
+      <c r="U19" s="15">
+        <v>1</v>
+      </c>
+      <c r="V19" s="15">
         <v>3500</v>
       </c>
+      <c r="W19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="Y19" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z19" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD19" s="97"/>
+      <c r="AH19" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="111"/>
+      <c r="AM19" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN19" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="121">
+        <v>50</v>
+      </c>
+      <c r="AP19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT19" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z19" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA19" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB19" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF19" s="97"/>
-      <c r="AJ19" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="16"/>
-      <c r="AN19" s="111"/>
-      <c r="AO19" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP19" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="121">
-        <v>50</v>
-      </c>
-      <c r="AR19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV19" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW19" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX19" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:50" s="15" customFormat="1">
+    </row>
+    <row r="20" spans="1:48" s="15" customFormat="1">
       <c r="D20" s="97"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20" s="97"/>
       <c r="O20" s="97"/>
-      <c r="U20" s="97"/>
-      <c r="AF20" s="97"/>
-      <c r="AN20" s="97"/>
-      <c r="AO20" s="84" t="s">
+      <c r="S20" s="97"/>
+      <c r="AD20" s="97"/>
+      <c r="AL20" s="97"/>
+      <c r="AM20" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AP20" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="121">
+      <c r="AN20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="121">
         <v>50</v>
       </c>
-      <c r="AR20" s="16"/>
-      <c r="AS20" s="16"/>
-      <c r="AT20" s="111"/>
-      <c r="AU20" s="76"/>
-      <c r="AV20" s="19"/>
-    </row>
-    <row r="21" spans="1:50" s="15" customFormat="1">
+      <c r="AP20" s="16"/>
+      <c r="AQ20" s="16"/>
+      <c r="AR20" s="111"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="19"/>
+    </row>
+    <row r="21" spans="1:48" s="15" customFormat="1">
       <c r="C21"/>
       <c r="D21" s="98"/>
       <c r="E21"/>
@@ -4898,9 +4837,9 @@
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
-      <c r="S21"/>
+      <c r="S21" s="98"/>
       <c r="T21"/>
-      <c r="U21" s="98"/>
+      <c r="U21"/>
       <c r="V21"/>
       <c r="W21"/>
       <c r="X21"/>
@@ -4909,35 +4848,33 @@
       <c r="AA21"/>
       <c r="AB21"/>
       <c r="AC21"/>
-      <c r="AD21"/>
+      <c r="AD21" s="98"/>
       <c r="AE21"/>
-      <c r="AF21" s="98"/>
+      <c r="AF21"/>
       <c r="AG21"/>
-      <c r="AH21"/>
-      <c r="AI21"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
       <c r="AJ21" s="17"/>
       <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="112"/>
-      <c r="AO21" s="84" t="s">
+      <c r="AL21" s="112"/>
+      <c r="AM21" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AP21" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="123">
+      <c r="AN21" s="20">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="123">
         <v>3</v>
       </c>
-      <c r="AR21" s="17"/>
-      <c r="AS21" s="17"/>
-      <c r="AT21" s="112"/>
-      <c r="AU21" s="77"/>
-      <c r="AV21" s="20"/>
-      <c r="AW21"/>
-      <c r="AX21"/>
-    </row>
-    <row r="22" spans="1:50" s="15" customFormat="1">
+      <c r="AP21" s="17"/>
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="112"/>
+      <c r="AS21" s="77"/>
+      <c r="AT21" s="20"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+    </row>
+    <row r="22" spans="1:48" s="15" customFormat="1">
       <c r="C22"/>
       <c r="D22" s="98"/>
       <c r="E22"/>
@@ -4954,9 +4891,9 @@
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
       <c r="V22" s="69"/>
       <c r="W22" s="69"/>
       <c r="X22" s="69"/>
@@ -4965,29 +4902,27 @@
       <c r="AA22" s="69"/>
       <c r="AB22" s="69"/>
       <c r="AC22" s="69"/>
-      <c r="AD22" s="69"/>
+      <c r="AD22" s="105"/>
       <c r="AE22" s="69"/>
-      <c r="AF22" s="105"/>
+      <c r="AF22" s="69"/>
       <c r="AG22" s="69"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="69"/>
+      <c r="AH22" s="70"/>
+      <c r="AI22" s="70"/>
       <c r="AJ22" s="70"/>
       <c r="AK22" s="70"/>
-      <c r="AL22" s="70"/>
-      <c r="AM22" s="70"/>
-      <c r="AN22" s="110"/>
-      <c r="AO22" s="83"/>
-      <c r="AP22" s="68"/>
-      <c r="AQ22" s="118"/>
-      <c r="AR22" s="70"/>
-      <c r="AS22" s="70"/>
-      <c r="AT22" s="110"/>
-      <c r="AU22" s="75"/>
-      <c r="AV22" s="71"/>
-      <c r="AW22" s="69"/>
-      <c r="AX22" s="69"/>
-    </row>
-    <row r="23" spans="1:50" s="15" customFormat="1">
+      <c r="AL22" s="110"/>
+      <c r="AM22" s="83"/>
+      <c r="AN22" s="68"/>
+      <c r="AO22" s="118"/>
+      <c r="AP22" s="70"/>
+      <c r="AQ22" s="70"/>
+      <c r="AR22" s="110"/>
+      <c r="AS22" s="75"/>
+      <c r="AT22" s="71"/>
+      <c r="AU22" s="69"/>
+      <c r="AV22" s="69"/>
+    </row>
+    <row r="23" spans="1:48" s="15" customFormat="1">
       <c r="C23"/>
       <c r="D23" s="98"/>
       <c r="H23" s="98"/>
@@ -5001,67 +4936,65 @@
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="15" t="s">
+      <c r="S23" s="98"/>
+      <c r="T23" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="W23" s="15">
-        <v>1</v>
-      </c>
-      <c r="X23" s="15">
+      <c r="U23" s="15">
+        <v>1</v>
+      </c>
+      <c r="V23" s="15">
         <v>7000</v>
       </c>
+      <c r="W23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X23" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="Y23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z23" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD23" s="97"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="111"/>
+      <c r="AM23" s="84"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="121"/>
+      <c r="AP23" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT23" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z23" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA23" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB23" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE23" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF23" s="97"/>
-      <c r="AJ23" s="16"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM23" s="16"/>
-      <c r="AN23" s="111"/>
-      <c r="AO23" s="84"/>
-      <c r="AP23" s="19"/>
-      <c r="AQ23" s="121"/>
-      <c r="AR23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU23" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV23" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW23" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX23" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:50" s="56" customFormat="1">
+    </row>
+    <row r="24" spans="1:48" s="56" customFormat="1">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -5071,23 +5004,23 @@
       <c r="G24" s="15"/>
       <c r="H24" s="97"/>
       <c r="O24" s="103"/>
-      <c r="U24" s="103"/>
-      <c r="AF24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="AD24" s="103"/>
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="57"/>
       <c r="AJ24" s="57"/>
       <c r="AK24" s="57"/>
-      <c r="AL24" s="57"/>
-      <c r="AM24" s="57"/>
-      <c r="AN24" s="113"/>
-      <c r="AO24" s="85"/>
-      <c r="AP24" s="58"/>
-      <c r="AQ24" s="122"/>
-      <c r="AR24" s="57"/>
-      <c r="AS24" s="57"/>
-      <c r="AT24" s="113"/>
-      <c r="AU24" s="78"/>
-      <c r="AV24" s="58"/>
-    </row>
-    <row r="25" spans="1:50" s="15" customFormat="1">
+      <c r="AL24" s="113"/>
+      <c r="AM24" s="85"/>
+      <c r="AN24" s="58"/>
+      <c r="AO24" s="122"/>
+      <c r="AP24" s="57"/>
+      <c r="AQ24" s="57"/>
+      <c r="AR24" s="113"/>
+      <c r="AS24" s="78"/>
+      <c r="AT24" s="58"/>
+    </row>
+    <row r="25" spans="1:48" s="15" customFormat="1">
       <c r="D25" s="97"/>
       <c r="H25" s="97"/>
       <c r="I25" s="15" t="s">
@@ -5114,70 +5047,72 @@
       <c r="P25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="U25" s="97"/>
-      <c r="V25" s="15" t="s">
+      <c r="S25" s="97"/>
+      <c r="T25" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="W25" s="45">
+      <c r="U25" s="45">
         <v>0.8</v>
       </c>
-      <c r="X25" s="15">
+      <c r="V25" s="15">
         <v>50</v>
       </c>
+      <c r="W25" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X25" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="Y25" s="15" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="Z25" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA25" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB25" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AC25" s="15">
+      <c r="AA25" s="15">
         <v>20</v>
       </c>
-      <c r="AD25" s="15">
+      <c r="AB25" s="15">
         <v>5</v>
       </c>
-      <c r="AF25" s="97" t="s">
+      <c r="AD25" s="97" t="s">
         <v>82</v>
+      </c>
+      <c r="AE25" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF25" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="AG25" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AH25" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI25" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ25" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AH25" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
       <c r="AK25" s="18"/>
-      <c r="AL25" s="18"/>
-      <c r="AM25" s="18"/>
-      <c r="AN25" s="109"/>
-      <c r="AO25" s="84"/>
-      <c r="AP25" s="18"/>
-      <c r="AQ25" s="109"/>
-      <c r="AR25" s="16"/>
-      <c r="AS25" s="18"/>
-      <c r="AT25" s="109"/>
-      <c r="AU25" s="74"/>
-      <c r="AV25" s="93"/>
-      <c r="AW25" s="18"/>
-      <c r="AX25" s="18"/>
-    </row>
-    <row r="26" spans="1:50" s="15" customFormat="1">
+      <c r="AL25" s="109"/>
+      <c r="AM25" s="84"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="109"/>
+      <c r="AP25" s="16"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="109"/>
+      <c r="AS25" s="74"/>
+      <c r="AT25" s="93"/>
+      <c r="AU25" s="18"/>
+      <c r="AV25" s="18"/>
+    </row>
+    <row r="26" spans="1:48" s="15" customFormat="1">
       <c r="D26" s="97"/>
       <c r="F26"/>
       <c r="H26" s="97"/>
       <c r="O26" s="97"/>
-      <c r="U26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
       <c r="V26" s="69"/>
       <c r="W26" s="69"/>
       <c r="X26" s="69"/>
@@ -5186,123 +5121,123 @@
       <c r="AA26" s="69"/>
       <c r="AB26" s="69"/>
       <c r="AC26" s="69"/>
-      <c r="AD26" s="69"/>
+      <c r="AD26" s="105"/>
       <c r="AE26" s="69"/>
-      <c r="AF26" s="105"/>
+      <c r="AF26" s="69"/>
       <c r="AG26" s="69"/>
-      <c r="AH26" s="69"/>
-      <c r="AI26" s="69"/>
+      <c r="AH26" s="70"/>
+      <c r="AI26" s="70"/>
       <c r="AJ26" s="70"/>
       <c r="AK26" s="70"/>
-      <c r="AL26" s="70"/>
-      <c r="AM26" s="70"/>
-      <c r="AN26" s="110"/>
-      <c r="AO26" s="83"/>
-      <c r="AP26" s="68"/>
-      <c r="AQ26" s="118"/>
-      <c r="AR26" s="70"/>
-      <c r="AS26" s="70"/>
-      <c r="AT26" s="110"/>
-      <c r="AU26" s="75"/>
-      <c r="AV26" s="71"/>
-      <c r="AW26" s="69"/>
-      <c r="AX26" s="69"/>
-    </row>
-    <row r="27" spans="1:50" s="15" customFormat="1">
+      <c r="AL26" s="110"/>
+      <c r="AM26" s="83"/>
+      <c r="AN26" s="68"/>
+      <c r="AO26" s="118"/>
+      <c r="AP26" s="70"/>
+      <c r="AQ26" s="70"/>
+      <c r="AR26" s="110"/>
+      <c r="AS26" s="75"/>
+      <c r="AT26" s="71"/>
+      <c r="AU26" s="69"/>
+      <c r="AV26" s="69"/>
+    </row>
+    <row r="27" spans="1:48" s="15" customFormat="1">
       <c r="D27" s="97"/>
       <c r="F27"/>
       <c r="H27" s="97"/>
       <c r="O27" s="97"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="15" t="s">
+      <c r="S27" s="97"/>
+      <c r="T27" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="W27" s="45">
+      <c r="U27" s="45">
         <v>0.9</v>
       </c>
-      <c r="X27" s="15">
+      <c r="V27" s="15">
         <v>100</v>
       </c>
+      <c r="W27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="Y27" s="15" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="Z27" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA27" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB27" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AF27" s="97"/>
+      <c r="AD27" s="97"/>
+      <c r="AH27" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AJ27" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="16"/>
-      <c r="AN27" s="111"/>
-      <c r="AO27" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="111"/>
+      <c r="AM27" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AP27" s="80">
+      <c r="AN27" s="80">
         <v>50</v>
       </c>
-      <c r="AQ27" s="124" t="s">
+      <c r="AO27" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="AR27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="74"/>
-      <c r="AV27" s="93"/>
-      <c r="AW27" s="18"/>
-      <c r="AX27" s="18"/>
-    </row>
-    <row r="28" spans="1:50" s="15" customFormat="1">
+      <c r="AP27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="74"/>
+      <c r="AT27" s="93"/>
+      <c r="AU27" s="18"/>
+      <c r="AV27" s="18"/>
+    </row>
+    <row r="28" spans="1:48" s="15" customFormat="1">
       <c r="D28" s="97"/>
       <c r="F28"/>
       <c r="H28" s="97"/>
       <c r="O28" s="97"/>
-      <c r="U28" s="97"/>
-      <c r="AF28" s="97"/>
+      <c r="S28" s="97"/>
+      <c r="AD28" s="97"/>
+      <c r="AH28" s="16"/>
+      <c r="AI28" s="16"/>
       <c r="AJ28" s="16"/>
       <c r="AK28" s="16"/>
-      <c r="AL28" s="16"/>
-      <c r="AM28" s="16"/>
-      <c r="AN28" s="111"/>
-      <c r="AO28" s="82" t="s">
+      <c r="AL28" s="111"/>
+      <c r="AM28" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AP28" s="80">
+      <c r="AN28" s="80">
         <v>50</v>
       </c>
-      <c r="AQ28" s="124" t="s">
+      <c r="AO28" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="AR28" s="16"/>
-      <c r="AS28" s="16"/>
-      <c r="AT28" s="111"/>
-      <c r="AU28" s="76"/>
-      <c r="AV28" s="19"/>
-    </row>
-    <row r="29" spans="1:50" s="15" customFormat="1">
+      <c r="AP28" s="16"/>
+      <c r="AQ28" s="16"/>
+      <c r="AR28" s="111"/>
+      <c r="AS28" s="76"/>
+      <c r="AT28" s="19"/>
+    </row>
+    <row r="29" spans="1:48" s="15" customFormat="1">
       <c r="D29" s="97"/>
       <c r="F29"/>
       <c r="H29" s="97"/>
       <c r="O29" s="97"/>
-      <c r="U29" s="97"/>
+      <c r="S29" s="97"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
       <c r="V29" s="69"/>
       <c r="W29" s="69"/>
       <c r="X29" s="69"/>
@@ -5311,127 +5246,125 @@
       <c r="AA29" s="69"/>
       <c r="AB29" s="69"/>
       <c r="AC29" s="69"/>
-      <c r="AD29" s="69"/>
+      <c r="AD29" s="105"/>
       <c r="AE29" s="69"/>
-      <c r="AF29" s="105"/>
+      <c r="AF29" s="69"/>
       <c r="AG29" s="69"/>
-      <c r="AH29" s="69"/>
-      <c r="AI29" s="69"/>
+      <c r="AH29" s="70"/>
+      <c r="AI29" s="70"/>
       <c r="AJ29" s="70"/>
       <c r="AK29" s="70"/>
-      <c r="AL29" s="70"/>
-      <c r="AM29" s="70"/>
-      <c r="AN29" s="110"/>
-      <c r="AO29" s="83"/>
-      <c r="AP29" s="68"/>
-      <c r="AQ29" s="118"/>
-      <c r="AR29" s="70"/>
-      <c r="AS29" s="70"/>
-      <c r="AT29" s="110"/>
-      <c r="AU29" s="75"/>
-      <c r="AV29" s="71"/>
-      <c r="AW29" s="69"/>
-      <c r="AX29" s="69"/>
-    </row>
-    <row r="30" spans="1:50" s="15" customFormat="1">
+      <c r="AL29" s="110"/>
+      <c r="AM29" s="83"/>
+      <c r="AN29" s="68"/>
+      <c r="AO29" s="118"/>
+      <c r="AP29" s="70"/>
+      <c r="AQ29" s="70"/>
+      <c r="AR29" s="110"/>
+      <c r="AS29" s="75"/>
+      <c r="AT29" s="71"/>
+      <c r="AU29" s="69"/>
+      <c r="AV29" s="69"/>
+    </row>
+    <row r="30" spans="1:48" s="15" customFormat="1">
       <c r="D30" s="97"/>
       <c r="F30"/>
       <c r="H30" s="97"/>
       <c r="O30" s="97"/>
-      <c r="U30" s="97"/>
-      <c r="V30" s="15" t="s">
+      <c r="S30" s="97"/>
+      <c r="T30" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="W30" s="15">
-        <v>1</v>
-      </c>
-      <c r="X30" s="15">
+      <c r="U30" s="15">
+        <v>1</v>
+      </c>
+      <c r="V30" s="15">
         <v>3500</v>
       </c>
+      <c r="W30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X30" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="Y30" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z30" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD30" s="97"/>
+      <c r="AH30" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="111"/>
+      <c r="AM30" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="121">
+        <v>50</v>
+      </c>
+      <c r="AP30" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT30" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU30" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z30" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA30" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB30" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE30" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF30" s="97"/>
-      <c r="AJ30" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK30" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="16"/>
-      <c r="AN30" s="111"/>
-      <c r="AO30" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="121">
-        <v>50</v>
-      </c>
-      <c r="AR30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU30" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV30" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW30" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX30" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:50" s="15" customFormat="1">
+    </row>
+    <row r="31" spans="1:48" s="15" customFormat="1">
       <c r="D31" s="97"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31" s="97"/>
       <c r="O31" s="97"/>
-      <c r="U31" s="97"/>
-      <c r="AF31" s="97"/>
-      <c r="AN31" s="97"/>
-      <c r="AO31" s="84" t="s">
+      <c r="S31" s="97"/>
+      <c r="AD31" s="97"/>
+      <c r="AL31" s="97"/>
+      <c r="AM31" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AP31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="121">
+      <c r="AN31" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="121">
         <v>50</v>
       </c>
-      <c r="AR31" s="16"/>
-      <c r="AS31" s="16"/>
-      <c r="AT31" s="111"/>
-      <c r="AU31" s="76"/>
-      <c r="AV31" s="19"/>
-    </row>
-    <row r="32" spans="1:50" s="15" customFormat="1">
+      <c r="AP31" s="16"/>
+      <c r="AQ31" s="16"/>
+      <c r="AR31" s="111"/>
+      <c r="AS31" s="76"/>
+      <c r="AT31" s="19"/>
+    </row>
+    <row r="32" spans="1:48" s="15" customFormat="1">
       <c r="C32"/>
       <c r="D32" s="98"/>
       <c r="E32"/>
@@ -5448,9 +5381,9 @@
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32"/>
-      <c r="S32"/>
+      <c r="S32" s="98"/>
       <c r="T32"/>
-      <c r="U32" s="98"/>
+      <c r="U32"/>
       <c r="V32"/>
       <c r="W32"/>
       <c r="X32"/>
@@ -5459,35 +5392,33 @@
       <c r="AA32"/>
       <c r="AB32"/>
       <c r="AC32"/>
-      <c r="AD32"/>
+      <c r="AD32" s="98"/>
       <c r="AE32"/>
-      <c r="AF32" s="98"/>
+      <c r="AF32"/>
       <c r="AG32"/>
-      <c r="AH32"/>
-      <c r="AI32"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
       <c r="AJ32" s="17"/>
       <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17"/>
-      <c r="AN32" s="112"/>
-      <c r="AO32" s="84" t="s">
+      <c r="AL32" s="112"/>
+      <c r="AM32" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AP32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="123">
+      <c r="AN32" s="20">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="123">
         <v>3</v>
       </c>
-      <c r="AR32" s="17"/>
-      <c r="AS32" s="17"/>
-      <c r="AT32" s="112"/>
-      <c r="AU32" s="77"/>
-      <c r="AV32" s="20"/>
-      <c r="AW32"/>
-      <c r="AX32"/>
-    </row>
-    <row r="33" spans="1:50" s="15" customFormat="1">
+      <c r="AP32" s="17"/>
+      <c r="AQ32" s="17"/>
+      <c r="AR32" s="112"/>
+      <c r="AS32" s="77"/>
+      <c r="AT32" s="20"/>
+      <c r="AU32"/>
+      <c r="AV32"/>
+    </row>
+    <row r="33" spans="1:48" s="15" customFormat="1">
       <c r="C33"/>
       <c r="D33" s="98"/>
       <c r="E33"/>
@@ -5504,9 +5435,9 @@
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
       <c r="V33" s="69"/>
       <c r="W33" s="69"/>
       <c r="X33" s="69"/>
@@ -5515,29 +5446,27 @@
       <c r="AA33" s="69"/>
       <c r="AB33" s="69"/>
       <c r="AC33" s="69"/>
-      <c r="AD33" s="69"/>
+      <c r="AD33" s="105"/>
       <c r="AE33" s="69"/>
-      <c r="AF33" s="105"/>
+      <c r="AF33" s="69"/>
       <c r="AG33" s="69"/>
-      <c r="AH33" s="69"/>
-      <c r="AI33" s="69"/>
+      <c r="AH33" s="70"/>
+      <c r="AI33" s="70"/>
       <c r="AJ33" s="70"/>
       <c r="AK33" s="70"/>
-      <c r="AL33" s="70"/>
-      <c r="AM33" s="70"/>
-      <c r="AN33" s="110"/>
-      <c r="AO33" s="83"/>
-      <c r="AP33" s="68"/>
-      <c r="AQ33" s="118"/>
-      <c r="AR33" s="70"/>
-      <c r="AS33" s="70"/>
-      <c r="AT33" s="110"/>
-      <c r="AU33" s="75"/>
-      <c r="AV33" s="71"/>
-      <c r="AW33" s="69"/>
-      <c r="AX33" s="69"/>
-    </row>
-    <row r="34" spans="1:50" s="15" customFormat="1">
+      <c r="AL33" s="110"/>
+      <c r="AM33" s="83"/>
+      <c r="AN33" s="68"/>
+      <c r="AO33" s="118"/>
+      <c r="AP33" s="70"/>
+      <c r="AQ33" s="70"/>
+      <c r="AR33" s="110"/>
+      <c r="AS33" s="75"/>
+      <c r="AT33" s="71"/>
+      <c r="AU33" s="69"/>
+      <c r="AV33" s="69"/>
+    </row>
+    <row r="34" spans="1:48" s="15" customFormat="1">
       <c r="C34"/>
       <c r="D34" s="98"/>
       <c r="H34" s="98"/>
@@ -5551,67 +5480,65 @@
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34" s="98"/>
-      <c r="V34" s="15" t="s">
+      <c r="S34" s="98"/>
+      <c r="T34" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="W34" s="15">
-        <v>1</v>
-      </c>
-      <c r="X34" s="15">
+      <c r="U34" s="15">
+        <v>1</v>
+      </c>
+      <c r="V34" s="15">
         <v>7000</v>
       </c>
+      <c r="W34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X34" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="Y34" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z34" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD34" s="97"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="111"/>
+      <c r="AM34" s="84"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="121"/>
+      <c r="AP34" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT34" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z34" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA34" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB34" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE34" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF34" s="97"/>
-      <c r="AJ34" s="16"/>
-      <c r="AK34" s="16"/>
-      <c r="AL34" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM34" s="16"/>
-      <c r="AN34" s="111"/>
-      <c r="AO34" s="84"/>
-      <c r="AP34" s="19"/>
-      <c r="AQ34" s="121"/>
-      <c r="AR34" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS34" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT34" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU34" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV34" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW34" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX34" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:50" s="56" customFormat="1">
+    </row>
+    <row r="35" spans="1:48" s="56" customFormat="1">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -5621,23 +5548,23 @@
       <c r="G35" s="15"/>
       <c r="H35" s="97"/>
       <c r="O35" s="103"/>
-      <c r="U35" s="103"/>
-      <c r="AF35" s="103"/>
+      <c r="S35" s="103"/>
+      <c r="AD35" s="103"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="57"/>
       <c r="AJ35" s="57"/>
       <c r="AK35" s="57"/>
-      <c r="AL35" s="57"/>
-      <c r="AM35" s="57"/>
-      <c r="AN35" s="113"/>
-      <c r="AO35" s="85"/>
-      <c r="AP35" s="58"/>
-      <c r="AQ35" s="122"/>
-      <c r="AR35" s="57"/>
-      <c r="AS35" s="57"/>
-      <c r="AT35" s="113"/>
-      <c r="AU35" s="78"/>
-      <c r="AV35" s="58"/>
-    </row>
-    <row r="36" spans="1:50" s="15" customFormat="1">
+      <c r="AL35" s="113"/>
+      <c r="AM35" s="85"/>
+      <c r="AN35" s="58"/>
+      <c r="AO35" s="122"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="57"/>
+      <c r="AR35" s="113"/>
+      <c r="AS35" s="78"/>
+      <c r="AT35" s="58"/>
+    </row>
+    <row r="36" spans="1:48" s="15" customFormat="1">
       <c r="D36" s="97"/>
       <c r="H36" s="97"/>
       <c r="I36" s="15" t="s">
@@ -5661,65 +5588,63 @@
       <c r="O36" s="99">
         <v>1</v>
       </c>
-      <c r="P36" s="94" t="s">
-        <v>97</v>
-      </c>
+      <c r="P36" s="94"/>
       <c r="Q36" s="41"/>
       <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="99"/>
-      <c r="V36" s="15" t="s">
+      <c r="S36" s="99"/>
+      <c r="T36" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="W36" s="15">
+      <c r="U36" s="15">
         <v>0.99</v>
       </c>
-      <c r="X36" s="15">
-        <v>0</v>
+      <c r="V36" s="15">
+        <v>0</v>
+      </c>
+      <c r="W36" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X36" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="Y36" s="15" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="Z36" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA36" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB36" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AF36" s="97" t="s">
+      <c r="AD36" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="AJ36" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AH36" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="18"/>
       <c r="AK36" s="18"/>
-      <c r="AL36" s="18"/>
-      <c r="AM36" s="18"/>
-      <c r="AN36" s="109"/>
-      <c r="AO36" s="84" t="s">
+      <c r="AL36" s="109"/>
+      <c r="AM36" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="AP36" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ36" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR36" s="44"/>
-      <c r="AS36" s="44"/>
-      <c r="AT36" s="107"/>
-      <c r="AU36" s="76"/>
-      <c r="AV36" s="19"/>
-    </row>
-    <row r="37" spans="1:50" s="15" customFormat="1">
+      <c r="AN36" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="44"/>
+      <c r="AQ36" s="44"/>
+      <c r="AR36" s="107"/>
+      <c r="AS36" s="76"/>
+      <c r="AT36" s="19"/>
+    </row>
+    <row r="37" spans="1:48" s="15" customFormat="1">
       <c r="D37" s="97"/>
       <c r="H37" s="97"/>
       <c r="O37" s="97"/>
-      <c r="U37" s="97"/>
+      <c r="S37" s="97"/>
+      <c r="T37" s="69"/>
+      <c r="U37" s="69"/>
       <c r="V37" s="69"/>
       <c r="W37" s="69"/>
       <c r="X37" s="69"/>
@@ -5728,98 +5653,98 @@
       <c r="AA37" s="69"/>
       <c r="AB37" s="69"/>
       <c r="AC37" s="69"/>
-      <c r="AD37" s="69"/>
+      <c r="AD37" s="105"/>
       <c r="AE37" s="69"/>
-      <c r="AF37" s="105"/>
+      <c r="AF37" s="69"/>
       <c r="AG37" s="69"/>
-      <c r="AH37" s="69"/>
-      <c r="AI37" s="69"/>
+      <c r="AH37" s="70"/>
+      <c r="AI37" s="70"/>
       <c r="AJ37" s="70"/>
       <c r="AK37" s="70"/>
-      <c r="AL37" s="70"/>
-      <c r="AM37" s="70"/>
-      <c r="AN37" s="110"/>
-      <c r="AO37" s="83"/>
-      <c r="AP37" s="68"/>
-      <c r="AQ37" s="118"/>
-      <c r="AR37" s="44"/>
-      <c r="AS37" s="44"/>
-      <c r="AT37" s="107"/>
-      <c r="AU37" s="75"/>
-      <c r="AV37" s="71"/>
-      <c r="AW37" s="69"/>
-      <c r="AX37" s="69"/>
-    </row>
-    <row r="38" spans="1:50" s="15" customFormat="1">
+      <c r="AL37" s="110"/>
+      <c r="AM37" s="83"/>
+      <c r="AN37" s="68"/>
+      <c r="AO37" s="118"/>
+      <c r="AP37" s="44"/>
+      <c r="AQ37" s="44"/>
+      <c r="AR37" s="107"/>
+      <c r="AS37" s="75"/>
+      <c r="AT37" s="71"/>
+      <c r="AU37" s="69"/>
+      <c r="AV37" s="69"/>
+    </row>
+    <row r="38" spans="1:48" s="15" customFormat="1">
       <c r="D38" s="97"/>
       <c r="H38" s="97"/>
       <c r="O38" s="97"/>
-      <c r="U38" s="97"/>
-      <c r="V38" s="15" t="s">
+      <c r="S38" s="97"/>
+      <c r="T38" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="W38" s="15">
-        <v>1</v>
-      </c>
-      <c r="X38" s="15">
+      <c r="U38" s="15">
+        <v>1</v>
+      </c>
+      <c r="V38" s="15">
         <v>50</v>
       </c>
+      <c r="W38" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X38" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="Y38" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z38" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA38" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AC38" s="15">
+      <c r="AA38" s="15">
         <v>20</v>
       </c>
-      <c r="AD38" s="15">
+      <c r="AB38" s="15">
         <v>5</v>
       </c>
-      <c r="AF38" s="97" t="s">
+      <c r="AD38" s="97" t="s">
         <v>82</v>
+      </c>
+      <c r="AE38" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF38" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="AG38" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AH38" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI38" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ38" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AH38" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="18"/>
+      <c r="AJ38" s="18"/>
       <c r="AK38" s="18"/>
-      <c r="AL38" s="18"/>
-      <c r="AM38" s="18"/>
-      <c r="AN38" s="109"/>
-      <c r="AO38" s="84" t="s">
+      <c r="AL38" s="109"/>
+      <c r="AM38" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="AP38" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ38" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR38" s="44"/>
-      <c r="AS38" s="44"/>
-      <c r="AT38" s="107"/>
-      <c r="AU38" s="74"/>
-      <c r="AV38" s="93"/>
-      <c r="AW38" s="18"/>
-      <c r="AX38" s="18"/>
-    </row>
-    <row r="39" spans="1:50" s="15" customFormat="1">
+      <c r="AN38" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP38" s="44"/>
+      <c r="AQ38" s="44"/>
+      <c r="AR38" s="107"/>
+      <c r="AS38" s="74"/>
+      <c r="AT38" s="93"/>
+      <c r="AU38" s="18"/>
+      <c r="AV38" s="18"/>
+    </row>
+    <row r="39" spans="1:48" s="15" customFormat="1">
       <c r="D39" s="97"/>
       <c r="H39" s="97"/>
       <c r="O39" s="97"/>
-      <c r="U39" s="97"/>
+      <c r="S39" s="97"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="69"/>
       <c r="V39" s="69"/>
       <c r="W39" s="69"/>
       <c r="X39" s="69"/>
@@ -5828,29 +5753,27 @@
       <c r="AA39" s="69"/>
       <c r="AB39" s="69"/>
       <c r="AC39" s="69"/>
-      <c r="AD39" s="69"/>
+      <c r="AD39" s="105"/>
       <c r="AE39" s="69"/>
-      <c r="AF39" s="105"/>
+      <c r="AF39" s="69"/>
       <c r="AG39" s="69"/>
-      <c r="AH39" s="69"/>
-      <c r="AI39" s="69"/>
+      <c r="AH39" s="70"/>
+      <c r="AI39" s="70"/>
       <c r="AJ39" s="70"/>
       <c r="AK39" s="70"/>
-      <c r="AL39" s="70"/>
-      <c r="AM39" s="70"/>
-      <c r="AN39" s="110"/>
-      <c r="AO39" s="83"/>
-      <c r="AP39" s="68"/>
-      <c r="AQ39" s="118"/>
-      <c r="AR39" s="70"/>
-      <c r="AS39" s="70"/>
-      <c r="AT39" s="110"/>
-      <c r="AU39" s="75"/>
-      <c r="AV39" s="71"/>
-      <c r="AW39" s="69"/>
-      <c r="AX39" s="69"/>
-    </row>
-    <row r="40" spans="1:50" s="15" customFormat="1">
+      <c r="AL39" s="110"/>
+      <c r="AM39" s="83"/>
+      <c r="AN39" s="68"/>
+      <c r="AO39" s="118"/>
+      <c r="AP39" s="70"/>
+      <c r="AQ39" s="70"/>
+      <c r="AR39" s="110"/>
+      <c r="AS39" s="75"/>
+      <c r="AT39" s="71"/>
+      <c r="AU39" s="69"/>
+      <c r="AV39" s="69"/>
+    </row>
+    <row r="40" spans="1:48" s="15" customFormat="1">
       <c r="C40"/>
       <c r="D40" s="98"/>
       <c r="E40"/>
@@ -5867,67 +5790,65 @@
       <c r="P40"/>
       <c r="Q40"/>
       <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40" s="98"/>
-      <c r="V40" s="15" t="s">
+      <c r="S40" s="98"/>
+      <c r="T40" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="W40" s="15">
-        <v>1</v>
-      </c>
-      <c r="X40" s="15">
+      <c r="U40" s="15">
+        <v>1</v>
+      </c>
+      <c r="V40" s="15">
         <v>7000</v>
       </c>
+      <c r="W40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X40" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="Y40" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z40" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD40" s="97"/>
+      <c r="AH40" s="16"/>
+      <c r="AI40" s="16"/>
+      <c r="AJ40" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="16"/>
+      <c r="AL40" s="111"/>
+      <c r="AM40" s="84"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="121"/>
+      <c r="AP40" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT40" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU40" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z40" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA40" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB40" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE40" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF40" s="97"/>
-      <c r="AJ40" s="16"/>
-      <c r="AK40" s="16"/>
-      <c r="AL40" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM40" s="16"/>
-      <c r="AN40" s="111"/>
-      <c r="AO40" s="84"/>
-      <c r="AP40" s="19"/>
-      <c r="AQ40" s="121"/>
-      <c r="AR40" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU40" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV40" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW40" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX40" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:50" s="56" customFormat="1">
+    </row>
+    <row r="41" spans="1:48" s="56" customFormat="1">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -5937,23 +5858,23 @@
       <c r="G41" s="15"/>
       <c r="H41" s="97"/>
       <c r="O41" s="103"/>
-      <c r="U41" s="103"/>
-      <c r="AF41" s="103"/>
+      <c r="S41" s="103"/>
+      <c r="AD41" s="103"/>
+      <c r="AH41" s="57"/>
+      <c r="AI41" s="57"/>
       <c r="AJ41" s="57"/>
       <c r="AK41" s="57"/>
-      <c r="AL41" s="57"/>
-      <c r="AM41" s="57"/>
-      <c r="AN41" s="113"/>
-      <c r="AO41" s="85"/>
-      <c r="AP41" s="58"/>
-      <c r="AQ41" s="122"/>
-      <c r="AR41" s="57"/>
-      <c r="AS41" s="57"/>
-      <c r="AT41" s="113"/>
-      <c r="AU41" s="78"/>
-      <c r="AV41" s="58"/>
-    </row>
-    <row r="42" spans="1:50" s="15" customFormat="1">
+      <c r="AL41" s="113"/>
+      <c r="AM41" s="85"/>
+      <c r="AN41" s="58"/>
+      <c r="AO41" s="122"/>
+      <c r="AP41" s="57"/>
+      <c r="AQ41" s="57"/>
+      <c r="AR41" s="113"/>
+      <c r="AS41" s="78"/>
+      <c r="AT41" s="58"/>
+    </row>
+    <row r="42" spans="1:48" s="15" customFormat="1">
       <c r="D42" s="97"/>
       <c r="H42" s="97"/>
       <c r="I42" s="15" t="s">
@@ -5977,70 +5898,66 @@
       <c r="O42" s="99">
         <v>1</v>
       </c>
-      <c r="P42" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="U42" s="97"/>
-      <c r="V42" s="15" t="s">
+      <c r="S42" s="97"/>
+      <c r="T42" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="W42" s="15">
-        <v>1</v>
-      </c>
-      <c r="X42" s="15">
-        <v>0</v>
+      <c r="U42" s="15">
+        <v>1</v>
+      </c>
+      <c r="V42" s="15">
+        <v>0</v>
+      </c>
+      <c r="W42" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X42" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="Y42" s="15" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="Z42" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA42" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB42" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AF42" s="97" t="s">
+      <c r="AD42" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="AJ42" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AH42" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="18"/>
+      <c r="AJ42" s="18"/>
       <c r="AK42" s="18"/>
-      <c r="AL42" s="18"/>
-      <c r="AM42" s="18"/>
-      <c r="AN42" s="109"/>
-      <c r="AO42" s="84" t="s">
+      <c r="AL42" s="109"/>
+      <c r="AM42" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="AP42" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ42" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR42" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS42" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT42" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU42" s="76"/>
-      <c r="AV42" s="19"/>
-    </row>
-    <row r="43" spans="1:50" s="15" customFormat="1">
+      <c r="AN42" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP42" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="76"/>
+      <c r="AT42" s="19"/>
+    </row>
+    <row r="43" spans="1:48" s="15" customFormat="1">
       <c r="D43" s="97"/>
       <c r="H43" s="97"/>
       <c r="O43" s="97"/>
-      <c r="P43" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="U43" s="97"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="69"/>
+      <c r="U43" s="69"/>
       <c r="V43" s="69"/>
       <c r="W43" s="69"/>
       <c r="X43" s="69"/>
@@ -6049,123 +5966,121 @@
       <c r="AA43" s="69"/>
       <c r="AB43" s="69"/>
       <c r="AC43" s="69"/>
-      <c r="AD43" s="69"/>
+      <c r="AD43" s="105"/>
       <c r="AE43" s="69"/>
-      <c r="AF43" s="105"/>
+      <c r="AF43" s="69"/>
       <c r="AG43" s="69"/>
-      <c r="AH43" s="69"/>
-      <c r="AI43" s="69"/>
+      <c r="AH43" s="70"/>
+      <c r="AI43" s="70"/>
       <c r="AJ43" s="70"/>
       <c r="AK43" s="70"/>
-      <c r="AL43" s="70"/>
-      <c r="AM43" s="70"/>
-      <c r="AN43" s="110"/>
-      <c r="AO43" s="83"/>
-      <c r="AP43" s="68"/>
-      <c r="AQ43" s="118"/>
-      <c r="AR43" s="70"/>
-      <c r="AS43" s="70"/>
-      <c r="AT43" s="110"/>
-      <c r="AU43" s="75"/>
-      <c r="AV43" s="71"/>
-      <c r="AW43" s="69"/>
-      <c r="AX43" s="69"/>
-    </row>
-    <row r="44" spans="1:50" s="15" customFormat="1">
+      <c r="AL43" s="110"/>
+      <c r="AM43" s="83"/>
+      <c r="AN43" s="68"/>
+      <c r="AO43" s="118"/>
+      <c r="AP43" s="70"/>
+      <c r="AQ43" s="70"/>
+      <c r="AR43" s="110"/>
+      <c r="AS43" s="75"/>
+      <c r="AT43" s="71"/>
+      <c r="AU43" s="69"/>
+      <c r="AV43" s="69"/>
+    </row>
+    <row r="44" spans="1:48" s="15" customFormat="1">
       <c r="D44" s="97"/>
       <c r="H44" s="97"/>
       <c r="O44" s="97"/>
-      <c r="U44" s="97"/>
-      <c r="V44" s="45" t="s">
+      <c r="S44" s="97"/>
+      <c r="T44" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="W44" s="15">
-        <v>1</v>
-      </c>
-      <c r="X44" s="15">
+      <c r="U44" s="15">
+        <v>1</v>
+      </c>
+      <c r="V44" s="15">
         <v>3500</v>
       </c>
+      <c r="W44" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X44" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="Y44" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z44" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC44" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD44" s="97"/>
+      <c r="AH44" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="16"/>
+      <c r="AL44" s="111"/>
+      <c r="AM44" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN44" s="80">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="120">
+        <v>50</v>
+      </c>
+      <c r="AP44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT44" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU44" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV44" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z44" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA44" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB44" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE44" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF44" s="97"/>
-      <c r="AJ44" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK44" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL44" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM44" s="16"/>
-      <c r="AN44" s="111"/>
-      <c r="AO44" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP44" s="80">
-        <v>0</v>
-      </c>
-      <c r="AQ44" s="120">
-        <v>50</v>
-      </c>
-      <c r="AR44" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS44" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT44" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU44" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV44" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW44" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX44" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:50" s="15" customFormat="1">
+    </row>
+    <row r="45" spans="1:48" s="15" customFormat="1">
       <c r="D45" s="97"/>
       <c r="H45" s="97"/>
       <c r="O45" s="97"/>
-      <c r="U45" s="97"/>
-      <c r="AF45" s="97"/>
-      <c r="AN45" s="97"/>
-      <c r="AO45" s="82" t="s">
+      <c r="S45" s="97"/>
+      <c r="AD45" s="97"/>
+      <c r="AL45" s="97"/>
+      <c r="AM45" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AP45" s="80">
-        <v>0</v>
-      </c>
-      <c r="AQ45" s="120">
+      <c r="AN45" s="80">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="120">
         <v>50</v>
       </c>
-      <c r="AR45" s="16"/>
-      <c r="AS45" s="16"/>
-      <c r="AT45" s="111"/>
-      <c r="AU45" s="76"/>
-      <c r="AV45" s="19"/>
-    </row>
-    <row r="46" spans="1:50" s="15" customFormat="1">
+      <c r="AP45" s="16"/>
+      <c r="AQ45" s="16"/>
+      <c r="AR45" s="111"/>
+      <c r="AS45" s="76"/>
+      <c r="AT45" s="19"/>
+    </row>
+    <row r="46" spans="1:48" s="15" customFormat="1">
       <c r="C46"/>
       <c r="D46" s="98"/>
       <c r="E46"/>
@@ -6182,9 +6097,9 @@
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46"/>
-      <c r="S46"/>
+      <c r="S46" s="98"/>
       <c r="T46"/>
-      <c r="U46" s="98"/>
+      <c r="U46"/>
       <c r="V46"/>
       <c r="W46"/>
       <c r="X46"/>
@@ -6193,35 +6108,33 @@
       <c r="AA46"/>
       <c r="AB46"/>
       <c r="AC46"/>
-      <c r="AD46"/>
+      <c r="AD46" s="98"/>
       <c r="AE46"/>
-      <c r="AF46" s="98"/>
+      <c r="AF46"/>
       <c r="AG46"/>
-      <c r="AH46"/>
-      <c r="AI46"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="17"/>
       <c r="AJ46" s="17"/>
       <c r="AK46" s="17"/>
-      <c r="AL46" s="17"/>
-      <c r="AM46" s="17"/>
-      <c r="AN46" s="112"/>
-      <c r="AO46" s="82" t="s">
+      <c r="AL46" s="112"/>
+      <c r="AM46" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="AP46" s="80">
-        <v>0</v>
-      </c>
-      <c r="AQ46" s="120">
+      <c r="AN46" s="80">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="120">
         <v>3</v>
       </c>
-      <c r="AR46" s="17"/>
-      <c r="AS46" s="17"/>
-      <c r="AT46" s="112"/>
-      <c r="AU46" s="77"/>
-      <c r="AV46" s="20"/>
-      <c r="AW46"/>
-      <c r="AX46"/>
-    </row>
-    <row r="47" spans="1:50" s="15" customFormat="1">
+      <c r="AP46" s="17"/>
+      <c r="AQ46" s="17"/>
+      <c r="AR46" s="112"/>
+      <c r="AS46" s="77"/>
+      <c r="AT46" s="20"/>
+      <c r="AU46"/>
+      <c r="AV46"/>
+    </row>
+    <row r="47" spans="1:48" s="15" customFormat="1">
       <c r="C47"/>
       <c r="D47" s="98"/>
       <c r="E47"/>
@@ -6238,9 +6151,9 @@
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47" s="98"/>
+      <c r="S47" s="98"/>
+      <c r="T47" s="69"/>
+      <c r="U47" s="69"/>
       <c r="V47" s="69"/>
       <c r="W47" s="69"/>
       <c r="X47" s="69"/>
@@ -6249,29 +6162,27 @@
       <c r="AA47" s="69"/>
       <c r="AB47" s="69"/>
       <c r="AC47" s="69"/>
-      <c r="AD47" s="69"/>
+      <c r="AD47" s="105"/>
       <c r="AE47" s="69"/>
-      <c r="AF47" s="105"/>
+      <c r="AF47" s="69"/>
       <c r="AG47" s="69"/>
-      <c r="AH47" s="69"/>
-      <c r="AI47" s="69"/>
+      <c r="AH47" s="70"/>
+      <c r="AI47" s="70"/>
       <c r="AJ47" s="70"/>
       <c r="AK47" s="70"/>
-      <c r="AL47" s="70"/>
-      <c r="AM47" s="70"/>
-      <c r="AN47" s="110"/>
-      <c r="AO47" s="83"/>
-      <c r="AP47" s="68"/>
-      <c r="AQ47" s="118"/>
-      <c r="AR47" s="70"/>
-      <c r="AS47" s="70"/>
-      <c r="AT47" s="110"/>
-      <c r="AU47" s="75"/>
-      <c r="AV47" s="71"/>
-      <c r="AW47" s="69"/>
-      <c r="AX47" s="69"/>
-    </row>
-    <row r="48" spans="1:50" s="15" customFormat="1">
+      <c r="AL47" s="110"/>
+      <c r="AM47" s="83"/>
+      <c r="AN47" s="68"/>
+      <c r="AO47" s="118"/>
+      <c r="AP47" s="70"/>
+      <c r="AQ47" s="70"/>
+      <c r="AR47" s="110"/>
+      <c r="AS47" s="75"/>
+      <c r="AT47" s="71"/>
+      <c r="AU47" s="69"/>
+      <c r="AV47" s="69"/>
+    </row>
+    <row r="48" spans="1:48" s="15" customFormat="1">
       <c r="C48"/>
       <c r="D48" s="98"/>
       <c r="E48"/>
@@ -6288,67 +6199,65 @@
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48"/>
-      <c r="S48"/>
-      <c r="T48"/>
-      <c r="U48" s="98"/>
-      <c r="V48" s="15" t="s">
+      <c r="S48" s="98"/>
+      <c r="T48" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="W48" s="15">
-        <v>1</v>
-      </c>
-      <c r="X48" s="15">
+      <c r="U48" s="15">
+        <v>1</v>
+      </c>
+      <c r="V48" s="15">
         <v>7000</v>
       </c>
+      <c r="W48" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X48" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="Y48" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z48" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC48" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD48" s="97"/>
+      <c r="AH48" s="16"/>
+      <c r="AI48" s="16"/>
+      <c r="AJ48" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="16"/>
+      <c r="AL48" s="111"/>
+      <c r="AM48" s="84"/>
+      <c r="AN48" s="19"/>
+      <c r="AO48" s="121"/>
+      <c r="AP48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU48" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV48" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z48" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA48" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB48" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE48" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF48" s="97"/>
-      <c r="AJ48" s="16"/>
-      <c r="AK48" s="16"/>
-      <c r="AL48" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM48" s="16"/>
-      <c r="AN48" s="111"/>
-      <c r="AO48" s="84"/>
-      <c r="AP48" s="19"/>
-      <c r="AQ48" s="121"/>
-      <c r="AR48" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS48" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT48" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU48" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV48" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW48" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX48" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:50" s="56" customFormat="1">
+    </row>
+    <row r="49" spans="1:48" s="56" customFormat="1">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -6358,23 +6267,23 @@
       <c r="G49" s="15"/>
       <c r="H49" s="97"/>
       <c r="O49" s="103"/>
-      <c r="U49" s="103"/>
-      <c r="AF49" s="103"/>
+      <c r="S49" s="103"/>
+      <c r="AD49" s="103"/>
+      <c r="AH49" s="57"/>
+      <c r="AI49" s="57"/>
       <c r="AJ49" s="57"/>
       <c r="AK49" s="57"/>
-      <c r="AL49" s="57"/>
-      <c r="AM49" s="57"/>
-      <c r="AN49" s="113"/>
-      <c r="AO49" s="85"/>
-      <c r="AP49" s="58"/>
-      <c r="AQ49" s="122"/>
-      <c r="AR49" s="57"/>
-      <c r="AS49" s="57"/>
-      <c r="AT49" s="113"/>
-      <c r="AU49" s="78"/>
-      <c r="AV49" s="58"/>
-    </row>
-    <row r="50" spans="1:50" s="15" customFormat="1">
+      <c r="AL49" s="113"/>
+      <c r="AM49" s="85"/>
+      <c r="AN49" s="58"/>
+      <c r="AO49" s="122"/>
+      <c r="AP49" s="57"/>
+      <c r="AQ49" s="57"/>
+      <c r="AR49" s="113"/>
+      <c r="AS49" s="78"/>
+      <c r="AT49" s="58"/>
+    </row>
+    <row r="50" spans="1:48" s="15" customFormat="1">
       <c r="D50" s="97"/>
       <c r="H50" s="97"/>
       <c r="I50" s="15" t="s">
@@ -6398,67 +6307,66 @@
       <c r="O50" s="99">
         <v>1</v>
       </c>
-      <c r="P50" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="U50" s="97"/>
-      <c r="V50" s="15" t="s">
+      <c r="S50" s="97"/>
+      <c r="T50" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="W50" s="15">
-        <v>1</v>
-      </c>
-      <c r="X50" s="15">
-        <v>0</v>
+      <c r="U50" s="15">
+        <v>1</v>
+      </c>
+      <c r="V50" s="15">
+        <v>0</v>
+      </c>
+      <c r="W50" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X50" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="Y50" s="15" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="Z50" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA50" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB50" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AF50" s="97" t="s">
+      <c r="AD50" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="AJ50" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AH50" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI50" s="18"/>
+      <c r="AJ50" s="18"/>
       <c r="AK50" s="18"/>
-      <c r="AL50" s="18"/>
-      <c r="AM50" s="18"/>
-      <c r="AN50" s="109"/>
-      <c r="AO50" s="84" t="s">
+      <c r="AL50" s="109"/>
+      <c r="AM50" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AP50" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ50" s="121">
+      <c r="AN50" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO50" s="121">
         <v>50</v>
       </c>
-      <c r="AR50" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS50" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT50" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU50" s="76"/>
-      <c r="AV50" s="19"/>
-    </row>
-    <row r="51" spans="1:50" s="15" customFormat="1">
+      <c r="AP50" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="76"/>
+      <c r="AT50" s="19"/>
+    </row>
+    <row r="51" spans="1:48" s="15" customFormat="1">
       <c r="D51" s="97"/>
       <c r="H51" s="97"/>
       <c r="O51" s="97"/>
-      <c r="U51" s="97"/>
+      <c r="S51" s="97"/>
+      <c r="T51" s="69"/>
+      <c r="U51" s="69"/>
       <c r="V51" s="69"/>
       <c r="W51" s="69"/>
       <c r="X51" s="69"/>
@@ -6467,29 +6375,27 @@
       <c r="AA51" s="69"/>
       <c r="AB51" s="69"/>
       <c r="AC51" s="69"/>
-      <c r="AD51" s="69"/>
+      <c r="AD51" s="105"/>
       <c r="AE51" s="69"/>
-      <c r="AF51" s="105"/>
+      <c r="AF51" s="69"/>
       <c r="AG51" s="69"/>
-      <c r="AH51" s="69"/>
-      <c r="AI51" s="69"/>
+      <c r="AH51" s="70"/>
+      <c r="AI51" s="70"/>
       <c r="AJ51" s="70"/>
       <c r="AK51" s="70"/>
-      <c r="AL51" s="70"/>
-      <c r="AM51" s="70"/>
-      <c r="AN51" s="110"/>
-      <c r="AO51" s="83"/>
-      <c r="AP51" s="68"/>
-      <c r="AQ51" s="118"/>
-      <c r="AR51" s="70"/>
-      <c r="AS51" s="70"/>
-      <c r="AT51" s="110"/>
-      <c r="AU51" s="75"/>
-      <c r="AV51" s="71"/>
-      <c r="AW51" s="69"/>
-      <c r="AX51" s="69"/>
-    </row>
-    <row r="52" spans="1:50" s="15" customFormat="1">
+      <c r="AL51" s="110"/>
+      <c r="AM51" s="83"/>
+      <c r="AN51" s="68"/>
+      <c r="AO51" s="118"/>
+      <c r="AP51" s="70"/>
+      <c r="AQ51" s="70"/>
+      <c r="AR51" s="110"/>
+      <c r="AS51" s="75"/>
+      <c r="AT51" s="71"/>
+      <c r="AU51" s="69"/>
+      <c r="AV51" s="69"/>
+    </row>
+    <row r="52" spans="1:48" s="15" customFormat="1">
       <c r="C52"/>
       <c r="D52" s="98"/>
       <c r="E52"/>
@@ -6506,67 +6412,65 @@
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52" s="98"/>
-      <c r="V52" s="15" t="s">
+      <c r="S52" s="98"/>
+      <c r="T52" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="W52" s="15">
-        <v>1</v>
-      </c>
-      <c r="X52" s="15">
+      <c r="U52" s="15">
+        <v>1</v>
+      </c>
+      <c r="V52" s="15">
         <v>7000</v>
       </c>
+      <c r="W52" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X52" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="Y52" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z52" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC52" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD52" s="97"/>
+      <c r="AH52" s="16"/>
+      <c r="AI52" s="16"/>
+      <c r="AJ52" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="16"/>
+      <c r="AL52" s="111"/>
+      <c r="AM52" s="84"/>
+      <c r="AN52" s="19"/>
+      <c r="AO52" s="121"/>
+      <c r="AP52" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR52" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT52" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU52" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV52" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z52" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA52" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB52" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE52" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF52" s="97"/>
-      <c r="AJ52" s="16"/>
-      <c r="AK52" s="16"/>
-      <c r="AL52" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM52" s="16"/>
-      <c r="AN52" s="111"/>
-      <c r="AO52" s="84"/>
-      <c r="AP52" s="19"/>
-      <c r="AQ52" s="121"/>
-      <c r="AR52" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS52" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT52" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU52" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV52" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW52" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX52" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:50" s="56" customFormat="1">
+    </row>
+    <row r="53" spans="1:48" s="56" customFormat="1">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -6576,23 +6480,23 @@
       <c r="G53" s="15"/>
       <c r="H53" s="97"/>
       <c r="O53" s="103"/>
-      <c r="U53" s="103"/>
-      <c r="AF53" s="103"/>
+      <c r="S53" s="103"/>
+      <c r="AD53" s="103"/>
+      <c r="AH53" s="57"/>
+      <c r="AI53" s="57"/>
       <c r="AJ53" s="57"/>
       <c r="AK53" s="57"/>
-      <c r="AL53" s="57"/>
-      <c r="AM53" s="57"/>
-      <c r="AN53" s="113"/>
-      <c r="AO53" s="85"/>
-      <c r="AP53" s="58"/>
-      <c r="AQ53" s="122"/>
-      <c r="AR53" s="57"/>
-      <c r="AS53" s="57"/>
-      <c r="AT53" s="113"/>
-      <c r="AU53" s="78"/>
-      <c r="AV53" s="58"/>
-    </row>
-    <row r="54" spans="1:50" s="15" customFormat="1">
+      <c r="AL53" s="113"/>
+      <c r="AM53" s="85"/>
+      <c r="AN53" s="58"/>
+      <c r="AO53" s="122"/>
+      <c r="AP53" s="57"/>
+      <c r="AQ53" s="57"/>
+      <c r="AR53" s="113"/>
+      <c r="AS53" s="78"/>
+      <c r="AT53" s="58"/>
+    </row>
+    <row r="54" spans="1:48" s="15" customFormat="1">
       <c r="D54" s="97"/>
       <c r="H54" s="97"/>
       <c r="I54" s="15" t="s">
@@ -6619,64 +6523,66 @@
       <c r="P54" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="U54" s="97"/>
-      <c r="V54" s="15" t="s">
+      <c r="S54" s="97"/>
+      <c r="T54" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="W54" s="15">
-        <v>1</v>
-      </c>
-      <c r="X54" s="15">
-        <v>0</v>
+      <c r="U54" s="15">
+        <v>1</v>
+      </c>
+      <c r="V54" s="15">
+        <v>0</v>
+      </c>
+      <c r="W54" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X54" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="Y54" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z54" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA54" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AF54" s="97" t="s">
+      <c r="AD54" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="AJ54" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AH54" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI54" s="18"/>
+      <c r="AJ54" s="18"/>
       <c r="AK54" s="18"/>
-      <c r="AL54" s="18"/>
-      <c r="AM54" s="18"/>
-      <c r="AN54" s="109"/>
-      <c r="AO54" s="84" t="s">
+      <c r="AL54" s="109"/>
+      <c r="AM54" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="AP54" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ54" s="121">
+      <c r="AN54" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO54" s="121">
         <v>50</v>
       </c>
-      <c r="AR54" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS54" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT54" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU54" s="76"/>
-      <c r="AV54" s="19"/>
-    </row>
-    <row r="55" spans="1:50" s="15" customFormat="1">
+      <c r="AP54" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR54" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS54" s="76"/>
+      <c r="AT54" s="19"/>
+    </row>
+    <row r="55" spans="1:48" s="15" customFormat="1">
       <c r="D55" s="97"/>
       <c r="H55" s="97"/>
       <c r="O55" s="97"/>
       <c r="P55" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="U55" s="97"/>
+      <c r="S55" s="97"/>
+      <c r="T55" s="69"/>
+      <c r="U55" s="69"/>
       <c r="V55" s="69"/>
       <c r="W55" s="69"/>
       <c r="X55" s="69"/>
@@ -6685,123 +6591,121 @@
       <c r="AA55" s="69"/>
       <c r="AB55" s="69"/>
       <c r="AC55" s="69"/>
-      <c r="AD55" s="69"/>
+      <c r="AD55" s="105"/>
       <c r="AE55" s="69"/>
-      <c r="AF55" s="105"/>
+      <c r="AF55" s="69"/>
       <c r="AG55" s="69"/>
-      <c r="AH55" s="69"/>
-      <c r="AI55" s="69"/>
+      <c r="AH55" s="70"/>
+      <c r="AI55" s="70"/>
       <c r="AJ55" s="70"/>
       <c r="AK55" s="70"/>
-      <c r="AL55" s="70"/>
-      <c r="AM55" s="70"/>
-      <c r="AN55" s="110"/>
-      <c r="AO55" s="83"/>
-      <c r="AP55" s="68"/>
-      <c r="AQ55" s="118"/>
-      <c r="AR55" s="70"/>
-      <c r="AS55" s="70"/>
-      <c r="AT55" s="110"/>
-      <c r="AU55" s="75"/>
-      <c r="AV55" s="71"/>
-      <c r="AW55" s="69"/>
-      <c r="AX55" s="69"/>
-    </row>
-    <row r="56" spans="1:50" s="15" customFormat="1">
+      <c r="AL55" s="110"/>
+      <c r="AM55" s="83"/>
+      <c r="AN55" s="68"/>
+      <c r="AO55" s="118"/>
+      <c r="AP55" s="70"/>
+      <c r="AQ55" s="70"/>
+      <c r="AR55" s="110"/>
+      <c r="AS55" s="75"/>
+      <c r="AT55" s="71"/>
+      <c r="AU55" s="69"/>
+      <c r="AV55" s="69"/>
+    </row>
+    <row r="56" spans="1:48" s="15" customFormat="1">
       <c r="D56" s="99"/>
       <c r="H56" s="97"/>
       <c r="O56" s="97"/>
-      <c r="U56" s="97"/>
-      <c r="V56" s="15" t="s">
+      <c r="S56" s="97"/>
+      <c r="T56" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="W56" s="15">
-        <v>1</v>
-      </c>
-      <c r="X56" s="15">
+      <c r="U56" s="15">
+        <v>1</v>
+      </c>
+      <c r="V56" s="15">
         <v>3500</v>
       </c>
+      <c r="W56" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X56" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="Y56" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z56" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC56" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD56" s="97"/>
+      <c r="AH56" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ56" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="16"/>
+      <c r="AL56" s="111"/>
+      <c r="AM56" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN56" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO56" s="121">
+        <v>50</v>
+      </c>
+      <c r="AP56" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR56" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS56" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT56" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU56" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV56" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z56" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA56" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB56" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE56" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF56" s="97"/>
-      <c r="AJ56" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK56" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM56" s="16"/>
-      <c r="AN56" s="111"/>
-      <c r="AO56" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP56" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ56" s="121">
-        <v>50</v>
-      </c>
-      <c r="AR56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT56" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU56" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV56" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW56" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX56" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:50" s="15" customFormat="1">
+    </row>
+    <row r="57" spans="1:48" s="15" customFormat="1">
       <c r="D57" s="97"/>
       <c r="H57" s="97"/>
       <c r="O57" s="97"/>
-      <c r="U57" s="97"/>
-      <c r="AF57" s="97"/>
-      <c r="AN57" s="97"/>
-      <c r="AO57" s="84" t="s">
+      <c r="S57" s="97"/>
+      <c r="AD57" s="97"/>
+      <c r="AL57" s="97"/>
+      <c r="AM57" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AP57" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ57" s="121">
+      <c r="AN57" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO57" s="121">
         <v>50</v>
       </c>
-      <c r="AR57" s="16"/>
-      <c r="AS57" s="16"/>
-      <c r="AT57" s="111"/>
-      <c r="AU57" s="76"/>
-      <c r="AV57" s="19"/>
-    </row>
-    <row r="58" spans="1:50" s="15" customFormat="1">
+      <c r="AP57" s="16"/>
+      <c r="AQ57" s="16"/>
+      <c r="AR57" s="111"/>
+      <c r="AS57" s="76"/>
+      <c r="AT57" s="19"/>
+    </row>
+    <row r="58" spans="1:48" s="15" customFormat="1">
       <c r="C58"/>
       <c r="D58" s="98"/>
       <c r="E58"/>
@@ -6818,9 +6722,9 @@
       <c r="P58"/>
       <c r="Q58"/>
       <c r="R58"/>
-      <c r="S58"/>
+      <c r="S58" s="98"/>
       <c r="T58"/>
-      <c r="U58" s="98"/>
+      <c r="U58"/>
       <c r="V58"/>
       <c r="W58"/>
       <c r="X58"/>
@@ -6829,35 +6733,33 @@
       <c r="AA58"/>
       <c r="AB58"/>
       <c r="AC58"/>
-      <c r="AD58"/>
+      <c r="AD58" s="98"/>
       <c r="AE58"/>
-      <c r="AF58" s="98"/>
+      <c r="AF58"/>
       <c r="AG58"/>
-      <c r="AH58"/>
-      <c r="AI58"/>
+      <c r="AH58" s="17"/>
+      <c r="AI58" s="17"/>
       <c r="AJ58" s="17"/>
       <c r="AK58" s="17"/>
-      <c r="AL58" s="17"/>
-      <c r="AM58" s="17"/>
-      <c r="AN58" s="112"/>
-      <c r="AO58" s="84" t="s">
+      <c r="AL58" s="112"/>
+      <c r="AM58" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AP58" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ58" s="123">
+      <c r="AN58" s="20">
+        <v>0</v>
+      </c>
+      <c r="AO58" s="123">
         <v>3</v>
       </c>
-      <c r="AR58" s="17"/>
-      <c r="AS58" s="17"/>
-      <c r="AT58" s="112"/>
-      <c r="AU58" s="77"/>
-      <c r="AV58" s="20"/>
-      <c r="AW58"/>
-      <c r="AX58"/>
-    </row>
-    <row r="59" spans="1:50" s="15" customFormat="1">
+      <c r="AP58" s="17"/>
+      <c r="AQ58" s="17"/>
+      <c r="AR58" s="112"/>
+      <c r="AS58" s="77"/>
+      <c r="AT58" s="20"/>
+      <c r="AU58"/>
+      <c r="AV58"/>
+    </row>
+    <row r="59" spans="1:48" s="15" customFormat="1">
       <c r="C59"/>
       <c r="D59" s="98"/>
       <c r="E59"/>
@@ -6874,9 +6776,9 @@
       <c r="P59"/>
       <c r="Q59"/>
       <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59" s="98"/>
+      <c r="S59" s="98"/>
+      <c r="T59" s="69"/>
+      <c r="U59" s="69"/>
       <c r="V59" s="69"/>
       <c r="W59" s="69"/>
       <c r="X59" s="69"/>
@@ -6885,29 +6787,27 @@
       <c r="AA59" s="69"/>
       <c r="AB59" s="69"/>
       <c r="AC59" s="69"/>
-      <c r="AD59" s="69"/>
+      <c r="AD59" s="105"/>
       <c r="AE59" s="69"/>
-      <c r="AF59" s="105"/>
+      <c r="AF59" s="69"/>
       <c r="AG59" s="69"/>
-      <c r="AH59" s="69"/>
-      <c r="AI59" s="69"/>
+      <c r="AH59" s="70"/>
+      <c r="AI59" s="70"/>
       <c r="AJ59" s="70"/>
       <c r="AK59" s="70"/>
-      <c r="AL59" s="70"/>
-      <c r="AM59" s="70"/>
-      <c r="AN59" s="110"/>
-      <c r="AO59" s="83"/>
-      <c r="AP59" s="68"/>
-      <c r="AQ59" s="118"/>
-      <c r="AR59" s="70"/>
-      <c r="AS59" s="70"/>
-      <c r="AT59" s="110"/>
-      <c r="AU59" s="75"/>
-      <c r="AV59" s="71"/>
-      <c r="AW59" s="69"/>
-      <c r="AX59" s="69"/>
-    </row>
-    <row r="60" spans="1:50" s="15" customFormat="1">
+      <c r="AL59" s="110"/>
+      <c r="AM59" s="83"/>
+      <c r="AN59" s="68"/>
+      <c r="AO59" s="118"/>
+      <c r="AP59" s="70"/>
+      <c r="AQ59" s="70"/>
+      <c r="AR59" s="110"/>
+      <c r="AS59" s="75"/>
+      <c r="AT59" s="71"/>
+      <c r="AU59" s="69"/>
+      <c r="AV59" s="69"/>
+    </row>
+    <row r="60" spans="1:48" s="15" customFormat="1">
       <c r="C60"/>
       <c r="D60" s="98"/>
       <c r="E60"/>
@@ -6924,87 +6824,85 @@
       <c r="P60"/>
       <c r="Q60"/>
       <c r="R60"/>
-      <c r="S60"/>
-      <c r="T60"/>
-      <c r="U60" s="98"/>
-      <c r="V60" s="15" t="s">
+      <c r="S60" s="98"/>
+      <c r="T60" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="W60" s="15">
-        <v>1</v>
-      </c>
-      <c r="X60" s="15">
+      <c r="U60" s="15">
+        <v>1</v>
+      </c>
+      <c r="V60" s="15">
         <v>7000</v>
       </c>
+      <c r="W60" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X60" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="Y60" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z60" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC60" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD60" s="97"/>
+      <c r="AH60" s="16"/>
+      <c r="AI60" s="16"/>
+      <c r="AJ60" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK60" s="16"/>
+      <c r="AL60" s="111"/>
+      <c r="AM60" s="84"/>
+      <c r="AN60" s="19"/>
+      <c r="AO60" s="121"/>
+      <c r="AP60" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ60" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR60" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT60" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU60" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV60" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z60" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA60" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB60" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE60" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF60" s="97"/>
-      <c r="AJ60" s="16"/>
-      <c r="AK60" s="16"/>
-      <c r="AL60" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM60" s="16"/>
-      <c r="AN60" s="111"/>
-      <c r="AO60" s="84"/>
-      <c r="AP60" s="19"/>
-      <c r="AQ60" s="121"/>
-      <c r="AR60" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS60" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT60" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU60" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV60" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW60" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX60" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:50" s="59" customFormat="1" ht="12" customHeight="1">
+    </row>
+    <row r="61" spans="1:48" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="D61" s="96"/>
       <c r="H61" s="96"/>
       <c r="O61" s="96"/>
-      <c r="U61" s="96"/>
-      <c r="AF61" s="96"/>
+      <c r="S61" s="96"/>
+      <c r="AD61" s="96"/>
+      <c r="AH61" s="61"/>
+      <c r="AI61" s="61"/>
       <c r="AJ61" s="61"/>
-      <c r="AK61" s="61"/>
-      <c r="AL61" s="61"/>
-      <c r="AM61" s="60"/>
-      <c r="AN61" s="108"/>
-      <c r="AO61" s="81"/>
-      <c r="AP61" s="62"/>
-      <c r="AQ61" s="116"/>
-      <c r="AR61" s="61"/>
-      <c r="AS61" s="61"/>
-      <c r="AT61" s="127"/>
-      <c r="AU61" s="73"/>
-      <c r="AV61" s="62"/>
-    </row>
-    <row r="62" spans="1:50" s="15" customFormat="1">
+      <c r="AK61" s="60"/>
+      <c r="AL61" s="108"/>
+      <c r="AM61" s="81"/>
+      <c r="AN61" s="62"/>
+      <c r="AO61" s="116"/>
+      <c r="AP61" s="61"/>
+      <c r="AQ61" s="61"/>
+      <c r="AR61" s="127"/>
+      <c r="AS61" s="73"/>
+      <c r="AT61" s="62"/>
+    </row>
+    <row r="62" spans="1:48" s="15" customFormat="1">
       <c r="C62" s="41"/>
       <c r="D62" s="99" t="s">
         <v>115</v>
@@ -7045,67 +6943,67 @@
       <c r="P62" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="U62" s="97"/>
-      <c r="V62" s="15" t="s">
+      <c r="S62" s="97"/>
+      <c r="T62" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="W62" s="15">
+      <c r="U62" s="15">
         <v>0.8</v>
       </c>
-      <c r="X62" s="15">
+      <c r="V62" s="15">
         <v>50</v>
       </c>
+      <c r="W62" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X62" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="Y62" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z62" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA62" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AB62" s="41" t="s">
+      <c r="Z62" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AC62" s="15">
+      <c r="AA62" s="15">
         <v>20</v>
       </c>
-      <c r="AD62" s="15">
+      <c r="AB62" s="15">
         <v>5</v>
       </c>
-      <c r="AF62" s="97" t="s">
+      <c r="AD62" s="97" t="s">
         <v>82</v>
+      </c>
+      <c r="AE62" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF62" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="AG62" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AH62" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI62" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ62" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AH62" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI62" s="18"/>
+      <c r="AJ62" s="18"/>
       <c r="AK62" s="18"/>
-      <c r="AL62" s="18"/>
-      <c r="AM62" s="18"/>
-      <c r="AN62" s="109"/>
-      <c r="AO62" s="86"/>
+      <c r="AL62" s="109"/>
+      <c r="AM62" s="86"/>
+      <c r="AN62" s="18"/>
+      <c r="AO62" s="109"/>
       <c r="AP62" s="18"/>
-      <c r="AQ62" s="109"/>
-      <c r="AR62" s="18"/>
-      <c r="AS62" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT62" s="109"/>
-      <c r="AU62" s="74"/>
-      <c r="AV62" s="93"/>
-      <c r="AW62" s="18"/>
-      <c r="AX62" s="18"/>
-    </row>
-    <row r="63" spans="1:50" s="47" customFormat="1">
+      <c r="AQ62" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR62" s="109"/>
+      <c r="AS62" s="74"/>
+      <c r="AT62" s="93"/>
+      <c r="AU62" s="18"/>
+      <c r="AV62" s="18"/>
+    </row>
+    <row r="63" spans="1:48" s="47" customFormat="1">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="41"/>
@@ -7124,9 +7022,9 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
       <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="97"/>
+      <c r="S63" s="97"/>
+      <c r="T63" s="69"/>
+      <c r="U63" s="69"/>
       <c r="V63" s="69"/>
       <c r="W63" s="69"/>
       <c r="X63" s="69"/>
@@ -7135,138 +7033,136 @@
       <c r="AA63" s="69"/>
       <c r="AB63" s="69"/>
       <c r="AC63" s="69"/>
-      <c r="AD63" s="69"/>
+      <c r="AD63" s="105"/>
       <c r="AE63" s="69"/>
-      <c r="AF63" s="105"/>
+      <c r="AF63" s="69"/>
       <c r="AG63" s="69"/>
-      <c r="AH63" s="69"/>
-      <c r="AI63" s="69"/>
+      <c r="AH63" s="70"/>
+      <c r="AI63" s="70"/>
       <c r="AJ63" s="70"/>
       <c r="AK63" s="70"/>
-      <c r="AL63" s="70"/>
-      <c r="AM63" s="70"/>
-      <c r="AN63" s="110"/>
-      <c r="AO63" s="83"/>
-      <c r="AP63" s="68"/>
-      <c r="AQ63" s="118"/>
-      <c r="AR63" s="70"/>
-      <c r="AS63" s="70"/>
-      <c r="AT63" s="110"/>
-      <c r="AU63" s="75"/>
-      <c r="AV63" s="71"/>
-      <c r="AW63" s="69"/>
-      <c r="AX63" s="69"/>
-    </row>
-    <row r="64" spans="1:50" s="15" customFormat="1">
+      <c r="AL63" s="110"/>
+      <c r="AM63" s="83"/>
+      <c r="AN63" s="68"/>
+      <c r="AO63" s="118"/>
+      <c r="AP63" s="70"/>
+      <c r="AQ63" s="70"/>
+      <c r="AR63" s="110"/>
+      <c r="AS63" s="75"/>
+      <c r="AT63" s="71"/>
+      <c r="AU63" s="69"/>
+      <c r="AV63" s="69"/>
+    </row>
+    <row r="64" spans="1:48" s="15" customFormat="1">
       <c r="D64" s="97"/>
       <c r="H64" s="97"/>
       <c r="O64" s="97"/>
-      <c r="U64" s="97"/>
-      <c r="V64" s="45" t="s">
+      <c r="S64" s="97"/>
+      <c r="T64" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="W64" s="15">
-        <v>1</v>
-      </c>
-      <c r="X64" s="15">
+      <c r="U64" s="15">
+        <v>1</v>
+      </c>
+      <c r="V64" s="15">
         <v>100</v>
       </c>
+      <c r="W64" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X64" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="Y64" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z64" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC64" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD64" s="97"/>
+      <c r="AH64" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI64" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="16"/>
+      <c r="AL64" s="111"/>
+      <c r="AM64" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN64" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="121">
+        <v>50</v>
+      </c>
+      <c r="AP64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR64" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS64" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT64" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU64" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV64" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z64" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA64" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB64" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE64" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF64" s="97"/>
-      <c r="AJ64" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK64" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM64" s="16"/>
-      <c r="AN64" s="111"/>
-      <c r="AO64" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP64" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ64" s="121">
-        <v>50</v>
-      </c>
-      <c r="AR64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT64" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU64" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV64" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW64" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX64" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:50" s="15" customFormat="1">
+    </row>
+    <row r="65" spans="1:48" s="15" customFormat="1">
       <c r="D65" s="97"/>
       <c r="H65" s="97"/>
       <c r="O65" s="97"/>
-      <c r="U65" s="97"/>
-      <c r="V65" s="45"/>
-      <c r="AF65" s="97"/>
-      <c r="AN65" s="97"/>
-      <c r="AO65" s="84" t="s">
+      <c r="S65" s="97"/>
+      <c r="T65" s="45"/>
+      <c r="AD65" s="97"/>
+      <c r="AL65" s="97"/>
+      <c r="AM65" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AP65" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ65" s="121">
+      <c r="AN65" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="121">
         <v>50</v>
       </c>
-      <c r="AR65" s="16"/>
-      <c r="AS65" s="16"/>
-      <c r="AT65" s="111"/>
-      <c r="AU65" s="76"/>
-      <c r="AV65" s="19"/>
-    </row>
-    <row r="66" spans="1:50">
+      <c r="AP65" s="16"/>
+      <c r="AQ65" s="16"/>
+      <c r="AR65" s="111"/>
+      <c r="AS65" s="76"/>
+      <c r="AT65" s="19"/>
+    </row>
+    <row r="66" spans="1:48">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
-      <c r="V66" s="45"/>
-      <c r="AO66" s="84" t="s">
+      <c r="T66" s="45"/>
+      <c r="AM66" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AP66" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ66" s="123">
+      <c r="AN66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AO66" s="123">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:50" s="47" customFormat="1">
+    <row r="67" spans="1:48" s="47" customFormat="1">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -7285,9 +7181,9 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
       <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
-      <c r="T67" s="15"/>
-      <c r="U67" s="97"/>
+      <c r="S67" s="97"/>
+      <c r="T67" s="69"/>
+      <c r="U67" s="69"/>
       <c r="V67" s="69"/>
       <c r="W67" s="69"/>
       <c r="X67" s="69"/>
@@ -7296,111 +7192,109 @@
       <c r="AA67" s="69"/>
       <c r="AB67" s="69"/>
       <c r="AC67" s="69"/>
-      <c r="AD67" s="69"/>
+      <c r="AD67" s="105"/>
       <c r="AE67" s="69"/>
-      <c r="AF67" s="105"/>
+      <c r="AF67" s="69"/>
       <c r="AG67" s="69"/>
-      <c r="AH67" s="69"/>
-      <c r="AI67" s="69"/>
+      <c r="AH67" s="70"/>
+      <c r="AI67" s="70"/>
       <c r="AJ67" s="70"/>
       <c r="AK67" s="70"/>
-      <c r="AL67" s="70"/>
-      <c r="AM67" s="70"/>
-      <c r="AN67" s="110"/>
-      <c r="AO67" s="83"/>
-      <c r="AP67" s="68"/>
-      <c r="AQ67" s="118"/>
-      <c r="AR67" s="70"/>
-      <c r="AS67" s="70"/>
-      <c r="AT67" s="110"/>
-      <c r="AU67" s="75"/>
-      <c r="AV67" s="71"/>
-      <c r="AW67" s="69"/>
-      <c r="AX67" s="69"/>
-    </row>
-    <row r="68" spans="1:50" s="15" customFormat="1">
+      <c r="AL67" s="110"/>
+      <c r="AM67" s="83"/>
+      <c r="AN67" s="68"/>
+      <c r="AO67" s="118"/>
+      <c r="AP67" s="70"/>
+      <c r="AQ67" s="70"/>
+      <c r="AR67" s="110"/>
+      <c r="AS67" s="75"/>
+      <c r="AT67" s="71"/>
+      <c r="AU67" s="69"/>
+      <c r="AV67" s="69"/>
+    </row>
+    <row r="68" spans="1:48" s="15" customFormat="1">
       <c r="D68" s="97"/>
       <c r="H68" s="97"/>
       <c r="O68" s="97"/>
-      <c r="U68" s="97"/>
-      <c r="V68" s="15" t="s">
+      <c r="S68" s="97"/>
+      <c r="T68" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="W68" s="15">
-        <v>1</v>
-      </c>
-      <c r="X68" s="15">
+      <c r="U68" s="15">
+        <v>1</v>
+      </c>
+      <c r="V68" s="15">
         <v>200</v>
       </c>
+      <c r="W68" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="X68" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="Y68" s="15" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="Z68" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA68" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB68" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AE68" s="15" t="s">
+      <c r="AC68" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AF68" s="97"/>
-      <c r="AJ68" s="16"/>
+      <c r="AD68" s="97"/>
+      <c r="AH68" s="16"/>
+      <c r="AI68" s="16"/>
+      <c r="AJ68" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AK68" s="16"/>
-      <c r="AL68" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM68" s="16"/>
-      <c r="AN68" s="111"/>
-      <c r="AO68" s="84"/>
-      <c r="AP68" s="19"/>
-      <c r="AQ68" s="121"/>
-      <c r="AR68" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS68" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT68" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU68" s="76" t="s">
+      <c r="AL68" s="111"/>
+      <c r="AM68" s="84"/>
+      <c r="AN68" s="19"/>
+      <c r="AO68" s="121"/>
+      <c r="AP68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR68" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS68" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="AV68" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW68" s="15" t="s">
+      <c r="AT68" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU68" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AX68" s="15" t="s">
+      <c r="AV68" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:50" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="69" spans="1:48" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="D69" s="96"/>
       <c r="H69" s="96"/>
       <c r="O69" s="96"/>
-      <c r="U69" s="96"/>
-      <c r="AF69" s="96"/>
+      <c r="S69" s="96"/>
+      <c r="AD69" s="96"/>
+      <c r="AH69" s="61"/>
+      <c r="AI69" s="61"/>
       <c r="AJ69" s="61"/>
-      <c r="AK69" s="61"/>
-      <c r="AL69" s="61"/>
-      <c r="AM69" s="60"/>
-      <c r="AN69" s="108"/>
-      <c r="AO69" s="81"/>
-      <c r="AP69" s="62"/>
-      <c r="AQ69" s="116"/>
-      <c r="AR69" s="61"/>
-      <c r="AS69" s="61"/>
-      <c r="AT69" s="127"/>
-      <c r="AU69" s="73"/>
-      <c r="AV69" s="62"/>
-    </row>
-    <row r="70" spans="1:50" s="15" customFormat="1">
+      <c r="AK69" s="60"/>
+      <c r="AL69" s="108"/>
+      <c r="AM69" s="81"/>
+      <c r="AN69" s="62"/>
+      <c r="AO69" s="116"/>
+      <c r="AP69" s="61"/>
+      <c r="AQ69" s="61"/>
+      <c r="AR69" s="127"/>
+      <c r="AS69" s="73"/>
+      <c r="AT69" s="62"/>
+    </row>
+    <row r="70" spans="1:48" s="15" customFormat="1">
       <c r="C70" s="41"/>
       <c r="D70" s="99" t="s">
         <v>118</v>
@@ -7441,67 +7335,67 @@
       <c r="P70" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="U70" s="97"/>
-      <c r="V70" s="15" t="s">
+      <c r="S70" s="97"/>
+      <c r="T70" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="W70" s="15">
+      <c r="U70" s="15">
         <v>0.8</v>
       </c>
-      <c r="X70" s="15">
+      <c r="V70" s="15">
         <v>50</v>
       </c>
+      <c r="W70" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X70" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="Y70" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z70" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA70" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AB70" s="41" t="s">
+      <c r="Z70" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AC70" s="15">
+      <c r="AA70" s="15">
         <v>20</v>
       </c>
-      <c r="AD70" s="15">
+      <c r="AB70" s="15">
         <v>5</v>
       </c>
-      <c r="AF70" s="97" t="s">
+      <c r="AD70" s="97" t="s">
         <v>82</v>
+      </c>
+      <c r="AE70" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF70" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="AG70" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AH70" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI70" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ70" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AH70" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="18"/>
+      <c r="AJ70" s="18"/>
       <c r="AK70" s="18"/>
-      <c r="AL70" s="18"/>
-      <c r="AM70" s="18"/>
-      <c r="AN70" s="109"/>
-      <c r="AO70" s="86"/>
+      <c r="AL70" s="109"/>
+      <c r="AM70" s="86"/>
+      <c r="AN70" s="18"/>
+      <c r="AO70" s="109"/>
       <c r="AP70" s="18"/>
-      <c r="AQ70" s="109"/>
-      <c r="AR70" s="18"/>
-      <c r="AS70" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT70" s="109"/>
-      <c r="AU70" s="74"/>
-      <c r="AV70" s="93"/>
-      <c r="AW70" s="18"/>
-      <c r="AX70" s="18"/>
-    </row>
-    <row r="71" spans="1:50" s="47" customFormat="1">
+      <c r="AQ70" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR70" s="109"/>
+      <c r="AS70" s="74"/>
+      <c r="AT70" s="93"/>
+      <c r="AU70" s="18"/>
+      <c r="AV70" s="18"/>
+    </row>
+    <row r="71" spans="1:48" s="47" customFormat="1">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="41"/>
@@ -7522,9 +7416,9 @@
       </c>
       <c r="Q71" s="15"/>
       <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
-      <c r="U71" s="97"/>
+      <c r="S71" s="97"/>
+      <c r="T71" s="69"/>
+      <c r="U71" s="69"/>
       <c r="V71" s="69"/>
       <c r="W71" s="69"/>
       <c r="X71" s="69"/>
@@ -7533,138 +7427,136 @@
       <c r="AA71" s="69"/>
       <c r="AB71" s="69"/>
       <c r="AC71" s="69"/>
-      <c r="AD71" s="69"/>
+      <c r="AD71" s="105"/>
       <c r="AE71" s="69"/>
-      <c r="AF71" s="105"/>
+      <c r="AF71" s="69"/>
       <c r="AG71" s="69"/>
-      <c r="AH71" s="69"/>
-      <c r="AI71" s="69"/>
+      <c r="AH71" s="70"/>
+      <c r="AI71" s="70"/>
       <c r="AJ71" s="70"/>
       <c r="AK71" s="70"/>
-      <c r="AL71" s="70"/>
-      <c r="AM71" s="70"/>
-      <c r="AN71" s="110"/>
-      <c r="AO71" s="83"/>
-      <c r="AP71" s="68"/>
-      <c r="AQ71" s="118"/>
-      <c r="AR71" s="70"/>
-      <c r="AS71" s="70"/>
-      <c r="AT71" s="110"/>
-      <c r="AU71" s="75"/>
-      <c r="AV71" s="71"/>
-      <c r="AW71" s="69"/>
-      <c r="AX71" s="69"/>
-    </row>
-    <row r="72" spans="1:50" s="15" customFormat="1">
+      <c r="AL71" s="110"/>
+      <c r="AM71" s="83"/>
+      <c r="AN71" s="68"/>
+      <c r="AO71" s="118"/>
+      <c r="AP71" s="70"/>
+      <c r="AQ71" s="70"/>
+      <c r="AR71" s="110"/>
+      <c r="AS71" s="75"/>
+      <c r="AT71" s="71"/>
+      <c r="AU71" s="69"/>
+      <c r="AV71" s="69"/>
+    </row>
+    <row r="72" spans="1:48" s="15" customFormat="1">
       <c r="D72" s="97"/>
       <c r="H72" s="97"/>
       <c r="O72" s="97"/>
-      <c r="U72" s="97"/>
-      <c r="V72" s="45" t="s">
+      <c r="S72" s="97"/>
+      <c r="T72" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="W72" s="15">
-        <v>1</v>
-      </c>
-      <c r="X72" s="15">
+      <c r="U72" s="15">
+        <v>1</v>
+      </c>
+      <c r="V72" s="15">
         <v>100</v>
       </c>
+      <c r="W72" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X72" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="Y72" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z72" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC72" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD72" s="97"/>
+      <c r="AH72" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI72" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ72" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK72" s="16"/>
+      <c r="AL72" s="111"/>
+      <c r="AM72" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN72" s="80">
+        <v>0</v>
+      </c>
+      <c r="AO72" s="120">
+        <v>50</v>
+      </c>
+      <c r="AP72" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ72" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR72" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS72" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT72" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU72" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV72" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z72" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA72" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB72" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE72" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF72" s="97"/>
-      <c r="AJ72" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK72" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL72" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM72" s="16"/>
-      <c r="AN72" s="111"/>
-      <c r="AO72" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP72" s="80">
-        <v>0</v>
-      </c>
-      <c r="AQ72" s="120">
-        <v>50</v>
-      </c>
-      <c r="AR72" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS72" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT72" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU72" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV72" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW72" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX72" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:50" s="15" customFormat="1">
+    </row>
+    <row r="73" spans="1:48" s="15" customFormat="1">
       <c r="D73" s="97"/>
       <c r="H73" s="97"/>
       <c r="O73" s="97"/>
-      <c r="U73" s="97"/>
-      <c r="V73" s="45"/>
-      <c r="AF73" s="97"/>
-      <c r="AN73" s="97"/>
-      <c r="AO73" s="82" t="s">
+      <c r="S73" s="97"/>
+      <c r="T73" s="45"/>
+      <c r="AD73" s="97"/>
+      <c r="AL73" s="97"/>
+      <c r="AM73" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AP73" s="80">
-        <v>0</v>
-      </c>
-      <c r="AQ73" s="120">
+      <c r="AN73" s="80">
+        <v>0</v>
+      </c>
+      <c r="AO73" s="120">
         <v>50</v>
       </c>
-      <c r="AR73" s="16"/>
-      <c r="AS73" s="16"/>
-      <c r="AT73" s="111"/>
-      <c r="AU73" s="76"/>
-      <c r="AV73" s="19"/>
-    </row>
-    <row r="74" spans="1:50">
+      <c r="AP73" s="16"/>
+      <c r="AQ73" s="16"/>
+      <c r="AR73" s="111"/>
+      <c r="AS73" s="76"/>
+      <c r="AT73" s="19"/>
+    </row>
+    <row r="74" spans="1:48">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
-      <c r="V74" s="45"/>
-      <c r="AO74" s="82" t="s">
+      <c r="T74" s="45"/>
+      <c r="AM74" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="AP74" s="80">
-        <v>0</v>
-      </c>
-      <c r="AQ74" s="120">
+      <c r="AN74" s="80">
+        <v>0</v>
+      </c>
+      <c r="AO74" s="120">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:50" s="47" customFormat="1">
+    <row r="75" spans="1:48" s="47" customFormat="1">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -7683,9 +7575,9 @@
       <c r="P75" s="15"/>
       <c r="Q75" s="15"/>
       <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
-      <c r="U75" s="97"/>
+      <c r="S75" s="97"/>
+      <c r="T75" s="69"/>
+      <c r="U75" s="69"/>
       <c r="V75" s="69"/>
       <c r="W75" s="69"/>
       <c r="X75" s="69"/>
@@ -7694,111 +7586,109 @@
       <c r="AA75" s="69"/>
       <c r="AB75" s="69"/>
       <c r="AC75" s="69"/>
-      <c r="AD75" s="69"/>
+      <c r="AD75" s="105"/>
       <c r="AE75" s="69"/>
-      <c r="AF75" s="105"/>
+      <c r="AF75" s="69"/>
       <c r="AG75" s="69"/>
-      <c r="AH75" s="69"/>
-      <c r="AI75" s="69"/>
+      <c r="AH75" s="70"/>
+      <c r="AI75" s="70"/>
       <c r="AJ75" s="70"/>
       <c r="AK75" s="70"/>
-      <c r="AL75" s="70"/>
-      <c r="AM75" s="70"/>
-      <c r="AN75" s="110"/>
-      <c r="AO75" s="83"/>
-      <c r="AP75" s="68"/>
-      <c r="AQ75" s="118"/>
-      <c r="AR75" s="70"/>
-      <c r="AS75" s="70"/>
-      <c r="AT75" s="110"/>
-      <c r="AU75" s="75"/>
-      <c r="AV75" s="71"/>
-      <c r="AW75" s="69"/>
-      <c r="AX75" s="69"/>
-    </row>
-    <row r="76" spans="1:50" s="15" customFormat="1">
+      <c r="AL75" s="110"/>
+      <c r="AM75" s="83"/>
+      <c r="AN75" s="68"/>
+      <c r="AO75" s="118"/>
+      <c r="AP75" s="70"/>
+      <c r="AQ75" s="70"/>
+      <c r="AR75" s="110"/>
+      <c r="AS75" s="75"/>
+      <c r="AT75" s="71"/>
+      <c r="AU75" s="69"/>
+      <c r="AV75" s="69"/>
+    </row>
+    <row r="76" spans="1:48" s="15" customFormat="1">
       <c r="D76" s="97"/>
       <c r="H76" s="97"/>
       <c r="O76" s="97"/>
-      <c r="U76" s="97"/>
-      <c r="V76" s="45" t="s">
+      <c r="S76" s="97"/>
+      <c r="T76" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="W76" s="15">
-        <v>1</v>
-      </c>
-      <c r="X76" s="15">
+      <c r="U76" s="15">
+        <v>1</v>
+      </c>
+      <c r="V76" s="15">
         <v>200</v>
       </c>
+      <c r="W76" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="X76" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="Y76" s="15" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="Z76" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA76" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB76" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AE76" s="15" t="s">
+      <c r="AC76" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AF76" s="97"/>
-      <c r="AJ76" s="16"/>
+      <c r="AD76" s="97"/>
+      <c r="AH76" s="16"/>
+      <c r="AI76" s="16"/>
+      <c r="AJ76" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AK76" s="16"/>
-      <c r="AL76" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM76" s="16"/>
-      <c r="AN76" s="111"/>
-      <c r="AO76" s="84"/>
-      <c r="AP76" s="19"/>
-      <c r="AQ76" s="121"/>
-      <c r="AR76" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS76" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT76" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU76" s="76" t="s">
+      <c r="AL76" s="111"/>
+      <c r="AM76" s="84"/>
+      <c r="AN76" s="19"/>
+      <c r="AO76" s="121"/>
+      <c r="AP76" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ76" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR76" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS76" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="AV76" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW76" s="15" t="s">
+      <c r="AT76" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU76" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AX76" s="15" t="s">
+      <c r="AV76" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:50" s="63" customFormat="1">
+    <row r="77" spans="1:48" s="63" customFormat="1">
       <c r="D77" s="100"/>
       <c r="H77" s="100"/>
       <c r="O77" s="100"/>
-      <c r="U77" s="100"/>
-      <c r="AF77" s="100"/>
+      <c r="S77" s="100"/>
+      <c r="AD77" s="100"/>
+      <c r="AH77" s="64"/>
+      <c r="AI77" s="64"/>
       <c r="AJ77" s="64"/>
       <c r="AK77" s="64"/>
-      <c r="AL77" s="64"/>
-      <c r="AM77" s="64"/>
-      <c r="AN77" s="114"/>
-      <c r="AO77" s="87"/>
-      <c r="AP77" s="65"/>
-      <c r="AQ77" s="125"/>
-      <c r="AR77" s="64"/>
-      <c r="AS77" s="64"/>
-      <c r="AT77" s="114"/>
-      <c r="AU77" s="79"/>
-      <c r="AV77" s="65"/>
-    </row>
-    <row r="78" spans="1:50" s="15" customFormat="1">
+      <c r="AL77" s="114"/>
+      <c r="AM77" s="87"/>
+      <c r="AN77" s="65"/>
+      <c r="AO77" s="125"/>
+      <c r="AP77" s="64"/>
+      <c r="AQ77" s="64"/>
+      <c r="AR77" s="114"/>
+      <c r="AS77" s="79"/>
+      <c r="AT77" s="65"/>
+    </row>
+    <row r="78" spans="1:48" s="15" customFormat="1">
       <c r="D78" s="97" t="s">
         <v>122</v>
       </c>
@@ -7830,108 +7720,108 @@
       <c r="P78" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="U78" s="97"/>
-      <c r="V78" s="15" t="s">
+      <c r="S78" s="97"/>
+      <c r="T78" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="W78" s="15">
+      <c r="U78" s="15">
         <v>0.9</v>
       </c>
-      <c r="X78" s="15">
+      <c r="V78" s="15">
         <v>50</v>
       </c>
+      <c r="W78" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X78" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="Y78" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z78" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA78" s="15" t="s">
         <v>91</v>
       </c>
+      <c r="AC78" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD78" s="97" t="s">
+        <v>126</v>
+      </c>
       <c r="AE78" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF78" s="97" t="s">
-        <v>126</v>
+        <v>84</v>
+      </c>
+      <c r="AF78" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="AG78" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AH78" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI78" s="15" t="s">
-        <v>84</v>
+      <c r="AH78" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI78" s="16" t="b">
+        <v>1</v>
       </c>
       <c r="AJ78" s="16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK78" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL78" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM78" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN78" s="111"/>
-      <c r="AO78" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="111"/>
+      <c r="AM78" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="AP78" s="19">
+      <c r="AN78" s="19">
         <v>50</v>
       </c>
-      <c r="AQ78" s="121" t="s">
+      <c r="AO78" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="AR78" s="16"/>
-      <c r="AS78" s="16"/>
-      <c r="AT78" s="111"/>
-      <c r="AU78" s="76" t="s">
+      <c r="AP78" s="16"/>
+      <c r="AQ78" s="16"/>
+      <c r="AR78" s="111"/>
+      <c r="AS78" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="AV78" s="19">
+      <c r="AT78" s="19">
         <v>50</v>
       </c>
-      <c r="AW78" s="16" t="s">
+      <c r="AU78" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:50" s="15" customFormat="1">
+    <row r="79" spans="1:48" s="15" customFormat="1">
       <c r="D79" s="97"/>
       <c r="E79" s="15" t="s">
         <v>129</v>
       </c>
       <c r="H79" s="97"/>
       <c r="O79" s="97"/>
-      <c r="U79" s="97"/>
-      <c r="AF79" s="97"/>
+      <c r="S79" s="97"/>
+      <c r="AD79" s="97"/>
+      <c r="AH79" s="16"/>
+      <c r="AI79" s="16"/>
       <c r="AJ79" s="16"/>
       <c r="AK79" s="16"/>
-      <c r="AL79" s="16"/>
-      <c r="AM79" s="16"/>
-      <c r="AN79" s="111"/>
-      <c r="AO79" s="84" t="s">
+      <c r="AL79" s="111"/>
+      <c r="AM79" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AP79" s="19">
+      <c r="AN79" s="19">
         <v>170</v>
       </c>
-      <c r="AQ79" s="121" t="s">
+      <c r="AO79" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="AR79" s="16"/>
-      <c r="AS79" s="16"/>
-      <c r="AT79" s="111"/>
-      <c r="AU79" s="76" t="s">
+      <c r="AP79" s="16"/>
+      <c r="AQ79" s="16"/>
+      <c r="AR79" s="111"/>
+      <c r="AS79" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="AV79" s="19">
+      <c r="AT79" s="19">
         <v>50</v>
       </c>
-      <c r="AW79" s="16" t="s">
+      <c r="AU79" s="16" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7945,392 +7835,357 @@
       <c r="H84" s="95"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AO13 B7:B13 AB17:AF17 Z16:Z17 W16:Y16 C23:D23 E22:G23 B71:B74 B16:B23 C18:D20 E17:G19 C7:D12 E6:H12 B35:G39 C63:H64 H36:I36 I7:O7 B51:O51 B50:I50 B55:O55 B54:I54 B43:O44 B42:I42 C25:I25 B70:I70 B62:I62 H23:U23 H18:U20 H37:U39 I12:U12 B40:U40 B52:U52 B56:U60 B45:U48 C71:U73 B75:U76 C65:U65 B67:U68 H34:U34 H29:U31 P36:AA36 I10:AN11 B80:W81 C16:V17 B15:X15 C24:Y24 H28:AI28 H27:AA27 I64:AI64 V50:AA50 V54:AE54 V42:AA42 V25 V22:AN22 V39:AN39 B14:AN14 V7:AN7 V18:AN18 V51:AN51 V59:AN59 V55:AN55 V47:AN47 V43:AN43 V33:AN33 H26:AN26 V29:AN29 V75:AN75 V71:AN71 V37:AN37 V67:AN67 I63:AN63 B5:AQ6 I8:AQ9 AJ17:AQ17 AC36:AT36 AC50:AT50 AG54:AT54 AC42:AT42 AJ27:AQ28 AJ25:AQ25 AO23:AT23 AO19:AT20 AO40:AT40 AO52:AT52 AO60:AT60 AQ56:AT57 AO48:AT48 AQ44:AT45 AO34:AT34 AO30:AT31 AO38:AT38 AR22:AX22 AR39:AT39 AR17:AX18 AR51:AX51 AR59:AX59 AR55:AX55 AR47:AX47 AR43:AX43 AR33:AX33 AR25:AX29 AR37:AT37 AU37:AX39 AY17:XFD60 AA16:XFD16 AR5:XFD10 Y80:XFD81 B77:XFD79 H35:AX35 B49:AX49 B53:AX53 B41:AX41 AA24:AX24 P70:XFD70 P62:XFD62 AO11:XFD12 AO15:XFD15 AR14:XFD14 AO72:XFD73 AR71:XFD71 AO76:XFD76 AR75:XFD75 AO64:XFD65 AR63:XFD63 AO68:XFD68 AR67:XFD67">
-    <cfRule type="cellIs" dxfId="97" priority="181" operator="equal">
+  <conditionalFormatting sqref="AM13 B7:B13 Z17:AD17 X16:X17 U16:W16 C23:D23 E22:G23 B71:B74 B16:B23 C18:D20 E17:G19 C7:D12 E6:H12 B35:G39 C63:H64 H36:I36 B50:I50 B54:I54 B43:O44 B42:I42 C25:I25 B70:I70 B62:I62 T42:Y42 T22:AL22 T39:AL39 T18:AL18 T59:AL59 T47:AL47 T43:AL43 T33:AL33 T29:AL29 T75:AL75 T71:AL71 T37:AL37 T67:AL67 AH17:AO17 AA36:AR36 AA50:AR50 AE54:AR54 AA42:AR42 AH27:AO28 AH25:AO25 AM23:AR23 AM19:AR20 AM40:AR40 AM52:AR52 AM60:AR60 AO56:AR57 AM48:AR48 AO44:AR45 AM34:AR34 AM30:AR31 AM38:AR38 AP22:AV22 AP39:AR39 AP17:AV18 AP51:AV51 AP59:AV59 AP55:AV55 AP47:AV47 AP43:AV43 AP33:AV33 AP25:AV29 AP37:AR37 AS37:AV39 AW17:XFD60 Y16:XFD16 AP5:XFD10 W80:XFD81 Y24:AV24 AM11:XFD12 AM15:XFD15 AP14:XFD14 AM72:XFD73 AP71:XFD71 AM76:XFD76 AP75:XFD75 AM64:XFD65 AP63:XFD63 AM68:XFD68 AP67:XFD67 H23:S23 H18:S20 H37:S39 I12:S12 B40:S40 B52:S52 B56:S60 B45:S48 C71:S73 B75:S76 C65:S65 B67:S68 H34:S34 H29:S31 P36:Y36 I10:AL11 B80:U81 C16:T17 B15:V15 C24:W24 H28:AG28 H27:Y27 I64:AG64 B14:AL14 H26:AL26 I63:AL63 B5:AO6 I8:AO9 B77:XFD79 H35:AV35 B49:AV49 B53:AV53 B41:AV41 P70:XFD70 P62:XFD62 P25:T25 P42:S43 B51:AL51 P50:Y50 B55:AL55 P54:AC54 I7:AL7">
+    <cfRule type="cellIs" dxfId="90" priority="181" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W17:X17">
-    <cfRule type="cellIs" dxfId="96" priority="179" operator="equal">
+  <conditionalFormatting sqref="U17:V17">
+    <cfRule type="cellIs" dxfId="89" priority="179" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17">
-    <cfRule type="cellIs" dxfId="95" priority="177" operator="equal">
+  <conditionalFormatting sqref="AD17">
+    <cfRule type="cellIs" dxfId="88" priority="177" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG17:AI17">
-    <cfRule type="cellIs" dxfId="94" priority="176" operator="equal">
+  <conditionalFormatting sqref="AE17:AG17">
+    <cfRule type="cellIs" dxfId="87" priority="176" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y17:AA17">
-    <cfRule type="cellIs" dxfId="93" priority="175" operator="equal">
+  <conditionalFormatting sqref="W17:Y17">
+    <cfRule type="cellIs" dxfId="86" priority="175" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z15:AN15">
-    <cfRule type="cellIs" dxfId="92" priority="172" operator="equal">
+  <conditionalFormatting sqref="X15:AL15">
+    <cfRule type="cellIs" dxfId="85" priority="172" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC36:AF36 W35:Y35">
-    <cfRule type="cellIs" dxfId="91" priority="169" operator="equal">
+  <conditionalFormatting sqref="AA36:AD36 U35:W35">
+    <cfRule type="cellIs" dxfId="84" priority="169" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W36:X36">
-    <cfRule type="cellIs" dxfId="90" priority="168" operator="equal">
+  <conditionalFormatting sqref="U36:V36">
+    <cfRule type="cellIs" dxfId="83" priority="168" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF36">
-    <cfRule type="cellIs" dxfId="89" priority="166" operator="equal">
+  <conditionalFormatting sqref="AD36">
+    <cfRule type="cellIs" dxfId="82" priority="166" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG36:AI36">
-    <cfRule type="cellIs" dxfId="88" priority="165" operator="equal">
+  <conditionalFormatting sqref="AE36:AG36">
+    <cfRule type="cellIs" dxfId="81" priority="165" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y36:AA36">
-    <cfRule type="cellIs" dxfId="87" priority="164" operator="equal">
+  <conditionalFormatting sqref="W36:Y36">
+    <cfRule type="cellIs" dxfId="80" priority="164" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU36:AX36">
-    <cfRule type="cellIs" dxfId="86" priority="159" operator="equal">
+  <conditionalFormatting sqref="AS36:AV36">
+    <cfRule type="cellIs" dxfId="79" priority="159" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU19:AX20 AO21 V19:X19 Z19:AN19">
-    <cfRule type="cellIs" dxfId="85" priority="149" operator="equal">
+  <conditionalFormatting sqref="AS19:AV20 AM21 T19:V19 X19:AL19">
+    <cfRule type="cellIs" dxfId="78" priority="149" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC50:AF50">
-    <cfRule type="cellIs" dxfId="84" priority="131" operator="equal">
+  <conditionalFormatting sqref="AA50:AD50">
+    <cfRule type="cellIs" dxfId="77" priority="131" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU23:AX23 W23:AN23">
-    <cfRule type="cellIs" dxfId="83" priority="146" operator="equal">
+  <conditionalFormatting sqref="AS23:AV23 U23:AL23">
+    <cfRule type="cellIs" dxfId="76" priority="146" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU40:AX40 W40:AN40">
-    <cfRule type="cellIs" dxfId="82" priority="138" operator="equal">
+  <conditionalFormatting sqref="AS40:AV40 U40:AL40">
+    <cfRule type="cellIs" dxfId="75" priority="138" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP56:AP57">
-    <cfRule type="cellIs" dxfId="81" priority="97" operator="equal">
+  <conditionalFormatting sqref="AN56:AN57">
+    <cfRule type="cellIs" dxfId="74" priority="97" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB54:AE54">
-    <cfRule type="cellIs" dxfId="80" priority="113" operator="equal">
+  <conditionalFormatting sqref="Z54:AC54">
+    <cfRule type="cellIs" dxfId="73" priority="113" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W50:X50">
-    <cfRule type="cellIs" dxfId="79" priority="130" operator="equal">
+  <conditionalFormatting sqref="U50:V50">
+    <cfRule type="cellIs" dxfId="72" priority="130" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF50">
-    <cfRule type="cellIs" dxfId="78" priority="129" operator="equal">
+  <conditionalFormatting sqref="AD50">
+    <cfRule type="cellIs" dxfId="71" priority="129" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG50:AI50">
-    <cfRule type="cellIs" dxfId="77" priority="128" operator="equal">
+  <conditionalFormatting sqref="AE50:AG50">
+    <cfRule type="cellIs" dxfId="70" priority="128" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y50:AA50">
-    <cfRule type="cellIs" dxfId="76" priority="127" operator="equal">
+  <conditionalFormatting sqref="W50:Y50">
+    <cfRule type="cellIs" dxfId="69" priority="127" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU50:AX50">
-    <cfRule type="cellIs" dxfId="75" priority="124" operator="equal">
+  <conditionalFormatting sqref="AS50:AV50">
+    <cfRule type="cellIs" dxfId="68" priority="124" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU52:AX52 W52:AN52">
-    <cfRule type="cellIs" dxfId="74" priority="120" operator="equal">
+  <conditionalFormatting sqref="AS52:AV52 U52:AL52">
+    <cfRule type="cellIs" dxfId="67" priority="120" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP44:AP45">
-    <cfRule type="cellIs" dxfId="73" priority="79" operator="equal">
+  <conditionalFormatting sqref="AN44:AN45">
+    <cfRule type="cellIs" dxfId="66" priority="79" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC42:AF42">
-    <cfRule type="cellIs" dxfId="72" priority="95" operator="equal">
+  <conditionalFormatting sqref="AA42:AD42">
+    <cfRule type="cellIs" dxfId="65" priority="95" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W54:X54">
-    <cfRule type="cellIs" dxfId="71" priority="112" operator="equal">
+  <conditionalFormatting sqref="U54:V54">
+    <cfRule type="cellIs" dxfId="64" priority="112" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG54:AI54">
-    <cfRule type="cellIs" dxfId="70" priority="110" operator="equal">
+  <conditionalFormatting sqref="AE54:AG54">
+    <cfRule type="cellIs" dxfId="63" priority="110" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y54:AA54">
-    <cfRule type="cellIs" dxfId="69" priority="109" operator="equal">
+  <conditionalFormatting sqref="W54:Y54">
+    <cfRule type="cellIs" dxfId="62" priority="109" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU54:AX54">
-    <cfRule type="cellIs" dxfId="68" priority="106" operator="equal">
+  <conditionalFormatting sqref="AS54:AV54">
+    <cfRule type="cellIs" dxfId="61" priority="106" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU56:AX57 AO58 V56:AN56">
-    <cfRule type="cellIs" dxfId="67" priority="105" operator="equal">
+  <conditionalFormatting sqref="AS56:AV57 AM58 T56:AL56">
+    <cfRule type="cellIs" dxfId="60" priority="105" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO56:AO57">
-    <cfRule type="cellIs" dxfId="66" priority="104" operator="equal">
+  <conditionalFormatting sqref="AM56:AM57">
+    <cfRule type="cellIs" dxfId="59" priority="104" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU60:AX60 W60:AN60">
-    <cfRule type="cellIs" dxfId="65" priority="102" operator="equal">
+  <conditionalFormatting sqref="AS60:AV60 U60:AL60">
+    <cfRule type="cellIs" dxfId="58" priority="102" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W42:X42">
-    <cfRule type="cellIs" dxfId="64" priority="94" operator="equal">
+  <conditionalFormatting sqref="U42:V42">
+    <cfRule type="cellIs" dxfId="57" priority="94" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF42">
-    <cfRule type="cellIs" dxfId="63" priority="93" operator="equal">
+  <conditionalFormatting sqref="AD42">
+    <cfRule type="cellIs" dxfId="56" priority="93" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG42:AI42">
-    <cfRule type="cellIs" dxfId="62" priority="92" operator="equal">
+  <conditionalFormatting sqref="AE42:AG42">
+    <cfRule type="cellIs" dxfId="55" priority="92" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y42:AA42">
-    <cfRule type="cellIs" dxfId="61" priority="91" operator="equal">
+  <conditionalFormatting sqref="W42:Y42">
+    <cfRule type="cellIs" dxfId="54" priority="91" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU42:AX42">
-    <cfRule type="cellIs" dxfId="60" priority="88" operator="equal">
+  <conditionalFormatting sqref="AS42:AV42">
+    <cfRule type="cellIs" dxfId="53" priority="88" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU44:AX45 AO46 V44:AN44">
-    <cfRule type="cellIs" dxfId="59" priority="87" operator="equal">
+  <conditionalFormatting sqref="AS44:AV45 AM46 T44:AL44">
+    <cfRule type="cellIs" dxfId="52" priority="87" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO44:AO45">
-    <cfRule type="cellIs" dxfId="58" priority="86" operator="equal">
+  <conditionalFormatting sqref="AM44:AM45">
+    <cfRule type="cellIs" dxfId="51" priority="86" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU48:AX48 W48:AN48">
-    <cfRule type="cellIs" dxfId="57" priority="84" operator="equal">
+  <conditionalFormatting sqref="AS48:AV48 U48:AL48">
+    <cfRule type="cellIs" dxfId="50" priority="84" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC25:AF25 Z24:Z25 B24:B34 C26:D31 E26:G30 C34:D34 E33:G34 AC27:AI27">
-    <cfRule type="cellIs" dxfId="56" priority="78" operator="equal">
+  <conditionalFormatting sqref="AA25:AD25 X24:X25 B24:B34 C26:D31 E26:G30 C34:D34 E33:G34 AA27:AG27">
+    <cfRule type="cellIs" dxfId="49" priority="78" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W25:X25">
-    <cfRule type="cellIs" dxfId="55" priority="77" operator="equal">
+  <conditionalFormatting sqref="U25:V25">
+    <cfRule type="cellIs" dxfId="48" priority="77" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF25">
-    <cfRule type="cellIs" dxfId="54" priority="76" operator="equal">
+  <conditionalFormatting sqref="AD25">
+    <cfRule type="cellIs" dxfId="47" priority="76" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG25:AI25">
-    <cfRule type="cellIs" dxfId="53" priority="75" operator="equal">
+  <conditionalFormatting sqref="AE25:AG25">
+    <cfRule type="cellIs" dxfId="46" priority="75" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y25:AA25">
-    <cfRule type="cellIs" dxfId="52" priority="74" operator="equal">
+  <conditionalFormatting sqref="W25:Y25">
+    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU30:AX31 AO32 V30:AN30">
-    <cfRule type="cellIs" dxfId="51" priority="70" operator="equal">
+  <conditionalFormatting sqref="AS30:AV31 AM32 T30:AL30">
+    <cfRule type="cellIs" dxfId="44" priority="70" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU34:AX34 W34:AN34">
-    <cfRule type="cellIs" dxfId="50" priority="67" operator="equal">
+  <conditionalFormatting sqref="AS34:AV34 U34:AL34">
+    <cfRule type="cellIs" dxfId="43" priority="67" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P25:U25">
-    <cfRule type="cellIs" dxfId="49" priority="62" operator="equal">
+  <conditionalFormatting sqref="AM74 U72:AL72">
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P42:U43">
-    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
+  <conditionalFormatting sqref="U76:AL76">
+    <cfRule type="cellIs" dxfId="41" priority="51" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P51:U51">
-    <cfRule type="cellIs" dxfId="47" priority="58" operator="equal">
+  <conditionalFormatting sqref="W15">
+    <cfRule type="cellIs" dxfId="40" priority="45" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P50:U50">
-    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
+  <conditionalFormatting sqref="W19">
+    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P55:U55">
-    <cfRule type="cellIs" dxfId="45" priority="56" operator="equal">
+  <conditionalFormatting sqref="Z50">
+    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P54:U54">
-    <cfRule type="cellIs" dxfId="44" priority="55" operator="equal">
+  <conditionalFormatting sqref="Z42">
+    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO74 W72:AN72">
-    <cfRule type="cellIs" dxfId="43" priority="54" operator="equal">
+  <conditionalFormatting sqref="Z36">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W76:AN76">
-    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
+  <conditionalFormatting sqref="Z25">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y15">
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
+  <conditionalFormatting sqref="Z27">
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y19">
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+  <conditionalFormatting sqref="AD54">
+    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB50">
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
+  <conditionalFormatting sqref="AD54">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB42">
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+  <conditionalFormatting sqref="T23">
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB36">
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+  <conditionalFormatting sqref="T34">
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB25">
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+  <conditionalFormatting sqref="T40">
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB27">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+  <conditionalFormatting sqref="T48">
+    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF54">
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+  <conditionalFormatting sqref="T52">
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF54">
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+  <conditionalFormatting sqref="T60">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V23">
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+  <conditionalFormatting sqref="T76">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V40">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V48">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V52">
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V60">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V76">
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7:U7">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB38:AF38 Z38 V38">
+  <conditionalFormatting sqref="Z38:AD38 X38 T38">
     <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W38:X38 AJ38:AN38">
+  <conditionalFormatting sqref="U38:V38 AH38:AL38">
     <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF38">
+  <conditionalFormatting sqref="AD38">
     <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG38:AI38">
+  <conditionalFormatting sqref="AE38:AG38">
     <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y38:AA38">
+  <conditionalFormatting sqref="W38:Y38">
     <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -8340,22 +8195,22 @@
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO66 AJ64:AN64">
+  <conditionalFormatting sqref="AM66 AH64:AL64">
     <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W68:AN68">
+  <conditionalFormatting sqref="U68:AL68">
     <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V68">
+  <conditionalFormatting sqref="T68">
     <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V72">
+  <conditionalFormatting sqref="T72">
     <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"nil"</formula>
     </cfRule>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1821" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{043A982F-59F3-4C0F-948F-5A844A25E38E}"/>
+  <xr:revisionPtr revIDLastSave="1824" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D002E248-A21D-4931-B70D-336D0596AB94}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3618,8 +3618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AV84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1824" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D002E248-A21D-4931-B70D-336D0596AB94}"/>
+  <xr:revisionPtr revIDLastSave="1831" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{595A6006-CDB7-4FE1-A362-4D586C916F8F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="333">
   <si>
     <t>Cause</t>
   </si>
@@ -3618,8 +3618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AV84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="XFD1" sqref="AW1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -3662,22 +3662,33 @@
     <col min="47" max="47" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="1" customFormat="1">
+    <row r="1" spans="1:48">
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="95"/>
       <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
       <c r="H1" s="95"/>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="95"/>
       <c r="P1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
       <c r="S1" s="95"/>
       <c r="T1" s="25" t="s">
         <v>42</v>
@@ -3715,7 +3726,8 @@
       <c r="AU1" s="67"/>
       <c r="AV1" s="67"/>
     </row>
-    <row r="2" spans="1:48" s="1" customFormat="1">
+    <row r="2" spans="1:48">
+      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
@@ -3728,6 +3740,8 @@
       <c r="E2" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="95"/>
       <c r="I2" s="1" t="s">
         <v>48</v>
@@ -3735,10 +3749,16 @@
       <c r="J2" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
       <c r="O2" s="95"/>
       <c r="P2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" s="95"/>
       <c r="T2" s="25" t="s">
         <v>50</v>
@@ -3786,7 +3806,7 @@
       <c r="AU2" s="67"/>
       <c r="AV2" s="67"/>
     </row>
-    <row r="3" spans="1:48" s="1" customFormat="1">
+    <row r="3" spans="1:48">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -3932,12 +3952,40 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:48" ht="12" customHeight="1">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="96"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="96"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
       <c r="O4" s="96"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
       <c r="S4" s="96"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
       <c r="AD4" s="96"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
       <c r="AH4" s="61"/>
       <c r="AI4" s="61"/>
       <c r="AJ4" s="61"/>
@@ -3951,8 +3999,13 @@
       <c r="AR4" s="127"/>
       <c r="AS4" s="73"/>
       <c r="AT4" s="62"/>
-    </row>
-    <row r="5" spans="1:48" s="15" customFormat="1">
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="59"/>
+    </row>
+    <row r="5" spans="1:48">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="97" t="s">
         <v>28</v>
       </c>
@@ -3992,6 +4045,8 @@
       <c r="P5" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
       <c r="S5" s="97"/>
       <c r="T5" s="15" t="s">
         <v>79</v>
@@ -4020,6 +4075,7 @@
       <c r="AB5" s="41">
         <v>5</v>
       </c>
+      <c r="AC5" s="15"/>
       <c r="AD5" s="97" t="s">
         <v>82</v>
       </c>
@@ -4058,7 +4114,10 @@
       <c r="AU5" s="18"/>
       <c r="AV5" s="18"/>
     </row>
-    <row r="6" spans="1:48" s="15" customFormat="1">
+    <row r="6" spans="1:48">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="97"/>
       <c r="E6" t="s">
         <v>38</v>
@@ -4072,16 +4131,39 @@
       <c r="H6" s="98">
         <v>0</v>
       </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
       <c r="O6" s="97"/>
       <c r="P6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="97"/>
+      <c r="Q6" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R6" s="15">
+        <v>6</v>
+      </c>
+      <c r="S6" s="97">
+        <v>1</v>
+      </c>
+      <c r="T6" s="15"/>
       <c r="U6" s="45"/>
       <c r="V6" s="45"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
       <c r="AA6" s="41"/>
       <c r="AB6" s="41"/>
+      <c r="AC6" s="15"/>
       <c r="AD6" s="97"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
       <c r="AH6" s="18"/>
       <c r="AI6" s="18"/>
       <c r="AJ6" s="18"/>
@@ -4104,7 +4186,7 @@
       <c r="AU6" s="18"/>
       <c r="AV6" s="18"/>
     </row>
-    <row r="7" spans="1:48" s="47" customFormat="1">
+    <row r="7" spans="1:48">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4162,7 +4244,10 @@
       <c r="AU7" s="69"/>
       <c r="AV7" s="69"/>
     </row>
-    <row r="8" spans="1:48" s="15" customFormat="1">
+    <row r="8" spans="1:48">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="97"/>
       <c r="E8" t="s">
         <v>87</v>
@@ -4176,7 +4261,16 @@
       <c r="H8" s="98">
         <v>1</v>
       </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="97"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
       <c r="S8" s="97"/>
       <c r="T8" s="15" t="s">
         <v>89</v>
@@ -4199,10 +4293,15 @@
       <c r="Z8" s="15" t="s">
         <v>92</v>
       </c>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
       <c r="AC8" s="15" t="s">
         <v>93</v>
       </c>
       <c r="AD8" s="97"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
       <c r="AH8" s="16" t="b">
         <v>1</v>
       </c>
@@ -4245,7 +4344,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:48" s="15" customFormat="1">
+    <row r="9" spans="1:48">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="97"/>
       <c r="E9" s="15" t="s">
         <v>97</v>
@@ -4259,9 +4361,31 @@
       <c r="H9" s="97" t="b">
         <v>0</v>
       </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
       <c r="O9" s="97"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
       <c r="S9" s="97"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
       <c r="AD9" s="97"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
       <c r="AH9" s="16"/>
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
@@ -4281,8 +4405,10 @@
       <c r="AR9" s="111"/>
       <c r="AS9" s="76"/>
       <c r="AT9" s="19"/>
-    </row>
-    <row r="10" spans="1:48" s="47" customFormat="1">
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+    </row>
+    <row r="10" spans="1:48">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -4340,7 +4466,10 @@
       <c r="AU10" s="69"/>
       <c r="AV10" s="69"/>
     </row>
-    <row r="11" spans="1:48" s="15" customFormat="1">
+    <row r="11" spans="1:48">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="97"/>
       <c r="E11" s="15" t="s">
         <v>100</v>
@@ -4354,7 +4483,16 @@
       <c r="H11" s="97" t="b">
         <v>0</v>
       </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="97"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
       <c r="S11" s="97"/>
       <c r="T11" s="15" t="s">
         <v>101</v>
@@ -4377,10 +4515,15 @@
       <c r="Z11" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
       <c r="AC11" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AD11" s="97"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
       <c r="AH11" s="16" t="b">
         <v>1</v>
       </c>
@@ -4423,7 +4566,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:48" s="15" customFormat="1">
+    <row r="12" spans="1:48">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="97"/>
       <c r="E12" s="15" t="s">
         <v>104</v>
@@ -4437,9 +4583,35 @@
       <c r="H12" s="97" t="b">
         <v>0</v>
       </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="97"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
       <c r="S12" s="97"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
       <c r="AD12" s="97"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
       <c r="AL12" s="97"/>
       <c r="AM12" s="82" t="s">
         <v>38</v>
@@ -4455,6 +4627,8 @@
       <c r="AR12" s="111"/>
       <c r="AS12" s="76"/>
       <c r="AT12" s="19"/>
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15"/>
     </row>
     <row r="13" spans="1:48">
       <c r="A13" s="15"/>
@@ -4466,7 +4640,7 @@
       <c r="AN13" s="80"/>
       <c r="AO13" s="120"/>
     </row>
-    <row r="14" spans="1:48" s="47" customFormat="1">
+    <row r="14" spans="1:48">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -4516,10 +4690,25 @@
       <c r="AU14" s="69"/>
       <c r="AV14" s="69"/>
     </row>
-    <row r="15" spans="1:48" s="15" customFormat="1">
+    <row r="15" spans="1:48">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="97"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="97"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="97"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
       <c r="S15" s="97"/>
       <c r="T15" s="15" t="s">
         <v>106</v>
@@ -4542,10 +4731,15 @@
       <c r="Z15" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
       <c r="AC15" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AD15" s="97"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
       <c r="AH15" s="16"/>
       <c r="AI15" s="16"/>
       <c r="AJ15" s="16" t="b">
@@ -4578,7 +4772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="56" customFormat="1">
+    <row r="16" spans="1:48">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -4587,9 +4781,31 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="97"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
       <c r="O16" s="103"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
       <c r="S16" s="103"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
       <c r="AD16" s="103"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
       <c r="AH16" s="57"/>
       <c r="AI16" s="57"/>
       <c r="AJ16" s="57"/>
@@ -4603,9 +4819,17 @@
       <c r="AR16" s="113"/>
       <c r="AS16" s="78"/>
       <c r="AT16" s="58"/>
-    </row>
-    <row r="17" spans="1:48" s="15" customFormat="1">
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="56"/>
+    </row>
+    <row r="17" spans="1:48">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="97"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="97"/>
       <c r="I17" s="15" t="s">
         <v>107</v>
@@ -4631,6 +4855,8 @@
       <c r="P17" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
       <c r="S17" s="97"/>
       <c r="T17" s="15" t="s">
         <v>79</v>
@@ -4650,12 +4876,14 @@
       <c r="Y17" s="15" t="s">
         <v>80</v>
       </c>
+      <c r="Z17" s="15"/>
       <c r="AA17" s="15">
         <v>20</v>
       </c>
       <c r="AB17" s="15">
         <v>5</v>
       </c>
+      <c r="AC17" s="15"/>
       <c r="AD17" s="97" t="s">
         <v>82</v>
       </c>
@@ -4686,11 +4914,24 @@
       <c r="AU17" s="18"/>
       <c r="AV17" s="18"/>
     </row>
-    <row r="18" spans="1:48" s="15" customFormat="1">
+    <row r="18" spans="1:48">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="97"/>
-      <c r="F18"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="97"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="97"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
       <c r="S18" s="97"/>
       <c r="T18" s="69"/>
       <c r="U18" s="69"/>
@@ -4722,11 +4963,24 @@
       <c r="AU18" s="69"/>
       <c r="AV18" s="69"/>
     </row>
-    <row r="19" spans="1:48" s="15" customFormat="1">
+    <row r="19" spans="1:48">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="97"/>
-      <c r="F19"/>
+      <c r="E19" s="15"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="97"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="97"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
       <c r="S19" s="97"/>
       <c r="T19" s="15" t="s">
         <v>101</v>
@@ -4749,10 +5003,15 @@
       <c r="Z19" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
       <c r="AC19" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AD19" s="97"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
       <c r="AH19" s="16" t="b">
         <v>1</v>
       </c>
@@ -4795,15 +5054,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:48" s="15" customFormat="1">
+    <row r="20" spans="1:48">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="97"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
       <c r="H20" s="97"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="97"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
       <c r="S20" s="97"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
       <c r="AD20" s="97"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
       <c r="AL20" s="97"/>
       <c r="AM20" s="84" t="s">
         <v>38</v>
@@ -4819,44 +5104,12 @@
       <c r="AR20" s="111"/>
       <c r="AS20" s="76"/>
       <c r="AT20" s="19"/>
-    </row>
-    <row r="21" spans="1:48" s="15" customFormat="1">
-      <c r="C21"/>
-      <c r="D21" s="98"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21" s="98"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21" s="98"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21" s="98"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21"/>
-      <c r="AF21"/>
-      <c r="AG21"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="112"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+    </row>
+    <row r="21" spans="1:48">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
       <c r="AM21" s="84" t="s">
         <v>37</v>
       </c>
@@ -4866,32 +5119,10 @@
       <c r="AO21" s="123">
         <v>3</v>
       </c>
-      <c r="AP21" s="17"/>
-      <c r="AQ21" s="17"/>
-      <c r="AR21" s="112"/>
-      <c r="AS21" s="77"/>
-      <c r="AT21" s="20"/>
-      <c r="AU21"/>
-      <c r="AV21"/>
-    </row>
-    <row r="22" spans="1:48" s="15" customFormat="1">
-      <c r="C22"/>
-      <c r="D22" s="98"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22" s="98"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22" s="98"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22" s="98"/>
+    </row>
+    <row r="22" spans="1:48">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="T22" s="69"/>
       <c r="U22" s="69"/>
       <c r="V22" s="69"/>
@@ -4922,21 +5153,12 @@
       <c r="AU22" s="69"/>
       <c r="AV22" s="69"/>
     </row>
-    <row r="23" spans="1:48" s="15" customFormat="1">
-      <c r="C23"/>
-      <c r="D23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23" s="98"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23" s="98"/>
+    <row r="23" spans="1:48">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
       <c r="T23" s="15" t="s">
         <v>106</v>
       </c>
@@ -4958,10 +5180,15 @@
       <c r="Z23" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
       <c r="AC23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AD23" s="97"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
       <c r="AH23" s="16"/>
       <c r="AI23" s="16"/>
       <c r="AJ23" s="16" t="b">
@@ -4994,7 +5221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:48" s="56" customFormat="1">
+    <row r="24" spans="1:48">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -5003,9 +5230,31 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="97"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
       <c r="O24" s="103"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
       <c r="S24" s="103"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="56"/>
       <c r="AD24" s="103"/>
+      <c r="AE24" s="56"/>
+      <c r="AF24" s="56"/>
+      <c r="AG24" s="56"/>
       <c r="AH24" s="57"/>
       <c r="AI24" s="57"/>
       <c r="AJ24" s="57"/>
@@ -5019,9 +5268,17 @@
       <c r="AR24" s="113"/>
       <c r="AS24" s="78"/>
       <c r="AT24" s="58"/>
-    </row>
-    <row r="25" spans="1:48" s="15" customFormat="1">
+      <c r="AU24" s="56"/>
+      <c r="AV24" s="56"/>
+    </row>
+    <row r="25" spans="1:48">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="97"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="97"/>
       <c r="I25" s="15" t="s">
         <v>108</v>
@@ -5047,6 +5304,8 @@
       <c r="P25" s="15" t="s">
         <v>32</v>
       </c>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
       <c r="S25" s="97"/>
       <c r="T25" s="15" t="s">
         <v>79</v>
@@ -5075,6 +5334,7 @@
       <c r="AB25" s="15">
         <v>5</v>
       </c>
+      <c r="AC25" s="15"/>
       <c r="AD25" s="97" t="s">
         <v>82</v>
       </c>
@@ -5105,11 +5365,24 @@
       <c r="AU25" s="18"/>
       <c r="AV25" s="18"/>
     </row>
-    <row r="26" spans="1:48" s="15" customFormat="1">
+    <row r="26" spans="1:48">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="97"/>
-      <c r="F26"/>
+      <c r="E26" s="15"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="97"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
       <c r="O26" s="97"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
       <c r="S26" s="97"/>
       <c r="T26" s="69"/>
       <c r="U26" s="69"/>
@@ -5141,11 +5414,24 @@
       <c r="AU26" s="69"/>
       <c r="AV26" s="69"/>
     </row>
-    <row r="27" spans="1:48" s="15" customFormat="1">
+    <row r="27" spans="1:48">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="97"/>
-      <c r="F27"/>
+      <c r="E27" s="15"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="97"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
       <c r="O27" s="97"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
       <c r="S27" s="97"/>
       <c r="T27" s="15" t="s">
         <v>109</v>
@@ -5168,7 +5454,13 @@
       <c r="Z27" s="15" t="s">
         <v>81</v>
       </c>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
       <c r="AD27" s="97"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
       <c r="AH27" s="16" t="b">
         <v>1</v>
       </c>
@@ -5203,13 +5495,39 @@
       <c r="AU27" s="18"/>
       <c r="AV27" s="18"/>
     </row>
-    <row r="28" spans="1:48" s="15" customFormat="1">
+    <row r="28" spans="1:48">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="97"/>
-      <c r="F28"/>
+      <c r="E28" s="15"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="97"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
       <c r="O28" s="97"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
       <c r="S28" s="97"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
       <c r="AD28" s="97"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
       <c r="AH28" s="16"/>
       <c r="AI28" s="16"/>
       <c r="AJ28" s="16"/>
@@ -5229,12 +5547,27 @@
       <c r="AR28" s="111"/>
       <c r="AS28" s="76"/>
       <c r="AT28" s="19"/>
-    </row>
-    <row r="29" spans="1:48" s="15" customFormat="1">
+      <c r="AU28" s="15"/>
+      <c r="AV28" s="15"/>
+    </row>
+    <row r="29" spans="1:48">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="97"/>
-      <c r="F29"/>
+      <c r="E29" s="15"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="97"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
       <c r="O29" s="97"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
       <c r="S29" s="97"/>
       <c r="T29" s="69"/>
       <c r="U29" s="69"/>
@@ -5266,11 +5599,24 @@
       <c r="AU29" s="69"/>
       <c r="AV29" s="69"/>
     </row>
-    <row r="30" spans="1:48" s="15" customFormat="1">
+    <row r="30" spans="1:48">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="97"/>
-      <c r="F30"/>
+      <c r="E30" s="15"/>
+      <c r="G30" s="15"/>
       <c r="H30" s="97"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
       <c r="O30" s="97"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
       <c r="S30" s="97"/>
       <c r="T30" s="15" t="s">
         <v>101</v>
@@ -5293,10 +5639,15 @@
       <c r="Z30" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
       <c r="AC30" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AD30" s="97"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
       <c r="AH30" s="16" t="b">
         <v>1</v>
       </c>
@@ -5339,15 +5690,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:48" s="15" customFormat="1">
+    <row r="31" spans="1:48">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="97"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
       <c r="H31" s="97"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
       <c r="O31" s="97"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
       <c r="S31" s="97"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
       <c r="AD31" s="97"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
       <c r="AL31" s="97"/>
       <c r="AM31" s="84" t="s">
         <v>38</v>
@@ -5363,44 +5740,12 @@
       <c r="AR31" s="111"/>
       <c r="AS31" s="76"/>
       <c r="AT31" s="19"/>
-    </row>
-    <row r="32" spans="1:48" s="15" customFormat="1">
-      <c r="C32"/>
-      <c r="D32" s="98"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32" s="98"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32" s="98"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32" s="98"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
-      <c r="AD32" s="98"/>
-      <c r="AE32"/>
-      <c r="AF32"/>
-      <c r="AG32"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
-      <c r="AL32" s="112"/>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="15"/>
+    </row>
+    <row r="32" spans="1:48">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="AM32" s="84" t="s">
         <v>37</v>
       </c>
@@ -5410,32 +5755,10 @@
       <c r="AO32" s="123">
         <v>3</v>
       </c>
-      <c r="AP32" s="17"/>
-      <c r="AQ32" s="17"/>
-      <c r="AR32" s="112"/>
-      <c r="AS32" s="77"/>
-      <c r="AT32" s="20"/>
-      <c r="AU32"/>
-      <c r="AV32"/>
-    </row>
-    <row r="33" spans="1:48" s="15" customFormat="1">
-      <c r="C33"/>
-      <c r="D33" s="98"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33" s="98"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33" s="98"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33" s="98"/>
+    </row>
+    <row r="33" spans="1:48">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
       <c r="T33" s="69"/>
       <c r="U33" s="69"/>
       <c r="V33" s="69"/>
@@ -5466,21 +5789,12 @@
       <c r="AU33" s="69"/>
       <c r="AV33" s="69"/>
     </row>
-    <row r="34" spans="1:48" s="15" customFormat="1">
-      <c r="C34"/>
-      <c r="D34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34" s="98"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34" s="98"/>
+    <row r="34" spans="1:48">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
       <c r="T34" s="15" t="s">
         <v>106</v>
       </c>
@@ -5502,10 +5816,15 @@
       <c r="Z34" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
       <c r="AC34" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AD34" s="97"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
       <c r="AH34" s="16"/>
       <c r="AI34" s="16"/>
       <c r="AJ34" s="16" t="b">
@@ -5538,7 +5857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:48" s="56" customFormat="1">
+    <row r="35" spans="1:48">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -5547,9 +5866,31 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="97"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
       <c r="O35" s="103"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
       <c r="S35" s="103"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="56"/>
+      <c r="AC35" s="56"/>
       <c r="AD35" s="103"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
       <c r="AH35" s="57"/>
       <c r="AI35" s="57"/>
       <c r="AJ35" s="57"/>
@@ -5563,9 +5904,17 @@
       <c r="AR35" s="113"/>
       <c r="AS35" s="78"/>
       <c r="AT35" s="58"/>
-    </row>
-    <row r="36" spans="1:48" s="15" customFormat="1">
+      <c r="AU35" s="56"/>
+      <c r="AV35" s="56"/>
+    </row>
+    <row r="36" spans="1:48">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="97"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
       <c r="H36" s="97"/>
       <c r="I36" s="15" t="s">
         <v>110</v>
@@ -5613,9 +5962,15 @@
       <c r="Z36" s="15" t="s">
         <v>81</v>
       </c>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
       <c r="AD36" s="97" t="s">
         <v>111</v>
       </c>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
       <c r="AH36" s="18" t="b">
         <v>1</v>
       </c>
@@ -5637,11 +5992,28 @@
       <c r="AR36" s="107"/>
       <c r="AS36" s="76"/>
       <c r="AT36" s="19"/>
-    </row>
-    <row r="37" spans="1:48" s="15" customFormat="1">
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+    </row>
+    <row r="37" spans="1:48">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="97"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
       <c r="H37" s="97"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
       <c r="O37" s="97"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
       <c r="S37" s="97"/>
       <c r="T37" s="69"/>
       <c r="U37" s="69"/>
@@ -5673,10 +6045,25 @@
       <c r="AU37" s="69"/>
       <c r="AV37" s="69"/>
     </row>
-    <row r="38" spans="1:48" s="15" customFormat="1">
+    <row r="38" spans="1:48">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="97"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
       <c r="H38" s="97"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
       <c r="O38" s="97"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
       <c r="S38" s="97"/>
       <c r="T38" s="15" t="s">
         <v>79</v>
@@ -5696,12 +6083,14 @@
       <c r="Y38" s="15" t="s">
         <v>80</v>
       </c>
+      <c r="Z38" s="15"/>
       <c r="AA38" s="15">
         <v>20</v>
       </c>
       <c r="AB38" s="15">
         <v>5</v>
       </c>
+      <c r="AC38" s="15"/>
       <c r="AD38" s="97" t="s">
         <v>82</v>
       </c>
@@ -5738,10 +6127,25 @@
       <c r="AU38" s="18"/>
       <c r="AV38" s="18"/>
     </row>
-    <row r="39" spans="1:48" s="15" customFormat="1">
+    <row r="39" spans="1:48">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="97"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="97"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
       <c r="O39" s="97"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
       <c r="S39" s="97"/>
       <c r="T39" s="69"/>
       <c r="U39" s="69"/>
@@ -5773,24 +6177,9 @@
       <c r="AU39" s="69"/>
       <c r="AV39" s="69"/>
     </row>
-    <row r="40" spans="1:48" s="15" customFormat="1">
-      <c r="C40"/>
-      <c r="D40" s="98"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40" s="98"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40" s="98"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40" s="98"/>
+    <row r="40" spans="1:48">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
       <c r="T40" s="15" t="s">
         <v>106</v>
       </c>
@@ -5812,10 +6201,15 @@
       <c r="Z40" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
       <c r="AC40" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AD40" s="97"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
       <c r="AH40" s="16"/>
       <c r="AI40" s="16"/>
       <c r="AJ40" s="16" t="b">
@@ -5848,7 +6242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:48" s="56" customFormat="1">
+    <row r="41" spans="1:48">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -5857,9 +6251,31 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="97"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
       <c r="O41" s="103"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
       <c r="S41" s="103"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="56"/>
+      <c r="Z41" s="56"/>
+      <c r="AA41" s="56"/>
+      <c r="AB41" s="56"/>
+      <c r="AC41" s="56"/>
       <c r="AD41" s="103"/>
+      <c r="AE41" s="56"/>
+      <c r="AF41" s="56"/>
+      <c r="AG41" s="56"/>
       <c r="AH41" s="57"/>
       <c r="AI41" s="57"/>
       <c r="AJ41" s="57"/>
@@ -5873,9 +6289,17 @@
       <c r="AR41" s="113"/>
       <c r="AS41" s="78"/>
       <c r="AT41" s="58"/>
-    </row>
-    <row r="42" spans="1:48" s="15" customFormat="1">
+      <c r="AU41" s="56"/>
+      <c r="AV41" s="56"/>
+    </row>
+    <row r="42" spans="1:48">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="97"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
       <c r="H42" s="97"/>
       <c r="I42" s="15" t="s">
         <v>99</v>
@@ -5898,6 +6322,9 @@
       <c r="O42" s="99">
         <v>1</v>
       </c>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
       <c r="S42" s="97"/>
       <c r="T42" s="15" t="s">
         <v>79</v>
@@ -5920,9 +6347,15 @@
       <c r="Z42" s="15" t="s">
         <v>81</v>
       </c>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
       <c r="AD42" s="97" t="s">
         <v>111</v>
       </c>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15"/>
       <c r="AH42" s="18" t="b">
         <v>1</v>
       </c>
@@ -5950,11 +6383,28 @@
       </c>
       <c r="AS42" s="76"/>
       <c r="AT42" s="19"/>
-    </row>
-    <row r="43" spans="1:48" s="15" customFormat="1">
+      <c r="AU42" s="15"/>
+      <c r="AV42" s="15"/>
+    </row>
+    <row r="43" spans="1:48">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="97"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
       <c r="H43" s="97"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
       <c r="O43" s="97"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
       <c r="S43" s="97"/>
       <c r="T43" s="69"/>
       <c r="U43" s="69"/>
@@ -5986,10 +6436,25 @@
       <c r="AU43" s="69"/>
       <c r="AV43" s="69"/>
     </row>
-    <row r="44" spans="1:48" s="15" customFormat="1">
+    <row r="44" spans="1:48">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="97"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
       <c r="H44" s="97"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
       <c r="O44" s="97"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
       <c r="S44" s="97"/>
       <c r="T44" s="45" t="s">
         <v>101</v>
@@ -6012,10 +6477,15 @@
       <c r="Z44" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
       <c r="AC44" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AD44" s="97"/>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="15"/>
       <c r="AH44" s="16" t="b">
         <v>1</v>
       </c>
@@ -6058,12 +6528,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:48" s="15" customFormat="1">
+    <row r="45" spans="1:48">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="97"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
       <c r="H45" s="97"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
       <c r="O45" s="97"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
       <c r="S45" s="97"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
       <c r="AD45" s="97"/>
+      <c r="AE45" s="15"/>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="15"/>
+      <c r="AH45" s="15"/>
+      <c r="AI45" s="15"/>
+      <c r="AJ45" s="15"/>
+      <c r="AK45" s="15"/>
       <c r="AL45" s="97"/>
       <c r="AM45" s="82" t="s">
         <v>38</v>
@@ -6079,44 +6581,12 @@
       <c r="AR45" s="111"/>
       <c r="AS45" s="76"/>
       <c r="AT45" s="19"/>
-    </row>
-    <row r="46" spans="1:48" s="15" customFormat="1">
-      <c r="C46"/>
-      <c r="D46" s="98"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46" s="98"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46" s="98"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46" s="98"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-      <c r="X46"/>
-      <c r="Y46"/>
-      <c r="Z46"/>
-      <c r="AA46"/>
-      <c r="AB46"/>
-      <c r="AC46"/>
-      <c r="AD46" s="98"/>
-      <c r="AE46"/>
-      <c r="AF46"/>
-      <c r="AG46"/>
-      <c r="AH46" s="17"/>
-      <c r="AI46" s="17"/>
-      <c r="AJ46" s="17"/>
-      <c r="AK46" s="17"/>
-      <c r="AL46" s="112"/>
+      <c r="AU45" s="15"/>
+      <c r="AV45" s="15"/>
+    </row>
+    <row r="46" spans="1:48">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
       <c r="AM46" s="82" t="s">
         <v>37</v>
       </c>
@@ -6126,32 +6596,10 @@
       <c r="AO46" s="120">
         <v>3</v>
       </c>
-      <c r="AP46" s="17"/>
-      <c r="AQ46" s="17"/>
-      <c r="AR46" s="112"/>
-      <c r="AS46" s="77"/>
-      <c r="AT46" s="20"/>
-      <c r="AU46"/>
-      <c r="AV46"/>
-    </row>
-    <row r="47" spans="1:48" s="15" customFormat="1">
-      <c r="C47"/>
-      <c r="D47" s="98"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47" s="98"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47" s="98"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47" s="98"/>
+    </row>
+    <row r="47" spans="1:48">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
       <c r="T47" s="69"/>
       <c r="U47" s="69"/>
       <c r="V47" s="69"/>
@@ -6182,24 +6630,9 @@
       <c r="AU47" s="69"/>
       <c r="AV47" s="69"/>
     </row>
-    <row r="48" spans="1:48" s="15" customFormat="1">
-      <c r="C48"/>
-      <c r="D48" s="98"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48" s="98"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48" s="98"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48" s="98"/>
+    <row r="48" spans="1:48">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
       <c r="T48" s="15" t="s">
         <v>106</v>
       </c>
@@ -6221,10 +6654,15 @@
       <c r="Z48" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
       <c r="AC48" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AD48" s="97"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
       <c r="AH48" s="16"/>
       <c r="AI48" s="16"/>
       <c r="AJ48" s="16" t="b">
@@ -6257,7 +6695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:48" s="56" customFormat="1">
+    <row r="49" spans="1:48">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -6266,9 +6704,31 @@
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="97"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
       <c r="O49" s="103"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
       <c r="S49" s="103"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="56"/>
+      <c r="AC49" s="56"/>
       <c r="AD49" s="103"/>
+      <c r="AE49" s="56"/>
+      <c r="AF49" s="56"/>
+      <c r="AG49" s="56"/>
       <c r="AH49" s="57"/>
       <c r="AI49" s="57"/>
       <c r="AJ49" s="57"/>
@@ -6282,9 +6742,17 @@
       <c r="AR49" s="113"/>
       <c r="AS49" s="78"/>
       <c r="AT49" s="58"/>
-    </row>
-    <row r="50" spans="1:48" s="15" customFormat="1">
+      <c r="AU49" s="56"/>
+      <c r="AV49" s="56"/>
+    </row>
+    <row r="50" spans="1:48">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="97"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
       <c r="H50" s="97"/>
       <c r="I50" s="15" t="s">
         <v>113</v>
@@ -6307,6 +6775,9 @@
       <c r="O50" s="99">
         <v>1</v>
       </c>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
       <c r="S50" s="97"/>
       <c r="T50" s="15" t="s">
         <v>79</v>
@@ -6329,9 +6800,15 @@
       <c r="Z50" s="15" t="s">
         <v>81</v>
       </c>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
       <c r="AD50" s="97" t="s">
         <v>111</v>
       </c>
+      <c r="AE50" s="15"/>
+      <c r="AF50" s="15"/>
+      <c r="AG50" s="15"/>
       <c r="AH50" s="18" t="b">
         <v>1</v>
       </c>
@@ -6359,11 +6836,28 @@
       </c>
       <c r="AS50" s="76"/>
       <c r="AT50" s="19"/>
-    </row>
-    <row r="51" spans="1:48" s="15" customFormat="1">
+      <c r="AU50" s="15"/>
+      <c r="AV50" s="15"/>
+    </row>
+    <row r="51" spans="1:48">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="97"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="97"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
       <c r="O51" s="97"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
       <c r="S51" s="97"/>
       <c r="T51" s="69"/>
       <c r="U51" s="69"/>
@@ -6395,24 +6889,9 @@
       <c r="AU51" s="69"/>
       <c r="AV51" s="69"/>
     </row>
-    <row r="52" spans="1:48" s="15" customFormat="1">
-      <c r="C52"/>
-      <c r="D52" s="98"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52" s="98"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52" s="98"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52" s="98"/>
+    <row r="52" spans="1:48">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
       <c r="T52" s="15" t="s">
         <v>106</v>
       </c>
@@ -6434,10 +6913,15 @@
       <c r="Z52" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
       <c r="AC52" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AD52" s="97"/>
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
+      <c r="AG52" s="15"/>
       <c r="AH52" s="16"/>
       <c r="AI52" s="16"/>
       <c r="AJ52" s="16" t="b">
@@ -6470,7 +6954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:48" s="56" customFormat="1">
+    <row r="53" spans="1:48">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -6479,9 +6963,31 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="97"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
       <c r="O53" s="103"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
       <c r="S53" s="103"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="56"/>
+      <c r="Z53" s="56"/>
+      <c r="AA53" s="56"/>
+      <c r="AB53" s="56"/>
+      <c r="AC53" s="56"/>
       <c r="AD53" s="103"/>
+      <c r="AE53" s="56"/>
+      <c r="AF53" s="56"/>
+      <c r="AG53" s="56"/>
       <c r="AH53" s="57"/>
       <c r="AI53" s="57"/>
       <c r="AJ53" s="57"/>
@@ -6495,9 +7001,17 @@
       <c r="AR53" s="113"/>
       <c r="AS53" s="78"/>
       <c r="AT53" s="58"/>
-    </row>
-    <row r="54" spans="1:48" s="15" customFormat="1">
+      <c r="AU53" s="56"/>
+      <c r="AV53" s="56"/>
+    </row>
+    <row r="54" spans="1:48">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="97"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
       <c r="H54" s="97"/>
       <c r="I54" s="15" t="s">
         <v>114</v>
@@ -6523,6 +7037,8 @@
       <c r="P54" s="15" t="s">
         <v>32</v>
       </c>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
       <c r="S54" s="97"/>
       <c r="T54" s="15" t="s">
         <v>79</v>
@@ -6542,9 +7058,16 @@
       <c r="Y54" s="15" t="s">
         <v>80</v>
       </c>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
       <c r="AD54" s="97" t="s">
         <v>82</v>
       </c>
+      <c r="AE54" s="15"/>
+      <c r="AF54" s="15"/>
+      <c r="AG54" s="15"/>
       <c r="AH54" s="18" t="b">
         <v>1</v>
       </c>
@@ -6572,14 +7095,30 @@
       </c>
       <c r="AS54" s="76"/>
       <c r="AT54" s="19"/>
-    </row>
-    <row r="55" spans="1:48" s="15" customFormat="1">
+      <c r="AU54" s="15"/>
+      <c r="AV54" s="15"/>
+    </row>
+    <row r="55" spans="1:48">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="97"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
       <c r="H55" s="97"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
       <c r="O55" s="97"/>
       <c r="P55" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
       <c r="S55" s="97"/>
       <c r="T55" s="69"/>
       <c r="U55" s="69"/>
@@ -6611,10 +7150,25 @@
       <c r="AU55" s="69"/>
       <c r="AV55" s="69"/>
     </row>
-    <row r="56" spans="1:48" s="15" customFormat="1">
+    <row r="56" spans="1:48">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="99"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
       <c r="H56" s="97"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
       <c r="O56" s="97"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
       <c r="S56" s="97"/>
       <c r="T56" s="15" t="s">
         <v>101</v>
@@ -6637,10 +7191,15 @@
       <c r="Z56" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
       <c r="AC56" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AD56" s="97"/>
+      <c r="AE56" s="15"/>
+      <c r="AF56" s="15"/>
+      <c r="AG56" s="15"/>
       <c r="AH56" s="16" t="b">
         <v>1</v>
       </c>
@@ -6683,12 +7242,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:48" s="15" customFormat="1">
+    <row r="57" spans="1:48">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="97"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
       <c r="H57" s="97"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
       <c r="O57" s="97"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
       <c r="S57" s="97"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="15"/>
       <c r="AD57" s="97"/>
+      <c r="AE57" s="15"/>
+      <c r="AF57" s="15"/>
+      <c r="AG57" s="15"/>
+      <c r="AH57" s="15"/>
+      <c r="AI57" s="15"/>
+      <c r="AJ57" s="15"/>
+      <c r="AK57" s="15"/>
       <c r="AL57" s="97"/>
       <c r="AM57" s="84" t="s">
         <v>38</v>
@@ -6704,44 +7295,12 @@
       <c r="AR57" s="111"/>
       <c r="AS57" s="76"/>
       <c r="AT57" s="19"/>
-    </row>
-    <row r="58" spans="1:48" s="15" customFormat="1">
-      <c r="C58"/>
-      <c r="D58" s="98"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58" s="98"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58" s="98"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58" s="98"/>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-      <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58"/>
-      <c r="Z58"/>
-      <c r="AA58"/>
-      <c r="AB58"/>
-      <c r="AC58"/>
-      <c r="AD58" s="98"/>
-      <c r="AE58"/>
-      <c r="AF58"/>
-      <c r="AG58"/>
-      <c r="AH58" s="17"/>
-      <c r="AI58" s="17"/>
-      <c r="AJ58" s="17"/>
-      <c r="AK58" s="17"/>
-      <c r="AL58" s="112"/>
+      <c r="AU57" s="15"/>
+      <c r="AV57" s="15"/>
+    </row>
+    <row r="58" spans="1:48">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
       <c r="AM58" s="84" t="s">
         <v>37</v>
       </c>
@@ -6751,32 +7310,10 @@
       <c r="AO58" s="123">
         <v>3</v>
       </c>
-      <c r="AP58" s="17"/>
-      <c r="AQ58" s="17"/>
-      <c r="AR58" s="112"/>
-      <c r="AS58" s="77"/>
-      <c r="AT58" s="20"/>
-      <c r="AU58"/>
-      <c r="AV58"/>
-    </row>
-    <row r="59" spans="1:48" s="15" customFormat="1">
-      <c r="C59"/>
-      <c r="D59" s="98"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59" s="98"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59" s="98"/>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59" s="98"/>
+    </row>
+    <row r="59" spans="1:48">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
       <c r="T59" s="69"/>
       <c r="U59" s="69"/>
       <c r="V59" s="69"/>
@@ -6807,24 +7344,9 @@
       <c r="AU59" s="69"/>
       <c r="AV59" s="69"/>
     </row>
-    <row r="60" spans="1:48" s="15" customFormat="1">
-      <c r="C60"/>
-      <c r="D60" s="98"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60" s="98"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60" s="98"/>
-      <c r="P60"/>
-      <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60" s="98"/>
+    <row r="60" spans="1:48">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
       <c r="T60" s="15" t="s">
         <v>106</v>
       </c>
@@ -6846,10 +7368,15 @@
       <c r="Z60" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="AA60" s="15"/>
+      <c r="AB60" s="15"/>
       <c r="AC60" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AD60" s="97"/>
+      <c r="AE60" s="15"/>
+      <c r="AF60" s="15"/>
+      <c r="AG60" s="15"/>
       <c r="AH60" s="16"/>
       <c r="AI60" s="16"/>
       <c r="AJ60" s="16" t="b">
@@ -6882,12 +7409,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:48" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="61" spans="1:48" ht="12" customHeight="1">
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
       <c r="D61" s="96"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
       <c r="H61" s="96"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="59"/>
       <c r="O61" s="96"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="59"/>
       <c r="S61" s="96"/>
+      <c r="T61" s="59"/>
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59"/>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
+      <c r="Z61" s="59"/>
+      <c r="AA61" s="59"/>
+      <c r="AB61" s="59"/>
+      <c r="AC61" s="59"/>
       <c r="AD61" s="96"/>
+      <c r="AE61" s="59"/>
+      <c r="AF61" s="59"/>
+      <c r="AG61" s="59"/>
       <c r="AH61" s="61"/>
       <c r="AI61" s="61"/>
       <c r="AJ61" s="61"/>
@@ -6901,8 +7456,12 @@
       <c r="AR61" s="127"/>
       <c r="AS61" s="73"/>
       <c r="AT61" s="62"/>
-    </row>
-    <row r="62" spans="1:48" s="15" customFormat="1">
+      <c r="AU61" s="59"/>
+      <c r="AV61" s="59"/>
+    </row>
+    <row r="62" spans="1:48">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="41"/>
       <c r="D62" s="99" t="s">
         <v>115</v>
@@ -6943,6 +7502,8 @@
       <c r="P62" s="15" t="s">
         <v>104</v>
       </c>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
       <c r="S62" s="97"/>
       <c r="T62" s="15" t="s">
         <v>79</v>
@@ -6971,6 +7532,7 @@
       <c r="AB62" s="15">
         <v>5</v>
       </c>
+      <c r="AC62" s="15"/>
       <c r="AD62" s="97" t="s">
         <v>82</v>
       </c>
@@ -7003,7 +7565,7 @@
       <c r="AU62" s="18"/>
       <c r="AV62" s="18"/>
     </row>
-    <row r="63" spans="1:48" s="47" customFormat="1">
+    <row r="63" spans="1:48">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="41"/>
@@ -7053,10 +7615,25 @@
       <c r="AU63" s="69"/>
       <c r="AV63" s="69"/>
     </row>
-    <row r="64" spans="1:48" s="15" customFormat="1">
+    <row r="64" spans="1:48">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="97"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
       <c r="H64" s="97"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
       <c r="O64" s="97"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
       <c r="S64" s="97"/>
       <c r="T64" s="45" t="s">
         <v>101</v>
@@ -7079,10 +7656,15 @@
       <c r="Z64" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="15"/>
       <c r="AC64" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AD64" s="97"/>
+      <c r="AE64" s="15"/>
+      <c r="AF64" s="15"/>
+      <c r="AG64" s="15"/>
       <c r="AH64" s="16" t="b">
         <v>1</v>
       </c>
@@ -7125,13 +7707,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:48" s="15" customFormat="1">
+    <row r="65" spans="1:48">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="97"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
       <c r="H65" s="97"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
       <c r="O65" s="97"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
       <c r="S65" s="97"/>
       <c r="T65" s="45"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="15"/>
+      <c r="AA65" s="15"/>
+      <c r="AB65" s="15"/>
+      <c r="AC65" s="15"/>
       <c r="AD65" s="97"/>
+      <c r="AE65" s="15"/>
+      <c r="AF65" s="15"/>
+      <c r="AG65" s="15"/>
+      <c r="AH65" s="15"/>
+      <c r="AI65" s="15"/>
+      <c r="AJ65" s="15"/>
+      <c r="AK65" s="15"/>
       <c r="AL65" s="97"/>
       <c r="AM65" s="84" t="s">
         <v>38</v>
@@ -7147,6 +7760,8 @@
       <c r="AR65" s="111"/>
       <c r="AS65" s="76"/>
       <c r="AT65" s="19"/>
+      <c r="AU65" s="15"/>
+      <c r="AV65" s="15"/>
     </row>
     <row r="66" spans="1:48">
       <c r="A66" s="15"/>
@@ -7162,7 +7777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:48" s="47" customFormat="1">
+    <row r="67" spans="1:48">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -7212,10 +7827,25 @@
       <c r="AU67" s="69"/>
       <c r="AV67" s="69"/>
     </row>
-    <row r="68" spans="1:48" s="15" customFormat="1">
+    <row r="68" spans="1:48">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="97"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
       <c r="H68" s="97"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
       <c r="O68" s="97"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
       <c r="S68" s="97"/>
       <c r="T68" s="15" t="s">
         <v>106</v>
@@ -7238,10 +7868,15 @@
       <c r="Z68" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="AA68" s="15"/>
+      <c r="AB68" s="15"/>
       <c r="AC68" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AD68" s="97"/>
+      <c r="AE68" s="15"/>
+      <c r="AF68" s="15"/>
+      <c r="AG68" s="15"/>
       <c r="AH68" s="16"/>
       <c r="AI68" s="16"/>
       <c r="AJ68" s="16" t="b">
@@ -7274,12 +7909,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:48" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="69" spans="1:48" ht="12" customHeight="1">
+      <c r="A69" s="59"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
       <c r="D69" s="96"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
       <c r="H69" s="96"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="59"/>
+      <c r="N69" s="59"/>
       <c r="O69" s="96"/>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="59"/>
       <c r="S69" s="96"/>
+      <c r="T69" s="59"/>
+      <c r="U69" s="59"/>
+      <c r="V69" s="59"/>
+      <c r="W69" s="59"/>
+      <c r="X69" s="59"/>
+      <c r="Y69" s="59"/>
+      <c r="Z69" s="59"/>
+      <c r="AA69" s="59"/>
+      <c r="AB69" s="59"/>
+      <c r="AC69" s="59"/>
       <c r="AD69" s="96"/>
+      <c r="AE69" s="59"/>
+      <c r="AF69" s="59"/>
+      <c r="AG69" s="59"/>
       <c r="AH69" s="61"/>
       <c r="AI69" s="61"/>
       <c r="AJ69" s="61"/>
@@ -7293,8 +7956,12 @@
       <c r="AR69" s="127"/>
       <c r="AS69" s="73"/>
       <c r="AT69" s="62"/>
-    </row>
-    <row r="70" spans="1:48" s="15" customFormat="1">
+      <c r="AU69" s="59"/>
+      <c r="AV69" s="59"/>
+    </row>
+    <row r="70" spans="1:48">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="41"/>
       <c r="D70" s="99" t="s">
         <v>118</v>
@@ -7335,6 +8002,8 @@
       <c r="P70" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
       <c r="S70" s="97"/>
       <c r="T70" s="15" t="s">
         <v>79</v>
@@ -7363,6 +8032,7 @@
       <c r="AB70" s="15">
         <v>5</v>
       </c>
+      <c r="AC70" s="15"/>
       <c r="AD70" s="97" t="s">
         <v>82</v>
       </c>
@@ -7395,7 +8065,7 @@
       <c r="AU70" s="18"/>
       <c r="AV70" s="18"/>
     </row>
-    <row r="71" spans="1:48" s="47" customFormat="1">
+    <row r="71" spans="1:48">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="41"/>
@@ -7447,10 +8117,25 @@
       <c r="AU71" s="69"/>
       <c r="AV71" s="69"/>
     </row>
-    <row r="72" spans="1:48" s="15" customFormat="1">
+    <row r="72" spans="1:48">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
       <c r="D72" s="97"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
       <c r="H72" s="97"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
       <c r="O72" s="97"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
       <c r="S72" s="97"/>
       <c r="T72" s="45" t="s">
         <v>120</v>
@@ -7473,10 +8158,15 @@
       <c r="Z72" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="AA72" s="15"/>
+      <c r="AB72" s="15"/>
       <c r="AC72" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AD72" s="97"/>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
+      <c r="AG72" s="15"/>
       <c r="AH72" s="16" t="b">
         <v>1</v>
       </c>
@@ -7519,13 +8209,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:48" s="15" customFormat="1">
+    <row r="73" spans="1:48">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
       <c r="D73" s="97"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
       <c r="H73" s="97"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
       <c r="O73" s="97"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
       <c r="S73" s="97"/>
       <c r="T73" s="45"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15"/>
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
       <c r="AD73" s="97"/>
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="15"/>
+      <c r="AH73" s="15"/>
+      <c r="AI73" s="15"/>
+      <c r="AJ73" s="15"/>
+      <c r="AK73" s="15"/>
       <c r="AL73" s="97"/>
       <c r="AM73" s="82" t="s">
         <v>38</v>
@@ -7541,6 +8262,8 @@
       <c r="AR73" s="111"/>
       <c r="AS73" s="76"/>
       <c r="AT73" s="19"/>
+      <c r="AU73" s="15"/>
+      <c r="AV73" s="15"/>
     </row>
     <row r="74" spans="1:48">
       <c r="A74" s="15"/>
@@ -7556,7 +8279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:48" s="47" customFormat="1">
+    <row r="75" spans="1:48">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -7606,10 +8329,25 @@
       <c r="AU75" s="69"/>
       <c r="AV75" s="69"/>
     </row>
-    <row r="76" spans="1:48" s="15" customFormat="1">
+    <row r="76" spans="1:48">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
       <c r="D76" s="97"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
       <c r="H76" s="97"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
       <c r="O76" s="97"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
       <c r="S76" s="97"/>
       <c r="T76" s="45" t="s">
         <v>121</v>
@@ -7632,10 +8370,15 @@
       <c r="Z76" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="AA76" s="15"/>
+      <c r="AB76" s="15"/>
       <c r="AC76" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AD76" s="97"/>
+      <c r="AE76" s="15"/>
+      <c r="AF76" s="15"/>
+      <c r="AG76" s="15"/>
       <c r="AH76" s="16"/>
       <c r="AI76" s="16"/>
       <c r="AJ76" s="16" t="b">
@@ -7668,12 +8411,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:48" s="63" customFormat="1">
+    <row r="77" spans="1:48">
+      <c r="A77" s="63"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
       <c r="D77" s="100"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
       <c r="H77" s="100"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="63"/>
+      <c r="M77" s="63"/>
+      <c r="N77" s="63"/>
       <c r="O77" s="100"/>
+      <c r="P77" s="63"/>
+      <c r="Q77" s="63"/>
+      <c r="R77" s="63"/>
       <c r="S77" s="100"/>
+      <c r="T77" s="63"/>
+      <c r="U77" s="63"/>
+      <c r="V77" s="63"/>
+      <c r="W77" s="63"/>
+      <c r="X77" s="63"/>
+      <c r="Y77" s="63"/>
+      <c r="Z77" s="63"/>
+      <c r="AA77" s="63"/>
+      <c r="AB77" s="63"/>
+      <c r="AC77" s="63"/>
       <c r="AD77" s="100"/>
+      <c r="AE77" s="63"/>
+      <c r="AF77" s="63"/>
+      <c r="AG77" s="63"/>
       <c r="AH77" s="64"/>
       <c r="AI77" s="64"/>
       <c r="AJ77" s="64"/>
@@ -7687,14 +8458,21 @@
       <c r="AR77" s="114"/>
       <c r="AS77" s="79"/>
       <c r="AT77" s="65"/>
-    </row>
-    <row r="78" spans="1:48" s="15" customFormat="1">
+      <c r="AU77" s="63"/>
+      <c r="AV77" s="63"/>
+    </row>
+    <row r="78" spans="1:48">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
       <c r="D78" s="97" t="s">
         <v>122</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>123</v>
       </c>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
       <c r="H78" s="97"/>
       <c r="I78" s="15" t="s">
         <v>124</v>
@@ -7720,6 +8498,8 @@
       <c r="P78" s="15" t="s">
         <v>125</v>
       </c>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
       <c r="S78" s="97"/>
       <c r="T78" s="15" t="s">
         <v>126</v>
@@ -7739,6 +8519,9 @@
       <c r="Y78" s="15" t="s">
         <v>91</v>
       </c>
+      <c r="Z78" s="15"/>
+      <c r="AA78" s="15"/>
+      <c r="AB78" s="15"/>
       <c r="AC78" s="15" t="s">
         <v>6</v>
       </c>
@@ -7788,16 +8571,44 @@
       <c r="AU78" s="16" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="79" spans="1:48" s="15" customFormat="1">
+      <c r="AV78" s="15"/>
+    </row>
+    <row r="79" spans="1:48">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="97"/>
       <c r="E79" s="15" t="s">
         <v>129</v>
       </c>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
       <c r="H79" s="97"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
       <c r="O79" s="97"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
       <c r="S79" s="97"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="15"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="15"/>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="15"/>
+      <c r="AA79" s="15"/>
+      <c r="AB79" s="15"/>
+      <c r="AC79" s="15"/>
       <c r="AD79" s="97"/>
+      <c r="AE79" s="15"/>
+      <c r="AF79" s="15"/>
+      <c r="AG79" s="15"/>
       <c r="AH79" s="16"/>
       <c r="AI79" s="16"/>
       <c r="AJ79" s="16"/>
@@ -7824,6 +8635,7 @@
       <c r="AU79" s="16" t="s">
         <v>128</v>
       </c>
+      <c r="AV79" s="15"/>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="1"/>
@@ -7835,7 +8647,7 @@
       <c r="H84" s="95"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AM13 B7:B13 Z17:AD17 X16:X17 U16:W16 C23:D23 E22:G23 B71:B74 B16:B23 C18:D20 E17:G19 C7:D12 E6:H12 B35:G39 C63:H64 H36:I36 B50:I50 B54:I54 B43:O44 B42:I42 C25:I25 B70:I70 B62:I62 T42:Y42 T22:AL22 T39:AL39 T18:AL18 T59:AL59 T47:AL47 T43:AL43 T33:AL33 T29:AL29 T75:AL75 T71:AL71 T37:AL37 T67:AL67 AH17:AO17 AA36:AR36 AA50:AR50 AE54:AR54 AA42:AR42 AH27:AO28 AH25:AO25 AM23:AR23 AM19:AR20 AM40:AR40 AM52:AR52 AM60:AR60 AO56:AR57 AM48:AR48 AO44:AR45 AM34:AR34 AM30:AR31 AM38:AR38 AP22:AV22 AP39:AR39 AP17:AV18 AP51:AV51 AP59:AV59 AP55:AV55 AP47:AV47 AP43:AV43 AP33:AV33 AP25:AV29 AP37:AR37 AS37:AV39 AW17:XFD60 Y16:XFD16 AP5:XFD10 W80:XFD81 Y24:AV24 AM11:XFD12 AM15:XFD15 AP14:XFD14 AM72:XFD73 AP71:XFD71 AM76:XFD76 AP75:XFD75 AM64:XFD65 AP63:XFD63 AM68:XFD68 AP67:XFD67 H23:S23 H18:S20 H37:S39 I12:S12 B40:S40 B52:S52 B56:S60 B45:S48 C71:S73 B75:S76 C65:S65 B67:S68 H34:S34 H29:S31 P36:Y36 I10:AL11 B80:U81 C16:T17 B15:V15 C24:W24 H28:AG28 H27:Y27 I64:AG64 B14:AL14 H26:AL26 I63:AL63 B5:AO6 I8:AO9 B77:XFD79 H35:AV35 B49:AV49 B53:AV53 B41:AV41 P70:XFD70 P62:XFD62 P25:T25 P42:S43 B51:AL51 P50:Y50 B55:AL55 P54:AC54 I7:AL7">
+  <conditionalFormatting sqref="AM13 B7:B13 Z17:AD17 X16:X17 U16:W16 C23:D23 E22:G23 B71:B74 B16:B23 C18:D20 E17:G19 C7:D12 E6:H12 B35:G39 C63:H64 H36:I36 B50:I50 B54:I54 B43:O44 B42:I42 C25:I25 B70:I70 B62:I62 T42:Y42 T22:AL22 T39:AL39 T18:AL18 T59:AL59 T47:AL47 T43:AL43 T33:AL33 T29:AL29 T75:AL75 T71:AL71 T37:AL37 T67:AL67 AH17:AO17 AA36:AR36 AA50:AR50 AE54:AR54 AA42:AR42 AH27:AO28 AH25:AO25 AM23:AR23 AM19:AR20 AM40:AR40 AM52:AR52 AM60:AR60 AO56:AR57 AM48:AR48 AO44:AR45 AM34:AR34 AM30:AR31 AM38:AR38 AP22:AV22 AP39:AR39 AP17:AV18 AP51:AV51 AP59:AV59 AP55:AV55 AP47:AV47 AP43:AV43 AP33:AV33 AP25:AV29 AP37:AR37 AS37:AV39 Y16:AV16 AP5:AV10 W80:AV81 Y24:AV24 AM11:AV12 AM15:AV15 AP14:AV14 AM72:AV73 AP71:AV71 AM76:AV76 AP75:AV75 AM64:AV65 AP63:AV63 AM68:AV68 AP67:AV67 H23:S23 H18:S20 H37:S39 I12:S12 B40:S40 B52:S52 B56:S60 B45:S48 C71:S73 B75:S76 C65:S65 B67:S68 H34:S34 H29:S31 P36:Y36 I10:AL11 B80:U81 C16:T17 B15:V15 C24:W24 H28:AG28 H27:Y27 I64:AG64 B14:AL14 H26:AL26 I63:AL63 B5:AO6 I8:AO9 B77:AV79 H35:AV35 B49:AV49 B53:AV53 B41:AV41 P70:AV70 P62:AV62 P25:T25 P42:S43 B51:AL51 P50:Y50 B55:AL55 P54:AC54 I7:AL7">
     <cfRule type="cellIs" dxfId="90" priority="181" operator="equal">
       <formula>"nil"</formula>
     </cfRule>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1831" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{595A6006-CDB7-4FE1-A362-4D586C916F8F}"/>
+  <xr:revisionPtr revIDLastSave="1832" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ADBA340B-6EC5-4D22-A50C-867C887D1B6D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3618,8 +3618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AV84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="XFD1" sqref="AW1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S1" sqref="Q1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -3637,8 +3637,9 @@
     <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.85546875" style="98" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="26.5703125" customWidth="1"/>
-    <col min="19" max="19" width="26.5703125" style="98" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="18" width="26.5703125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26.5703125" style="98" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1832" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ADBA340B-6EC5-4D22-A50C-867C887D1B6D}"/>
+  <xr:revisionPtr revIDLastSave="1841" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B8B9054-84BC-4162-AA55-E37C9217B1A3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3618,8 +3618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AV84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S1" sqref="Q1:S1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -5930,13 +5930,13 @@
         <v>10</v>
       </c>
       <c r="M36" s="41" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="N36" s="41">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O36" s="99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="94"/>
       <c r="Q36" s="41"/>
@@ -6315,13 +6315,13 @@
         <v>10</v>
       </c>
       <c r="M42" s="41" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="N42" s="41">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O42" s="99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
@@ -6768,13 +6768,13 @@
         <v>10</v>
       </c>
       <c r="M50" s="41" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="N50" s="41">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O50" s="99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23322"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1841" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B8B9054-84BC-4162-AA55-E37C9217B1A3}"/>
+  <xr:revisionPtr revIDLastSave="1870" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{044FEC38-4229-420E-81BA-FC144D93A396}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="332">
   <si>
     <t>Cause</t>
   </si>
@@ -517,9 +517,6 @@
   </si>
   <si>
     <t>lean_angle</t>
-  </si>
-  <si>
-    <t>**Add condition to indicator**</t>
   </si>
   <si>
     <t>CAT1/2 replacement</t>
@@ -1426,7 +1423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1454,6 +1451,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1462,7 +1468,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1645,7 +1651,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1713,6 +1718,15 @@
     <xf numFmtId="0" fontId="11" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -1721,56 +1735,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="91">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="84">
     <dxf>
       <fill>
         <patternFill>
@@ -2744,134 +2709,134 @@
   <sheetData>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" t="s">
         <v>264</v>
-      </c>
-      <c r="F3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" t="s">
         <v>266</v>
-      </c>
-      <c r="F5" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
+        <v>267</v>
+      </c>
+      <c r="N6" t="s">
         <v>268</v>
-      </c>
-      <c r="N6" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="O12" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="F13" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O13" t="s">
         <v>274</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
+        <v>172</v>
+      </c>
+      <c r="S13" t="s">
         <v>275</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>173</v>
-      </c>
-      <c r="S13" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="F14" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="O14" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q14" t="s">
         <v>277</v>
       </c>
-      <c r="O14" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>278</v>
-      </c>
-      <c r="S14" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="F15" t="s">
+        <v>279</v>
+      </c>
+      <c r="J15" t="s">
         <v>280</v>
       </c>
-      <c r="J15" t="s">
+      <c r="O15" t="s">
         <v>281</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>282</v>
       </c>
-      <c r="Q15" t="s">
-        <v>283</v>
-      </c>
       <c r="S15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="F16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q16" t="s">
         <v>103</v>
       </c>
       <c r="S16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="F17" t="s">
+        <v>285</v>
+      </c>
+      <c r="O17" t="s">
         <v>286</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>287</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="O18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="F20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="D31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -2883,13 +2848,13 @@
         <v>90</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>102</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>96</v>
@@ -2897,27 +2862,27 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K33" t="s">
         <v>51</v>
       </c>
       <c r="R33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2925,13 +2890,13 @@
     </row>
     <row r="34" spans="2:19">
       <c r="C34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s">
         <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S34">
         <v>0.5</v>
@@ -2939,16 +2904,16 @@
     </row>
     <row r="35" spans="2:19">
       <c r="C35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R35" t="s">
         <v>103</v>
@@ -2959,13 +2924,13 @@
     </row>
     <row r="36" spans="2:19">
       <c r="D36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -2981,10 +2946,10 @@
     </row>
     <row r="38" spans="2:19">
       <c r="C38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
@@ -2992,13 +2957,13 @@
     </row>
     <row r="39" spans="2:19">
       <c r="C39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="2:19">
@@ -3018,29 +2983,29 @@
     </row>
     <row r="52" spans="1:12">
       <c r="H52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="E54" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -3074,17 +3039,17 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="F59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="B60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E60" t="s">
         <v>102</v>
@@ -3092,58 +3057,58 @@
     </row>
     <row r="61" spans="1:12">
       <c r="E61" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="E62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B70">
         <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B71">
         <v>12.5</v>
       </c>
       <c r="C71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3175,48 +3140,48 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I4" t="s">
+        <v>314</v>
+      </c>
+      <c r="J4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I4" t="s">
-        <v>315</v>
-      </c>
-      <c r="J4" t="s">
-        <v>316</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" t="s">
         <v>318</v>
       </c>
-      <c r="R4" t="s">
-        <v>319</v>
-      </c>
       <c r="S4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -3226,18 +3191,18 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="R5" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="R5" s="41" t="s">
+      <c r="S5" t="s">
         <v>322</v>
-      </c>
-      <c r="S5" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="H6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I6">
         <f>I5/4</f>
@@ -3249,51 +3214,51 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="H8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
@@ -3301,7 +3266,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="H10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
@@ -3309,12 +3274,12 @@
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="B12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I12" s="9">
         <v>3.7</v>
@@ -3326,20 +3291,20 @@
     </row>
     <row r="16" spans="1:19">
       <c r="J16" t="s">
+        <v>329</v>
+      </c>
+      <c r="M16" t="s">
         <v>330</v>
-      </c>
-      <c r="M16" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="19" spans="10:10">
       <c r="J19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="1048576" spans="15:15">
       <c r="O1048576" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3618,8 +3583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AV84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -3631,15 +3596,14 @@
     <col min="6" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="13.140625" style="98" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="98" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
-    <col min="17" max="18" width="26.5703125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="26.5703125" style="98" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="132" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="26.5703125" customWidth="1"/>
+    <col min="19" max="19" width="26.5703125" style="98" customWidth="1"/>
     <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -3652,12 +3616,12 @@
     <col min="31" max="31" width="12" hidden="1" customWidth="1"/>
     <col min="32" max="33" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="34" max="37" width="9.140625" style="17"/>
-    <col min="38" max="38" width="9.140625" style="112"/>
+    <col min="38" max="38" width="9.140625" style="111"/>
     <col min="39" max="39" width="17.85546875" style="88" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.42578125" style="123" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" style="122" bestFit="1" customWidth="1"/>
     <col min="42" max="43" width="9.140625" style="17"/>
-    <col min="44" max="44" width="9.140625" style="112"/>
+    <col min="44" max="44" width="9.140625" style="111"/>
     <col min="45" max="45" width="17.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="9.140625" style="20"/>
     <col min="47" max="47" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -3681,10 +3645,10 @@
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="L1" s="127"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="95"/>
+      <c r="O1" s="127"/>
       <c r="P1" s="1" t="s">
         <v>41</v>
       </c>
@@ -3703,7 +3667,7 @@
       <c r="AA1" s="25"/>
       <c r="AB1" s="25"/>
       <c r="AC1" s="25"/>
-      <c r="AD1" s="104"/>
+      <c r="AD1" s="103"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
@@ -3713,15 +3677,15 @@
       <c r="AI1" s="22"/>
       <c r="AJ1" s="22"/>
       <c r="AK1" s="22"/>
-      <c r="AL1" s="106"/>
+      <c r="AL1" s="105"/>
       <c r="AM1" s="66"/>
       <c r="AN1" s="24"/>
-      <c r="AO1" s="115"/>
+      <c r="AO1" s="114"/>
       <c r="AP1" s="67" t="s">
         <v>44</v>
       </c>
       <c r="AQ1" s="67"/>
-      <c r="AR1" s="126"/>
+      <c r="AR1" s="125"/>
       <c r="AS1" s="72"/>
       <c r="AT1" s="92"/>
       <c r="AU1" s="67"/>
@@ -3747,14 +3711,14 @@
       <c r="I2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="95"/>
+      <c r="O2" s="127"/>
       <c r="P2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3775,7 +3739,7 @@
       </c>
       <c r="AB2" s="25"/>
       <c r="AC2" s="25"/>
-      <c r="AD2" s="104" t="s">
+      <c r="AD2" s="103" t="s">
         <v>52</v>
       </c>
       <c r="AE2" s="2" t="s">
@@ -3789,17 +3753,17 @@
       <c r="AI2" s="22"/>
       <c r="AJ2" s="22"/>
       <c r="AK2" s="22"/>
-      <c r="AL2" s="106"/>
+      <c r="AL2" s="105"/>
       <c r="AM2" s="66" t="s">
         <v>2</v>
       </c>
       <c r="AN2" s="24"/>
-      <c r="AO2" s="115"/>
+      <c r="AO2" s="114"/>
       <c r="AP2" s="67" t="s">
         <v>54</v>
       </c>
       <c r="AQ2" s="67"/>
-      <c r="AR2" s="126"/>
+      <c r="AR2" s="125"/>
       <c r="AS2" s="72" t="s">
         <v>2</v>
       </c>
@@ -3836,22 +3800,22 @@
         <v>56</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="128" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="O3" s="128" t="s">
         <v>12</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="101" t="s">
-        <v>15</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>56</v>
@@ -3895,7 +3859,7 @@
       <c r="AC3" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="104" t="s">
+      <c r="AD3" s="103" t="s">
         <v>64</v>
       </c>
       <c r="AE3" s="45" t="s">
@@ -3919,7 +3883,7 @@
       <c r="AK3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AL3" s="107" t="s">
+      <c r="AL3" s="106" t="s">
         <v>72</v>
       </c>
       <c r="AM3" s="66" t="s">
@@ -3928,7 +3892,7 @@
       <c r="AN3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="AO3" s="115" t="s">
+      <c r="AO3" s="114" t="s">
         <v>74</v>
       </c>
       <c r="AP3" s="67" t="s">
@@ -3937,7 +3901,7 @@
       <c r="AQ3" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="AR3" s="126" t="s">
+      <c r="AR3" s="125" t="s">
         <v>70</v>
       </c>
       <c r="AS3" s="72" t="s">
@@ -3965,10 +3929,10 @@
       <c r="I4" s="59"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
+      <c r="L4" s="129"/>
       <c r="M4" s="59"/>
       <c r="N4" s="59"/>
-      <c r="O4" s="96"/>
+      <c r="O4" s="129"/>
       <c r="P4" s="59"/>
       <c r="Q4" s="59"/>
       <c r="R4" s="59"/>
@@ -3991,13 +3955,13 @@
       <c r="AI4" s="61"/>
       <c r="AJ4" s="61"/>
       <c r="AK4" s="60"/>
-      <c r="AL4" s="108"/>
+      <c r="AL4" s="107"/>
       <c r="AM4" s="81"/>
       <c r="AN4" s="62"/>
-      <c r="AO4" s="116"/>
+      <c r="AO4" s="115"/>
       <c r="AP4" s="61"/>
       <c r="AQ4" s="61"/>
-      <c r="AR4" s="127"/>
+      <c r="AR4" s="126"/>
       <c r="AS4" s="73"/>
       <c r="AT4" s="62"/>
       <c r="AU4" s="59"/>
@@ -4025,30 +3989,36 @@
       <c r="I5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="45">
+        <v>8</v>
+      </c>
+      <c r="L5" s="130">
+        <v>1</v>
+      </c>
+      <c r="M5" s="45">
         <v>50</v>
       </c>
-      <c r="K5" s="45">
+      <c r="N5" s="45">
         <v>1.5</v>
       </c>
-      <c r="L5" s="45">
+      <c r="O5" s="130">
         <v>10</v>
-      </c>
-      <c r="M5" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5" s="45">
-        <v>8</v>
-      </c>
-      <c r="O5" s="102">
-        <v>1</v>
       </c>
       <c r="P5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="97"/>
+      <c r="Q5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" s="15">
+        <v>6</v>
+      </c>
+      <c r="S5" s="97">
+        <v>1</v>
+      </c>
       <c r="T5" s="15" t="s">
         <v>79</v>
       </c>
@@ -4095,21 +4065,21 @@
       <c r="AI5" s="18"/>
       <c r="AJ5" s="18"/>
       <c r="AK5" s="18"/>
-      <c r="AL5" s="109"/>
+      <c r="AL5" s="108"/>
       <c r="AM5" s="89" t="s">
         <v>32</v>
       </c>
       <c r="AN5" s="90">
         <v>0</v>
       </c>
-      <c r="AO5" s="117">
+      <c r="AO5" s="116">
         <v>-20</v>
       </c>
       <c r="AP5" s="18"/>
       <c r="AQ5" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AR5" s="109"/>
+      <c r="AR5" s="108"/>
       <c r="AS5" s="74"/>
       <c r="AT5" s="93"/>
       <c r="AU5" s="18"/>
@@ -4135,10 +4105,10 @@
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="L6" s="131"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="97"/>
+      <c r="O6" s="131"/>
       <c r="P6" s="15" t="s">
         <v>32</v>
       </c>
@@ -4169,19 +4139,19 @@
       <c r="AI6" s="18"/>
       <c r="AJ6" s="18"/>
       <c r="AK6" s="18"/>
-      <c r="AL6" s="109"/>
+      <c r="AL6" s="108"/>
       <c r="AM6" s="89" t="s">
         <v>38</v>
       </c>
       <c r="AN6" s="90">
         <v>0</v>
       </c>
-      <c r="AO6" s="117">
+      <c r="AO6" s="116">
         <v>-10</v>
       </c>
       <c r="AP6" s="18"/>
       <c r="AQ6" s="18"/>
-      <c r="AR6" s="109"/>
+      <c r="AR6" s="108"/>
       <c r="AS6" s="74"/>
       <c r="AT6" s="93"/>
       <c r="AU6" s="18"/>
@@ -4207,10 +4177,10 @@
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="L7" s="131"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="97"/>
+      <c r="O7" s="131"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
@@ -4225,7 +4195,7 @@
       <c r="AA7" s="69"/>
       <c r="AB7" s="69"/>
       <c r="AC7" s="69"/>
-      <c r="AD7" s="105"/>
+      <c r="AD7" s="104"/>
       <c r="AE7" s="69"/>
       <c r="AF7" s="69"/>
       <c r="AG7" s="69"/>
@@ -4233,13 +4203,13 @@
       <c r="AI7" s="70"/>
       <c r="AJ7" s="70"/>
       <c r="AK7" s="70"/>
-      <c r="AL7" s="110"/>
+      <c r="AL7" s="109"/>
       <c r="AM7" s="83"/>
       <c r="AN7" s="68"/>
-      <c r="AO7" s="118"/>
+      <c r="AO7" s="117"/>
       <c r="AP7" s="70"/>
       <c r="AQ7" s="70"/>
-      <c r="AR7" s="110"/>
+      <c r="AR7" s="109"/>
       <c r="AS7" s="75"/>
       <c r="AT7" s="71"/>
       <c r="AU7" s="69"/>
@@ -4265,10 +4235,10 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="L8" s="131"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="97"/>
+      <c r="O8" s="131"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
@@ -4313,14 +4283,14 @@
         <v>0</v>
       </c>
       <c r="AK8" s="16"/>
-      <c r="AL8" s="111"/>
+      <c r="AL8" s="110"/>
       <c r="AM8" s="82" t="s">
         <v>32</v>
       </c>
       <c r="AN8" s="80">
         <v>50</v>
       </c>
-      <c r="AO8" s="119" t="s">
+      <c r="AO8" s="118" t="s">
         <v>94</v>
       </c>
       <c r="AP8" s="16" t="b">
@@ -4329,7 +4299,7 @@
       <c r="AQ8" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR8" s="111" t="b">
+      <c r="AR8" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS8" s="91" t="s">
@@ -4365,10 +4335,10 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="L9" s="131"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
-      <c r="O9" s="97"/>
+      <c r="O9" s="131"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
@@ -4391,19 +4361,19 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
       <c r="AK9" s="16"/>
-      <c r="AL9" s="111"/>
+      <c r="AL9" s="110"/>
       <c r="AM9" s="82" t="s">
         <v>38</v>
       </c>
       <c r="AN9" s="80">
         <v>50</v>
       </c>
-      <c r="AO9" s="119" t="s">
+      <c r="AO9" s="118" t="s">
         <v>94</v>
       </c>
       <c r="AP9" s="16"/>
       <c r="AQ9" s="16"/>
-      <c r="AR9" s="111"/>
+      <c r="AR9" s="110"/>
       <c r="AS9" s="76"/>
       <c r="AT9" s="19"/>
       <c r="AU9" s="15"/>
@@ -4429,10 +4399,10 @@
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="L10" s="131"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="97"/>
+      <c r="O10" s="131"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
@@ -4447,7 +4417,7 @@
       <c r="AA10" s="69"/>
       <c r="AB10" s="69"/>
       <c r="AC10" s="69"/>
-      <c r="AD10" s="105"/>
+      <c r="AD10" s="104"/>
       <c r="AE10" s="69"/>
       <c r="AF10" s="69"/>
       <c r="AG10" s="69"/>
@@ -4455,13 +4425,13 @@
       <c r="AI10" s="70"/>
       <c r="AJ10" s="70"/>
       <c r="AK10" s="70"/>
-      <c r="AL10" s="110"/>
+      <c r="AL10" s="109"/>
       <c r="AM10" s="83"/>
       <c r="AN10" s="68"/>
-      <c r="AO10" s="118"/>
+      <c r="AO10" s="117"/>
       <c r="AP10" s="70"/>
       <c r="AQ10" s="70"/>
-      <c r="AR10" s="110"/>
+      <c r="AR10" s="109"/>
       <c r="AS10" s="75"/>
       <c r="AT10" s="71"/>
       <c r="AU10" s="69"/>
@@ -4487,10 +4457,10 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="L11" s="131"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="97"/>
+      <c r="O11" s="131"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
@@ -4535,14 +4505,14 @@
         <v>0</v>
       </c>
       <c r="AK11" s="16"/>
-      <c r="AL11" s="111"/>
+      <c r="AL11" s="110"/>
       <c r="AM11" s="82" t="s">
         <v>32</v>
       </c>
       <c r="AN11" s="80">
         <v>0</v>
       </c>
-      <c r="AO11" s="120">
+      <c r="AO11" s="119">
         <v>50</v>
       </c>
       <c r="AP11" s="16" t="b">
@@ -4551,7 +4521,7 @@
       <c r="AQ11" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR11" s="111" t="b">
+      <c r="AR11" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS11" s="76" t="s">
@@ -4587,10 +4557,10 @@
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="L12" s="131"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="97"/>
+      <c r="O12" s="131"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
@@ -4620,12 +4590,12 @@
       <c r="AN12" s="80">
         <v>0</v>
       </c>
-      <c r="AO12" s="120">
+      <c r="AO12" s="119">
         <v>50</v>
       </c>
       <c r="AP12" s="16"/>
       <c r="AQ12" s="16"/>
-      <c r="AR12" s="111"/>
+      <c r="AR12" s="110"/>
       <c r="AS12" s="76"/>
       <c r="AT12" s="19"/>
       <c r="AU12" s="15"/>
@@ -4634,12 +4604,9 @@
     <row r="13" spans="1:48">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="E13" t="s">
-        <v>105</v>
-      </c>
       <c r="AM13" s="82"/>
       <c r="AN13" s="80"/>
-      <c r="AO13" s="120"/>
+      <c r="AO13" s="119"/>
     </row>
     <row r="14" spans="1:48">
       <c r="A14" s="15"/>
@@ -4653,10 +4620,10 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="L14" s="131"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="97"/>
+      <c r="O14" s="131"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
@@ -4671,7 +4638,7 @@
       <c r="AA14" s="69"/>
       <c r="AB14" s="69"/>
       <c r="AC14" s="69"/>
-      <c r="AD14" s="105"/>
+      <c r="AD14" s="104"/>
       <c r="AE14" s="69"/>
       <c r="AF14" s="69"/>
       <c r="AG14" s="69"/>
@@ -4679,13 +4646,13 @@
       <c r="AI14" s="70"/>
       <c r="AJ14" s="70"/>
       <c r="AK14" s="70"/>
-      <c r="AL14" s="110"/>
+      <c r="AL14" s="109"/>
       <c r="AM14" s="83"/>
       <c r="AN14" s="68"/>
-      <c r="AO14" s="118"/>
+      <c r="AO14" s="117"/>
       <c r="AP14" s="70"/>
       <c r="AQ14" s="70"/>
-      <c r="AR14" s="110"/>
+      <c r="AR14" s="109"/>
       <c r="AS14" s="75"/>
       <c r="AT14" s="71"/>
       <c r="AU14" s="69"/>
@@ -4703,16 +4670,16 @@
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+      <c r="L15" s="131"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="97"/>
+      <c r="O15" s="131"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
       <c r="S15" s="97"/>
       <c r="T15" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U15" s="15">
         <v>1</v>
@@ -4747,17 +4714,17 @@
         <v>1</v>
       </c>
       <c r="AK15" s="16"/>
-      <c r="AL15" s="111"/>
+      <c r="AL15" s="110"/>
       <c r="AM15" s="84"/>
       <c r="AN15" s="19"/>
-      <c r="AO15" s="121"/>
+      <c r="AO15" s="120"/>
       <c r="AP15" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AQ15" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR15" s="111" t="b">
+      <c r="AR15" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS15" s="76" t="s">
@@ -4785,14 +4752,14 @@
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
+      <c r="L16" s="133"/>
       <c r="M16" s="56"/>
       <c r="N16" s="56"/>
-      <c r="O16" s="103"/>
+      <c r="O16" s="133"/>
       <c r="P16" s="56"/>
       <c r="Q16" s="56"/>
       <c r="R16" s="56"/>
-      <c r="S16" s="103"/>
+      <c r="S16" s="102"/>
       <c r="T16" s="56"/>
       <c r="U16" s="56"/>
       <c r="V16" s="56"/>
@@ -4803,7 +4770,7 @@
       <c r="AA16" s="56"/>
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
-      <c r="AD16" s="103"/>
+      <c r="AD16" s="102"/>
       <c r="AE16" s="56"/>
       <c r="AF16" s="56"/>
       <c r="AG16" s="56"/>
@@ -4811,13 +4778,13 @@
       <c r="AI16" s="57"/>
       <c r="AJ16" s="57"/>
       <c r="AK16" s="57"/>
-      <c r="AL16" s="113"/>
+      <c r="AL16" s="112"/>
       <c r="AM16" s="85"/>
       <c r="AN16" s="58"/>
-      <c r="AO16" s="122"/>
+      <c r="AO16" s="121"/>
       <c r="AP16" s="57"/>
       <c r="AQ16" s="57"/>
-      <c r="AR16" s="113"/>
+      <c r="AR16" s="112"/>
       <c r="AS16" s="78"/>
       <c r="AT16" s="58"/>
       <c r="AU16" s="56"/>
@@ -4833,32 +4800,38 @@
       <c r="G17" s="15"/>
       <c r="H17" s="97"/>
       <c r="I17" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="45">
+        <v>106</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="45">
+        <v>10</v>
+      </c>
+      <c r="L17" s="130">
+        <v>1</v>
+      </c>
+      <c r="M17" s="45">
         <v>50</v>
       </c>
-      <c r="K17" s="45">
+      <c r="N17" s="45">
         <v>2.9</v>
       </c>
-      <c r="L17" s="45">
+      <c r="O17" s="130">
         <v>20</v>
-      </c>
-      <c r="M17" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="N17" s="45">
-        <v>10</v>
-      </c>
-      <c r="O17" s="102">
-        <v>1</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="97"/>
+      <c r="Q17" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R17" s="15">
+        <v>5</v>
+      </c>
+      <c r="S17" s="97">
+        <v>1</v>
+      </c>
       <c r="T17" s="15" t="s">
         <v>79</v>
       </c>
@@ -4903,13 +4876,13 @@
       <c r="AI17" s="18"/>
       <c r="AJ17" s="18"/>
       <c r="AK17" s="18"/>
-      <c r="AL17" s="109"/>
+      <c r="AL17" s="108"/>
       <c r="AM17" s="84"/>
       <c r="AN17" s="18"/>
-      <c r="AO17" s="109"/>
+      <c r="AO17" s="108"/>
       <c r="AP17" s="16"/>
       <c r="AQ17" s="18"/>
-      <c r="AR17" s="109"/>
+      <c r="AR17" s="108"/>
       <c r="AS17" s="74"/>
       <c r="AT17" s="93"/>
       <c r="AU17" s="18"/>
@@ -4926,10 +4899,10 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="L18" s="131"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="97"/>
+      <c r="O18" s="131"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
@@ -4944,7 +4917,7 @@
       <c r="AA18" s="69"/>
       <c r="AB18" s="69"/>
       <c r="AC18" s="69"/>
-      <c r="AD18" s="105"/>
+      <c r="AD18" s="104"/>
       <c r="AE18" s="69"/>
       <c r="AF18" s="69"/>
       <c r="AG18" s="69"/>
@@ -4952,13 +4925,13 @@
       <c r="AI18" s="70"/>
       <c r="AJ18" s="70"/>
       <c r="AK18" s="70"/>
-      <c r="AL18" s="110"/>
+      <c r="AL18" s="109"/>
       <c r="AM18" s="83"/>
       <c r="AN18" s="68"/>
-      <c r="AO18" s="118"/>
+      <c r="AO18" s="117"/>
       <c r="AP18" s="70"/>
       <c r="AQ18" s="70"/>
-      <c r="AR18" s="110"/>
+      <c r="AR18" s="109"/>
       <c r="AS18" s="75"/>
       <c r="AT18" s="71"/>
       <c r="AU18" s="69"/>
@@ -4975,10 +4948,10 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="L19" s="131"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="97"/>
+      <c r="O19" s="131"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
@@ -5023,14 +4996,14 @@
         <v>0</v>
       </c>
       <c r="AK19" s="16"/>
-      <c r="AL19" s="111"/>
+      <c r="AL19" s="110"/>
       <c r="AM19" s="84" t="s">
         <v>32</v>
       </c>
       <c r="AN19" s="19">
         <v>0</v>
       </c>
-      <c r="AO19" s="121">
+      <c r="AO19" s="120">
         <v>50</v>
       </c>
       <c r="AP19" s="16" t="b">
@@ -5039,7 +5012,7 @@
       <c r="AQ19" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR19" s="111" t="b">
+      <c r="AR19" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS19" s="76" t="s">
@@ -5064,10 +5037,10 @@
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="L20" s="131"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="97"/>
+      <c r="O20" s="131"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
@@ -5097,12 +5070,12 @@
       <c r="AN20" s="19">
         <v>0</v>
       </c>
-      <c r="AO20" s="121">
+      <c r="AO20" s="120">
         <v>50</v>
       </c>
       <c r="AP20" s="16"/>
       <c r="AQ20" s="16"/>
-      <c r="AR20" s="111"/>
+      <c r="AR20" s="110"/>
       <c r="AS20" s="76"/>
       <c r="AT20" s="19"/>
       <c r="AU20" s="15"/>
@@ -5117,7 +5090,7 @@
       <c r="AN21" s="20">
         <v>0</v>
       </c>
-      <c r="AO21" s="123">
+      <c r="AO21" s="122">
         <v>3</v>
       </c>
     </row>
@@ -5134,7 +5107,7 @@
       <c r="AA22" s="69"/>
       <c r="AB22" s="69"/>
       <c r="AC22" s="69"/>
-      <c r="AD22" s="105"/>
+      <c r="AD22" s="104"/>
       <c r="AE22" s="69"/>
       <c r="AF22" s="69"/>
       <c r="AG22" s="69"/>
@@ -5142,13 +5115,13 @@
       <c r="AI22" s="70"/>
       <c r="AJ22" s="70"/>
       <c r="AK22" s="70"/>
-      <c r="AL22" s="110"/>
+      <c r="AL22" s="109"/>
       <c r="AM22" s="83"/>
       <c r="AN22" s="68"/>
-      <c r="AO22" s="118"/>
+      <c r="AO22" s="117"/>
       <c r="AP22" s="70"/>
       <c r="AQ22" s="70"/>
-      <c r="AR22" s="110"/>
+      <c r="AR22" s="109"/>
       <c r="AS22" s="75"/>
       <c r="AT22" s="71"/>
       <c r="AU22" s="69"/>
@@ -5161,7 +5134,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="T23" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U23" s="15">
         <v>1</v>
@@ -5196,17 +5169,17 @@
         <v>1</v>
       </c>
       <c r="AK23" s="16"/>
-      <c r="AL23" s="111"/>
+      <c r="AL23" s="110"/>
       <c r="AM23" s="84"/>
       <c r="AN23" s="19"/>
-      <c r="AO23" s="121"/>
+      <c r="AO23" s="120"/>
       <c r="AP23" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AQ23" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR23" s="111" t="b">
+      <c r="AR23" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS23" s="76" t="s">
@@ -5234,14 +5207,14 @@
       <c r="I24" s="56"/>
       <c r="J24" s="56"/>
       <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
+      <c r="L24" s="133"/>
       <c r="M24" s="56"/>
       <c r="N24" s="56"/>
-      <c r="O24" s="103"/>
+      <c r="O24" s="133"/>
       <c r="P24" s="56"/>
       <c r="Q24" s="56"/>
       <c r="R24" s="56"/>
-      <c r="S24" s="103"/>
+      <c r="S24" s="102"/>
       <c r="T24" s="56"/>
       <c r="U24" s="56"/>
       <c r="V24" s="56"/>
@@ -5252,7 +5225,7 @@
       <c r="AA24" s="56"/>
       <c r="AB24" s="56"/>
       <c r="AC24" s="56"/>
-      <c r="AD24" s="103"/>
+      <c r="AD24" s="102"/>
       <c r="AE24" s="56"/>
       <c r="AF24" s="56"/>
       <c r="AG24" s="56"/>
@@ -5260,13 +5233,13 @@
       <c r="AI24" s="57"/>
       <c r="AJ24" s="57"/>
       <c r="AK24" s="57"/>
-      <c r="AL24" s="113"/>
+      <c r="AL24" s="112"/>
       <c r="AM24" s="85"/>
       <c r="AN24" s="58"/>
-      <c r="AO24" s="122"/>
+      <c r="AO24" s="121"/>
       <c r="AP24" s="57"/>
       <c r="AQ24" s="57"/>
-      <c r="AR24" s="113"/>
+      <c r="AR24" s="112"/>
       <c r="AS24" s="78"/>
       <c r="AT24" s="58"/>
       <c r="AU24" s="56"/>
@@ -5282,32 +5255,38 @@
       <c r="G25" s="15"/>
       <c r="H25" s="97"/>
       <c r="I25" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="J25" s="45">
+        <v>107</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="45">
         <v>10</v>
       </c>
-      <c r="K25" s="45">
+      <c r="L25" s="130">
+        <v>1</v>
+      </c>
+      <c r="M25" s="45">
+        <v>10</v>
+      </c>
+      <c r="N25" s="45">
         <v>3</v>
       </c>
-      <c r="L25" s="45">
+      <c r="O25" s="130">
         <v>20</v>
-      </c>
-      <c r="M25" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="N25" s="45">
-        <v>10</v>
-      </c>
-      <c r="O25" s="102">
-        <v>1</v>
       </c>
       <c r="P25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="97"/>
+      <c r="Q25" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R25" s="15">
+        <v>4</v>
+      </c>
+      <c r="S25" s="97">
+        <v>1</v>
+      </c>
       <c r="T25" s="15" t="s">
         <v>79</v>
       </c>
@@ -5354,13 +5333,13 @@
       <c r="AI25" s="18"/>
       <c r="AJ25" s="18"/>
       <c r="AK25" s="18"/>
-      <c r="AL25" s="109"/>
+      <c r="AL25" s="108"/>
       <c r="AM25" s="84"/>
       <c r="AN25" s="18"/>
-      <c r="AO25" s="109"/>
+      <c r="AO25" s="108"/>
       <c r="AP25" s="16"/>
       <c r="AQ25" s="18"/>
-      <c r="AR25" s="109"/>
+      <c r="AR25" s="108"/>
       <c r="AS25" s="74"/>
       <c r="AT25" s="93"/>
       <c r="AU25" s="18"/>
@@ -5377,10 +5356,10 @@
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
+      <c r="L26" s="131"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="97"/>
+      <c r="O26" s="131"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
@@ -5395,7 +5374,7 @@
       <c r="AA26" s="69"/>
       <c r="AB26" s="69"/>
       <c r="AC26" s="69"/>
-      <c r="AD26" s="105"/>
+      <c r="AD26" s="104"/>
       <c r="AE26" s="69"/>
       <c r="AF26" s="69"/>
       <c r="AG26" s="69"/>
@@ -5403,13 +5382,13 @@
       <c r="AI26" s="70"/>
       <c r="AJ26" s="70"/>
       <c r="AK26" s="70"/>
-      <c r="AL26" s="110"/>
+      <c r="AL26" s="109"/>
       <c r="AM26" s="83"/>
       <c r="AN26" s="68"/>
-      <c r="AO26" s="118"/>
+      <c r="AO26" s="117"/>
       <c r="AP26" s="70"/>
       <c r="AQ26" s="70"/>
-      <c r="AR26" s="110"/>
+      <c r="AR26" s="109"/>
       <c r="AS26" s="75"/>
       <c r="AT26" s="71"/>
       <c r="AU26" s="69"/>
@@ -5426,16 +5405,16 @@
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
+      <c r="L27" s="131"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="97"/>
+      <c r="O27" s="131"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="97"/>
       <c r="T27" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U27" s="45">
         <v>0.9</v>
@@ -5472,14 +5451,14 @@
         <v>0</v>
       </c>
       <c r="AK27" s="16"/>
-      <c r="AL27" s="111"/>
+      <c r="AL27" s="110"/>
       <c r="AM27" s="82" t="s">
         <v>32</v>
       </c>
       <c r="AN27" s="80">
         <v>50</v>
       </c>
-      <c r="AO27" s="124" t="s">
+      <c r="AO27" s="123" t="s">
         <v>94</v>
       </c>
       <c r="AP27" s="16" t="b">
@@ -5488,7 +5467,7 @@
       <c r="AQ27" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR27" s="111" t="b">
+      <c r="AR27" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS27" s="74"/>
@@ -5507,10 +5486,10 @@
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
+      <c r="L28" s="131"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="97"/>
+      <c r="O28" s="131"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
@@ -5533,19 +5512,19 @@
       <c r="AI28" s="16"/>
       <c r="AJ28" s="16"/>
       <c r="AK28" s="16"/>
-      <c r="AL28" s="111"/>
+      <c r="AL28" s="110"/>
       <c r="AM28" s="82" t="s">
         <v>38</v>
       </c>
       <c r="AN28" s="80">
         <v>50</v>
       </c>
-      <c r="AO28" s="124" t="s">
+      <c r="AO28" s="123" t="s">
         <v>94</v>
       </c>
       <c r="AP28" s="16"/>
       <c r="AQ28" s="16"/>
-      <c r="AR28" s="111"/>
+      <c r="AR28" s="110"/>
       <c r="AS28" s="76"/>
       <c r="AT28" s="19"/>
       <c r="AU28" s="15"/>
@@ -5562,10 +5541,10 @@
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
+      <c r="L29" s="131"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="97"/>
+      <c r="O29" s="131"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
@@ -5580,7 +5559,7 @@
       <c r="AA29" s="69"/>
       <c r="AB29" s="69"/>
       <c r="AC29" s="69"/>
-      <c r="AD29" s="105"/>
+      <c r="AD29" s="104"/>
       <c r="AE29" s="69"/>
       <c r="AF29" s="69"/>
       <c r="AG29" s="69"/>
@@ -5588,13 +5567,13 @@
       <c r="AI29" s="70"/>
       <c r="AJ29" s="70"/>
       <c r="AK29" s="70"/>
-      <c r="AL29" s="110"/>
+      <c r="AL29" s="109"/>
       <c r="AM29" s="83"/>
       <c r="AN29" s="68"/>
-      <c r="AO29" s="118"/>
+      <c r="AO29" s="117"/>
       <c r="AP29" s="70"/>
       <c r="AQ29" s="70"/>
-      <c r="AR29" s="110"/>
+      <c r="AR29" s="109"/>
       <c r="AS29" s="75"/>
       <c r="AT29" s="71"/>
       <c r="AU29" s="69"/>
@@ -5611,10 +5590,10 @@
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
+      <c r="L30" s="131"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="97"/>
+      <c r="O30" s="131"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
@@ -5659,14 +5638,14 @@
         <v>0</v>
       </c>
       <c r="AK30" s="16"/>
-      <c r="AL30" s="111"/>
+      <c r="AL30" s="110"/>
       <c r="AM30" s="84" t="s">
         <v>32</v>
       </c>
       <c r="AN30" s="19">
         <v>0</v>
       </c>
-      <c r="AO30" s="121">
+      <c r="AO30" s="120">
         <v>50</v>
       </c>
       <c r="AP30" s="16" t="b">
@@ -5675,7 +5654,7 @@
       <c r="AQ30" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR30" s="111" t="b">
+      <c r="AR30" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS30" s="76" t="s">
@@ -5700,10 +5679,10 @@
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
+      <c r="L31" s="131"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="97"/>
+      <c r="O31" s="131"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
@@ -5733,12 +5712,12 @@
       <c r="AN31" s="19">
         <v>0</v>
       </c>
-      <c r="AO31" s="121">
+      <c r="AO31" s="120">
         <v>50</v>
       </c>
       <c r="AP31" s="16"/>
       <c r="AQ31" s="16"/>
-      <c r="AR31" s="111"/>
+      <c r="AR31" s="110"/>
       <c r="AS31" s="76"/>
       <c r="AT31" s="19"/>
       <c r="AU31" s="15"/>
@@ -5753,7 +5732,7 @@
       <c r="AN32" s="20">
         <v>0</v>
       </c>
-      <c r="AO32" s="123">
+      <c r="AO32" s="122">
         <v>3</v>
       </c>
     </row>
@@ -5770,7 +5749,7 @@
       <c r="AA33" s="69"/>
       <c r="AB33" s="69"/>
       <c r="AC33" s="69"/>
-      <c r="AD33" s="105"/>
+      <c r="AD33" s="104"/>
       <c r="AE33" s="69"/>
       <c r="AF33" s="69"/>
       <c r="AG33" s="69"/>
@@ -5778,13 +5757,13 @@
       <c r="AI33" s="70"/>
       <c r="AJ33" s="70"/>
       <c r="AK33" s="70"/>
-      <c r="AL33" s="110"/>
+      <c r="AL33" s="109"/>
       <c r="AM33" s="83"/>
       <c r="AN33" s="68"/>
-      <c r="AO33" s="118"/>
+      <c r="AO33" s="117"/>
       <c r="AP33" s="70"/>
       <c r="AQ33" s="70"/>
-      <c r="AR33" s="110"/>
+      <c r="AR33" s="109"/>
       <c r="AS33" s="75"/>
       <c r="AT33" s="71"/>
       <c r="AU33" s="69"/>
@@ -5797,7 +5776,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="T34" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U34" s="15">
         <v>1</v>
@@ -5832,17 +5811,17 @@
         <v>1</v>
       </c>
       <c r="AK34" s="16"/>
-      <c r="AL34" s="111"/>
+      <c r="AL34" s="110"/>
       <c r="AM34" s="84"/>
       <c r="AN34" s="19"/>
-      <c r="AO34" s="121"/>
+      <c r="AO34" s="120"/>
       <c r="AP34" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AQ34" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR34" s="111" t="b">
+      <c r="AR34" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS34" s="76" t="s">
@@ -5870,14 +5849,14 @@
       <c r="I35" s="56"/>
       <c r="J35" s="56"/>
       <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
+      <c r="L35" s="133"/>
       <c r="M35" s="56"/>
       <c r="N35" s="56"/>
-      <c r="O35" s="103"/>
+      <c r="O35" s="133"/>
       <c r="P35" s="56"/>
       <c r="Q35" s="56"/>
       <c r="R35" s="56"/>
-      <c r="S35" s="103"/>
+      <c r="S35" s="102"/>
       <c r="T35" s="56"/>
       <c r="U35" s="56"/>
       <c r="V35" s="56"/>
@@ -5888,7 +5867,7 @@
       <c r="AA35" s="56"/>
       <c r="AB35" s="56"/>
       <c r="AC35" s="56"/>
-      <c r="AD35" s="103"/>
+      <c r="AD35" s="102"/>
       <c r="AE35" s="56"/>
       <c r="AF35" s="56"/>
       <c r="AG35" s="56"/>
@@ -5896,13 +5875,13 @@
       <c r="AI35" s="57"/>
       <c r="AJ35" s="57"/>
       <c r="AK35" s="57"/>
-      <c r="AL35" s="113"/>
+      <c r="AL35" s="112"/>
       <c r="AM35" s="85"/>
       <c r="AN35" s="58"/>
-      <c r="AO35" s="122"/>
+      <c r="AO35" s="121"/>
       <c r="AP35" s="57"/>
       <c r="AQ35" s="57"/>
-      <c r="AR35" s="113"/>
+      <c r="AR35" s="112"/>
       <c r="AS35" s="78"/>
       <c r="AT35" s="58"/>
       <c r="AU35" s="56"/>
@@ -5918,25 +5897,25 @@
       <c r="G36" s="15"/>
       <c r="H36" s="97"/>
       <c r="I36" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="J36" s="41">
+        <v>109</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="41">
+        <v>0</v>
+      </c>
+      <c r="L36" s="134">
+        <v>0</v>
+      </c>
+      <c r="M36" s="41">
         <v>50</v>
       </c>
-      <c r="K36" s="41">
+      <c r="N36" s="41">
         <v>1.5</v>
       </c>
-      <c r="L36" s="41">
+      <c r="O36" s="134">
         <v>10</v>
-      </c>
-      <c r="M36" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="N36" s="41">
-        <v>0</v>
-      </c>
-      <c r="O36" s="99">
-        <v>0</v>
       </c>
       <c r="P36" s="94"/>
       <c r="Q36" s="41"/>
@@ -5967,7 +5946,7 @@
       <c r="AB36" s="15"/>
       <c r="AC36" s="15"/>
       <c r="AD36" s="97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE36" s="15"/>
       <c r="AF36" s="15"/>
@@ -5978,19 +5957,19 @@
       <c r="AI36" s="18"/>
       <c r="AJ36" s="18"/>
       <c r="AK36" s="18"/>
-      <c r="AL36" s="109"/>
+      <c r="AL36" s="108"/>
       <c r="AM36" s="84" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AN36" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AO36" s="121" t="b">
+      <c r="AO36" s="120" t="b">
         <v>1</v>
       </c>
       <c r="AP36" s="44"/>
       <c r="AQ36" s="44"/>
-      <c r="AR36" s="107"/>
+      <c r="AR36" s="106"/>
       <c r="AS36" s="76"/>
       <c r="AT36" s="19"/>
       <c r="AU36" s="15"/>
@@ -6008,10 +5987,10 @@
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
+      <c r="L37" s="131"/>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="97"/>
+      <c r="O37" s="131"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
@@ -6026,7 +6005,7 @@
       <c r="AA37" s="69"/>
       <c r="AB37" s="69"/>
       <c r="AC37" s="69"/>
-      <c r="AD37" s="105"/>
+      <c r="AD37" s="104"/>
       <c r="AE37" s="69"/>
       <c r="AF37" s="69"/>
       <c r="AG37" s="69"/>
@@ -6034,13 +6013,13 @@
       <c r="AI37" s="70"/>
       <c r="AJ37" s="70"/>
       <c r="AK37" s="70"/>
-      <c r="AL37" s="110"/>
+      <c r="AL37" s="109"/>
       <c r="AM37" s="83"/>
       <c r="AN37" s="68"/>
-      <c r="AO37" s="118"/>
+      <c r="AO37" s="117"/>
       <c r="AP37" s="44"/>
       <c r="AQ37" s="44"/>
-      <c r="AR37" s="107"/>
+      <c r="AR37" s="106"/>
       <c r="AS37" s="75"/>
       <c r="AT37" s="71"/>
       <c r="AU37" s="69"/>
@@ -6058,10 +6037,10 @@
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
+      <c r="L38" s="131"/>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="97"/>
+      <c r="O38" s="131"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
@@ -6110,19 +6089,19 @@
       <c r="AI38" s="18"/>
       <c r="AJ38" s="18"/>
       <c r="AK38" s="18"/>
-      <c r="AL38" s="109"/>
+      <c r="AL38" s="108"/>
       <c r="AM38" s="84" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AN38" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AO38" s="121" t="b">
+      <c r="AO38" s="120" t="b">
         <v>1</v>
       </c>
       <c r="AP38" s="44"/>
       <c r="AQ38" s="44"/>
-      <c r="AR38" s="107"/>
+      <c r="AR38" s="106"/>
       <c r="AS38" s="74"/>
       <c r="AT38" s="93"/>
       <c r="AU38" s="18"/>
@@ -6140,10 +6119,10 @@
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
+      <c r="L39" s="131"/>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="97"/>
+      <c r="O39" s="131"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
@@ -6158,7 +6137,7 @@
       <c r="AA39" s="69"/>
       <c r="AB39" s="69"/>
       <c r="AC39" s="69"/>
-      <c r="AD39" s="105"/>
+      <c r="AD39" s="104"/>
       <c r="AE39" s="69"/>
       <c r="AF39" s="69"/>
       <c r="AG39" s="69"/>
@@ -6166,13 +6145,13 @@
       <c r="AI39" s="70"/>
       <c r="AJ39" s="70"/>
       <c r="AK39" s="70"/>
-      <c r="AL39" s="110"/>
+      <c r="AL39" s="109"/>
       <c r="AM39" s="83"/>
       <c r="AN39" s="68"/>
-      <c r="AO39" s="118"/>
+      <c r="AO39" s="117"/>
       <c r="AP39" s="70"/>
       <c r="AQ39" s="70"/>
-      <c r="AR39" s="110"/>
+      <c r="AR39" s="109"/>
       <c r="AS39" s="75"/>
       <c r="AT39" s="71"/>
       <c r="AU39" s="69"/>
@@ -6182,7 +6161,7 @@
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="T40" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U40" s="15">
         <v>1</v>
@@ -6217,17 +6196,17 @@
         <v>1</v>
       </c>
       <c r="AK40" s="16"/>
-      <c r="AL40" s="111"/>
+      <c r="AL40" s="110"/>
       <c r="AM40" s="84"/>
       <c r="AN40" s="19"/>
-      <c r="AO40" s="121"/>
+      <c r="AO40" s="120"/>
       <c r="AP40" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AQ40" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR40" s="111" t="b">
+      <c r="AR40" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS40" s="76" t="s">
@@ -6255,14 +6234,14 @@
       <c r="I41" s="56"/>
       <c r="J41" s="56"/>
       <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
+      <c r="L41" s="133"/>
       <c r="M41" s="56"/>
       <c r="N41" s="56"/>
-      <c r="O41" s="103"/>
+      <c r="O41" s="133"/>
       <c r="P41" s="56"/>
       <c r="Q41" s="56"/>
       <c r="R41" s="56"/>
-      <c r="S41" s="103"/>
+      <c r="S41" s="102"/>
       <c r="T41" s="56"/>
       <c r="U41" s="56"/>
       <c r="V41" s="56"/>
@@ -6273,7 +6252,7 @@
       <c r="AA41" s="56"/>
       <c r="AB41" s="56"/>
       <c r="AC41" s="56"/>
-      <c r="AD41" s="103"/>
+      <c r="AD41" s="102"/>
       <c r="AE41" s="56"/>
       <c r="AF41" s="56"/>
       <c r="AG41" s="56"/>
@@ -6281,13 +6260,13 @@
       <c r="AI41" s="57"/>
       <c r="AJ41" s="57"/>
       <c r="AK41" s="57"/>
-      <c r="AL41" s="113"/>
+      <c r="AL41" s="112"/>
       <c r="AM41" s="85"/>
       <c r="AN41" s="58"/>
-      <c r="AO41" s="122"/>
+      <c r="AO41" s="121"/>
       <c r="AP41" s="57"/>
       <c r="AQ41" s="57"/>
-      <c r="AR41" s="113"/>
+      <c r="AR41" s="112"/>
       <c r="AS41" s="78"/>
       <c r="AT41" s="58"/>
       <c r="AU41" s="56"/>
@@ -6305,23 +6284,23 @@
       <c r="I42" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="J42" s="41">
+      <c r="J42" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K42" s="41">
+        <v>0</v>
+      </c>
+      <c r="L42" s="134">
+        <v>0</v>
+      </c>
+      <c r="M42" s="41">
         <v>50</v>
       </c>
-      <c r="K42" s="41">
+      <c r="N42" s="41">
         <v>1.5</v>
       </c>
-      <c r="L42" s="41">
+      <c r="O42" s="134">
         <v>10</v>
-      </c>
-      <c r="M42" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="N42" s="41">
-        <v>0</v>
-      </c>
-      <c r="O42" s="99">
-        <v>0</v>
       </c>
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
@@ -6352,7 +6331,7 @@
       <c r="AB42" s="15"/>
       <c r="AC42" s="15"/>
       <c r="AD42" s="97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE42" s="15"/>
       <c r="AF42" s="15"/>
@@ -6363,14 +6342,14 @@
       <c r="AI42" s="18"/>
       <c r="AJ42" s="18"/>
       <c r="AK42" s="18"/>
-      <c r="AL42" s="109"/>
+      <c r="AL42" s="108"/>
       <c r="AM42" s="84" t="s">
         <v>99</v>
       </c>
       <c r="AN42" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AO42" s="121" t="b">
+      <c r="AO42" s="120" t="b">
         <v>1</v>
       </c>
       <c r="AP42" s="16" t="b">
@@ -6379,7 +6358,7 @@
       <c r="AQ42" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR42" s="111" t="b">
+      <c r="AR42" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS42" s="76"/>
@@ -6399,10 +6378,10 @@
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
+      <c r="L43" s="131"/>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="97"/>
+      <c r="O43" s="131"/>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
@@ -6417,7 +6396,7 @@
       <c r="AA43" s="69"/>
       <c r="AB43" s="69"/>
       <c r="AC43" s="69"/>
-      <c r="AD43" s="105"/>
+      <c r="AD43" s="104"/>
       <c r="AE43" s="69"/>
       <c r="AF43" s="69"/>
       <c r="AG43" s="69"/>
@@ -6425,13 +6404,13 @@
       <c r="AI43" s="70"/>
       <c r="AJ43" s="70"/>
       <c r="AK43" s="70"/>
-      <c r="AL43" s="110"/>
+      <c r="AL43" s="109"/>
       <c r="AM43" s="83"/>
       <c r="AN43" s="68"/>
-      <c r="AO43" s="118"/>
+      <c r="AO43" s="117"/>
       <c r="AP43" s="70"/>
       <c r="AQ43" s="70"/>
-      <c r="AR43" s="110"/>
+      <c r="AR43" s="109"/>
       <c r="AS43" s="75"/>
       <c r="AT43" s="71"/>
       <c r="AU43" s="69"/>
@@ -6449,10 +6428,10 @@
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
+      <c r="L44" s="131"/>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="97"/>
+      <c r="O44" s="131"/>
       <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
@@ -6497,14 +6476,14 @@
         <v>0</v>
       </c>
       <c r="AK44" s="16"/>
-      <c r="AL44" s="111"/>
+      <c r="AL44" s="110"/>
       <c r="AM44" s="82" t="s">
         <v>32</v>
       </c>
       <c r="AN44" s="80">
         <v>0</v>
       </c>
-      <c r="AO44" s="120">
+      <c r="AO44" s="119">
         <v>50</v>
       </c>
       <c r="AP44" s="16" t="b">
@@ -6513,7 +6492,7 @@
       <c r="AQ44" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR44" s="111" t="b">
+      <c r="AR44" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS44" s="76" t="s">
@@ -6541,10 +6520,10 @@
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
+      <c r="L45" s="131"/>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
-      <c r="O45" s="97"/>
+      <c r="O45" s="131"/>
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
@@ -6574,12 +6553,12 @@
       <c r="AN45" s="80">
         <v>0</v>
       </c>
-      <c r="AO45" s="120">
+      <c r="AO45" s="119">
         <v>50</v>
       </c>
       <c r="AP45" s="16"/>
       <c r="AQ45" s="16"/>
-      <c r="AR45" s="111"/>
+      <c r="AR45" s="110"/>
       <c r="AS45" s="76"/>
       <c r="AT45" s="19"/>
       <c r="AU45" s="15"/>
@@ -6594,7 +6573,7 @@
       <c r="AN46" s="80">
         <v>0</v>
       </c>
-      <c r="AO46" s="120">
+      <c r="AO46" s="119">
         <v>3</v>
       </c>
     </row>
@@ -6611,7 +6590,7 @@
       <c r="AA47" s="69"/>
       <c r="AB47" s="69"/>
       <c r="AC47" s="69"/>
-      <c r="AD47" s="105"/>
+      <c r="AD47" s="104"/>
       <c r="AE47" s="69"/>
       <c r="AF47" s="69"/>
       <c r="AG47" s="69"/>
@@ -6619,13 +6598,13 @@
       <c r="AI47" s="70"/>
       <c r="AJ47" s="70"/>
       <c r="AK47" s="70"/>
-      <c r="AL47" s="110"/>
+      <c r="AL47" s="109"/>
       <c r="AM47" s="83"/>
       <c r="AN47" s="68"/>
-      <c r="AO47" s="118"/>
+      <c r="AO47" s="117"/>
       <c r="AP47" s="70"/>
       <c r="AQ47" s="70"/>
-      <c r="AR47" s="110"/>
+      <c r="AR47" s="109"/>
       <c r="AS47" s="75"/>
       <c r="AT47" s="71"/>
       <c r="AU47" s="69"/>
@@ -6635,7 +6614,7 @@
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="T48" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U48" s="15">
         <v>1</v>
@@ -6670,17 +6649,17 @@
         <v>1</v>
       </c>
       <c r="AK48" s="16"/>
-      <c r="AL48" s="111"/>
+      <c r="AL48" s="110"/>
       <c r="AM48" s="84"/>
       <c r="AN48" s="19"/>
-      <c r="AO48" s="121"/>
+      <c r="AO48" s="120"/>
       <c r="AP48" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AQ48" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR48" s="111" t="b">
+      <c r="AR48" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS48" s="76" t="s">
@@ -6708,14 +6687,14 @@
       <c r="I49" s="56"/>
       <c r="J49" s="56"/>
       <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
+      <c r="L49" s="133"/>
       <c r="M49" s="56"/>
       <c r="N49" s="56"/>
-      <c r="O49" s="103"/>
+      <c r="O49" s="133"/>
       <c r="P49" s="56"/>
       <c r="Q49" s="56"/>
       <c r="R49" s="56"/>
-      <c r="S49" s="103"/>
+      <c r="S49" s="102"/>
       <c r="T49" s="56"/>
       <c r="U49" s="56"/>
       <c r="V49" s="56"/>
@@ -6726,7 +6705,7 @@
       <c r="AA49" s="56"/>
       <c r="AB49" s="56"/>
       <c r="AC49" s="56"/>
-      <c r="AD49" s="103"/>
+      <c r="AD49" s="102"/>
       <c r="AE49" s="56"/>
       <c r="AF49" s="56"/>
       <c r="AG49" s="56"/>
@@ -6734,13 +6713,13 @@
       <c r="AI49" s="57"/>
       <c r="AJ49" s="57"/>
       <c r="AK49" s="57"/>
-      <c r="AL49" s="113"/>
+      <c r="AL49" s="112"/>
       <c r="AM49" s="85"/>
       <c r="AN49" s="58"/>
-      <c r="AO49" s="122"/>
+      <c r="AO49" s="121"/>
       <c r="AP49" s="57"/>
       <c r="AQ49" s="57"/>
-      <c r="AR49" s="113"/>
+      <c r="AR49" s="112"/>
       <c r="AS49" s="78"/>
       <c r="AT49" s="58"/>
       <c r="AU49" s="56"/>
@@ -6756,25 +6735,25 @@
       <c r="G50" s="15"/>
       <c r="H50" s="97"/>
       <c r="I50" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="J50" s="41">
+        <v>112</v>
+      </c>
+      <c r="J50" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K50" s="41">
+        <v>0</v>
+      </c>
+      <c r="L50" s="134">
+        <v>0</v>
+      </c>
+      <c r="M50" s="41">
         <v>50</v>
       </c>
-      <c r="K50" s="41">
+      <c r="N50" s="41">
         <v>1.5</v>
       </c>
-      <c r="L50" s="41">
+      <c r="O50" s="134">
         <v>10</v>
-      </c>
-      <c r="M50" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="N50" s="41">
-        <v>0</v>
-      </c>
-      <c r="O50" s="99">
-        <v>0</v>
       </c>
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
@@ -6805,7 +6784,7 @@
       <c r="AB50" s="15"/>
       <c r="AC50" s="15"/>
       <c r="AD50" s="97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE50" s="15"/>
       <c r="AF50" s="15"/>
@@ -6816,14 +6795,14 @@
       <c r="AI50" s="18"/>
       <c r="AJ50" s="18"/>
       <c r="AK50" s="18"/>
-      <c r="AL50" s="109"/>
+      <c r="AL50" s="108"/>
       <c r="AM50" s="84" t="s">
         <v>38</v>
       </c>
       <c r="AN50" s="19">
         <v>0</v>
       </c>
-      <c r="AO50" s="121">
+      <c r="AO50" s="120">
         <v>50</v>
       </c>
       <c r="AP50" s="16" t="b">
@@ -6832,7 +6811,7 @@
       <c r="AQ50" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR50" s="111" t="b">
+      <c r="AR50" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS50" s="76"/>
@@ -6852,10 +6831,10 @@
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
+      <c r="L51" s="131"/>
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
-      <c r="O51" s="97"/>
+      <c r="O51" s="131"/>
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
       <c r="R51" s="15"/>
@@ -6870,7 +6849,7 @@
       <c r="AA51" s="69"/>
       <c r="AB51" s="69"/>
       <c r="AC51" s="69"/>
-      <c r="AD51" s="105"/>
+      <c r="AD51" s="104"/>
       <c r="AE51" s="69"/>
       <c r="AF51" s="69"/>
       <c r="AG51" s="69"/>
@@ -6878,13 +6857,13 @@
       <c r="AI51" s="70"/>
       <c r="AJ51" s="70"/>
       <c r="AK51" s="70"/>
-      <c r="AL51" s="110"/>
+      <c r="AL51" s="109"/>
       <c r="AM51" s="83"/>
       <c r="AN51" s="68"/>
-      <c r="AO51" s="118"/>
+      <c r="AO51" s="117"/>
       <c r="AP51" s="70"/>
       <c r="AQ51" s="70"/>
-      <c r="AR51" s="110"/>
+      <c r="AR51" s="109"/>
       <c r="AS51" s="75"/>
       <c r="AT51" s="71"/>
       <c r="AU51" s="69"/>
@@ -6894,7 +6873,7 @@
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="T52" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U52" s="15">
         <v>1</v>
@@ -6929,17 +6908,17 @@
         <v>1</v>
       </c>
       <c r="AK52" s="16"/>
-      <c r="AL52" s="111"/>
+      <c r="AL52" s="110"/>
       <c r="AM52" s="84"/>
       <c r="AN52" s="19"/>
-      <c r="AO52" s="121"/>
+      <c r="AO52" s="120"/>
       <c r="AP52" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AQ52" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR52" s="111" t="b">
+      <c r="AR52" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS52" s="76" t="s">
@@ -6967,14 +6946,14 @@
       <c r="I53" s="56"/>
       <c r="J53" s="56"/>
       <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
+      <c r="L53" s="133"/>
       <c r="M53" s="56"/>
       <c r="N53" s="56"/>
-      <c r="O53" s="103"/>
+      <c r="O53" s="133"/>
       <c r="P53" s="56"/>
       <c r="Q53" s="56"/>
       <c r="R53" s="56"/>
-      <c r="S53" s="103"/>
+      <c r="S53" s="102"/>
       <c r="T53" s="56"/>
       <c r="U53" s="56"/>
       <c r="V53" s="56"/>
@@ -6985,7 +6964,7 @@
       <c r="AA53" s="56"/>
       <c r="AB53" s="56"/>
       <c r="AC53" s="56"/>
-      <c r="AD53" s="103"/>
+      <c r="AD53" s="102"/>
       <c r="AE53" s="56"/>
       <c r="AF53" s="56"/>
       <c r="AG53" s="56"/>
@@ -6993,13 +6972,13 @@
       <c r="AI53" s="57"/>
       <c r="AJ53" s="57"/>
       <c r="AK53" s="57"/>
-      <c r="AL53" s="113"/>
+      <c r="AL53" s="112"/>
       <c r="AM53" s="85"/>
       <c r="AN53" s="58"/>
-      <c r="AO53" s="122"/>
+      <c r="AO53" s="121"/>
       <c r="AP53" s="57"/>
       <c r="AQ53" s="57"/>
-      <c r="AR53" s="113"/>
+      <c r="AR53" s="112"/>
       <c r="AS53" s="78"/>
       <c r="AT53" s="58"/>
       <c r="AU53" s="56"/>
@@ -7015,32 +6994,38 @@
       <c r="G54" s="15"/>
       <c r="H54" s="97"/>
       <c r="I54" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="J54" s="41">
+        <v>113</v>
+      </c>
+      <c r="J54" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K54" s="41">
+        <v>20</v>
+      </c>
+      <c r="L54" s="134">
+        <v>1</v>
+      </c>
+      <c r="M54" s="41">
         <v>50</v>
       </c>
-      <c r="K54" s="41">
+      <c r="N54" s="41">
         <v>1.5</v>
       </c>
-      <c r="L54" s="41">
+      <c r="O54" s="134">
         <v>10</v>
-      </c>
-      <c r="M54" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="N54" s="41">
-        <v>20</v>
-      </c>
-      <c r="O54" s="99">
-        <v>1</v>
       </c>
       <c r="P54" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="97"/>
+      <c r="Q54" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R54" s="15">
+        <v>25</v>
+      </c>
+      <c r="S54" s="97">
+        <v>2</v>
+      </c>
       <c r="T54" s="15" t="s">
         <v>79</v>
       </c>
@@ -7075,14 +7060,14 @@
       <c r="AI54" s="18"/>
       <c r="AJ54" s="18"/>
       <c r="AK54" s="18"/>
-      <c r="AL54" s="109"/>
+      <c r="AL54" s="108"/>
       <c r="AM54" s="84" t="s">
         <v>32</v>
       </c>
       <c r="AN54" s="19">
         <v>0</v>
       </c>
-      <c r="AO54" s="121">
+      <c r="AO54" s="120">
         <v>50</v>
       </c>
       <c r="AP54" s="16" t="b">
@@ -7091,7 +7076,7 @@
       <c r="AQ54" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR54" s="111" t="b">
+      <c r="AR54" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS54" s="76"/>
@@ -7111,16 +7096,22 @@
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
+      <c r="L55" s="131"/>
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
-      <c r="O55" s="97"/>
+      <c r="O55" s="131"/>
       <c r="P55" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="97"/>
+      <c r="Q55" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R55" s="15">
+        <v>50</v>
+      </c>
+      <c r="S55" s="97">
+        <v>2</v>
+      </c>
       <c r="T55" s="69"/>
       <c r="U55" s="69"/>
       <c r="V55" s="69"/>
@@ -7131,7 +7122,7 @@
       <c r="AA55" s="69"/>
       <c r="AB55" s="69"/>
       <c r="AC55" s="69"/>
-      <c r="AD55" s="105"/>
+      <c r="AD55" s="104"/>
       <c r="AE55" s="69"/>
       <c r="AF55" s="69"/>
       <c r="AG55" s="69"/>
@@ -7139,13 +7130,13 @@
       <c r="AI55" s="70"/>
       <c r="AJ55" s="70"/>
       <c r="AK55" s="70"/>
-      <c r="AL55" s="110"/>
+      <c r="AL55" s="109"/>
       <c r="AM55" s="83"/>
       <c r="AN55" s="68"/>
-      <c r="AO55" s="118"/>
+      <c r="AO55" s="117"/>
       <c r="AP55" s="70"/>
       <c r="AQ55" s="70"/>
-      <c r="AR55" s="110"/>
+      <c r="AR55" s="109"/>
       <c r="AS55" s="75"/>
       <c r="AT55" s="71"/>
       <c r="AU55" s="69"/>
@@ -7163,10 +7154,10 @@
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
+      <c r="L56" s="131"/>
       <c r="M56" s="15"/>
       <c r="N56" s="15"/>
-      <c r="O56" s="97"/>
+      <c r="O56" s="131"/>
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
       <c r="R56" s="15"/>
@@ -7211,14 +7202,14 @@
         <v>0</v>
       </c>
       <c r="AK56" s="16"/>
-      <c r="AL56" s="111"/>
+      <c r="AL56" s="110"/>
       <c r="AM56" s="84" t="s">
         <v>32</v>
       </c>
       <c r="AN56" s="19">
         <v>0</v>
       </c>
-      <c r="AO56" s="121">
+      <c r="AO56" s="120">
         <v>50</v>
       </c>
       <c r="AP56" s="16" t="b">
@@ -7227,7 +7218,7 @@
       <c r="AQ56" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR56" s="111" t="b">
+      <c r="AR56" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS56" s="76" t="s">
@@ -7255,10 +7246,10 @@
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
+      <c r="L57" s="131"/>
       <c r="M57" s="15"/>
       <c r="N57" s="15"/>
-      <c r="O57" s="97"/>
+      <c r="O57" s="131"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
       <c r="R57" s="15"/>
@@ -7288,12 +7279,12 @@
       <c r="AN57" s="19">
         <v>0</v>
       </c>
-      <c r="AO57" s="121">
+      <c r="AO57" s="120">
         <v>50</v>
       </c>
       <c r="AP57" s="16"/>
       <c r="AQ57" s="16"/>
-      <c r="AR57" s="111"/>
+      <c r="AR57" s="110"/>
       <c r="AS57" s="76"/>
       <c r="AT57" s="19"/>
       <c r="AU57" s="15"/>
@@ -7308,7 +7299,7 @@
       <c r="AN58" s="20">
         <v>0</v>
       </c>
-      <c r="AO58" s="123">
+      <c r="AO58" s="122">
         <v>3</v>
       </c>
     </row>
@@ -7325,7 +7316,7 @@
       <c r="AA59" s="69"/>
       <c r="AB59" s="69"/>
       <c r="AC59" s="69"/>
-      <c r="AD59" s="105"/>
+      <c r="AD59" s="104"/>
       <c r="AE59" s="69"/>
       <c r="AF59" s="69"/>
       <c r="AG59" s="69"/>
@@ -7333,13 +7324,13 @@
       <c r="AI59" s="70"/>
       <c r="AJ59" s="70"/>
       <c r="AK59" s="70"/>
-      <c r="AL59" s="110"/>
+      <c r="AL59" s="109"/>
       <c r="AM59" s="83"/>
       <c r="AN59" s="68"/>
-      <c r="AO59" s="118"/>
+      <c r="AO59" s="117"/>
       <c r="AP59" s="70"/>
       <c r="AQ59" s="70"/>
-      <c r="AR59" s="110"/>
+      <c r="AR59" s="109"/>
       <c r="AS59" s="75"/>
       <c r="AT59" s="71"/>
       <c r="AU59" s="69"/>
@@ -7349,7 +7340,7 @@
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="T60" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U60" s="15">
         <v>1</v>
@@ -7384,17 +7375,17 @@
         <v>1</v>
       </c>
       <c r="AK60" s="16"/>
-      <c r="AL60" s="111"/>
+      <c r="AL60" s="110"/>
       <c r="AM60" s="84"/>
       <c r="AN60" s="19"/>
-      <c r="AO60" s="121"/>
+      <c r="AO60" s="120"/>
       <c r="AP60" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AQ60" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR60" s="111" t="b">
+      <c r="AR60" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS60" s="76" t="s">
@@ -7422,10 +7413,10 @@
       <c r="I61" s="59"/>
       <c r="J61" s="59"/>
       <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
+      <c r="L61" s="129"/>
       <c r="M61" s="59"/>
       <c r="N61" s="59"/>
-      <c r="O61" s="96"/>
+      <c r="O61" s="129"/>
       <c r="P61" s="59"/>
       <c r="Q61" s="59"/>
       <c r="R61" s="59"/>
@@ -7448,13 +7439,13 @@
       <c r="AI61" s="61"/>
       <c r="AJ61" s="61"/>
       <c r="AK61" s="60"/>
-      <c r="AL61" s="108"/>
+      <c r="AL61" s="107"/>
       <c r="AM61" s="81"/>
       <c r="AN61" s="62"/>
-      <c r="AO61" s="116"/>
+      <c r="AO61" s="115"/>
       <c r="AP61" s="61"/>
       <c r="AQ61" s="61"/>
-      <c r="AR61" s="127"/>
+      <c r="AR61" s="126"/>
       <c r="AS61" s="73"/>
       <c r="AT61" s="62"/>
       <c r="AU61" s="59"/>
@@ -7465,10 +7456,10 @@
       <c r="B62" s="15"/>
       <c r="C62" s="41"/>
       <c r="D62" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" t="s">
         <v>115</v>
-      </c>
-      <c r="E62" t="s">
-        <v>116</v>
       </c>
       <c r="F62" t="s">
         <v>98</v>
@@ -7480,25 +7471,25 @@
         <v>1</v>
       </c>
       <c r="I62" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="J62" s="41">
+        <v>116</v>
+      </c>
+      <c r="J62" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K62" s="41">
+        <v>20</v>
+      </c>
+      <c r="L62" s="134">
+        <v>1</v>
+      </c>
+      <c r="M62" s="41">
         <v>50</v>
       </c>
-      <c r="K62" s="41">
+      <c r="N62" s="41">
         <v>1.5</v>
       </c>
-      <c r="L62" s="41">
+      <c r="O62" s="134">
         <v>10</v>
-      </c>
-      <c r="M62" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="N62" s="41">
-        <v>20</v>
-      </c>
-      <c r="O62" s="99">
-        <v>1</v>
       </c>
       <c r="P62" s="15" t="s">
         <v>104</v>
@@ -7552,15 +7543,15 @@
       <c r="AI62" s="18"/>
       <c r="AJ62" s="18"/>
       <c r="AK62" s="18"/>
-      <c r="AL62" s="109"/>
+      <c r="AL62" s="108"/>
       <c r="AM62" s="86"/>
       <c r="AN62" s="18"/>
-      <c r="AO62" s="109"/>
+      <c r="AO62" s="108"/>
       <c r="AP62" s="18"/>
       <c r="AQ62" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AR62" s="109"/>
+      <c r="AR62" s="108"/>
       <c r="AS62" s="74"/>
       <c r="AT62" s="93"/>
       <c r="AU62" s="18"/>
@@ -7578,10 +7569,10 @@
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
+      <c r="L63" s="131"/>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
-      <c r="O63" s="97"/>
+      <c r="O63" s="131"/>
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
       <c r="R63" s="15"/>
@@ -7596,7 +7587,7 @@
       <c r="AA63" s="69"/>
       <c r="AB63" s="69"/>
       <c r="AC63" s="69"/>
-      <c r="AD63" s="105"/>
+      <c r="AD63" s="104"/>
       <c r="AE63" s="69"/>
       <c r="AF63" s="69"/>
       <c r="AG63" s="69"/>
@@ -7604,13 +7595,13 @@
       <c r="AI63" s="70"/>
       <c r="AJ63" s="70"/>
       <c r="AK63" s="70"/>
-      <c r="AL63" s="110"/>
+      <c r="AL63" s="109"/>
       <c r="AM63" s="83"/>
       <c r="AN63" s="68"/>
-      <c r="AO63" s="118"/>
+      <c r="AO63" s="117"/>
       <c r="AP63" s="70"/>
       <c r="AQ63" s="70"/>
-      <c r="AR63" s="110"/>
+      <c r="AR63" s="109"/>
       <c r="AS63" s="75"/>
       <c r="AT63" s="71"/>
       <c r="AU63" s="69"/>
@@ -7628,10 +7619,10 @@
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
+      <c r="L64" s="131"/>
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
-      <c r="O64" s="97"/>
+      <c r="O64" s="131"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
       <c r="R64" s="15"/>
@@ -7676,14 +7667,14 @@
         <v>0</v>
       </c>
       <c r="AK64" s="16"/>
-      <c r="AL64" s="111"/>
+      <c r="AL64" s="110"/>
       <c r="AM64" s="84" t="s">
         <v>32</v>
       </c>
       <c r="AN64" s="19">
         <v>0</v>
       </c>
-      <c r="AO64" s="121">
+      <c r="AO64" s="120">
         <v>50</v>
       </c>
       <c r="AP64" s="16" t="b">
@@ -7692,7 +7683,7 @@
       <c r="AQ64" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR64" s="111" t="b">
+      <c r="AR64" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS64" s="76" t="s">
@@ -7720,10 +7711,10 @@
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
+      <c r="L65" s="131"/>
       <c r="M65" s="15"/>
       <c r="N65" s="15"/>
-      <c r="O65" s="97"/>
+      <c r="O65" s="131"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
       <c r="R65" s="15"/>
@@ -7753,12 +7744,12 @@
       <c r="AN65" s="19">
         <v>0</v>
       </c>
-      <c r="AO65" s="121">
+      <c r="AO65" s="120">
         <v>50</v>
       </c>
       <c r="AP65" s="16"/>
       <c r="AQ65" s="16"/>
-      <c r="AR65" s="111"/>
+      <c r="AR65" s="110"/>
       <c r="AS65" s="76"/>
       <c r="AT65" s="19"/>
       <c r="AU65" s="15"/>
@@ -7774,7 +7765,7 @@
       <c r="AN66" s="20">
         <v>0</v>
       </c>
-      <c r="AO66" s="123">
+      <c r="AO66" s="122">
         <v>3</v>
       </c>
     </row>
@@ -7790,10 +7781,10 @@
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
       <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
+      <c r="L67" s="131"/>
       <c r="M67" s="15"/>
       <c r="N67" s="15"/>
-      <c r="O67" s="97"/>
+      <c r="O67" s="131"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
       <c r="R67" s="15"/>
@@ -7808,7 +7799,7 @@
       <c r="AA67" s="69"/>
       <c r="AB67" s="69"/>
       <c r="AC67" s="69"/>
-      <c r="AD67" s="105"/>
+      <c r="AD67" s="104"/>
       <c r="AE67" s="69"/>
       <c r="AF67" s="69"/>
       <c r="AG67" s="69"/>
@@ -7816,13 +7807,13 @@
       <c r="AI67" s="70"/>
       <c r="AJ67" s="70"/>
       <c r="AK67" s="70"/>
-      <c r="AL67" s="110"/>
+      <c r="AL67" s="109"/>
       <c r="AM67" s="83"/>
       <c r="AN67" s="68"/>
-      <c r="AO67" s="118"/>
+      <c r="AO67" s="117"/>
       <c r="AP67" s="70"/>
       <c r="AQ67" s="70"/>
-      <c r="AR67" s="110"/>
+      <c r="AR67" s="109"/>
       <c r="AS67" s="75"/>
       <c r="AT67" s="71"/>
       <c r="AU67" s="69"/>
@@ -7840,16 +7831,16 @@
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
+      <c r="L68" s="131"/>
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
-      <c r="O68" s="97"/>
+      <c r="O68" s="131"/>
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
       <c r="R68" s="15"/>
       <c r="S68" s="97"/>
       <c r="T68" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U68" s="15">
         <v>1</v>
@@ -7884,17 +7875,17 @@
         <v>1</v>
       </c>
       <c r="AK68" s="16"/>
-      <c r="AL68" s="111"/>
+      <c r="AL68" s="110"/>
       <c r="AM68" s="84"/>
       <c r="AN68" s="19"/>
-      <c r="AO68" s="121"/>
+      <c r="AO68" s="120"/>
       <c r="AP68" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AQ68" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR68" s="111" t="b">
+      <c r="AR68" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS68" s="76" t="s">
@@ -7922,10 +7913,10 @@
       <c r="I69" s="59"/>
       <c r="J69" s="59"/>
       <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
+      <c r="L69" s="129"/>
       <c r="M69" s="59"/>
       <c r="N69" s="59"/>
-      <c r="O69" s="96"/>
+      <c r="O69" s="129"/>
       <c r="P69" s="59"/>
       <c r="Q69" s="59"/>
       <c r="R69" s="59"/>
@@ -7948,13 +7939,13 @@
       <c r="AI69" s="61"/>
       <c r="AJ69" s="61"/>
       <c r="AK69" s="60"/>
-      <c r="AL69" s="108"/>
+      <c r="AL69" s="107"/>
       <c r="AM69" s="81"/>
       <c r="AN69" s="62"/>
-      <c r="AO69" s="116"/>
+      <c r="AO69" s="115"/>
       <c r="AP69" s="61"/>
       <c r="AQ69" s="61"/>
-      <c r="AR69" s="127"/>
+      <c r="AR69" s="126"/>
       <c r="AS69" s="73"/>
       <c r="AT69" s="62"/>
       <c r="AU69" s="59"/>
@@ -7965,10 +7956,10 @@
       <c r="B70" s="15"/>
       <c r="C70" s="41"/>
       <c r="D70" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" t="s">
         <v>118</v>
-      </c>
-      <c r="E70" t="s">
-        <v>119</v>
       </c>
       <c r="F70" t="s">
         <v>98</v>
@@ -7980,25 +7971,25 @@
         <v>1</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="J70" s="41">
+        <v>116</v>
+      </c>
+      <c r="J70" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K70" s="41">
+        <v>20</v>
+      </c>
+      <c r="L70" s="134">
+        <v>1</v>
+      </c>
+      <c r="M70" s="41">
         <v>50</v>
       </c>
-      <c r="K70" s="41">
+      <c r="N70" s="41">
         <v>1.5</v>
       </c>
-      <c r="L70" s="41">
+      <c r="O70" s="134">
         <v>10</v>
-      </c>
-      <c r="M70" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="N70" s="41">
-        <v>20</v>
-      </c>
-      <c r="O70" s="99">
-        <v>1</v>
       </c>
       <c r="P70" s="15" t="s">
         <v>38</v>
@@ -8052,15 +8043,15 @@
       <c r="AI70" s="18"/>
       <c r="AJ70" s="18"/>
       <c r="AK70" s="18"/>
-      <c r="AL70" s="109"/>
+      <c r="AL70" s="108"/>
       <c r="AM70" s="86"/>
       <c r="AN70" s="18"/>
-      <c r="AO70" s="109"/>
+      <c r="AO70" s="108"/>
       <c r="AP70" s="18"/>
       <c r="AQ70" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AR70" s="109"/>
+      <c r="AR70" s="108"/>
       <c r="AS70" s="74"/>
       <c r="AT70" s="93"/>
       <c r="AU70" s="18"/>
@@ -8078,10 +8069,10 @@
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
+      <c r="L71" s="131"/>
       <c r="M71" s="15"/>
       <c r="N71" s="15"/>
-      <c r="O71" s="97"/>
+      <c r="O71" s="131"/>
       <c r="P71" s="15" t="s">
         <v>32</v>
       </c>
@@ -8098,7 +8089,7 @@
       <c r="AA71" s="69"/>
       <c r="AB71" s="69"/>
       <c r="AC71" s="69"/>
-      <c r="AD71" s="105"/>
+      <c r="AD71" s="104"/>
       <c r="AE71" s="69"/>
       <c r="AF71" s="69"/>
       <c r="AG71" s="69"/>
@@ -8106,13 +8097,13 @@
       <c r="AI71" s="70"/>
       <c r="AJ71" s="70"/>
       <c r="AK71" s="70"/>
-      <c r="AL71" s="110"/>
+      <c r="AL71" s="109"/>
       <c r="AM71" s="83"/>
       <c r="AN71" s="68"/>
-      <c r="AO71" s="118"/>
+      <c r="AO71" s="117"/>
       <c r="AP71" s="70"/>
       <c r="AQ71" s="70"/>
-      <c r="AR71" s="110"/>
+      <c r="AR71" s="109"/>
       <c r="AS71" s="75"/>
       <c r="AT71" s="71"/>
       <c r="AU71" s="69"/>
@@ -8130,16 +8121,16 @@
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
+      <c r="L72" s="131"/>
       <c r="M72" s="15"/>
       <c r="N72" s="15"/>
-      <c r="O72" s="97"/>
+      <c r="O72" s="131"/>
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
       <c r="R72" s="15"/>
       <c r="S72" s="97"/>
       <c r="T72" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U72" s="15">
         <v>1</v>
@@ -8178,14 +8169,14 @@
         <v>0</v>
       </c>
       <c r="AK72" s="16"/>
-      <c r="AL72" s="111"/>
+      <c r="AL72" s="110"/>
       <c r="AM72" s="82" t="s">
         <v>32</v>
       </c>
       <c r="AN72" s="80">
         <v>0</v>
       </c>
-      <c r="AO72" s="120">
+      <c r="AO72" s="119">
         <v>50</v>
       </c>
       <c r="AP72" s="16" t="b">
@@ -8194,7 +8185,7 @@
       <c r="AQ72" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR72" s="111" t="b">
+      <c r="AR72" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS72" s="76" t="s">
@@ -8222,10 +8213,10 @@
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
+      <c r="L73" s="131"/>
       <c r="M73" s="15"/>
       <c r="N73" s="15"/>
-      <c r="O73" s="97"/>
+      <c r="O73" s="131"/>
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
       <c r="R73" s="15"/>
@@ -8255,12 +8246,12 @@
       <c r="AN73" s="80">
         <v>0</v>
       </c>
-      <c r="AO73" s="120">
+      <c r="AO73" s="119">
         <v>50</v>
       </c>
       <c r="AP73" s="16"/>
       <c r="AQ73" s="16"/>
-      <c r="AR73" s="111"/>
+      <c r="AR73" s="110"/>
       <c r="AS73" s="76"/>
       <c r="AT73" s="19"/>
       <c r="AU73" s="15"/>
@@ -8276,7 +8267,7 @@
       <c r="AN74" s="80">
         <v>0</v>
       </c>
-      <c r="AO74" s="120">
+      <c r="AO74" s="119">
         <v>3</v>
       </c>
     </row>
@@ -8292,10 +8283,10 @@
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
+      <c r="L75" s="131"/>
       <c r="M75" s="15"/>
       <c r="N75" s="15"/>
-      <c r="O75" s="97"/>
+      <c r="O75" s="131"/>
       <c r="P75" s="15"/>
       <c r="Q75" s="15"/>
       <c r="R75" s="15"/>
@@ -8310,7 +8301,7 @@
       <c r="AA75" s="69"/>
       <c r="AB75" s="69"/>
       <c r="AC75" s="69"/>
-      <c r="AD75" s="105"/>
+      <c r="AD75" s="104"/>
       <c r="AE75" s="69"/>
       <c r="AF75" s="69"/>
       <c r="AG75" s="69"/>
@@ -8318,13 +8309,13 @@
       <c r="AI75" s="70"/>
       <c r="AJ75" s="70"/>
       <c r="AK75" s="70"/>
-      <c r="AL75" s="110"/>
+      <c r="AL75" s="109"/>
       <c r="AM75" s="83"/>
       <c r="AN75" s="68"/>
-      <c r="AO75" s="118"/>
+      <c r="AO75" s="117"/>
       <c r="AP75" s="70"/>
       <c r="AQ75" s="70"/>
-      <c r="AR75" s="110"/>
+      <c r="AR75" s="109"/>
       <c r="AS75" s="75"/>
       <c r="AT75" s="71"/>
       <c r="AU75" s="69"/>
@@ -8342,16 +8333,16 @@
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
+      <c r="L76" s="131"/>
       <c r="M76" s="15"/>
       <c r="N76" s="15"/>
-      <c r="O76" s="97"/>
+      <c r="O76" s="131"/>
       <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
       <c r="R76" s="15"/>
       <c r="S76" s="97"/>
       <c r="T76" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U76" s="15">
         <v>1</v>
@@ -8386,17 +8377,17 @@
         <v>1</v>
       </c>
       <c r="AK76" s="16"/>
-      <c r="AL76" s="111"/>
+      <c r="AL76" s="110"/>
       <c r="AM76" s="84"/>
       <c r="AN76" s="19"/>
-      <c r="AO76" s="121"/>
+      <c r="AO76" s="120"/>
       <c r="AP76" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AQ76" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AR76" s="111" t="b">
+      <c r="AR76" s="110" t="b">
         <v>0</v>
       </c>
       <c r="AS76" s="76" t="s">
@@ -8424,10 +8415,10 @@
       <c r="I77" s="63"/>
       <c r="J77" s="63"/>
       <c r="K77" s="63"/>
-      <c r="L77" s="63"/>
+      <c r="L77" s="135"/>
       <c r="M77" s="63"/>
       <c r="N77" s="63"/>
-      <c r="O77" s="100"/>
+      <c r="O77" s="135"/>
       <c r="P77" s="63"/>
       <c r="Q77" s="63"/>
       <c r="R77" s="63"/>
@@ -8450,13 +8441,13 @@
       <c r="AI77" s="64"/>
       <c r="AJ77" s="64"/>
       <c r="AK77" s="64"/>
-      <c r="AL77" s="114"/>
+      <c r="AL77" s="113"/>
       <c r="AM77" s="87"/>
       <c r="AN77" s="65"/>
-      <c r="AO77" s="125"/>
+      <c r="AO77" s="124"/>
       <c r="AP77" s="64"/>
       <c r="AQ77" s="64"/>
-      <c r="AR77" s="114"/>
+      <c r="AR77" s="113"/>
       <c r="AS77" s="79"/>
       <c r="AT77" s="65"/>
       <c r="AU77" s="63"/>
@@ -8467,43 +8458,43 @@
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
       <c r="D78" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
       <c r="H78" s="97"/>
       <c r="I78" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="J78" s="15">
-        <v>10</v>
+        <v>123</v>
+      </c>
+      <c r="J78" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="K78" s="15">
         <v>10</v>
       </c>
-      <c r="L78" s="15">
+      <c r="L78" s="131">
         <v>10</v>
       </c>
-      <c r="M78" s="15" t="s">
-        <v>78</v>
+      <c r="M78" s="15">
+        <v>10</v>
       </c>
       <c r="N78" s="15">
         <v>10</v>
       </c>
-      <c r="O78" s="97">
+      <c r="O78" s="131">
         <v>10</v>
       </c>
       <c r="P78" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q78" s="15"/>
       <c r="R78" s="15"/>
       <c r="S78" s="97"/>
       <c r="T78" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U78" s="15">
         <v>0.9</v>
@@ -8515,7 +8506,7 @@
         <v>2</v>
       </c>
       <c r="X78" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y78" s="15" t="s">
         <v>91</v>
@@ -8527,7 +8518,7 @@
         <v>6</v>
       </c>
       <c r="AD78" s="97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE78" s="15" t="s">
         <v>84</v>
@@ -8550,19 +8541,19 @@
       <c r="AK78" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AL78" s="111"/>
+      <c r="AL78" s="110"/>
       <c r="AM78" s="84" t="s">
         <v>32</v>
       </c>
       <c r="AN78" s="19">
         <v>50</v>
       </c>
-      <c r="AO78" s="121" t="s">
+      <c r="AO78" s="120" t="s">
         <v>94</v>
       </c>
       <c r="AP78" s="16"/>
       <c r="AQ78" s="16"/>
-      <c r="AR78" s="111"/>
+      <c r="AR78" s="110"/>
       <c r="AS78" s="76" t="s">
         <v>32</v>
       </c>
@@ -8570,7 +8561,7 @@
         <v>50</v>
       </c>
       <c r="AU78" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AV78" s="15"/>
     </row>
@@ -8580,7 +8571,7 @@
       <c r="C79" s="15"/>
       <c r="D79" s="97"/>
       <c r="E79" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
@@ -8588,10 +8579,10 @@
       <c r="I79" s="15"/>
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
+      <c r="L79" s="131"/>
       <c r="M79" s="15"/>
       <c r="N79" s="15"/>
-      <c r="O79" s="97"/>
+      <c r="O79" s="131"/>
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="15"/>
@@ -8614,19 +8605,19 @@
       <c r="AI79" s="16"/>
       <c r="AJ79" s="16"/>
       <c r="AK79" s="16"/>
-      <c r="AL79" s="111"/>
+      <c r="AL79" s="110"/>
       <c r="AM79" s="84" t="s">
         <v>38</v>
       </c>
       <c r="AN79" s="19">
         <v>170</v>
       </c>
-      <c r="AO79" s="121" t="s">
+      <c r="AO79" s="120" t="s">
         <v>94</v>
       </c>
       <c r="AP79" s="16"/>
       <c r="AQ79" s="16"/>
-      <c r="AR79" s="111"/>
+      <c r="AR79" s="110"/>
       <c r="AS79" s="76" t="s">
         <v>38</v>
       </c>
@@ -8634,7 +8625,7 @@
         <v>50</v>
       </c>
       <c r="AU79" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AV79" s="15"/>
     </row>
@@ -8648,418 +8639,383 @@
       <c r="H84" s="95"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AM13 B7:B13 Z17:AD17 X16:X17 U16:W16 C23:D23 E22:G23 B71:B74 B16:B23 C18:D20 E17:G19 C7:D12 E6:H12 B35:G39 C63:H64 H36:I36 B50:I50 B54:I54 B43:O44 B42:I42 C25:I25 B70:I70 B62:I62 T42:Y42 T22:AL22 T39:AL39 T18:AL18 T59:AL59 T47:AL47 T43:AL43 T33:AL33 T29:AL29 T75:AL75 T71:AL71 T37:AL37 T67:AL67 AH17:AO17 AA36:AR36 AA50:AR50 AE54:AR54 AA42:AR42 AH27:AO28 AH25:AO25 AM23:AR23 AM19:AR20 AM40:AR40 AM52:AR52 AM60:AR60 AO56:AR57 AM48:AR48 AO44:AR45 AM34:AR34 AM30:AR31 AM38:AR38 AP22:AV22 AP39:AR39 AP17:AV18 AP51:AV51 AP59:AV59 AP55:AV55 AP47:AV47 AP43:AV43 AP33:AV33 AP25:AV29 AP37:AR37 AS37:AV39 Y16:AV16 AP5:AV10 W80:AV81 Y24:AV24 AM11:AV12 AM15:AV15 AP14:AV14 AM72:AV73 AP71:AV71 AM76:AV76 AP75:AV75 AM64:AV65 AP63:AV63 AM68:AV68 AP67:AV67 H23:S23 H18:S20 H37:S39 I12:S12 B40:S40 B52:S52 B56:S60 B45:S48 C71:S73 B75:S76 C65:S65 B67:S68 H34:S34 H29:S31 P36:Y36 I10:AL11 B80:U81 C16:T17 B15:V15 C24:W24 H28:AG28 H27:Y27 I64:AG64 B14:AL14 H26:AL26 I63:AL63 B5:AO6 I8:AO9 B77:AV79 H35:AV35 B49:AV49 B53:AV53 B41:AV41 P70:AV70 P62:AV62 P25:T25 P42:S43 B51:AL51 P50:Y50 B55:AL55 P54:AC54 I7:AL7">
-    <cfRule type="cellIs" dxfId="90" priority="181" operator="equal">
+  <conditionalFormatting sqref="AM13 B7:B13 Z17:AD17 X16:X17 U16:W16 C23:D23 E22:G23 B71:B74 B16:B23 C18:D20 E17:G19 C7:D12 E6:H12 B35:G39 T42:Y42 T22:AL22 T39:AL39 T18:AL18 T59:AL59 T47:AL47 T43:AL43 T33:AL33 T29:AL29 T75:AL75 T71:AL71 T37:AL37 T67:AL67 AH17:AO17 AA36:AR36 AA50:AR50 AE54:AR54 AA42:AR42 AH27:AO28 AH25:AO25 AM23:AR23 AM19:AR20 AM40:AR40 AM52:AR52 AM60:AR60 AO56:AR57 AM48:AR48 AO44:AR45 AM34:AR34 AM30:AR31 AM38:AR38 AP22:AV22 AP39:AR39 AP17:AV18 AP51:AV51 AP59:AV59 AP55:AV55 AP47:AV47 AP43:AV43 AP33:AV33 AP25:AV29 AP37:AR37 AS37:AV39 Y16:AV16 AP5:AV10 W80:AV81 Y24:AV24 AM11:AV12 AM15:AV15 AP14:AV14 AM72:AV73 AP71:AV71 AM76:AV76 AP75:AV75 AM64:AV65 AP63:AV63 AM68:AV68 AP67:AV67 P36:Y36 P25:T25 P42:S43 P50:Y50 P54:AC54 B40:O60 H23:S23 H18:S20 H34:O39 P12:S12 I7:O12 P37:S40 P52:S52 P56:S60 P45:S48 C71:S73 P75:S76 B75:O81 P65:S65 C63:O65 B67:S68 P34:S34 P29:S31 H26:O31 P10:AL11 P80:U81 C16:T17 P15:V15 B14:O15 P24:W24 C24:O25 P28:AG28 P27:Y27 P64:AG64 P14:AL14 P26:AL26 P63:AL63 B5:AO6 P8:AO9 P77:AV79 P35:AV35 P49:AV49 P53:AV53 P41:AV41 P51:AL51 P55:AL55 P7:AL7 B62:AV62 B70:AV70">
+    <cfRule type="cellIs" dxfId="83" priority="181" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17:V17">
-    <cfRule type="cellIs" dxfId="89" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="179" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD17">
-    <cfRule type="cellIs" dxfId="88" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="177" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE17:AG17">
-    <cfRule type="cellIs" dxfId="87" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="176" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17:Y17">
-    <cfRule type="cellIs" dxfId="86" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="175" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15:AL15">
-    <cfRule type="cellIs" dxfId="85" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="172" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA36:AD36 U35:W35">
-    <cfRule type="cellIs" dxfId="84" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="169" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U36:V36">
-    <cfRule type="cellIs" dxfId="83" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="168" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD36">
-    <cfRule type="cellIs" dxfId="82" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="166" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE36:AG36">
-    <cfRule type="cellIs" dxfId="81" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="165" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36:Y36">
-    <cfRule type="cellIs" dxfId="80" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="164" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS36:AV36">
-    <cfRule type="cellIs" dxfId="79" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="159" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS19:AV20 AM21 T19:V19 X19:AL19">
-    <cfRule type="cellIs" dxfId="78" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="149" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA50:AD50">
-    <cfRule type="cellIs" dxfId="77" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="131" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS23:AV23 U23:AL23">
-    <cfRule type="cellIs" dxfId="76" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="146" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS40:AV40 U40:AL40">
-    <cfRule type="cellIs" dxfId="75" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="138" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN56:AN57">
-    <cfRule type="cellIs" dxfId="74" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="97" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z54:AC54">
-    <cfRule type="cellIs" dxfId="73" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="113" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U50:V50">
-    <cfRule type="cellIs" dxfId="72" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="130" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD50">
-    <cfRule type="cellIs" dxfId="71" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="129" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE50:AG50">
-    <cfRule type="cellIs" dxfId="70" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="128" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W50:Y50">
-    <cfRule type="cellIs" dxfId="69" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="127" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS50:AV50">
-    <cfRule type="cellIs" dxfId="68" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="124" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS52:AV52 U52:AL52">
-    <cfRule type="cellIs" dxfId="67" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="120" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN44:AN45">
-    <cfRule type="cellIs" dxfId="66" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="79" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA42:AD42">
-    <cfRule type="cellIs" dxfId="65" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="95" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54:V54">
-    <cfRule type="cellIs" dxfId="64" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="112" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE54:AG54">
-    <cfRule type="cellIs" dxfId="63" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="110" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W54:Y54">
-    <cfRule type="cellIs" dxfId="62" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="109" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS54:AV54">
-    <cfRule type="cellIs" dxfId="61" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="106" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS56:AV57 AM58 T56:AL56">
-    <cfRule type="cellIs" dxfId="60" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="105" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM56:AM57">
-    <cfRule type="cellIs" dxfId="59" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="104" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS60:AV60 U60:AL60">
-    <cfRule type="cellIs" dxfId="58" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="102" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42:V42">
-    <cfRule type="cellIs" dxfId="57" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="94" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD42">
-    <cfRule type="cellIs" dxfId="56" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="93" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE42:AG42">
-    <cfRule type="cellIs" dxfId="55" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="92" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42:Y42">
-    <cfRule type="cellIs" dxfId="54" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="91" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42:AV42">
-    <cfRule type="cellIs" dxfId="53" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="88" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS44:AV45 AM46 T44:AL44">
-    <cfRule type="cellIs" dxfId="52" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="87" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM44:AM45">
-    <cfRule type="cellIs" dxfId="51" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="86" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS48:AV48 U48:AL48">
-    <cfRule type="cellIs" dxfId="50" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="84" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA25:AD25 X24:X25 B24:B34 C26:D31 E26:G30 C34:D34 E33:G34 AA27:AG27">
-    <cfRule type="cellIs" dxfId="49" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="78" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25:V25">
-    <cfRule type="cellIs" dxfId="48" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="77" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25">
-    <cfRule type="cellIs" dxfId="47" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="76" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE25:AG25">
-    <cfRule type="cellIs" dxfId="46" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="75" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25:Y25">
-    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="74" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS30:AV31 AM32 T30:AL30">
-    <cfRule type="cellIs" dxfId="44" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="70" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS34:AV34 U34:AL34">
-    <cfRule type="cellIs" dxfId="43" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="67" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM74 U72:AL72">
-    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="54" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U76:AL76">
-    <cfRule type="cellIs" dxfId="41" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" dxfId="40" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W19">
-    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z50">
-    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z42">
-    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z36">
-    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z25">
-    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z27">
-    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD54">
-    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD54">
-    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23">
-    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T34">
-    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T40">
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T48">
-    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T52">
-    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T60">
-    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T76">
-    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z38:AD38 X38 T38">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U38:V38 AH38:AL38">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE38:AG38">
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W38:Y38">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B66">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM66 AH64:AL64">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U68:AL68">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T68">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T72">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:O25">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36:O36">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42:O42">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50:O50">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54:O54">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J62:O62">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J70:O70">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9087,39 +9043,39 @@
     <row r="2" spans="1:20">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="T2" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
         <v>134</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>135</v>
-      </c>
-      <c r="D3" t="s">
-        <v>136</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:20">
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -9127,7 +9083,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="B5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="30" t="s">
@@ -9138,7 +9094,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="B6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
@@ -9149,72 +9105,72 @@
     </row>
     <row r="7" spans="1:20">
       <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="T7" t="s">
         <v>140</v>
-      </c>
-      <c r="T7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="T8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="T9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="T10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="T11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20">
       <c r="T13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20">
       <c r="T15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="T16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="17:20">
       <c r="T17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="17:20">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -9223,85 +9179,85 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T19" s="31"/>
     </row>
     <row r="20" spans="17:20">
       <c r="T20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="17:20">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="17:20">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="17:20">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="17:20">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="17:20">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="17:20">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="17:20">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="17:20">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="17:20">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="17:20">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="17:20">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="17:20">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -9310,34 +9266,34 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T33" s="31"/>
     </row>
     <row r="34" spans="17:20">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="17:20">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T35" s="31"/>
     </row>
     <row r="36" spans="17:20">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="17:20">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -9346,28 +9302,28 @@
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T38" s="31"/>
     </row>
     <row r="39" spans="17:20">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="17:20">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T40" s="31"/>
     </row>
     <row r="41" spans="17:20">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -9408,7 +9364,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -9434,12 +9390,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -9479,7 +9435,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
         <v>98</v>
@@ -9491,12 +9447,12 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -9511,12 +9467,12 @@
         <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
         <v>98</v>
@@ -9527,7 +9483,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -9553,7 +9509,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
         <v>78</v>
@@ -9564,7 +9520,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
         <v>78</v>
@@ -9575,7 +9531,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -9583,7 +9539,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -9604,13 +9560,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -9618,22 +9574,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -9648,12 +9604,12 @@
         <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -9668,7 +9624,7 @@
         <v>98</v>
       </c>
       <c r="H20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -9694,10 +9650,10 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -9711,7 +9667,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -9739,7 +9695,7 @@
         <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9748,7 +9704,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9762,31 +9718,31 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
         <v>98</v>
@@ -9794,7 +9750,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -9857,7 +9813,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
@@ -9869,7 +9825,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="52"/>
       <c r="AA1" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
@@ -9882,7 +9838,7 @@
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1">
       <c r="C2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -9923,7 +9879,7 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="49"/>
       <c r="AE2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
@@ -9938,7 +9894,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>57</v>
@@ -9993,7 +9949,7 @@
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>26</v>
@@ -10013,7 +9969,7 @@
       </c>
       <c r="AD3" s="49"/>
       <c r="AE3" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>75</v>
@@ -10031,7 +9987,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>79</v>
@@ -10058,7 +10014,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>82</v>
@@ -10076,10 +10032,10 @@
         <v>1</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
@@ -10227,7 +10183,7 @@
     </row>
     <row r="9" spans="1:35" s="15" customFormat="1">
       <c r="C9" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E9" s="15">
         <v>1</v>
@@ -10374,7 +10330,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>79</v>
@@ -10386,7 +10342,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>79</v>
@@ -10413,51 +10369,51 @@
         <v>1</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="50"/>
       <c r="W15" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z15" s="50"/>
       <c r="AA15" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AD15" s="50"/>
       <c r="AE15" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI15" s="47"/>
     </row>
     <row r="16" spans="1:35" s="15" customFormat="1">
       <c r="C16" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="15">
         <v>0.9</v>
@@ -10504,16 +10460,16 @@
       </c>
       <c r="AD16" s="50"/>
       <c r="AE16" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI16" s="47"/>
     </row>
@@ -10548,7 +10504,7 @@
     </row>
     <row r="18" spans="1:35" s="15" customFormat="1">
       <c r="C18" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -10660,7 +10616,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -10675,33 +10631,33 @@
         <v>102</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S21" s="15" t="b">
         <v>1</v>
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z21" s="47"/>
       <c r="AA21" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB21" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AD21" s="47"/>
       <c r="AE21"/>
@@ -10728,7 +10684,7 @@
     </row>
     <row r="23" spans="1:35" s="15" customFormat="1">
       <c r="C23" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="15">
         <v>0.9</v>
@@ -10740,13 +10696,13 @@
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>84</v>
@@ -10782,13 +10738,13 @@
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AD23" s="50"/>
       <c r="AE23" s="16" t="s">
@@ -10798,7 +10754,7 @@
         <v>50</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI23" s="47"/>
     </row>
@@ -10820,13 +10776,13 @@
       </c>
       <c r="Z24" s="53"/>
       <c r="AA24" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AD24" s="50"/>
       <c r="AE24" s="16" t="s">
@@ -10836,7 +10792,7 @@
         <v>50</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI24" s="47"/>
     </row>
@@ -10981,19 +10937,19 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>58</v>
@@ -11007,16 +10963,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
         <v>94</v>
@@ -11030,7 +10986,7 @@
         <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
         <v>94</v>
@@ -11038,7 +10994,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="C5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -11050,7 +11006,7 @@
         <v>100000</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -11100,19 +11056,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>58</v>
@@ -11120,16 +11076,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E13" t="s">
         <v>94</v>
@@ -11138,7 +11094,7 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -11146,7 +11102,7 @@
         <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E14" t="s">
         <v>94</v>
@@ -11157,7 +11113,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="C15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -11225,226 +11181,226 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>213</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>214</v>
       </c>
       <c r="C4" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>213</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>214</v>
       </c>
       <c r="C5" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>213</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>214</v>
       </c>
       <c r="C6" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>213</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>214</v>
       </c>
       <c r="C7" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>213</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>214</v>
       </c>
       <c r="C8" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>213</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>214</v>
       </c>
       <c r="C9" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>213</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>214</v>
       </c>
       <c r="C10" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>213</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>214</v>
       </c>
       <c r="C11" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>213</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>214</v>
       </c>
       <c r="C12" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>213</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>214</v>
       </c>
       <c r="C13" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>213</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>214</v>
       </c>
       <c r="C14" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>213</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>214</v>
       </c>
       <c r="C15" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>228</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>229</v>
       </c>
       <c r="C17" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>228</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>229</v>
       </c>
       <c r="C18" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C19" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -11465,72 +11421,72 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>231</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>232</v>
       </c>
       <c r="C22" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>231</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>232</v>
       </c>
       <c r="C23" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>231</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>232</v>
       </c>
       <c r="C24" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C25" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C26" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -11543,86 +11499,86 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>238</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>239</v>
       </c>
       <c r="C28" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C30" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C31" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C32" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>243</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>244</v>
       </c>
       <c r="C33" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -11635,72 +11591,72 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C35" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36" s="32" t="s">
         <v>245</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>246</v>
       </c>
       <c r="C36" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>245</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>246</v>
       </c>
       <c r="C37" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C38" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C39" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -11721,16 +11677,16 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C42" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -11743,226 +11699,226 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C44" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C46" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C47" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C48" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C49" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C50" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C51" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C52" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C54" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C55" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C56" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C57" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C58" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C59" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -11975,86 +11931,86 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C61" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C62" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C63" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C64" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C65" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C66" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -12075,44 +12031,44 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C69" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C70" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C71" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1870" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{044FEC38-4229-420E-81BA-FC144D93A396}"/>
+  <xr:revisionPtr revIDLastSave="1872" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D4EE982C-507A-4AF4-89EE-C153CA58DE85}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3584,7 +3584,7 @@
   <dimension ref="A1:AV84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23405"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1872" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D4EE982C-507A-4AF4-89EE-C153CA58DE85}"/>
+  <xr:revisionPtr revIDLastSave="1895" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DFA4ED6F-BE31-4191-9B3F-31B94F53D031}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3584,7 +3584,7 @@
   <dimension ref="A1:AV84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4116,7 +4116,7 @@
         <v>78</v>
       </c>
       <c r="R6" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S6" s="97">
         <v>1</v>
@@ -5282,7 +5282,7 @@
         <v>78</v>
       </c>
       <c r="R25" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S25" s="97">
         <v>1</v>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1895" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DFA4ED6F-BE31-4191-9B3F-31B94F53D031}"/>
+  <xr:revisionPtr revIDLastSave="1899" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F97C89CA-1379-4A17-9685-66A1631D91B0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3584,7 +3584,7 @@
   <dimension ref="A1:AV84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4013,9 +4013,7 @@
       <c r="Q5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="R5" s="15">
-        <v>6</v>
-      </c>
+      <c r="R5" s="15"/>
       <c r="S5" s="97">
         <v>1</v>
       </c>
@@ -4115,9 +4113,7 @@
       <c r="Q6" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="R6" s="15">
-        <v>1</v>
-      </c>
+      <c r="R6" s="15"/>
       <c r="S6" s="97">
         <v>1</v>
       </c>
@@ -4826,9 +4822,7 @@
       <c r="Q17" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="R17" s="15">
-        <v>5</v>
-      </c>
+      <c r="R17" s="15"/>
       <c r="S17" s="97">
         <v>1</v>
       </c>
@@ -5281,9 +5275,7 @@
       <c r="Q25" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="R25" s="15">
-        <v>1</v>
-      </c>
+      <c r="R25" s="15"/>
       <c r="S25" s="97">
         <v>1</v>
       </c>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1899" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F97C89CA-1379-4A17-9685-66A1631D91B0}"/>
+  <xr:revisionPtr revIDLastSave="1903" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0CAB2687-AC87-4557-962E-E4A83EB8FF33}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,10 +522,10 @@
     <t>CAT1/2 replacement</t>
   </si>
   <si>
-    <t>fungal decay - external</t>
-  </si>
-  <si>
-    <t>fungal decay - internal</t>
+    <t>fungal decay _ external</t>
+  </si>
+  <si>
+    <t>fungal decay _ internal</t>
   </si>
   <si>
     <t>pole_saver_rod</t>
@@ -3584,7 +3584,7 @@
   <dimension ref="A1:AV84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1903" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0CAB2687-AC87-4557-962E-E4A83EB8FF33}"/>
+  <xr:revisionPtr revIDLastSave="1929" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86E64C97-298C-4791-B94E-5395CFEA7FF9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="331">
   <si>
     <t>Cause</t>
   </si>
@@ -459,310 +459,307 @@
     <t>no</t>
   </si>
   <si>
+    <t>ssf_calc</t>
+  </si>
+  <si>
+    <t>actual_safety_factor</t>
+  </si>
+  <si>
+    <t>dsf_calc</t>
+  </si>
+  <si>
+    <t>termite_powder</t>
+  </si>
+  <si>
+    <t>repair</t>
+  </si>
+  <si>
+    <t>ConditionTask</t>
+  </si>
+  <si>
+    <t>grp</t>
+  </si>
+  <si>
+    <t>fm</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>reduction_factor</t>
+  </si>
+  <si>
+    <t>lightning_damage</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>fire_damage</t>
+  </si>
+  <si>
+    <t>impact_damage</t>
+  </si>
+  <si>
+    <t>CAT3/4 replacement</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>as_good_as_new</t>
+  </si>
+  <si>
+    <t>lean_angle</t>
+  </si>
+  <si>
+    <t>CAT1/2 replacement</t>
+  </si>
+  <si>
+    <t>fungal decay _ external</t>
+  </si>
+  <si>
+    <t>fungal decay _ internal</t>
+  </si>
+  <si>
+    <t>pole_saver_rod</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>assisted_failures</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>weathering</t>
+  </si>
+  <si>
+    <t>pole footing</t>
+  </si>
+  <si>
+    <t>leaning</t>
+  </si>
+  <si>
+    <t>any reason</t>
+  </si>
+  <si>
+    <t>pole_cap</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>Pole cap replacement</t>
+  </si>
+  <si>
+    <t>Pole replacement</t>
+  </si>
+  <si>
+    <t>crossarm</t>
+  </si>
+  <si>
+    <t>cross_sectional_area</t>
+  </si>
+  <si>
+    <t>Fix_this_error</t>
+  </si>
+  <si>
+    <t>add_no_condition_method</t>
+  </si>
+  <si>
+    <t>strut</t>
+  </si>
+  <si>
+    <t>modify</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>crack_length</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sub System</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Maintainable Item</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Pole</t>
+  </si>
+  <si>
+    <t>Pole Stay</t>
+  </si>
+  <si>
+    <t>Pole Cap</t>
+  </si>
+  <si>
+    <t>Pole Footing</t>
+  </si>
+  <si>
+    <t>pole (common)</t>
+  </si>
+  <si>
+    <t>pole (timber)</t>
+  </si>
+  <si>
+    <t>pole (concrete)</t>
+  </si>
+  <si>
+    <t>pole (steel)</t>
+  </si>
+  <si>
+    <t>pole (composite)</t>
+  </si>
+  <si>
+    <t>pole fixtures</t>
+  </si>
+  <si>
+    <t>attachments</t>
+  </si>
+  <si>
+    <t>pole cap</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>pole stay</t>
+  </si>
+  <si>
+    <t>pole attachment</t>
+  </si>
+  <si>
+    <t>top attachment point</t>
+  </si>
+  <si>
+    <t>thimble</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>dead end</t>
+  </si>
+  <si>
+    <t>insulator</t>
+  </si>
+  <si>
+    <t>batten</t>
+  </si>
+  <si>
+    <t>sight guard</t>
+  </si>
+  <si>
+    <t>anchor rod</t>
+  </si>
+  <si>
+    <t>footing</t>
+  </si>
+  <si>
+    <t>pole modification</t>
+  </si>
+  <si>
+    <t>reinforcement</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>acroprop</t>
+  </si>
+  <si>
+    <t>pole accessories</t>
+  </si>
+  <si>
+    <t>fauna protection</t>
+  </si>
+  <si>
+    <t>stay protection</t>
+  </si>
+  <si>
+    <t>cattle guard post</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (termites)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (lightning)</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (impact)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fire damage)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fungal decay - internal)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fungal decay - external)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (weathering)</t>
+  </si>
+  <si>
+    <t>[pole foundation] due to (unknown)</t>
+  </si>
+  <si>
+    <t>[pole cap] due to (unknown)</t>
+  </si>
+  <si>
+    <t>pole_cap_present</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (unknown)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (impact)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (corrosion)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (bed log)</t>
+  </si>
+  <si>
+    <t>[pole top equipment] due to {cracking}</t>
+  </si>
+  <si>
+    <t>cracking_present</t>
+  </si>
+  <si>
     <t>simple_safety_factor</t>
-  </si>
-  <si>
-    <t>ssf_calc</t>
-  </si>
-  <si>
-    <t>actual_safety_factor</t>
-  </si>
-  <si>
-    <t>dsf_calc</t>
-  </si>
-  <si>
-    <t>termite_powder</t>
-  </si>
-  <si>
-    <t>repair</t>
-  </si>
-  <si>
-    <t>ConditionTask</t>
-  </si>
-  <si>
-    <t>grp</t>
-  </si>
-  <si>
-    <t>fm</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>reduction_factor</t>
-  </si>
-  <si>
-    <t>lightning_damage</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>fire_damage</t>
-  </si>
-  <si>
-    <t>impact_damage</t>
-  </si>
-  <si>
-    <t>CAT3/4 replacement</t>
-  </si>
-  <si>
-    <t>replace</t>
-  </si>
-  <si>
-    <t>as_good_as_new</t>
-  </si>
-  <si>
-    <t>lean_angle</t>
-  </si>
-  <si>
-    <t>CAT1/2 replacement</t>
-  </si>
-  <si>
-    <t>fungal decay _ external</t>
-  </si>
-  <si>
-    <t>fungal decay _ internal</t>
-  </si>
-  <si>
-    <t>pole_saver_rod</t>
-  </si>
-  <si>
-    <t>lightning</t>
-  </si>
-  <si>
-    <t>assisted_failures</t>
-  </si>
-  <si>
-    <t>lightning damage</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>weathering</t>
-  </si>
-  <si>
-    <t>pole footing</t>
-  </si>
-  <si>
-    <t>leaning</t>
-  </si>
-  <si>
-    <t>any reason</t>
-  </si>
-  <si>
-    <t>pole_cap</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>Pole cap replacement</t>
-  </si>
-  <si>
-    <t>Pole replacement</t>
-  </si>
-  <si>
-    <t>crossarm</t>
-  </si>
-  <si>
-    <t>cross_sectional_area</t>
-  </si>
-  <si>
-    <t>Fix_this_error</t>
-  </si>
-  <si>
-    <t>add_no_condition_method</t>
-  </si>
-  <si>
-    <t>strut</t>
-  </si>
-  <si>
-    <t>modify</t>
-  </si>
-  <si>
-    <t>addition</t>
-  </si>
-  <si>
-    <t>crack_length</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Sub System</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Maintainable Item</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Pole</t>
-  </si>
-  <si>
-    <t>Pole Stay</t>
-  </si>
-  <si>
-    <t>Pole Cap</t>
-  </si>
-  <si>
-    <t>Pole Footing</t>
-  </si>
-  <si>
-    <t>pole (common)</t>
-  </si>
-  <si>
-    <t>pole (timber)</t>
-  </si>
-  <si>
-    <t>pole (concrete)</t>
-  </si>
-  <si>
-    <t>pole (steel)</t>
-  </si>
-  <si>
-    <t>pole (composite)</t>
-  </si>
-  <si>
-    <t>pole fixtures</t>
-  </si>
-  <si>
-    <t>attachments</t>
-  </si>
-  <si>
-    <t>pole cap</t>
-  </si>
-  <si>
-    <t>steps</t>
-  </si>
-  <si>
-    <t>pole stay</t>
-  </si>
-  <si>
-    <t>pole attachment</t>
-  </si>
-  <si>
-    <t>top attachment point</t>
-  </si>
-  <si>
-    <t>thimble</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>dead end</t>
-  </si>
-  <si>
-    <t>insulator</t>
-  </si>
-  <si>
-    <t>batten</t>
-  </si>
-  <si>
-    <t>sight guard</t>
-  </si>
-  <si>
-    <t>anchor rod</t>
-  </si>
-  <si>
-    <t>footing</t>
-  </si>
-  <si>
-    <t>pole modification</t>
-  </si>
-  <si>
-    <t>reinforcement</t>
-  </si>
-  <si>
-    <t>nail</t>
-  </si>
-  <si>
-    <t>acroprop</t>
-  </si>
-  <si>
-    <t>pole accessories</t>
-  </si>
-  <si>
-    <t>fauna protection</t>
-  </si>
-  <si>
-    <t>stay protection</t>
-  </si>
-  <si>
-    <t>cattle guard post</t>
-  </si>
-  <si>
-    <t>Indicators</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (termites)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (lightning)</t>
-  </si>
-  <si>
-    <t>nil</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (impact)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fire damage)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fungal decay - internal)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fungal decay - external)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (weathering)</t>
-  </si>
-  <si>
-    <t>[pole foundation] due to (unknown)</t>
-  </si>
-  <si>
-    <t>[pole cap] due to (unknown)</t>
-  </si>
-  <si>
-    <t>pole_cap_present</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (unknown)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (impact)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (corrosion)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (bed log)</t>
-  </si>
-  <si>
-    <t>[pole top equipment] due to {cracking}</t>
-  </si>
-  <si>
-    <t>cracking_present</t>
   </si>
   <si>
     <t>sf</t>
@@ -1468,7 +1465,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1727,6 +1724,10 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -1735,7 +1736,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="85">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2709,134 +2717,134 @@
   <sheetData>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" t="s">
         <v>263</v>
-      </c>
-      <c r="F3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" t="s">
         <v>265</v>
-      </c>
-      <c r="F5" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="N6" t="s">
         <v>267</v>
-      </c>
-      <c r="N6" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="O12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="F13" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="O13" t="s">
         <v>273</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
+        <v>170</v>
+      </c>
+      <c r="S13" t="s">
         <v>274</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>172</v>
-      </c>
-      <c r="S13" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="F14" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="O14" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q14" t="s">
         <v>276</v>
       </c>
-      <c r="O14" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>277</v>
-      </c>
-      <c r="S14" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="F15" t="s">
+        <v>278</v>
+      </c>
+      <c r="J15" t="s">
         <v>279</v>
       </c>
-      <c r="J15" t="s">
+      <c r="O15" t="s">
         <v>280</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>281</v>
       </c>
-      <c r="Q15" t="s">
-        <v>282</v>
-      </c>
       <c r="S15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="F16" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>102</v>
+      </c>
+      <c r="S16" t="s">
         <v>283</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>103</v>
-      </c>
-      <c r="S16" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="F17" t="s">
+        <v>284</v>
+      </c>
+      <c r="O17" t="s">
         <v>285</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>286</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="O18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="F20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="D31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -2845,44 +2853,44 @@
         <v>79</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K33" t="s">
         <v>51</v>
       </c>
       <c r="R33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2890,13 +2898,13 @@
     </row>
     <row r="34" spans="2:19">
       <c r="C34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s">
         <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S34">
         <v>0.5</v>
@@ -2904,19 +2912,19 @@
     </row>
     <row r="35" spans="2:19">
       <c r="C35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -2924,13 +2932,13 @@
     </row>
     <row r="36" spans="2:19">
       <c r="D36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -2946,10 +2954,10 @@
     </row>
     <row r="38" spans="2:19">
       <c r="C38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
@@ -2957,13 +2965,13 @@
     </row>
     <row r="39" spans="2:19">
       <c r="C39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="2:19">
@@ -2983,29 +2991,29 @@
     </row>
     <row r="52" spans="1:12">
       <c r="H52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="E54" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -3039,76 +3047,76 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="F59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="B60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="E61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="E62" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B70">
         <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B71">
         <v>12.5</v>
       </c>
       <c r="C71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3140,48 +3148,48 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" t="s">
+        <v>315</v>
+      </c>
+      <c r="I4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I4" t="s">
-        <v>314</v>
-      </c>
-      <c r="J4" t="s">
-        <v>315</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" t="s">
         <v>317</v>
       </c>
-      <c r="R4" t="s">
-        <v>318</v>
-      </c>
       <c r="S4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -3191,18 +3199,18 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="R5" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="R5" s="41" t="s">
+      <c r="S5" t="s">
         <v>321</v>
-      </c>
-      <c r="S5" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="H6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I6">
         <f>I5/4</f>
@@ -3214,51 +3222,51 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="H8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
@@ -3266,7 +3274,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="H10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
@@ -3274,12 +3282,12 @@
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="B12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I12" s="9">
         <v>3.7</v>
@@ -3291,20 +3299,20 @@
     </row>
     <row r="16" spans="1:19">
       <c r="J16" t="s">
+        <v>328</v>
+      </c>
+      <c r="M16" t="s">
         <v>329</v>
-      </c>
-      <c r="M16" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="19" spans="10:10">
       <c r="J19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="1048576" spans="15:15">
       <c r="O1048576" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3583,8 +3591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AV84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="R25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM38" sqref="AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -3593,8 +3601,7 @@
     <col min="2" max="3" width="13.140625" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="13.140625" style="98" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="98" customWidth="1"/>
+    <col min="6" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -3639,7 +3646,7 @@
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="95"/>
+      <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3707,7 +3714,7 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="95"/>
+      <c r="H2" s="136"/>
       <c r="I2" s="1" t="s">
         <v>48</v>
       </c>
@@ -3793,7 +3800,7 @@
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="95" t="s">
+      <c r="H3" s="136" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -3925,7 +3932,7 @@
       <c r="E4" s="59"/>
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
-      <c r="H4" s="96"/>
+      <c r="H4" s="137"/>
       <c r="I4" s="59"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
@@ -3983,7 +3990,7 @@
       <c r="G5" s="42">
         <v>125</v>
       </c>
-      <c r="H5" s="98">
+      <c r="H5" s="138">
         <v>0</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -4097,7 +4104,7 @@
       <c r="G6" s="42">
         <v>250</v>
       </c>
-      <c r="H6" s="98">
+      <c r="H6" s="138">
         <v>0</v>
       </c>
       <c r="I6" s="15"/>
@@ -4159,15 +4166,15 @@
       <c r="C7" s="15"/>
       <c r="D7" s="97"/>
       <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
         <v>85</v>
-      </c>
-      <c r="F7" t="s">
-        <v>86</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
-      <c r="H7" s="98">
+      <c r="H7" s="138">
         <v>1</v>
       </c>
       <c r="I7" s="15"/>
@@ -4217,15 +4224,15 @@
       <c r="C8" s="15"/>
       <c r="D8" s="97"/>
       <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
         <v>87</v>
-      </c>
-      <c r="F8" t="s">
-        <v>88</v>
       </c>
       <c r="G8" s="42">
         <v>6</v>
       </c>
-      <c r="H8" s="98">
+      <c r="H8" s="138">
         <v>1</v>
       </c>
       <c r="I8" s="15"/>
@@ -4240,7 +4247,7 @@
       <c r="R8" s="15"/>
       <c r="S8" s="97"/>
       <c r="T8" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U8" s="42">
         <v>0.9</v>
@@ -4252,18 +4259,18 @@
         <v>2</v>
       </c>
       <c r="X8" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y8" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="Y8" s="15" t="s">
+      <c r="Z8" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="Z8" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD8" s="97"/>
       <c r="AE8" s="15"/>
@@ -4287,25 +4294,25 @@
         <v>50</v>
       </c>
       <c r="AO8" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="AP8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="91" t="s">
+      <c r="AT8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="AT8" s="93">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="AV8" s="18" t="s">
         <v>2</v>
@@ -4317,15 +4324,15 @@
       <c r="C9" s="15"/>
       <c r="D9" s="97"/>
       <c r="E9" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>98</v>
-      </c>
       <c r="G9" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="97" t="b">
+      <c r="H9" s="139" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="15"/>
@@ -4365,7 +4372,7 @@
         <v>50</v>
       </c>
       <c r="AO9" s="118" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP9" s="16"/>
       <c r="AQ9" s="16"/>
@@ -4381,15 +4388,15 @@
       <c r="C10" s="15"/>
       <c r="D10" s="97"/>
       <c r="E10" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="97" t="b">
+      <c r="H10" s="139" t="b">
         <v>0</v>
       </c>
       <c r="I10" s="15"/>
@@ -4439,15 +4446,15 @@
       <c r="C11" s="15"/>
       <c r="D11" s="97"/>
       <c r="E11" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="97" t="b">
+      <c r="H11" s="139" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="15"/>
@@ -4462,7 +4469,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="97"/>
       <c r="T11" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U11" s="15">
         <v>1</v>
@@ -4474,13 +4481,13 @@
         <v>2</v>
       </c>
       <c r="X11" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z11" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="Y11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z11" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
@@ -4521,13 +4528,13 @@
         <v>0</v>
       </c>
       <c r="AS11" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="AT11" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AV11" s="15" t="s">
         <v>2</v>
@@ -4539,15 +4546,15 @@
       <c r="C12" s="15"/>
       <c r="D12" s="97"/>
       <c r="E12" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="97" t="b">
+      <c r="H12" s="139" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="15"/>
@@ -4600,6 +4607,7 @@
     <row r="13" spans="1:48">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
+      <c r="H13" s="138"/>
       <c r="AM13" s="82"/>
       <c r="AN13" s="80"/>
       <c r="AO13" s="119"/>
@@ -4612,7 +4620,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="97"/>
+      <c r="H14" s="139"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
@@ -4662,7 +4670,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="97"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -4675,7 +4683,7 @@
       <c r="R15" s="15"/>
       <c r="S15" s="97"/>
       <c r="T15" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U15" s="15">
         <v>1</v>
@@ -4687,13 +4695,13 @@
         <v>2</v>
       </c>
       <c r="X15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y15" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z15" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="Y15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z15" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="AA15" s="15"/>
       <c r="AB15" s="15"/>
@@ -4724,13 +4732,13 @@
         <v>0</v>
       </c>
       <c r="AS15" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT15" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="AT15" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AV15" s="15" t="s">
         <v>2</v>
@@ -4744,7 +4752,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="97"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
@@ -4794,9 +4802,9 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="97"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J17" s="45" t="s">
         <v>78</v>
@@ -4889,7 +4897,7 @@
       <c r="D18" s="97"/>
       <c r="E18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="97"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -4938,7 +4946,7 @@
       <c r="D19" s="97"/>
       <c r="E19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="97"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
@@ -4951,7 +4959,7 @@
       <c r="R19" s="15"/>
       <c r="S19" s="97"/>
       <c r="T19" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U19" s="15">
         <v>1</v>
@@ -4963,13 +4971,13 @@
         <v>2</v>
       </c>
       <c r="X19" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y19" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z19" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="Y19" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z19" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
@@ -5010,13 +5018,13 @@
         <v>0</v>
       </c>
       <c r="AS19" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT19" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="AT19" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU19" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AV19" s="15" t="s">
         <v>2</v>
@@ -5027,7 +5035,6 @@
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="97"/>
-      <c r="H20" s="97"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
@@ -5127,8 +5134,9 @@
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
       <c r="T23" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U23" s="15">
         <v>1</v>
@@ -5140,13 +5148,13 @@
         <v>2</v>
       </c>
       <c r="X23" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y23" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z23" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="Y23" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z23" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
@@ -5177,13 +5185,13 @@
         <v>0</v>
       </c>
       <c r="AS23" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT23" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="AT23" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU23" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AV23" s="15" t="s">
         <v>2</v>
@@ -5197,7 +5205,7 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="97"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="56"/>
       <c r="J24" s="56"/>
       <c r="K24" s="56"/>
@@ -5247,9 +5255,9 @@
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="97"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J25" s="45" t="s">
         <v>78</v>
@@ -5344,7 +5352,7 @@
       <c r="D26" s="97"/>
       <c r="E26" s="15"/>
       <c r="G26" s="15"/>
-      <c r="H26" s="97"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
@@ -5393,7 +5401,7 @@
       <c r="D27" s="97"/>
       <c r="E27" s="15"/>
       <c r="G27" s="15"/>
-      <c r="H27" s="97"/>
+      <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
@@ -5406,7 +5414,7 @@
       <c r="R27" s="15"/>
       <c r="S27" s="97"/>
       <c r="T27" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U27" s="45">
         <v>0.9</v>
@@ -5418,10 +5426,10 @@
         <v>2</v>
       </c>
       <c r="X27" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y27" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="Y27" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="Z27" s="15" t="s">
         <v>81</v>
@@ -5451,7 +5459,7 @@
         <v>50</v>
       </c>
       <c r="AO27" s="123" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP27" s="16" t="b">
         <v>0</v>
@@ -5474,7 +5482,7 @@
       <c r="D28" s="97"/>
       <c r="E28" s="15"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="97"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
@@ -5512,7 +5520,7 @@
         <v>50</v>
       </c>
       <c r="AO28" s="123" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP28" s="16"/>
       <c r="AQ28" s="16"/>
@@ -5529,7 +5537,7 @@
       <c r="D29" s="97"/>
       <c r="E29" s="15"/>
       <c r="G29" s="15"/>
-      <c r="H29" s="97"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
@@ -5578,7 +5586,7 @@
       <c r="D30" s="97"/>
       <c r="E30" s="15"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="97"/>
+      <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
@@ -5591,7 +5599,7 @@
       <c r="R30" s="15"/>
       <c r="S30" s="97"/>
       <c r="T30" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U30" s="15">
         <v>1</v>
@@ -5603,13 +5611,13 @@
         <v>2</v>
       </c>
       <c r="X30" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y30" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z30" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="Y30" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z30" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
@@ -5650,13 +5658,13 @@
         <v>0</v>
       </c>
       <c r="AS30" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT30" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU30" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="AT30" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU30" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AV30" s="15" t="s">
         <v>2</v>
@@ -5667,7 +5675,6 @@
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="97"/>
-      <c r="H31" s="97"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
@@ -5767,8 +5774,9 @@
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
       <c r="T34" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U34" s="15">
         <v>1</v>
@@ -5780,13 +5788,13 @@
         <v>2</v>
       </c>
       <c r="X34" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y34" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z34" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="Y34" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z34" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
@@ -5817,13 +5825,13 @@
         <v>0</v>
       </c>
       <c r="AS34" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT34" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="AT34" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU34" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AV34" s="15" t="s">
         <v>2</v>
@@ -5837,7 +5845,7 @@
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="97"/>
+      <c r="H35" s="15"/>
       <c r="I35" s="56"/>
       <c r="J35" s="56"/>
       <c r="K35" s="56"/>
@@ -5887,12 +5895,12 @@
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="97"/>
+      <c r="H36" s="15"/>
       <c r="I36" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J36" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K36" s="41">
         <v>0</v>
@@ -5938,7 +5946,7 @@
       <c r="AB36" s="15"/>
       <c r="AC36" s="15"/>
       <c r="AD36" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE36" s="15"/>
       <c r="AF36" s="15"/>
@@ -5951,7 +5959,7 @@
       <c r="AK36" s="18"/>
       <c r="AL36" s="108"/>
       <c r="AM36" s="84" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="AN36" s="19" t="b">
         <v>1</v>
@@ -5975,7 +5983,7 @@
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
-      <c r="H37" s="97"/>
+      <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
@@ -6025,7 +6033,7 @@
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="97"/>
+      <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
@@ -6083,7 +6091,7 @@
       <c r="AK38" s="18"/>
       <c r="AL38" s="108"/>
       <c r="AM38" s="84" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="AN38" s="19" t="b">
         <v>1</v>
@@ -6107,7 +6115,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
-      <c r="H39" s="97"/>
+      <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
@@ -6153,7 +6161,7 @@
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="T40" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U40" s="15">
         <v>1</v>
@@ -6165,13 +6173,13 @@
         <v>2</v>
       </c>
       <c r="X40" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y40" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z40" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="Y40" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z40" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
@@ -6202,13 +6210,13 @@
         <v>0</v>
       </c>
       <c r="AS40" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT40" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU40" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="AT40" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU40" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AV40" s="15" t="s">
         <v>2</v>
@@ -6222,7 +6230,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
-      <c r="H41" s="97"/>
+      <c r="H41" s="15"/>
       <c r="I41" s="56"/>
       <c r="J41" s="56"/>
       <c r="K41" s="56"/>
@@ -6272,12 +6280,12 @@
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
-      <c r="H42" s="97"/>
+      <c r="H42" s="15"/>
       <c r="I42" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J42" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K42" s="41">
         <v>0</v>
@@ -6323,7 +6331,7 @@
       <c r="AB42" s="15"/>
       <c r="AC42" s="15"/>
       <c r="AD42" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE42" s="15"/>
       <c r="AF42" s="15"/>
@@ -6336,7 +6344,7 @@
       <c r="AK42" s="18"/>
       <c r="AL42" s="108"/>
       <c r="AM42" s="84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AN42" s="19" t="b">
         <v>1</v>
@@ -6366,7 +6374,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
-      <c r="H43" s="97"/>
+      <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
@@ -6416,7 +6424,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
-      <c r="H44" s="97"/>
+      <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
@@ -6429,7 +6437,7 @@
       <c r="R44" s="15"/>
       <c r="S44" s="97"/>
       <c r="T44" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U44" s="15">
         <v>1</v>
@@ -6441,13 +6449,13 @@
         <v>2</v>
       </c>
       <c r="X44" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y44" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z44" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="Y44" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z44" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
@@ -6488,13 +6496,13 @@
         <v>0</v>
       </c>
       <c r="AS44" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT44" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU44" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="AT44" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU44" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AV44" s="15" t="s">
         <v>2</v>
@@ -6508,7 +6516,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
-      <c r="H45" s="97"/>
+      <c r="H45" s="15"/>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
@@ -6606,7 +6614,7 @@
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="T48" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U48" s="15">
         <v>1</v>
@@ -6618,13 +6626,13 @@
         <v>2</v>
       </c>
       <c r="X48" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y48" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z48" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="Y48" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z48" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="AA48" s="15"/>
       <c r="AB48" s="15"/>
@@ -6655,13 +6663,13 @@
         <v>0</v>
       </c>
       <c r="AS48" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU48" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="AT48" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU48" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AV48" s="15" t="s">
         <v>2</v>
@@ -6675,7 +6683,7 @@
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
-      <c r="H49" s="97"/>
+      <c r="H49" s="15"/>
       <c r="I49" s="56"/>
       <c r="J49" s="56"/>
       <c r="K49" s="56"/>
@@ -6725,12 +6733,12 @@
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
-      <c r="H50" s="97"/>
+      <c r="H50" s="15"/>
       <c r="I50" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J50" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K50" s="41">
         <v>0</v>
@@ -6776,7 +6784,7 @@
       <c r="AB50" s="15"/>
       <c r="AC50" s="15"/>
       <c r="AD50" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE50" s="15"/>
       <c r="AF50" s="15"/>
@@ -6819,7 +6827,7 @@
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="97"/>
+      <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
@@ -6865,7 +6873,7 @@
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="T52" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U52" s="15">
         <v>1</v>
@@ -6877,13 +6885,13 @@
         <v>2</v>
       </c>
       <c r="X52" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y52" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z52" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="Y52" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z52" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
@@ -6914,13 +6922,13 @@
         <v>0</v>
       </c>
       <c r="AS52" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT52" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU52" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="AT52" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU52" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AV52" s="15" t="s">
         <v>2</v>
@@ -6934,7 +6942,7 @@
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
-      <c r="H53" s="97"/>
+      <c r="H53" s="15"/>
       <c r="I53" s="56"/>
       <c r="J53" s="56"/>
       <c r="K53" s="56"/>
@@ -6984,9 +6992,9 @@
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
-      <c r="H54" s="97"/>
+      <c r="H54" s="15"/>
       <c r="I54" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J54" s="41" t="s">
         <v>78</v>
@@ -7084,7 +7092,7 @@
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
-      <c r="H55" s="97"/>
+      <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
@@ -7142,7 +7150,7 @@
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
-      <c r="H56" s="97"/>
+      <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
@@ -7155,7 +7163,7 @@
       <c r="R56" s="15"/>
       <c r="S56" s="97"/>
       <c r="T56" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U56" s="15">
         <v>1</v>
@@ -7167,13 +7175,13 @@
         <v>2</v>
       </c>
       <c r="X56" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y56" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z56" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="Y56" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z56" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="AA56" s="15"/>
       <c r="AB56" s="15"/>
@@ -7214,13 +7222,13 @@
         <v>0</v>
       </c>
       <c r="AS56" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT56" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU56" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="AT56" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU56" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AV56" s="15" t="s">
         <v>2</v>
@@ -7234,7 +7242,7 @@
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
-      <c r="H57" s="97"/>
+      <c r="H57" s="15"/>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
@@ -7332,7 +7340,7 @@
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="T60" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U60" s="15">
         <v>1</v>
@@ -7344,13 +7352,13 @@
         <v>2</v>
       </c>
       <c r="X60" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y60" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z60" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="Y60" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z60" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="AA60" s="15"/>
       <c r="AB60" s="15"/>
@@ -7381,13 +7389,13 @@
         <v>0</v>
       </c>
       <c r="AS60" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT60" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU60" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="AT60" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU60" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AV60" s="15" t="s">
         <v>2</v>
@@ -7401,7 +7409,7 @@
       <c r="E61" s="59"/>
       <c r="F61" s="59"/>
       <c r="G61" s="59"/>
-      <c r="H61" s="96"/>
+      <c r="H61" s="59"/>
       <c r="I61" s="59"/>
       <c r="J61" s="59"/>
       <c r="K61" s="59"/>
@@ -7448,22 +7456,20 @@
       <c r="B62" s="15"/>
       <c r="C62" s="41"/>
       <c r="D62" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" t="s">
+        <v>97</v>
+      </c>
+      <c r="G62" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="42" t="s">
         <v>114</v>
-      </c>
-      <c r="E62" t="s">
-        <v>115</v>
-      </c>
-      <c r="F62" t="s">
-        <v>98</v>
-      </c>
-      <c r="G62" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" s="98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I62" s="42" t="s">
-        <v>116</v>
       </c>
       <c r="J62" s="41" t="s">
         <v>78</v>
@@ -7484,7 +7490,7 @@
         <v>10</v>
       </c>
       <c r="P62" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q62" s="15"/>
       <c r="R62" s="15"/>
@@ -7557,7 +7563,7 @@
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
-      <c r="H63" s="97"/>
+      <c r="H63" s="15"/>
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
@@ -7607,7 +7613,7 @@
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
-      <c r="H64" s="97"/>
+      <c r="H64" s="15"/>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
@@ -7620,7 +7626,7 @@
       <c r="R64" s="15"/>
       <c r="S64" s="97"/>
       <c r="T64" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U64" s="15">
         <v>1</v>
@@ -7632,13 +7638,13 @@
         <v>2</v>
       </c>
       <c r="X64" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y64" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z64" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="Y64" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z64" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="AA64" s="15"/>
       <c r="AB64" s="15"/>
@@ -7679,13 +7685,13 @@
         <v>0</v>
       </c>
       <c r="AS64" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT64" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU64" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="AT64" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU64" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AV64" s="15" t="s">
         <v>2</v>
@@ -7699,7 +7705,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
-      <c r="H65" s="97"/>
+      <c r="H65" s="15"/>
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
@@ -7769,7 +7775,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
-      <c r="H67" s="97"/>
+      <c r="H67" s="15"/>
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
       <c r="K67" s="15"/>
@@ -7819,7 +7825,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
-      <c r="H68" s="97"/>
+      <c r="H68" s="15"/>
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
@@ -7832,7 +7838,7 @@
       <c r="R68" s="15"/>
       <c r="S68" s="97"/>
       <c r="T68" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U68" s="15">
         <v>1</v>
@@ -7844,13 +7850,13 @@
         <v>69</v>
       </c>
       <c r="X68" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y68" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z68" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="Y68" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z68" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
@@ -7881,13 +7887,13 @@
         <v>0</v>
       </c>
       <c r="AS68" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT68" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU68" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="AT68" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU68" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AV68" s="15" t="s">
         <v>2</v>
@@ -7901,7 +7907,7 @@
       <c r="E69" s="59"/>
       <c r="F69" s="59"/>
       <c r="G69" s="59"/>
-      <c r="H69" s="96"/>
+      <c r="H69" s="59"/>
       <c r="I69" s="59"/>
       <c r="J69" s="59"/>
       <c r="K69" s="59"/>
@@ -7948,22 +7954,20 @@
       <c r="B70" s="15"/>
       <c r="C70" s="41"/>
       <c r="D70" s="99" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E70" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G70" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="H70" s="98" t="b">
-        <v>1</v>
-      </c>
+      <c r="H70" s="15"/>
       <c r="I70" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J70" s="41" t="s">
         <v>78</v>
@@ -8057,7 +8061,7 @@
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
-      <c r="H71" s="97"/>
+      <c r="H71" s="15"/>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
@@ -8109,7 +8113,7 @@
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="97"/>
+      <c r="H72" s="15"/>
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
@@ -8122,7 +8126,7 @@
       <c r="R72" s="15"/>
       <c r="S72" s="97"/>
       <c r="T72" s="45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U72" s="15">
         <v>1</v>
@@ -8134,13 +8138,13 @@
         <v>2</v>
       </c>
       <c r="X72" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y72" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z72" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="Y72" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z72" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="AA72" s="15"/>
       <c r="AB72" s="15"/>
@@ -8181,13 +8185,13 @@
         <v>0</v>
       </c>
       <c r="AS72" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT72" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU72" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="AT72" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU72" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AV72" s="15" t="s">
         <v>2</v>
@@ -8201,7 +8205,7 @@
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
-      <c r="H73" s="97"/>
+      <c r="H73" s="15"/>
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
@@ -8271,7 +8275,7 @@
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
-      <c r="H75" s="97"/>
+      <c r="H75" s="15"/>
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
@@ -8321,7 +8325,7 @@
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
-      <c r="H76" s="97"/>
+      <c r="H76" s="15"/>
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
@@ -8334,7 +8338,7 @@
       <c r="R76" s="15"/>
       <c r="S76" s="97"/>
       <c r="T76" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="U76" s="15">
         <v>1</v>
@@ -8346,13 +8350,13 @@
         <v>69</v>
       </c>
       <c r="X76" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y76" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z76" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="Y76" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z76" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="AA76" s="15"/>
       <c r="AB76" s="15"/>
@@ -8383,13 +8387,13 @@
         <v>0</v>
       </c>
       <c r="AS76" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT76" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU76" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="AT76" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU76" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AV76" s="15" t="s">
         <v>2</v>
@@ -8403,7 +8407,7 @@
       <c r="E77" s="63"/>
       <c r="F77" s="63"/>
       <c r="G77" s="63"/>
-      <c r="H77" s="100"/>
+      <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="63"/>
       <c r="K77" s="63"/>
@@ -8450,16 +8454,16 @@
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
       <c r="D78" s="97" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
-      <c r="H78" s="97"/>
+      <c r="H78" s="15"/>
       <c r="I78" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J78" s="15" t="s">
         <v>78</v>
@@ -8480,13 +8484,13 @@
         <v>10</v>
       </c>
       <c r="P78" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q78" s="15"/>
       <c r="R78" s="15"/>
       <c r="S78" s="97"/>
       <c r="T78" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="U78" s="15">
         <v>0.9</v>
@@ -8498,10 +8502,10 @@
         <v>2</v>
       </c>
       <c r="X78" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Y78" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z78" s="15"/>
       <c r="AA78" s="15"/>
@@ -8510,7 +8514,7 @@
         <v>6</v>
       </c>
       <c r="AD78" s="97" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AE78" s="15" t="s">
         <v>84</v>
@@ -8541,7 +8545,7 @@
         <v>50</v>
       </c>
       <c r="AO78" s="120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP78" s="16"/>
       <c r="AQ78" s="16"/>
@@ -8553,7 +8557,7 @@
         <v>50</v>
       </c>
       <c r="AU78" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AV78" s="15"/>
     </row>
@@ -8563,11 +8567,11 @@
       <c r="C79" s="15"/>
       <c r="D79" s="97"/>
       <c r="E79" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="97"/>
+      <c r="H79" s="15"/>
       <c r="I79" s="15"/>
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
@@ -8605,7 +8609,7 @@
         <v>170</v>
       </c>
       <c r="AO79" s="120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP79" s="16"/>
       <c r="AQ79" s="16"/>
@@ -8617,7 +8621,7 @@
         <v>50</v>
       </c>
       <c r="AU79" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AV79" s="15"/>
     </row>
@@ -8628,290 +8632,295 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="95"/>
+      <c r="H84" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AM13 B7:B13 Z17:AD17 X16:X17 U16:W16 C23:D23 E22:G23 B71:B74 B16:B23 C18:D20 E17:G19 C7:D12 E6:H12 B35:G39 T42:Y42 T22:AL22 T39:AL39 T18:AL18 T59:AL59 T47:AL47 T43:AL43 T33:AL33 T29:AL29 T75:AL75 T71:AL71 T37:AL37 T67:AL67 AH17:AO17 AA36:AR36 AA50:AR50 AE54:AR54 AA42:AR42 AH27:AO28 AH25:AO25 AM23:AR23 AM19:AR20 AM40:AR40 AM52:AR52 AM60:AR60 AO56:AR57 AM48:AR48 AO44:AR45 AM34:AR34 AM30:AR31 AM38:AR38 AP22:AV22 AP39:AR39 AP17:AV18 AP51:AV51 AP59:AV59 AP55:AV55 AP47:AV47 AP43:AV43 AP33:AV33 AP25:AV29 AP37:AR37 AS37:AV39 Y16:AV16 AP5:AV10 W80:AV81 Y24:AV24 AM11:AV12 AM15:AV15 AP14:AV14 AM72:AV73 AP71:AV71 AM76:AV76 AP75:AV75 AM64:AV65 AP63:AV63 AM68:AV68 AP67:AV67 P36:Y36 P25:T25 P42:S43 P50:Y50 P54:AC54 B40:O60 H23:S23 H18:S20 H34:O39 P12:S12 I7:O12 P37:S40 P52:S52 P56:S60 P45:S48 C71:S73 P75:S76 B75:O81 P65:S65 C63:O65 B67:S68 P34:S34 P29:S31 H26:O31 P10:AL11 P80:U81 C16:T17 P15:V15 B14:O15 P24:W24 C24:O25 P28:AG28 P27:Y27 P64:AG64 P14:AL14 P26:AL26 P63:AL63 B5:AO6 P8:AO9 P77:AV79 P35:AV35 P49:AV49 P53:AV53 P41:AV41 P51:AL51 P55:AL55 P7:AL7 B62:AV62 B70:AV70">
-    <cfRule type="cellIs" dxfId="83" priority="181" operator="equal">
+  <conditionalFormatting sqref="AM13 B7:B13 Z17:AD17 X16:X17 U16:W16 C23:D23 E22:H23 B71:B74 B16:B23 C18:D20 E17:H19 C7:G12 T42:Y42 T22:AL22 T39:AL39 T18:AL18 T59:AL59 T47:AL47 T43:AL43 T33:AL33 T29:AL29 T75:AL75 T71:AL71 T37:AL37 T67:AL67 AH17:AO17 AA36:AR36 AA50:AR50 AE54:AR54 AA42:AR42 AH27:AO28 AH25:AO25 AM23:AR23 AM19:AR20 AM40:AR40 AM52:AR52 AM60:AR60 AO56:AR57 AM48:AR48 AO44:AR45 AM34:AR34 AM30:AR31 AP22:AV22 AP39:AR39 AP17:AV18 AP51:AV51 AP59:AV59 AP55:AV55 AP47:AV47 AP43:AV43 AP33:AV33 AP25:AV29 AP37:AR37 AS37:AV39 Y16:AV16 AP5:AV10 W80:AV81 Y24:AV24 AM11:AV12 AM15:AV15 AP14:AV14 AM72:AV73 AP71:AV71 AM76:AV76 AP75:AV75 AM64:AV65 AP63:AV63 AM68:AV68 AP67:AV67 P36:Y36 P25:T25 P42:S43 P50:Y50 P54:AC54 P12:S12 I7:O12 P37:S40 P52:S52 P56:S60 P45:S48 P75:S76 P65:S65 P34:S34 P29:S31 P10:AL11 P80:U81 P15:V15 P24:W24 P28:AG28 P27:Y27 P64:AG64 P14:AL14 P26:AL26 P63:AL63 P8:AO9 P77:AV79 P35:AV35 P49:AV49 P53:AV53 P41:AV41 P51:AL51 P55:AL55 P7:AL7 B5:G6 B35:H60 I23:S23 I18:S20 I34:O60 C71:S73 B75:O81 C63:O65 B67:S68 I26:O31 C16:T17 B14:O15 C24:O25 B62:AV62 B70:AV70 I5:AO6 AM38:AR38">
+    <cfRule type="cellIs" dxfId="84" priority="182" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17:V17">
-    <cfRule type="cellIs" dxfId="82" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="180" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD17">
+    <cfRule type="cellIs" dxfId="82" priority="178" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE17:AG17">
     <cfRule type="cellIs" dxfId="81" priority="177" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE17:AG17">
+  <conditionalFormatting sqref="W17:Y17">
     <cfRule type="cellIs" dxfId="80" priority="176" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W17:Y17">
-    <cfRule type="cellIs" dxfId="79" priority="175" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="X15:AL15">
-    <cfRule type="cellIs" dxfId="78" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="173" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA36:AD36 U35:W35">
+    <cfRule type="cellIs" dxfId="78" priority="170" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U36:V36">
     <cfRule type="cellIs" dxfId="77" priority="169" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U36:V36">
-    <cfRule type="cellIs" dxfId="76" priority="168" operator="equal">
+  <conditionalFormatting sqref="AD36">
+    <cfRule type="cellIs" dxfId="76" priority="167" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD36">
+  <conditionalFormatting sqref="AE36:AG36">
     <cfRule type="cellIs" dxfId="75" priority="166" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE36:AG36">
+  <conditionalFormatting sqref="W36:Y36">
     <cfRule type="cellIs" dxfId="74" priority="165" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W36:Y36">
-    <cfRule type="cellIs" dxfId="73" priority="164" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AS36:AV36">
-    <cfRule type="cellIs" dxfId="72" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="160" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS19:AV20 AM21 T19:V19 X19:AL19">
-    <cfRule type="cellIs" dxfId="71" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="150" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA50:AD50">
-    <cfRule type="cellIs" dxfId="70" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="132" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS23:AV23 U23:AL23">
-    <cfRule type="cellIs" dxfId="69" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="147" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS40:AV40 U40:AL40">
-    <cfRule type="cellIs" dxfId="68" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="139" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN56:AN57">
-    <cfRule type="cellIs" dxfId="67" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="98" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z54:AC54">
-    <cfRule type="cellIs" dxfId="66" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="114" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U50:V50">
+    <cfRule type="cellIs" dxfId="66" priority="131" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD50">
     <cfRule type="cellIs" dxfId="65" priority="130" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD50">
+  <conditionalFormatting sqref="AE50:AG50">
     <cfRule type="cellIs" dxfId="64" priority="129" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE50:AG50">
+  <conditionalFormatting sqref="W50:Y50">
     <cfRule type="cellIs" dxfId="63" priority="128" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W50:Y50">
-    <cfRule type="cellIs" dxfId="62" priority="127" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AS50:AV50">
-    <cfRule type="cellIs" dxfId="61" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="125" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS52:AV52 U52:AL52">
-    <cfRule type="cellIs" dxfId="60" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="121" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN44:AN45">
-    <cfRule type="cellIs" dxfId="59" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="80" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA42:AD42">
-    <cfRule type="cellIs" dxfId="58" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="96" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54:V54">
-    <cfRule type="cellIs" dxfId="57" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="113" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE54:AG54">
+    <cfRule type="cellIs" dxfId="57" priority="111" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W54:Y54">
     <cfRule type="cellIs" dxfId="56" priority="110" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W54:Y54">
-    <cfRule type="cellIs" dxfId="55" priority="109" operator="equal">
+  <conditionalFormatting sqref="AS54:AV54">
+    <cfRule type="cellIs" dxfId="55" priority="107" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS54:AV54">
+  <conditionalFormatting sqref="AS56:AV57 AM58 T56:AL56">
     <cfRule type="cellIs" dxfId="54" priority="106" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS56:AV57 AM58 T56:AL56">
+  <conditionalFormatting sqref="AM56:AM57">
     <cfRule type="cellIs" dxfId="53" priority="105" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM56:AM57">
-    <cfRule type="cellIs" dxfId="52" priority="104" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AS60:AV60 U60:AL60">
-    <cfRule type="cellIs" dxfId="51" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="103" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42:V42">
+    <cfRule type="cellIs" dxfId="51" priority="95" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD42">
     <cfRule type="cellIs" dxfId="50" priority="94" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD42">
+  <conditionalFormatting sqref="AE42:AG42">
     <cfRule type="cellIs" dxfId="49" priority="93" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE42:AG42">
+  <conditionalFormatting sqref="W42:Y42">
     <cfRule type="cellIs" dxfId="48" priority="92" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W42:Y42">
-    <cfRule type="cellIs" dxfId="47" priority="91" operator="equal">
+  <conditionalFormatting sqref="AS42:AV42">
+    <cfRule type="cellIs" dxfId="47" priority="89" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS42:AV42">
+  <conditionalFormatting sqref="AS44:AV45 AM46 T44:AL44">
     <cfRule type="cellIs" dxfId="46" priority="88" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS44:AV45 AM46 T44:AL44">
+  <conditionalFormatting sqref="AM44:AM45">
     <cfRule type="cellIs" dxfId="45" priority="87" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM44:AM45">
-    <cfRule type="cellIs" dxfId="44" priority="86" operator="equal">
+  <conditionalFormatting sqref="AS48:AV48 U48:AL48">
+    <cfRule type="cellIs" dxfId="44" priority="85" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS48:AV48 U48:AL48">
-    <cfRule type="cellIs" dxfId="43" priority="84" operator="equal">
+  <conditionalFormatting sqref="AA25:AD25 X24:X25 B24:B34 C26:D31 E26:H30 C34:D34 E33:H34 AA27:AG27">
+    <cfRule type="cellIs" dxfId="43" priority="79" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA25:AD25 X24:X25 B24:B34 C26:D31 E26:G30 C34:D34 E33:G34 AA27:AG27">
+  <conditionalFormatting sqref="U25:V25">
     <cfRule type="cellIs" dxfId="42" priority="78" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U25:V25">
+  <conditionalFormatting sqref="AD25">
     <cfRule type="cellIs" dxfId="41" priority="77" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD25">
+  <conditionalFormatting sqref="AE25:AG25">
     <cfRule type="cellIs" dxfId="40" priority="76" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE25:AG25">
+  <conditionalFormatting sqref="W25:Y25">
     <cfRule type="cellIs" dxfId="39" priority="75" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W25:Y25">
-    <cfRule type="cellIs" dxfId="38" priority="74" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AS30:AV31 AM32 T30:AL30">
-    <cfRule type="cellIs" dxfId="37" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="71" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS34:AV34 U34:AL34">
-    <cfRule type="cellIs" dxfId="36" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="68" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM74 U72:AL72">
-    <cfRule type="cellIs" dxfId="35" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="55" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U76:AL76">
-    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="52" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
+    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W19">
     <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W19">
+  <conditionalFormatting sqref="Z50">
     <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z50">
+  <conditionalFormatting sqref="Z42">
     <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z42">
+  <conditionalFormatting sqref="Z36">
     <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z36">
+  <conditionalFormatting sqref="Z25">
     <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z25">
+  <conditionalFormatting sqref="Z27">
     <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z27">
+  <conditionalFormatting sqref="AD54">
     <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -8921,93 +8930,93 @@
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD54">
+  <conditionalFormatting sqref="T23">
     <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T23">
+  <conditionalFormatting sqref="T34">
     <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T34">
+  <conditionalFormatting sqref="T40">
     <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T40">
+  <conditionalFormatting sqref="T48">
     <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T48">
+  <conditionalFormatting sqref="T52">
     <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T52">
+  <conditionalFormatting sqref="T60">
     <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T60">
+  <conditionalFormatting sqref="T76">
     <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T76">
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
+  <conditionalFormatting sqref="Z38:AD38 X38 T38">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z38:AD38 X38 T38">
+  <conditionalFormatting sqref="U38:V38 AH38:AL38">
     <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U38:V38 AH38:AL38">
+  <conditionalFormatting sqref="AD38">
     <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD38">
+  <conditionalFormatting sqref="AE38:AG38">
     <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE38:AG38">
+  <conditionalFormatting sqref="W38:Y38">
     <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W38:Y38">
-    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
+  <conditionalFormatting sqref="B63:B66">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B66">
+  <conditionalFormatting sqref="AM66 AH64:AL64">
     <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM66 AH64:AL64">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U68:AL68">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T68">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T72">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T72">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+  <conditionalFormatting sqref="H5:H12">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9035,39 +9044,39 @@
     <row r="2" spans="1:20">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="S2" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="T2" s="27" t="s">
         <v>130</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
         <v>133</v>
-      </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" t="s">
-        <v>135</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:20">
       <c r="B4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -9075,7 +9084,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="B5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="30" t="s">
@@ -9086,7 +9095,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="B6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
@@ -9097,72 +9106,72 @@
     </row>
     <row r="7" spans="1:20">
       <c r="B7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="T8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="T9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="T10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="T11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20">
       <c r="T13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20">
       <c r="T15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="T16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="17:20">
       <c r="T17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="17:20">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -9171,85 +9180,85 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T19" s="31"/>
     </row>
     <row r="20" spans="17:20">
       <c r="T20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="17:20">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="17:20">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="17:20">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="17:20">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="17:20">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="17:20">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="17:20">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="17:20">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="17:20">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="17:20">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="17:20">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="17:20">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -9258,34 +9267,34 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T33" s="31"/>
     </row>
     <row r="34" spans="17:20">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="17:20">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T35" s="31"/>
     </row>
     <row r="36" spans="17:20">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="17:20">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -9294,28 +9303,28 @@
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T38" s="31"/>
     </row>
     <row r="39" spans="17:20">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="17:20">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T40" s="31"/>
     </row>
     <row r="41" spans="17:20">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -9356,7 +9365,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -9382,12 +9391,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -9427,10 +9436,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -9439,12 +9448,12 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -9456,18 +9465,18 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -9475,7 +9484,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -9501,7 +9510,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
         <v>78</v>
@@ -9512,7 +9521,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
         <v>78</v>
@@ -9523,7 +9532,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -9531,7 +9540,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -9552,13 +9561,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -9566,22 +9575,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -9593,15 +9602,15 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -9613,10 +9622,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -9642,10 +9651,10 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -9659,7 +9668,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -9684,10 +9693,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9696,53 +9705,53 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
         <v>87</v>
       </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -9805,7 +9814,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
@@ -9817,7 +9826,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="52"/>
       <c r="AA1" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
@@ -9830,7 +9839,7 @@
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1">
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -9871,7 +9880,7 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="49"/>
       <c r="AE2" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
@@ -9886,7 +9895,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>57</v>
@@ -9941,7 +9950,7 @@
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>26</v>
@@ -9961,7 +9970,7 @@
       </c>
       <c r="AD3" s="49"/>
       <c r="AE3" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>75</v>
@@ -9979,7 +9988,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>79</v>
@@ -10006,7 +10015,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>82</v>
@@ -10024,10 +10033,10 @@
         <v>1</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
@@ -10069,7 +10078,7 @@
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1">
       <c r="C6" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="15">
         <v>0.9</v>
@@ -10081,13 +10090,13 @@
         <v>69</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="Q6" s="16" t="b">
         <v>1</v>
@@ -10108,7 +10117,7 @@
         <v>50</v>
       </c>
       <c r="Y6" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z6" s="53"/>
       <c r="AA6" s="16" t="b">
@@ -10141,7 +10150,7 @@
         <v>50</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z7" s="53"/>
       <c r="AA7" s="16" t="b">
@@ -10175,7 +10184,7 @@
     </row>
     <row r="9" spans="1:35" s="15" customFormat="1">
       <c r="C9" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E9" s="15">
         <v>1</v>
@@ -10187,10 +10196,10 @@
         <v>69</v>
       </c>
       <c r="H9" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>6</v>
@@ -10228,13 +10237,13 @@
       </c>
       <c r="AD9" s="50"/>
       <c r="AE9" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="AF9" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AH9" s="15" t="s">
         <v>2</v>
@@ -10322,7 +10331,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>79</v>
@@ -10334,7 +10343,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>79</v>
@@ -10361,51 +10370,51 @@
         <v>1</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="50"/>
       <c r="W15" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Z15" s="50"/>
       <c r="AA15" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AD15" s="50"/>
       <c r="AE15" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AI15" s="47"/>
     </row>
     <row r="16" spans="1:35" s="15" customFormat="1">
       <c r="C16" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="15">
         <v>0.9</v>
@@ -10417,7 +10426,7 @@
         <v>54</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="16" t="b">
         <v>1</v>
@@ -10438,7 +10447,7 @@
         <v>50</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z16" s="53"/>
       <c r="AA16" s="16" t="b">
@@ -10452,16 +10461,16 @@
       </c>
       <c r="AD16" s="50"/>
       <c r="AE16" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AI16" s="47"/>
     </row>
@@ -10479,7 +10488,7 @@
         <v>50</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z17" s="53"/>
       <c r="AA17" s="16" t="b">
@@ -10496,7 +10505,7 @@
     </row>
     <row r="18" spans="1:35" s="15" customFormat="1">
       <c r="C18" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -10508,7 +10517,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="16" t="b">
         <v>1</v>
@@ -10608,7 +10617,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -10620,36 +10629,36 @@
         <v>2</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S21" s="15" t="b">
         <v>1</v>
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Z21" s="47"/>
       <c r="AA21" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AB21" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AD21" s="47"/>
       <c r="AE21"/>
@@ -10676,7 +10685,7 @@
     </row>
     <row r="23" spans="1:35" s="15" customFormat="1">
       <c r="C23" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E23" s="15">
         <v>0.9</v>
@@ -10688,13 +10697,13 @@
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>84</v>
@@ -10726,17 +10735,17 @@
         <v>50</v>
       </c>
       <c r="Y23" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AD23" s="50"/>
       <c r="AE23" s="16" t="s">
@@ -10746,7 +10755,7 @@
         <v>50</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AI23" s="47"/>
     </row>
@@ -10764,17 +10773,17 @@
         <v>170</v>
       </c>
       <c r="Y24" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z24" s="53"/>
       <c r="AA24" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AD24" s="50"/>
       <c r="AE24" s="16" t="s">
@@ -10784,7 +10793,7 @@
         <v>50</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AI24" s="47"/>
     </row>
@@ -10929,19 +10938,19 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>58</v>
@@ -10955,19 +10964,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -10975,18 +10984,18 @@
     </row>
     <row r="4" spans="1:8">
       <c r="C4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="C5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -10998,7 +11007,7 @@
         <v>100000</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -11040,7 +11049,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9">
         <v>3500</v>
@@ -11048,19 +11057,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>58</v>
@@ -11068,36 +11077,36 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13">
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14">
         <v>36</v>
@@ -11105,7 +11114,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -11119,13 +11128,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="C16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16">
         <v>7000</v>
@@ -11173,226 +11182,226 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>212</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>213</v>
       </c>
       <c r="C4" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>212</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>213</v>
       </c>
       <c r="C5" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>212</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>213</v>
       </c>
       <c r="C6" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>212</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>213</v>
       </c>
       <c r="C7" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>212</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>213</v>
       </c>
       <c r="C8" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>212</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>213</v>
       </c>
       <c r="C9" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>212</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>213</v>
       </c>
       <c r="C10" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>212</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>213</v>
       </c>
       <c r="C11" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>212</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>213</v>
       </c>
       <c r="C12" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>212</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>213</v>
       </c>
       <c r="C13" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>212</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>213</v>
       </c>
       <c r="C14" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>212</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>213</v>
       </c>
       <c r="C15" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>227</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>228</v>
       </c>
       <c r="C17" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>227</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>228</v>
       </c>
       <c r="C18" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C19" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -11413,72 +11422,72 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>230</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>231</v>
       </c>
       <c r="C22" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>230</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>231</v>
       </c>
       <c r="C23" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>230</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>231</v>
       </c>
       <c r="C24" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C25" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C26" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -11491,86 +11500,86 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>237</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>238</v>
       </c>
       <c r="C28" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C29" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C30" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C31" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>242</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>243</v>
       </c>
       <c r="C33" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -11583,72 +11592,72 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C35" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="B36" s="32" t="s">
         <v>244</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>245</v>
       </c>
       <c r="C36" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>244</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>245</v>
       </c>
       <c r="C37" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C38" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -11669,16 +11678,16 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C42" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -11691,226 +11700,226 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C44" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C45" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C46" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C47" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C48" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C49" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C50" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C51" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C52" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C53" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C54" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C55" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C56" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C57" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C58" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C59" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -11923,86 +11932,86 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C61" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C62" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C63" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C64" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C65" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C66" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -12023,44 +12032,44 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C69" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C70" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C71" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1929" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86E64C97-298C-4791-B94E-5395CFEA7FF9}"/>
+  <xr:revisionPtr revIDLastSave="1931" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{26EB1D61-E1B4-4298-A7F6-16EE6AC67CAE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,6 +50,7 @@
     <author>tc={EDC7C1E7-87D8-4DCB-A596-9C8067A50A9A}</author>
     <author>tc={C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}</author>
     <author>tc={3FC98A93-1BD2-46CA-8439-5A569DD9E38A}</author>
+    <author>tc={A36EDA56-9BB8-4481-8541-35CA7263BBE2}</author>
     <author>tc={214FAD6C-C7E5-485F-8706-D09B002BBC46}</author>
     <author>tc={87DFEB67-927C-442C-956F-66557C9248F0}</author>
     <author>tc={3531B4B9-52F1-48E1-BD1D-58D8097B8528}</author>
@@ -89,7 +90,15 @@
     250 mm</t>
       </text>
     </comment>
-    <comment ref="AM8" authorId="3" shapeId="0" xr:uid="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
+    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{A36EDA56-9BB8-4481-8541-35CA7263BBE2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Removed to solve timeline error when method wasn't actuall called anywhere</t>
+      </text>
+    </comment>
+    <comment ref="AM8" authorId="4" shapeId="0" xr:uid="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -97,7 +106,7 @@
     Confirm with Peter Couch / Greg Toms</t>
       </text>
     </comment>
-    <comment ref="AM13" authorId="4" shapeId="0" xr:uid="{87DFEB67-927C-442C-956F-66557C9248F0}">
+    <comment ref="AM13" authorId="5" shapeId="0" xr:uid="{87DFEB67-927C-442C-956F-66557C9248F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -105,7 +114,7 @@
     add safety factor back</t>
       </text>
     </comment>
-    <comment ref="T44" authorId="5" shapeId="0" xr:uid="{3531B4B9-52F1-48E1-BD1D-58D8097B8528}">
+    <comment ref="T44" authorId="6" shapeId="0" xr:uid="{3531B4B9-52F1-48E1-BD1D-58D8097B8528}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -115,7 +124,7 @@
     probs delete</t>
       </text>
     </comment>
-    <comment ref="D56" authorId="6" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+    <comment ref="D56" authorId="7" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -123,7 +132,7 @@
     Change task type to planned / reactive / risk?</t>
       </text>
     </comment>
-    <comment ref="D62" authorId="7" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
+    <comment ref="D62" authorId="8" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -131,7 +140,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="I62" authorId="8" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
+    <comment ref="I62" authorId="9" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -139,7 +148,7 @@
     Break it out later</t>
       </text>
     </comment>
-    <comment ref="Z62" authorId="9" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+    <comment ref="Z62" authorId="10" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -148,7 +157,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="T64" authorId="10" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+    <comment ref="T64" authorId="11" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -156,7 +165,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="D70" authorId="11" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+    <comment ref="D70" authorId="12" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -164,7 +173,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="Z70" authorId="12" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+    <comment ref="Z70" authorId="13" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -173,7 +182,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="T72" authorId="13" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
+    <comment ref="T72" authorId="14" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -181,7 +190,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="E78" authorId="14" shapeId="0" xr:uid="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
+    <comment ref="E78" authorId="15" shapeId="0" xr:uid="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -189,7 +198,7 @@
     fix method to allow multiple indicators for one component</t>
       </text>
     </comment>
-    <comment ref="I78" authorId="15" shapeId="0" xr:uid="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
+    <comment ref="I78" authorId="16" shapeId="0" xr:uid="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -202,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="331">
   <si>
     <t>Cause</t>
   </si>
@@ -462,310 +471,310 @@
     <t>ssf_calc</t>
   </si>
   <si>
+    <t>termite_powder</t>
+  </si>
+  <si>
+    <t>repair</t>
+  </si>
+  <si>
+    <t>ConditionTask</t>
+  </si>
+  <si>
+    <t>grp</t>
+  </si>
+  <si>
+    <t>fm</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>reduction_factor</t>
+  </si>
+  <si>
+    <t>lightning_damage</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>fire_damage</t>
+  </si>
+  <si>
+    <t>impact_damage</t>
+  </si>
+  <si>
+    <t>CAT3/4 replacement</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>as_good_as_new</t>
+  </si>
+  <si>
+    <t>lean_angle</t>
+  </si>
+  <si>
+    <t>CAT1/2 replacement</t>
+  </si>
+  <si>
+    <t>fungal decay _ external</t>
+  </si>
+  <si>
+    <t>fungal decay _ internal</t>
+  </si>
+  <si>
+    <t>pole_saver_rod</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>assisted_failures</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>weathering</t>
+  </si>
+  <si>
+    <t>pole footing</t>
+  </si>
+  <si>
+    <t>leaning</t>
+  </si>
+  <si>
+    <t>any reason</t>
+  </si>
+  <si>
+    <t>pole_cap</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>Pole cap replacement</t>
+  </si>
+  <si>
+    <t>Pole replacement</t>
+  </si>
+  <si>
+    <t>crossarm</t>
+  </si>
+  <si>
+    <t>cross_sectional_area</t>
+  </si>
+  <si>
+    <t>Fix_this_error</t>
+  </si>
+  <si>
+    <t>add_no_condition_method</t>
+  </si>
+  <si>
+    <t>strut</t>
+  </si>
+  <si>
+    <t>modify</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>crack_length</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sub System</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Maintainable Item</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Pole</t>
+  </si>
+  <si>
+    <t>Pole Stay</t>
+  </si>
+  <si>
+    <t>Pole Cap</t>
+  </si>
+  <si>
+    <t>Pole Footing</t>
+  </si>
+  <si>
+    <t>pole (common)</t>
+  </si>
+  <si>
+    <t>pole (timber)</t>
+  </si>
+  <si>
+    <t>pole (concrete)</t>
+  </si>
+  <si>
+    <t>pole (steel)</t>
+  </si>
+  <si>
+    <t>pole (composite)</t>
+  </si>
+  <si>
+    <t>pole fixtures</t>
+  </si>
+  <si>
+    <t>attachments</t>
+  </si>
+  <si>
+    <t>pole cap</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>pole stay</t>
+  </si>
+  <si>
+    <t>pole attachment</t>
+  </si>
+  <si>
+    <t>top attachment point</t>
+  </si>
+  <si>
+    <t>thimble</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>dead end</t>
+  </si>
+  <si>
+    <t>insulator</t>
+  </si>
+  <si>
+    <t>batten</t>
+  </si>
+  <si>
+    <t>sight guard</t>
+  </si>
+  <si>
+    <t>anchor rod</t>
+  </si>
+  <si>
+    <t>footing</t>
+  </si>
+  <si>
+    <t>pole modification</t>
+  </si>
+  <si>
+    <t>reinforcement</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>acroprop</t>
+  </si>
+  <si>
+    <t>pole accessories</t>
+  </si>
+  <si>
+    <t>fauna protection</t>
+  </si>
+  <si>
+    <t>stay protection</t>
+  </si>
+  <si>
+    <t>cattle guard post</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (termites)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (lightning)</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (impact)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fire damage)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fungal decay - internal)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fungal decay - external)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (weathering)</t>
+  </si>
+  <si>
+    <t>[pole foundation] due to (unknown)</t>
+  </si>
+  <si>
+    <t>[pole cap] due to (unknown)</t>
+  </si>
+  <si>
+    <t>pole_cap_present</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (unknown)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (impact)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (corrosion)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (bed log)</t>
+  </si>
+  <si>
+    <t>[pole top equipment] due to {cracking}</t>
+  </si>
+  <si>
+    <t>cracking_present</t>
+  </si>
+  <si>
+    <t>simple_safety_factor</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>ssf</t>
+  </si>
+  <si>
     <t>actual_safety_factor</t>
   </si>
   <si>
     <t>dsf_calc</t>
-  </si>
-  <si>
-    <t>termite_powder</t>
-  </si>
-  <si>
-    <t>repair</t>
-  </si>
-  <si>
-    <t>ConditionTask</t>
-  </si>
-  <si>
-    <t>grp</t>
-  </si>
-  <si>
-    <t>fm</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>reduction_factor</t>
-  </si>
-  <si>
-    <t>lightning_damage</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>fire_damage</t>
-  </si>
-  <si>
-    <t>impact_damage</t>
-  </si>
-  <si>
-    <t>CAT3/4 replacement</t>
-  </si>
-  <si>
-    <t>replace</t>
-  </si>
-  <si>
-    <t>as_good_as_new</t>
-  </si>
-  <si>
-    <t>lean_angle</t>
-  </si>
-  <si>
-    <t>CAT1/2 replacement</t>
-  </si>
-  <si>
-    <t>fungal decay _ external</t>
-  </si>
-  <si>
-    <t>fungal decay _ internal</t>
-  </si>
-  <si>
-    <t>pole_saver_rod</t>
-  </si>
-  <si>
-    <t>lightning</t>
-  </si>
-  <si>
-    <t>assisted_failures</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>weathering</t>
-  </si>
-  <si>
-    <t>pole footing</t>
-  </si>
-  <si>
-    <t>leaning</t>
-  </si>
-  <si>
-    <t>any reason</t>
-  </si>
-  <si>
-    <t>pole_cap</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>Pole cap replacement</t>
-  </si>
-  <si>
-    <t>Pole replacement</t>
-  </si>
-  <si>
-    <t>crossarm</t>
-  </si>
-  <si>
-    <t>cross_sectional_area</t>
-  </si>
-  <si>
-    <t>Fix_this_error</t>
-  </si>
-  <si>
-    <t>add_no_condition_method</t>
-  </si>
-  <si>
-    <t>strut</t>
-  </si>
-  <si>
-    <t>modify</t>
-  </si>
-  <si>
-    <t>addition</t>
-  </si>
-  <si>
-    <t>crack_length</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Sub System</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Maintainable Item</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Pole</t>
-  </si>
-  <si>
-    <t>Pole Stay</t>
-  </si>
-  <si>
-    <t>Pole Cap</t>
-  </si>
-  <si>
-    <t>Pole Footing</t>
-  </si>
-  <si>
-    <t>pole (common)</t>
-  </si>
-  <si>
-    <t>pole (timber)</t>
-  </si>
-  <si>
-    <t>pole (concrete)</t>
-  </si>
-  <si>
-    <t>pole (steel)</t>
-  </si>
-  <si>
-    <t>pole (composite)</t>
-  </si>
-  <si>
-    <t>pole fixtures</t>
-  </si>
-  <si>
-    <t>attachments</t>
-  </si>
-  <si>
-    <t>pole cap</t>
-  </si>
-  <si>
-    <t>steps</t>
-  </si>
-  <si>
-    <t>pole stay</t>
-  </si>
-  <si>
-    <t>pole attachment</t>
-  </si>
-  <si>
-    <t>top attachment point</t>
-  </si>
-  <si>
-    <t>thimble</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>dead end</t>
-  </si>
-  <si>
-    <t>insulator</t>
-  </si>
-  <si>
-    <t>batten</t>
-  </si>
-  <si>
-    <t>sight guard</t>
-  </si>
-  <si>
-    <t>anchor rod</t>
-  </si>
-  <si>
-    <t>footing</t>
-  </si>
-  <si>
-    <t>pole modification</t>
-  </si>
-  <si>
-    <t>reinforcement</t>
-  </si>
-  <si>
-    <t>nail</t>
-  </si>
-  <si>
-    <t>acroprop</t>
-  </si>
-  <si>
-    <t>pole accessories</t>
-  </si>
-  <si>
-    <t>fauna protection</t>
-  </si>
-  <si>
-    <t>stay protection</t>
-  </si>
-  <si>
-    <t>cattle guard post</t>
-  </si>
-  <si>
-    <t>Indicators</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (termites)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (lightning)</t>
-  </si>
-  <si>
-    <t>nil</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (impact)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fire damage)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fungal decay - internal)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fungal decay - external)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (weathering)</t>
-  </si>
-  <si>
-    <t>[pole foundation] due to (unknown)</t>
-  </si>
-  <si>
-    <t>[pole cap] due to (unknown)</t>
-  </si>
-  <si>
-    <t>pole_cap_present</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (unknown)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (impact)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (corrosion)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (bed log)</t>
-  </si>
-  <si>
-    <t>[pole top equipment] due to {cracking}</t>
-  </si>
-  <si>
-    <t>cracking_present</t>
-  </si>
-  <si>
-    <t>simple_safety_factor</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>ssf</t>
   </si>
   <si>
     <t>asf</t>
@@ -2623,6 +2632,9 @@
   <threadedComment ref="G6" dT="2020-09-09T03:31:13.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{3FC98A93-1BD2-46CA-8439-5A569DD9E38A}">
     <text>250 mm</text>
   </threadedComment>
+  <threadedComment ref="E8" dT="2020-10-11T23:14:06.89" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{A36EDA56-9BB8-4481-8541-35CA7263BBE2}">
+    <text>Removed to solve timeline error when method wasn't actuall called anywhere</text>
+  </threadedComment>
   <threadedComment ref="AM8" dT="2020-09-09T03:33:43.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
     <text>Confirm with Peter Couch / Greg Toms</text>
   </threadedComment>
@@ -2768,7 +2780,7 @@
         <v>273</v>
       </c>
       <c r="Q13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S13" t="s">
         <v>274</v>
@@ -2779,7 +2791,7 @@
         <v>275</v>
       </c>
       <c r="O14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q14" t="s">
         <v>276</v>
@@ -2802,7 +2814,7 @@
         <v>281</v>
       </c>
       <c r="S15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2810,7 +2822,7 @@
         <v>282</v>
       </c>
       <c r="Q16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S16" t="s">
         <v>283</v>
@@ -2853,19 +2865,19 @@
         <v>79</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>291</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2876,10 +2888,10 @@
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="2:19">
@@ -2924,7 +2936,7 @@
         <v>292</v>
       </c>
       <c r="R35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -2957,7 +2969,7 @@
         <v>287</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
@@ -2971,7 +2983,7 @@
         <v>294</v>
       </c>
       <c r="J39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="2:19">
@@ -2999,13 +3011,13 @@
         <v>296</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>297</v>
@@ -3060,7 +3072,7 @@
         <v>301</v>
       </c>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3075,7 +3087,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>304</v>
@@ -3591,8 +3603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AV84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM38" sqref="AM38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4223,18 +4235,8 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="97"/>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="42">
-        <v>6</v>
-      </c>
-      <c r="H8" s="138">
-        <v>1</v>
-      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="138"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -4247,7 +4249,7 @@
       <c r="R8" s="15"/>
       <c r="S8" s="97"/>
       <c r="T8" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U8" s="42">
         <v>0.9</v>
@@ -4259,18 +4261,18 @@
         <v>2</v>
       </c>
       <c r="X8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z8" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="Y8" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z8" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AD8" s="97"/>
       <c r="AE8" s="15"/>
@@ -4294,25 +4296,25 @@
         <v>50</v>
       </c>
       <c r="AO8" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="AP8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT8" s="93">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="AV8" s="18" t="s">
         <v>2</v>
@@ -4324,10 +4326,10 @@
       <c r="C9" s="15"/>
       <c r="D9" s="97"/>
       <c r="E9" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G9" s="15" t="b">
         <v>1</v>
@@ -4372,7 +4374,7 @@
         <v>50</v>
       </c>
       <c r="AO9" s="118" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AP9" s="16"/>
       <c r="AQ9" s="16"/>
@@ -4388,10 +4390,10 @@
       <c r="C10" s="15"/>
       <c r="D10" s="97"/>
       <c r="E10" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G10" s="15" t="b">
         <v>1</v>
@@ -4446,10 +4448,10 @@
       <c r="C11" s="15"/>
       <c r="D11" s="97"/>
       <c r="E11" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G11" s="15" t="b">
         <v>1</v>
@@ -4469,7 +4471,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="97"/>
       <c r="T11" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U11" s="15">
         <v>1</v>
@@ -4481,13 +4483,13 @@
         <v>2</v>
       </c>
       <c r="X11" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y11" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z11" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
@@ -4528,13 +4530,13 @@
         <v>0</v>
       </c>
       <c r="AS11" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT11" s="19">
         <v>1</v>
       </c>
       <c r="AU11" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AV11" s="15" t="s">
         <v>2</v>
@@ -4546,10 +4548,10 @@
       <c r="C12" s="15"/>
       <c r="D12" s="97"/>
       <c r="E12" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G12" s="15" t="b">
         <v>1</v>
@@ -4683,7 +4685,7 @@
       <c r="R15" s="15"/>
       <c r="S15" s="97"/>
       <c r="T15" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="U15" s="15">
         <v>1</v>
@@ -4695,13 +4697,13 @@
         <v>2</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y15" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z15" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA15" s="15"/>
       <c r="AB15" s="15"/>
@@ -4732,13 +4734,13 @@
         <v>0</v>
       </c>
       <c r="AS15" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT15" s="19">
         <v>1</v>
       </c>
       <c r="AU15" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AV15" s="15" t="s">
         <v>2</v>
@@ -4804,7 +4806,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J17" s="45" t="s">
         <v>78</v>
@@ -4959,7 +4961,7 @@
       <c r="R19" s="15"/>
       <c r="S19" s="97"/>
       <c r="T19" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U19" s="15">
         <v>1</v>
@@ -4971,13 +4973,13 @@
         <v>2</v>
       </c>
       <c r="X19" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y19" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z19" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
@@ -5018,13 +5020,13 @@
         <v>0</v>
       </c>
       <c r="AS19" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT19" s="19">
         <v>1</v>
       </c>
       <c r="AU19" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AV19" s="15" t="s">
         <v>2</v>
@@ -5136,7 +5138,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="T23" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="U23" s="15">
         <v>1</v>
@@ -5148,13 +5150,13 @@
         <v>2</v>
       </c>
       <c r="X23" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y23" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z23" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
@@ -5185,13 +5187,13 @@
         <v>0</v>
       </c>
       <c r="AS23" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT23" s="19">
         <v>1</v>
       </c>
       <c r="AU23" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AV23" s="15" t="s">
         <v>2</v>
@@ -5257,7 +5259,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J25" s="45" t="s">
         <v>78</v>
@@ -5414,7 +5416,7 @@
       <c r="R27" s="15"/>
       <c r="S27" s="97"/>
       <c r="T27" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U27" s="45">
         <v>0.9</v>
@@ -5426,10 +5428,10 @@
         <v>2</v>
       </c>
       <c r="X27" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Y27" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z27" s="15" t="s">
         <v>81</v>
@@ -5459,7 +5461,7 @@
         <v>50</v>
       </c>
       <c r="AO27" s="123" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AP27" s="16" t="b">
         <v>0</v>
@@ -5520,7 +5522,7 @@
         <v>50</v>
       </c>
       <c r="AO28" s="123" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AP28" s="16"/>
       <c r="AQ28" s="16"/>
@@ -5599,7 +5601,7 @@
       <c r="R30" s="15"/>
       <c r="S30" s="97"/>
       <c r="T30" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U30" s="15">
         <v>1</v>
@@ -5611,13 +5613,13 @@
         <v>2</v>
       </c>
       <c r="X30" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y30" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z30" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
@@ -5658,13 +5660,13 @@
         <v>0</v>
       </c>
       <c r="AS30" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT30" s="19">
         <v>1</v>
       </c>
       <c r="AU30" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AV30" s="15" t="s">
         <v>2</v>
@@ -5776,7 +5778,7 @@
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="T34" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="U34" s="15">
         <v>1</v>
@@ -5788,13 +5790,13 @@
         <v>2</v>
       </c>
       <c r="X34" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y34" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z34" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
@@ -5825,13 +5827,13 @@
         <v>0</v>
       </c>
       <c r="AS34" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT34" s="19">
         <v>1</v>
       </c>
       <c r="AU34" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AV34" s="15" t="s">
         <v>2</v>
@@ -5897,10 +5899,10 @@
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J36" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K36" s="41">
         <v>0</v>
@@ -5946,7 +5948,7 @@
       <c r="AB36" s="15"/>
       <c r="AC36" s="15"/>
       <c r="AD36" s="97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AE36" s="15"/>
       <c r="AF36" s="15"/>
@@ -5959,7 +5961,7 @@
       <c r="AK36" s="18"/>
       <c r="AL36" s="108"/>
       <c r="AM36" s="84" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AN36" s="19" t="b">
         <v>1</v>
@@ -6091,7 +6093,7 @@
       <c r="AK38" s="18"/>
       <c r="AL38" s="108"/>
       <c r="AM38" s="84" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AN38" s="19" t="b">
         <v>1</v>
@@ -6161,7 +6163,7 @@
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="T40" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="U40" s="15">
         <v>1</v>
@@ -6173,13 +6175,13 @@
         <v>2</v>
       </c>
       <c r="X40" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y40" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z40" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
@@ -6210,13 +6212,13 @@
         <v>0</v>
       </c>
       <c r="AS40" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT40" s="19">
         <v>1</v>
       </c>
       <c r="AU40" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AV40" s="15" t="s">
         <v>2</v>
@@ -6282,10 +6284,10 @@
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J42" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K42" s="41">
         <v>0</v>
@@ -6331,7 +6333,7 @@
       <c r="AB42" s="15"/>
       <c r="AC42" s="15"/>
       <c r="AD42" s="97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AE42" s="15"/>
       <c r="AF42" s="15"/>
@@ -6344,7 +6346,7 @@
       <c r="AK42" s="18"/>
       <c r="AL42" s="108"/>
       <c r="AM42" s="84" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AN42" s="19" t="b">
         <v>1</v>
@@ -6437,7 +6439,7 @@
       <c r="R44" s="15"/>
       <c r="S44" s="97"/>
       <c r="T44" s="45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U44" s="15">
         <v>1</v>
@@ -6449,13 +6451,13 @@
         <v>2</v>
       </c>
       <c r="X44" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y44" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z44" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
@@ -6496,13 +6498,13 @@
         <v>0</v>
       </c>
       <c r="AS44" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT44" s="19">
         <v>1</v>
       </c>
       <c r="AU44" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AV44" s="15" t="s">
         <v>2</v>
@@ -6614,7 +6616,7 @@
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="T48" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="U48" s="15">
         <v>1</v>
@@ -6626,13 +6628,13 @@
         <v>2</v>
       </c>
       <c r="X48" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y48" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z48" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA48" s="15"/>
       <c r="AB48" s="15"/>
@@ -6663,13 +6665,13 @@
         <v>0</v>
       </c>
       <c r="AS48" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT48" s="19">
         <v>1</v>
       </c>
       <c r="AU48" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AV48" s="15" t="s">
         <v>2</v>
@@ -6735,10 +6737,10 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J50" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K50" s="41">
         <v>0</v>
@@ -6784,7 +6786,7 @@
       <c r="AB50" s="15"/>
       <c r="AC50" s="15"/>
       <c r="AD50" s="97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AE50" s="15"/>
       <c r="AF50" s="15"/>
@@ -6873,7 +6875,7 @@
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="T52" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="U52" s="15">
         <v>1</v>
@@ -6885,13 +6887,13 @@
         <v>2</v>
       </c>
       <c r="X52" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y52" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z52" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
@@ -6922,13 +6924,13 @@
         <v>0</v>
       </c>
       <c r="AS52" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT52" s="19">
         <v>1</v>
       </c>
       <c r="AU52" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AV52" s="15" t="s">
         <v>2</v>
@@ -6994,7 +6996,7 @@
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J54" s="41" t="s">
         <v>78</v>
@@ -7163,7 +7165,7 @@
       <c r="R56" s="15"/>
       <c r="S56" s="97"/>
       <c r="T56" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U56" s="15">
         <v>1</v>
@@ -7175,13 +7177,13 @@
         <v>2</v>
       </c>
       <c r="X56" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y56" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z56" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA56" s="15"/>
       <c r="AB56" s="15"/>
@@ -7222,13 +7224,13 @@
         <v>0</v>
       </c>
       <c r="AS56" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT56" s="19">
         <v>1</v>
       </c>
       <c r="AU56" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AV56" s="15" t="s">
         <v>2</v>
@@ -7340,7 +7342,7 @@
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="T60" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="U60" s="15">
         <v>1</v>
@@ -7352,13 +7354,13 @@
         <v>2</v>
       </c>
       <c r="X60" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y60" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z60" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA60" s="15"/>
       <c r="AB60" s="15"/>
@@ -7389,13 +7391,13 @@
         <v>0</v>
       </c>
       <c r="AS60" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT60" s="19">
         <v>1</v>
       </c>
       <c r="AU60" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AV60" s="15" t="s">
         <v>2</v>
@@ -7456,20 +7458,20 @@
       <c r="B62" s="15"/>
       <c r="C62" s="41"/>
       <c r="D62" s="99" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G62" s="15" t="b">
         <v>0</v>
       </c>
       <c r="H62" s="15"/>
       <c r="I62" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J62" s="41" t="s">
         <v>78</v>
@@ -7490,7 +7492,7 @@
         <v>10</v>
       </c>
       <c r="P62" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q62" s="15"/>
       <c r="R62" s="15"/>
@@ -7626,7 +7628,7 @@
       <c r="R64" s="15"/>
       <c r="S64" s="97"/>
       <c r="T64" s="45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U64" s="15">
         <v>1</v>
@@ -7638,13 +7640,13 @@
         <v>2</v>
       </c>
       <c r="X64" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y64" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z64" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA64" s="15"/>
       <c r="AB64" s="15"/>
@@ -7685,13 +7687,13 @@
         <v>0</v>
       </c>
       <c r="AS64" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT64" s="19">
         <v>1</v>
       </c>
       <c r="AU64" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AV64" s="15" t="s">
         <v>2</v>
@@ -7838,7 +7840,7 @@
       <c r="R68" s="15"/>
       <c r="S68" s="97"/>
       <c r="T68" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="U68" s="15">
         <v>1</v>
@@ -7850,13 +7852,13 @@
         <v>69</v>
       </c>
       <c r="X68" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y68" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z68" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
@@ -7887,13 +7889,13 @@
         <v>0</v>
       </c>
       <c r="AS68" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT68" s="19">
         <v>1</v>
       </c>
       <c r="AU68" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AV68" s="15" t="s">
         <v>2</v>
@@ -7954,20 +7956,20 @@
       <c r="B70" s="15"/>
       <c r="C70" s="41"/>
       <c r="D70" s="99" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E70" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G70" s="15" t="b">
         <v>0</v>
       </c>
       <c r="H70" s="15"/>
       <c r="I70" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J70" s="41" t="s">
         <v>78</v>
@@ -8126,7 +8128,7 @@
       <c r="R72" s="15"/>
       <c r="S72" s="97"/>
       <c r="T72" s="45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U72" s="15">
         <v>1</v>
@@ -8138,13 +8140,13 @@
         <v>2</v>
       </c>
       <c r="X72" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y72" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z72" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA72" s="15"/>
       <c r="AB72" s="15"/>
@@ -8185,13 +8187,13 @@
         <v>0</v>
       </c>
       <c r="AS72" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT72" s="19">
         <v>1</v>
       </c>
       <c r="AU72" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AV72" s="15" t="s">
         <v>2</v>
@@ -8338,7 +8340,7 @@
       <c r="R76" s="15"/>
       <c r="S76" s="97"/>
       <c r="T76" s="45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="U76" s="15">
         <v>1</v>
@@ -8350,13 +8352,13 @@
         <v>69</v>
       </c>
       <c r="X76" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y76" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z76" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA76" s="15"/>
       <c r="AB76" s="15"/>
@@ -8387,13 +8389,13 @@
         <v>0</v>
       </c>
       <c r="AS76" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT76" s="19">
         <v>1</v>
       </c>
       <c r="AU76" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AV76" s="15" t="s">
         <v>2</v>
@@ -8454,16 +8456,16 @@
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
       <c r="D78" s="97" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
       <c r="I78" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J78" s="15" t="s">
         <v>78</v>
@@ -8484,13 +8486,13 @@
         <v>10</v>
       </c>
       <c r="P78" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q78" s="15"/>
       <c r="R78" s="15"/>
       <c r="S78" s="97"/>
       <c r="T78" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U78" s="15">
         <v>0.9</v>
@@ -8502,10 +8504,10 @@
         <v>2</v>
       </c>
       <c r="X78" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y78" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z78" s="15"/>
       <c r="AA78" s="15"/>
@@ -8514,7 +8516,7 @@
         <v>6</v>
       </c>
       <c r="AD78" s="97" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AE78" s="15" t="s">
         <v>84</v>
@@ -8545,7 +8547,7 @@
         <v>50</v>
       </c>
       <c r="AO78" s="120" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AP78" s="16"/>
       <c r="AQ78" s="16"/>
@@ -8557,7 +8559,7 @@
         <v>50</v>
       </c>
       <c r="AU78" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AV78" s="15"/>
     </row>
@@ -8567,7 +8569,7 @@
       <c r="C79" s="15"/>
       <c r="D79" s="97"/>
       <c r="E79" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
@@ -8609,7 +8611,7 @@
         <v>170</v>
       </c>
       <c r="AO79" s="120" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AP79" s="16"/>
       <c r="AQ79" s="16"/>
@@ -8621,7 +8623,7 @@
         <v>50</v>
       </c>
       <c r="AU79" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AV79" s="15"/>
     </row>
@@ -9044,39 +9046,39 @@
     <row r="2" spans="1:20">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="T2" s="27" t="s">
         <v>128</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
         <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>133</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:20">
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -9084,7 +9086,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="B5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="30" t="s">
@@ -9095,7 +9097,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="B6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
@@ -9106,72 +9108,72 @@
     </row>
     <row r="7" spans="1:20">
       <c r="B7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="T8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="T9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="T10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="T11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20">
       <c r="T13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20">
       <c r="T15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="T16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="17:20">
       <c r="T17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="17:20">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -9180,85 +9182,85 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="T19" s="31"/>
     </row>
     <row r="20" spans="17:20">
       <c r="T20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="17:20">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="17:20">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="17:20">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="17:20">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="17:20">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="17:20">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="17:20">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="17:20">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="17:20">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="17:20">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="17:20">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="17:20">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -9267,34 +9269,34 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T33" s="31"/>
     </row>
     <row r="34" spans="17:20">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="17:20">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T35" s="31"/>
     </row>
     <row r="36" spans="17:20">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="17:20">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -9303,28 +9305,28 @@
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T38" s="31"/>
     </row>
     <row r="39" spans="17:20">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="17:20">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T40" s="31"/>
     </row>
     <row r="41" spans="17:20">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -9365,7 +9367,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -9391,12 +9393,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -9436,10 +9438,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -9448,12 +9450,12 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -9465,18 +9467,18 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -9484,7 +9486,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -9510,7 +9512,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
         <v>78</v>
@@ -9521,7 +9523,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
         <v>78</v>
@@ -9532,7 +9534,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -9540,7 +9542,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -9561,13 +9563,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -9575,22 +9577,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -9602,15 +9604,15 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -9622,10 +9624,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -9651,10 +9653,10 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -9668,7 +9670,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -9693,10 +9695,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9705,15 +9707,15 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -9727,7 +9729,7 @@
         <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9735,7 +9737,7 @@
         <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -9743,10 +9745,10 @@
         <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -9826,7 +9828,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="52"/>
       <c r="AA1" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
@@ -9880,7 +9882,7 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="49"/>
       <c r="AE2" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
@@ -10015,7 +10017,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>82</v>
@@ -10078,7 +10080,7 @@
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1">
       <c r="C6" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" s="15">
         <v>0.9</v>
@@ -10090,13 +10092,13 @@
         <v>69</v>
       </c>
       <c r="H6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>91</v>
-      </c>
       <c r="L6" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q6" s="16" t="b">
         <v>1</v>
@@ -10117,7 +10119,7 @@
         <v>50</v>
       </c>
       <c r="Y6" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z6" s="53"/>
       <c r="AA6" s="16" t="b">
@@ -10150,7 +10152,7 @@
         <v>50</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z7" s="53"/>
       <c r="AA7" s="16" t="b">
@@ -10196,10 +10198,10 @@
         <v>69</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>6</v>
@@ -10237,13 +10239,13 @@
       </c>
       <c r="AD9" s="50"/>
       <c r="AE9" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AF9" s="15">
         <v>1</v>
       </c>
       <c r="AG9" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AH9" s="15" t="s">
         <v>2</v>
@@ -10379,42 +10381,42 @@
       <c r="U15" s="18"/>
       <c r="V15" s="50"/>
       <c r="W15" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Z15" s="50"/>
       <c r="AA15" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD15" s="50"/>
       <c r="AE15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AI15" s="47"/>
     </row>
     <row r="16" spans="1:35" s="15" customFormat="1">
       <c r="C16" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16" s="15">
         <v>0.9</v>
@@ -10426,7 +10428,7 @@
         <v>54</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="16" t="b">
         <v>1</v>
@@ -10447,7 +10449,7 @@
         <v>50</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z16" s="53"/>
       <c r="AA16" s="16" t="b">
@@ -10461,16 +10463,16 @@
       </c>
       <c r="AD16" s="50"/>
       <c r="AE16" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AI16" s="47"/>
     </row>
@@ -10488,7 +10490,7 @@
         <v>50</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z17" s="53"/>
       <c r="AA17" s="16" t="b">
@@ -10517,7 +10519,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="16" t="b">
         <v>1</v>
@@ -10629,7 +10631,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q21" s="15" t="s">
         <v>198</v>
@@ -10642,23 +10644,23 @@
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Z21" s="47"/>
       <c r="AA21" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB21" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD21" s="47"/>
       <c r="AE21"/>
@@ -10685,7 +10687,7 @@
     </row>
     <row r="23" spans="1:35" s="15" customFormat="1">
       <c r="C23" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E23" s="15">
         <v>0.9</v>
@@ -10697,13 +10699,13 @@
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>84</v>
@@ -10735,17 +10737,17 @@
         <v>50</v>
       </c>
       <c r="Y23" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD23" s="50"/>
       <c r="AE23" s="16" t="s">
@@ -10755,7 +10757,7 @@
         <v>50</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AI23" s="47"/>
     </row>
@@ -10773,17 +10775,17 @@
         <v>170</v>
       </c>
       <c r="Y24" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z24" s="53"/>
       <c r="AA24" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD24" s="50"/>
       <c r="AE24" s="16" t="s">
@@ -10793,7 +10795,7 @@
         <v>50</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AI24" s="47"/>
     </row>
@@ -10938,7 +10940,7 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>204</v>
@@ -10964,10 +10966,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -10976,7 +10978,7 @@
         <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -10984,13 +10986,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="C4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
         <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -11049,7 +11051,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9">
         <v>3500</v>
@@ -11057,7 +11059,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>204</v>
@@ -11077,10 +11079,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
@@ -11089,7 +11091,7 @@
         <v>208</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -11100,13 +11102,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="C14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
         <v>208</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F14">
         <v>36</v>
@@ -11114,7 +11116,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="C15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -11128,13 +11130,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="C16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F16">
         <v>7000</v>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1931" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{26EB1D61-E1B4-4298-A7F6-16EE6AC67CAE}"/>
+  <xr:revisionPtr revIDLastSave="1949" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B7286B10-D206-4ACE-911C-2D5093702859}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,6 @@
     <author>tc={A36EDA56-9BB8-4481-8541-35CA7263BBE2}</author>
     <author>tc={214FAD6C-C7E5-485F-8706-D09B002BBC46}</author>
     <author>tc={87DFEB67-927C-442C-956F-66557C9248F0}</author>
-    <author>tc={3531B4B9-52F1-48E1-BD1D-58D8097B8528}</author>
     <author>tc={2C545A15-58BF-4325-853E-F01A6E2CD754}</author>
     <author>tc={B6F30610-5DE2-43DC-8686-4075E019810F}</author>
     <author>tc={F6470554-740D-4816-85E3-E23C5729D666}</author>
@@ -114,17 +113,7 @@
     add safety factor back</t>
       </text>
     </comment>
-    <comment ref="T44" authorId="6" shapeId="0" xr:uid="{3531B4B9-52F1-48E1-BD1D-58D8097B8528}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Peter Couch
-Reply:
-    probs delete</t>
-      </text>
-    </comment>
-    <comment ref="D56" authorId="7" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+    <comment ref="D52" authorId="6" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -132,7 +121,7 @@
     Change task type to planned / reactive / risk?</t>
       </text>
     </comment>
-    <comment ref="D62" authorId="8" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
+    <comment ref="D58" authorId="7" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -140,7 +129,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="I62" authorId="9" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
+    <comment ref="I58" authorId="8" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -148,7 +137,7 @@
     Break it out later</t>
       </text>
     </comment>
-    <comment ref="Z62" authorId="10" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+    <comment ref="Z58" authorId="9" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -157,7 +146,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="T64" authorId="11" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+    <comment ref="T60" authorId="10" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -165,7 +154,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="D70" authorId="12" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+    <comment ref="D66" authorId="11" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -173,7 +162,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="Z70" authorId="13" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+    <comment ref="Z66" authorId="12" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -182,7 +171,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="T72" authorId="14" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
+    <comment ref="T68" authorId="13" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -190,7 +179,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="E78" authorId="15" shapeId="0" xr:uid="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
+    <comment ref="E74" authorId="14" shapeId="0" xr:uid="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -198,7 +187,7 @@
     fix method to allow multiple indicators for one component</t>
       </text>
     </comment>
-    <comment ref="I78" authorId="16" shapeId="0" xr:uid="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
+    <comment ref="I74" authorId="15" shapeId="0" xr:uid="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -211,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="329">
   <si>
     <t>Cause</t>
   </si>
@@ -495,61 +484,55 @@
     <t>reduction_factor</t>
   </si>
   <si>
-    <t>lightning_damage</t>
+    <t>CAT3/4 replacement</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>as_good_as_new</t>
+  </si>
+  <si>
+    <t>CAT1/2 replacement</t>
+  </si>
+  <si>
+    <t>fungal decay _ external</t>
+  </si>
+  <si>
+    <t>fungal decay _ internal</t>
+  </si>
+  <si>
+    <t>pole_saver_rod</t>
+  </si>
+  <si>
+    <t>lightning</t>
   </si>
   <si>
     <t>step</t>
   </si>
   <si>
+    <t>assisted_failures</t>
+  </si>
+  <si>
     <t>fire_damage</t>
   </si>
   <si>
-    <t>impact_damage</t>
-  </si>
-  <si>
-    <t>CAT3/4 replacement</t>
-  </si>
-  <si>
-    <t>replace</t>
-  </si>
-  <si>
-    <t>as_good_as_new</t>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>weathering</t>
+  </si>
+  <si>
+    <t>pole footing</t>
+  </si>
+  <si>
+    <t>leaning</t>
+  </si>
+  <si>
+    <t>any reason</t>
   </si>
   <si>
     <t>lean_angle</t>
-  </si>
-  <si>
-    <t>CAT1/2 replacement</t>
-  </si>
-  <si>
-    <t>fungal decay _ external</t>
-  </si>
-  <si>
-    <t>fungal decay _ internal</t>
-  </si>
-  <si>
-    <t>pole_saver_rod</t>
-  </si>
-  <si>
-    <t>lightning</t>
-  </si>
-  <si>
-    <t>assisted_failures</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>weathering</t>
-  </si>
-  <si>
-    <t>pole footing</t>
-  </si>
-  <si>
-    <t>leaning</t>
-  </si>
-  <si>
-    <t>any reason</t>
   </si>
   <si>
     <t>pole_cap</t>
@@ -1745,28 +1728,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="85">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="82">
     <dxf>
       <fill>
         <patternFill>
@@ -2641,42 +2603,36 @@
   <threadedComment ref="AM13" dT="2020-09-10T03:27:58.22" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{87DFEB67-927C-442C-956F-66557C9248F0}">
     <text>add safety factor back</text>
   </threadedComment>
-  <threadedComment ref="T44" dT="2020-09-09T04:00:43.93" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{3531B4B9-52F1-48E1-BD1D-58D8097B8528}">
-    <text>Peter Couch</text>
-  </threadedComment>
-  <threadedComment ref="T44" dT="2020-09-09T04:01:40.43" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{047CA00E-8673-4182-9066-3B4CBB601E6F}" parentId="{3531B4B9-52F1-48E1-BD1D-58D8097B8528}">
-    <text>probs delete</text>
-  </threadedComment>
-  <threadedComment ref="D56" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+  <threadedComment ref="D52" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
     <text>Change task type to planned / reactive / risk?</text>
   </threadedComment>
-  <threadedComment ref="D62" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B6F30610-5DE2-43DC-8686-4075E019810F}">
+  <threadedComment ref="D58" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B6F30610-5DE2-43DC-8686-4075E019810F}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="I62" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F6470554-740D-4816-85E3-E23C5729D666}">
+  <threadedComment ref="I58" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F6470554-740D-4816-85E3-E23C5729D666}">
     <text>Break it out later</text>
   </threadedComment>
-  <threadedComment ref="Z62" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+  <threadedComment ref="Z58" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="T64" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+  <threadedComment ref="T60" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
     <text>Make this a repair task</text>
   </threadedComment>
-  <threadedComment ref="D70" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+  <threadedComment ref="D66" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="Z70" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+  <threadedComment ref="Z66" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="T72" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{65DC17AD-63E9-433B-A662-056382EECC79}">
+  <threadedComment ref="T68" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{65DC17AD-63E9-433B-A662-056382EECC79}">
     <text>Make this a repair task</text>
   </threadedComment>
-  <threadedComment ref="E78" dT="2020-09-15T23:18:34.59" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
+  <threadedComment ref="E74" dT="2020-09-15T23:18:34.59" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
     <text>fix method to allow multiple indicators for one component</text>
   </threadedComment>
-  <threadedComment ref="I78" dT="2020-09-15T22:13:46.05" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
+  <threadedComment ref="I74" dT="2020-09-15T22:13:46.05" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
     <text>Create error catch for this method</text>
   </threadedComment>
 </ThreadedComments>
@@ -2729,134 +2685,134 @@
   <sheetData>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="O12" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="F13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="O13" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>166</v>
+      </c>
+      <c r="S13" t="s">
         <v>272</v>
-      </c>
-      <c r="O13" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>168</v>
-      </c>
-      <c r="S13" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="F14" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="O14" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>274</v>
+      </c>
+      <c r="S14" t="s">
         <v>275</v>
-      </c>
-      <c r="O14" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>276</v>
-      </c>
-      <c r="S14" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="F15" t="s">
+        <v>276</v>
+      </c>
+      <c r="J15" t="s">
+        <v>277</v>
+      </c>
+      <c r="O15" t="s">
         <v>278</v>
       </c>
-      <c r="J15" t="s">
+      <c r="Q15" t="s">
         <v>279</v>
       </c>
-      <c r="O15" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>281</v>
-      </c>
       <c r="S15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="F16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="F17" t="s">
+        <v>282</v>
+      </c>
+      <c r="O17" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q17" t="s">
         <v>284</v>
-      </c>
-      <c r="O17" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="O18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="F20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="D31" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -2868,13 +2824,13 @@
         <v>87</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>93</v>
@@ -2882,27 +2838,27 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K33" t="s">
         <v>51</v>
       </c>
       <c r="R33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2910,13 +2866,13 @@
     </row>
     <row r="34" spans="2:19">
       <c r="C34" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s">
         <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S34">
         <v>0.5</v>
@@ -2924,19 +2880,19 @@
     </row>
     <row r="35" spans="2:19">
       <c r="C35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D35" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="R35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -2944,13 +2900,13 @@
     </row>
     <row r="36" spans="2:19">
       <c r="D36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="R36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -2966,10 +2922,10 @@
     </row>
     <row r="38" spans="2:19">
       <c r="C38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
@@ -2977,13 +2933,13 @@
     </row>
     <row r="39" spans="2:19">
       <c r="C39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E39" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="2:19">
@@ -3003,29 +2959,29 @@
     </row>
     <row r="52" spans="1:12">
       <c r="H52" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="E54" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -3059,76 +3015,76 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="F59" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="B60" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="E61" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="E62" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B70">
         <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B71">
         <v>12.5</v>
       </c>
       <c r="C71" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3160,48 +3116,48 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J4" t="s">
+        <v>312</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R4" t="s">
         <v>315</v>
       </c>
-      <c r="I4" t="s">
-        <v>313</v>
-      </c>
-      <c r="J4" t="s">
-        <v>314</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="R4" t="s">
-        <v>317</v>
-      </c>
       <c r="S4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -3211,18 +3167,18 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="R5" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="S5" t="s">
         <v>319</v>
-      </c>
-      <c r="R5" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="S5" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="H6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I6">
         <f>I5/4</f>
@@ -3234,51 +3190,51 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="R6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="S6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="R7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="S7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="H8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="R8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="S8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
@@ -3286,7 +3242,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="H10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
@@ -3294,12 +3250,12 @@
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="B12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I12" s="9">
         <v>3.7</v>
@@ -3311,20 +3267,20 @@
     </row>
     <row r="16" spans="1:19">
       <c r="J16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="10:10">
       <c r="J19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1048576" spans="15:15">
       <c r="O1048576" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3601,10 +3557,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
-  <dimension ref="A1:AV84"/>
+  <dimension ref="A1:AV80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="S22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO46" sqref="AO46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4325,18 +4281,10 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="97"/>
-      <c r="E9" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="139" t="b">
-        <v>0</v>
-      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="139"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
@@ -4389,18 +4337,10 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="97"/>
-      <c r="E10" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="139" t="b">
-        <v>0</v>
-      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="139"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -4447,18 +4387,10 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="97"/>
-      <c r="E11" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="139" t="b">
-        <v>0</v>
-      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="139"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
@@ -4471,7 +4403,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="97"/>
       <c r="T11" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="U11" s="15">
         <v>1</v>
@@ -4483,13 +4415,13 @@
         <v>2</v>
       </c>
       <c r="X11" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Y11" s="15" t="s">
         <v>88</v>
       </c>
       <c r="Z11" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
@@ -4547,18 +4479,10 @@
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="97"/>
-      <c r="E12" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="139" t="b">
-        <v>0</v>
-      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="139"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -4685,7 +4609,7 @@
       <c r="R15" s="15"/>
       <c r="S15" s="97"/>
       <c r="T15" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="U15" s="15">
         <v>1</v>
@@ -4697,13 +4621,13 @@
         <v>2</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Y15" s="15" t="s">
         <v>88</v>
       </c>
       <c r="Z15" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA15" s="15"/>
       <c r="AB15" s="15"/>
@@ -4806,7 +4730,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J17" s="45" t="s">
         <v>78</v>
@@ -4961,7 +4885,7 @@
       <c r="R19" s="15"/>
       <c r="S19" s="97"/>
       <c r="T19" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="U19" s="15">
         <v>1</v>
@@ -4973,13 +4897,13 @@
         <v>2</v>
       </c>
       <c r="X19" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Y19" s="15" t="s">
         <v>88</v>
       </c>
       <c r="Z19" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
@@ -5138,7 +5062,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="T23" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="U23" s="15">
         <v>1</v>
@@ -5150,13 +5074,13 @@
         <v>2</v>
       </c>
       <c r="X23" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Y23" s="15" t="s">
         <v>88</v>
       </c>
       <c r="Z23" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
@@ -5259,7 +5183,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J25" s="45" t="s">
         <v>78</v>
@@ -5416,7 +5340,7 @@
       <c r="R27" s="15"/>
       <c r="S27" s="97"/>
       <c r="T27" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="U27" s="45">
         <v>0.9</v>
@@ -5601,7 +5525,7 @@
       <c r="R30" s="15"/>
       <c r="S30" s="97"/>
       <c r="T30" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="U30" s="15">
         <v>1</v>
@@ -5613,13 +5537,13 @@
         <v>2</v>
       </c>
       <c r="X30" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Y30" s="15" t="s">
         <v>88</v>
       </c>
       <c r="Z30" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
@@ -5778,7 +5702,7 @@
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="T34" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="U34" s="15">
         <v>1</v>
@@ -5790,13 +5714,13 @@
         <v>2</v>
       </c>
       <c r="X34" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Y34" s="15" t="s">
         <v>88</v>
       </c>
       <c r="Z34" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
@@ -5899,10 +5823,10 @@
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J36" s="41" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K36" s="41">
         <v>0</v>
@@ -5948,7 +5872,7 @@
       <c r="AB36" s="15"/>
       <c r="AC36" s="15"/>
       <c r="AD36" s="97" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AE36" s="15"/>
       <c r="AF36" s="15"/>
@@ -5960,15 +5884,9 @@
       <c r="AJ36" s="18"/>
       <c r="AK36" s="18"/>
       <c r="AL36" s="108"/>
-      <c r="AM36" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN36" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO36" s="120" t="b">
-        <v>1</v>
-      </c>
+      <c r="AM36" s="84"/>
+      <c r="AN36" s="19"/>
+      <c r="AO36" s="120"/>
       <c r="AP36" s="44"/>
       <c r="AQ36" s="44"/>
       <c r="AR36" s="106"/>
@@ -6092,15 +6010,9 @@
       <c r="AJ38" s="18"/>
       <c r="AK38" s="18"/>
       <c r="AL38" s="108"/>
-      <c r="AM38" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN38" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO38" s="120" t="b">
-        <v>1</v>
-      </c>
+      <c r="AM38" s="84"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="120"/>
       <c r="AP38" s="44"/>
       <c r="AQ38" s="44"/>
       <c r="AR38" s="106"/>
@@ -6163,7 +6075,7 @@
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="T40" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="U40" s="15">
         <v>1</v>
@@ -6175,13 +6087,13 @@
         <v>2</v>
       </c>
       <c r="X40" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Y40" s="15" t="s">
         <v>88</v>
       </c>
       <c r="Z40" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
@@ -6284,10 +6196,10 @@
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J42" s="41" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K42" s="41">
         <v>0</v>
@@ -6333,7 +6245,7 @@
       <c r="AB42" s="15"/>
       <c r="AC42" s="15"/>
       <c r="AD42" s="97" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AE42" s="15"/>
       <c r="AF42" s="15"/>
@@ -6345,15 +6257,9 @@
       <c r="AJ42" s="18"/>
       <c r="AK42" s="18"/>
       <c r="AL42" s="108"/>
-      <c r="AM42" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN42" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO42" s="120" t="b">
-        <v>1</v>
-      </c>
+      <c r="AM42" s="84"/>
+      <c r="AN42" s="19"/>
+      <c r="AO42" s="120"/>
       <c r="AP42" s="16" t="b">
         <v>0</v>
       </c>
@@ -6371,23 +6277,6 @@
     <row r="43" spans="1:48">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="131"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="97"/>
       <c r="T43" s="69"/>
       <c r="U43" s="69"/>
       <c r="V43" s="69"/>
@@ -6421,43 +6310,26 @@
     <row r="44" spans="1:48">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="131"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="131"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="97"/>
-      <c r="T44" s="45" t="s">
-        <v>98</v>
+      <c r="T44" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="U44" s="15">
         <v>1</v>
       </c>
       <c r="V44" s="15">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="W44" s="15" t="s">
         <v>2</v>
       </c>
       <c r="X44" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Y44" s="15" t="s">
         <v>88</v>
       </c>
       <c r="Z44" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
@@ -6468,26 +6340,16 @@
       <c r="AE44" s="15"/>
       <c r="AF44" s="15"/>
       <c r="AG44" s="15"/>
-      <c r="AH44" s="16" t="b">
+      <c r="AH44" s="16"/>
+      <c r="AI44" s="16"/>
+      <c r="AJ44" s="16" t="b">
         <v>1</v>
-      </c>
-      <c r="AI44" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ44" s="16" t="b">
-        <v>0</v>
       </c>
       <c r="AK44" s="16"/>
       <c r="AL44" s="110"/>
-      <c r="AM44" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN44" s="80">
-        <v>0</v>
-      </c>
-      <c r="AO44" s="119">
-        <v>50</v>
-      </c>
+      <c r="AM44" s="84"/>
+      <c r="AN44" s="19"/>
+      <c r="AO44" s="120"/>
       <c r="AP44" s="16" t="b">
         <v>0</v>
       </c>
@@ -6519,69 +6381,155 @@
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="131"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="131"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="97"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="15"/>
-      <c r="AD45" s="97"/>
-      <c r="AE45" s="15"/>
-      <c r="AF45" s="15"/>
-      <c r="AG45" s="15"/>
-      <c r="AH45" s="15"/>
-      <c r="AI45" s="15"/>
-      <c r="AJ45" s="15"/>
-      <c r="AK45" s="15"/>
-      <c r="AL45" s="97"/>
-      <c r="AM45" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN45" s="80">
-        <v>0</v>
-      </c>
-      <c r="AO45" s="119">
-        <v>50</v>
-      </c>
-      <c r="AP45" s="16"/>
-      <c r="AQ45" s="16"/>
-      <c r="AR45" s="110"/>
-      <c r="AS45" s="76"/>
-      <c r="AT45" s="19"/>
-      <c r="AU45" s="15"/>
-      <c r="AV45" s="15"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="133"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="102"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="56"/>
+      <c r="Z45" s="56"/>
+      <c r="AA45" s="56"/>
+      <c r="AB45" s="56"/>
+      <c r="AC45" s="56"/>
+      <c r="AD45" s="102"/>
+      <c r="AE45" s="56"/>
+      <c r="AF45" s="56"/>
+      <c r="AG45" s="56"/>
+      <c r="AH45" s="57"/>
+      <c r="AI45" s="57"/>
+      <c r="AJ45" s="57"/>
+      <c r="AK45" s="57"/>
+      <c r="AL45" s="112"/>
+      <c r="AM45" s="85"/>
+      <c r="AN45" s="58"/>
+      <c r="AO45" s="121"/>
+      <c r="AP45" s="57"/>
+      <c r="AQ45" s="57"/>
+      <c r="AR45" s="112"/>
+      <c r="AS45" s="78"/>
+      <c r="AT45" s="58"/>
+      <c r="AU45" s="56"/>
+      <c r="AV45" s="56"/>
     </row>
     <row r="46" spans="1:48">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
-      <c r="AM46" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN46" s="80">
-        <v>0</v>
-      </c>
-      <c r="AO46" s="119">
-        <v>3</v>
-      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J46" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" s="41">
+        <v>0</v>
+      </c>
+      <c r="L46" s="134">
+        <v>0</v>
+      </c>
+      <c r="M46" s="41">
+        <v>50</v>
+      </c>
+      <c r="N46" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="O46" s="134">
+        <v>10</v>
+      </c>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="97"/>
+      <c r="T46" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="U46" s="15">
+        <v>1</v>
+      </c>
+      <c r="V46" s="15">
+        <v>0</v>
+      </c>
+      <c r="W46" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X46" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y46" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z46" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="15"/>
+      <c r="AH46" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI46" s="18"/>
+      <c r="AJ46" s="18"/>
+      <c r="AK46" s="18"/>
+      <c r="AL46" s="108"/>
+      <c r="AM46" s="84"/>
+      <c r="AN46" s="19"/>
+      <c r="AO46" s="120"/>
+      <c r="AP46" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="76"/>
+      <c r="AT46" s="19"/>
+      <c r="AU46" s="15"/>
+      <c r="AV46" s="15"/>
     </row>
     <row r="47" spans="1:48">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="131"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="131"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="97"/>
       <c r="T47" s="69"/>
       <c r="U47" s="69"/>
       <c r="V47" s="69"/>
@@ -6616,7 +6564,7 @@
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="T48" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="U48" s="15">
         <v>1</v>
@@ -6628,13 +6576,13 @@
         <v>2</v>
       </c>
       <c r="X48" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Y48" s="15" t="s">
         <v>88</v>
       </c>
       <c r="Z48" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA48" s="15"/>
       <c r="AB48" s="15"/>
@@ -6737,16 +6685,16 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J50" s="41" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K50" s="41">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L50" s="134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="41">
         <v>50</v>
@@ -6757,10 +6705,18 @@
       <c r="O50" s="134">
         <v>10</v>
       </c>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="97"/>
+      <c r="P50" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q50" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R50" s="15">
+        <v>25</v>
+      </c>
+      <c r="S50" s="97">
+        <v>2</v>
+      </c>
       <c r="T50" s="15" t="s">
         <v>79</v>
       </c>
@@ -6779,14 +6735,12 @@
       <c r="Y50" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="Z50" s="15" t="s">
-        <v>81</v>
-      </c>
+      <c r="Z50" s="15"/>
       <c r="AA50" s="15"/>
       <c r="AB50" s="15"/>
       <c r="AC50" s="15"/>
       <c r="AD50" s="97" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AE50" s="15"/>
       <c r="AF50" s="15"/>
@@ -6799,7 +6753,7 @@
       <c r="AK50" s="18"/>
       <c r="AL50" s="108"/>
       <c r="AM50" s="84" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AN50" s="19">
         <v>0</v>
@@ -6837,10 +6791,18 @@
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
       <c r="O51" s="131"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="97"/>
+      <c r="P51" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q51" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R51" s="15">
+        <v>50</v>
+      </c>
+      <c r="S51" s="97">
+        <v>2</v>
+      </c>
       <c r="T51" s="69"/>
       <c r="U51" s="69"/>
       <c r="V51" s="69"/>
@@ -6874,26 +6836,43 @@
     <row r="52" spans="1:48">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="131"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="131"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="97"/>
       <c r="T52" s="15" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="U52" s="15">
         <v>1</v>
       </c>
       <c r="V52" s="15">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="W52" s="15" t="s">
         <v>2</v>
       </c>
       <c r="X52" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Y52" s="15" t="s">
         <v>88</v>
       </c>
       <c r="Z52" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
@@ -6904,16 +6883,26 @@
       <c r="AE52" s="15"/>
       <c r="AF52" s="15"/>
       <c r="AG52" s="15"/>
-      <c r="AH52" s="16"/>
-      <c r="AI52" s="16"/>
+      <c r="AH52" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI52" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AJ52" s="16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK52" s="16"/>
       <c r="AL52" s="110"/>
-      <c r="AM52" s="84"/>
-      <c r="AN52" s="19"/>
-      <c r="AO52" s="120"/>
+      <c r="AM52" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN52" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="120">
+        <v>50</v>
+      </c>
       <c r="AP52" s="16" t="b">
         <v>0</v>
       </c>
@@ -6945,175 +6934,69 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="133"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="133"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="102"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="56"/>
-      <c r="Z53" s="56"/>
-      <c r="AA53" s="56"/>
-      <c r="AB53" s="56"/>
-      <c r="AC53" s="56"/>
-      <c r="AD53" s="102"/>
-      <c r="AE53" s="56"/>
-      <c r="AF53" s="56"/>
-      <c r="AG53" s="56"/>
-      <c r="AH53" s="57"/>
-      <c r="AI53" s="57"/>
-      <c r="AJ53" s="57"/>
-      <c r="AK53" s="57"/>
-      <c r="AL53" s="112"/>
-      <c r="AM53" s="85"/>
-      <c r="AN53" s="58"/>
-      <c r="AO53" s="121"/>
-      <c r="AP53" s="57"/>
-      <c r="AQ53" s="57"/>
-      <c r="AR53" s="112"/>
-      <c r="AS53" s="78"/>
-      <c r="AT53" s="58"/>
-      <c r="AU53" s="56"/>
-      <c r="AV53" s="56"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="131"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="131"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="97"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="15"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="97"/>
+      <c r="AE53" s="15"/>
+      <c r="AF53" s="15"/>
+      <c r="AG53" s="15"/>
+      <c r="AH53" s="15"/>
+      <c r="AI53" s="15"/>
+      <c r="AJ53" s="15"/>
+      <c r="AK53" s="15"/>
+      <c r="AL53" s="97"/>
+      <c r="AM53" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN53" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO53" s="120">
+        <v>50</v>
+      </c>
+      <c r="AP53" s="16"/>
+      <c r="AQ53" s="16"/>
+      <c r="AR53" s="110"/>
+      <c r="AS53" s="76"/>
+      <c r="AT53" s="19"/>
+      <c r="AU53" s="15"/>
+      <c r="AV53" s="15"/>
     </row>
     <row r="54" spans="1:48">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="J54" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="K54" s="41">
-        <v>20</v>
-      </c>
-      <c r="L54" s="134">
-        <v>1</v>
-      </c>
-      <c r="M54" s="41">
-        <v>50</v>
-      </c>
-      <c r="N54" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="O54" s="134">
-        <v>10</v>
-      </c>
-      <c r="P54" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q54" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R54" s="15">
-        <v>25</v>
-      </c>
-      <c r="S54" s="97">
-        <v>2</v>
-      </c>
-      <c r="T54" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="U54" s="15">
-        <v>1</v>
-      </c>
-      <c r="V54" s="15">
-        <v>0</v>
-      </c>
-      <c r="W54" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="X54" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y54" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z54" s="15"/>
-      <c r="AA54" s="15"/>
-      <c r="AB54" s="15"/>
-      <c r="AC54" s="15"/>
-      <c r="AD54" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE54" s="15"/>
-      <c r="AF54" s="15"/>
-      <c r="AG54" s="15"/>
-      <c r="AH54" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI54" s="18"/>
-      <c r="AJ54" s="18"/>
-      <c r="AK54" s="18"/>
-      <c r="AL54" s="108"/>
       <c r="AM54" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN54" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO54" s="120">
-        <v>50</v>
-      </c>
-      <c r="AP54" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ54" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR54" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS54" s="76"/>
-      <c r="AT54" s="19"/>
-      <c r="AU54" s="15"/>
-      <c r="AV54" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="AN54" s="20">
+        <v>0</v>
+      </c>
+      <c r="AO54" s="122">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="1:48">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="131"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="131"/>
-      <c r="P55" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q55" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R55" s="15">
-        <v>50</v>
-      </c>
-      <c r="S55" s="97">
-        <v>2</v>
-      </c>
       <c r="T55" s="69"/>
       <c r="U55" s="69"/>
       <c r="V55" s="69"/>
@@ -7147,43 +7030,26 @@
     <row r="56" spans="1:48">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="131"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="131"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="97"/>
       <c r="T56" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U56" s="15">
         <v>1</v>
       </c>
       <c r="V56" s="15">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="W56" s="15" t="s">
         <v>2</v>
       </c>
       <c r="X56" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Y56" s="15" t="s">
         <v>88</v>
       </c>
       <c r="Z56" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA56" s="15"/>
       <c r="AB56" s="15"/>
@@ -7194,26 +7060,16 @@
       <c r="AE56" s="15"/>
       <c r="AF56" s="15"/>
       <c r="AG56" s="15"/>
-      <c r="AH56" s="16" t="b">
+      <c r="AH56" s="16"/>
+      <c r="AI56" s="16"/>
+      <c r="AJ56" s="16" t="b">
         <v>1</v>
-      </c>
-      <c r="AI56" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ56" s="16" t="b">
-        <v>0</v>
       </c>
       <c r="AK56" s="16"/>
       <c r="AL56" s="110"/>
-      <c r="AM56" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN56" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO56" s="120">
-        <v>50</v>
-      </c>
+      <c r="AM56" s="84"/>
+      <c r="AN56" s="19"/>
+      <c r="AO56" s="120"/>
       <c r="AP56" s="16" t="b">
         <v>0</v>
       </c>
@@ -7236,78 +7092,180 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="131"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="131"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="97"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
-      <c r="W57" s="15"/>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="15"/>
-      <c r="Z57" s="15"/>
-      <c r="AA57" s="15"/>
-      <c r="AB57" s="15"/>
-      <c r="AC57" s="15"/>
-      <c r="AD57" s="97"/>
-      <c r="AE57" s="15"/>
-      <c r="AF57" s="15"/>
-      <c r="AG57" s="15"/>
-      <c r="AH57" s="15"/>
-      <c r="AI57" s="15"/>
-      <c r="AJ57" s="15"/>
-      <c r="AK57" s="15"/>
-      <c r="AL57" s="97"/>
-      <c r="AM57" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN57" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO57" s="120">
-        <v>50</v>
-      </c>
-      <c r="AP57" s="16"/>
-      <c r="AQ57" s="16"/>
-      <c r="AR57" s="110"/>
-      <c r="AS57" s="76"/>
-      <c r="AT57" s="19"/>
-      <c r="AU57" s="15"/>
-      <c r="AV57" s="15"/>
+    <row r="57" spans="1:48" ht="12" customHeight="1">
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="129"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="129"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="96"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="59"/>
+      <c r="Z57" s="59"/>
+      <c r="AA57" s="59"/>
+      <c r="AB57" s="59"/>
+      <c r="AC57" s="59"/>
+      <c r="AD57" s="96"/>
+      <c r="AE57" s="59"/>
+      <c r="AF57" s="59"/>
+      <c r="AG57" s="59"/>
+      <c r="AH57" s="61"/>
+      <c r="AI57" s="61"/>
+      <c r="AJ57" s="61"/>
+      <c r="AK57" s="60"/>
+      <c r="AL57" s="107"/>
+      <c r="AM57" s="81"/>
+      <c r="AN57" s="62"/>
+      <c r="AO57" s="115"/>
+      <c r="AP57" s="61"/>
+      <c r="AQ57" s="61"/>
+      <c r="AR57" s="126"/>
+      <c r="AS57" s="73"/>
+      <c r="AT57" s="62"/>
+      <c r="AU57" s="59"/>
+      <c r="AV57" s="59"/>
     </row>
     <row r="58" spans="1:48">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
-      <c r="AM58" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN58" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO58" s="122">
-        <v>3</v>
-      </c>
+      <c r="C58" s="41"/>
+      <c r="D58" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J58" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K58" s="41">
+        <v>20</v>
+      </c>
+      <c r="L58" s="134">
+        <v>1</v>
+      </c>
+      <c r="M58" s="41">
+        <v>50</v>
+      </c>
+      <c r="N58" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="O58" s="134">
+        <v>10</v>
+      </c>
+      <c r="P58" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="97"/>
+      <c r="T58" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="U58" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="V58" s="15">
+        <v>50</v>
+      </c>
+      <c r="W58" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X58" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y58" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z58" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA58" s="15">
+        <v>20</v>
+      </c>
+      <c r="AB58" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE58" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF58" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG58" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH58" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="18"/>
+      <c r="AJ58" s="18"/>
+      <c r="AK58" s="18"/>
+      <c r="AL58" s="108"/>
+      <c r="AM58" s="86"/>
+      <c r="AN58" s="18"/>
+      <c r="AO58" s="108"/>
+      <c r="AP58" s="18"/>
+      <c r="AQ58" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR58" s="108"/>
+      <c r="AS58" s="74"/>
+      <c r="AT58" s="93"/>
+      <c r="AU58" s="18"/>
+      <c r="AV58" s="18"/>
     </row>
     <row r="59" spans="1:48">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="131"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="131"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="97"/>
       <c r="T59" s="69"/>
       <c r="U59" s="69"/>
       <c r="V59" s="69"/>
@@ -7341,26 +7299,43 @@
     <row r="60" spans="1:48">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
-      <c r="T60" s="15" t="s">
-        <v>102</v>
+      <c r="C60" s="15"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="131"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="131"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="97"/>
+      <c r="T60" s="45" t="s">
+        <v>94</v>
       </c>
       <c r="U60" s="15">
         <v>1</v>
       </c>
       <c r="V60" s="15">
-        <v>7000</v>
+        <v>100</v>
       </c>
       <c r="W60" s="15" t="s">
         <v>2</v>
       </c>
       <c r="X60" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Y60" s="15" t="s">
         <v>88</v>
       </c>
       <c r="Z60" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA60" s="15"/>
       <c r="AB60" s="15"/>
@@ -7371,16 +7346,26 @@
       <c r="AE60" s="15"/>
       <c r="AF60" s="15"/>
       <c r="AG60" s="15"/>
-      <c r="AH60" s="16"/>
-      <c r="AI60" s="16"/>
+      <c r="AH60" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AJ60" s="16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK60" s="16"/>
       <c r="AL60" s="110"/>
-      <c r="AM60" s="84"/>
-      <c r="AN60" s="19"/>
-      <c r="AO60" s="120"/>
+      <c r="AM60" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN60" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO60" s="120">
+        <v>50</v>
+      </c>
       <c r="AP60" s="16" t="b">
         <v>0</v>
       </c>
@@ -7403,165 +7388,81 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:48" ht="12" customHeight="1">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="129"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="129"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="59"/>
-      <c r="S61" s="96"/>
-      <c r="T61" s="59"/>
-      <c r="U61" s="59"/>
-      <c r="V61" s="59"/>
-      <c r="W61" s="59"/>
-      <c r="X61" s="59"/>
-      <c r="Y61" s="59"/>
-      <c r="Z61" s="59"/>
-      <c r="AA61" s="59"/>
-      <c r="AB61" s="59"/>
-      <c r="AC61" s="59"/>
-      <c r="AD61" s="96"/>
-      <c r="AE61" s="59"/>
-      <c r="AF61" s="59"/>
-      <c r="AG61" s="59"/>
-      <c r="AH61" s="61"/>
-      <c r="AI61" s="61"/>
-      <c r="AJ61" s="61"/>
-      <c r="AK61" s="60"/>
-      <c r="AL61" s="107"/>
-      <c r="AM61" s="81"/>
-      <c r="AN61" s="62"/>
-      <c r="AO61" s="115"/>
-      <c r="AP61" s="61"/>
-      <c r="AQ61" s="61"/>
-      <c r="AR61" s="126"/>
-      <c r="AS61" s="73"/>
-      <c r="AT61" s="62"/>
-      <c r="AU61" s="59"/>
-      <c r="AV61" s="59"/>
+    <row r="61" spans="1:48">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="131"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="131"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="97"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="15"/>
+      <c r="AA61" s="15"/>
+      <c r="AB61" s="15"/>
+      <c r="AC61" s="15"/>
+      <c r="AD61" s="97"/>
+      <c r="AE61" s="15"/>
+      <c r="AF61" s="15"/>
+      <c r="AG61" s="15"/>
+      <c r="AH61" s="15"/>
+      <c r="AI61" s="15"/>
+      <c r="AJ61" s="15"/>
+      <c r="AK61" s="15"/>
+      <c r="AL61" s="97"/>
+      <c r="AM61" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN61" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO61" s="120">
+        <v>50</v>
+      </c>
+      <c r="AP61" s="16"/>
+      <c r="AQ61" s="16"/>
+      <c r="AR61" s="110"/>
+      <c r="AS61" s="76"/>
+      <c r="AT61" s="19"/>
+      <c r="AU61" s="15"/>
+      <c r="AV61" s="15"/>
     </row>
     <row r="62" spans="1:48">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="E62" t="s">
-        <v>111</v>
-      </c>
-      <c r="F62" t="s">
-        <v>95</v>
-      </c>
-      <c r="G62" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="J62" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="K62" s="41">
-        <v>20</v>
-      </c>
-      <c r="L62" s="134">
-        <v>1</v>
-      </c>
-      <c r="M62" s="41">
-        <v>50</v>
-      </c>
-      <c r="N62" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="O62" s="134">
-        <v>10</v>
-      </c>
-      <c r="P62" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="97"/>
-      <c r="T62" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="U62" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="V62" s="15">
-        <v>50</v>
-      </c>
-      <c r="W62" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="X62" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y62" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z62" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA62" s="15">
-        <v>20</v>
-      </c>
-      <c r="AB62" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC62" s="15"/>
-      <c r="AD62" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE62" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF62" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG62" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH62" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI62" s="18"/>
-      <c r="AJ62" s="18"/>
-      <c r="AK62" s="18"/>
-      <c r="AL62" s="108"/>
-      <c r="AM62" s="86"/>
-      <c r="AN62" s="18"/>
-      <c r="AO62" s="108"/>
-      <c r="AP62" s="18"/>
-      <c r="AQ62" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR62" s="108"/>
-      <c r="AS62" s="74"/>
-      <c r="AT62" s="93"/>
-      <c r="AU62" s="18"/>
-      <c r="AV62" s="18"/>
+      <c r="T62" s="45"/>
+      <c r="AM62" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN62" s="20">
+        <v>0</v>
+      </c>
+      <c r="AO62" s="122">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="1:48">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="99"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="97"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -7627,26 +7528,26 @@
       <c r="Q64" s="15"/>
       <c r="R64" s="15"/>
       <c r="S64" s="97"/>
-      <c r="T64" s="45" t="s">
-        <v>98</v>
+      <c r="T64" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="U64" s="15">
         <v>1</v>
       </c>
       <c r="V64" s="15">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W64" s="15" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="X64" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Y64" s="15" t="s">
         <v>88</v>
       </c>
       <c r="Z64" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA64" s="15"/>
       <c r="AB64" s="15"/>
@@ -7657,26 +7558,16 @@
       <c r="AE64" s="15"/>
       <c r="AF64" s="15"/>
       <c r="AG64" s="15"/>
-      <c r="AH64" s="16" t="b">
+      <c r="AH64" s="16"/>
+      <c r="AI64" s="16"/>
+      <c r="AJ64" s="16" t="b">
         <v>1</v>
-      </c>
-      <c r="AI64" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ64" s="16" t="b">
-        <v>0</v>
       </c>
       <c r="AK64" s="16"/>
       <c r="AL64" s="110"/>
-      <c r="AM64" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN64" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO64" s="120">
-        <v>50</v>
-      </c>
+      <c r="AM64" s="84"/>
+      <c r="AN64" s="19"/>
+      <c r="AO64" s="120"/>
       <c r="AP64" s="16" t="b">
         <v>0</v>
       </c>
@@ -7699,81 +7590,165 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:48">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="97"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="131"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="131"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="97"/>
-      <c r="T65" s="45"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="15"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="15"/>
-      <c r="Z65" s="15"/>
-      <c r="AA65" s="15"/>
-      <c r="AB65" s="15"/>
-      <c r="AC65" s="15"/>
-      <c r="AD65" s="97"/>
-      <c r="AE65" s="15"/>
-      <c r="AF65" s="15"/>
-      <c r="AG65" s="15"/>
-      <c r="AH65" s="15"/>
-      <c r="AI65" s="15"/>
-      <c r="AJ65" s="15"/>
-      <c r="AK65" s="15"/>
-      <c r="AL65" s="97"/>
-      <c r="AM65" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN65" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO65" s="120">
-        <v>50</v>
-      </c>
-      <c r="AP65" s="16"/>
-      <c r="AQ65" s="16"/>
-      <c r="AR65" s="110"/>
-      <c r="AS65" s="76"/>
-      <c r="AT65" s="19"/>
-      <c r="AU65" s="15"/>
-      <c r="AV65" s="15"/>
+    <row r="65" spans="1:48" ht="12" customHeight="1">
+      <c r="A65" s="59"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="129"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="59"/>
+      <c r="O65" s="129"/>
+      <c r="P65" s="59"/>
+      <c r="Q65" s="59"/>
+      <c r="R65" s="59"/>
+      <c r="S65" s="96"/>
+      <c r="T65" s="59"/>
+      <c r="U65" s="59"/>
+      <c r="V65" s="59"/>
+      <c r="W65" s="59"/>
+      <c r="X65" s="59"/>
+      <c r="Y65" s="59"/>
+      <c r="Z65" s="59"/>
+      <c r="AA65" s="59"/>
+      <c r="AB65" s="59"/>
+      <c r="AC65" s="59"/>
+      <c r="AD65" s="96"/>
+      <c r="AE65" s="59"/>
+      <c r="AF65" s="59"/>
+      <c r="AG65" s="59"/>
+      <c r="AH65" s="61"/>
+      <c r="AI65" s="61"/>
+      <c r="AJ65" s="61"/>
+      <c r="AK65" s="60"/>
+      <c r="AL65" s="107"/>
+      <c r="AM65" s="81"/>
+      <c r="AN65" s="62"/>
+      <c r="AO65" s="115"/>
+      <c r="AP65" s="61"/>
+      <c r="AQ65" s="61"/>
+      <c r="AR65" s="126"/>
+      <c r="AS65" s="73"/>
+      <c r="AT65" s="62"/>
+      <c r="AU65" s="59"/>
+      <c r="AV65" s="59"/>
     </row>
     <row r="66" spans="1:48">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
-      <c r="T66" s="45"/>
-      <c r="AM66" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN66" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO66" s="122">
-        <v>3</v>
-      </c>
+      <c r="C66" s="41"/>
+      <c r="D66" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" t="s">
+        <v>102</v>
+      </c>
+      <c r="G66" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J66" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K66" s="41">
+        <v>20</v>
+      </c>
+      <c r="L66" s="134">
+        <v>1</v>
+      </c>
+      <c r="M66" s="41">
+        <v>50</v>
+      </c>
+      <c r="N66" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="O66" s="134">
+        <v>10</v>
+      </c>
+      <c r="P66" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="97"/>
+      <c r="T66" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="U66" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="V66" s="15">
+        <v>50</v>
+      </c>
+      <c r="W66" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X66" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y66" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z66" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA66" s="15">
+        <v>20</v>
+      </c>
+      <c r="AB66" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC66" s="15"/>
+      <c r="AD66" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE66" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF66" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG66" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH66" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI66" s="18"/>
+      <c r="AJ66" s="18"/>
+      <c r="AK66" s="18"/>
+      <c r="AL66" s="108"/>
+      <c r="AM66" s="86"/>
+      <c r="AN66" s="18"/>
+      <c r="AO66" s="108"/>
+      <c r="AP66" s="18"/>
+      <c r="AQ66" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR66" s="108"/>
+      <c r="AS66" s="74"/>
+      <c r="AT66" s="93"/>
+      <c r="AU66" s="18"/>
+      <c r="AV66" s="18"/>
     </row>
     <row r="67" spans="1:48">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="97"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="99"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -7785,7 +7760,9 @@
       <c r="M67" s="15"/>
       <c r="N67" s="15"/>
       <c r="O67" s="131"/>
-      <c r="P67" s="15"/>
+      <c r="P67" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="Q67" s="15"/>
       <c r="R67" s="15"/>
       <c r="S67" s="97"/>
@@ -7839,26 +7816,26 @@
       <c r="Q68" s="15"/>
       <c r="R68" s="15"/>
       <c r="S68" s="97"/>
-      <c r="T68" s="15" t="s">
-        <v>102</v>
+      <c r="T68" s="45" t="s">
+        <v>113</v>
       </c>
       <c r="U68" s="15">
         <v>1</v>
       </c>
       <c r="V68" s="15">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W68" s="15" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="X68" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Y68" s="15" t="s">
         <v>88</v>
       </c>
       <c r="Z68" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
@@ -7869,16 +7846,26 @@
       <c r="AE68" s="15"/>
       <c r="AF68" s="15"/>
       <c r="AG68" s="15"/>
-      <c r="AH68" s="16"/>
-      <c r="AI68" s="16"/>
+      <c r="AH68" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AJ68" s="16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK68" s="16"/>
       <c r="AL68" s="110"/>
-      <c r="AM68" s="84"/>
-      <c r="AN68" s="19"/>
-      <c r="AO68" s="120"/>
+      <c r="AM68" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN68" s="80">
+        <v>0</v>
+      </c>
+      <c r="AO68" s="119">
+        <v>50</v>
+      </c>
       <c r="AP68" s="16" t="b">
         <v>0</v>
       </c>
@@ -7901,165 +7888,81 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:48" ht="12" customHeight="1">
-      <c r="A69" s="59"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="96"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="129"/>
-      <c r="M69" s="59"/>
-      <c r="N69" s="59"/>
-      <c r="O69" s="129"/>
-      <c r="P69" s="59"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="59"/>
-      <c r="S69" s="96"/>
-      <c r="T69" s="59"/>
-      <c r="U69" s="59"/>
-      <c r="V69" s="59"/>
-      <c r="W69" s="59"/>
-      <c r="X69" s="59"/>
-      <c r="Y69" s="59"/>
-      <c r="Z69" s="59"/>
-      <c r="AA69" s="59"/>
-      <c r="AB69" s="59"/>
-      <c r="AC69" s="59"/>
-      <c r="AD69" s="96"/>
-      <c r="AE69" s="59"/>
-      <c r="AF69" s="59"/>
-      <c r="AG69" s="59"/>
-      <c r="AH69" s="61"/>
-      <c r="AI69" s="61"/>
-      <c r="AJ69" s="61"/>
-      <c r="AK69" s="60"/>
-      <c r="AL69" s="107"/>
-      <c r="AM69" s="81"/>
-      <c r="AN69" s="62"/>
-      <c r="AO69" s="115"/>
-      <c r="AP69" s="61"/>
-      <c r="AQ69" s="61"/>
-      <c r="AR69" s="126"/>
-      <c r="AS69" s="73"/>
-      <c r="AT69" s="62"/>
-      <c r="AU69" s="59"/>
-      <c r="AV69" s="59"/>
+    <row r="69" spans="1:48">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="131"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="131"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="97"/>
+      <c r="T69" s="45"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="15"/>
+      <c r="AA69" s="15"/>
+      <c r="AB69" s="15"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="97"/>
+      <c r="AE69" s="15"/>
+      <c r="AF69" s="15"/>
+      <c r="AG69" s="15"/>
+      <c r="AH69" s="15"/>
+      <c r="AI69" s="15"/>
+      <c r="AJ69" s="15"/>
+      <c r="AK69" s="15"/>
+      <c r="AL69" s="97"/>
+      <c r="AM69" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN69" s="80">
+        <v>0</v>
+      </c>
+      <c r="AO69" s="119">
+        <v>50</v>
+      </c>
+      <c r="AP69" s="16"/>
+      <c r="AQ69" s="16"/>
+      <c r="AR69" s="110"/>
+      <c r="AS69" s="76"/>
+      <c r="AT69" s="19"/>
+      <c r="AU69" s="15"/>
+      <c r="AV69" s="15"/>
     </row>
     <row r="70" spans="1:48">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="E70" t="s">
-        <v>114</v>
-      </c>
-      <c r="F70" t="s">
-        <v>95</v>
-      </c>
-      <c r="G70" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="J70" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="K70" s="41">
-        <v>20</v>
-      </c>
-      <c r="L70" s="134">
-        <v>1</v>
-      </c>
-      <c r="M70" s="41">
-        <v>50</v>
-      </c>
-      <c r="N70" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="O70" s="134">
-        <v>10</v>
-      </c>
-      <c r="P70" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="97"/>
-      <c r="T70" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="U70" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="V70" s="15">
-        <v>50</v>
-      </c>
-      <c r="W70" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="X70" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y70" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z70" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA70" s="15">
-        <v>20</v>
-      </c>
-      <c r="AB70" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC70" s="15"/>
-      <c r="AD70" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE70" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF70" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG70" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH70" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="18"/>
-      <c r="AJ70" s="18"/>
-      <c r="AK70" s="18"/>
-      <c r="AL70" s="108"/>
-      <c r="AM70" s="86"/>
-      <c r="AN70" s="18"/>
-      <c r="AO70" s="108"/>
-      <c r="AP70" s="18"/>
-      <c r="AQ70" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR70" s="108"/>
-      <c r="AS70" s="74"/>
-      <c r="AT70" s="93"/>
-      <c r="AU70" s="18"/>
-      <c r="AV70" s="18"/>
+      <c r="T70" s="45"/>
+      <c r="AM70" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN70" s="80">
+        <v>0</v>
+      </c>
+      <c r="AO70" s="119">
+        <v>3</v>
+      </c>
     </row>
     <row r="71" spans="1:48">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="99"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="97"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -8071,9 +7974,7 @@
       <c r="M71" s="15"/>
       <c r="N71" s="15"/>
       <c r="O71" s="131"/>
-      <c r="P71" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
       <c r="R71" s="15"/>
       <c r="S71" s="97"/>
@@ -8128,25 +8029,25 @@
       <c r="R72" s="15"/>
       <c r="S72" s="97"/>
       <c r="T72" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U72" s="15">
         <v>1</v>
       </c>
       <c r="V72" s="15">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W72" s="15" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="X72" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Y72" s="15" t="s">
         <v>88</v>
       </c>
       <c r="Z72" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA72" s="15"/>
       <c r="AB72" s="15"/>
@@ -8157,26 +8058,16 @@
       <c r="AE72" s="15"/>
       <c r="AF72" s="15"/>
       <c r="AG72" s="15"/>
-      <c r="AH72" s="16" t="b">
+      <c r="AH72" s="16"/>
+      <c r="AI72" s="16"/>
+      <c r="AJ72" s="16" t="b">
         <v>1</v>
-      </c>
-      <c r="AI72" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ72" s="16" t="b">
-        <v>0</v>
       </c>
       <c r="AK72" s="16"/>
       <c r="AL72" s="110"/>
-      <c r="AM72" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN72" s="80">
-        <v>0</v>
-      </c>
-      <c r="AO72" s="119">
-        <v>50</v>
-      </c>
+      <c r="AM72" s="84"/>
+      <c r="AN72" s="19"/>
+      <c r="AO72" s="120"/>
       <c r="AP72" s="16" t="b">
         <v>0</v>
       </c>
@@ -8200,81 +8091,175 @@
       </c>
     </row>
     <row r="73" spans="1:48">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="97"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="131"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="131"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="97"/>
-      <c r="T73" s="45"/>
-      <c r="U73" s="15"/>
-      <c r="V73" s="15"/>
-      <c r="W73" s="15"/>
-      <c r="X73" s="15"/>
-      <c r="Y73" s="15"/>
-      <c r="Z73" s="15"/>
-      <c r="AA73" s="15"/>
-      <c r="AB73" s="15"/>
-      <c r="AC73" s="15"/>
-      <c r="AD73" s="97"/>
-      <c r="AE73" s="15"/>
-      <c r="AF73" s="15"/>
-      <c r="AG73" s="15"/>
-      <c r="AH73" s="15"/>
-      <c r="AI73" s="15"/>
-      <c r="AJ73" s="15"/>
-      <c r="AK73" s="15"/>
-      <c r="AL73" s="97"/>
-      <c r="AM73" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN73" s="80">
-        <v>0</v>
-      </c>
-      <c r="AO73" s="119">
-        <v>50</v>
-      </c>
-      <c r="AP73" s="16"/>
-      <c r="AQ73" s="16"/>
-      <c r="AR73" s="110"/>
-      <c r="AS73" s="76"/>
-      <c r="AT73" s="19"/>
-      <c r="AU73" s="15"/>
-      <c r="AV73" s="15"/>
+      <c r="A73" s="63"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="100"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="63"/>
+      <c r="L73" s="135"/>
+      <c r="M73" s="63"/>
+      <c r="N73" s="63"/>
+      <c r="O73" s="135"/>
+      <c r="P73" s="63"/>
+      <c r="Q73" s="63"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="100"/>
+      <c r="T73" s="63"/>
+      <c r="U73" s="63"/>
+      <c r="V73" s="63"/>
+      <c r="W73" s="63"/>
+      <c r="X73" s="63"/>
+      <c r="Y73" s="63"/>
+      <c r="Z73" s="63"/>
+      <c r="AA73" s="63"/>
+      <c r="AB73" s="63"/>
+      <c r="AC73" s="63"/>
+      <c r="AD73" s="100"/>
+      <c r="AE73" s="63"/>
+      <c r="AF73" s="63"/>
+      <c r="AG73" s="63"/>
+      <c r="AH73" s="64"/>
+      <c r="AI73" s="64"/>
+      <c r="AJ73" s="64"/>
+      <c r="AK73" s="64"/>
+      <c r="AL73" s="113"/>
+      <c r="AM73" s="87"/>
+      <c r="AN73" s="65"/>
+      <c r="AO73" s="124"/>
+      <c r="AP73" s="64"/>
+      <c r="AQ73" s="64"/>
+      <c r="AR73" s="113"/>
+      <c r="AS73" s="79"/>
+      <c r="AT73" s="65"/>
+      <c r="AU73" s="63"/>
+      <c r="AV73" s="63"/>
     </row>
     <row r="74" spans="1:48">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
-      <c r="T74" s="45"/>
-      <c r="AM74" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN74" s="80">
-        <v>0</v>
-      </c>
-      <c r="AO74" s="119">
-        <v>3</v>
-      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J74" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K74" s="15">
+        <v>10</v>
+      </c>
+      <c r="L74" s="131">
+        <v>10</v>
+      </c>
+      <c r="M74" s="15">
+        <v>10</v>
+      </c>
+      <c r="N74" s="15">
+        <v>10</v>
+      </c>
+      <c r="O74" s="131">
+        <v>10</v>
+      </c>
+      <c r="P74" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="97"/>
+      <c r="T74" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="U74" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="V74" s="15">
+        <v>50</v>
+      </c>
+      <c r="W74" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X74" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y74" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z74" s="15"/>
+      <c r="AA74" s="15"/>
+      <c r="AB74" s="15"/>
+      <c r="AC74" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD74" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE74" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF74" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG74" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH74" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI74" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ74" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK74" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="110"/>
+      <c r="AM74" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN74" s="19">
+        <v>50</v>
+      </c>
+      <c r="AO74" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP74" s="16"/>
+      <c r="AQ74" s="16"/>
+      <c r="AR74" s="110"/>
+      <c r="AS74" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT74" s="19">
+        <v>50</v>
+      </c>
+      <c r="AU74" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV74" s="15"/>
     </row>
     <row r="75" spans="1:48">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
       <c r="D75" s="97"/>
-      <c r="E75" s="15"/>
+      <c r="E75" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -8289,555 +8274,244 @@
       <c r="Q75" s="15"/>
       <c r="R75" s="15"/>
       <c r="S75" s="97"/>
-      <c r="T75" s="69"/>
-      <c r="U75" s="69"/>
-      <c r="V75" s="69"/>
-      <c r="W75" s="69"/>
-      <c r="X75" s="69"/>
-      <c r="Y75" s="69"/>
-      <c r="Z75" s="69"/>
-      <c r="AA75" s="69"/>
-      <c r="AB75" s="69"/>
-      <c r="AC75" s="69"/>
-      <c r="AD75" s="104"/>
-      <c r="AE75" s="69"/>
-      <c r="AF75" s="69"/>
-      <c r="AG75" s="69"/>
-      <c r="AH75" s="70"/>
-      <c r="AI75" s="70"/>
-      <c r="AJ75" s="70"/>
-      <c r="AK75" s="70"/>
-      <c r="AL75" s="109"/>
-      <c r="AM75" s="83"/>
-      <c r="AN75" s="68"/>
-      <c r="AO75" s="117"/>
-      <c r="AP75" s="70"/>
-      <c r="AQ75" s="70"/>
-      <c r="AR75" s="109"/>
-      <c r="AS75" s="75"/>
-      <c r="AT75" s="71"/>
-      <c r="AU75" s="69"/>
-      <c r="AV75" s="69"/>
-    </row>
-    <row r="76" spans="1:48">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="97"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="131"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="131"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="97"/>
-      <c r="T76" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="U76" s="15">
-        <v>1</v>
-      </c>
-      <c r="V76" s="15">
-        <v>200</v>
-      </c>
-      <c r="W76" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="X76" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y76" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z76" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA76" s="15"/>
-      <c r="AB76" s="15"/>
-      <c r="AC76" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD76" s="97"/>
-      <c r="AE76" s="15"/>
-      <c r="AF76" s="15"/>
-      <c r="AG76" s="15"/>
-      <c r="AH76" s="16"/>
-      <c r="AI76" s="16"/>
-      <c r="AJ76" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK76" s="16"/>
-      <c r="AL76" s="110"/>
-      <c r="AM76" s="84"/>
-      <c r="AN76" s="19"/>
-      <c r="AO76" s="120"/>
-      <c r="AP76" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ76" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR76" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS76" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT76" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU76" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV76" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:48">
-      <c r="A77" s="63"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="100"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="63"/>
-      <c r="J77" s="63"/>
-      <c r="K77" s="63"/>
-      <c r="L77" s="135"/>
-      <c r="M77" s="63"/>
-      <c r="N77" s="63"/>
-      <c r="O77" s="135"/>
-      <c r="P77" s="63"/>
-      <c r="Q77" s="63"/>
-      <c r="R77" s="63"/>
-      <c r="S77" s="100"/>
-      <c r="T77" s="63"/>
-      <c r="U77" s="63"/>
-      <c r="V77" s="63"/>
-      <c r="W77" s="63"/>
-      <c r="X77" s="63"/>
-      <c r="Y77" s="63"/>
-      <c r="Z77" s="63"/>
-      <c r="AA77" s="63"/>
-      <c r="AB77" s="63"/>
-      <c r="AC77" s="63"/>
-      <c r="AD77" s="100"/>
-      <c r="AE77" s="63"/>
-      <c r="AF77" s="63"/>
-      <c r="AG77" s="63"/>
-      <c r="AH77" s="64"/>
-      <c r="AI77" s="64"/>
-      <c r="AJ77" s="64"/>
-      <c r="AK77" s="64"/>
-      <c r="AL77" s="113"/>
-      <c r="AM77" s="87"/>
-      <c r="AN77" s="65"/>
-      <c r="AO77" s="124"/>
-      <c r="AP77" s="64"/>
-      <c r="AQ77" s="64"/>
-      <c r="AR77" s="113"/>
-      <c r="AS77" s="79"/>
-      <c r="AT77" s="65"/>
-      <c r="AU77" s="63"/>
-      <c r="AV77" s="63"/>
-    </row>
-    <row r="78" spans="1:48">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="J78" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K78" s="15">
-        <v>10</v>
-      </c>
-      <c r="L78" s="131">
-        <v>10</v>
-      </c>
-      <c r="M78" s="15">
-        <v>10</v>
-      </c>
-      <c r="N78" s="15">
-        <v>10</v>
-      </c>
-      <c r="O78" s="131">
-        <v>10</v>
-      </c>
-      <c r="P78" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="97"/>
-      <c r="T78" s="15" t="s">
+      <c r="T75" s="15"/>
+      <c r="U75" s="15"/>
+      <c r="V75" s="15"/>
+      <c r="W75" s="15"/>
+      <c r="X75" s="15"/>
+      <c r="Y75" s="15"/>
+      <c r="Z75" s="15"/>
+      <c r="AA75" s="15"/>
+      <c r="AB75" s="15"/>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="97"/>
+      <c r="AE75" s="15"/>
+      <c r="AF75" s="15"/>
+      <c r="AG75" s="15"/>
+      <c r="AH75" s="16"/>
+      <c r="AI75" s="16"/>
+      <c r="AJ75" s="16"/>
+      <c r="AK75" s="16"/>
+      <c r="AL75" s="110"/>
+      <c r="AM75" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN75" s="19">
+        <v>170</v>
+      </c>
+      <c r="AO75" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP75" s="16"/>
+      <c r="AQ75" s="16"/>
+      <c r="AR75" s="110"/>
+      <c r="AS75" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT75" s="19">
+        <v>50</v>
+      </c>
+      <c r="AU75" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="U78" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="V78" s="15">
-        <v>50</v>
-      </c>
-      <c r="W78" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X78" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y78" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z78" s="15"/>
-      <c r="AA78" s="15"/>
-      <c r="AB78" s="15"/>
-      <c r="AC78" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD78" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE78" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF78" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG78" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH78" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI78" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ78" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK78" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL78" s="110"/>
-      <c r="AM78" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN78" s="19">
-        <v>50</v>
-      </c>
-      <c r="AO78" s="120" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP78" s="16"/>
-      <c r="AQ78" s="16"/>
-      <c r="AR78" s="110"/>
-      <c r="AS78" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT78" s="19">
-        <v>50</v>
-      </c>
-      <c r="AU78" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV78" s="15"/>
-    </row>
-    <row r="79" spans="1:48">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="131"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="131"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
-      <c r="S79" s="97"/>
-      <c r="T79" s="15"/>
-      <c r="U79" s="15"/>
-      <c r="V79" s="15"/>
-      <c r="W79" s="15"/>
-      <c r="X79" s="15"/>
-      <c r="Y79" s="15"/>
-      <c r="Z79" s="15"/>
-      <c r="AA79" s="15"/>
-      <c r="AB79" s="15"/>
-      <c r="AC79" s="15"/>
-      <c r="AD79" s="97"/>
-      <c r="AE79" s="15"/>
-      <c r="AF79" s="15"/>
-      <c r="AG79" s="15"/>
-      <c r="AH79" s="16"/>
-      <c r="AI79" s="16"/>
-      <c r="AJ79" s="16"/>
-      <c r="AK79" s="16"/>
-      <c r="AL79" s="110"/>
-      <c r="AM79" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN79" s="19">
-        <v>170</v>
-      </c>
-      <c r="AO79" s="120" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP79" s="16"/>
-      <c r="AQ79" s="16"/>
-      <c r="AR79" s="110"/>
-      <c r="AS79" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT79" s="19">
-        <v>50</v>
-      </c>
-      <c r="AU79" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV79" s="15"/>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="95"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="AV75" s="15"/>
+    </row>
+    <row r="80" spans="1:48">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="95"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AM13 B7:B13 Z17:AD17 X16:X17 U16:W16 C23:D23 E22:H23 B71:B74 B16:B23 C18:D20 E17:H19 C7:G12 T42:Y42 T22:AL22 T39:AL39 T18:AL18 T59:AL59 T47:AL47 T43:AL43 T33:AL33 T29:AL29 T75:AL75 T71:AL71 T37:AL37 T67:AL67 AH17:AO17 AA36:AR36 AA50:AR50 AE54:AR54 AA42:AR42 AH27:AO28 AH25:AO25 AM23:AR23 AM19:AR20 AM40:AR40 AM52:AR52 AM60:AR60 AO56:AR57 AM48:AR48 AO44:AR45 AM34:AR34 AM30:AR31 AP22:AV22 AP39:AR39 AP17:AV18 AP51:AV51 AP59:AV59 AP55:AV55 AP47:AV47 AP43:AV43 AP33:AV33 AP25:AV29 AP37:AR37 AS37:AV39 Y16:AV16 AP5:AV10 W80:AV81 Y24:AV24 AM11:AV12 AM15:AV15 AP14:AV14 AM72:AV73 AP71:AV71 AM76:AV76 AP75:AV75 AM64:AV65 AP63:AV63 AM68:AV68 AP67:AV67 P36:Y36 P25:T25 P42:S43 P50:Y50 P54:AC54 P12:S12 I7:O12 P37:S40 P52:S52 P56:S60 P45:S48 P75:S76 P65:S65 P34:S34 P29:S31 P10:AL11 P80:U81 P15:V15 P24:W24 P28:AG28 P27:Y27 P64:AG64 P14:AL14 P26:AL26 P63:AL63 P8:AO9 P77:AV79 P35:AV35 P49:AV49 P53:AV53 P41:AV41 P51:AL51 P55:AL55 P7:AL7 B5:G6 B35:H60 I23:S23 I18:S20 I34:O60 C71:S73 B75:O81 C63:O65 B67:S68 I26:O31 C16:T17 B14:O15 C24:O25 B62:AV62 B70:AV70 I5:AO6 AM38:AR38">
-    <cfRule type="cellIs" dxfId="84" priority="182" operator="equal">
+  <conditionalFormatting sqref="AM13 B7:B13 Z17:AD17 X16:X17 U16:W16 C23:D23 E22:H23 B67:B70 B16:B23 C18:D20 E17:H19 C7:G12 T42:Y42 T22:AL22 T39:AL39 T18:AL18 T55:AL55 T43:AL43 T33:AL33 T29:AL29 T71:AL71 T67:AL67 T37:AL37 T63:AL63 AH17:AO17 AA36:AR36 AA46:AR46 AE50:AR50 AA42:AR42 AH27:AO28 AH25:AO25 AM23:AR23 AM19:AR20 AM40:AR40 AM48:AR48 AM56:AR56 AO52:AR53 AM44:AR44 AM34:AR34 AM30:AR31 AP22:AV22 AP39:AR39 AP17:AV18 AP47:AV47 AP55:AV55 AP51:AV51 AP43:AV43 AP33:AV33 AP25:AV29 AP37:AR37 AS37:AV39 Y16:AV16 AP5:AV10 W76:AV77 Y24:AV24 AM11:AV12 AM15:AV15 AP14:AV14 AM68:AV69 AP67:AV67 AM72:AV72 AP71:AV71 AM60:AV61 AP59:AV59 AM64:AV64 AP63:AV63 P36:Y36 P25:T25 P46:Y46 P50:AC50 P12:S12 I7:O12 P37:S40 P48:S48 P52:S56 P71:S72 P61:S61 P34:S34 P29:S31 P10:AL11 P76:U77 P15:V15 P24:W24 P28:AG28 P27:Y27 P60:AG60 P14:AL14 P26:AL26 P59:AL59 P8:AO9 P73:AV75 P35:AV35 P45:AV45 P49:AV49 P41:AV41 P47:AL47 P51:AL51 P7:AL7 B5:G6 I23:S23 I18:S20 C67:S69 B71:O77 C59:O61 B63:S64 I26:O31 C16:T17 B14:O15 C24:O25 B58:AV58 B66:AV66 I5:AO6 AM38:AR38 P42:S44 B35:H56 I34:O56">
+    <cfRule type="cellIs" dxfId="81" priority="182" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17:V17">
-    <cfRule type="cellIs" dxfId="83" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="180" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD17">
-    <cfRule type="cellIs" dxfId="82" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="178" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE17:AG17">
-    <cfRule type="cellIs" dxfId="81" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="177" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17:Y17">
-    <cfRule type="cellIs" dxfId="80" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="176" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15:AL15">
-    <cfRule type="cellIs" dxfId="79" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="173" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA36:AD36 U35:W35">
-    <cfRule type="cellIs" dxfId="78" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="170" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U36:V36">
-    <cfRule type="cellIs" dxfId="77" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="169" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD36">
-    <cfRule type="cellIs" dxfId="76" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="167" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE36:AG36">
-    <cfRule type="cellIs" dxfId="75" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="166" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36:Y36">
-    <cfRule type="cellIs" dxfId="74" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="165" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS36:AV36">
-    <cfRule type="cellIs" dxfId="73" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="160" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS19:AV20 AM21 T19:V19 X19:AL19">
-    <cfRule type="cellIs" dxfId="72" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="150" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA50:AD50">
-    <cfRule type="cellIs" dxfId="71" priority="132" operator="equal">
+  <conditionalFormatting sqref="AA46:AD46">
+    <cfRule type="cellIs" dxfId="68" priority="132" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS23:AV23 U23:AL23">
-    <cfRule type="cellIs" dxfId="70" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="147" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS40:AV40 U40:AL40">
-    <cfRule type="cellIs" dxfId="69" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="139" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN56:AN57">
-    <cfRule type="cellIs" dxfId="68" priority="98" operator="equal">
+  <conditionalFormatting sqref="AN52:AN53">
+    <cfRule type="cellIs" dxfId="65" priority="98" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z54:AC54">
-    <cfRule type="cellIs" dxfId="67" priority="114" operator="equal">
+  <conditionalFormatting sqref="Z50:AC50">
+    <cfRule type="cellIs" dxfId="64" priority="114" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U46:V46">
+    <cfRule type="cellIs" dxfId="63" priority="131" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD46">
+    <cfRule type="cellIs" dxfId="62" priority="130" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE46:AG46">
+    <cfRule type="cellIs" dxfId="61" priority="129" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W46:Y46">
+    <cfRule type="cellIs" dxfId="60" priority="128" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS46:AV46">
+    <cfRule type="cellIs" dxfId="59" priority="125" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS48:AV48 U48:AL48">
+    <cfRule type="cellIs" dxfId="58" priority="121" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA42:AD42">
+    <cfRule type="cellIs" dxfId="57" priority="96" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U50:V50">
-    <cfRule type="cellIs" dxfId="66" priority="131" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD50">
-    <cfRule type="cellIs" dxfId="65" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="113" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE50:AG50">
-    <cfRule type="cellIs" dxfId="64" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="111" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W50:Y50">
-    <cfRule type="cellIs" dxfId="63" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="110" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS50:AV50">
-    <cfRule type="cellIs" dxfId="62" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="107" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS52:AV52 U52:AL52">
-    <cfRule type="cellIs" dxfId="61" priority="121" operator="equal">
+  <conditionalFormatting sqref="AS52:AV53 AM54 T52:AL52">
+    <cfRule type="cellIs" dxfId="52" priority="106" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN44:AN45">
-    <cfRule type="cellIs" dxfId="60" priority="80" operator="equal">
+  <conditionalFormatting sqref="AM52:AM53">
+    <cfRule type="cellIs" dxfId="51" priority="105" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA42:AD42">
-    <cfRule type="cellIs" dxfId="59" priority="96" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U54:V54">
-    <cfRule type="cellIs" dxfId="58" priority="113" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE54:AG54">
-    <cfRule type="cellIs" dxfId="57" priority="111" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W54:Y54">
-    <cfRule type="cellIs" dxfId="56" priority="110" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS54:AV54">
-    <cfRule type="cellIs" dxfId="55" priority="107" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS56:AV57 AM58 T56:AL56">
-    <cfRule type="cellIs" dxfId="54" priority="106" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM56:AM57">
-    <cfRule type="cellIs" dxfId="53" priority="105" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS60:AV60 U60:AL60">
-    <cfRule type="cellIs" dxfId="52" priority="103" operator="equal">
+  <conditionalFormatting sqref="AS56:AV56 U56:AL56">
+    <cfRule type="cellIs" dxfId="50" priority="103" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42:V42">
-    <cfRule type="cellIs" dxfId="51" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="95" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD42">
-    <cfRule type="cellIs" dxfId="50" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="94" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE42:AG42">
-    <cfRule type="cellIs" dxfId="49" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="93" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42:Y42">
-    <cfRule type="cellIs" dxfId="48" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="92" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42:AV42">
-    <cfRule type="cellIs" dxfId="47" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="89" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS44:AV45 AM46 T44:AL44">
-    <cfRule type="cellIs" dxfId="46" priority="88" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM44:AM45">
-    <cfRule type="cellIs" dxfId="45" priority="87" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS48:AV48 U48:AL48">
+  <conditionalFormatting sqref="AS44:AV44 U44:AL44">
     <cfRule type="cellIs" dxfId="44" priority="85" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -8877,12 +8551,12 @@
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM74 U72:AL72">
+  <conditionalFormatting sqref="AM70 U68:AL68">
     <cfRule type="cellIs" dxfId="36" priority="55" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U76:AL76">
+  <conditionalFormatting sqref="U72:AL72">
     <cfRule type="cellIs" dxfId="35" priority="52" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -8897,7 +8571,7 @@
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z50">
+  <conditionalFormatting sqref="Z46">
     <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -8922,12 +8596,12 @@
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD54">
+  <conditionalFormatting sqref="AD50">
     <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD54">
+  <conditionalFormatting sqref="AD50">
     <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -8947,22 +8621,22 @@
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T48">
+  <conditionalFormatting sqref="T44">
     <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T52">
+  <conditionalFormatting sqref="T48">
     <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T60">
+  <conditionalFormatting sqref="T56">
     <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T76">
+  <conditionalFormatting sqref="T72">
     <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -8992,27 +8666,27 @@
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B66">
+  <conditionalFormatting sqref="B59:B62">
     <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM66 AH64:AL64">
+  <conditionalFormatting sqref="AM62 AH60:AL60">
     <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U68:AL68">
+  <conditionalFormatting sqref="U64:AL64">
     <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T68">
+  <conditionalFormatting sqref="T64">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T72">
+  <conditionalFormatting sqref="T68">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -9046,39 +8720,39 @@
     <row r="2" spans="1:20">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="S2" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="T2" s="27" t="s">
         <v>126</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
         <v>129</v>
-      </c>
-      <c r="C3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" t="s">
-        <v>131</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:20">
       <c r="B4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -9086,7 +8760,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="B5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="30" t="s">
@@ -9097,7 +8771,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="B6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
@@ -9108,72 +8782,72 @@
     </row>
     <row r="7" spans="1:20">
       <c r="B7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="T8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="T9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="T10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="T11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20">
       <c r="T13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20">
       <c r="T15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="T16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="17:20">
       <c r="T17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="17:20">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -9182,85 +8856,85 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T19" s="31"/>
     </row>
     <row r="20" spans="17:20">
       <c r="T20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="17:20">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="17:20">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="17:20">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="17:20">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="17:20">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="17:20">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="17:20">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="17:20">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="17:20">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="17:20">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="17:20">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="17:20">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -9269,34 +8943,34 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T33" s="31"/>
     </row>
     <row r="34" spans="17:20">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="17:20">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T35" s="31"/>
     </row>
     <row r="36" spans="17:20">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="17:20">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -9305,28 +8979,28 @@
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T38" s="31"/>
     </row>
     <row r="39" spans="17:20">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="17:20">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T40" s="31"/>
     </row>
     <row r="41" spans="17:20">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -9367,7 +9041,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -9393,12 +9067,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -9438,10 +9112,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -9450,12 +9124,12 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -9467,18 +9141,18 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -9486,7 +9160,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -9512,7 +9186,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
         <v>78</v>
@@ -9523,7 +9197,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E10" t="s">
         <v>78</v>
@@ -9534,7 +9208,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -9542,7 +9216,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -9563,13 +9237,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -9577,22 +9251,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -9604,15 +9278,15 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -9624,10 +9298,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -9653,10 +9327,10 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -9670,7 +9344,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -9695,10 +9369,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9707,53 +9381,53 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -9816,7 +9490,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
@@ -9828,7 +9502,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="52"/>
       <c r="AA1" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
@@ -9841,7 +9515,7 @@
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1">
       <c r="C2" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -9882,7 +9556,7 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="49"/>
       <c r="AE2" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
@@ -9897,7 +9571,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>57</v>
@@ -9952,7 +9626,7 @@
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>26</v>
@@ -9972,7 +9646,7 @@
       </c>
       <c r="AD3" s="49"/>
       <c r="AE3" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>75</v>
@@ -9990,7 +9664,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>79</v>
@@ -10017,7 +9691,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>82</v>
@@ -10035,10 +9709,10 @@
         <v>1</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
@@ -10186,7 +9860,7 @@
     </row>
     <row r="9" spans="1:35" s="15" customFormat="1">
       <c r="C9" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E9" s="15">
         <v>1</v>
@@ -10198,10 +9872,10 @@
         <v>69</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>6</v>
@@ -10333,7 +10007,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>79</v>
@@ -10345,7 +10019,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>79</v>
@@ -10372,51 +10046,51 @@
         <v>1</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="50"/>
       <c r="W15" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Z15" s="50"/>
       <c r="AA15" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AD15" s="50"/>
       <c r="AE15" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AI15" s="47"/>
     </row>
     <row r="16" spans="1:35" s="15" customFormat="1">
       <c r="C16" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E16" s="15">
         <v>0.9</v>
@@ -10463,16 +10137,16 @@
       </c>
       <c r="AD16" s="50"/>
       <c r="AE16" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AI16" s="47"/>
     </row>
@@ -10507,7 +10181,7 @@
     </row>
     <row r="18" spans="1:35" s="15" customFormat="1">
       <c r="C18" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -10519,7 +10193,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="16" t="b">
         <v>1</v>
@@ -10619,7 +10293,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -10631,36 +10305,36 @@
         <v>2</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S21" s="15" t="b">
         <v>1</v>
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Z21" s="47"/>
       <c r="AA21" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AB21" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AD21" s="47"/>
       <c r="AE21"/>
@@ -10687,7 +10361,7 @@
     </row>
     <row r="23" spans="1:35" s="15" customFormat="1">
       <c r="C23" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E23" s="15">
         <v>0.9</v>
@@ -10699,13 +10373,13 @@
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>84</v>
@@ -10741,13 +10415,13 @@
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AD23" s="50"/>
       <c r="AE23" s="16" t="s">
@@ -10757,7 +10431,7 @@
         <v>50</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI23" s="47"/>
     </row>
@@ -10779,13 +10453,13 @@
       </c>
       <c r="Z24" s="53"/>
       <c r="AA24" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AD24" s="50"/>
       <c r="AE24" s="16" t="s">
@@ -10795,7 +10469,7 @@
         <v>50</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI24" s="47"/>
     </row>
@@ -10940,19 +10614,19 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>58</v>
@@ -10966,16 +10640,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
         <v>91</v>
@@ -10989,7 +10663,7 @@
         <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E4" t="s">
         <v>91</v>
@@ -10997,7 +10671,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="C5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -11009,7 +10683,7 @@
         <v>100000</v>
       </c>
       <c r="G5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -11059,19 +10733,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>58</v>
@@ -11079,16 +10753,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E13" t="s">
         <v>91</v>
@@ -11097,7 +10771,7 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -11105,7 +10779,7 @@
         <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
         <v>91</v>
@@ -11116,7 +10790,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="C15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -11130,7 +10804,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="C16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D16">
         <v>26</v>
@@ -11184,226 +10858,226 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C4" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C5" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C6" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C7" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C8" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C9" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C10" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C11" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C12" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C13" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C14" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C15" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C16" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C17" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C18" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C19" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -11424,72 +11098,72 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C22" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C23" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C24" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C25" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C26" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -11502,86 +11176,86 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C28" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C29" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C30" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C31" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C32" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C33" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -11594,72 +11268,72 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C35" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C36" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C37" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C38" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C39" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -11680,16 +11354,16 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C42" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -11702,226 +11376,226 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C44" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C45" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C46" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C47" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C48" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C49" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C50" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C51" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C52" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C53" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C54" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C55" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C56" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C57" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C58" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C59" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -11934,86 +11608,86 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C61" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C62" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C63" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C64" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C65" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C66" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -12034,44 +11708,44 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C69" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C70" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C71" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1949" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B7286B10-D206-4ACE-911C-2D5093702859}"/>
+  <xr:revisionPtr revIDLastSave="1964" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2DF6B453-F960-457F-A376-03248CAF50C6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1196,7 +1196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,8 +1286,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1411,6 +1418,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1457,7 +1470,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1720,6 +1733,21 @@
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -3559,8 +3587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AV80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO46" sqref="AO46"/>
+    <sheetView tabSelected="1" topLeftCell="S14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AQ39" sqref="AQ39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -5887,9 +5915,11 @@
       <c r="AM36" s="84"/>
       <c r="AN36" s="19"/>
       <c r="AO36" s="120"/>
-      <c r="AP36" s="44"/>
-      <c r="AQ36" s="44"/>
-      <c r="AR36" s="106"/>
+      <c r="AP36" s="145"/>
+      <c r="AQ36" s="145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="146"/>
       <c r="AS36" s="76"/>
       <c r="AT36" s="19"/>
       <c r="AU36" s="15"/>
@@ -5935,12 +5965,12 @@
       <c r="AK37" s="70"/>
       <c r="AL37" s="109"/>
       <c r="AM37" s="83"/>
-      <c r="AN37" s="68"/>
-      <c r="AO37" s="117"/>
-      <c r="AP37" s="44"/>
-      <c r="AQ37" s="44"/>
-      <c r="AR37" s="106"/>
-      <c r="AS37" s="75"/>
+      <c r="AN37" s="140"/>
+      <c r="AO37" s="141"/>
+      <c r="AP37" s="142"/>
+      <c r="AQ37" s="142"/>
+      <c r="AR37" s="143"/>
+      <c r="AS37" s="144"/>
       <c r="AT37" s="71"/>
       <c r="AU37" s="69"/>
       <c r="AV37" s="69"/>
@@ -6013,9 +6043,11 @@
       <c r="AM38" s="84"/>
       <c r="AN38" s="19"/>
       <c r="AO38" s="120"/>
-      <c r="AP38" s="44"/>
-      <c r="AQ38" s="44"/>
-      <c r="AR38" s="106"/>
+      <c r="AP38" s="145"/>
+      <c r="AQ38" s="145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR38" s="146"/>
       <c r="AS38" s="74"/>
       <c r="AT38" s="93"/>
       <c r="AU38" s="18"/>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1964" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2DF6B453-F960-457F-A376-03248CAF50C6}"/>
+  <xr:revisionPtr revIDLastSave="1971" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{98D38A49-75BC-4246-A2D5-155A3497D319}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="329">
   <si>
     <t>Cause</t>
   </si>
@@ -457,6 +457,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>max</t>
+  </si>
+  <si>
     <t>ssf_calc</t>
   </si>
   <si>
@@ -473,9 +476,6 @@
   </si>
   <si>
     <t>fm</t>
-  </si>
-  <si>
-    <t>max</t>
   </si>
   <si>
     <t>all</t>
@@ -2849,7 +2849,7 @@
         <v>79</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>289</v>
@@ -3587,8 +3587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AV80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AQ39" sqref="AQ39"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS9" sqref="AS9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -3850,7 +3850,7 @@
       <c r="Y3" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="Z3" s="45" t="s">
         <v>60</v>
       </c>
       <c r="AA3" s="25" t="s">
@@ -4073,8 +4073,8 @@
       <c r="AN5" s="90">
         <v>0</v>
       </c>
-      <c r="AO5" s="116">
-        <v>-20</v>
+      <c r="AO5" s="116" t="s">
+        <v>85</v>
       </c>
       <c r="AP5" s="18"/>
       <c r="AQ5" s="18" t="b">
@@ -4145,8 +4145,8 @@
       <c r="AN6" s="90">
         <v>0</v>
       </c>
-      <c r="AO6" s="116">
-        <v>-10</v>
+      <c r="AO6" s="116" t="s">
+        <v>85</v>
       </c>
       <c r="AP6" s="18"/>
       <c r="AQ6" s="18"/>
@@ -4165,7 +4165,7 @@
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -4233,7 +4233,7 @@
       <c r="R8" s="15"/>
       <c r="S8" s="97"/>
       <c r="T8" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U8" s="42">
         <v>0.9</v>
@@ -4245,18 +4245,18 @@
         <v>2</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y8" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z8" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD8" s="97"/>
       <c r="AE8" s="15"/>
@@ -4280,7 +4280,7 @@
         <v>50</v>
       </c>
       <c r="AO8" s="118" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AP8" s="16" t="b">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>50</v>
       </c>
       <c r="AO9" s="118" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AP9" s="16"/>
       <c r="AQ9" s="16"/>
@@ -4446,7 +4446,7 @@
         <v>95</v>
       </c>
       <c r="Y11" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z11" s="15" t="s">
         <v>96</v>
@@ -4652,7 +4652,7 @@
         <v>95</v>
       </c>
       <c r="Y15" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z15" s="15" t="s">
         <v>96</v>
@@ -4928,7 +4928,7 @@
         <v>95</v>
       </c>
       <c r="Y19" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z19" s="15" t="s">
         <v>96</v>
@@ -5105,7 +5105,7 @@
         <v>95</v>
       </c>
       <c r="Y23" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z23" s="15" t="s">
         <v>96</v>
@@ -5380,10 +5380,10 @@
         <v>2</v>
       </c>
       <c r="X27" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y27" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z27" s="15" t="s">
         <v>81</v>
@@ -5413,7 +5413,7 @@
         <v>50</v>
       </c>
       <c r="AO27" s="123" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AP27" s="16" t="b">
         <v>0</v>
@@ -5474,7 +5474,7 @@
         <v>50</v>
       </c>
       <c r="AO28" s="123" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AP28" s="16"/>
       <c r="AQ28" s="16"/>
@@ -5568,7 +5568,7 @@
         <v>95</v>
       </c>
       <c r="Y30" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z30" s="15" t="s">
         <v>96</v>
@@ -5745,7 +5745,7 @@
         <v>95</v>
       </c>
       <c r="Y34" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z34" s="15" t="s">
         <v>96</v>
@@ -6122,7 +6122,7 @@
         <v>95</v>
       </c>
       <c r="Y40" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z40" s="15" t="s">
         <v>96</v>
@@ -6358,7 +6358,7 @@
         <v>95</v>
       </c>
       <c r="Y44" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z44" s="15" t="s">
         <v>96</v>
@@ -6611,7 +6611,7 @@
         <v>95</v>
       </c>
       <c r="Y48" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z48" s="15" t="s">
         <v>96</v>
@@ -6901,7 +6901,7 @@
         <v>95</v>
       </c>
       <c r="Y52" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z52" s="15" t="s">
         <v>96</v>
@@ -7078,7 +7078,7 @@
         <v>95</v>
       </c>
       <c r="Y56" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z56" s="15" t="s">
         <v>96</v>
@@ -7364,7 +7364,7 @@
         <v>95</v>
       </c>
       <c r="Y60" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z60" s="15" t="s">
         <v>96</v>
@@ -7576,7 +7576,7 @@
         <v>95</v>
       </c>
       <c r="Y64" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z64" s="15" t="s">
         <v>96</v>
@@ -7864,7 +7864,7 @@
         <v>95</v>
       </c>
       <c r="Y68" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z68" s="15" t="s">
         <v>96</v>
@@ -8076,7 +8076,7 @@
         <v>95</v>
       </c>
       <c r="Y72" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z72" s="15" t="s">
         <v>96</v>
@@ -8228,7 +8228,7 @@
         <v>120</v>
       </c>
       <c r="Y74" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z74" s="15"/>
       <c r="AA74" s="15"/>
@@ -8268,7 +8268,7 @@
         <v>50</v>
       </c>
       <c r="AO74" s="120" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AP74" s="16"/>
       <c r="AQ74" s="16"/>
@@ -8332,7 +8332,7 @@
         <v>170</v>
       </c>
       <c r="AO75" s="120" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AP75" s="16"/>
       <c r="AQ75" s="16"/>
@@ -9786,7 +9786,7 @@
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1">
       <c r="C6" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" s="15">
         <v>0.9</v>
@@ -9798,13 +9798,13 @@
         <v>69</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q6" s="16" t="b">
         <v>1</v>
@@ -9825,7 +9825,7 @@
         <v>50</v>
       </c>
       <c r="Y6" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Z6" s="53"/>
       <c r="AA6" s="16" t="b">
@@ -9858,7 +9858,7 @@
         <v>50</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Z7" s="53"/>
       <c r="AA7" s="16" t="b">
@@ -10134,7 +10134,7 @@
         <v>54</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="16" t="b">
         <v>1</v>
@@ -10155,7 +10155,7 @@
         <v>50</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Z16" s="53"/>
       <c r="AA16" s="16" t="b">
@@ -10196,7 +10196,7 @@
         <v>50</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Z17" s="53"/>
       <c r="AA17" s="16" t="b">
@@ -10443,7 +10443,7 @@
         <v>50</v>
       </c>
       <c r="Y23" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="16" t="s">
@@ -10481,7 +10481,7 @@
         <v>170</v>
       </c>
       <c r="Y24" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Z24" s="53"/>
       <c r="AA24" s="16" t="s">
@@ -10684,7 +10684,7 @@
         <v>206</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -10692,13 +10692,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="C4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
         <v>206</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -10757,7 +10757,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F9">
         <v>3500</v>
@@ -10797,7 +10797,7 @@
         <v>206</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -10808,13 +10808,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="C14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
         <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F14">
         <v>36</v>
@@ -10842,7 +10842,7 @@
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F16">
         <v>7000</v>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23422"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1971" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{98D38A49-75BC-4246-A2D5-155A3497D319}"/>
+  <xr:revisionPtr revIDLastSave="1974" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE608526-B061-4A98-B1F9-F6AAC18566BF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="330">
   <si>
     <t>Cause</t>
   </si>
@@ -391,397 +391,400 @@
     <t>t_interval</t>
   </si>
   <si>
+    <t>system_impact</t>
+  </si>
+  <si>
+    <t>task_group_name</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>maint</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>initiation</t>
+  </si>
+  <si>
+    <t>detection</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>has_strut</t>
+  </si>
+  <si>
+    <t>value?</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>axis</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>inspection</t>
+  </si>
+  <si>
+    <t>Inspection</t>
+  </si>
+  <si>
+    <t>as_bad_as_old</t>
+  </si>
+  <si>
+    <t>level_3_inspection</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>ssf_calc</t>
+  </si>
+  <si>
+    <t>termite_powder</t>
+  </si>
+  <si>
+    <t>repair</t>
+  </si>
+  <si>
+    <t>ConditionTask</t>
+  </si>
+  <si>
+    <t>grp</t>
+  </si>
+  <si>
+    <t>fm</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>reduction_factor</t>
+  </si>
+  <si>
+    <t>CAT3/4 replacement</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>as_good_as_new</t>
+  </si>
+  <si>
+    <t>CAT1/2 replacement</t>
+  </si>
+  <si>
+    <t>fungal decay _ external</t>
+  </si>
+  <si>
+    <t>fungal decay _ internal</t>
+  </si>
+  <si>
+    <t>pole_saver_rod</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>assisted_failures</t>
+  </si>
+  <si>
+    <t>fire_damage</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>weathering</t>
+  </si>
+  <si>
+    <t>pole footing</t>
+  </si>
+  <si>
+    <t>leaning</t>
+  </si>
+  <si>
+    <t>any reason</t>
+  </si>
+  <si>
+    <t>lean_angle</t>
+  </si>
+  <si>
+    <t>pole_cap</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>Pole cap replacement</t>
+  </si>
+  <si>
+    <t>Pole replacement</t>
+  </si>
+  <si>
+    <t>crossarm</t>
+  </si>
+  <si>
+    <t>cross_sectional_area</t>
+  </si>
+  <si>
+    <t>Fix_this_error</t>
+  </si>
+  <si>
+    <t>add_no_condition_method</t>
+  </si>
+  <si>
+    <t>strut</t>
+  </si>
+  <si>
+    <t>modify</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>crack_length</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sub System</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Maintainable Item</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Pole</t>
+  </si>
+  <si>
+    <t>Pole Stay</t>
+  </si>
+  <si>
+    <t>Pole Cap</t>
+  </si>
+  <si>
+    <t>Pole Footing</t>
+  </si>
+  <si>
+    <t>pole (common)</t>
+  </si>
+  <si>
+    <t>pole (timber)</t>
+  </si>
+  <si>
+    <t>pole (concrete)</t>
+  </si>
+  <si>
+    <t>pole (steel)</t>
+  </si>
+  <si>
+    <t>pole (composite)</t>
+  </si>
+  <si>
+    <t>pole fixtures</t>
+  </si>
+  <si>
+    <t>attachments</t>
+  </si>
+  <si>
+    <t>pole cap</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>pole stay</t>
+  </si>
+  <si>
+    <t>pole attachment</t>
+  </si>
+  <si>
+    <t>top attachment point</t>
+  </si>
+  <si>
+    <t>thimble</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>dead end</t>
+  </si>
+  <si>
+    <t>insulator</t>
+  </si>
+  <si>
+    <t>batten</t>
+  </si>
+  <si>
+    <t>sight guard</t>
+  </si>
+  <si>
+    <t>anchor rod</t>
+  </si>
+  <si>
+    <t>footing</t>
+  </si>
+  <si>
+    <t>pole modification</t>
+  </si>
+  <si>
+    <t>reinforcement</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>acroprop</t>
+  </si>
+  <si>
+    <t>pole accessories</t>
+  </si>
+  <si>
+    <t>fauna protection</t>
+  </si>
+  <si>
+    <t>stay protection</t>
+  </si>
+  <si>
+    <t>cattle guard post</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (termites)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (lightning)</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (impact)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fire damage)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fungal decay - internal)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fungal decay - external)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (weathering)</t>
+  </si>
+  <si>
+    <t>[pole foundation] due to (unknown)</t>
+  </si>
+  <si>
+    <t>[pole cap] due to (unknown)</t>
+  </si>
+  <si>
+    <t>pole_cap_present</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (unknown)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (impact)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (corrosion)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (bed log)</t>
+  </si>
+  <si>
+    <t>[pole top equipment] due to {cracking}</t>
+  </si>
+  <si>
+    <t>cracking_present</t>
+  </si>
+  <si>
+    <t>simple_safety_factor</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>ssf</t>
+  </si>
+  <si>
+    <t>actual_safety_factor</t>
+  </si>
+  <si>
+    <t>dsf_calc</t>
+  </si>
+  <si>
+    <t>asf</t>
+  </si>
+  <si>
+    <t>Footing</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Pole cap</t>
+  </si>
+  <si>
+    <t>top_of_pole_stregnth</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>task_name</t>
+  </si>
+  <si>
     <t>Level of Failure</t>
-  </si>
-  <si>
-    <t>task_group_name</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>maint</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>initiation</t>
-  </si>
-  <si>
-    <t>detection</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>has_strut</t>
-  </si>
-  <si>
-    <t>value?</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>upper</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>axis</t>
-  </si>
-  <si>
-    <t>linear</t>
-  </si>
-  <si>
-    <t>inspection</t>
-  </si>
-  <si>
-    <t>Inspection</t>
-  </si>
-  <si>
-    <t>as_bad_as_old</t>
-  </si>
-  <si>
-    <t>level_3_inspection</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>ssf_calc</t>
-  </si>
-  <si>
-    <t>termite_powder</t>
-  </si>
-  <si>
-    <t>repair</t>
-  </si>
-  <si>
-    <t>ConditionTask</t>
-  </si>
-  <si>
-    <t>grp</t>
-  </si>
-  <si>
-    <t>fm</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>reduction_factor</t>
-  </si>
-  <si>
-    <t>CAT3/4 replacement</t>
-  </si>
-  <si>
-    <t>replace</t>
-  </si>
-  <si>
-    <t>as_good_as_new</t>
-  </si>
-  <si>
-    <t>CAT1/2 replacement</t>
-  </si>
-  <si>
-    <t>fungal decay _ external</t>
-  </si>
-  <si>
-    <t>fungal decay _ internal</t>
-  </si>
-  <si>
-    <t>pole_saver_rod</t>
-  </si>
-  <si>
-    <t>lightning</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>assisted_failures</t>
-  </si>
-  <si>
-    <t>fire_damage</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>weathering</t>
-  </si>
-  <si>
-    <t>pole footing</t>
-  </si>
-  <si>
-    <t>leaning</t>
-  </si>
-  <si>
-    <t>any reason</t>
-  </si>
-  <si>
-    <t>lean_angle</t>
-  </si>
-  <si>
-    <t>pole_cap</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>Pole cap replacement</t>
-  </si>
-  <si>
-    <t>Pole replacement</t>
-  </si>
-  <si>
-    <t>crossarm</t>
-  </si>
-  <si>
-    <t>cross_sectional_area</t>
-  </si>
-  <si>
-    <t>Fix_this_error</t>
-  </si>
-  <si>
-    <t>add_no_condition_method</t>
-  </si>
-  <si>
-    <t>strut</t>
-  </si>
-  <si>
-    <t>modify</t>
-  </si>
-  <si>
-    <t>addition</t>
-  </si>
-  <si>
-    <t>crack_length</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Sub System</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Maintainable Item</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Pole</t>
-  </si>
-  <si>
-    <t>Pole Stay</t>
-  </si>
-  <si>
-    <t>Pole Cap</t>
-  </si>
-  <si>
-    <t>Pole Footing</t>
-  </si>
-  <si>
-    <t>pole (common)</t>
-  </si>
-  <si>
-    <t>pole (timber)</t>
-  </si>
-  <si>
-    <t>pole (concrete)</t>
-  </si>
-  <si>
-    <t>pole (steel)</t>
-  </si>
-  <si>
-    <t>pole (composite)</t>
-  </si>
-  <si>
-    <t>pole fixtures</t>
-  </si>
-  <si>
-    <t>attachments</t>
-  </si>
-  <si>
-    <t>pole cap</t>
-  </si>
-  <si>
-    <t>steps</t>
-  </si>
-  <si>
-    <t>pole stay</t>
-  </si>
-  <si>
-    <t>pole attachment</t>
-  </si>
-  <si>
-    <t>top attachment point</t>
-  </si>
-  <si>
-    <t>thimble</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>dead end</t>
-  </si>
-  <si>
-    <t>insulator</t>
-  </si>
-  <si>
-    <t>batten</t>
-  </si>
-  <si>
-    <t>sight guard</t>
-  </si>
-  <si>
-    <t>anchor rod</t>
-  </si>
-  <si>
-    <t>footing</t>
-  </si>
-  <si>
-    <t>pole modification</t>
-  </si>
-  <si>
-    <t>reinforcement</t>
-  </si>
-  <si>
-    <t>nail</t>
-  </si>
-  <si>
-    <t>acroprop</t>
-  </si>
-  <si>
-    <t>pole accessories</t>
-  </si>
-  <si>
-    <t>fauna protection</t>
-  </si>
-  <si>
-    <t>stay protection</t>
-  </si>
-  <si>
-    <t>cattle guard post</t>
-  </si>
-  <si>
-    <t>Indicators</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (termites)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (lightning)</t>
-  </si>
-  <si>
-    <t>nil</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (impact)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fire damage)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fungal decay - internal)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fungal decay - external)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (weathering)</t>
-  </si>
-  <si>
-    <t>[pole foundation] due to (unknown)</t>
-  </si>
-  <si>
-    <t>[pole cap] due to (unknown)</t>
-  </si>
-  <si>
-    <t>pole_cap_present</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (unknown)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (impact)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (corrosion)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (bed log)</t>
-  </si>
-  <si>
-    <t>[pole top equipment] due to {cracking}</t>
-  </si>
-  <si>
-    <t>cracking_present</t>
-  </si>
-  <si>
-    <t>simple_safety_factor</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>ssf</t>
-  </si>
-  <si>
-    <t>actual_safety_factor</t>
-  </si>
-  <si>
-    <t>dsf_calc</t>
-  </si>
-  <si>
-    <t>asf</t>
-  </si>
-  <si>
-    <t>Footing</t>
-  </si>
-  <si>
-    <t>Stay</t>
-  </si>
-  <si>
-    <t>Pole cap</t>
-  </si>
-  <si>
-    <t>top_of_pole_stregnth</t>
-  </si>
-  <si>
-    <t>Trigger</t>
-  </si>
-  <si>
-    <t>tasks</t>
-  </si>
-  <si>
-    <t>task_name</t>
   </si>
   <si>
     <t>condition_name</t>
@@ -2713,36 +2716,36 @@
   <sheetData>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2750,52 +2753,52 @@
         <v>191</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="F13" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q13" t="s">
         <v>166</v>
       </c>
       <c r="S13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="F14" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O14" t="s">
         <v>163</v>
       </c>
       <c r="Q14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="F15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S15" t="s">
         <v>127</v>
@@ -2803,44 +2806,44 @@
     </row>
     <row r="16" spans="1:19">
       <c r="F16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q16" t="s">
         <v>96</v>
       </c>
       <c r="S16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="F17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="O18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="F20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="D31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -2852,7 +2855,7 @@
         <v>88</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>95</v>
@@ -2866,7 +2869,7 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
@@ -2886,7 +2889,7 @@
         <v>51</v>
       </c>
       <c r="R33" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2894,13 +2897,13 @@
     </row>
     <row r="34" spans="2:19">
       <c r="C34" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K34" t="s">
         <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S34">
         <v>0.5</v>
@@ -2908,16 +2911,16 @@
     </row>
     <row r="35" spans="2:19">
       <c r="C35" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D35" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R35" t="s">
         <v>96</v>
@@ -2928,13 +2931,13 @@
     </row>
     <row r="36" spans="2:19">
       <c r="D36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -2950,7 +2953,7 @@
     </row>
     <row r="38" spans="2:19">
       <c r="C38" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E38" t="s">
         <v>163</v>
@@ -2961,10 +2964,10 @@
     </row>
     <row r="39" spans="2:19">
       <c r="C39" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E39" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J39" t="s">
         <v>105</v>
@@ -2987,12 +2990,12 @@
     </row>
     <row r="52" spans="1:12">
       <c r="H52" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>128</v>
@@ -3004,12 +3007,12 @@
         <v>163</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="E54" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -3043,17 +3046,17 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="F59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="B60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E60" t="s">
         <v>95</v>
@@ -3061,12 +3064,12 @@
     </row>
     <row r="61" spans="1:12">
       <c r="E61" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="E62" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3074,45 +3077,45 @@
         <v>105</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B70">
         <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B71">
         <v>12.5</v>
       </c>
       <c r="C71" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3144,48 +3147,48 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" t="s">
+        <v>314</v>
+      </c>
+      <c r="I4" t="s">
+        <v>312</v>
+      </c>
+      <c r="J4" t="s">
         <v>313</v>
       </c>
-      <c r="I4" t="s">
-        <v>311</v>
-      </c>
-      <c r="J4" t="s">
-        <v>312</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -3195,18 +3198,18 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R5" s="41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="H6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I6">
         <f>I5/4</f>
@@ -3218,51 +3221,51 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="H8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
@@ -3270,7 +3273,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="H10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
@@ -3278,12 +3281,12 @@
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="B12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I12" s="9">
         <v>3.7</v>
@@ -3295,20 +3298,20 @@
     </row>
     <row r="16" spans="1:19">
       <c r="J16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="10:10">
       <c r="J19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1048576" spans="15:15">
       <c r="O1048576" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3587,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AV80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS9" sqref="AS9"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -9627,7 +9630,7 @@
         <v>62</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>64</v>
@@ -9658,7 +9661,7 @@
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>26</v>
@@ -9678,7 +9681,7 @@
       </c>
       <c r="AD3" s="49"/>
       <c r="AE3" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>75</v>
@@ -9696,7 +9699,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>79</v>
@@ -9741,10 +9744,10 @@
         <v>1</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
@@ -9892,7 +9895,7 @@
     </row>
     <row r="9" spans="1:35" s="15" customFormat="1">
       <c r="C9" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E9" s="15">
         <v>1</v>
@@ -10039,7 +10042,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>79</v>
@@ -10051,7 +10054,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>79</v>
@@ -10078,10 +10081,10 @@
         <v>1</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
@@ -10213,7 +10216,7 @@
     </row>
     <row r="18" spans="1:35" s="15" customFormat="1">
       <c r="C18" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -10325,7 +10328,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -10340,10 +10343,10 @@
         <v>95</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S21" s="15" t="b">
         <v>1</v>
@@ -10649,16 +10652,16 @@
         <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>58</v>
@@ -10681,7 +10684,7 @@
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E3" t="s">
         <v>85</v>
@@ -10695,7 +10698,7 @@
         <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E4" t="s">
         <v>85</v>
@@ -10703,7 +10706,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="C5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -10715,7 +10718,7 @@
         <v>100000</v>
       </c>
       <c r="G5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -10768,16 +10771,16 @@
         <v>127</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>58</v>
@@ -10794,7 +10797,7 @@
         <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
         <v>85</v>
@@ -10803,7 +10806,7 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -10811,7 +10814,7 @@
         <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E14" t="s">
         <v>85</v>
@@ -10890,226 +10893,226 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C4" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C5" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C6" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C7" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C8" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C9" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C10" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C11" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C12" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C13" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C14" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C15" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C16" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C17" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C18" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C19" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -11130,72 +11133,72 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C22" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C23" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C24" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C25" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C26" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -11208,86 +11211,86 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C28" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C29" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C30" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C31" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C32" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C33" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -11300,72 +11303,72 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C35" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C36" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C37" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C38" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C39" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -11386,16 +11389,16 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C42" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -11408,226 +11411,226 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C44" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C45" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C46" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="33" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C47" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C48" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C49" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="32" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C50" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C51" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="32" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C52" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C53" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C54" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C55" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C56" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C57" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C58" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C59" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -11640,86 +11643,86 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C61" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C62" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C63" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C64" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C65" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C66" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -11740,44 +11743,44 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C69" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C70" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C71" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1974" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE608526-B061-4A98-B1F9-F6AAC18566BF}"/>
+  <xr:revisionPtr revIDLastSave="1989" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{76C4042F-CDF2-4964-8DA2-53C283298773}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     125</t>
       </text>
     </comment>
-    <comment ref="AM5" authorId="1" shapeId="0" xr:uid="{C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}">
+    <comment ref="AL5" authorId="1" shapeId="0" xr:uid="{C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -97,7 +97,7 @@
     Removed to solve timeline error when method wasn't actuall called anywhere</t>
       </text>
     </comment>
-    <comment ref="AM8" authorId="4" shapeId="0" xr:uid="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
+    <comment ref="AL8" authorId="4" shapeId="0" xr:uid="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -105,7 +105,7 @@
     Confirm with Peter Couch / Greg Toms</t>
       </text>
     </comment>
-    <comment ref="AM13" authorId="5" shapeId="0" xr:uid="{87DFEB67-927C-442C-956F-66557C9248F0}">
+    <comment ref="AL13" authorId="5" shapeId="0" xr:uid="{87DFEB67-927C-442C-956F-66557C9248F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="330">
   <si>
     <t>Cause</t>
   </si>
@@ -391,9 +391,6 @@
     <t>t_interval</t>
   </si>
   <si>
-    <t>system_impact</t>
-  </si>
-  <si>
     <t>task_group_name</t>
   </si>
   <si>
@@ -436,6 +433,9 @@
     <t>axis</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
     <t>linear</t>
   </si>
   <si>
@@ -475,13 +475,13 @@
     <t>grp</t>
   </si>
   <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>reduction_factor</t>
+  </si>
+  <si>
     <t>fm</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>reduction_factor</t>
   </si>
   <si>
     <t>CAT3/4 replacement</t>
@@ -1759,49 +1759,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="82">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="76">
     <dxf>
       <fill>
         <patternFill>
@@ -2619,7 +2577,7 @@
   <threadedComment ref="G5" dT="2020-09-09T03:31:05.38" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{EDC7C1E7-87D8-4DCB-A596-9C8067A50A9A}">
     <text>125</text>
   </threadedComment>
-  <threadedComment ref="AM5" dT="2020-09-09T03:27:17.71" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}">
+  <threadedComment ref="AL5" dT="2020-09-09T03:27:17.71" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}">
     <text>20mm of wallthickness loss not detectable</text>
   </threadedComment>
   <threadedComment ref="G6" dT="2020-09-09T03:31:13.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{3FC98A93-1BD2-46CA-8439-5A569DD9E38A}">
@@ -2628,10 +2586,10 @@
   <threadedComment ref="E8" dT="2020-10-11T23:14:06.89" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{A36EDA56-9BB8-4481-8541-35CA7263BBE2}">
     <text>Removed to solve timeline error when method wasn't actuall called anywhere</text>
   </threadedComment>
-  <threadedComment ref="AM8" dT="2020-09-09T03:33:43.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
+  <threadedComment ref="AL8" dT="2020-09-09T03:33:43.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
     <text>Confirm with Peter Couch / Greg Toms</text>
   </threadedComment>
-  <threadedComment ref="AM13" dT="2020-09-10T03:27:58.22" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{87DFEB67-927C-442C-956F-66557C9248F0}">
+  <threadedComment ref="AL13" dT="2020-09-10T03:27:58.22" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{87DFEB67-927C-442C-956F-66557C9248F0}">
     <text>add safety factor back</text>
   </threadedComment>
   <threadedComment ref="D52" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
@@ -2864,7 +2822,7 @@
         <v>105</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -3590,8 +3548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AV80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2:AV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -3617,20 +3575,20 @@
     <col min="25" max="25" width="14.85546875" customWidth="1"/>
     <col min="26" max="26" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.5703125" style="98" customWidth="1"/>
-    <col min="31" max="31" width="12" hidden="1" customWidth="1"/>
-    <col min="32" max="33" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="34" max="37" width="9.140625" style="17"/>
-    <col min="38" max="38" width="9.140625" style="111"/>
-    <col min="39" max="39" width="17.85546875" style="88" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.42578125" style="122" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.140625" style="17"/>
-    <col min="44" max="44" width="9.140625" style="111"/>
-    <col min="45" max="45" width="17.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.140625" style="20"/>
-    <col min="47" max="47" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.5703125" style="98" customWidth="1"/>
+    <col min="30" max="30" width="12" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="33" max="36" width="9.140625" style="17"/>
+    <col min="37" max="37" width="9.140625" style="111"/>
+    <col min="38" max="38" width="17.85546875" style="88" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" style="122" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="9.140625" style="17"/>
+    <col min="43" max="43" width="9.140625" style="111"/>
+    <col min="44" max="44" width="17.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.140625" style="20"/>
+    <col min="46" max="46" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
@@ -3672,28 +3630,28 @@
       <c r="Z1" s="25"/>
       <c r="AA1" s="25"/>
       <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="66" t="s">
+      <c r="AG1" s="66" t="s">
         <v>43</v>
       </c>
+      <c r="AH1" s="22"/>
       <c r="AI1" s="22"/>
       <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="105"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="114"/>
-      <c r="AP1" s="67" t="s">
+      <c r="AK1" s="105"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="114"/>
+      <c r="AO1" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="125"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="92"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="67"/>
       <c r="AU1" s="67"/>
       <c r="AV1" s="67"/>
     </row>
@@ -3744,38 +3702,40 @@
         <v>51</v>
       </c>
       <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="103" t="s">
+      <c r="AC2" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="66" t="s">
+      <c r="AG2" s="66" t="s">
         <v>54</v>
       </c>
+      <c r="AH2" s="22"/>
       <c r="AI2" s="22"/>
       <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="66" t="s">
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="114"/>
-      <c r="AP2" s="67" t="s">
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="114"/>
+      <c r="AO2" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="72" t="s">
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AT2" s="92"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
+      <c r="AS2" s="92"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="125"/>
+      <c r="AV2" s="72" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:48">
       <c r="A3" s="1" t="s">
@@ -3862,10 +3822,10 @@
       <c r="AB3" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AC3" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="103" t="s">
+      <c r="AD3" s="45" t="s">
         <v>64</v>
       </c>
       <c r="AE3" s="45" t="s">
@@ -3874,52 +3834,52 @@
       <c r="AF3" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="AG3" s="45" t="s">
+      <c r="AG3" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="AH3" s="66" t="s">
+      <c r="AH3" s="22" t="s">
         <v>68</v>
       </c>
       <c r="AI3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AJ3" s="22" t="s">
+      <c r="AJ3" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="AK3" s="44" t="s">
+      <c r="AK3" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="AL3" s="106" t="s">
+      <c r="AL3" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM3" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AM3" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN3" s="24" t="s">
+      <c r="AN3" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="AO3" s="114" t="s">
-        <v>74</v>
+      <c r="AO3" s="67" t="s">
+        <v>67</v>
       </c>
       <c r="AP3" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="AQ3" s="67" t="s">
+      <c r="AQ3" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="AR3" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS3" s="72" t="s">
+      <c r="AR3" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="AT3" s="92" t="s">
+      <c r="AS3" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT3" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="AU3" s="67" t="s">
+      <c r="AU3" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="AV3" s="67" t="s">
+      <c r="AV3" s="72" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3952,24 +3912,24 @@
       <c r="Z4" s="59"/>
       <c r="AA4" s="59"/>
       <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="96"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="59"/>
       <c r="AE4" s="59"/>
       <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
+      <c r="AG4" s="61"/>
       <c r="AH4" s="61"/>
       <c r="AI4" s="61"/>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="107"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="115"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="115"/>
+      <c r="AO4" s="61"/>
       <c r="AP4" s="61"/>
-      <c r="AQ4" s="61"/>
-      <c r="AR4" s="126"/>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="62"/>
+      <c r="AQ4" s="126"/>
+      <c r="AR4" s="73"/>
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="59"/>
       <c r="AU4" s="59"/>
       <c r="AV4" s="59"/>
     </row>
@@ -4050,44 +4010,44 @@
       <c r="AB5" s="41">
         <v>5</v>
       </c>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="97" t="s">
+      <c r="AC5" s="97" t="s">
         <v>82</v>
       </c>
+      <c r="AD5" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="AE5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF5" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AF5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG5" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH5" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG5" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="18"/>
       <c r="AI5" s="18"/>
       <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="108"/>
-      <c r="AM5" s="89" t="s">
+      <c r="AK5" s="108"/>
+      <c r="AL5" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AN5" s="90">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="116" t="s">
+      <c r="AM5" s="90">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="AP5" s="18"/>
-      <c r="AQ5" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="108"/>
-      <c r="AS5" s="74"/>
-      <c r="AT5" s="93"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="108"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="93"/>
+      <c r="AT5" s="18"/>
       <c r="AU5" s="18"/>
-      <c r="AV5" s="18"/>
+      <c r="AV5" s="15"/>
     </row>
     <row r="6" spans="1:48">
       <c r="A6" s="15"/>
@@ -4132,32 +4092,32 @@
       <c r="Z6" s="15"/>
       <c r="AA6" s="41"/>
       <c r="AB6" s="41"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="15"/>
       <c r="AE6" s="15"/>
       <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
+      <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
       <c r="AI6" s="18"/>
       <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="108"/>
-      <c r="AM6" s="89" t="s">
+      <c r="AK6" s="108"/>
+      <c r="AL6" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="AN6" s="90">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="116" t="s">
+      <c r="AM6" s="90">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="116" t="s">
         <v>85</v>
       </c>
+      <c r="AO6" s="18"/>
       <c r="AP6" s="18"/>
-      <c r="AQ6" s="18"/>
-      <c r="AR6" s="108"/>
-      <c r="AS6" s="74"/>
-      <c r="AT6" s="93"/>
+      <c r="AQ6" s="108"/>
+      <c r="AR6" s="74"/>
+      <c r="AS6" s="93"/>
+      <c r="AT6" s="18"/>
       <c r="AU6" s="18"/>
-      <c r="AV6" s="18"/>
+      <c r="AV6" s="15"/>
     </row>
     <row r="7" spans="1:48">
       <c r="A7" s="15"/>
@@ -4196,24 +4156,24 @@
       <c r="Z7" s="69"/>
       <c r="AA7" s="69"/>
       <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="104"/>
+      <c r="AC7" s="104"/>
+      <c r="AD7" s="69"/>
       <c r="AE7" s="69"/>
       <c r="AF7" s="69"/>
-      <c r="AG7" s="69"/>
+      <c r="AG7" s="70"/>
       <c r="AH7" s="70"/>
       <c r="AI7" s="70"/>
       <c r="AJ7" s="70"/>
-      <c r="AK7" s="70"/>
-      <c r="AL7" s="109"/>
-      <c r="AM7" s="83"/>
-      <c r="AN7" s="68"/>
-      <c r="AO7" s="117"/>
+      <c r="AK7" s="109"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="117"/>
+      <c r="AO7" s="70"/>
       <c r="AP7" s="70"/>
-      <c r="AQ7" s="70"/>
-      <c r="AR7" s="109"/>
-      <c r="AS7" s="75"/>
-      <c r="AT7" s="71"/>
+      <c r="AQ7" s="109"/>
+      <c r="AR7" s="75"/>
+      <c r="AS7" s="71"/>
+      <c r="AT7" s="69"/>
       <c r="AU7" s="69"/>
       <c r="AV7" s="69"/>
     </row>
@@ -4258,53 +4218,53 @@
       </c>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
-      <c r="AC8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD8" s="97"/>
+      <c r="AC8" s="97"/>
+      <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
       <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
+      <c r="AG8" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AH8" s="16" t="b">
         <v>1</v>
       </c>
       <c r="AI8" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="110"/>
-      <c r="AM8" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="110"/>
+      <c r="AL8" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AN8" s="80">
+      <c r="AM8" s="80">
         <v>50</v>
       </c>
-      <c r="AO8" s="118" t="s">
+      <c r="AN8" s="118" t="s">
         <v>85</v>
       </c>
+      <c r="AO8" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP8" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="91" t="s">
+      <c r="AQ8" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AT8" s="93">
-        <v>0</v>
-      </c>
       <c r="AU8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV8" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="AV8" s="18" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:48">
@@ -4336,30 +4296,30 @@
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
       <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="97"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="15"/>
       <c r="AE9" s="15"/>
       <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
+      <c r="AG9" s="16"/>
       <c r="AH9" s="16"/>
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="110"/>
-      <c r="AM9" s="82" t="s">
+      <c r="AK9" s="110"/>
+      <c r="AL9" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AN9" s="80">
+      <c r="AM9" s="80">
         <v>50</v>
       </c>
-      <c r="AO9" s="118" t="s">
+      <c r="AN9" s="118" t="s">
         <v>85</v>
       </c>
+      <c r="AO9" s="16"/>
       <c r="AP9" s="16"/>
-      <c r="AQ9" s="16"/>
-      <c r="AR9" s="110"/>
-      <c r="AS9" s="76"/>
-      <c r="AT9" s="19"/>
+      <c r="AQ9" s="110"/>
+      <c r="AR9" s="76"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="15"/>
       <c r="AU9" s="15"/>
       <c r="AV9" s="15"/>
     </row>
@@ -4392,24 +4352,24 @@
       <c r="Z10" s="69"/>
       <c r="AA10" s="69"/>
       <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="104"/>
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="69"/>
       <c r="AE10" s="69"/>
       <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
+      <c r="AG10" s="70"/>
       <c r="AH10" s="70"/>
       <c r="AI10" s="70"/>
       <c r="AJ10" s="70"/>
-      <c r="AK10" s="70"/>
-      <c r="AL10" s="109"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="68"/>
-      <c r="AO10" s="117"/>
+      <c r="AK10" s="109"/>
+      <c r="AL10" s="83"/>
+      <c r="AM10" s="68"/>
+      <c r="AN10" s="117"/>
+      <c r="AO10" s="70"/>
       <c r="AP10" s="70"/>
-      <c r="AQ10" s="70"/>
-      <c r="AR10" s="109"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="71"/>
+      <c r="AQ10" s="109"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="71"/>
+      <c r="AT10" s="69"/>
       <c r="AU10" s="69"/>
       <c r="AV10" s="69"/>
     </row>
@@ -4456,53 +4416,53 @@
       </c>
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
-      <c r="AC11" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD11" s="97"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
       <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
+      <c r="AG11" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AH11" s="16" t="b">
         <v>1</v>
       </c>
       <c r="AI11" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="110"/>
-      <c r="AM11" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="110"/>
+      <c r="AL11" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AN11" s="80">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="119">
+      <c r="AM11" s="80">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="119">
         <v>50</v>
       </c>
+      <c r="AO11" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP11" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="76" t="s">
+      <c r="AQ11" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AT11" s="19">
-        <v>1</v>
-      </c>
       <c r="AU11" s="15" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="AV11" s="15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:48">
@@ -4534,30 +4494,30 @@
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
       <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="97"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="15"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
       <c r="AJ12" s="15"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="97"/>
-      <c r="AM12" s="82" t="s">
+      <c r="AK12" s="97"/>
+      <c r="AL12" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AN12" s="80">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="119">
+      <c r="AM12" s="80">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="119">
         <v>50</v>
       </c>
+      <c r="AO12" s="16"/>
       <c r="AP12" s="16"/>
-      <c r="AQ12" s="16"/>
-      <c r="AR12" s="110"/>
-      <c r="AS12" s="76"/>
-      <c r="AT12" s="19"/>
+      <c r="AQ12" s="110"/>
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="15"/>
       <c r="AU12" s="15"/>
       <c r="AV12" s="15"/>
     </row>
@@ -4565,9 +4525,9 @@
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="H13" s="138"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="80"/>
-      <c r="AO13" s="119"/>
+      <c r="AL13" s="82"/>
+      <c r="AM13" s="80"/>
+      <c r="AN13" s="119"/>
     </row>
     <row r="14" spans="1:48">
       <c r="A14" s="15"/>
@@ -4598,24 +4558,24 @@
       <c r="Z14" s="69"/>
       <c r="AA14" s="69"/>
       <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="104"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="69"/>
       <c r="AE14" s="69"/>
       <c r="AF14" s="69"/>
-      <c r="AG14" s="69"/>
+      <c r="AG14" s="70"/>
       <c r="AH14" s="70"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="70"/>
-      <c r="AK14" s="70"/>
-      <c r="AL14" s="109"/>
-      <c r="AM14" s="83"/>
-      <c r="AN14" s="68"/>
-      <c r="AO14" s="117"/>
+      <c r="AK14" s="109"/>
+      <c r="AL14" s="83"/>
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="117"/>
+      <c r="AO14" s="70"/>
       <c r="AP14" s="70"/>
-      <c r="AQ14" s="70"/>
-      <c r="AR14" s="109"/>
-      <c r="AS14" s="75"/>
-      <c r="AT14" s="71"/>
+      <c r="AQ14" s="109"/>
+      <c r="AR14" s="75"/>
+      <c r="AS14" s="71"/>
+      <c r="AT14" s="69"/>
       <c r="AU14" s="69"/>
       <c r="AV14" s="69"/>
     </row>
@@ -4662,43 +4622,43 @@
       </c>
       <c r="AA15" s="15"/>
       <c r="AB15" s="15"/>
-      <c r="AC15" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD15" s="97"/>
+      <c r="AC15" s="97"/>
+      <c r="AD15" s="15"/>
       <c r="AE15" s="15"/>
       <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
+      <c r="AG15" s="16"/>
       <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="110"/>
-      <c r="AM15" s="84"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="120"/>
+      <c r="AI15" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="110"/>
+      <c r="AL15" s="84"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="120"/>
+      <c r="AO15" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP15" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="76" t="s">
+      <c r="AQ15" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS15" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AT15" s="19">
-        <v>1</v>
-      </c>
       <c r="AU15" s="15" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="AV15" s="15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:48">
@@ -4730,24 +4690,24 @@
       <c r="Z16" s="56"/>
       <c r="AA16" s="56"/>
       <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="56"/>
       <c r="AE16" s="56"/>
       <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
+      <c r="AG16" s="57"/>
       <c r="AH16" s="57"/>
       <c r="AI16" s="57"/>
       <c r="AJ16" s="57"/>
-      <c r="AK16" s="57"/>
-      <c r="AL16" s="112"/>
-      <c r="AM16" s="85"/>
-      <c r="AN16" s="58"/>
-      <c r="AO16" s="121"/>
+      <c r="AK16" s="112"/>
+      <c r="AL16" s="85"/>
+      <c r="AM16" s="58"/>
+      <c r="AN16" s="121"/>
+      <c r="AO16" s="57"/>
       <c r="AP16" s="57"/>
-      <c r="AQ16" s="57"/>
-      <c r="AR16" s="112"/>
-      <c r="AS16" s="78"/>
-      <c r="AT16" s="58"/>
+      <c r="AQ16" s="112"/>
+      <c r="AR16" s="78"/>
+      <c r="AS16" s="58"/>
+      <c r="AT16" s="56"/>
       <c r="AU16" s="56"/>
       <c r="AV16" s="56"/>
     </row>
@@ -4816,36 +4776,36 @@
       <c r="AB17" s="15">
         <v>5</v>
       </c>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="97" t="s">
+      <c r="AC17" s="97" t="s">
         <v>82</v>
       </c>
+      <c r="AD17" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="AE17" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF17" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AF17" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG17" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH17" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG17" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="18"/>
       <c r="AI17" s="18"/>
       <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="108"/>
-      <c r="AM17" s="84"/>
-      <c r="AN17" s="18"/>
-      <c r="AO17" s="108"/>
-      <c r="AP17" s="16"/>
-      <c r="AQ17" s="18"/>
-      <c r="AR17" s="108"/>
-      <c r="AS17" s="74"/>
-      <c r="AT17" s="93"/>
+      <c r="AK17" s="108"/>
+      <c r="AL17" s="84"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="108"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="108"/>
+      <c r="AR17" s="74"/>
+      <c r="AS17" s="93"/>
+      <c r="AT17" s="18"/>
       <c r="AU17" s="18"/>
-      <c r="AV17" s="18"/>
+      <c r="AV17" s="15"/>
     </row>
     <row r="18" spans="1:48">
       <c r="A18" s="15"/>
@@ -4875,24 +4835,24 @@
       <c r="Z18" s="69"/>
       <c r="AA18" s="69"/>
       <c r="AB18" s="69"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="104"/>
+      <c r="AC18" s="104"/>
+      <c r="AD18" s="69"/>
       <c r="AE18" s="69"/>
       <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
+      <c r="AG18" s="70"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
       <c r="AJ18" s="70"/>
-      <c r="AK18" s="70"/>
-      <c r="AL18" s="109"/>
-      <c r="AM18" s="83"/>
-      <c r="AN18" s="68"/>
-      <c r="AO18" s="117"/>
+      <c r="AK18" s="109"/>
+      <c r="AL18" s="83"/>
+      <c r="AM18" s="68"/>
+      <c r="AN18" s="117"/>
+      <c r="AO18" s="70"/>
       <c r="AP18" s="70"/>
-      <c r="AQ18" s="70"/>
-      <c r="AR18" s="109"/>
-      <c r="AS18" s="75"/>
-      <c r="AT18" s="71"/>
+      <c r="AQ18" s="109"/>
+      <c r="AR18" s="75"/>
+      <c r="AS18" s="71"/>
+      <c r="AT18" s="69"/>
       <c r="AU18" s="69"/>
       <c r="AV18" s="69"/>
     </row>
@@ -4938,53 +4898,53 @@
       </c>
       <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
-      <c r="AC19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD19" s="97"/>
+      <c r="AC19" s="97"/>
+      <c r="AD19" s="15"/>
       <c r="AE19" s="15"/>
       <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
+      <c r="AG19" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AH19" s="16" t="b">
         <v>1</v>
       </c>
       <c r="AI19" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="16"/>
-      <c r="AL19" s="110"/>
-      <c r="AM19" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="110"/>
+      <c r="AL19" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="AN19" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="120">
+      <c r="AM19" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="120">
         <v>50</v>
       </c>
+      <c r="AO19" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP19" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="76" t="s">
+      <c r="AQ19" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS19" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AT19" s="19">
-        <v>1</v>
-      </c>
       <c r="AU19" s="15" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="AV19" s="15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:48">
@@ -5012,43 +4972,43 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="97"/>
+      <c r="AC20" s="97"/>
+      <c r="AD20" s="15"/>
       <c r="AE20" s="15"/>
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="97"/>
-      <c r="AM20" s="84" t="s">
+      <c r="AK20" s="97"/>
+      <c r="AL20" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AN20" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="120">
+      <c r="AM20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="120">
         <v>50</v>
       </c>
+      <c r="AO20" s="16"/>
       <c r="AP20" s="16"/>
-      <c r="AQ20" s="16"/>
-      <c r="AR20" s="110"/>
-      <c r="AS20" s="76"/>
-      <c r="AT20" s="19"/>
+      <c r="AQ20" s="110"/>
+      <c r="AR20" s="76"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="15"/>
       <c r="AU20" s="15"/>
       <c r="AV20" s="15"/>
     </row>
     <row r="21" spans="1:48">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="AM21" s="84" t="s">
+      <c r="AL21" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AN21" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="122">
+      <c r="AM21" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="122">
         <v>3</v>
       </c>
     </row>
@@ -5064,24 +5024,24 @@
       <c r="Z22" s="69"/>
       <c r="AA22" s="69"/>
       <c r="AB22" s="69"/>
-      <c r="AC22" s="69"/>
-      <c r="AD22" s="104"/>
+      <c r="AC22" s="104"/>
+      <c r="AD22" s="69"/>
       <c r="AE22" s="69"/>
       <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
+      <c r="AG22" s="70"/>
       <c r="AH22" s="70"/>
       <c r="AI22" s="70"/>
       <c r="AJ22" s="70"/>
-      <c r="AK22" s="70"/>
-      <c r="AL22" s="109"/>
-      <c r="AM22" s="83"/>
-      <c r="AN22" s="68"/>
-      <c r="AO22" s="117"/>
+      <c r="AK22" s="109"/>
+      <c r="AL22" s="83"/>
+      <c r="AM22" s="68"/>
+      <c r="AN22" s="117"/>
+      <c r="AO22" s="70"/>
       <c r="AP22" s="70"/>
-      <c r="AQ22" s="70"/>
-      <c r="AR22" s="109"/>
-      <c r="AS22" s="75"/>
-      <c r="AT22" s="71"/>
+      <c r="AQ22" s="109"/>
+      <c r="AR22" s="75"/>
+      <c r="AS22" s="71"/>
+      <c r="AT22" s="69"/>
       <c r="AU22" s="69"/>
       <c r="AV22" s="69"/>
     </row>
@@ -5115,43 +5075,43 @@
       </c>
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
-      <c r="AC23" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD23" s="97"/>
+      <c r="AC23" s="97"/>
+      <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
       <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
+      <c r="AG23" s="16"/>
       <c r="AH23" s="16"/>
-      <c r="AI23" s="16"/>
-      <c r="AJ23" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="110"/>
-      <c r="AM23" s="84"/>
-      <c r="AN23" s="19"/>
-      <c r="AO23" s="120"/>
+      <c r="AI23" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="110"/>
+      <c r="AL23" s="84"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="120"/>
+      <c r="AO23" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP23" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="76" t="s">
+      <c r="AQ23" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS23" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AT23" s="19">
-        <v>1</v>
-      </c>
       <c r="AU23" s="15" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="AV23" s="15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:48">
@@ -5183,24 +5143,24 @@
       <c r="Z24" s="56"/>
       <c r="AA24" s="56"/>
       <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="102"/>
+      <c r="AC24" s="102"/>
+      <c r="AD24" s="56"/>
       <c r="AE24" s="56"/>
       <c r="AF24" s="56"/>
-      <c r="AG24" s="56"/>
+      <c r="AG24" s="57"/>
       <c r="AH24" s="57"/>
       <c r="AI24" s="57"/>
       <c r="AJ24" s="57"/>
-      <c r="AK24" s="57"/>
-      <c r="AL24" s="112"/>
-      <c r="AM24" s="85"/>
-      <c r="AN24" s="58"/>
-      <c r="AO24" s="121"/>
+      <c r="AK24" s="112"/>
+      <c r="AL24" s="85"/>
+      <c r="AM24" s="58"/>
+      <c r="AN24" s="121"/>
+      <c r="AO24" s="57"/>
       <c r="AP24" s="57"/>
-      <c r="AQ24" s="57"/>
-      <c r="AR24" s="112"/>
-      <c r="AS24" s="78"/>
-      <c r="AT24" s="58"/>
+      <c r="AQ24" s="112"/>
+      <c r="AR24" s="78"/>
+      <c r="AS24" s="58"/>
+      <c r="AT24" s="56"/>
       <c r="AU24" s="56"/>
       <c r="AV24" s="56"/>
     </row>
@@ -5271,36 +5231,36 @@
       <c r="AB25" s="15">
         <v>5</v>
       </c>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="97" t="s">
+      <c r="AC25" s="97" t="s">
         <v>82</v>
       </c>
+      <c r="AD25" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="AE25" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF25" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AF25" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG25" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH25" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG25" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="18"/>
       <c r="AI25" s="18"/>
       <c r="AJ25" s="18"/>
-      <c r="AK25" s="18"/>
-      <c r="AL25" s="108"/>
-      <c r="AM25" s="84"/>
-      <c r="AN25" s="18"/>
-      <c r="AO25" s="108"/>
-      <c r="AP25" s="16"/>
-      <c r="AQ25" s="18"/>
-      <c r="AR25" s="108"/>
-      <c r="AS25" s="74"/>
-      <c r="AT25" s="93"/>
+      <c r="AK25" s="108"/>
+      <c r="AL25" s="84"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="108"/>
+      <c r="AO25" s="16"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="108"/>
+      <c r="AR25" s="74"/>
+      <c r="AS25" s="93"/>
+      <c r="AT25" s="18"/>
       <c r="AU25" s="18"/>
-      <c r="AV25" s="18"/>
+      <c r="AV25" s="15"/>
     </row>
     <row r="26" spans="1:48">
       <c r="A26" s="15"/>
@@ -5330,24 +5290,24 @@
       <c r="Z26" s="69"/>
       <c r="AA26" s="69"/>
       <c r="AB26" s="69"/>
-      <c r="AC26" s="69"/>
-      <c r="AD26" s="104"/>
+      <c r="AC26" s="104"/>
+      <c r="AD26" s="69"/>
       <c r="AE26" s="69"/>
       <c r="AF26" s="69"/>
-      <c r="AG26" s="69"/>
+      <c r="AG26" s="70"/>
       <c r="AH26" s="70"/>
       <c r="AI26" s="70"/>
       <c r="AJ26" s="70"/>
-      <c r="AK26" s="70"/>
-      <c r="AL26" s="109"/>
-      <c r="AM26" s="83"/>
-      <c r="AN26" s="68"/>
-      <c r="AO26" s="117"/>
+      <c r="AK26" s="109"/>
+      <c r="AL26" s="83"/>
+      <c r="AM26" s="68"/>
+      <c r="AN26" s="117"/>
+      <c r="AO26" s="70"/>
       <c r="AP26" s="70"/>
-      <c r="AQ26" s="70"/>
-      <c r="AR26" s="109"/>
-      <c r="AS26" s="75"/>
-      <c r="AT26" s="71"/>
+      <c r="AQ26" s="109"/>
+      <c r="AR26" s="75"/>
+      <c r="AS26" s="71"/>
+      <c r="AT26" s="69"/>
       <c r="AU26" s="69"/>
       <c r="AV26" s="69"/>
     </row>
@@ -5393,44 +5353,44 @@
       </c>
       <c r="AA27" s="15"/>
       <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="97"/>
+      <c r="AC27" s="97"/>
+      <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
       <c r="AF27" s="15"/>
-      <c r="AG27" s="15"/>
+      <c r="AG27" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AH27" s="16" t="b">
         <v>1</v>
       </c>
       <c r="AI27" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="110"/>
-      <c r="AM27" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="16"/>
+      <c r="AK27" s="110"/>
+      <c r="AL27" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AN27" s="80">
+      <c r="AM27" s="80">
         <v>50</v>
       </c>
-      <c r="AO27" s="123" t="s">
+      <c r="AN27" s="123" t="s">
         <v>85</v>
       </c>
+      <c r="AO27" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP27" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="74"/>
-      <c r="AT27" s="93"/>
+      <c r="AQ27" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="74"/>
+      <c r="AS27" s="93"/>
+      <c r="AT27" s="18"/>
       <c r="AU27" s="18"/>
-      <c r="AV27" s="18"/>
+      <c r="AV27" s="15"/>
     </row>
     <row r="28" spans="1:48">
       <c r="A28" s="15"/>
@@ -5460,30 +5420,30 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="97"/>
+      <c r="AC28" s="97"/>
+      <c r="AD28" s="15"/>
       <c r="AE28" s="15"/>
       <c r="AF28" s="15"/>
-      <c r="AG28" s="15"/>
+      <c r="AG28" s="16"/>
       <c r="AH28" s="16"/>
       <c r="AI28" s="16"/>
       <c r="AJ28" s="16"/>
-      <c r="AK28" s="16"/>
-      <c r="AL28" s="110"/>
-      <c r="AM28" s="82" t="s">
+      <c r="AK28" s="110"/>
+      <c r="AL28" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AN28" s="80">
+      <c r="AM28" s="80">
         <v>50</v>
       </c>
-      <c r="AO28" s="123" t="s">
+      <c r="AN28" s="123" t="s">
         <v>85</v>
       </c>
+      <c r="AO28" s="16"/>
       <c r="AP28" s="16"/>
-      <c r="AQ28" s="16"/>
-      <c r="AR28" s="110"/>
-      <c r="AS28" s="76"/>
-      <c r="AT28" s="19"/>
+      <c r="AQ28" s="110"/>
+      <c r="AR28" s="76"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="15"/>
       <c r="AU28" s="15"/>
       <c r="AV28" s="15"/>
     </row>
@@ -5515,24 +5475,24 @@
       <c r="Z29" s="69"/>
       <c r="AA29" s="69"/>
       <c r="AB29" s="69"/>
-      <c r="AC29" s="69"/>
-      <c r="AD29" s="104"/>
+      <c r="AC29" s="104"/>
+      <c r="AD29" s="69"/>
       <c r="AE29" s="69"/>
       <c r="AF29" s="69"/>
-      <c r="AG29" s="69"/>
+      <c r="AG29" s="70"/>
       <c r="AH29" s="70"/>
       <c r="AI29" s="70"/>
       <c r="AJ29" s="70"/>
-      <c r="AK29" s="70"/>
-      <c r="AL29" s="109"/>
-      <c r="AM29" s="83"/>
-      <c r="AN29" s="68"/>
-      <c r="AO29" s="117"/>
+      <c r="AK29" s="109"/>
+      <c r="AL29" s="83"/>
+      <c r="AM29" s="68"/>
+      <c r="AN29" s="117"/>
+      <c r="AO29" s="70"/>
       <c r="AP29" s="70"/>
-      <c r="AQ29" s="70"/>
-      <c r="AR29" s="109"/>
-      <c r="AS29" s="75"/>
-      <c r="AT29" s="71"/>
+      <c r="AQ29" s="109"/>
+      <c r="AR29" s="75"/>
+      <c r="AS29" s="71"/>
+      <c r="AT29" s="69"/>
       <c r="AU29" s="69"/>
       <c r="AV29" s="69"/>
     </row>
@@ -5578,53 +5538,53 @@
       </c>
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
-      <c r="AC30" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD30" s="97"/>
+      <c r="AC30" s="97"/>
+      <c r="AD30" s="15"/>
       <c r="AE30" s="15"/>
       <c r="AF30" s="15"/>
-      <c r="AG30" s="15"/>
+      <c r="AG30" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AH30" s="16" t="b">
         <v>1</v>
       </c>
       <c r="AI30" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="16"/>
-      <c r="AL30" s="110"/>
-      <c r="AM30" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="110"/>
+      <c r="AL30" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="AN30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="120">
+      <c r="AM30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="120">
         <v>50</v>
       </c>
+      <c r="AO30" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP30" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR30" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS30" s="76" t="s">
+      <c r="AQ30" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS30" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AT30" s="19">
-        <v>1</v>
-      </c>
       <c r="AU30" s="15" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="AV30" s="15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:48">
@@ -5652,43 +5612,43 @@
       <c r="Z31" s="15"/>
       <c r="AA31" s="15"/>
       <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="97"/>
+      <c r="AC31" s="97"/>
+      <c r="AD31" s="15"/>
       <c r="AE31" s="15"/>
       <c r="AF31" s="15"/>
       <c r="AG31" s="15"/>
       <c r="AH31" s="15"/>
       <c r="AI31" s="15"/>
       <c r="AJ31" s="15"/>
-      <c r="AK31" s="15"/>
-      <c r="AL31" s="97"/>
-      <c r="AM31" s="84" t="s">
+      <c r="AK31" s="97"/>
+      <c r="AL31" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AN31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="120">
+      <c r="AM31" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="120">
         <v>50</v>
       </c>
+      <c r="AO31" s="16"/>
       <c r="AP31" s="16"/>
-      <c r="AQ31" s="16"/>
-      <c r="AR31" s="110"/>
-      <c r="AS31" s="76"/>
-      <c r="AT31" s="19"/>
+      <c r="AQ31" s="110"/>
+      <c r="AR31" s="76"/>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="15"/>
       <c r="AU31" s="15"/>
       <c r="AV31" s="15"/>
     </row>
     <row r="32" spans="1:48">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
-      <c r="AM32" s="84" t="s">
+      <c r="AL32" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AN32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="122">
+      <c r="AM32" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="122">
         <v>3</v>
       </c>
     </row>
@@ -5704,24 +5664,24 @@
       <c r="Z33" s="69"/>
       <c r="AA33" s="69"/>
       <c r="AB33" s="69"/>
-      <c r="AC33" s="69"/>
-      <c r="AD33" s="104"/>
+      <c r="AC33" s="104"/>
+      <c r="AD33" s="69"/>
       <c r="AE33" s="69"/>
       <c r="AF33" s="69"/>
-      <c r="AG33" s="69"/>
+      <c r="AG33" s="70"/>
       <c r="AH33" s="70"/>
       <c r="AI33" s="70"/>
       <c r="AJ33" s="70"/>
-      <c r="AK33" s="70"/>
-      <c r="AL33" s="109"/>
-      <c r="AM33" s="83"/>
-      <c r="AN33" s="68"/>
-      <c r="AO33" s="117"/>
+      <c r="AK33" s="109"/>
+      <c r="AL33" s="83"/>
+      <c r="AM33" s="68"/>
+      <c r="AN33" s="117"/>
+      <c r="AO33" s="70"/>
       <c r="AP33" s="70"/>
-      <c r="AQ33" s="70"/>
-      <c r="AR33" s="109"/>
-      <c r="AS33" s="75"/>
-      <c r="AT33" s="71"/>
+      <c r="AQ33" s="109"/>
+      <c r="AR33" s="75"/>
+      <c r="AS33" s="71"/>
+      <c r="AT33" s="69"/>
       <c r="AU33" s="69"/>
       <c r="AV33" s="69"/>
     </row>
@@ -5755,43 +5715,43 @@
       </c>
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
-      <c r="AC34" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD34" s="97"/>
+      <c r="AC34" s="97"/>
+      <c r="AD34" s="15"/>
       <c r="AE34" s="15"/>
       <c r="AF34" s="15"/>
-      <c r="AG34" s="15"/>
+      <c r="AG34" s="16"/>
       <c r="AH34" s="16"/>
-      <c r="AI34" s="16"/>
-      <c r="AJ34" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK34" s="16"/>
-      <c r="AL34" s="110"/>
-      <c r="AM34" s="84"/>
-      <c r="AN34" s="19"/>
-      <c r="AO34" s="120"/>
+      <c r="AI34" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="16"/>
+      <c r="AK34" s="110"/>
+      <c r="AL34" s="84"/>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="120"/>
+      <c r="AO34" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP34" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ34" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR34" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS34" s="76" t="s">
+      <c r="AQ34" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS34" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AT34" s="19">
-        <v>1</v>
-      </c>
       <c r="AU34" s="15" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="AV34" s="15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:48">
@@ -5823,24 +5783,24 @@
       <c r="Z35" s="56"/>
       <c r="AA35" s="56"/>
       <c r="AB35" s="56"/>
-      <c r="AC35" s="56"/>
-      <c r="AD35" s="102"/>
+      <c r="AC35" s="102"/>
+      <c r="AD35" s="56"/>
       <c r="AE35" s="56"/>
       <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
+      <c r="AG35" s="57"/>
       <c r="AH35" s="57"/>
       <c r="AI35" s="57"/>
       <c r="AJ35" s="57"/>
-      <c r="AK35" s="57"/>
-      <c r="AL35" s="112"/>
-      <c r="AM35" s="85"/>
-      <c r="AN35" s="58"/>
-      <c r="AO35" s="121"/>
+      <c r="AK35" s="112"/>
+      <c r="AL35" s="85"/>
+      <c r="AM35" s="58"/>
+      <c r="AN35" s="121"/>
+      <c r="AO35" s="57"/>
       <c r="AP35" s="57"/>
-      <c r="AQ35" s="57"/>
-      <c r="AR35" s="112"/>
-      <c r="AS35" s="78"/>
-      <c r="AT35" s="58"/>
+      <c r="AQ35" s="112"/>
+      <c r="AR35" s="78"/>
+      <c r="AS35" s="58"/>
+      <c r="AT35" s="56"/>
       <c r="AU35" s="56"/>
       <c r="AV35" s="56"/>
     </row>
@@ -5899,32 +5859,36 @@
       <c r="Z36" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="97" t="s">
+      <c r="AA36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="97" t="s">
         <v>103</v>
       </c>
+      <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
       <c r="AF36" s="15"/>
-      <c r="AG36" s="15"/>
-      <c r="AH36" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG36" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="18"/>
       <c r="AI36" s="18"/>
       <c r="AJ36" s="18"/>
-      <c r="AK36" s="18"/>
-      <c r="AL36" s="108"/>
-      <c r="AM36" s="84"/>
-      <c r="AN36" s="19"/>
-      <c r="AO36" s="120"/>
-      <c r="AP36" s="145"/>
-      <c r="AQ36" s="145" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR36" s="146"/>
-      <c r="AS36" s="76"/>
-      <c r="AT36" s="19"/>
+      <c r="AK36" s="108"/>
+      <c r="AL36" s="84"/>
+      <c r="AM36" s="19"/>
+      <c r="AN36" s="120"/>
+      <c r="AO36" s="145"/>
+      <c r="AP36" s="145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ36" s="146"/>
+      <c r="AR36" s="76"/>
+      <c r="AS36" s="19"/>
+      <c r="AT36" s="15"/>
       <c r="AU36" s="15"/>
       <c r="AV36" s="15"/>
     </row>
@@ -5957,24 +5921,24 @@
       <c r="Z37" s="69"/>
       <c r="AA37" s="69"/>
       <c r="AB37" s="69"/>
-      <c r="AC37" s="69"/>
-      <c r="AD37" s="104"/>
+      <c r="AC37" s="104"/>
+      <c r="AD37" s="69"/>
       <c r="AE37" s="69"/>
       <c r="AF37" s="69"/>
-      <c r="AG37" s="69"/>
+      <c r="AG37" s="70"/>
       <c r="AH37" s="70"/>
       <c r="AI37" s="70"/>
       <c r="AJ37" s="70"/>
-      <c r="AK37" s="70"/>
-      <c r="AL37" s="109"/>
-      <c r="AM37" s="83"/>
-      <c r="AN37" s="140"/>
-      <c r="AO37" s="141"/>
+      <c r="AK37" s="109"/>
+      <c r="AL37" s="83"/>
+      <c r="AM37" s="140"/>
+      <c r="AN37" s="141"/>
+      <c r="AO37" s="142"/>
       <c r="AP37" s="142"/>
-      <c r="AQ37" s="142"/>
-      <c r="AR37" s="143"/>
-      <c r="AS37" s="144"/>
-      <c r="AT37" s="71"/>
+      <c r="AQ37" s="143"/>
+      <c r="AR37" s="144"/>
+      <c r="AS37" s="71"/>
+      <c r="AT37" s="69"/>
       <c r="AU37" s="69"/>
       <c r="AV37" s="69"/>
     </row>
@@ -6023,38 +5987,38 @@
       <c r="AB38" s="15">
         <v>5</v>
       </c>
-      <c r="AC38" s="15"/>
-      <c r="AD38" s="97" t="s">
+      <c r="AC38" s="97" t="s">
         <v>82</v>
       </c>
+      <c r="AD38" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="AE38" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF38" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AF38" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG38" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH38" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG38" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="18"/>
       <c r="AI38" s="18"/>
       <c r="AJ38" s="18"/>
-      <c r="AK38" s="18"/>
-      <c r="AL38" s="108"/>
-      <c r="AM38" s="84"/>
-      <c r="AN38" s="19"/>
-      <c r="AO38" s="120"/>
-      <c r="AP38" s="145"/>
-      <c r="AQ38" s="145" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR38" s="146"/>
-      <c r="AS38" s="74"/>
-      <c r="AT38" s="93"/>
+      <c r="AK38" s="108"/>
+      <c r="AL38" s="84"/>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="120"/>
+      <c r="AO38" s="145"/>
+      <c r="AP38" s="145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="146"/>
+      <c r="AR38" s="74"/>
+      <c r="AS38" s="93"/>
+      <c r="AT38" s="18"/>
       <c r="AU38" s="18"/>
-      <c r="AV38" s="18"/>
+      <c r="AV38" s="15"/>
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="15"/>
@@ -6085,24 +6049,24 @@
       <c r="Z39" s="69"/>
       <c r="AA39" s="69"/>
       <c r="AB39" s="69"/>
-      <c r="AC39" s="69"/>
-      <c r="AD39" s="104"/>
+      <c r="AC39" s="104"/>
+      <c r="AD39" s="69"/>
       <c r="AE39" s="69"/>
       <c r="AF39" s="69"/>
-      <c r="AG39" s="69"/>
+      <c r="AG39" s="70"/>
       <c r="AH39" s="70"/>
       <c r="AI39" s="70"/>
       <c r="AJ39" s="70"/>
-      <c r="AK39" s="70"/>
-      <c r="AL39" s="109"/>
-      <c r="AM39" s="83"/>
-      <c r="AN39" s="68"/>
-      <c r="AO39" s="117"/>
+      <c r="AK39" s="109"/>
+      <c r="AL39" s="83"/>
+      <c r="AM39" s="68"/>
+      <c r="AN39" s="117"/>
+      <c r="AO39" s="70"/>
       <c r="AP39" s="70"/>
-      <c r="AQ39" s="70"/>
-      <c r="AR39" s="109"/>
-      <c r="AS39" s="75"/>
-      <c r="AT39" s="71"/>
+      <c r="AQ39" s="109"/>
+      <c r="AR39" s="75"/>
+      <c r="AS39" s="71"/>
+      <c r="AT39" s="69"/>
       <c r="AU39" s="69"/>
       <c r="AV39" s="69"/>
     </row>
@@ -6132,43 +6096,43 @@
       </c>
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
-      <c r="AC40" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD40" s="97"/>
+      <c r="AC40" s="97"/>
+      <c r="AD40" s="15"/>
       <c r="AE40" s="15"/>
       <c r="AF40" s="15"/>
-      <c r="AG40" s="15"/>
+      <c r="AG40" s="16"/>
       <c r="AH40" s="16"/>
-      <c r="AI40" s="16"/>
-      <c r="AJ40" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK40" s="16"/>
-      <c r="AL40" s="110"/>
-      <c r="AM40" s="84"/>
-      <c r="AN40" s="19"/>
-      <c r="AO40" s="120"/>
+      <c r="AI40" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="16"/>
+      <c r="AK40" s="110"/>
+      <c r="AL40" s="84"/>
+      <c r="AM40" s="19"/>
+      <c r="AN40" s="120"/>
+      <c r="AO40" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP40" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ40" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="76" t="s">
+      <c r="AQ40" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS40" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT40" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AT40" s="19">
-        <v>1</v>
-      </c>
       <c r="AU40" s="15" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="AV40" s="15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:48">
@@ -6200,24 +6164,24 @@
       <c r="Z41" s="56"/>
       <c r="AA41" s="56"/>
       <c r="AB41" s="56"/>
-      <c r="AC41" s="56"/>
-      <c r="AD41" s="102"/>
+      <c r="AC41" s="102"/>
+      <c r="AD41" s="56"/>
       <c r="AE41" s="56"/>
       <c r="AF41" s="56"/>
-      <c r="AG41" s="56"/>
+      <c r="AG41" s="57"/>
       <c r="AH41" s="57"/>
       <c r="AI41" s="57"/>
       <c r="AJ41" s="57"/>
-      <c r="AK41" s="57"/>
-      <c r="AL41" s="112"/>
-      <c r="AM41" s="85"/>
-      <c r="AN41" s="58"/>
-      <c r="AO41" s="121"/>
+      <c r="AK41" s="112"/>
+      <c r="AL41" s="85"/>
+      <c r="AM41" s="58"/>
+      <c r="AN41" s="121"/>
+      <c r="AO41" s="57"/>
       <c r="AP41" s="57"/>
-      <c r="AQ41" s="57"/>
-      <c r="AR41" s="112"/>
-      <c r="AS41" s="78"/>
-      <c r="AT41" s="58"/>
+      <c r="AQ41" s="112"/>
+      <c r="AR41" s="78"/>
+      <c r="AS41" s="58"/>
+      <c r="AT41" s="56"/>
       <c r="AU41" s="56"/>
       <c r="AV41" s="56"/>
     </row>
@@ -6276,36 +6240,40 @@
       <c r="Z42" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="97" t="s">
+      <c r="AA42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="97" t="s">
         <v>103</v>
       </c>
+      <c r="AD42" s="15"/>
       <c r="AE42" s="15"/>
       <c r="AF42" s="15"/>
-      <c r="AG42" s="15"/>
-      <c r="AH42" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG42" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="18"/>
       <c r="AI42" s="18"/>
       <c r="AJ42" s="18"/>
-      <c r="AK42" s="18"/>
-      <c r="AL42" s="108"/>
-      <c r="AM42" s="84"/>
-      <c r="AN42" s="19"/>
-      <c r="AO42" s="120"/>
+      <c r="AK42" s="108"/>
+      <c r="AL42" s="84"/>
+      <c r="AM42" s="19"/>
+      <c r="AN42" s="120"/>
+      <c r="AO42" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP42" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ42" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS42" s="76"/>
-      <c r="AT42" s="19"/>
+      <c r="AQ42" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="76"/>
+      <c r="AS42" s="19"/>
+      <c r="AT42" s="15"/>
       <c r="AU42" s="15"/>
       <c r="AV42" s="15"/>
     </row>
@@ -6321,24 +6289,24 @@
       <c r="Z43" s="69"/>
       <c r="AA43" s="69"/>
       <c r="AB43" s="69"/>
-      <c r="AC43" s="69"/>
-      <c r="AD43" s="104"/>
+      <c r="AC43" s="104"/>
+      <c r="AD43" s="69"/>
       <c r="AE43" s="69"/>
       <c r="AF43" s="69"/>
-      <c r="AG43" s="69"/>
+      <c r="AG43" s="70"/>
       <c r="AH43" s="70"/>
       <c r="AI43" s="70"/>
       <c r="AJ43" s="70"/>
-      <c r="AK43" s="70"/>
-      <c r="AL43" s="109"/>
-      <c r="AM43" s="83"/>
-      <c r="AN43" s="68"/>
-      <c r="AO43" s="117"/>
+      <c r="AK43" s="109"/>
+      <c r="AL43" s="83"/>
+      <c r="AM43" s="68"/>
+      <c r="AN43" s="117"/>
+      <c r="AO43" s="70"/>
       <c r="AP43" s="70"/>
-      <c r="AQ43" s="70"/>
-      <c r="AR43" s="109"/>
-      <c r="AS43" s="75"/>
-      <c r="AT43" s="71"/>
+      <c r="AQ43" s="109"/>
+      <c r="AR43" s="75"/>
+      <c r="AS43" s="71"/>
+      <c r="AT43" s="69"/>
       <c r="AU43" s="69"/>
       <c r="AV43" s="69"/>
     </row>
@@ -6368,43 +6336,43 @@
       </c>
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
-      <c r="AC44" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD44" s="97"/>
+      <c r="AC44" s="97"/>
+      <c r="AD44" s="15"/>
       <c r="AE44" s="15"/>
       <c r="AF44" s="15"/>
-      <c r="AG44" s="15"/>
+      <c r="AG44" s="16"/>
       <c r="AH44" s="16"/>
-      <c r="AI44" s="16"/>
-      <c r="AJ44" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK44" s="16"/>
-      <c r="AL44" s="110"/>
-      <c r="AM44" s="84"/>
-      <c r="AN44" s="19"/>
-      <c r="AO44" s="120"/>
+      <c r="AI44" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="16"/>
+      <c r="AK44" s="110"/>
+      <c r="AL44" s="84"/>
+      <c r="AM44" s="19"/>
+      <c r="AN44" s="120"/>
+      <c r="AO44" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP44" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ44" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS44" s="76" t="s">
+      <c r="AQ44" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS44" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT44" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AT44" s="19">
-        <v>1</v>
-      </c>
       <c r="AU44" s="15" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="AV44" s="15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:48">
@@ -6436,24 +6404,24 @@
       <c r="Z45" s="56"/>
       <c r="AA45" s="56"/>
       <c r="AB45" s="56"/>
-      <c r="AC45" s="56"/>
-      <c r="AD45" s="102"/>
+      <c r="AC45" s="102"/>
+      <c r="AD45" s="56"/>
       <c r="AE45" s="56"/>
       <c r="AF45" s="56"/>
-      <c r="AG45" s="56"/>
+      <c r="AG45" s="57"/>
       <c r="AH45" s="57"/>
       <c r="AI45" s="57"/>
       <c r="AJ45" s="57"/>
-      <c r="AK45" s="57"/>
-      <c r="AL45" s="112"/>
-      <c r="AM45" s="85"/>
-      <c r="AN45" s="58"/>
-      <c r="AO45" s="121"/>
+      <c r="AK45" s="112"/>
+      <c r="AL45" s="85"/>
+      <c r="AM45" s="58"/>
+      <c r="AN45" s="121"/>
+      <c r="AO45" s="57"/>
       <c r="AP45" s="57"/>
-      <c r="AQ45" s="57"/>
-      <c r="AR45" s="112"/>
-      <c r="AS45" s="78"/>
-      <c r="AT45" s="58"/>
+      <c r="AQ45" s="112"/>
+      <c r="AR45" s="78"/>
+      <c r="AS45" s="58"/>
+      <c r="AT45" s="56"/>
       <c r="AU45" s="56"/>
       <c r="AV45" s="56"/>
     </row>
@@ -6512,36 +6480,40 @@
       <c r="Z46" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="15"/>
-      <c r="AD46" s="97" t="s">
+      <c r="AA46" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="97" t="s">
         <v>103</v>
       </c>
+      <c r="AD46" s="15"/>
       <c r="AE46" s="15"/>
       <c r="AF46" s="15"/>
-      <c r="AG46" s="15"/>
-      <c r="AH46" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG46" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="18"/>
       <c r="AI46" s="18"/>
       <c r="AJ46" s="18"/>
-      <c r="AK46" s="18"/>
-      <c r="AL46" s="108"/>
-      <c r="AM46" s="84"/>
-      <c r="AN46" s="19"/>
-      <c r="AO46" s="120"/>
+      <c r="AK46" s="108"/>
+      <c r="AL46" s="84"/>
+      <c r="AM46" s="19"/>
+      <c r="AN46" s="120"/>
+      <c r="AO46" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP46" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ46" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR46" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS46" s="76"/>
-      <c r="AT46" s="19"/>
+      <c r="AQ46" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="76"/>
+      <c r="AS46" s="19"/>
+      <c r="AT46" s="15"/>
       <c r="AU46" s="15"/>
       <c r="AV46" s="15"/>
     </row>
@@ -6574,24 +6546,24 @@
       <c r="Z47" s="69"/>
       <c r="AA47" s="69"/>
       <c r="AB47" s="69"/>
-      <c r="AC47" s="69"/>
-      <c r="AD47" s="104"/>
+      <c r="AC47" s="104"/>
+      <c r="AD47" s="69"/>
       <c r="AE47" s="69"/>
       <c r="AF47" s="69"/>
-      <c r="AG47" s="69"/>
+      <c r="AG47" s="70"/>
       <c r="AH47" s="70"/>
       <c r="AI47" s="70"/>
       <c r="AJ47" s="70"/>
-      <c r="AK47" s="70"/>
-      <c r="AL47" s="109"/>
-      <c r="AM47" s="83"/>
-      <c r="AN47" s="68"/>
-      <c r="AO47" s="117"/>
+      <c r="AK47" s="109"/>
+      <c r="AL47" s="83"/>
+      <c r="AM47" s="68"/>
+      <c r="AN47" s="117"/>
+      <c r="AO47" s="70"/>
       <c r="AP47" s="70"/>
-      <c r="AQ47" s="70"/>
-      <c r="AR47" s="109"/>
-      <c r="AS47" s="75"/>
-      <c r="AT47" s="71"/>
+      <c r="AQ47" s="109"/>
+      <c r="AR47" s="75"/>
+      <c r="AS47" s="71"/>
+      <c r="AT47" s="69"/>
       <c r="AU47" s="69"/>
       <c r="AV47" s="69"/>
     </row>
@@ -6621,43 +6593,43 @@
       </c>
       <c r="AA48" s="15"/>
       <c r="AB48" s="15"/>
-      <c r="AC48" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD48" s="97"/>
+      <c r="AC48" s="97"/>
+      <c r="AD48" s="15"/>
       <c r="AE48" s="15"/>
       <c r="AF48" s="15"/>
-      <c r="AG48" s="15"/>
+      <c r="AG48" s="16"/>
       <c r="AH48" s="16"/>
-      <c r="AI48" s="16"/>
-      <c r="AJ48" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK48" s="16"/>
-      <c r="AL48" s="110"/>
-      <c r="AM48" s="84"/>
-      <c r="AN48" s="19"/>
-      <c r="AO48" s="120"/>
+      <c r="AI48" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ48" s="16"/>
+      <c r="AK48" s="110"/>
+      <c r="AL48" s="84"/>
+      <c r="AM48" s="19"/>
+      <c r="AN48" s="120"/>
+      <c r="AO48" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP48" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ48" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR48" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS48" s="76" t="s">
+      <c r="AQ48" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT48" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AT48" s="19">
-        <v>1</v>
-      </c>
       <c r="AU48" s="15" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="AV48" s="15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:48">
@@ -6689,24 +6661,24 @@
       <c r="Z49" s="56"/>
       <c r="AA49" s="56"/>
       <c r="AB49" s="56"/>
-      <c r="AC49" s="56"/>
-      <c r="AD49" s="102"/>
+      <c r="AC49" s="102"/>
+      <c r="AD49" s="56"/>
       <c r="AE49" s="56"/>
       <c r="AF49" s="56"/>
-      <c r="AG49" s="56"/>
+      <c r="AG49" s="57"/>
       <c r="AH49" s="57"/>
       <c r="AI49" s="57"/>
       <c r="AJ49" s="57"/>
-      <c r="AK49" s="57"/>
-      <c r="AL49" s="112"/>
-      <c r="AM49" s="85"/>
-      <c r="AN49" s="58"/>
-      <c r="AO49" s="121"/>
+      <c r="AK49" s="112"/>
+      <c r="AL49" s="85"/>
+      <c r="AM49" s="58"/>
+      <c r="AN49" s="121"/>
+      <c r="AO49" s="57"/>
       <c r="AP49" s="57"/>
-      <c r="AQ49" s="57"/>
-      <c r="AR49" s="112"/>
-      <c r="AS49" s="78"/>
-      <c r="AT49" s="58"/>
+      <c r="AQ49" s="112"/>
+      <c r="AR49" s="78"/>
+      <c r="AS49" s="58"/>
+      <c r="AT49" s="56"/>
       <c r="AU49" s="56"/>
       <c r="AV49" s="56"/>
     </row>
@@ -6773,40 +6745,40 @@
       <c r="Z50" s="15"/>
       <c r="AA50" s="15"/>
       <c r="AB50" s="15"/>
-      <c r="AC50" s="15"/>
-      <c r="AD50" s="97" t="s">
+      <c r="AC50" s="97" t="s">
         <v>82</v>
       </c>
+      <c r="AD50" s="15"/>
       <c r="AE50" s="15"/>
       <c r="AF50" s="15"/>
-      <c r="AG50" s="15"/>
-      <c r="AH50" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG50" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="18"/>
       <c r="AI50" s="18"/>
       <c r="AJ50" s="18"/>
-      <c r="AK50" s="18"/>
-      <c r="AL50" s="108"/>
-      <c r="AM50" s="84" t="s">
+      <c r="AK50" s="108"/>
+      <c r="AL50" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="AN50" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO50" s="120">
+      <c r="AM50" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="120">
         <v>50</v>
       </c>
+      <c r="AO50" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP50" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ50" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR50" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS50" s="76"/>
-      <c r="AT50" s="19"/>
+      <c r="AQ50" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="76"/>
+      <c r="AS50" s="19"/>
+      <c r="AT50" s="15"/>
       <c r="AU50" s="15"/>
       <c r="AV50" s="15"/>
     </row>
@@ -6847,24 +6819,24 @@
       <c r="Z51" s="69"/>
       <c r="AA51" s="69"/>
       <c r="AB51" s="69"/>
-      <c r="AC51" s="69"/>
-      <c r="AD51" s="104"/>
+      <c r="AC51" s="104"/>
+      <c r="AD51" s="69"/>
       <c r="AE51" s="69"/>
       <c r="AF51" s="69"/>
-      <c r="AG51" s="69"/>
+      <c r="AG51" s="70"/>
       <c r="AH51" s="70"/>
       <c r="AI51" s="70"/>
       <c r="AJ51" s="70"/>
-      <c r="AK51" s="70"/>
-      <c r="AL51" s="109"/>
-      <c r="AM51" s="83"/>
-      <c r="AN51" s="68"/>
-      <c r="AO51" s="117"/>
+      <c r="AK51" s="109"/>
+      <c r="AL51" s="83"/>
+      <c r="AM51" s="68"/>
+      <c r="AN51" s="117"/>
+      <c r="AO51" s="70"/>
       <c r="AP51" s="70"/>
-      <c r="AQ51" s="70"/>
-      <c r="AR51" s="109"/>
-      <c r="AS51" s="75"/>
-      <c r="AT51" s="71"/>
+      <c r="AQ51" s="109"/>
+      <c r="AR51" s="75"/>
+      <c r="AS51" s="71"/>
+      <c r="AT51" s="69"/>
       <c r="AU51" s="69"/>
       <c r="AV51" s="69"/>
     </row>
@@ -6911,53 +6883,53 @@
       </c>
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
-      <c r="AC52" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD52" s="97"/>
+      <c r="AC52" s="97"/>
+      <c r="AD52" s="15"/>
       <c r="AE52" s="15"/>
       <c r="AF52" s="15"/>
-      <c r="AG52" s="15"/>
+      <c r="AG52" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AH52" s="16" t="b">
         <v>1</v>
       </c>
       <c r="AI52" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ52" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK52" s="16"/>
-      <c r="AL52" s="110"/>
-      <c r="AM52" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="16"/>
+      <c r="AK52" s="110"/>
+      <c r="AL52" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="AN52" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO52" s="120">
+      <c r="AM52" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="120">
         <v>50</v>
       </c>
+      <c r="AO52" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP52" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ52" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR52" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS52" s="76" t="s">
+      <c r="AQ52" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR52" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS52" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT52" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AT52" s="19">
-        <v>1</v>
-      </c>
       <c r="AU52" s="15" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="AV52" s="15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:48">
@@ -6989,43 +6961,43 @@
       <c r="Z53" s="15"/>
       <c r="AA53" s="15"/>
       <c r="AB53" s="15"/>
-      <c r="AC53" s="15"/>
-      <c r="AD53" s="97"/>
+      <c r="AC53" s="97"/>
+      <c r="AD53" s="15"/>
       <c r="AE53" s="15"/>
       <c r="AF53" s="15"/>
       <c r="AG53" s="15"/>
       <c r="AH53" s="15"/>
       <c r="AI53" s="15"/>
       <c r="AJ53" s="15"/>
-      <c r="AK53" s="15"/>
-      <c r="AL53" s="97"/>
-      <c r="AM53" s="84" t="s">
+      <c r="AK53" s="97"/>
+      <c r="AL53" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AN53" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO53" s="120">
+      <c r="AM53" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="120">
         <v>50</v>
       </c>
+      <c r="AO53" s="16"/>
       <c r="AP53" s="16"/>
-      <c r="AQ53" s="16"/>
-      <c r="AR53" s="110"/>
-      <c r="AS53" s="76"/>
-      <c r="AT53" s="19"/>
+      <c r="AQ53" s="110"/>
+      <c r="AR53" s="76"/>
+      <c r="AS53" s="19"/>
+      <c r="AT53" s="15"/>
       <c r="AU53" s="15"/>
       <c r="AV53" s="15"/>
     </row>
     <row r="54" spans="1:48">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
-      <c r="AM54" s="84" t="s">
+      <c r="AL54" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AN54" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO54" s="122">
+      <c r="AM54" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="122">
         <v>3</v>
       </c>
     </row>
@@ -7041,24 +7013,24 @@
       <c r="Z55" s="69"/>
       <c r="AA55" s="69"/>
       <c r="AB55" s="69"/>
-      <c r="AC55" s="69"/>
-      <c r="AD55" s="104"/>
+      <c r="AC55" s="104"/>
+      <c r="AD55" s="69"/>
       <c r="AE55" s="69"/>
       <c r="AF55" s="69"/>
-      <c r="AG55" s="69"/>
+      <c r="AG55" s="70"/>
       <c r="AH55" s="70"/>
       <c r="AI55" s="70"/>
       <c r="AJ55" s="70"/>
-      <c r="AK55" s="70"/>
-      <c r="AL55" s="109"/>
-      <c r="AM55" s="83"/>
-      <c r="AN55" s="68"/>
-      <c r="AO55" s="117"/>
+      <c r="AK55" s="109"/>
+      <c r="AL55" s="83"/>
+      <c r="AM55" s="68"/>
+      <c r="AN55" s="117"/>
+      <c r="AO55" s="70"/>
       <c r="AP55" s="70"/>
-      <c r="AQ55" s="70"/>
-      <c r="AR55" s="109"/>
-      <c r="AS55" s="75"/>
-      <c r="AT55" s="71"/>
+      <c r="AQ55" s="109"/>
+      <c r="AR55" s="75"/>
+      <c r="AS55" s="71"/>
+      <c r="AT55" s="69"/>
       <c r="AU55" s="69"/>
       <c r="AV55" s="69"/>
     </row>
@@ -7088,43 +7060,43 @@
       </c>
       <c r="AA56" s="15"/>
       <c r="AB56" s="15"/>
-      <c r="AC56" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD56" s="97"/>
+      <c r="AC56" s="97"/>
+      <c r="AD56" s="15"/>
       <c r="AE56" s="15"/>
       <c r="AF56" s="15"/>
-      <c r="AG56" s="15"/>
+      <c r="AG56" s="16"/>
       <c r="AH56" s="16"/>
-      <c r="AI56" s="16"/>
-      <c r="AJ56" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK56" s="16"/>
-      <c r="AL56" s="110"/>
-      <c r="AM56" s="84"/>
-      <c r="AN56" s="19"/>
-      <c r="AO56" s="120"/>
+      <c r="AI56" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ56" s="16"/>
+      <c r="AK56" s="110"/>
+      <c r="AL56" s="84"/>
+      <c r="AM56" s="19"/>
+      <c r="AN56" s="120"/>
+      <c r="AO56" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP56" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR56" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS56" s="76" t="s">
+      <c r="AQ56" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR56" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS56" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT56" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AT56" s="19">
-        <v>1</v>
-      </c>
       <c r="AU56" s="15" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="AV56" s="15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:48" ht="12" customHeight="1">
@@ -7156,24 +7128,24 @@
       <c r="Z57" s="59"/>
       <c r="AA57" s="59"/>
       <c r="AB57" s="59"/>
-      <c r="AC57" s="59"/>
-      <c r="AD57" s="96"/>
+      <c r="AC57" s="96"/>
+      <c r="AD57" s="59"/>
       <c r="AE57" s="59"/>
       <c r="AF57" s="59"/>
-      <c r="AG57" s="59"/>
+      <c r="AG57" s="61"/>
       <c r="AH57" s="61"/>
       <c r="AI57" s="61"/>
-      <c r="AJ57" s="61"/>
-      <c r="AK57" s="60"/>
-      <c r="AL57" s="107"/>
-      <c r="AM57" s="81"/>
-      <c r="AN57" s="62"/>
-      <c r="AO57" s="115"/>
+      <c r="AJ57" s="60"/>
+      <c r="AK57" s="107"/>
+      <c r="AL57" s="81"/>
+      <c r="AM57" s="62"/>
+      <c r="AN57" s="115"/>
+      <c r="AO57" s="61"/>
       <c r="AP57" s="61"/>
-      <c r="AQ57" s="61"/>
-      <c r="AR57" s="126"/>
-      <c r="AS57" s="73"/>
-      <c r="AT57" s="62"/>
+      <c r="AQ57" s="126"/>
+      <c r="AR57" s="73"/>
+      <c r="AS57" s="62"/>
+      <c r="AT57" s="59"/>
       <c r="AU57" s="59"/>
       <c r="AV57" s="59"/>
     </row>
@@ -7248,38 +7220,38 @@
       <c r="AB58" s="15">
         <v>5</v>
       </c>
-      <c r="AC58" s="15"/>
-      <c r="AD58" s="97" t="s">
+      <c r="AC58" s="97" t="s">
         <v>82</v>
       </c>
+      <c r="AD58" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="AE58" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF58" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AF58" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG58" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH58" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG58" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="18"/>
       <c r="AI58" s="18"/>
       <c r="AJ58" s="18"/>
-      <c r="AK58" s="18"/>
-      <c r="AL58" s="108"/>
-      <c r="AM58" s="86"/>
-      <c r="AN58" s="18"/>
-      <c r="AO58" s="108"/>
-      <c r="AP58" s="18"/>
-      <c r="AQ58" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR58" s="108"/>
-      <c r="AS58" s="74"/>
-      <c r="AT58" s="93"/>
+      <c r="AK58" s="108"/>
+      <c r="AL58" s="86"/>
+      <c r="AM58" s="18"/>
+      <c r="AN58" s="108"/>
+      <c r="AO58" s="18"/>
+      <c r="AP58" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ58" s="108"/>
+      <c r="AR58" s="74"/>
+      <c r="AS58" s="93"/>
+      <c r="AT58" s="18"/>
       <c r="AU58" s="18"/>
-      <c r="AV58" s="18"/>
+      <c r="AV58" s="15"/>
     </row>
     <row r="59" spans="1:48">
       <c r="A59" s="15"/>
@@ -7310,24 +7282,24 @@
       <c r="Z59" s="69"/>
       <c r="AA59" s="69"/>
       <c r="AB59" s="69"/>
-      <c r="AC59" s="69"/>
-      <c r="AD59" s="104"/>
+      <c r="AC59" s="104"/>
+      <c r="AD59" s="69"/>
       <c r="AE59" s="69"/>
       <c r="AF59" s="69"/>
-      <c r="AG59" s="69"/>
+      <c r="AG59" s="70"/>
       <c r="AH59" s="70"/>
       <c r="AI59" s="70"/>
       <c r="AJ59" s="70"/>
-      <c r="AK59" s="70"/>
-      <c r="AL59" s="109"/>
-      <c r="AM59" s="83"/>
-      <c r="AN59" s="68"/>
-      <c r="AO59" s="117"/>
+      <c r="AK59" s="109"/>
+      <c r="AL59" s="83"/>
+      <c r="AM59" s="68"/>
+      <c r="AN59" s="117"/>
+      <c r="AO59" s="70"/>
       <c r="AP59" s="70"/>
-      <c r="AQ59" s="70"/>
-      <c r="AR59" s="109"/>
-      <c r="AS59" s="75"/>
-      <c r="AT59" s="71"/>
+      <c r="AQ59" s="109"/>
+      <c r="AR59" s="75"/>
+      <c r="AS59" s="71"/>
+      <c r="AT59" s="69"/>
       <c r="AU59" s="69"/>
       <c r="AV59" s="69"/>
     </row>
@@ -7374,53 +7346,53 @@
       </c>
       <c r="AA60" s="15"/>
       <c r="AB60" s="15"/>
-      <c r="AC60" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD60" s="97"/>
+      <c r="AC60" s="97"/>
+      <c r="AD60" s="15"/>
       <c r="AE60" s="15"/>
       <c r="AF60" s="15"/>
-      <c r="AG60" s="15"/>
+      <c r="AG60" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AH60" s="16" t="b">
         <v>1</v>
       </c>
       <c r="AI60" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ60" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK60" s="16"/>
-      <c r="AL60" s="110"/>
-      <c r="AM60" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="16"/>
+      <c r="AK60" s="110"/>
+      <c r="AL60" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="AN60" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO60" s="120">
+      <c r="AM60" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="120">
         <v>50</v>
       </c>
+      <c r="AO60" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP60" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ60" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR60" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS60" s="76" t="s">
+      <c r="AQ60" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR60" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS60" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT60" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AT60" s="19">
-        <v>1</v>
-      </c>
       <c r="AU60" s="15" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="AV60" s="15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:48">
@@ -7452,30 +7424,30 @@
       <c r="Z61" s="15"/>
       <c r="AA61" s="15"/>
       <c r="AB61" s="15"/>
-      <c r="AC61" s="15"/>
-      <c r="AD61" s="97"/>
+      <c r="AC61" s="97"/>
+      <c r="AD61" s="15"/>
       <c r="AE61" s="15"/>
       <c r="AF61" s="15"/>
       <c r="AG61" s="15"/>
       <c r="AH61" s="15"/>
       <c r="AI61" s="15"/>
       <c r="AJ61" s="15"/>
-      <c r="AK61" s="15"/>
-      <c r="AL61" s="97"/>
-      <c r="AM61" s="84" t="s">
+      <c r="AK61" s="97"/>
+      <c r="AL61" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AN61" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO61" s="120">
+      <c r="AM61" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="120">
         <v>50</v>
       </c>
+      <c r="AO61" s="16"/>
       <c r="AP61" s="16"/>
-      <c r="AQ61" s="16"/>
-      <c r="AR61" s="110"/>
-      <c r="AS61" s="76"/>
-      <c r="AT61" s="19"/>
+      <c r="AQ61" s="110"/>
+      <c r="AR61" s="76"/>
+      <c r="AS61" s="19"/>
+      <c r="AT61" s="15"/>
       <c r="AU61" s="15"/>
       <c r="AV61" s="15"/>
     </row>
@@ -7483,13 +7455,13 @@
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="T62" s="45"/>
-      <c r="AM62" s="84" t="s">
+      <c r="AL62" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AN62" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO62" s="122">
+      <c r="AM62" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="122">
         <v>3</v>
       </c>
     </row>
@@ -7522,24 +7494,24 @@
       <c r="Z63" s="69"/>
       <c r="AA63" s="69"/>
       <c r="AB63" s="69"/>
-      <c r="AC63" s="69"/>
-      <c r="AD63" s="104"/>
+      <c r="AC63" s="104"/>
+      <c r="AD63" s="69"/>
       <c r="AE63" s="69"/>
       <c r="AF63" s="69"/>
-      <c r="AG63" s="69"/>
+      <c r="AG63" s="70"/>
       <c r="AH63" s="70"/>
       <c r="AI63" s="70"/>
       <c r="AJ63" s="70"/>
-      <c r="AK63" s="70"/>
-      <c r="AL63" s="109"/>
-      <c r="AM63" s="83"/>
-      <c r="AN63" s="68"/>
-      <c r="AO63" s="117"/>
+      <c r="AK63" s="109"/>
+      <c r="AL63" s="83"/>
+      <c r="AM63" s="68"/>
+      <c r="AN63" s="117"/>
+      <c r="AO63" s="70"/>
       <c r="AP63" s="70"/>
-      <c r="AQ63" s="70"/>
-      <c r="AR63" s="109"/>
-      <c r="AS63" s="75"/>
-      <c r="AT63" s="71"/>
+      <c r="AQ63" s="109"/>
+      <c r="AR63" s="75"/>
+      <c r="AS63" s="71"/>
+      <c r="AT63" s="69"/>
       <c r="AU63" s="69"/>
       <c r="AV63" s="69"/>
     </row>
@@ -7573,7 +7545,7 @@
         <v>200</v>
       </c>
       <c r="W64" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X64" s="15" t="s">
         <v>95</v>
@@ -7586,43 +7558,43 @@
       </c>
       <c r="AA64" s="15"/>
       <c r="AB64" s="15"/>
-      <c r="AC64" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD64" s="97"/>
+      <c r="AC64" s="97"/>
+      <c r="AD64" s="15"/>
       <c r="AE64" s="15"/>
       <c r="AF64" s="15"/>
-      <c r="AG64" s="15"/>
+      <c r="AG64" s="16"/>
       <c r="AH64" s="16"/>
-      <c r="AI64" s="16"/>
-      <c r="AJ64" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK64" s="16"/>
-      <c r="AL64" s="110"/>
-      <c r="AM64" s="84"/>
-      <c r="AN64" s="19"/>
-      <c r="AO64" s="120"/>
+      <c r="AI64" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ64" s="16"/>
+      <c r="AK64" s="110"/>
+      <c r="AL64" s="84"/>
+      <c r="AM64" s="19"/>
+      <c r="AN64" s="120"/>
+      <c r="AO64" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP64" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR64" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS64" s="76" t="s">
+      <c r="AQ64" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR64" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS64" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT64" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AT64" s="19">
-        <v>1</v>
-      </c>
       <c r="AU64" s="15" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="AV64" s="15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:48" ht="12" customHeight="1">
@@ -7654,24 +7626,24 @@
       <c r="Z65" s="59"/>
       <c r="AA65" s="59"/>
       <c r="AB65" s="59"/>
-      <c r="AC65" s="59"/>
-      <c r="AD65" s="96"/>
+      <c r="AC65" s="96"/>
+      <c r="AD65" s="59"/>
       <c r="AE65" s="59"/>
       <c r="AF65" s="59"/>
-      <c r="AG65" s="59"/>
+      <c r="AG65" s="61"/>
       <c r="AH65" s="61"/>
       <c r="AI65" s="61"/>
-      <c r="AJ65" s="61"/>
-      <c r="AK65" s="60"/>
-      <c r="AL65" s="107"/>
-      <c r="AM65" s="81"/>
-      <c r="AN65" s="62"/>
-      <c r="AO65" s="115"/>
+      <c r="AJ65" s="60"/>
+      <c r="AK65" s="107"/>
+      <c r="AL65" s="81"/>
+      <c r="AM65" s="62"/>
+      <c r="AN65" s="115"/>
+      <c r="AO65" s="61"/>
       <c r="AP65" s="61"/>
-      <c r="AQ65" s="61"/>
-      <c r="AR65" s="126"/>
-      <c r="AS65" s="73"/>
-      <c r="AT65" s="62"/>
+      <c r="AQ65" s="126"/>
+      <c r="AR65" s="73"/>
+      <c r="AS65" s="62"/>
+      <c r="AT65" s="59"/>
       <c r="AU65" s="59"/>
       <c r="AV65" s="59"/>
     </row>
@@ -7746,38 +7718,38 @@
       <c r="AB66" s="15">
         <v>5</v>
       </c>
-      <c r="AC66" s="15"/>
-      <c r="AD66" s="97" t="s">
+      <c r="AC66" s="97" t="s">
         <v>82</v>
       </c>
+      <c r="AD66" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="AE66" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF66" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AF66" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG66" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH66" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG66" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH66" s="18"/>
       <c r="AI66" s="18"/>
       <c r="AJ66" s="18"/>
-      <c r="AK66" s="18"/>
-      <c r="AL66" s="108"/>
-      <c r="AM66" s="86"/>
-      <c r="AN66" s="18"/>
-      <c r="AO66" s="108"/>
-      <c r="AP66" s="18"/>
-      <c r="AQ66" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR66" s="108"/>
-      <c r="AS66" s="74"/>
-      <c r="AT66" s="93"/>
+      <c r="AK66" s="108"/>
+      <c r="AL66" s="86"/>
+      <c r="AM66" s="18"/>
+      <c r="AN66" s="108"/>
+      <c r="AO66" s="18"/>
+      <c r="AP66" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ66" s="108"/>
+      <c r="AR66" s="74"/>
+      <c r="AS66" s="93"/>
+      <c r="AT66" s="18"/>
       <c r="AU66" s="18"/>
-      <c r="AV66" s="18"/>
+      <c r="AV66" s="15"/>
     </row>
     <row r="67" spans="1:48">
       <c r="A67" s="15"/>
@@ -7810,24 +7782,24 @@
       <c r="Z67" s="69"/>
       <c r="AA67" s="69"/>
       <c r="AB67" s="69"/>
-      <c r="AC67" s="69"/>
-      <c r="AD67" s="104"/>
+      <c r="AC67" s="104"/>
+      <c r="AD67" s="69"/>
       <c r="AE67" s="69"/>
       <c r="AF67" s="69"/>
-      <c r="AG67" s="69"/>
+      <c r="AG67" s="70"/>
       <c r="AH67" s="70"/>
       <c r="AI67" s="70"/>
       <c r="AJ67" s="70"/>
-      <c r="AK67" s="70"/>
-      <c r="AL67" s="109"/>
-      <c r="AM67" s="83"/>
-      <c r="AN67" s="68"/>
-      <c r="AO67" s="117"/>
+      <c r="AK67" s="109"/>
+      <c r="AL67" s="83"/>
+      <c r="AM67" s="68"/>
+      <c r="AN67" s="117"/>
+      <c r="AO67" s="70"/>
       <c r="AP67" s="70"/>
-      <c r="AQ67" s="70"/>
-      <c r="AR67" s="109"/>
-      <c r="AS67" s="75"/>
-      <c r="AT67" s="71"/>
+      <c r="AQ67" s="109"/>
+      <c r="AR67" s="75"/>
+      <c r="AS67" s="71"/>
+      <c r="AT67" s="69"/>
       <c r="AU67" s="69"/>
       <c r="AV67" s="69"/>
     </row>
@@ -7874,53 +7846,53 @@
       </c>
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
-      <c r="AC68" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD68" s="97"/>
+      <c r="AC68" s="97"/>
+      <c r="AD68" s="15"/>
       <c r="AE68" s="15"/>
       <c r="AF68" s="15"/>
-      <c r="AG68" s="15"/>
+      <c r="AG68" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AH68" s="16" t="b">
         <v>1</v>
       </c>
       <c r="AI68" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ68" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK68" s="16"/>
-      <c r="AL68" s="110"/>
-      <c r="AM68" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="16"/>
+      <c r="AK68" s="110"/>
+      <c r="AL68" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AN68" s="80">
-        <v>0</v>
-      </c>
-      <c r="AO68" s="119">
+      <c r="AM68" s="80">
+        <v>0</v>
+      </c>
+      <c r="AN68" s="119">
         <v>50</v>
       </c>
+      <c r="AO68" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP68" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ68" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR68" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS68" s="76" t="s">
+      <c r="AQ68" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR68" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS68" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT68" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AT68" s="19">
-        <v>1</v>
-      </c>
       <c r="AU68" s="15" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="AV68" s="15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:48">
@@ -7952,30 +7924,30 @@
       <c r="Z69" s="15"/>
       <c r="AA69" s="15"/>
       <c r="AB69" s="15"/>
-      <c r="AC69" s="15"/>
-      <c r="AD69" s="97"/>
+      <c r="AC69" s="97"/>
+      <c r="AD69" s="15"/>
       <c r="AE69" s="15"/>
       <c r="AF69" s="15"/>
       <c r="AG69" s="15"/>
       <c r="AH69" s="15"/>
       <c r="AI69" s="15"/>
       <c r="AJ69" s="15"/>
-      <c r="AK69" s="15"/>
-      <c r="AL69" s="97"/>
-      <c r="AM69" s="82" t="s">
+      <c r="AK69" s="97"/>
+      <c r="AL69" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AN69" s="80">
-        <v>0</v>
-      </c>
-      <c r="AO69" s="119">
+      <c r="AM69" s="80">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="119">
         <v>50</v>
       </c>
+      <c r="AO69" s="16"/>
       <c r="AP69" s="16"/>
-      <c r="AQ69" s="16"/>
-      <c r="AR69" s="110"/>
-      <c r="AS69" s="76"/>
-      <c r="AT69" s="19"/>
+      <c r="AQ69" s="110"/>
+      <c r="AR69" s="76"/>
+      <c r="AS69" s="19"/>
+      <c r="AT69" s="15"/>
       <c r="AU69" s="15"/>
       <c r="AV69" s="15"/>
     </row>
@@ -7983,13 +7955,13 @@
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="T70" s="45"/>
-      <c r="AM70" s="82" t="s">
+      <c r="AL70" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="AN70" s="80">
-        <v>0</v>
-      </c>
-      <c r="AO70" s="119">
+      <c r="AM70" s="80">
+        <v>0</v>
+      </c>
+      <c r="AN70" s="119">
         <v>3</v>
       </c>
     </row>
@@ -8022,24 +7994,24 @@
       <c r="Z71" s="69"/>
       <c r="AA71" s="69"/>
       <c r="AB71" s="69"/>
-      <c r="AC71" s="69"/>
-      <c r="AD71" s="104"/>
+      <c r="AC71" s="104"/>
+      <c r="AD71" s="69"/>
       <c r="AE71" s="69"/>
       <c r="AF71" s="69"/>
-      <c r="AG71" s="69"/>
+      <c r="AG71" s="70"/>
       <c r="AH71" s="70"/>
       <c r="AI71" s="70"/>
       <c r="AJ71" s="70"/>
-      <c r="AK71" s="70"/>
-      <c r="AL71" s="109"/>
-      <c r="AM71" s="83"/>
-      <c r="AN71" s="68"/>
-      <c r="AO71" s="117"/>
+      <c r="AK71" s="109"/>
+      <c r="AL71" s="83"/>
+      <c r="AM71" s="68"/>
+      <c r="AN71" s="117"/>
+      <c r="AO71" s="70"/>
       <c r="AP71" s="70"/>
-      <c r="AQ71" s="70"/>
-      <c r="AR71" s="109"/>
-      <c r="AS71" s="75"/>
-      <c r="AT71" s="71"/>
+      <c r="AQ71" s="109"/>
+      <c r="AR71" s="75"/>
+      <c r="AS71" s="71"/>
+      <c r="AT71" s="69"/>
       <c r="AU71" s="69"/>
       <c r="AV71" s="69"/>
     </row>
@@ -8073,7 +8045,7 @@
         <v>200</v>
       </c>
       <c r="W72" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X72" s="15" t="s">
         <v>95</v>
@@ -8086,43 +8058,43 @@
       </c>
       <c r="AA72" s="15"/>
       <c r="AB72" s="15"/>
-      <c r="AC72" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD72" s="97"/>
+      <c r="AC72" s="97"/>
+      <c r="AD72" s="15"/>
       <c r="AE72" s="15"/>
       <c r="AF72" s="15"/>
-      <c r="AG72" s="15"/>
+      <c r="AG72" s="16"/>
       <c r="AH72" s="16"/>
-      <c r="AI72" s="16"/>
-      <c r="AJ72" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK72" s="16"/>
-      <c r="AL72" s="110"/>
-      <c r="AM72" s="84"/>
-      <c r="AN72" s="19"/>
-      <c r="AO72" s="120"/>
+      <c r="AI72" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ72" s="16"/>
+      <c r="AK72" s="110"/>
+      <c r="AL72" s="84"/>
+      <c r="AM72" s="19"/>
+      <c r="AN72" s="120"/>
+      <c r="AO72" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AP72" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AQ72" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR72" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS72" s="76" t="s">
+      <c r="AQ72" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR72" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS72" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT72" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AT72" s="19">
-        <v>1</v>
-      </c>
       <c r="AU72" s="15" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="AV72" s="15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:48">
@@ -8154,24 +8126,24 @@
       <c r="Z73" s="63"/>
       <c r="AA73" s="63"/>
       <c r="AB73" s="63"/>
-      <c r="AC73" s="63"/>
-      <c r="AD73" s="100"/>
+      <c r="AC73" s="100"/>
+      <c r="AD73" s="63"/>
       <c r="AE73" s="63"/>
       <c r="AF73" s="63"/>
-      <c r="AG73" s="63"/>
+      <c r="AG73" s="64"/>
       <c r="AH73" s="64"/>
       <c r="AI73" s="64"/>
       <c r="AJ73" s="64"/>
-      <c r="AK73" s="64"/>
-      <c r="AL73" s="113"/>
-      <c r="AM73" s="87"/>
-      <c r="AN73" s="65"/>
-      <c r="AO73" s="124"/>
+      <c r="AK73" s="113"/>
+      <c r="AL73" s="87"/>
+      <c r="AM73" s="65"/>
+      <c r="AN73" s="124"/>
+      <c r="AO73" s="64"/>
       <c r="AP73" s="64"/>
-      <c r="AQ73" s="64"/>
-      <c r="AR73" s="113"/>
-      <c r="AS73" s="79"/>
-      <c r="AT73" s="65"/>
+      <c r="AQ73" s="113"/>
+      <c r="AR73" s="79"/>
+      <c r="AS73" s="65"/>
+      <c r="AT73" s="63"/>
       <c r="AU73" s="63"/>
       <c r="AV73" s="63"/>
     </row>
@@ -8236,11 +8208,11 @@
       <c r="Z74" s="15"/>
       <c r="AA74" s="15"/>
       <c r="AB74" s="15"/>
-      <c r="AC74" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD74" s="97" t="s">
+      <c r="AC74" s="97" t="s">
         <v>119</v>
+      </c>
+      <c r="AD74" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="AE74" s="15" t="s">
         <v>84</v>
@@ -8248,44 +8220,44 @@
       <c r="AF74" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AG74" s="15" t="s">
-        <v>84</v>
+      <c r="AG74" s="16" t="b">
+        <v>1</v>
       </c>
       <c r="AH74" s="16" t="b">
         <v>1</v>
       </c>
       <c r="AI74" s="16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ74" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK74" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL74" s="110"/>
-      <c r="AM74" s="84" t="s">
+      <c r="AK74" s="110"/>
+      <c r="AL74" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="AN74" s="19">
+      <c r="AM74" s="19">
         <v>50</v>
       </c>
-      <c r="AO74" s="120" t="s">
+      <c r="AN74" s="120" t="s">
         <v>85</v>
       </c>
+      <c r="AO74" s="16"/>
       <c r="AP74" s="16"/>
-      <c r="AQ74" s="16"/>
-      <c r="AR74" s="110"/>
-      <c r="AS74" s="76" t="s">
+      <c r="AQ74" s="110"/>
+      <c r="AR74" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="AT74" s="19">
+      <c r="AS74" s="19">
         <v>50</v>
       </c>
-      <c r="AU74" s="16" t="s">
+      <c r="AT74" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="AV74" s="15"/>
+      <c r="AU74" s="15"/>
+      <c r="AV74" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="75" spans="1:48">
       <c r="A75" s="15"/>
@@ -8318,37 +8290,37 @@
       <c r="Z75" s="15"/>
       <c r="AA75" s="15"/>
       <c r="AB75" s="15"/>
-      <c r="AC75" s="15"/>
-      <c r="AD75" s="97"/>
+      <c r="AC75" s="97"/>
+      <c r="AD75" s="15"/>
       <c r="AE75" s="15"/>
       <c r="AF75" s="15"/>
-      <c r="AG75" s="15"/>
+      <c r="AG75" s="16"/>
       <c r="AH75" s="16"/>
       <c r="AI75" s="16"/>
       <c r="AJ75" s="16"/>
-      <c r="AK75" s="16"/>
-      <c r="AL75" s="110"/>
-      <c r="AM75" s="84" t="s">
+      <c r="AK75" s="110"/>
+      <c r="AL75" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AN75" s="19">
+      <c r="AM75" s="19">
         <v>170</v>
       </c>
-      <c r="AO75" s="120" t="s">
+      <c r="AN75" s="120" t="s">
         <v>85</v>
       </c>
+      <c r="AO75" s="16"/>
       <c r="AP75" s="16"/>
-      <c r="AQ75" s="16"/>
-      <c r="AR75" s="110"/>
-      <c r="AS75" s="76" t="s">
+      <c r="AQ75" s="110"/>
+      <c r="AR75" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="AT75" s="19">
+      <c r="AS75" s="19">
         <v>50</v>
       </c>
-      <c r="AU75" s="16" t="s">
+      <c r="AT75" s="16" t="s">
         <v>121</v>
       </c>
+      <c r="AU75" s="15"/>
       <c r="AV75" s="15"/>
     </row>
     <row r="80" spans="1:48">
@@ -8361,358 +8333,328 @@
       <c r="H80" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AM13 B7:B13 Z17:AD17 X16:X17 U16:W16 C23:D23 E22:H23 B67:B70 B16:B23 C18:D20 E17:H19 C7:G12 T42:Y42 T22:AL22 T39:AL39 T18:AL18 T55:AL55 T43:AL43 T33:AL33 T29:AL29 T71:AL71 T67:AL67 T37:AL37 T63:AL63 AH17:AO17 AA36:AR36 AA46:AR46 AE50:AR50 AA42:AR42 AH27:AO28 AH25:AO25 AM23:AR23 AM19:AR20 AM40:AR40 AM48:AR48 AM56:AR56 AO52:AR53 AM44:AR44 AM34:AR34 AM30:AR31 AP22:AV22 AP39:AR39 AP17:AV18 AP47:AV47 AP55:AV55 AP51:AV51 AP43:AV43 AP33:AV33 AP25:AV29 AP37:AR37 AS37:AV39 Y16:AV16 AP5:AV10 W76:AV77 Y24:AV24 AM11:AV12 AM15:AV15 AP14:AV14 AM68:AV69 AP67:AV67 AM72:AV72 AP71:AV71 AM60:AV61 AP59:AV59 AM64:AV64 AP63:AV63 P36:Y36 P25:T25 P46:Y46 P50:AC50 P12:S12 I7:O12 P37:S40 P48:S48 P52:S56 P71:S72 P61:S61 P34:S34 P29:S31 P10:AL11 P76:U77 P15:V15 P24:W24 P28:AG28 P27:Y27 P60:AG60 P14:AL14 P26:AL26 P59:AL59 P8:AO9 P73:AV75 P35:AV35 P45:AV45 P49:AV49 P41:AV41 P47:AL47 P51:AL51 P7:AL7 B5:G6 I23:S23 I18:S20 C67:S69 B71:O77 C59:O61 B63:S64 I26:O31 C16:T17 B14:O15 C24:O25 B58:AV58 B66:AV66 I5:AO6 AM38:AR38 P42:S44 B35:H56 I34:O56">
-    <cfRule type="cellIs" dxfId="81" priority="182" operator="equal">
+  <conditionalFormatting sqref="AL13 B7:B13 X16:X17 U16:W16 C23:D23 E22:H23 B67:B70 B16:B23 C18:D20 E17:H19 C7:G12 T42:Y42 AG17:AN17 AD50:AQ50 AG25:AN25 AL23:AQ23 AL19:AQ20 AL40:AQ40 AL48:AQ48 AL56:AQ56 AN52:AQ53 AL44:AQ44 AL34:AQ34 AL30:AQ31 AO22:AV22 AO39:AQ39 AO17:AV18 AO47:AV47 AO55:AV55 AO51:AV51 AO43:AV43 AO33:AV33 AO25:AV29 AO37:AQ37 AR37:AV39 AO5:AV10 AL11:AV12 AL15:AV15 AO14:AV14 AL68:AV69 AO67:AV67 AL72:AV72 AO71:AV71 AL60:AV61 AO59:AV59 AL64:AV64 AO63:AV63 P36:Y36 P25:T25 P46:Y46 P12:S12 I7:O12 P37:S40 P48:S48 P52:S56 P71:S72 P61:S61 P34:S34 P29:S31 P76:U77 P15:V15 P24:W24 P27:Y27 B5:G6 I23:S23 I18:S20 C67:S69 B71:O77 C59:O61 B63:S64 I26:O31 C16:T17 B14:O15 C24:O25 AL38:AQ38 P42:S44 B35:H56 I34:O56 Z17:AC17 T22:AB22 T39:AB39 T18:AB18 T55:AB55 T43:AB43 T33:AB33 T71:AB71 T67:AB67 T37:AK37 T63:AB63 Y16:AU16 W76:AB77 Y24:AU24 AC10:AK11 P28:AB28 AC60:AF60 P14:AB14 P26:AK26 P59:AB60 AC59:AK59 AV59:AV60 AC8:AN9 P73:AB75 AC73:AU77 P35:AU35 P45:AU45 AC49:AU49 P41:AU41 P47:AB47 P7:AB11 AC7:AK7 B58:AV58 B66:AU66 I5:AN6 AV5:AV11 X15:AB15 AC14:AK15 AA36:AQ36 X19:AB19 AC18:AK19 AV14:AV19 AA46:AQ46 U23:AB23 AC22:AK23 U40:AB40 AC39:AK40 P49:AB51 U48:AB48 AC47:AK48 AA42:AQ42 T52:AB52 AC51:AK52 U56:AB56 AC55:AK56 AV55:AV56 U44:AB44 AC43:AK44 AA25:AC25 AA27:AB27 AC27:AN28 T29:AK30 AV22:AV30 U34:AB34 AC33:AK34 U68:AB68 AC67:AK68 AV66:AV68 U72:AB72 AC71:AK72 AV71:AV77 Z38:AC38 AV33:AV52 U64:AB64 AC63:AK64 AV63:AV64">
+    <cfRule type="cellIs" dxfId="75" priority="182" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17:V17">
-    <cfRule type="cellIs" dxfId="80" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="180" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD17">
-    <cfRule type="cellIs" dxfId="79" priority="178" operator="equal">
+  <conditionalFormatting sqref="AC17">
+    <cfRule type="cellIs" dxfId="73" priority="178" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE17:AG17">
-    <cfRule type="cellIs" dxfId="78" priority="177" operator="equal">
+  <conditionalFormatting sqref="AD17:AF17">
+    <cfRule type="cellIs" dxfId="72" priority="177" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17:Y17">
-    <cfRule type="cellIs" dxfId="77" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="176" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X15:AL15">
-    <cfRule type="cellIs" dxfId="76" priority="173" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA36:AD36 U35:W35">
-    <cfRule type="cellIs" dxfId="75" priority="170" operator="equal">
+  <conditionalFormatting sqref="U35:W35">
+    <cfRule type="cellIs" dxfId="70" priority="170" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U36:V36">
-    <cfRule type="cellIs" dxfId="74" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="169" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD36">
-    <cfRule type="cellIs" dxfId="73" priority="167" operator="equal">
+  <conditionalFormatting sqref="AC36">
+    <cfRule type="cellIs" dxfId="68" priority="167" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE36:AG36">
-    <cfRule type="cellIs" dxfId="72" priority="166" operator="equal">
+  <conditionalFormatting sqref="AD36:AF36">
+    <cfRule type="cellIs" dxfId="67" priority="166" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36:Y36">
-    <cfRule type="cellIs" dxfId="71" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="165" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS36:AV36">
-    <cfRule type="cellIs" dxfId="70" priority="160" operator="equal">
+  <conditionalFormatting sqref="AR36:AV36">
+    <cfRule type="cellIs" dxfId="65" priority="160" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS19:AV20 AM21 T19:V19 X19:AL19">
-    <cfRule type="cellIs" dxfId="69" priority="150" operator="equal">
+  <conditionalFormatting sqref="AR19:AV20 AL21 T19:V19">
+    <cfRule type="cellIs" dxfId="64" priority="150" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA46:AD46">
-    <cfRule type="cellIs" dxfId="68" priority="132" operator="equal">
+  <conditionalFormatting sqref="AR23:AV23">
+    <cfRule type="cellIs" dxfId="63" priority="147" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS23:AV23 U23:AL23">
-    <cfRule type="cellIs" dxfId="67" priority="147" operator="equal">
+  <conditionalFormatting sqref="AR40:AV40">
+    <cfRule type="cellIs" dxfId="62" priority="139" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS40:AV40 U40:AL40">
-    <cfRule type="cellIs" dxfId="66" priority="139" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN52:AN53">
-    <cfRule type="cellIs" dxfId="65" priority="98" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z50:AC50">
-    <cfRule type="cellIs" dxfId="64" priority="114" operator="equal">
+  <conditionalFormatting sqref="AM52:AM53">
+    <cfRule type="cellIs" dxfId="61" priority="98" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U46:V46">
-    <cfRule type="cellIs" dxfId="63" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="131" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD46">
-    <cfRule type="cellIs" dxfId="62" priority="130" operator="equal">
+  <conditionalFormatting sqref="AC46">
+    <cfRule type="cellIs" dxfId="59" priority="130" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE46:AG46">
-    <cfRule type="cellIs" dxfId="61" priority="129" operator="equal">
+  <conditionalFormatting sqref="AD46:AF46">
+    <cfRule type="cellIs" dxfId="58" priority="129" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W46:Y46">
-    <cfRule type="cellIs" dxfId="60" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="128" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS46:AV46">
-    <cfRule type="cellIs" dxfId="59" priority="125" operator="equal">
+  <conditionalFormatting sqref="AR46:AV46">
+    <cfRule type="cellIs" dxfId="56" priority="125" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS48:AV48 U48:AL48">
-    <cfRule type="cellIs" dxfId="58" priority="121" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA42:AD42">
-    <cfRule type="cellIs" dxfId="57" priority="96" operator="equal">
+  <conditionalFormatting sqref="AR48:AV48">
+    <cfRule type="cellIs" dxfId="55" priority="121" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U50:V50">
-    <cfRule type="cellIs" dxfId="56" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="113" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE50:AG50">
-    <cfRule type="cellIs" dxfId="55" priority="111" operator="equal">
+  <conditionalFormatting sqref="AD50:AF50">
+    <cfRule type="cellIs" dxfId="53" priority="111" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W50:Y50">
-    <cfRule type="cellIs" dxfId="54" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="110" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS50:AV50">
-    <cfRule type="cellIs" dxfId="53" priority="107" operator="equal">
+  <conditionalFormatting sqref="AR50:AV50">
+    <cfRule type="cellIs" dxfId="51" priority="107" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS52:AV53 AM54 T52:AL52">
-    <cfRule type="cellIs" dxfId="52" priority="106" operator="equal">
+  <conditionalFormatting sqref="AR52:AV53 AL54">
+    <cfRule type="cellIs" dxfId="50" priority="106" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM52:AM53">
-    <cfRule type="cellIs" dxfId="51" priority="105" operator="equal">
+  <conditionalFormatting sqref="AL52:AL53">
+    <cfRule type="cellIs" dxfId="49" priority="105" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS56:AV56 U56:AL56">
-    <cfRule type="cellIs" dxfId="50" priority="103" operator="equal">
+  <conditionalFormatting sqref="AR56:AV56">
+    <cfRule type="cellIs" dxfId="48" priority="103" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42:V42">
-    <cfRule type="cellIs" dxfId="49" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="95" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD42">
-    <cfRule type="cellIs" dxfId="48" priority="94" operator="equal">
+  <conditionalFormatting sqref="AC42">
+    <cfRule type="cellIs" dxfId="46" priority="94" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE42:AG42">
-    <cfRule type="cellIs" dxfId="47" priority="93" operator="equal">
+  <conditionalFormatting sqref="AD42:AF42">
+    <cfRule type="cellIs" dxfId="45" priority="93" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42:Y42">
-    <cfRule type="cellIs" dxfId="46" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="92" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS42:AV42">
-    <cfRule type="cellIs" dxfId="45" priority="89" operator="equal">
+  <conditionalFormatting sqref="AR42:AV42">
+    <cfRule type="cellIs" dxfId="43" priority="89" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS44:AV44 U44:AL44">
-    <cfRule type="cellIs" dxfId="44" priority="85" operator="equal">
+  <conditionalFormatting sqref="AR44:AV44">
+    <cfRule type="cellIs" dxfId="42" priority="85" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA25:AD25 X24:X25 B24:B34 C26:D31 E26:H30 C34:D34 E33:H34 AA27:AG27">
-    <cfRule type="cellIs" dxfId="43" priority="79" operator="equal">
+  <conditionalFormatting sqref="X24:X25 B24:B34 C26:D31 E26:H30 C34:D34 E33:H34">
+    <cfRule type="cellIs" dxfId="41" priority="79" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25:V25">
-    <cfRule type="cellIs" dxfId="42" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="78" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD25">
-    <cfRule type="cellIs" dxfId="41" priority="77" operator="equal">
+  <conditionalFormatting sqref="AC25">
+    <cfRule type="cellIs" dxfId="39" priority="77" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE25:AG25">
-    <cfRule type="cellIs" dxfId="40" priority="76" operator="equal">
+  <conditionalFormatting sqref="AD25:AF25">
+    <cfRule type="cellIs" dxfId="38" priority="76" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25:Y25">
-    <cfRule type="cellIs" dxfId="39" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="75" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS30:AV31 AM32 T30:AL30">
-    <cfRule type="cellIs" dxfId="38" priority="71" operator="equal">
+  <conditionalFormatting sqref="AR30:AV31 AL32">
+    <cfRule type="cellIs" dxfId="36" priority="71" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS34:AV34 U34:AL34">
-    <cfRule type="cellIs" dxfId="37" priority="68" operator="equal">
+  <conditionalFormatting sqref="AR34:AV34">
+    <cfRule type="cellIs" dxfId="35" priority="68" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM70 U68:AL68">
-    <cfRule type="cellIs" dxfId="36" priority="55" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U72:AL72">
-    <cfRule type="cellIs" dxfId="35" priority="52" operator="equal">
+  <conditionalFormatting sqref="AL70">
+    <cfRule type="cellIs" dxfId="34" priority="55" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W19">
-    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z46">
-    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="44" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z42">
-    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z36">
-    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z25">
-    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z27">
-    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD50">
-    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
+  <conditionalFormatting sqref="AC50">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD50">
-    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
+  <conditionalFormatting sqref="AC50">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23">
-    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T34">
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T40">
-    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44">
-    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T48">
-    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T56">
-    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T72">
-    <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z38:AD38 X38 T38">
-    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
+  <conditionalFormatting sqref="X38 T38">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U38:V38 AH38:AL38">
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+  <conditionalFormatting sqref="U38:V38 AG38:AK38">
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD38">
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
+  <conditionalFormatting sqref="AC38">
+    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE38:AG38">
-    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
+  <conditionalFormatting sqref="AD38:AF38">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W38:Y38">
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B62">
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM62 AH60:AL60">
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U64:AL64">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+  <conditionalFormatting sqref="AL62 AG60:AK60">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9633,31 +9575,31 @@
         <v>194</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="R3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="S3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="T3" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="44" t="s">
+      <c r="U3" s="44" t="s">
         <v>71</v>
-      </c>
-      <c r="U3" s="44" t="s">
-        <v>72</v>
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="23" t="s">
@@ -9671,26 +9613,26 @@
       </c>
       <c r="Z3" s="52"/>
       <c r="AA3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB3" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AB3" s="21" t="s">
+      <c r="AC3" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="AC3" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="AD3" s="49"/>
       <c r="AE3" s="4" t="s">
         <v>195</v>
       </c>
       <c r="AF3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="AI3" s="46"/>
     </row>
@@ -9798,7 +9740,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>88</v>
@@ -9807,7 +9749,7 @@
         <v>90</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q6" s="16" t="b">
         <v>1</v>
@@ -9904,7 +9846,7 @@
         <v>3500</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>95</v>
@@ -9948,13 +9890,13 @@
       </c>
       <c r="AD9" s="50"/>
       <c r="AE9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="AF9" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="AH9" s="15" t="s">
         <v>2</v>

--- a/data/inputs/Asset Model - Demo.xlsx
+++ b/data/inputs/Asset Model - Demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23422"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1989" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{76C4042F-CDF2-4964-8DA2-53C283298773}"/>
+  <xr:revisionPtr revIDLastSave="1991" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{A86F27AD-44B3-4021-BD90-D062A9AF65EB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <sheet name="brainstorming" sheetId="4" r:id="rId11"/>
     <sheet name="Sheet3" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,10 +34,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -379,9 +376,6 @@
     <t>cost</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>level_of_repair</t>
   </si>
   <si>
@@ -1190,6 +1184,9 @@
   </si>
   <si>
     <t>pole_strength / actual load</t>
+  </si>
+  <si>
+    <t>task_type</t>
   </si>
 </sst>
 </file>
@@ -1197,9 +1194,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1488,7 +1485,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2635,7 +2632,7 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2649,7 +2646,7 @@
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2663,7 +2660,7 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
@@ -2672,236 +2669,236 @@
     <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" t="s">
         <v>261</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
+      <c r="F5" t="s">
         <v>263</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
+      <c r="N6" t="s">
         <v>265</v>
       </c>
-      <c r="N6" t="s">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="O12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="S12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="F13" s="1" t="s">
+      <c r="O13" t="s">
         <v>271</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
+        <v>165</v>
+      </c>
+      <c r="S13" t="s">
         <v>272</v>
       </c>
-      <c r="Q13" t="s">
-        <v>166</v>
-      </c>
-      <c r="S13" t="s">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F14" s="12" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="F14" s="12" t="s">
+      <c r="O14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q14" t="s">
         <v>274</v>
       </c>
-      <c r="O14" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>275</v>
       </c>
-      <c r="S14" t="s">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="F15" t="s">
+      <c r="J15" t="s">
         <v>277</v>
       </c>
-      <c r="J15" t="s">
+      <c r="O15" t="s">
         <v>278</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>279</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
         <v>280</v>
       </c>
-      <c r="S15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="F16" t="s">
+      <c r="Q16" t="s">
+        <v>95</v>
+      </c>
+      <c r="S16" t="s">
         <v>281</v>
       </c>
-      <c r="Q16" t="s">
-        <v>96</v>
-      </c>
-      <c r="S16" t="s">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="F17" t="s">
+      <c r="O17" t="s">
         <v>283</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>284</v>
       </c>
-      <c r="Q17" t="s">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
-      <c r="O18" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
-      <c r="F20" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
-      <c r="A27" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="D31" t="s">
-        <v>289</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K33" t="s">
         <v>51</v>
       </c>
       <c r="R33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s">
         <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S34">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="2:19">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G35" t="s">
+        <v>278</v>
+      </c>
+      <c r="L35" t="s">
+        <v>290</v>
+      </c>
+      <c r="R35" t="s">
+        <v>95</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
         <v>291</v>
       </c>
-      <c r="G35" t="s">
-        <v>279</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="L36" t="s">
         <v>291</v>
       </c>
-      <c r="R35" t="s">
-        <v>96</v>
-      </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19">
-      <c r="D36" t="s">
-        <v>292</v>
-      </c>
-      <c r="L36" t="s">
-        <v>292</v>
-      </c>
       <c r="R36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:19">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D37" s="43" t="s">
         <v>18</v>
       </c>
@@ -2909,68 +2906,68 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:19">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:19">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="1" t="s">
+      <c r="F53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="E54" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -2996,84 +2993,84 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L55">
         <f>L54/60/60</f>
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="F59" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="B60" t="s">
+      <c r="E60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
         <v>300</v>
       </c>
-      <c r="E60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="E61" t="s">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="E62" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="B65" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" s="15" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="B68" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>305</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>307</v>
       </c>
       <c r="B70">
         <v>250</v>
       </c>
       <c r="C70" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>309</v>
       </c>
       <c r="B71">
         <v>12.5</v>
       </c>
       <c r="C71" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3095,7 +3092,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
@@ -3103,50 +3100,50 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="S3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="B4" t="s">
+      <c r="I4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J4" t="s">
+        <v>312</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I4" t="s">
-        <v>312</v>
-      </c>
-      <c r="J4" t="s">
-        <v>313</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" t="s">
         <v>315</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>316</v>
       </c>
-      <c r="S4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="B5" t="s">
-        <v>317</v>
-      </c>
       <c r="H5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -3156,18 +3153,18 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="R5" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="R5" s="41" t="s">
+      <c r="S5" t="s">
         <v>319</v>
       </c>
-      <c r="S5" t="s">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="H6" t="s">
-        <v>321</v>
       </c>
       <c r="I6">
         <f>I5/4</f>
@@ -3179,72 +3176,72 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="R8" t="s">
+        <v>315</v>
+      </c>
+      <c r="S8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>324</v>
       </c>
-      <c r="R8" t="s">
-        <v>316</v>
-      </c>
-      <c r="S8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="s">
-        <v>325</v>
-      </c>
       <c r="H9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I12" s="9">
         <v>3.7</v>
@@ -3254,22 +3251,22 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
+        <v>326</v>
+      </c>
+      <c r="M16" t="s">
         <v>327</v>
       </c>
-      <c r="M16" t="s">
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="10:10">
-      <c r="J19" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="1048576" spans="15:15">
+    <row r="1048576" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O1048576" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3286,7 +3283,7 @@
       <selection activeCell="D4" sqref="D4:AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
@@ -3313,7 +3310,7 @@
     <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3354,7 +3351,7 @@
       </c>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1">
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -3441,7 +3438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -3522,7 +3519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L4" s="3" t="s">
         <v>38</v>
       </c>
@@ -3548,11 +3545,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AV80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2:AV3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1" outlineLevel="1"/>
     <col min="2" max="3" width="13.140625" customWidth="1" outlineLevel="1"/>
@@ -3591,7 +3588,7 @@
     <col min="48" max="48" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>39</v>
@@ -3655,7 +3652,7 @@
       <c r="AU1" s="67"/>
       <c r="AV1" s="67"/>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>45</v>
@@ -3737,7 +3734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -3810,80 +3807,80 @@
       <c r="X3" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="Y3" s="45" t="s">
+      <c r="Y3" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z3" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="Z3" s="45" t="s">
+      <c r="AA3" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AB3" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AC3" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="103" t="s">
+      <c r="AD3" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="45" t="s">
+      <c r="AE3" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="AE3" s="45" t="s">
+      <c r="AF3" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="AF3" s="45" t="s">
+      <c r="AG3" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="AG3" s="66" t="s">
+      <c r="AH3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AH3" s="22" t="s">
+      <c r="AI3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AI3" s="22" t="s">
+      <c r="AJ3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="AJ3" s="44" t="s">
+      <c r="AK3" s="106" t="s">
         <v>70</v>
-      </c>
-      <c r="AK3" s="106" t="s">
-        <v>71</v>
       </c>
       <c r="AL3" s="66" t="s">
         <v>56</v>
       </c>
       <c r="AM3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN3" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="AN3" s="114" t="s">
-        <v>73</v>
-      </c>
       <c r="AO3" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP3" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="AP3" s="67" t="s">
+      <c r="AQ3" s="125" t="s">
         <v>68</v>
-      </c>
-      <c r="AQ3" s="125" t="s">
-        <v>69</v>
       </c>
       <c r="AR3" s="72" t="s">
         <v>56</v>
       </c>
       <c r="AS3" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT3" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="AT3" s="67" t="s">
+      <c r="AU3" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="AU3" s="125" t="s">
+      <c r="AV3" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="AV3" s="72" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" ht="12" customHeight="1">
+    </row>
+    <row r="4" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -3933,7 +3930,7 @@
       <c r="AU4" s="59"/>
       <c r="AV4" s="59"/>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -3944,7 +3941,7 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="42">
         <v>125</v>
@@ -3956,7 +3953,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K5" s="45">
         <v>8</v>
@@ -3977,14 +3974,14 @@
         <v>38</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="97">
         <v>1</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U5" s="45">
         <v>0.8</v>
@@ -3996,13 +3993,13 @@
         <v>51</v>
       </c>
       <c r="X5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Z5" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="Z5" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="AA5" s="41">
         <v>20</v>
@@ -4011,16 +4008,16 @@
         <v>5</v>
       </c>
       <c r="AC5" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AD5" s="15" t="s">
+      <c r="AE5" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AE5" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="AF5" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG5" s="18" t="b">
         <v>1</v>
@@ -4036,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="AN5" s="116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO5" s="18"/>
       <c r="AP5" s="18" t="b">
@@ -4049,7 +4046,7 @@
       <c r="AU5" s="18"/>
       <c r="AV5" s="15"/>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -4058,7 +4055,7 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="42">
         <v>250</v>
@@ -4077,7 +4074,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R6" s="15"/>
       <c r="S6" s="97">
@@ -4108,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="AN6" s="116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO6" s="18"/>
       <c r="AP6" s="18"/>
@@ -4119,7 +4116,7 @@
       <c r="AU6" s="18"/>
       <c r="AV6" s="15"/>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4128,7 +4125,7 @@
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -4177,7 +4174,7 @@
       <c r="AU7" s="69"/>
       <c r="AV7" s="69"/>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -4196,7 +4193,7 @@
       <c r="R8" s="15"/>
       <c r="S8" s="97"/>
       <c r="T8" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U8" s="42">
         <v>0.9</v>
@@ -4208,13 +4205,13 @@
         <v>2</v>
       </c>
       <c r="X8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="Y8" s="15" t="s">
+      <c r="Z8" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="Z8" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
@@ -4240,7 +4237,7 @@
         <v>50</v>
       </c>
       <c r="AN8" s="118" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO8" s="16" t="b">
         <v>0</v>
@@ -4252,22 +4249,22 @@
         <v>0</v>
       </c>
       <c r="AR8" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="AS8" s="93">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="AU8" s="18" t="s">
         <v>2</v>
       </c>
       <c r="AV8" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -4312,7 +4309,7 @@
         <v>50</v>
       </c>
       <c r="AN9" s="118" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO9" s="16"/>
       <c r="AP9" s="16"/>
@@ -4323,7 +4320,7 @@
       <c r="AU9" s="15"/>
       <c r="AV9" s="15"/>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -4373,7 +4370,7 @@
       <c r="AU10" s="69"/>
       <c r="AV10" s="69"/>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -4394,7 +4391,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="97"/>
       <c r="T11" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U11" s="15">
         <v>1</v>
@@ -4406,13 +4403,13 @@
         <v>2</v>
       </c>
       <c r="X11" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y11" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z11" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Y11" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z11" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
@@ -4450,13 +4447,13 @@
         <v>0</v>
       </c>
       <c r="AR11" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="AS11" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="AU11" s="15" t="s">
         <v>2</v>
@@ -4465,7 +4462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -4521,7 +4518,7 @@
       <c r="AU12" s="15"/>
       <c r="AV12" s="15"/>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="H13" s="138"/>
@@ -4529,7 +4526,7 @@
       <c r="AM13" s="80"/>
       <c r="AN13" s="119"/>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -4579,7 +4576,7 @@
       <c r="AU14" s="69"/>
       <c r="AV14" s="69"/>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -4600,7 +4597,7 @@
       <c r="R15" s="15"/>
       <c r="S15" s="97"/>
       <c r="T15" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U15" s="15">
         <v>1</v>
@@ -4612,13 +4609,13 @@
         <v>2</v>
       </c>
       <c r="X15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y15" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z15" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Y15" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z15" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AA15" s="15"/>
       <c r="AB15" s="15"/>
@@ -4646,13 +4643,13 @@
         <v>0</v>
       </c>
       <c r="AR15" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS15" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="AS15" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="AU15" s="15" t="s">
         <v>2</v>
@@ -4661,7 +4658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -4711,7 +4708,7 @@
       <c r="AU16" s="56"/>
       <c r="AV16" s="56"/>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -4721,10 +4718,10 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K17" s="45">
         <v>10</v>
@@ -4745,14 +4742,14 @@
         <v>38</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R17" s="15"/>
       <c r="S17" s="97">
         <v>1</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U17" s="45">
         <v>0.8</v>
@@ -4764,10 +4761,10 @@
         <v>51</v>
       </c>
       <c r="X17" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y17" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="Y17" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="Z17" s="15"/>
       <c r="AA17" s="15">
@@ -4777,16 +4774,16 @@
         <v>5</v>
       </c>
       <c r="AC17" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD17" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AD17" s="15" t="s">
+      <c r="AE17" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AE17" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="AF17" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG17" s="18" t="b">
         <v>1</v>
@@ -4807,7 +4804,7 @@
       <c r="AU17" s="18"/>
       <c r="AV17" s="15"/>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -4856,7 +4853,7 @@
       <c r="AU18" s="69"/>
       <c r="AV18" s="69"/>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -4876,7 +4873,7 @@
       <c r="R19" s="15"/>
       <c r="S19" s="97"/>
       <c r="T19" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U19" s="15">
         <v>1</v>
@@ -4888,13 +4885,13 @@
         <v>2</v>
       </c>
       <c r="X19" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y19" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z19" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Y19" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z19" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
@@ -4932,13 +4929,13 @@
         <v>0</v>
       </c>
       <c r="AR19" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS19" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="AS19" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="AU19" s="15" t="s">
         <v>2</v>
@@ -4947,7 +4944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -4999,7 +4996,7 @@
       <c r="AU20" s="15"/>
       <c r="AV20" s="15"/>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="AL21" s="84" t="s">
@@ -5012,7 +5009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="T22" s="69"/>
@@ -5045,7 +5042,7 @@
       <c r="AU22" s="69"/>
       <c r="AV22" s="69"/>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="E23" s="15"/>
@@ -5053,7 +5050,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="T23" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U23" s="15">
         <v>1</v>
@@ -5065,13 +5062,13 @@
         <v>2</v>
       </c>
       <c r="X23" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y23" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z23" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Y23" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z23" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
@@ -5099,13 +5096,13 @@
         <v>0</v>
       </c>
       <c r="AR23" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS23" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="AS23" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT23" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="AU23" s="15" t="s">
         <v>2</v>
@@ -5114,7 +5111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -5164,7 +5161,7 @@
       <c r="AU24" s="56"/>
       <c r="AV24" s="56"/>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -5174,10 +5171,10 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J25" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K25" s="45">
         <v>10</v>
@@ -5198,14 +5195,14 @@
         <v>32</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R25" s="15"/>
       <c r="S25" s="97">
         <v>1</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U25" s="45">
         <v>0.8</v>
@@ -5217,13 +5214,13 @@
         <v>51</v>
       </c>
       <c r="X25" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y25" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="Y25" s="15" t="s">
+      <c r="Z25" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="Z25" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="AA25" s="15">
         <v>20</v>
@@ -5232,16 +5229,16 @@
         <v>5</v>
       </c>
       <c r="AC25" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD25" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AD25" s="15" t="s">
+      <c r="AE25" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AE25" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="AF25" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG25" s="18" t="b">
         <v>1</v>
@@ -5262,7 +5259,7 @@
       <c r="AU25" s="18"/>
       <c r="AV25" s="15"/>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -5311,7 +5308,7 @@
       <c r="AU26" s="69"/>
       <c r="AV26" s="69"/>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -5331,7 +5328,7 @@
       <c r="R27" s="15"/>
       <c r="S27" s="97"/>
       <c r="T27" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U27" s="45">
         <v>0.9</v>
@@ -5343,13 +5340,13 @@
         <v>2</v>
       </c>
       <c r="X27" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y27" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="Y27" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="Z27" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA27" s="15"/>
       <c r="AB27" s="15"/>
@@ -5375,7 +5372,7 @@
         <v>50</v>
       </c>
       <c r="AN27" s="123" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO27" s="16" t="b">
         <v>0</v>
@@ -5392,7 +5389,7 @@
       <c r="AU27" s="18"/>
       <c r="AV27" s="15"/>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -5436,7 +5433,7 @@
         <v>50</v>
       </c>
       <c r="AN28" s="123" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO28" s="16"/>
       <c r="AP28" s="16"/>
@@ -5447,7 +5444,7 @@
       <c r="AU28" s="15"/>
       <c r="AV28" s="15"/>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -5496,7 +5493,7 @@
       <c r="AU29" s="69"/>
       <c r="AV29" s="69"/>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -5516,7 +5513,7 @@
       <c r="R30" s="15"/>
       <c r="S30" s="97"/>
       <c r="T30" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U30" s="15">
         <v>1</v>
@@ -5528,13 +5525,13 @@
         <v>2</v>
       </c>
       <c r="X30" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y30" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z30" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Y30" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z30" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
@@ -5572,13 +5569,13 @@
         <v>0</v>
       </c>
       <c r="AR30" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS30" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="AS30" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT30" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="AU30" s="15" t="s">
         <v>2</v>
@@ -5587,7 +5584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -5639,7 +5636,7 @@
       <c r="AU31" s="15"/>
       <c r="AV31" s="15"/>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="AL32" s="84" t="s">
@@ -5652,7 +5649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="T33" s="69"/>
@@ -5685,7 +5682,7 @@
       <c r="AU33" s="69"/>
       <c r="AV33" s="69"/>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="E34" s="15"/>
@@ -5693,7 +5690,7 @@
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="T34" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U34" s="15">
         <v>1</v>
@@ -5705,13 +5702,13 @@
         <v>2</v>
       </c>
       <c r="X34" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y34" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z34" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Y34" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z34" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
@@ -5739,13 +5736,13 @@
         <v>0</v>
       </c>
       <c r="AR34" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS34" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="AS34" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT34" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="AU34" s="15" t="s">
         <v>2</v>
@@ -5754,7 +5751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -5804,7 +5801,7 @@
       <c r="AU35" s="56"/>
       <c r="AV35" s="56"/>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -5814,10 +5811,10 @@
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J36" s="41" t="s">
         <v>101</v>
-      </c>
-      <c r="J36" s="41" t="s">
-        <v>102</v>
       </c>
       <c r="K36" s="41">
         <v>0</v>
@@ -5839,7 +5836,7 @@
       <c r="R36" s="41"/>
       <c r="S36" s="99"/>
       <c r="T36" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U36" s="15">
         <v>0.99</v>
@@ -5851,14 +5848,14 @@
         <v>51</v>
       </c>
       <c r="X36" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y36" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="Y36" s="15" t="s">
+      <c r="Z36" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="Z36" s="15" t="s">
-        <v>81</v>
-      </c>
       <c r="AA36" s="15">
         <v>0</v>
       </c>
@@ -5866,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
@@ -5892,7 +5889,7 @@
       <c r="AU36" s="15"/>
       <c r="AV36" s="15"/>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -5942,7 +5939,7 @@
       <c r="AU37" s="69"/>
       <c r="AV37" s="69"/>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -5963,7 +5960,7 @@
       <c r="R38" s="15"/>
       <c r="S38" s="97"/>
       <c r="T38" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U38" s="15">
         <v>1</v>
@@ -5975,10 +5972,10 @@
         <v>51</v>
       </c>
       <c r="X38" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y38" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="Y38" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="Z38" s="15"/>
       <c r="AA38" s="15">
@@ -5988,16 +5985,16 @@
         <v>5</v>
       </c>
       <c r="AC38" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD38" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AD38" s="15" t="s">
+      <c r="AE38" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AE38" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="AF38" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG38" s="18" t="b">
         <v>1</v>
@@ -6020,7 +6017,7 @@
       <c r="AU38" s="18"/>
       <c r="AV38" s="15"/>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -6070,11 +6067,11 @@
       <c r="AU39" s="69"/>
       <c r="AV39" s="69"/>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="T40" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U40" s="15">
         <v>1</v>
@@ -6086,13 +6083,13 @@
         <v>2</v>
       </c>
       <c r="X40" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y40" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z40" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Y40" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z40" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
@@ -6120,13 +6117,13 @@
         <v>0</v>
       </c>
       <c r="AR40" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS40" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT40" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="AS40" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT40" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="AU40" s="15" t="s">
         <v>2</v>
@@ -6135,7 +6132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -6185,7 +6182,7 @@
       <c r="AU41" s="56"/>
       <c r="AV41" s="56"/>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -6195,10 +6192,10 @@
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J42" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K42" s="41">
         <v>0</v>
@@ -6220,7 +6217,7 @@
       <c r="R42" s="15"/>
       <c r="S42" s="97"/>
       <c r="T42" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U42" s="15">
         <v>1</v>
@@ -6232,14 +6229,14 @@
         <v>51</v>
       </c>
       <c r="X42" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y42" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="Y42" s="15" t="s">
+      <c r="Z42" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="Z42" s="15" t="s">
-        <v>81</v>
-      </c>
       <c r="AA42" s="15">
         <v>0</v>
       </c>
@@ -6247,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD42" s="15"/>
       <c r="AE42" s="15"/>
@@ -6277,7 +6274,7 @@
       <c r="AU42" s="15"/>
       <c r="AV42" s="15"/>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="T43" s="69"/>
@@ -6310,11 +6307,11 @@
       <c r="AU43" s="69"/>
       <c r="AV43" s="69"/>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="T44" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U44" s="15">
         <v>1</v>
@@ -6326,13 +6323,13 @@
         <v>2</v>
       </c>
       <c r="X44" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y44" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z44" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Y44" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z44" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
@@ -6360,13 +6357,13 @@
         <v>0</v>
       </c>
       <c r="AR44" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS44" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT44" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="AS44" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT44" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="AU44" s="15" t="s">
         <v>2</v>
@@ -6375,7 +6372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -6425,7 +6422,7 @@
       <c r="AU45" s="56"/>
       <c r="AV45" s="56"/>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -6435,10 +6432,10 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J46" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K46" s="41">
         <v>0</v>
@@ -6460,7 +6457,7 @@
       <c r="R46" s="15"/>
       <c r="S46" s="97"/>
       <c r="T46" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U46" s="15">
         <v>1</v>
@@ -6472,14 +6469,14 @@
         <v>51</v>
       </c>
       <c r="X46" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y46" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="Y46" s="15" t="s">
+      <c r="Z46" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="Z46" s="15" t="s">
-        <v>81</v>
-      </c>
       <c r="AA46" s="15">
         <v>0</v>
       </c>
@@ -6487,7 +6484,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD46" s="15"/>
       <c r="AE46" s="15"/>
@@ -6517,7 +6514,7 @@
       <c r="AU46" s="15"/>
       <c r="AV46" s="15"/>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -6567,11 +6564,11 @@
       <c r="AU47" s="69"/>
       <c r="AV47" s="69"/>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="T48" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U48" s="15">
         <v>1</v>
@@ -6583,13 +6580,13 @@
         <v>2</v>
       </c>
       <c r="X48" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y48" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z48" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Y48" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z48" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AA48" s="15"/>
       <c r="AB48" s="15"/>
@@ -6617,13 +6614,13 @@
         <v>0</v>
       </c>
       <c r="AR48" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT48" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="AS48" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT48" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="AU48" s="15" t="s">
         <v>2</v>
@@ -6632,7 +6629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -6682,7 +6679,7 @@
       <c r="AU49" s="56"/>
       <c r="AV49" s="56"/>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -6692,10 +6689,10 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J50" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K50" s="41">
         <v>20</v>
@@ -6716,7 +6713,7 @@
         <v>32</v>
       </c>
       <c r="Q50" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R50" s="15">
         <v>25</v>
@@ -6725,7 +6722,7 @@
         <v>2</v>
       </c>
       <c r="T50" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U50" s="15">
         <v>1</v>
@@ -6737,16 +6734,16 @@
         <v>51</v>
       </c>
       <c r="X50" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y50" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="Y50" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="Z50" s="15"/>
       <c r="AA50" s="15"/>
       <c r="AB50" s="15"/>
       <c r="AC50" s="97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD50" s="15"/>
       <c r="AE50" s="15"/>
@@ -6782,7 +6779,7 @@
       <c r="AU50" s="15"/>
       <c r="AV50" s="15"/>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -6802,7 +6799,7 @@
         <v>38</v>
       </c>
       <c r="Q51" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R51" s="15">
         <v>50</v>
@@ -6840,7 +6837,7 @@
       <c r="AU51" s="69"/>
       <c r="AV51" s="69"/>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -6861,7 +6858,7 @@
       <c r="R52" s="15"/>
       <c r="S52" s="97"/>
       <c r="T52" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U52" s="15">
         <v>1</v>
@@ -6873,13 +6870,13 @@
         <v>2</v>
       </c>
       <c r="X52" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y52" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z52" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Y52" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z52" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
@@ -6917,13 +6914,13 @@
         <v>0</v>
       </c>
       <c r="AR52" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS52" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT52" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="AS52" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT52" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="AU52" s="15" t="s">
         <v>2</v>
@@ -6932,7 +6929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -6988,7 +6985,7 @@
       <c r="AU53" s="15"/>
       <c r="AV53" s="15"/>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="AL54" s="84" t="s">
@@ -7001,7 +6998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="T55" s="69"/>
@@ -7034,11 +7031,11 @@
       <c r="AU55" s="69"/>
       <c r="AV55" s="69"/>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="T56" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U56" s="15">
         <v>1</v>
@@ -7050,13 +7047,13 @@
         <v>2</v>
       </c>
       <c r="X56" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y56" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z56" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Y56" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z56" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AA56" s="15"/>
       <c r="AB56" s="15"/>
@@ -7084,13 +7081,13 @@
         <v>0</v>
       </c>
       <c r="AR56" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS56" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT56" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="AS56" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT56" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="AU56" s="15" t="s">
         <v>2</v>
@@ -7099,7 +7096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:48" ht="12" customHeight="1">
+    <row r="57" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="59"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -7149,28 +7146,28 @@
       <c r="AU57" s="59"/>
       <c r="AV57" s="59"/>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="41"/>
       <c r="D58" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" t="s">
         <v>107</v>
       </c>
-      <c r="E58" t="s">
-        <v>108</v>
-      </c>
       <c r="F58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G58" s="15" t="b">
         <v>0</v>
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J58" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K58" s="41">
         <v>20</v>
@@ -7188,13 +7185,13 @@
         <v>10</v>
       </c>
       <c r="P58" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q58" s="15"/>
       <c r="R58" s="15"/>
       <c r="S58" s="97"/>
       <c r="T58" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U58" s="15">
         <v>0.8</v>
@@ -7206,13 +7203,13 @@
         <v>51</v>
       </c>
       <c r="X58" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y58" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="Y58" s="15" t="s">
+      <c r="Z58" s="41" t="s">
         <v>80</v>
-      </c>
-      <c r="Z58" s="41" t="s">
-        <v>81</v>
       </c>
       <c r="AA58" s="15">
         <v>20</v>
@@ -7221,16 +7218,16 @@
         <v>5</v>
       </c>
       <c r="AC58" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD58" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AD58" s="15" t="s">
+      <c r="AE58" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AE58" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="AF58" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG58" s="18" t="b">
         <v>1</v>
@@ -7253,7 +7250,7 @@
       <c r="AU58" s="18"/>
       <c r="AV58" s="15"/>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="41"/>
@@ -7303,7 +7300,7 @@
       <c r="AU59" s="69"/>
       <c r="AV59" s="69"/>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -7324,7 +7321,7 @@
       <c r="R60" s="15"/>
       <c r="S60" s="97"/>
       <c r="T60" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U60" s="15">
         <v>1</v>
@@ -7336,13 +7333,13 @@
         <v>2</v>
       </c>
       <c r="X60" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y60" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z60" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Y60" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z60" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AA60" s="15"/>
       <c r="AB60" s="15"/>
@@ -7380,13 +7377,13 @@
         <v>0</v>
       </c>
       <c r="AR60" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS60" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT60" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="AS60" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT60" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="AU60" s="15" t="s">
         <v>2</v>
@@ -7395,7 +7392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -7451,7 +7448,7 @@
       <c r="AU61" s="15"/>
       <c r="AV61" s="15"/>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="T62" s="45"/>
@@ -7465,7 +7462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -7515,7 +7512,7 @@
       <c r="AU63" s="69"/>
       <c r="AV63" s="69"/>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -7536,7 +7533,7 @@
       <c r="R64" s="15"/>
       <c r="S64" s="97"/>
       <c r="T64" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U64" s="15">
         <v>1</v>
@@ -7545,16 +7542,16 @@
         <v>200</v>
       </c>
       <c r="W64" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X64" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y64" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z64" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Y64" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z64" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AA64" s="15"/>
       <c r="AB64" s="15"/>
@@ -7582,13 +7579,13 @@
         <v>0</v>
       </c>
       <c r="AR64" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS64" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT64" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="AS64" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT64" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="AU64" s="15" t="s">
         <v>2</v>
@@ -7597,7 +7594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:48" ht="12" customHeight="1">
+    <row r="65" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="59"/>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
@@ -7647,28 +7644,28 @@
       <c r="AU65" s="59"/>
       <c r="AV65" s="59"/>
     </row>
-    <row r="66" spans="1:48">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="41"/>
       <c r="D66" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E66" t="s">
         <v>111</v>
       </c>
-      <c r="E66" t="s">
-        <v>112</v>
-      </c>
       <c r="F66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G66" s="15" t="b">
         <v>0</v>
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J66" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K66" s="41">
         <v>20</v>
@@ -7692,7 +7689,7 @@
       <c r="R66" s="15"/>
       <c r="S66" s="97"/>
       <c r="T66" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U66" s="15">
         <v>0.8</v>
@@ -7704,13 +7701,13 @@
         <v>51</v>
       </c>
       <c r="X66" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y66" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="Y66" s="15" t="s">
+      <c r="Z66" s="41" t="s">
         <v>80</v>
-      </c>
-      <c r="Z66" s="41" t="s">
-        <v>81</v>
       </c>
       <c r="AA66" s="15">
         <v>20</v>
@@ -7719,16 +7716,16 @@
         <v>5</v>
       </c>
       <c r="AC66" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD66" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AD66" s="15" t="s">
+      <c r="AE66" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AE66" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="AF66" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG66" s="18" t="b">
         <v>1</v>
@@ -7751,7 +7748,7 @@
       <c r="AU66" s="18"/>
       <c r="AV66" s="15"/>
     </row>
-    <row r="67" spans="1:48">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="41"/>
@@ -7803,7 +7800,7 @@
       <c r="AU67" s="69"/>
       <c r="AV67" s="69"/>
     </row>
-    <row r="68" spans="1:48">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -7824,7 +7821,7 @@
       <c r="R68" s="15"/>
       <c r="S68" s="97"/>
       <c r="T68" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U68" s="15">
         <v>1</v>
@@ -7836,13 +7833,13 @@
         <v>2</v>
       </c>
       <c r="X68" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y68" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z68" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Y68" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z68" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
@@ -7880,13 +7877,13 @@
         <v>0</v>
       </c>
       <c r="AR68" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS68" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT68" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="AS68" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT68" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="AU68" s="15" t="s">
         <v>2</v>
@@ -7895,7 +7892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:48">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -7951,7 +7948,7 @@
       <c r="AU69" s="15"/>
       <c r="AV69" s="15"/>
     </row>
-    <row r="70" spans="1:48">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="T70" s="45"/>
@@ -7965,7 +7962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:48">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -8015,7 +8012,7 @@
       <c r="AU71" s="69"/>
       <c r="AV71" s="69"/>
     </row>
-    <row r="72" spans="1:48">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -8036,7 +8033,7 @@
       <c r="R72" s="15"/>
       <c r="S72" s="97"/>
       <c r="T72" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U72" s="15">
         <v>1</v>
@@ -8045,16 +8042,16 @@
         <v>200</v>
       </c>
       <c r="W72" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X72" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y72" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z72" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Y72" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z72" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="AA72" s="15"/>
       <c r="AB72" s="15"/>
@@ -8082,13 +8079,13 @@
         <v>0</v>
       </c>
       <c r="AR72" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS72" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT72" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="AS72" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT72" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="AU72" s="15" t="s">
         <v>2</v>
@@ -8097,7 +8094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:48">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A73" s="63"/>
       <c r="B73" s="63"/>
       <c r="C73" s="63"/>
@@ -8147,24 +8144,24 @@
       <c r="AU73" s="63"/>
       <c r="AV73" s="63"/>
     </row>
-    <row r="74" spans="1:48">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
       <c r="D74" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
       <c r="I74" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J74" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K74" s="15">
         <v>10</v>
@@ -8182,13 +8179,13 @@
         <v>10</v>
       </c>
       <c r="P74" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q74" s="15"/>
       <c r="R74" s="15"/>
       <c r="S74" s="97"/>
       <c r="T74" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U74" s="15">
         <v>0.9</v>
@@ -8200,25 +8197,25 @@
         <v>2</v>
       </c>
       <c r="X74" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y74" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z74" s="15"/>
       <c r="AA74" s="15"/>
       <c r="AB74" s="15"/>
       <c r="AC74" s="97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD74" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AE74" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF74" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG74" s="16" t="b">
         <v>1</v>
@@ -8240,7 +8237,7 @@
         <v>50</v>
       </c>
       <c r="AN74" s="120" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO74" s="16"/>
       <c r="AP74" s="16"/>
@@ -8252,20 +8249,20 @@
         <v>50</v>
       </c>
       <c r="AT74" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AU74" s="15"/>
       <c r="AV74" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:48">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
       <c r="D75" s="97"/>
       <c r="E75" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
@@ -8306,7 +8303,7 @@
         <v>170</v>
       </c>
       <c r="AN75" s="120" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO75" s="16"/>
       <c r="AP75" s="16"/>
@@ -8318,12 +8315,12 @@
         <v>50</v>
       </c>
       <c r="AT75" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AU75" s="15"/>
       <c r="AV75" s="15"/>
     </row>
-    <row r="80" spans="1:48">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="95"/>
@@ -8687,57 +8684,57 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="R2" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="T2" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="T2" s="27" t="s">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>127</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>128</v>
       </c>
-      <c r="D3" t="s">
+      <c r="Q3" s="28"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>129</v>
       </c>
-      <c r="Q3" s="28"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="B4" t="s">
-        <v>130</v>
-      </c>
       <c r="Q4" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="30" t="s">
@@ -8746,9 +8743,9 @@
       <c r="S5" s="29"/>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
@@ -8757,227 +8754,227 @@
       </c>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="T7" t="s">
         <v>133</v>
       </c>
-      <c r="T7" t="s">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="T8" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="T9" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="T10" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="T11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="T14" s="31"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
         <v>139</v>
       </c>
-      <c r="T14" s="31"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="T15" t="s">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="T16" t="s">
+    <row r="17" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="T17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="17:20">
-      <c r="T17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="17:20">
+    <row r="18" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
     </row>
-    <row r="19" spans="17:20">
+    <row r="19" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="T19" s="31"/>
+    </row>
+    <row r="20" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
         <v>144</v>
       </c>
-      <c r="T19" s="31"/>
-    </row>
-    <row r="20" spans="17:20">
-      <c r="T20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="17:20">
+    </row>
+    <row r="21" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="17:20">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="17:20">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="17:20">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="17:20">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="17:20">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="17:20">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="17:20">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="17:20">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="17:20">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="17:20">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="17:20">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
     </row>
-    <row r="33" spans="17:20">
+    <row r="33" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="17:20">
+    <row r="34" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="17:20">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="17:20">
+    <row r="36" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="17:20">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
     </row>
-    <row r="38" spans="17:20">
+    <row r="38" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" spans="17:20">
+    <row r="39" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="17:20">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T40" s="31"/>
     </row>
-    <row r="41" spans="17:20">
+    <row r="41" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -8994,7 +8991,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.7109375" customWidth="1"/>
@@ -9007,7 +9004,7 @@
     <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -9018,10 +9015,10 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -9044,12 +9041,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>164</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -9061,7 +9058,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -9073,9 +9070,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -9087,26 +9084,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>165</v>
       </c>
-      <c r="E5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>167</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -9118,26 +9115,26 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -9149,7 +9146,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -9161,39 +9158,39 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -9205,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="42">
         <v>20</v>
@@ -9214,36 +9211,36 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12" s="45"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>174</v>
-      </c>
-      <c r="J12" s="45"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>175</v>
       </c>
       <c r="F13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="42" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>179</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -9255,15 +9252,15 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -9275,10 +9272,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -9295,19 +9292,19 @@
       <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -9319,9 +9316,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -9333,7 +9330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -9344,12 +9341,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
         <v>181</v>
-      </c>
-      <c r="C5" t="s">
-        <v>182</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9358,53 +9355,53 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>184</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>185</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>187</v>
       </c>
-      <c r="B7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="B9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -9427,7 +9424,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -9453,7 +9450,7 @@
     <col min="35" max="35" width="2.42578125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -9467,7 +9464,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
@@ -9479,7 +9476,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="52"/>
       <c r="AA1" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
@@ -9490,9 +9487,9 @@
       <c r="AH1" s="4"/>
       <c r="AI1" s="46"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1">
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -9533,14 +9530,14 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="49"/>
       <c r="AE2" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
       <c r="AI2" s="46"/>
     </row>
-    <row r="3" spans="1:35" s="1" customFormat="1">
+    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -9548,7 +9545,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>57</v>
@@ -9563,47 +9560,47 @@
         <v>50</v>
       </c>
       <c r="I3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="K3" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="L3" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="R3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="S3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="T3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="44" t="s">
+      <c r="U3" s="44" t="s">
         <v>70</v>
-      </c>
-      <c r="U3" s="44" t="s">
-        <v>71</v>
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>26</v>
@@ -9613,38 +9610,38 @@
       </c>
       <c r="Z3" s="52"/>
       <c r="AA3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB3" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AB3" s="21" t="s">
+      <c r="AC3" s="21" t="s">
         <v>68</v>
-      </c>
-      <c r="AC3" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="AD3" s="49"/>
       <c r="AE3" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AH3" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="AI3" s="46"/>
     </row>
-    <row r="4" spans="1:35" s="15" customFormat="1">
+    <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="15">
         <v>0.8</v>
@@ -9656,10 +9653,10 @@
         <v>51</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J4" s="15">
         <v>20</v>
@@ -9668,28 +9665,28 @@
         <v>5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="P4" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="18" t="b">
         <v>1</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
@@ -9708,7 +9705,7 @@
       <c r="AH4" s="18"/>
       <c r="AI4" s="47"/>
     </row>
-    <row r="5" spans="1:35" s="47" customFormat="1">
+    <row r="5" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="Q5" s="50"/>
@@ -9729,9 +9726,9 @@
       <c r="AG5" s="50"/>
       <c r="AH5" s="50"/>
     </row>
-    <row r="6" spans="1:35" s="15" customFormat="1">
+    <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="15">
         <v>0.9</v>
@@ -9740,16 +9737,16 @@
         <v>100</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q6" s="16" t="b">
         <v>1</v>
@@ -9770,7 +9767,7 @@
         <v>50</v>
       </c>
       <c r="Y6" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z6" s="53"/>
       <c r="AA6" s="16" t="b">
@@ -9789,7 +9786,7 @@
       <c r="AH6" s="18"/>
       <c r="AI6" s="47"/>
     </row>
-    <row r="7" spans="1:35" s="15" customFormat="1">
+    <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
@@ -9803,7 +9800,7 @@
         <v>50</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z7" s="53"/>
       <c r="AA7" s="16" t="b">
@@ -9818,7 +9815,7 @@
       <c r="AD7" s="50"/>
       <c r="AI7" s="47"/>
     </row>
-    <row r="8" spans="1:35" s="47" customFormat="1">
+    <row r="8" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="Q8" s="50"/>
@@ -9835,9 +9832,9 @@
       <c r="AC8" s="50"/>
       <c r="AD8" s="50"/>
     </row>
-    <row r="9" spans="1:35" s="15" customFormat="1">
+    <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9" s="15">
         <v>1</v>
@@ -9846,13 +9843,13 @@
         <v>3500</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>6</v>
@@ -9890,20 +9887,20 @@
       </c>
       <c r="AD9" s="50"/>
       <c r="AE9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="AF9" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="AH9" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AI9" s="47"/>
     </row>
-    <row r="10" spans="1:35" s="15" customFormat="1">
+    <row r="10" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V10" s="47"/>
       <c r="W10" s="15" t="s">
         <v>38</v>
@@ -9921,7 +9918,7 @@
       <c r="AD10" s="50"/>
       <c r="AI10" s="47"/>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="W11" s="15" t="s">
         <v>37</v>
       </c>
@@ -9932,7 +9929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="15" customFormat="1">
+    <row r="12" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
@@ -9948,7 +9945,7 @@
       <c r="AD12" s="50"/>
       <c r="AI12" s="47"/>
     </row>
-    <row r="13" spans="1:35" s="15" customFormat="1">
+    <row r="13" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
@@ -9964,7 +9961,7 @@
       <c r="AD13" s="50"/>
       <c r="AI13" s="47"/>
     </row>
-    <row r="14" spans="1:35" s="56" customFormat="1">
+    <row r="14" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q14" s="57"/>
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
@@ -9979,15 +9976,15 @@
       <c r="AC14" s="57"/>
       <c r="AD14" s="57"/>
     </row>
-    <row r="15" spans="1:35" s="15" customFormat="1">
+    <row r="15" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="15">
         <v>0.8</v>
@@ -9996,10 +9993,10 @@
         <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J15" s="15">
         <v>20</v>
@@ -10008,66 +10005,66 @@
         <v>5</v>
       </c>
       <c r="M15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="O15" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="O15" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="P15" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q15" s="18" t="b">
         <v>1</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="50"/>
       <c r="W15" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z15" s="50"/>
       <c r="AA15" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AD15" s="50"/>
       <c r="AE15" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI15" s="47"/>
     </row>
-    <row r="16" spans="1:35" s="15" customFormat="1">
+    <row r="16" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" s="15">
         <v>0.9</v>
@@ -10079,7 +10076,7 @@
         <v>54</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="16" t="b">
         <v>1</v>
@@ -10100,7 +10097,7 @@
         <v>50</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z16" s="53"/>
       <c r="AA16" s="16" t="b">
@@ -10114,20 +10111,20 @@
       </c>
       <c r="AD16" s="50"/>
       <c r="AE16" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI16" s="47"/>
     </row>
-    <row r="17" spans="1:35" s="15" customFormat="1">
+    <row r="17" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
@@ -10141,7 +10138,7 @@
         <v>50</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z17" s="53"/>
       <c r="AA17" s="16" t="b">
@@ -10156,9 +10153,9 @@
       <c r="AD17" s="50"/>
       <c r="AI17" s="47"/>
     </row>
-    <row r="18" spans="1:35" s="15" customFormat="1">
+    <row r="18" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -10170,7 +10167,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="16" t="b">
         <v>1</v>
@@ -10206,7 +10203,7 @@
       <c r="AD18" s="50"/>
       <c r="AI18" s="47"/>
     </row>
-    <row r="19" spans="1:35" s="15" customFormat="1">
+    <row r="19" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V19" s="47"/>
       <c r="W19" s="15" t="s">
         <v>38</v>
@@ -10224,7 +10221,7 @@
       <c r="AD19" s="50"/>
       <c r="AI19" s="47"/>
     </row>
-    <row r="20" spans="1:35" s="15" customFormat="1">
+    <row r="20" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -10266,11 +10263,11 @@
       <c r="AH20"/>
       <c r="AI20" s="47"/>
     </row>
-    <row r="21" spans="1:35" s="15" customFormat="1">
+    <row r="21" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -10282,36 +10279,36 @@
         <v>2</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S21" s="15" t="b">
         <v>1</v>
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z21" s="47"/>
       <c r="AA21" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AB21" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AD21" s="47"/>
       <c r="AE21"/>
@@ -10320,7 +10317,7 @@
       <c r="AH21"/>
       <c r="AI21" s="47"/>
     </row>
-    <row r="22" spans="1:35" s="15" customFormat="1">
+    <row r="22" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
@@ -10336,9 +10333,9 @@
       <c r="AD22" s="50"/>
       <c r="AI22" s="47"/>
     </row>
-    <row r="23" spans="1:35" s="15" customFormat="1">
+    <row r="23" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="15">
         <v>0.9</v>
@@ -10350,22 +10347,22 @@
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q23" s="16" t="b">
         <v>1</v>
@@ -10388,17 +10385,17 @@
         <v>50</v>
       </c>
       <c r="Y23" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AD23" s="50"/>
       <c r="AE23" s="16" t="s">
@@ -10408,11 +10405,11 @@
         <v>50</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI23" s="47"/>
     </row>
-    <row r="24" spans="1:35" s="15" customFormat="1">
+    <row r="24" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
@@ -10426,17 +10423,17 @@
         <v>170</v>
       </c>
       <c r="Y24" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z24" s="53"/>
       <c r="AA24" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AD24" s="50"/>
       <c r="AE24" s="16" t="s">
@@ -10446,11 +10443,11 @@
         <v>50</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI24" s="47"/>
     </row>
-    <row r="25" spans="1:35" s="15" customFormat="1">
+    <row r="25" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
@@ -10466,7 +10463,7 @@
       <c r="AD25" s="50"/>
       <c r="AI25" s="47"/>
     </row>
-    <row r="26" spans="1:35" s="15" customFormat="1">
+    <row r="26" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
@@ -10482,7 +10479,7 @@
       <c r="AD26" s="50"/>
       <c r="AI26" s="47"/>
     </row>
-    <row r="27" spans="1:35" s="15" customFormat="1">
+    <row r="27" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
@@ -10498,7 +10495,7 @@
       <c r="AD27" s="50"/>
       <c r="AI27" s="47"/>
     </row>
-    <row r="28" spans="1:35" s="15" customFormat="1">
+    <row r="28" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
@@ -10514,7 +10511,7 @@
       <c r="AD28" s="50"/>
       <c r="AI28" s="47"/>
     </row>
-    <row r="29" spans="1:35" s="15" customFormat="1">
+    <row r="29" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
@@ -10530,7 +10527,7 @@
       <c r="AD29" s="50"/>
       <c r="AI29" s="47"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
   </sheetData>
@@ -10582,28 +10579,28 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>58</v>
@@ -10615,40 +10612,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -10660,10 +10657,10 @@
         <v>100000</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1</v>
       </c>
@@ -10674,7 +10671,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>4</v>
       </c>
@@ -10685,7 +10682,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>52</v>
       </c>
@@ -10697,77 +10694,77 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9">
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13">
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -10779,15 +10776,15 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16">
         <v>7000</v>
@@ -10806,14 +10803,14 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -10821,7 +10818,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
@@ -10833,231 +10830,231 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>210</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>211</v>
       </c>
       <c r="C4" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>210</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>211</v>
       </c>
       <c r="C5" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>210</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>211</v>
       </c>
       <c r="C6" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>210</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>211</v>
       </c>
       <c r="C7" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>210</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>211</v>
       </c>
       <c r="C8" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>210</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>211</v>
       </c>
       <c r="C9" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>210</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>211</v>
       </c>
       <c r="C10" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>210</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>211</v>
       </c>
       <c r="C11" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>210</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>211</v>
       </c>
       <c r="C12" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>210</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>211</v>
       </c>
       <c r="C13" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>210</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>211</v>
       </c>
       <c r="C14" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>210</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>211</v>
       </c>
       <c r="C15" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D15" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>224</v>
       </c>
       <c r="C16" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>225</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>226</v>
       </c>
       <c r="C17" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>225</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>226</v>
       </c>
       <c r="C18" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32" t="e">
@@ -11065,7 +11062,7 @@
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35" t="e">
@@ -11073,77 +11070,77 @@
       </c>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>228</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>229</v>
       </c>
       <c r="C22" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>228</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>229</v>
       </c>
       <c r="C23" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>228</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>229</v>
       </c>
       <c r="C24" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D24" s="32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>232</v>
       </c>
       <c r="C25" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D25" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="32" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>234</v>
       </c>
       <c r="C26" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35" t="e">
@@ -11151,91 +11148,91 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>235</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>236</v>
       </c>
       <c r="C28" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C29" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C30" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C31" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C32" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>240</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>241</v>
       </c>
       <c r="C33" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35" t="e">
@@ -11243,77 +11240,77 @@
       </c>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C35" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="32" t="s">
         <v>242</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>243</v>
       </c>
       <c r="C36" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>242</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>243</v>
       </c>
       <c r="C37" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D37" s="33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="32" t="s">
-        <v>246</v>
-      </c>
       <c r="B38" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C38" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C39" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37" t="e">
@@ -11321,7 +11318,7 @@
       </c>
       <c r="D40" s="38"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35" t="e">
@@ -11329,21 +11326,21 @@
       </c>
       <c r="D41" s="35"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C42" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35" t="e">
@@ -11351,231 +11348,231 @@
       </c>
       <c r="D43" s="35"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C44" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C45" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D45" s="33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="32" t="s">
-        <v>250</v>
-      </c>
       <c r="B46" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C46" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C47" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C48" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C49" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C50" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C51" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D51" s="33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="32" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="32" t="s">
-        <v>253</v>
-      </c>
       <c r="B52" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C52" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       